--- a/Data/konjunkturbarometern.xlsx
+++ b/Data/konjunkturbarometern.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="384">
   <si>
     <t xml:space="preserve">Indikator</t>
   </si>
@@ -1161,6 +1161,9 @@
   </si>
   <si>
     <t xml:space="preserve">Byggindustri (SNI 41-43)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-09</t>
   </si>
 </sst>
 </file>
@@ -1551,7 +1554,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>89.3</v>
+        <v>89.4</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -1568,7 +1571,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>91.4</v>
+        <v>91.5</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -1602,7 +1605,7 @@
         <v>17</v>
       </c>
       <c r="C7" t="n">
-        <v>91.5</v>
+        <v>91.6</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -1619,7 +1622,7 @@
         <v>19</v>
       </c>
       <c r="C8" t="n">
-        <v>93.6</v>
+        <v>93.7</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -1653,7 +1656,7 @@
         <v>24</v>
       </c>
       <c r="C10" t="n">
-        <v>96.4</v>
+        <v>96.5</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1670,7 +1673,7 @@
         <v>26</v>
       </c>
       <c r="C11" t="n">
-        <v>96.7</v>
+        <v>96.8</v>
       </c>
       <c r="D11" t="s">
         <v>20</v>
@@ -1704,7 +1707,7 @@
         <v>30</v>
       </c>
       <c r="C13" t="n">
-        <v>96.6</v>
+        <v>96.7</v>
       </c>
       <c r="D13" t="s">
         <v>20</v>
@@ -1721,7 +1724,7 @@
         <v>32</v>
       </c>
       <c r="C14" t="n">
-        <v>99</v>
+        <v>99.1</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1772,7 +1775,7 @@
         <v>35</v>
       </c>
       <c r="C17" t="n">
-        <v>104.2</v>
+        <v>104.3</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1857,7 +1860,7 @@
         <v>41</v>
       </c>
       <c r="C22" t="n">
-        <v>104.3</v>
+        <v>104.4</v>
       </c>
       <c r="D22" t="s">
         <v>39</v>
@@ -1891,7 +1894,7 @@
         <v>43</v>
       </c>
       <c r="C24" t="n">
-        <v>104.6</v>
+        <v>104.7</v>
       </c>
       <c r="D24" t="s">
         <v>39</v>
@@ -1908,7 +1911,7 @@
         <v>44</v>
       </c>
       <c r="C25" t="n">
-        <v>106.1</v>
+        <v>106.2</v>
       </c>
       <c r="D25" t="s">
         <v>39</v>
@@ -1925,7 +1928,7 @@
         <v>45</v>
       </c>
       <c r="C26" t="n">
-        <v>105.1</v>
+        <v>105.2</v>
       </c>
       <c r="D26" t="s">
         <v>39</v>
@@ -1942,7 +1945,7 @@
         <v>46</v>
       </c>
       <c r="C27" t="n">
-        <v>101</v>
+        <v>101.1</v>
       </c>
       <c r="D27" t="s">
         <v>39</v>
@@ -2435,7 +2438,7 @@
         <v>77</v>
       </c>
       <c r="C56" t="n">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="D56" t="s">
         <v>78</v>
@@ -2452,7 +2455,7 @@
         <v>79</v>
       </c>
       <c r="C57" t="n">
-        <v>96.5</v>
+        <v>96.6</v>
       </c>
       <c r="D57" t="s">
         <v>78</v>
@@ -2520,7 +2523,7 @@
         <v>83</v>
       </c>
       <c r="C61" t="n">
-        <v>88.2</v>
+        <v>88.3</v>
       </c>
       <c r="D61" t="s">
         <v>78</v>
@@ -2537,7 +2540,7 @@
         <v>84</v>
       </c>
       <c r="C62" t="n">
-        <v>84.2</v>
+        <v>84.3</v>
       </c>
       <c r="D62" t="s">
         <v>78</v>
@@ -2571,7 +2574,7 @@
         <v>86</v>
       </c>
       <c r="C64" t="n">
-        <v>85.7</v>
+        <v>85.8</v>
       </c>
       <c r="D64" t="s">
         <v>78</v>
@@ -2775,7 +2778,7 @@
         <v>99</v>
       </c>
       <c r="C76" t="n">
-        <v>92.1</v>
+        <v>92.2</v>
       </c>
       <c r="D76" t="s">
         <v>91</v>
@@ -2792,7 +2795,7 @@
         <v>100</v>
       </c>
       <c r="C77" t="n">
-        <v>87.6</v>
+        <v>87.7</v>
       </c>
       <c r="D77" t="s">
         <v>91</v>
@@ -2826,7 +2829,7 @@
         <v>102</v>
       </c>
       <c r="C79" t="n">
-        <v>90.8</v>
+        <v>90.9</v>
       </c>
       <c r="D79" t="s">
         <v>91</v>
@@ -2843,7 +2846,7 @@
         <v>103</v>
       </c>
       <c r="C80" t="n">
-        <v>88.5</v>
+        <v>88.6</v>
       </c>
       <c r="D80" t="s">
         <v>104</v>
@@ -2860,7 +2863,7 @@
         <v>105</v>
       </c>
       <c r="C81" t="n">
-        <v>94.3</v>
+        <v>94.4</v>
       </c>
       <c r="D81" t="s">
         <v>104</v>
@@ -2877,7 +2880,7 @@
         <v>106</v>
       </c>
       <c r="C82" t="n">
-        <v>91</v>
+        <v>91.1</v>
       </c>
       <c r="D82" t="s">
         <v>104</v>
@@ -2894,7 +2897,7 @@
         <v>107</v>
       </c>
       <c r="C83" t="n">
-        <v>87.6</v>
+        <v>87.7</v>
       </c>
       <c r="D83" t="s">
         <v>104</v>
@@ -2928,7 +2931,7 @@
         <v>109</v>
       </c>
       <c r="C85" t="n">
-        <v>86.8</v>
+        <v>86.9</v>
       </c>
       <c r="D85" t="s">
         <v>104</v>
@@ -2996,7 +2999,7 @@
         <v>113</v>
       </c>
       <c r="C89" t="n">
-        <v>90.5</v>
+        <v>90.6</v>
       </c>
       <c r="D89" t="s">
         <v>104</v>
@@ -3149,7 +3152,7 @@
         <v>123</v>
       </c>
       <c r="C98" t="n">
-        <v>101.5</v>
+        <v>101.6</v>
       </c>
       <c r="D98" t="s">
         <v>117</v>
@@ -3234,7 +3237,7 @@
         <v>128</v>
       </c>
       <c r="C103" t="n">
-        <v>101.7</v>
+        <v>101.8</v>
       </c>
       <c r="D103" t="s">
         <v>117</v>
@@ -3302,7 +3305,7 @@
         <v>133</v>
       </c>
       <c r="C107" t="n">
-        <v>98.2</v>
+        <v>98.3</v>
       </c>
       <c r="D107" t="s">
         <v>130</v>
@@ -3319,7 +3322,7 @@
         <v>134</v>
       </c>
       <c r="C108" t="n">
-        <v>98.1</v>
+        <v>98.2</v>
       </c>
       <c r="D108" t="s">
         <v>130</v>
@@ -3523,7 +3526,7 @@
         <v>147</v>
       </c>
       <c r="C120" t="n">
-        <v>107.3</v>
+        <v>107.4</v>
       </c>
       <c r="D120" t="s">
         <v>143</v>
@@ -3540,7 +3543,7 @@
         <v>148</v>
       </c>
       <c r="C121" t="n">
-        <v>108</v>
+        <v>108.1</v>
       </c>
       <c r="D121" t="s">
         <v>143</v>
@@ -3608,7 +3611,7 @@
         <v>152</v>
       </c>
       <c r="C125" t="n">
-        <v>109.6</v>
+        <v>109.7</v>
       </c>
       <c r="D125" t="s">
         <v>143</v>
@@ -3625,7 +3628,7 @@
         <v>153</v>
       </c>
       <c r="C126" t="n">
-        <v>111.6</v>
+        <v>111.7</v>
       </c>
       <c r="D126" t="s">
         <v>143</v>
@@ -3659,7 +3662,7 @@
         <v>155</v>
       </c>
       <c r="C128" t="n">
-        <v>110</v>
+        <v>110.1</v>
       </c>
       <c r="D128" t="s">
         <v>156</v>
@@ -3846,7 +3849,7 @@
         <v>167</v>
       </c>
       <c r="C139" t="n">
-        <v>106.8</v>
+        <v>106.9</v>
       </c>
       <c r="D139" t="s">
         <v>156</v>
@@ -3897,7 +3900,7 @@
         <v>171</v>
       </c>
       <c r="C142" t="n">
-        <v>102.8</v>
+        <v>102.9</v>
       </c>
       <c r="D142" t="s">
         <v>169</v>
@@ -3948,7 +3951,7 @@
         <v>174</v>
       </c>
       <c r="C145" t="n">
-        <v>93.5</v>
+        <v>93.6</v>
       </c>
       <c r="D145" t="s">
         <v>169</v>
@@ -3965,7 +3968,7 @@
         <v>175</v>
       </c>
       <c r="C146" t="n">
-        <v>89</v>
+        <v>89.1</v>
       </c>
       <c r="D146" t="s">
         <v>169</v>
@@ -3982,7 +3985,7 @@
         <v>176</v>
       </c>
       <c r="C147" t="n">
-        <v>86.7</v>
+        <v>86.8</v>
       </c>
       <c r="D147" t="s">
         <v>169</v>
@@ -4016,7 +4019,7 @@
         <v>178</v>
       </c>
       <c r="C149" t="n">
-        <v>82</v>
+        <v>82.1</v>
       </c>
       <c r="D149" t="s">
         <v>169</v>
@@ -4033,7 +4036,7 @@
         <v>179</v>
       </c>
       <c r="C150" t="n">
-        <v>73.5</v>
+        <v>73.6</v>
       </c>
       <c r="D150" t="s">
         <v>169</v>
@@ -4050,7 +4053,7 @@
         <v>180</v>
       </c>
       <c r="C151" t="n">
-        <v>70.8</v>
+        <v>70.9</v>
       </c>
       <c r="D151" t="s">
         <v>169</v>
@@ -4084,7 +4087,7 @@
         <v>183</v>
       </c>
       <c r="C153" t="n">
-        <v>72.7</v>
+        <v>72.8</v>
       </c>
       <c r="D153" t="s">
         <v>182</v>
@@ -4118,7 +4121,7 @@
         <v>185</v>
       </c>
       <c r="C155" t="n">
-        <v>69.3</v>
+        <v>69.4</v>
       </c>
       <c r="D155" t="s">
         <v>182</v>
@@ -4135,7 +4138,7 @@
         <v>186</v>
       </c>
       <c r="C156" t="n">
-        <v>74.6</v>
+        <v>74.7</v>
       </c>
       <c r="D156" t="s">
         <v>182</v>
@@ -4152,7 +4155,7 @@
         <v>187</v>
       </c>
       <c r="C157" t="n">
-        <v>76.6</v>
+        <v>76.7</v>
       </c>
       <c r="D157" t="s">
         <v>182</v>
@@ -4169,7 +4172,7 @@
         <v>188</v>
       </c>
       <c r="C158" t="n">
-        <v>83.7</v>
+        <v>83.8</v>
       </c>
       <c r="D158" t="s">
         <v>182</v>
@@ -4186,7 +4189,7 @@
         <v>189</v>
       </c>
       <c r="C159" t="n">
-        <v>87.3</v>
+        <v>87.4</v>
       </c>
       <c r="D159" t="s">
         <v>182</v>
@@ -4203,7 +4206,7 @@
         <v>190</v>
       </c>
       <c r="C160" t="n">
-        <v>88.8</v>
+        <v>88.9</v>
       </c>
       <c r="D160" t="s">
         <v>182</v>
@@ -4305,7 +4308,7 @@
         <v>197</v>
       </c>
       <c r="C166" t="n">
-        <v>81.7</v>
+        <v>81.6</v>
       </c>
       <c r="D166" t="s">
         <v>7</v>
@@ -4832,7 +4835,7 @@
         <v>51</v>
       </c>
       <c r="C197" t="n">
-        <v>89.5</v>
+        <v>89.4</v>
       </c>
       <c r="D197" t="s">
         <v>52</v>
@@ -4917,7 +4920,7 @@
         <v>57</v>
       </c>
       <c r="C202" t="n">
-        <v>98</v>
+        <v>97.9</v>
       </c>
       <c r="D202" t="s">
         <v>52</v>
@@ -5291,7 +5294,7 @@
         <v>81</v>
       </c>
       <c r="C224" t="n">
-        <v>87.8</v>
+        <v>87.7</v>
       </c>
       <c r="D224" t="s">
         <v>78</v>
@@ -5325,7 +5328,7 @@
         <v>83</v>
       </c>
       <c r="C226" t="n">
-        <v>85</v>
+        <v>84.9</v>
       </c>
       <c r="D226" t="s">
         <v>78</v>
@@ -5376,7 +5379,7 @@
         <v>86</v>
       </c>
       <c r="C229" t="n">
-        <v>86</v>
+        <v>85.9</v>
       </c>
       <c r="D229" t="s">
         <v>78</v>
@@ -5478,7 +5481,7 @@
         <v>93</v>
       </c>
       <c r="C235" t="n">
-        <v>91.7</v>
+        <v>91.6</v>
       </c>
       <c r="D235" t="s">
         <v>91</v>
@@ -5546,7 +5549,7 @@
         <v>97</v>
       </c>
       <c r="C239" t="n">
-        <v>93.6</v>
+        <v>93.5</v>
       </c>
       <c r="D239" t="s">
         <v>91</v>
@@ -5597,7 +5600,7 @@
         <v>100</v>
       </c>
       <c r="C242" t="n">
-        <v>92.4</v>
+        <v>92.3</v>
       </c>
       <c r="D242" t="s">
         <v>91</v>
@@ -5784,7 +5787,7 @@
         <v>112</v>
       </c>
       <c r="C253" t="n">
-        <v>89.3</v>
+        <v>89.2</v>
       </c>
       <c r="D253" t="s">
         <v>104</v>
@@ -5801,7 +5804,7 @@
         <v>113</v>
       </c>
       <c r="C254" t="n">
-        <v>92</v>
+        <v>91.9</v>
       </c>
       <c r="D254" t="s">
         <v>104</v>
@@ -6090,7 +6093,7 @@
         <v>132</v>
       </c>
       <c r="C271" t="n">
-        <v>94.4</v>
+        <v>94.3</v>
       </c>
       <c r="D271" t="s">
         <v>130</v>
@@ -6107,7 +6110,7 @@
         <v>133</v>
       </c>
       <c r="C272" t="n">
-        <v>90.4</v>
+        <v>90.3</v>
       </c>
       <c r="D272" t="s">
         <v>130</v>
@@ -6124,7 +6127,7 @@
         <v>134</v>
       </c>
       <c r="C273" t="n">
-        <v>93.4</v>
+        <v>93.3</v>
       </c>
       <c r="D273" t="s">
         <v>130</v>
@@ -6736,7 +6739,7 @@
         <v>173</v>
       </c>
       <c r="C309" t="n">
-        <v>96.9</v>
+        <v>96.8</v>
       </c>
       <c r="D309" t="s">
         <v>169</v>
@@ -6855,7 +6858,7 @@
         <v>180</v>
       </c>
       <c r="C316" t="n">
-        <v>72.2</v>
+        <v>72.1</v>
       </c>
       <c r="D316" t="s">
         <v>169</v>
@@ -7025,7 +7028,7 @@
         <v>191</v>
       </c>
       <c r="C326" t="n">
-        <v>92.1</v>
+        <v>92</v>
       </c>
       <c r="D326" t="s">
         <v>182</v>
@@ -7042,7 +7045,7 @@
         <v>6</v>
       </c>
       <c r="C327" t="n">
-        <v>83.5</v>
+        <v>83.6</v>
       </c>
       <c r="D327" t="s">
         <v>7</v>
@@ -7093,7 +7096,7 @@
         <v>13</v>
       </c>
       <c r="C330" t="n">
-        <v>91</v>
+        <v>91.1</v>
       </c>
       <c r="D330" t="s">
         <v>7</v>
@@ -7144,7 +7147,7 @@
         <v>19</v>
       </c>
       <c r="C333" t="n">
-        <v>94.9</v>
+        <v>95</v>
       </c>
       <c r="D333" t="s">
         <v>20</v>
@@ -7161,7 +7164,7 @@
         <v>22</v>
       </c>
       <c r="C334" t="n">
-        <v>93.1</v>
+        <v>93.2</v>
       </c>
       <c r="D334" t="s">
         <v>20</v>
@@ -7178,7 +7181,7 @@
         <v>24</v>
       </c>
       <c r="C335" t="n">
-        <v>97.6</v>
+        <v>97.7</v>
       </c>
       <c r="D335" t="s">
         <v>20</v>
@@ -7229,7 +7232,7 @@
         <v>30</v>
       </c>
       <c r="C338" t="n">
-        <v>101.3</v>
+        <v>101.4</v>
       </c>
       <c r="D338" t="s">
         <v>20</v>
@@ -7280,7 +7283,7 @@
         <v>34</v>
       </c>
       <c r="C341" t="n">
-        <v>94.6</v>
+        <v>94.7</v>
       </c>
       <c r="D341" t="s">
         <v>20</v>
@@ -7382,7 +7385,7 @@
         <v>41</v>
       </c>
       <c r="C347" t="n">
-        <v>97.8</v>
+        <v>97.9</v>
       </c>
       <c r="D347" t="s">
         <v>39</v>
@@ -7433,7 +7436,7 @@
         <v>44</v>
       </c>
       <c r="C350" t="n">
-        <v>96.9</v>
+        <v>97</v>
       </c>
       <c r="D350" t="s">
         <v>39</v>
@@ -7450,7 +7453,7 @@
         <v>45</v>
       </c>
       <c r="C351" t="n">
-        <v>95.8</v>
+        <v>95.9</v>
       </c>
       <c r="D351" t="s">
         <v>39</v>
@@ -7467,7 +7470,7 @@
         <v>46</v>
       </c>
       <c r="C352" t="n">
-        <v>94.7</v>
+        <v>94.8</v>
       </c>
       <c r="D352" t="s">
         <v>39</v>
@@ -7484,7 +7487,7 @@
         <v>47</v>
       </c>
       <c r="C353" t="n">
-        <v>94</v>
+        <v>94.1</v>
       </c>
       <c r="D353" t="s">
         <v>39</v>
@@ -7518,7 +7521,7 @@
         <v>49</v>
       </c>
       <c r="C355" t="n">
-        <v>95.5</v>
+        <v>95.6</v>
       </c>
       <c r="D355" t="s">
         <v>39</v>
@@ -7535,7 +7538,7 @@
         <v>50</v>
       </c>
       <c r="C356" t="n">
-        <v>93.8</v>
+        <v>93.9</v>
       </c>
       <c r="D356" t="s">
         <v>39</v>
@@ -7552,7 +7555,7 @@
         <v>51</v>
       </c>
       <c r="C357" t="n">
-        <v>98.4</v>
+        <v>98.5</v>
       </c>
       <c r="D357" t="s">
         <v>52</v>
@@ -7841,7 +7844,7 @@
         <v>70</v>
       </c>
       <c r="C374" t="n">
-        <v>113.3</v>
+        <v>113.4</v>
       </c>
       <c r="D374" t="s">
         <v>65</v>
@@ -7960,7 +7963,7 @@
         <v>77</v>
       </c>
       <c r="C381" t="n">
-        <v>95.7</v>
+        <v>95.8</v>
       </c>
       <c r="D381" t="s">
         <v>78</v>
@@ -8045,7 +8048,7 @@
         <v>83</v>
       </c>
       <c r="C386" t="n">
-        <v>86.3</v>
+        <v>86.4</v>
       </c>
       <c r="D386" t="s">
         <v>78</v>
@@ -8096,7 +8099,7 @@
         <v>86</v>
       </c>
       <c r="C389" t="n">
-        <v>83.6</v>
+        <v>83.7</v>
       </c>
       <c r="D389" t="s">
         <v>78</v>
@@ -8164,7 +8167,7 @@
         <v>90</v>
       </c>
       <c r="C393" t="n">
-        <v>99.4</v>
+        <v>99.5</v>
       </c>
       <c r="D393" t="s">
         <v>91</v>
@@ -8181,7 +8184,7 @@
         <v>92</v>
       </c>
       <c r="C394" t="n">
-        <v>97.7</v>
+        <v>97.8</v>
       </c>
       <c r="D394" t="s">
         <v>91</v>
@@ -8198,7 +8201,7 @@
         <v>93</v>
       </c>
       <c r="C395" t="n">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="D395" t="s">
         <v>91</v>
@@ -8215,7 +8218,7 @@
         <v>94</v>
       </c>
       <c r="C396" t="n">
-        <v>105.9</v>
+        <v>106</v>
       </c>
       <c r="D396" t="s">
         <v>91</v>
@@ -8368,7 +8371,7 @@
         <v>103</v>
       </c>
       <c r="C405" t="n">
-        <v>101.4</v>
+        <v>101.5</v>
       </c>
       <c r="D405" t="s">
         <v>104</v>
@@ -8402,7 +8405,7 @@
         <v>106</v>
       </c>
       <c r="C407" t="n">
-        <v>92.6</v>
+        <v>92.7</v>
       </c>
       <c r="D407" t="s">
         <v>104</v>
@@ -8419,7 +8422,7 @@
         <v>107</v>
       </c>
       <c r="C408" t="n">
-        <v>91.6</v>
+        <v>91.7</v>
       </c>
       <c r="D408" t="s">
         <v>104</v>
@@ -8470,7 +8473,7 @@
         <v>110</v>
       </c>
       <c r="C411" t="n">
-        <v>88.1</v>
+        <v>88.2</v>
       </c>
       <c r="D411" t="s">
         <v>104</v>
@@ -8487,7 +8490,7 @@
         <v>111</v>
       </c>
       <c r="C412" t="n">
-        <v>90.7</v>
+        <v>90.8</v>
       </c>
       <c r="D412" t="s">
         <v>104</v>
@@ -8504,7 +8507,7 @@
         <v>112</v>
       </c>
       <c r="C413" t="n">
-        <v>96.8</v>
+        <v>96.9</v>
       </c>
       <c r="D413" t="s">
         <v>104</v>
@@ -8538,7 +8541,7 @@
         <v>114</v>
       </c>
       <c r="C415" t="n">
-        <v>97.2</v>
+        <v>97.3</v>
       </c>
       <c r="D415" t="s">
         <v>104</v>
@@ -8555,7 +8558,7 @@
         <v>115</v>
       </c>
       <c r="C416" t="n">
-        <v>91.5</v>
+        <v>91.6</v>
       </c>
       <c r="D416" t="s">
         <v>104</v>
@@ -8572,7 +8575,7 @@
         <v>116</v>
       </c>
       <c r="C417" t="n">
-        <v>88.4</v>
+        <v>88.5</v>
       </c>
       <c r="D417" t="s">
         <v>117</v>
@@ -8589,7 +8592,7 @@
         <v>118</v>
       </c>
       <c r="C418" t="n">
-        <v>91.8</v>
+        <v>91.9</v>
       </c>
       <c r="D418" t="s">
         <v>117</v>
@@ -8606,7 +8609,7 @@
         <v>119</v>
       </c>
       <c r="C419" t="n">
-        <v>92.9</v>
+        <v>93</v>
       </c>
       <c r="D419" t="s">
         <v>117</v>
@@ -8623,7 +8626,7 @@
         <v>120</v>
       </c>
       <c r="C420" t="n">
-        <v>91.6</v>
+        <v>91.7</v>
       </c>
       <c r="D420" t="s">
         <v>117</v>
@@ -8674,7 +8677,7 @@
         <v>123</v>
       </c>
       <c r="C423" t="n">
-        <v>88.9</v>
+        <v>89</v>
       </c>
       <c r="D423" t="s">
         <v>117</v>
@@ -8691,7 +8694,7 @@
         <v>124</v>
       </c>
       <c r="C424" t="n">
-        <v>91.5</v>
+        <v>91.6</v>
       </c>
       <c r="D424" t="s">
         <v>117</v>
@@ -8708,7 +8711,7 @@
         <v>125</v>
       </c>
       <c r="C425" t="n">
-        <v>91.1</v>
+        <v>91.2</v>
       </c>
       <c r="D425" t="s">
         <v>117</v>
@@ -8725,7 +8728,7 @@
         <v>126</v>
       </c>
       <c r="C426" t="n">
-        <v>89.9</v>
+        <v>90</v>
       </c>
       <c r="D426" t="s">
         <v>117</v>
@@ -8742,7 +8745,7 @@
         <v>127</v>
       </c>
       <c r="C427" t="n">
-        <v>85.9</v>
+        <v>86</v>
       </c>
       <c r="D427" t="s">
         <v>117</v>
@@ -8793,7 +8796,7 @@
         <v>131</v>
       </c>
       <c r="C430" t="n">
-        <v>90.4</v>
+        <v>90.5</v>
       </c>
       <c r="D430" t="s">
         <v>130</v>
@@ -8827,7 +8830,7 @@
         <v>133</v>
       </c>
       <c r="C432" t="n">
-        <v>86.9</v>
+        <v>87</v>
       </c>
       <c r="D432" t="s">
         <v>130</v>
@@ -8861,7 +8864,7 @@
         <v>135</v>
       </c>
       <c r="C434" t="n">
-        <v>91.3</v>
+        <v>91.4</v>
       </c>
       <c r="D434" t="s">
         <v>130</v>
@@ -8912,7 +8915,7 @@
         <v>138</v>
       </c>
       <c r="C437" t="n">
-        <v>96.8</v>
+        <v>96.9</v>
       </c>
       <c r="D437" t="s">
         <v>130</v>
@@ -8929,7 +8932,7 @@
         <v>139</v>
       </c>
       <c r="C438" t="n">
-        <v>96.9</v>
+        <v>97</v>
       </c>
       <c r="D438" t="s">
         <v>130</v>
@@ -8946,7 +8949,7 @@
         <v>140</v>
       </c>
       <c r="C439" t="n">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="D439" t="s">
         <v>130</v>
@@ -9014,7 +9017,7 @@
         <v>145</v>
       </c>
       <c r="C443" t="n">
-        <v>109.7</v>
+        <v>109.8</v>
       </c>
       <c r="D443" t="s">
         <v>143</v>
@@ -9099,7 +9102,7 @@
         <v>150</v>
       </c>
       <c r="C448" t="n">
-        <v>103.2</v>
+        <v>103.3</v>
       </c>
       <c r="D448" t="s">
         <v>143</v>
@@ -9150,7 +9153,7 @@
         <v>153</v>
       </c>
       <c r="C451" t="n">
-        <v>111.6</v>
+        <v>111.7</v>
       </c>
       <c r="D451" t="s">
         <v>143</v>
@@ -9184,7 +9187,7 @@
         <v>155</v>
       </c>
       <c r="C453" t="n">
-        <v>111.1</v>
+        <v>111.2</v>
       </c>
       <c r="D453" t="s">
         <v>156</v>
@@ -9252,7 +9255,7 @@
         <v>160</v>
       </c>
       <c r="C457" t="n">
-        <v>110.9</v>
+        <v>111</v>
       </c>
       <c r="D457" t="s">
         <v>156</v>
@@ -9303,7 +9306,7 @@
         <v>163</v>
       </c>
       <c r="C460" t="n">
-        <v>111.7</v>
+        <v>111.8</v>
       </c>
       <c r="D460" t="s">
         <v>156</v>
@@ -9405,7 +9408,7 @@
         <v>170</v>
       </c>
       <c r="C466" t="n">
-        <v>101.4</v>
+        <v>101.5</v>
       </c>
       <c r="D466" t="s">
         <v>169</v>
@@ -9422,7 +9425,7 @@
         <v>171</v>
       </c>
       <c r="C467" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="D467" t="s">
         <v>169</v>
@@ -9439,7 +9442,7 @@
         <v>172</v>
       </c>
       <c r="C468" t="n">
-        <v>98.8</v>
+        <v>98.9</v>
       </c>
       <c r="D468" t="s">
         <v>169</v>
@@ -9456,7 +9459,7 @@
         <v>173</v>
       </c>
       <c r="C469" t="n">
-        <v>93.8</v>
+        <v>93.9</v>
       </c>
       <c r="D469" t="s">
         <v>169</v>
@@ -9490,7 +9493,7 @@
         <v>175</v>
       </c>
       <c r="C471" t="n">
-        <v>90.5</v>
+        <v>90.6</v>
       </c>
       <c r="D471" t="s">
         <v>169</v>
@@ -9507,7 +9510,7 @@
         <v>176</v>
       </c>
       <c r="C472" t="n">
-        <v>85.6</v>
+        <v>85.7</v>
       </c>
       <c r="D472" t="s">
         <v>169</v>
@@ -9541,7 +9544,7 @@
         <v>178</v>
       </c>
       <c r="C474" t="n">
-        <v>82.6</v>
+        <v>82.7</v>
       </c>
       <c r="D474" t="s">
         <v>169</v>
@@ -9558,7 +9561,7 @@
         <v>179</v>
       </c>
       <c r="C475" t="n">
-        <v>67</v>
+        <v>67.2</v>
       </c>
       <c r="D475" t="s">
         <v>169</v>
@@ -9575,7 +9578,7 @@
         <v>180</v>
       </c>
       <c r="C476" t="n">
-        <v>69.3</v>
+        <v>69.5</v>
       </c>
       <c r="D476" t="s">
         <v>169</v>
@@ -9592,7 +9595,7 @@
         <v>181</v>
       </c>
       <c r="C477" t="n">
-        <v>70</v>
+        <v>70.1</v>
       </c>
       <c r="D477" t="s">
         <v>182</v>
@@ -9609,7 +9612,7 @@
         <v>183</v>
       </c>
       <c r="C478" t="n">
-        <v>77.2</v>
+        <v>77.3</v>
       </c>
       <c r="D478" t="s">
         <v>182</v>
@@ -9626,7 +9629,7 @@
         <v>184</v>
       </c>
       <c r="C479" t="n">
-        <v>77.4</v>
+        <v>77.5</v>
       </c>
       <c r="D479" t="s">
         <v>182</v>
@@ -9643,7 +9646,7 @@
         <v>185</v>
       </c>
       <c r="C480" t="n">
-        <v>79.7</v>
+        <v>79.8</v>
       </c>
       <c r="D480" t="s">
         <v>182</v>
@@ -9660,7 +9663,7 @@
         <v>186</v>
       </c>
       <c r="C481" t="n">
-        <v>90.3</v>
+        <v>90.4</v>
       </c>
       <c r="D481" t="s">
         <v>182</v>
@@ -9677,7 +9680,7 @@
         <v>187</v>
       </c>
       <c r="C482" t="n">
-        <v>97.3</v>
+        <v>97.4</v>
       </c>
       <c r="D482" t="s">
         <v>182</v>
@@ -9694,7 +9697,7 @@
         <v>188</v>
       </c>
       <c r="C483" t="n">
-        <v>95.2</v>
+        <v>95.3</v>
       </c>
       <c r="D483" t="s">
         <v>182</v>
@@ -9728,7 +9731,7 @@
         <v>190</v>
       </c>
       <c r="C485" t="n">
-        <v>110.8</v>
+        <v>110.9</v>
       </c>
       <c r="D485" t="s">
         <v>182</v>
@@ -9779,7 +9782,7 @@
         <v>193</v>
       </c>
       <c r="C488" t="n">
-        <v>94.9</v>
+        <v>95</v>
       </c>
       <c r="D488" t="s">
         <v>7</v>
@@ -9796,7 +9799,7 @@
         <v>194</v>
       </c>
       <c r="C489" t="n">
-        <v>92.8</v>
+        <v>92.9</v>
       </c>
       <c r="D489" t="s">
         <v>7</v>
@@ -9813,7 +9816,7 @@
         <v>195</v>
       </c>
       <c r="C490" t="n">
-        <v>90.2</v>
+        <v>90.3</v>
       </c>
       <c r="D490" t="s">
         <v>7</v>
@@ -9830,7 +9833,7 @@
         <v>196</v>
       </c>
       <c r="C491" t="n">
-        <v>90.6</v>
+        <v>90.7</v>
       </c>
       <c r="D491" t="s">
         <v>7</v>
@@ -9847,7 +9850,7 @@
         <v>197</v>
       </c>
       <c r="C492" t="n">
-        <v>92.6</v>
+        <v>92.7</v>
       </c>
       <c r="D492" t="s">
         <v>7</v>
@@ -9864,7 +9867,7 @@
         <v>6</v>
       </c>
       <c r="C493" t="n">
-        <v>94</v>
+        <v>94.1</v>
       </c>
       <c r="D493" t="s">
         <v>7</v>
@@ -9881,7 +9884,7 @@
         <v>9</v>
       </c>
       <c r="C494" t="n">
-        <v>95.5</v>
+        <v>95.6</v>
       </c>
       <c r="D494" t="s">
         <v>7</v>
@@ -9898,7 +9901,7 @@
         <v>11</v>
       </c>
       <c r="C495" t="n">
-        <v>96.8</v>
+        <v>96.9</v>
       </c>
       <c r="D495" t="s">
         <v>7</v>
@@ -9932,7 +9935,7 @@
         <v>15</v>
       </c>
       <c r="C497" t="n">
-        <v>99.5</v>
+        <v>99.6</v>
       </c>
       <c r="D497" t="s">
         <v>7</v>
@@ -9966,7 +9969,7 @@
         <v>19</v>
       </c>
       <c r="C499" t="n">
-        <v>99.2</v>
+        <v>99.3</v>
       </c>
       <c r="D499" t="s">
         <v>20</v>
@@ -9983,7 +9986,7 @@
         <v>22</v>
       </c>
       <c r="C500" t="n">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="D500" t="s">
         <v>20</v>
@@ -10000,7 +10003,7 @@
         <v>24</v>
       </c>
       <c r="C501" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
       <c r="D501" t="s">
         <v>20</v>
@@ -10034,7 +10037,7 @@
         <v>28</v>
       </c>
       <c r="C503" t="n">
-        <v>100.4</v>
+        <v>100.5</v>
       </c>
       <c r="D503" t="s">
         <v>20</v>
@@ -10102,7 +10105,7 @@
         <v>34</v>
       </c>
       <c r="C507" t="n">
-        <v>104.4</v>
+        <v>104.5</v>
       </c>
       <c r="D507" t="s">
         <v>20</v>
@@ -10119,7 +10122,7 @@
         <v>35</v>
       </c>
       <c r="C508" t="n">
-        <v>107</v>
+        <v>107.1</v>
       </c>
       <c r="D508" t="s">
         <v>20</v>
@@ -10153,7 +10156,7 @@
         <v>37</v>
       </c>
       <c r="C510" t="n">
-        <v>107</v>
+        <v>107.1</v>
       </c>
       <c r="D510" t="s">
         <v>20</v>
@@ -10170,7 +10173,7 @@
         <v>38</v>
       </c>
       <c r="C511" t="n">
-        <v>106.3</v>
+        <v>106.4</v>
       </c>
       <c r="D511" t="s">
         <v>39</v>
@@ -10204,7 +10207,7 @@
         <v>41</v>
       </c>
       <c r="C513" t="n">
-        <v>106.4</v>
+        <v>106.5</v>
       </c>
       <c r="D513" t="s">
         <v>39</v>
@@ -10272,7 +10275,7 @@
         <v>45</v>
       </c>
       <c r="C517" t="n">
-        <v>104.7</v>
+        <v>104.8</v>
       </c>
       <c r="D517" t="s">
         <v>39</v>
@@ -10340,7 +10343,7 @@
         <v>49</v>
       </c>
       <c r="C521" t="n">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="D521" t="s">
         <v>39</v>
@@ -10357,7 +10360,7 @@
         <v>50</v>
       </c>
       <c r="C522" t="n">
-        <v>99.4</v>
+        <v>99.5</v>
       </c>
       <c r="D522" t="s">
         <v>39</v>
@@ -10408,7 +10411,7 @@
         <v>54</v>
       </c>
       <c r="C525" t="n">
-        <v>100.4</v>
+        <v>100.5</v>
       </c>
       <c r="D525" t="s">
         <v>52</v>
@@ -10425,7 +10428,7 @@
         <v>55</v>
       </c>
       <c r="C526" t="n">
-        <v>103.4</v>
+        <v>103.5</v>
       </c>
       <c r="D526" t="s">
         <v>52</v>
@@ -10476,7 +10479,7 @@
         <v>58</v>
       </c>
       <c r="C529" t="n">
-        <v>106.3</v>
+        <v>106.4</v>
       </c>
       <c r="D529" t="s">
         <v>52</v>
@@ -10493,7 +10496,7 @@
         <v>59</v>
       </c>
       <c r="C530" t="n">
-        <v>106.7</v>
+        <v>106.8</v>
       </c>
       <c r="D530" t="s">
         <v>52</v>
@@ -10510,7 +10513,7 @@
         <v>60</v>
       </c>
       <c r="C531" t="n">
-        <v>107.5</v>
+        <v>107.6</v>
       </c>
       <c r="D531" t="s">
         <v>52</v>
@@ -10527,7 +10530,7 @@
         <v>61</v>
       </c>
       <c r="C532" t="n">
-        <v>106.3</v>
+        <v>106.4</v>
       </c>
       <c r="D532" t="s">
         <v>52</v>
@@ -10578,7 +10581,7 @@
         <v>64</v>
       </c>
       <c r="C535" t="n">
-        <v>111.3</v>
+        <v>111.4</v>
       </c>
       <c r="D535" t="s">
         <v>65</v>
@@ -10595,7 +10598,7 @@
         <v>66</v>
       </c>
       <c r="C536" t="n">
-        <v>111.1</v>
+        <v>111.2</v>
       </c>
       <c r="D536" t="s">
         <v>65</v>
@@ -10612,7 +10615,7 @@
         <v>67</v>
       </c>
       <c r="C537" t="n">
-        <v>111.5</v>
+        <v>111.6</v>
       </c>
       <c r="D537" t="s">
         <v>65</v>
@@ -10697,7 +10700,7 @@
         <v>72</v>
       </c>
       <c r="C542" t="n">
-        <v>111.1</v>
+        <v>111.2</v>
       </c>
       <c r="D542" t="s">
         <v>65</v>
@@ -10748,7 +10751,7 @@
         <v>75</v>
       </c>
       <c r="C545" t="n">
-        <v>102.9</v>
+        <v>103</v>
       </c>
       <c r="D545" t="s">
         <v>65</v>
@@ -10765,7 +10768,7 @@
         <v>76</v>
       </c>
       <c r="C546" t="n">
-        <v>99.4</v>
+        <v>99.5</v>
       </c>
       <c r="D546" t="s">
         <v>65</v>
@@ -10782,7 +10785,7 @@
         <v>77</v>
       </c>
       <c r="C547" t="n">
-        <v>97.6</v>
+        <v>97.7</v>
       </c>
       <c r="D547" t="s">
         <v>78</v>
@@ -10816,7 +10819,7 @@
         <v>80</v>
       </c>
       <c r="C549" t="n">
-        <v>95.3</v>
+        <v>95.4</v>
       </c>
       <c r="D549" t="s">
         <v>78</v>
@@ -10850,7 +10853,7 @@
         <v>82</v>
       </c>
       <c r="C551" t="n">
-        <v>92.8</v>
+        <v>92.9</v>
       </c>
       <c r="D551" t="s">
         <v>78</v>
@@ -10884,7 +10887,7 @@
         <v>84</v>
       </c>
       <c r="C553" t="n">
-        <v>80.3</v>
+        <v>80.4</v>
       </c>
       <c r="D553" t="s">
         <v>78</v>
@@ -10918,7 +10921,7 @@
         <v>86</v>
       </c>
       <c r="C555" t="n">
-        <v>85.6</v>
+        <v>85.7</v>
       </c>
       <c r="D555" t="s">
         <v>78</v>
@@ -10952,7 +10955,7 @@
         <v>88</v>
       </c>
       <c r="C557" t="n">
-        <v>90.8</v>
+        <v>90.9</v>
       </c>
       <c r="D557" t="s">
         <v>78</v>
@@ -10969,7 +10972,7 @@
         <v>89</v>
       </c>
       <c r="C558" t="n">
-        <v>92</v>
+        <v>92.1</v>
       </c>
       <c r="D558" t="s">
         <v>78</v>
@@ -11020,7 +11023,7 @@
         <v>93</v>
       </c>
       <c r="C561" t="n">
-        <v>93.4</v>
+        <v>93.5</v>
       </c>
       <c r="D561" t="s">
         <v>91</v>
@@ -11037,7 +11040,7 @@
         <v>94</v>
       </c>
       <c r="C562" t="n">
-        <v>92.7</v>
+        <v>92.8</v>
       </c>
       <c r="D562" t="s">
         <v>91</v>
@@ -11071,7 +11074,7 @@
         <v>96</v>
       </c>
       <c r="C564" t="n">
-        <v>86.8</v>
+        <v>86.9</v>
       </c>
       <c r="D564" t="s">
         <v>91</v>
@@ -11088,7 +11091,7 @@
         <v>97</v>
       </c>
       <c r="C565" t="n">
-        <v>89.5</v>
+        <v>89.6</v>
       </c>
       <c r="D565" t="s">
         <v>91</v>
@@ -11105,7 +11108,7 @@
         <v>98</v>
       </c>
       <c r="C566" t="n">
-        <v>87.6</v>
+        <v>87.7</v>
       </c>
       <c r="D566" t="s">
         <v>91</v>
@@ -11122,7 +11125,7 @@
         <v>99</v>
       </c>
       <c r="C567" t="n">
-        <v>86.6</v>
+        <v>86.7</v>
       </c>
       <c r="D567" t="s">
         <v>91</v>
@@ -11156,7 +11159,7 @@
         <v>101</v>
       </c>
       <c r="C569" t="n">
-        <v>86.9</v>
+        <v>87</v>
       </c>
       <c r="D569" t="s">
         <v>91</v>
@@ -11173,7 +11176,7 @@
         <v>102</v>
       </c>
       <c r="C570" t="n">
-        <v>88.7</v>
+        <v>88.8</v>
       </c>
       <c r="D570" t="s">
         <v>91</v>
@@ -11190,7 +11193,7 @@
         <v>103</v>
       </c>
       <c r="C571" t="n">
-        <v>85.3</v>
+        <v>85.4</v>
       </c>
       <c r="D571" t="s">
         <v>104</v>
@@ -11224,7 +11227,7 @@
         <v>106</v>
       </c>
       <c r="C573" t="n">
-        <v>84.5</v>
+        <v>84.6</v>
       </c>
       <c r="D573" t="s">
         <v>104</v>
@@ -11241,7 +11244,7 @@
         <v>107</v>
       </c>
       <c r="C574" t="n">
-        <v>81.6</v>
+        <v>81.7</v>
       </c>
       <c r="D574" t="s">
         <v>104</v>
@@ -11258,7 +11261,7 @@
         <v>108</v>
       </c>
       <c r="C575" t="n">
-        <v>86.8</v>
+        <v>86.9</v>
       </c>
       <c r="D575" t="s">
         <v>104</v>
@@ -11275,7 +11278,7 @@
         <v>109</v>
       </c>
       <c r="C576" t="n">
-        <v>89</v>
+        <v>89.1</v>
       </c>
       <c r="D576" t="s">
         <v>104</v>
@@ -11309,7 +11312,7 @@
         <v>111</v>
       </c>
       <c r="C578" t="n">
-        <v>88.9</v>
+        <v>89</v>
       </c>
       <c r="D578" t="s">
         <v>104</v>
@@ -11343,7 +11346,7 @@
         <v>113</v>
       </c>
       <c r="C580" t="n">
-        <v>89.9</v>
+        <v>90</v>
       </c>
       <c r="D580" t="s">
         <v>104</v>
@@ -11411,7 +11414,7 @@
         <v>118</v>
       </c>
       <c r="C584" t="n">
-        <v>95.8</v>
+        <v>95.9</v>
       </c>
       <c r="D584" t="s">
         <v>117</v>
@@ -11428,7 +11431,7 @@
         <v>119</v>
       </c>
       <c r="C585" t="n">
-        <v>97</v>
+        <v>97.1</v>
       </c>
       <c r="D585" t="s">
         <v>117</v>
@@ -11479,7 +11482,7 @@
         <v>122</v>
       </c>
       <c r="C588" t="n">
-        <v>103.4</v>
+        <v>103.5</v>
       </c>
       <c r="D588" t="s">
         <v>117</v>
@@ -11530,7 +11533,7 @@
         <v>125</v>
       </c>
       <c r="C591" t="n">
-        <v>110.6</v>
+        <v>110.7</v>
       </c>
       <c r="D591" t="s">
         <v>117</v>
@@ -11547,7 +11550,7 @@
         <v>126</v>
       </c>
       <c r="C592" t="n">
-        <v>107.9</v>
+        <v>108</v>
       </c>
       <c r="D592" t="s">
         <v>117</v>
@@ -11564,7 +11567,7 @@
         <v>127</v>
       </c>
       <c r="C593" t="n">
-        <v>104.7</v>
+        <v>104.8</v>
       </c>
       <c r="D593" t="s">
         <v>117</v>
@@ -11717,7 +11720,7 @@
         <v>137</v>
       </c>
       <c r="C602" t="n">
-        <v>101.4</v>
+        <v>101.5</v>
       </c>
       <c r="D602" t="s">
         <v>130</v>
@@ -11734,7 +11737,7 @@
         <v>138</v>
       </c>
       <c r="C603" t="n">
-        <v>108.9</v>
+        <v>109</v>
       </c>
       <c r="D603" t="s">
         <v>130</v>
@@ -11819,7 +11822,7 @@
         <v>144</v>
       </c>
       <c r="C608" t="n">
-        <v>114.4</v>
+        <v>114.5</v>
       </c>
       <c r="D608" t="s">
         <v>143</v>
@@ -11836,7 +11839,7 @@
         <v>145</v>
       </c>
       <c r="C609" t="n">
-        <v>110.5</v>
+        <v>110.6</v>
       </c>
       <c r="D609" t="s">
         <v>143</v>
@@ -11853,7 +11856,7 @@
         <v>146</v>
       </c>
       <c r="C610" t="n">
-        <v>111.6</v>
+        <v>111.7</v>
       </c>
       <c r="D610" t="s">
         <v>143</v>
@@ -11870,7 +11873,7 @@
         <v>147</v>
       </c>
       <c r="C611" t="n">
-        <v>110.9</v>
+        <v>111</v>
       </c>
       <c r="D611" t="s">
         <v>143</v>
@@ -11887,7 +11890,7 @@
         <v>148</v>
       </c>
       <c r="C612" t="n">
-        <v>106.9</v>
+        <v>107</v>
       </c>
       <c r="D612" t="s">
         <v>143</v>
@@ -11921,7 +11924,7 @@
         <v>150</v>
       </c>
       <c r="C614" t="n">
-        <v>110</v>
+        <v>110.1</v>
       </c>
       <c r="D614" t="s">
         <v>143</v>
@@ -12176,7 +12179,7 @@
         <v>166</v>
       </c>
       <c r="C629" t="n">
-        <v>107.1</v>
+        <v>107.2</v>
       </c>
       <c r="D629" t="s">
         <v>156</v>
@@ -12210,7 +12213,7 @@
         <v>168</v>
       </c>
       <c r="C631" t="n">
-        <v>102.7</v>
+        <v>102.8</v>
       </c>
       <c r="D631" t="s">
         <v>169</v>
@@ -12227,7 +12230,7 @@
         <v>170</v>
       </c>
       <c r="C632" t="n">
-        <v>101.9</v>
+        <v>102</v>
       </c>
       <c r="D632" t="s">
         <v>169</v>
@@ -12261,7 +12264,7 @@
         <v>172</v>
       </c>
       <c r="C634" t="n">
-        <v>104.1</v>
+        <v>104.2</v>
       </c>
       <c r="D634" t="s">
         <v>169</v>
@@ -12295,7 +12298,7 @@
         <v>174</v>
       </c>
       <c r="C636" t="n">
-        <v>101.9</v>
+        <v>102</v>
       </c>
       <c r="D636" t="s">
         <v>169</v>
@@ -12312,7 +12315,7 @@
         <v>175</v>
       </c>
       <c r="C637" t="n">
-        <v>95.8</v>
+        <v>95.9</v>
       </c>
       <c r="D637" t="s">
         <v>169</v>
@@ -12329,7 +12332,7 @@
         <v>176</v>
       </c>
       <c r="C638" t="n">
-        <v>92.2</v>
+        <v>92.3</v>
       </c>
       <c r="D638" t="s">
         <v>169</v>
@@ -12346,7 +12349,7 @@
         <v>177</v>
       </c>
       <c r="C639" t="n">
-        <v>93.2</v>
+        <v>93.3</v>
       </c>
       <c r="D639" t="s">
         <v>169</v>
@@ -12363,7 +12366,7 @@
         <v>178</v>
       </c>
       <c r="C640" t="n">
-        <v>87</v>
+        <v>87.1</v>
       </c>
       <c r="D640" t="s">
         <v>169</v>
@@ -12380,7 +12383,7 @@
         <v>179</v>
       </c>
       <c r="C641" t="n">
-        <v>76.7</v>
+        <v>76.8</v>
       </c>
       <c r="D641" t="s">
         <v>169</v>
@@ -12397,7 +12400,7 @@
         <v>180</v>
       </c>
       <c r="C642" t="n">
-        <v>76.1</v>
+        <v>76.2</v>
       </c>
       <c r="D642" t="s">
         <v>169</v>
@@ -12414,7 +12417,7 @@
         <v>181</v>
       </c>
       <c r="C643" t="n">
-        <v>76.5</v>
+        <v>76.6</v>
       </c>
       <c r="D643" t="s">
         <v>182</v>
@@ -12431,7 +12434,7 @@
         <v>183</v>
       </c>
       <c r="C644" t="n">
-        <v>73.8</v>
+        <v>73.9</v>
       </c>
       <c r="D644" t="s">
         <v>182</v>
@@ -12448,7 +12451,7 @@
         <v>184</v>
       </c>
       <c r="C645" t="n">
-        <v>74.2</v>
+        <v>74.3</v>
       </c>
       <c r="D645" t="s">
         <v>182</v>
@@ -12465,7 +12468,7 @@
         <v>185</v>
       </c>
       <c r="C646" t="n">
-        <v>73</v>
+        <v>73.1</v>
       </c>
       <c r="D646" t="s">
         <v>182</v>
@@ -12499,7 +12502,7 @@
         <v>187</v>
       </c>
       <c r="C648" t="n">
-        <v>77.7</v>
+        <v>77.8</v>
       </c>
       <c r="D648" t="s">
         <v>182</v>
@@ -12516,7 +12519,7 @@
         <v>188</v>
       </c>
       <c r="C649" t="n">
-        <v>81.2</v>
+        <v>81.3</v>
       </c>
       <c r="D649" t="s">
         <v>182</v>
@@ -12584,7 +12587,7 @@
         <v>200</v>
       </c>
       <c r="C653" t="n">
-        <v>87.2</v>
+        <v>87.4</v>
       </c>
       <c r="D653" t="s">
         <v>7</v>
@@ -12601,7 +12604,7 @@
         <v>193</v>
       </c>
       <c r="C654" t="n">
-        <v>88.5</v>
+        <v>88.8</v>
       </c>
       <c r="D654" t="s">
         <v>7</v>
@@ -12618,7 +12621,7 @@
         <v>194</v>
       </c>
       <c r="C655" t="n">
-        <v>88.1</v>
+        <v>88.3</v>
       </c>
       <c r="D655" t="s">
         <v>7</v>
@@ -12635,7 +12638,7 @@
         <v>195</v>
       </c>
       <c r="C656" t="n">
-        <v>87.6</v>
+        <v>87.8</v>
       </c>
       <c r="D656" t="s">
         <v>7</v>
@@ -12652,7 +12655,7 @@
         <v>196</v>
       </c>
       <c r="C657" t="n">
-        <v>88</v>
+        <v>88.2</v>
       </c>
       <c r="D657" t="s">
         <v>7</v>
@@ -12669,7 +12672,7 @@
         <v>197</v>
       </c>
       <c r="C658" t="n">
-        <v>88.5</v>
+        <v>88.7</v>
       </c>
       <c r="D658" t="s">
         <v>7</v>
@@ -12686,7 +12689,7 @@
         <v>6</v>
       </c>
       <c r="C659" t="n">
-        <v>87.1</v>
+        <v>87.3</v>
       </c>
       <c r="D659" t="s">
         <v>7</v>
@@ -12703,7 +12706,7 @@
         <v>9</v>
       </c>
       <c r="C660" t="n">
-        <v>91.7</v>
+        <v>91.9</v>
       </c>
       <c r="D660" t="s">
         <v>7</v>
@@ -12720,7 +12723,7 @@
         <v>11</v>
       </c>
       <c r="C661" t="n">
-        <v>92.5</v>
+        <v>92.7</v>
       </c>
       <c r="D661" t="s">
         <v>7</v>
@@ -12737,7 +12740,7 @@
         <v>13</v>
       </c>
       <c r="C662" t="n">
-        <v>89.3</v>
+        <v>89.5</v>
       </c>
       <c r="D662" t="s">
         <v>7</v>
@@ -12754,7 +12757,7 @@
         <v>15</v>
       </c>
       <c r="C663" t="n">
-        <v>90.2</v>
+        <v>90.4</v>
       </c>
       <c r="D663" t="s">
         <v>7</v>
@@ -12771,7 +12774,7 @@
         <v>17</v>
       </c>
       <c r="C664" t="n">
-        <v>90.9</v>
+        <v>91.1</v>
       </c>
       <c r="D664" t="s">
         <v>7</v>
@@ -12788,7 +12791,7 @@
         <v>19</v>
       </c>
       <c r="C665" t="n">
-        <v>89.8</v>
+        <v>90</v>
       </c>
       <c r="D665" t="s">
         <v>20</v>
@@ -12805,7 +12808,7 @@
         <v>22</v>
       </c>
       <c r="C666" t="n">
-        <v>91.8</v>
+        <v>92</v>
       </c>
       <c r="D666" t="s">
         <v>20</v>
@@ -12822,7 +12825,7 @@
         <v>24</v>
       </c>
       <c r="C667" t="n">
-        <v>94.4</v>
+        <v>94.5</v>
       </c>
       <c r="D667" t="s">
         <v>20</v>
@@ -12839,7 +12842,7 @@
         <v>26</v>
       </c>
       <c r="C668" t="n">
-        <v>95.8</v>
+        <v>96</v>
       </c>
       <c r="D668" t="s">
         <v>20</v>
@@ -12856,7 +12859,7 @@
         <v>28</v>
       </c>
       <c r="C669" t="n">
-        <v>97.2</v>
+        <v>97.4</v>
       </c>
       <c r="D669" t="s">
         <v>20</v>
@@ -12873,7 +12876,7 @@
         <v>30</v>
       </c>
       <c r="C670" t="n">
-        <v>97.3</v>
+        <v>97.4</v>
       </c>
       <c r="D670" t="s">
         <v>20</v>
@@ -12890,7 +12893,7 @@
         <v>32</v>
       </c>
       <c r="C671" t="n">
-        <v>98.6</v>
+        <v>98.8</v>
       </c>
       <c r="D671" t="s">
         <v>20</v>
@@ -12907,7 +12910,7 @@
         <v>33</v>
       </c>
       <c r="C672" t="n">
-        <v>97.8</v>
+        <v>97.9</v>
       </c>
       <c r="D672" t="s">
         <v>20</v>
@@ -12924,7 +12927,7 @@
         <v>34</v>
       </c>
       <c r="C673" t="n">
-        <v>100.4</v>
+        <v>100.5</v>
       </c>
       <c r="D673" t="s">
         <v>20</v>
@@ -12958,7 +12961,7 @@
         <v>36</v>
       </c>
       <c r="C675" t="n">
-        <v>102.8</v>
+        <v>102.9</v>
       </c>
       <c r="D675" t="s">
         <v>20</v>
@@ -12992,7 +12995,7 @@
         <v>38</v>
       </c>
       <c r="C677" t="n">
-        <v>105.4</v>
+        <v>105.5</v>
       </c>
       <c r="D677" t="s">
         <v>39</v>
@@ -13026,7 +13029,7 @@
         <v>41</v>
       </c>
       <c r="C679" t="n">
-        <v>103.6</v>
+        <v>103.7</v>
       </c>
       <c r="D679" t="s">
         <v>39</v>
@@ -13043,7 +13046,7 @@
         <v>42</v>
       </c>
       <c r="C680" t="n">
-        <v>105.7</v>
+        <v>105.8</v>
       </c>
       <c r="D680" t="s">
         <v>39</v>
@@ -13111,7 +13114,7 @@
         <v>46</v>
       </c>
       <c r="C684" t="n">
-        <v>105</v>
+        <v>105.1</v>
       </c>
       <c r="D684" t="s">
         <v>39</v>
@@ -13145,7 +13148,7 @@
         <v>48</v>
       </c>
       <c r="C686" t="n">
-        <v>105.7</v>
+        <v>105.8</v>
       </c>
       <c r="D686" t="s">
         <v>39</v>
@@ -13315,7 +13318,7 @@
         <v>59</v>
       </c>
       <c r="C696" t="n">
-        <v>113.2</v>
+        <v>113.1</v>
       </c>
       <c r="D696" t="s">
         <v>52</v>
@@ -13349,7 +13352,7 @@
         <v>61</v>
       </c>
       <c r="C698" t="n">
-        <v>114.4</v>
+        <v>114.3</v>
       </c>
       <c r="D698" t="s">
         <v>52</v>
@@ -13383,7 +13386,7 @@
         <v>63</v>
       </c>
       <c r="C700" t="n">
-        <v>115.1</v>
+        <v>115</v>
       </c>
       <c r="D700" t="s">
         <v>52</v>
@@ -13417,7 +13420,7 @@
         <v>66</v>
       </c>
       <c r="C702" t="n">
-        <v>118.2</v>
+        <v>118.1</v>
       </c>
       <c r="D702" t="s">
         <v>65</v>
@@ -13434,7 +13437,7 @@
         <v>67</v>
       </c>
       <c r="C703" t="n">
-        <v>119.3</v>
+        <v>119.2</v>
       </c>
       <c r="D703" t="s">
         <v>65</v>
@@ -13451,7 +13454,7 @@
         <v>68</v>
       </c>
       <c r="C704" t="n">
-        <v>118.7</v>
+        <v>118.6</v>
       </c>
       <c r="D704" t="s">
         <v>65</v>
@@ -13485,7 +13488,7 @@
         <v>70</v>
       </c>
       <c r="C706" t="n">
-        <v>115.9</v>
+        <v>115.8</v>
       </c>
       <c r="D706" t="s">
         <v>65</v>
@@ -13502,7 +13505,7 @@
         <v>71</v>
       </c>
       <c r="C707" t="n">
-        <v>115.5</v>
+        <v>115.4</v>
       </c>
       <c r="D707" t="s">
         <v>65</v>
@@ -13519,7 +13522,7 @@
         <v>72</v>
       </c>
       <c r="C708" t="n">
-        <v>117.5</v>
+        <v>117.4</v>
       </c>
       <c r="D708" t="s">
         <v>65</v>
@@ -13536,7 +13539,7 @@
         <v>73</v>
       </c>
       <c r="C709" t="n">
-        <v>114.9</v>
+        <v>114.8</v>
       </c>
       <c r="D709" t="s">
         <v>65</v>
@@ -13553,7 +13556,7 @@
         <v>74</v>
       </c>
       <c r="C710" t="n">
-        <v>116</v>
+        <v>115.9</v>
       </c>
       <c r="D710" t="s">
         <v>65</v>
@@ -13570,7 +13573,7 @@
         <v>75</v>
       </c>
       <c r="C711" t="n">
-        <v>114.8</v>
+        <v>114.7</v>
       </c>
       <c r="D711" t="s">
         <v>65</v>
@@ -13655,7 +13658,7 @@
         <v>81</v>
       </c>
       <c r="C716" t="n">
-        <v>103</v>
+        <v>103.1</v>
       </c>
       <c r="D716" t="s">
         <v>78</v>
@@ -13689,7 +13692,7 @@
         <v>83</v>
       </c>
       <c r="C718" t="n">
-        <v>102.7</v>
+        <v>102.8</v>
       </c>
       <c r="D718" t="s">
         <v>78</v>
@@ -13723,7 +13726,7 @@
         <v>85</v>
       </c>
       <c r="C720" t="n">
-        <v>100.6</v>
+        <v>100.7</v>
       </c>
       <c r="D720" t="s">
         <v>78</v>
@@ -13740,7 +13743,7 @@
         <v>86</v>
       </c>
       <c r="C721" t="n">
-        <v>97.3</v>
+        <v>97.4</v>
       </c>
       <c r="D721" t="s">
         <v>78</v>
@@ -13757,7 +13760,7 @@
         <v>87</v>
       </c>
       <c r="C722" t="n">
-        <v>98.8</v>
+        <v>98.9</v>
       </c>
       <c r="D722" t="s">
         <v>78</v>
@@ -13791,7 +13794,7 @@
         <v>89</v>
       </c>
       <c r="C724" t="n">
-        <v>101.2</v>
+        <v>101.3</v>
       </c>
       <c r="D724" t="s">
         <v>78</v>
@@ -13808,7 +13811,7 @@
         <v>90</v>
       </c>
       <c r="C725" t="n">
-        <v>99.6</v>
+        <v>99.7</v>
       </c>
       <c r="D725" t="s">
         <v>91</v>
@@ -13859,7 +13862,7 @@
         <v>94</v>
       </c>
       <c r="C728" t="n">
-        <v>105.5</v>
+        <v>105.6</v>
       </c>
       <c r="D728" t="s">
         <v>91</v>
@@ -13893,7 +13896,7 @@
         <v>96</v>
       </c>
       <c r="C730" t="n">
-        <v>103.6</v>
+        <v>103.7</v>
       </c>
       <c r="D730" t="s">
         <v>91</v>
@@ -13910,7 +13913,7 @@
         <v>97</v>
       </c>
       <c r="C731" t="n">
-        <v>104.2</v>
+        <v>104.3</v>
       </c>
       <c r="D731" t="s">
         <v>91</v>
@@ -13927,7 +13930,7 @@
         <v>98</v>
       </c>
       <c r="C732" t="n">
-        <v>101.1</v>
+        <v>101.2</v>
       </c>
       <c r="D732" t="s">
         <v>91</v>
@@ -13944,7 +13947,7 @@
         <v>99</v>
       </c>
       <c r="C733" t="n">
-        <v>101.5</v>
+        <v>101.6</v>
       </c>
       <c r="D733" t="s">
         <v>91</v>
@@ -13961,7 +13964,7 @@
         <v>100</v>
       </c>
       <c r="C734" t="n">
-        <v>98.9</v>
+        <v>99</v>
       </c>
       <c r="D734" t="s">
         <v>91</v>
@@ -13978,7 +13981,7 @@
         <v>101</v>
       </c>
       <c r="C735" t="n">
-        <v>99.4</v>
+        <v>99.5</v>
       </c>
       <c r="D735" t="s">
         <v>91</v>
@@ -13995,7 +13998,7 @@
         <v>102</v>
       </c>
       <c r="C736" t="n">
-        <v>98</v>
+        <v>98.1</v>
       </c>
       <c r="D736" t="s">
         <v>91</v>
@@ -14012,7 +14015,7 @@
         <v>103</v>
       </c>
       <c r="C737" t="n">
-        <v>95.3</v>
+        <v>95.4</v>
       </c>
       <c r="D737" t="s">
         <v>104</v>
@@ -14029,7 +14032,7 @@
         <v>105</v>
       </c>
       <c r="C738" t="n">
-        <v>96.1</v>
+        <v>96.2</v>
       </c>
       <c r="D738" t="s">
         <v>104</v>
@@ -14046,7 +14049,7 @@
         <v>106</v>
       </c>
       <c r="C739" t="n">
-        <v>93.2</v>
+        <v>93.4</v>
       </c>
       <c r="D739" t="s">
         <v>104</v>
@@ -14063,7 +14066,7 @@
         <v>107</v>
       </c>
       <c r="C740" t="n">
-        <v>93.8</v>
+        <v>94</v>
       </c>
       <c r="D740" t="s">
         <v>104</v>
@@ -14080,7 +14083,7 @@
         <v>108</v>
       </c>
       <c r="C741" t="n">
-        <v>95.5</v>
+        <v>95.7</v>
       </c>
       <c r="D741" t="s">
         <v>104</v>
@@ -14097,7 +14100,7 @@
         <v>109</v>
       </c>
       <c r="C742" t="n">
-        <v>97.1</v>
+        <v>97.2</v>
       </c>
       <c r="D742" t="s">
         <v>104</v>
@@ -14165,7 +14168,7 @@
         <v>113</v>
       </c>
       <c r="C746" t="n">
-        <v>100.6</v>
+        <v>100.7</v>
       </c>
       <c r="D746" t="s">
         <v>104</v>
@@ -14182,7 +14185,7 @@
         <v>114</v>
       </c>
       <c r="C747" t="n">
-        <v>96.1</v>
+        <v>96.2</v>
       </c>
       <c r="D747" t="s">
         <v>104</v>
@@ -14199,7 +14202,7 @@
         <v>115</v>
       </c>
       <c r="C748" t="n">
-        <v>97</v>
+        <v>97.1</v>
       </c>
       <c r="D748" t="s">
         <v>104</v>
@@ -14216,7 +14219,7 @@
         <v>116</v>
       </c>
       <c r="C749" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
       <c r="D749" t="s">
         <v>117</v>
@@ -14250,7 +14253,7 @@
         <v>119</v>
       </c>
       <c r="C751" t="n">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="D751" t="s">
         <v>117</v>
@@ -14267,7 +14270,7 @@
         <v>120</v>
       </c>
       <c r="C752" t="n">
-        <v>103.7</v>
+        <v>103.8</v>
       </c>
       <c r="D752" t="s">
         <v>117</v>
@@ -14318,7 +14321,7 @@
         <v>123</v>
       </c>
       <c r="C755" t="n">
-        <v>100.7</v>
+        <v>100.8</v>
       </c>
       <c r="D755" t="s">
         <v>117</v>
@@ -14335,7 +14338,7 @@
         <v>124</v>
       </c>
       <c r="C756" t="n">
-        <v>102.2</v>
+        <v>102.3</v>
       </c>
       <c r="D756" t="s">
         <v>117</v>
@@ -14420,7 +14423,7 @@
         <v>129</v>
       </c>
       <c r="C761" t="n">
-        <v>104.9</v>
+        <v>105</v>
       </c>
       <c r="D761" t="s">
         <v>130</v>
@@ -14471,7 +14474,7 @@
         <v>133</v>
       </c>
       <c r="C764" t="n">
-        <v>101.2</v>
+        <v>101.3</v>
       </c>
       <c r="D764" t="s">
         <v>130</v>
@@ -14488,7 +14491,7 @@
         <v>134</v>
       </c>
       <c r="C765" t="n">
-        <v>102.3</v>
+        <v>102.4</v>
       </c>
       <c r="D765" t="s">
         <v>130</v>
@@ -14641,7 +14644,7 @@
         <v>144</v>
       </c>
       <c r="C774" t="n">
-        <v>108.7</v>
+        <v>108.6</v>
       </c>
       <c r="D774" t="s">
         <v>143</v>
@@ -14658,7 +14661,7 @@
         <v>145</v>
       </c>
       <c r="C775" t="n">
-        <v>107.6</v>
+        <v>107.5</v>
       </c>
       <c r="D775" t="s">
         <v>143</v>
@@ -14692,7 +14695,7 @@
         <v>147</v>
       </c>
       <c r="C777" t="n">
-        <v>110.1</v>
+        <v>110</v>
       </c>
       <c r="D777" t="s">
         <v>143</v>
@@ -14879,7 +14882,7 @@
         <v>159</v>
       </c>
       <c r="C788" t="n">
-        <v>112.4</v>
+        <v>112.3</v>
       </c>
       <c r="D788" t="s">
         <v>156</v>
@@ -14896,7 +14899,7 @@
         <v>160</v>
       </c>
       <c r="C789" t="n">
-        <v>108.2</v>
+        <v>108.1</v>
       </c>
       <c r="D789" t="s">
         <v>156</v>
@@ -14913,7 +14916,7 @@
         <v>161</v>
       </c>
       <c r="C790" t="n">
-        <v>110.8</v>
+        <v>110.7</v>
       </c>
       <c r="D790" t="s">
         <v>156</v>
@@ -14930,7 +14933,7 @@
         <v>162</v>
       </c>
       <c r="C791" t="n">
-        <v>110.4</v>
+        <v>110.3</v>
       </c>
       <c r="D791" t="s">
         <v>156</v>
@@ -14947,7 +14950,7 @@
         <v>163</v>
       </c>
       <c r="C792" t="n">
-        <v>108.2</v>
+        <v>108.1</v>
       </c>
       <c r="D792" t="s">
         <v>156</v>
@@ -15049,7 +15052,7 @@
         <v>170</v>
       </c>
       <c r="C798" t="n">
-        <v>98.2</v>
+        <v>98.3</v>
       </c>
       <c r="D798" t="s">
         <v>169</v>
@@ -15066,7 +15069,7 @@
         <v>171</v>
       </c>
       <c r="C799" t="n">
-        <v>99.5</v>
+        <v>99.6</v>
       </c>
       <c r="D799" t="s">
         <v>169</v>
@@ -15083,7 +15086,7 @@
         <v>172</v>
       </c>
       <c r="C800" t="n">
-        <v>97.7</v>
+        <v>97.8</v>
       </c>
       <c r="D800" t="s">
         <v>169</v>
@@ -15100,7 +15103,7 @@
         <v>173</v>
       </c>
       <c r="C801" t="n">
-        <v>95</v>
+        <v>95.1</v>
       </c>
       <c r="D801" t="s">
         <v>169</v>
@@ -15117,7 +15120,7 @@
         <v>174</v>
       </c>
       <c r="C802" t="n">
-        <v>89.2</v>
+        <v>89.4</v>
       </c>
       <c r="D802" t="s">
         <v>169</v>
@@ -15134,7 +15137,7 @@
         <v>175</v>
       </c>
       <c r="C803" t="n">
-        <v>83.1</v>
+        <v>83.4</v>
       </c>
       <c r="D803" t="s">
         <v>169</v>
@@ -15151,7 +15154,7 @@
         <v>176</v>
       </c>
       <c r="C804" t="n">
-        <v>85.5</v>
+        <v>85.8</v>
       </c>
       <c r="D804" t="s">
         <v>169</v>
@@ -15168,7 +15171,7 @@
         <v>177</v>
       </c>
       <c r="C805" t="n">
-        <v>87.6</v>
+        <v>87.9</v>
       </c>
       <c r="D805" t="s">
         <v>169</v>
@@ -15185,7 +15188,7 @@
         <v>178</v>
       </c>
       <c r="C806" t="n">
-        <v>80.4</v>
+        <v>80.7</v>
       </c>
       <c r="D806" t="s">
         <v>169</v>
@@ -15202,7 +15205,7 @@
         <v>179</v>
       </c>
       <c r="C807" t="n">
-        <v>81.2</v>
+        <v>81.6</v>
       </c>
       <c r="D807" t="s">
         <v>169</v>
@@ -15219,7 +15222,7 @@
         <v>180</v>
       </c>
       <c r="C808" t="n">
-        <v>83.7</v>
+        <v>84</v>
       </c>
       <c r="D808" t="s">
         <v>169</v>
@@ -15236,7 +15239,7 @@
         <v>181</v>
       </c>
       <c r="C809" t="n">
-        <v>88</v>
+        <v>88.2</v>
       </c>
       <c r="D809" t="s">
         <v>182</v>
@@ -15253,7 +15256,7 @@
         <v>183</v>
       </c>
       <c r="C810" t="n">
-        <v>87.8</v>
+        <v>88</v>
       </c>
       <c r="D810" t="s">
         <v>182</v>
@@ -15270,7 +15273,7 @@
         <v>184</v>
       </c>
       <c r="C811" t="n">
-        <v>87.4</v>
+        <v>87.6</v>
       </c>
       <c r="D811" t="s">
         <v>182</v>
@@ -15287,7 +15290,7 @@
         <v>185</v>
       </c>
       <c r="C812" t="n">
-        <v>83.2</v>
+        <v>83.5</v>
       </c>
       <c r="D812" t="s">
         <v>182</v>
@@ -15304,7 +15307,7 @@
         <v>186</v>
       </c>
       <c r="C813" t="n">
-        <v>89.3</v>
+        <v>89.5</v>
       </c>
       <c r="D813" t="s">
         <v>182</v>
@@ -15321,7 +15324,7 @@
         <v>187</v>
       </c>
       <c r="C814" t="n">
-        <v>90.9</v>
+        <v>91.1</v>
       </c>
       <c r="D814" t="s">
         <v>182</v>
@@ -15338,7 +15341,7 @@
         <v>188</v>
       </c>
       <c r="C815" t="n">
-        <v>94.9</v>
+        <v>95</v>
       </c>
       <c r="D815" t="s">
         <v>182</v>
@@ -15355,7 +15358,7 @@
         <v>189</v>
       </c>
       <c r="C816" t="n">
-        <v>98.6</v>
+        <v>98.7</v>
       </c>
       <c r="D816" t="s">
         <v>182</v>
@@ -15372,7 +15375,7 @@
         <v>190</v>
       </c>
       <c r="C817" t="n">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="D817" t="s">
         <v>182</v>
@@ -15389,7 +15392,7 @@
         <v>191</v>
       </c>
       <c r="C818" t="n">
-        <v>103.1</v>
+        <v>103.2</v>
       </c>
       <c r="D818" t="s">
         <v>182</v>
@@ -15440,7 +15443,7 @@
         <v>204</v>
       </c>
       <c r="C821" t="n">
-        <v>102.1</v>
+        <v>102.2</v>
       </c>
       <c r="D821" t="s">
         <v>205</v>
@@ -15457,7 +15460,7 @@
         <v>206</v>
       </c>
       <c r="C822" t="n">
-        <v>105.6</v>
+        <v>105.7</v>
       </c>
       <c r="D822" t="s">
         <v>205</v>
@@ -15474,7 +15477,7 @@
         <v>207</v>
       </c>
       <c r="C823" t="n">
-        <v>104.3</v>
+        <v>104.4</v>
       </c>
       <c r="D823" t="s">
         <v>205</v>
@@ -15491,7 +15494,7 @@
         <v>208</v>
       </c>
       <c r="C824" t="n">
-        <v>103.3</v>
+        <v>103.4</v>
       </c>
       <c r="D824" t="s">
         <v>205</v>
@@ -15712,7 +15715,7 @@
         <v>222</v>
       </c>
       <c r="C837" t="n">
-        <v>109.6</v>
+        <v>109.7</v>
       </c>
       <c r="D837" t="s">
         <v>218</v>
@@ -15746,7 +15749,7 @@
         <v>224</v>
       </c>
       <c r="C839" t="n">
-        <v>102</v>
+        <v>102.1</v>
       </c>
       <c r="D839" t="s">
         <v>218</v>
@@ -15831,7 +15834,7 @@
         <v>229</v>
       </c>
       <c r="C844" t="n">
-        <v>93.5</v>
+        <v>93.6</v>
       </c>
       <c r="D844" t="s">
         <v>218</v>
@@ -15848,7 +15851,7 @@
         <v>230</v>
       </c>
       <c r="C845" t="n">
-        <v>90.4</v>
+        <v>90.5</v>
       </c>
       <c r="D845" t="s">
         <v>231</v>
@@ -15882,7 +15885,7 @@
         <v>233</v>
       </c>
       <c r="C847" t="n">
-        <v>99</v>
+        <v>99.1</v>
       </c>
       <c r="D847" t="s">
         <v>231</v>
@@ -15950,7 +15953,7 @@
         <v>237</v>
       </c>
       <c r="C851" t="n">
-        <v>94.2</v>
+        <v>94.3</v>
       </c>
       <c r="D851" t="s">
         <v>231</v>
@@ -15984,7 +15987,7 @@
         <v>239</v>
       </c>
       <c r="C853" t="n">
-        <v>94.9</v>
+        <v>95</v>
       </c>
       <c r="D853" t="s">
         <v>231</v>
@@ -16001,7 +16004,7 @@
         <v>240</v>
       </c>
       <c r="C854" t="n">
-        <v>90.8</v>
+        <v>90.9</v>
       </c>
       <c r="D854" t="s">
         <v>231</v>
@@ -16018,7 +16021,7 @@
         <v>241</v>
       </c>
       <c r="C855" t="n">
-        <v>85.4</v>
+        <v>85.5</v>
       </c>
       <c r="D855" t="s">
         <v>231</v>
@@ -16052,7 +16055,7 @@
         <v>243</v>
       </c>
       <c r="C857" t="n">
-        <v>87.2</v>
+        <v>87.3</v>
       </c>
       <c r="D857" t="s">
         <v>244</v>
@@ -16069,7 +16072,7 @@
         <v>245</v>
       </c>
       <c r="C858" t="n">
-        <v>92.5</v>
+        <v>92.6</v>
       </c>
       <c r="D858" t="s">
         <v>244</v>
@@ -16086,7 +16089,7 @@
         <v>246</v>
       </c>
       <c r="C859" t="n">
-        <v>93.8</v>
+        <v>93.9</v>
       </c>
       <c r="D859" t="s">
         <v>244</v>
@@ -16137,7 +16140,7 @@
         <v>249</v>
       </c>
       <c r="C862" t="n">
-        <v>95</v>
+        <v>95.1</v>
       </c>
       <c r="D862" t="s">
         <v>244</v>
@@ -16171,7 +16174,7 @@
         <v>251</v>
       </c>
       <c r="C864" t="n">
-        <v>97.4</v>
+        <v>97.5</v>
       </c>
       <c r="D864" t="s">
         <v>244</v>
@@ -16273,7 +16276,7 @@
         <v>258</v>
       </c>
       <c r="C870" t="n">
-        <v>101</v>
+        <v>101.1</v>
       </c>
       <c r="D870" t="s">
         <v>257</v>
@@ -16290,7 +16293,7 @@
         <v>259</v>
       </c>
       <c r="C871" t="n">
-        <v>100.7</v>
+        <v>100.8</v>
       </c>
       <c r="D871" t="s">
         <v>257</v>
@@ -16324,7 +16327,7 @@
         <v>261</v>
       </c>
       <c r="C873" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="D873" t="s">
         <v>257</v>
@@ -16409,7 +16412,7 @@
         <v>266</v>
       </c>
       <c r="C878" t="n">
-        <v>102</v>
+        <v>102.1</v>
       </c>
       <c r="D878" t="s">
         <v>257</v>
@@ -16460,7 +16463,7 @@
         <v>269</v>
       </c>
       <c r="C881" t="n">
-        <v>101.5</v>
+        <v>101.6</v>
       </c>
       <c r="D881" t="s">
         <v>270</v>
@@ -16477,7 +16480,7 @@
         <v>271</v>
       </c>
       <c r="C882" t="n">
-        <v>101.5</v>
+        <v>101.6</v>
       </c>
       <c r="D882" t="s">
         <v>270</v>
@@ -16511,7 +16514,7 @@
         <v>273</v>
       </c>
       <c r="C884" t="n">
-        <v>99.8</v>
+        <v>99.9</v>
       </c>
       <c r="D884" t="s">
         <v>270</v>
@@ -16613,7 +16616,7 @@
         <v>279</v>
       </c>
       <c r="C890" t="n">
-        <v>105.4</v>
+        <v>105.6</v>
       </c>
       <c r="D890" t="s">
         <v>270</v>
@@ -16664,7 +16667,7 @@
         <v>282</v>
       </c>
       <c r="C893" t="n">
-        <v>107.8</v>
+        <v>107.9</v>
       </c>
       <c r="D893" t="s">
         <v>283</v>
@@ -16681,7 +16684,7 @@
         <v>284</v>
       </c>
       <c r="C894" t="n">
-        <v>105</v>
+        <v>105.1</v>
       </c>
       <c r="D894" t="s">
         <v>283</v>
@@ -16783,7 +16786,7 @@
         <v>290</v>
       </c>
       <c r="C900" t="n">
-        <v>100.9</v>
+        <v>101</v>
       </c>
       <c r="D900" t="s">
         <v>283</v>
@@ -16919,7 +16922,7 @@
         <v>299</v>
       </c>
       <c r="C908" t="n">
-        <v>110.6</v>
+        <v>110.7</v>
       </c>
       <c r="D908" t="s">
         <v>296</v>
@@ -16936,7 +16939,7 @@
         <v>300</v>
       </c>
       <c r="C909" t="n">
-        <v>111.7</v>
+        <v>111.8</v>
       </c>
       <c r="D909" t="s">
         <v>296</v>
@@ -16970,7 +16973,7 @@
         <v>302</v>
       </c>
       <c r="C911" t="n">
-        <v>110.7</v>
+        <v>110.9</v>
       </c>
       <c r="D911" t="s">
         <v>296</v>
@@ -16987,7 +16990,7 @@
         <v>303</v>
       </c>
       <c r="C912" t="n">
-        <v>109.2</v>
+        <v>109.4</v>
       </c>
       <c r="D912" t="s">
         <v>296</v>
@@ -17021,7 +17024,7 @@
         <v>305</v>
       </c>
       <c r="C914" t="n">
-        <v>111.1</v>
+        <v>111.2</v>
       </c>
       <c r="D914" t="s">
         <v>296</v>
@@ -17038,7 +17041,7 @@
         <v>306</v>
       </c>
       <c r="C915" t="n">
-        <v>111.5</v>
+        <v>111.6</v>
       </c>
       <c r="D915" t="s">
         <v>296</v>
@@ -17174,7 +17177,7 @@
         <v>315</v>
       </c>
       <c r="C923" t="n">
-        <v>109.6</v>
+        <v>109.7</v>
       </c>
       <c r="D923" t="s">
         <v>309</v>
@@ -17208,7 +17211,7 @@
         <v>317</v>
       </c>
       <c r="C925" t="n">
-        <v>109.9</v>
+        <v>109.7</v>
       </c>
       <c r="D925" t="s">
         <v>309</v>
@@ -17242,7 +17245,7 @@
         <v>319</v>
       </c>
       <c r="C927" t="n">
-        <v>104.9</v>
+        <v>105</v>
       </c>
       <c r="D927" t="s">
         <v>309</v>
@@ -17310,7 +17313,7 @@
         <v>324</v>
       </c>
       <c r="C931" t="n">
-        <v>102.7</v>
+        <v>102.6</v>
       </c>
       <c r="D931" t="s">
         <v>322</v>
@@ -17327,7 +17330,7 @@
         <v>325</v>
       </c>
       <c r="C932" t="n">
-        <v>104.5</v>
+        <v>104.6</v>
       </c>
       <c r="D932" t="s">
         <v>322</v>
@@ -17344,7 +17347,7 @@
         <v>326</v>
       </c>
       <c r="C933" t="n">
-        <v>101.6</v>
+        <v>101.7</v>
       </c>
       <c r="D933" t="s">
         <v>322</v>
@@ -17361,7 +17364,7 @@
         <v>327</v>
       </c>
       <c r="C934" t="n">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="D934" t="s">
         <v>322</v>
@@ -17378,7 +17381,7 @@
         <v>328</v>
       </c>
       <c r="C935" t="n">
-        <v>98.3</v>
+        <v>98.5</v>
       </c>
       <c r="D935" t="s">
         <v>322</v>
@@ -17480,7 +17483,7 @@
         <v>334</v>
       </c>
       <c r="C941" t="n">
-        <v>96.7</v>
+        <v>96.8</v>
       </c>
       <c r="D941" t="s">
         <v>335</v>
@@ -17531,7 +17534,7 @@
         <v>338</v>
       </c>
       <c r="C944" t="n">
-        <v>61.2</v>
+        <v>61.4</v>
       </c>
       <c r="D944" t="s">
         <v>335</v>
@@ -17548,7 +17551,7 @@
         <v>339</v>
       </c>
       <c r="C945" t="n">
-        <v>64.8</v>
+        <v>64.7</v>
       </c>
       <c r="D945" t="s">
         <v>335</v>
@@ -17565,7 +17568,7 @@
         <v>340</v>
       </c>
       <c r="C946" t="n">
-        <v>76</v>
+        <v>76.1</v>
       </c>
       <c r="D946" t="s">
         <v>335</v>
@@ -17582,7 +17585,7 @@
         <v>341</v>
       </c>
       <c r="C947" t="n">
-        <v>84.5</v>
+        <v>84.9</v>
       </c>
       <c r="D947" t="s">
         <v>335</v>
@@ -17599,7 +17602,7 @@
         <v>342</v>
       </c>
       <c r="C948" t="n">
-        <v>87.3</v>
+        <v>87.5</v>
       </c>
       <c r="D948" t="s">
         <v>335</v>
@@ -17616,7 +17619,7 @@
         <v>343</v>
       </c>
       <c r="C949" t="n">
-        <v>93.8</v>
+        <v>94.1</v>
       </c>
       <c r="D949" t="s">
         <v>335</v>
@@ -17633,7 +17636,7 @@
         <v>344</v>
       </c>
       <c r="C950" t="n">
-        <v>94.9</v>
+        <v>95</v>
       </c>
       <c r="D950" t="s">
         <v>335</v>
@@ -17684,7 +17687,7 @@
         <v>347</v>
       </c>
       <c r="C953" t="n">
-        <v>102</v>
+        <v>102.1</v>
       </c>
       <c r="D953" t="s">
         <v>348</v>
@@ -17701,7 +17704,7 @@
         <v>349</v>
       </c>
       <c r="C954" t="n">
-        <v>104.3</v>
+        <v>104</v>
       </c>
       <c r="D954" t="s">
         <v>348</v>
@@ -17718,7 +17721,7 @@
         <v>350</v>
       </c>
       <c r="C955" t="n">
-        <v>105.7</v>
+        <v>105.5</v>
       </c>
       <c r="D955" t="s">
         <v>348</v>
@@ -17752,7 +17755,7 @@
         <v>352</v>
       </c>
       <c r="C957" t="n">
-        <v>116.6</v>
+        <v>116.7</v>
       </c>
       <c r="D957" t="s">
         <v>348</v>
@@ -17786,7 +17789,7 @@
         <v>354</v>
       </c>
       <c r="C959" t="n">
-        <v>120.5</v>
+        <v>120.8</v>
       </c>
       <c r="D959" t="s">
         <v>348</v>
@@ -17820,7 +17823,7 @@
         <v>356</v>
       </c>
       <c r="C961" t="n">
-        <v>118.9</v>
+        <v>118.7</v>
       </c>
       <c r="D961" t="s">
         <v>348</v>
@@ -17837,7 +17840,7 @@
         <v>357</v>
       </c>
       <c r="C962" t="n">
-        <v>120.6</v>
+        <v>120.7</v>
       </c>
       <c r="D962" t="s">
         <v>348</v>
@@ -17888,7 +17891,7 @@
         <v>360</v>
       </c>
       <c r="C965" t="n">
-        <v>113.1</v>
+        <v>113.2</v>
       </c>
       <c r="D965" t="s">
         <v>361</v>
@@ -17905,7 +17908,7 @@
         <v>362</v>
       </c>
       <c r="C966" t="n">
-        <v>114.7</v>
+        <v>114.8</v>
       </c>
       <c r="D966" t="s">
         <v>361</v>
@@ -17939,7 +17942,7 @@
         <v>364</v>
       </c>
       <c r="C968" t="n">
-        <v>110.9</v>
+        <v>111</v>
       </c>
       <c r="D968" t="s">
         <v>361</v>
@@ -17956,7 +17959,7 @@
         <v>365</v>
       </c>
       <c r="C969" t="n">
-        <v>110.4</v>
+        <v>110.5</v>
       </c>
       <c r="D969" t="s">
         <v>361</v>
@@ -17973,7 +17976,7 @@
         <v>366</v>
       </c>
       <c r="C970" t="n">
-        <v>105.3</v>
+        <v>105.5</v>
       </c>
       <c r="D970" t="s">
         <v>361</v>
@@ -17990,7 +17993,7 @@
         <v>367</v>
       </c>
       <c r="C971" t="n">
-        <v>103.2</v>
+        <v>103.3</v>
       </c>
       <c r="D971" t="s">
         <v>361</v>
@@ -18024,7 +18027,7 @@
         <v>369</v>
       </c>
       <c r="C973" t="n">
-        <v>92.9</v>
+        <v>93.3</v>
       </c>
       <c r="D973" t="s">
         <v>361</v>
@@ -18041,7 +18044,7 @@
         <v>370</v>
       </c>
       <c r="C974" t="n">
-        <v>87.3</v>
+        <v>87.6</v>
       </c>
       <c r="D974" t="s">
         <v>361</v>
@@ -18058,7 +18061,7 @@
         <v>371</v>
       </c>
       <c r="C975" t="n">
-        <v>87.3</v>
+        <v>87.4</v>
       </c>
       <c r="D975" t="s">
         <v>361</v>
@@ -18075,7 +18078,7 @@
         <v>372</v>
       </c>
       <c r="C976" t="n">
-        <v>87.2</v>
+        <v>87.4</v>
       </c>
       <c r="D976" t="s">
         <v>361</v>
@@ -18092,7 +18095,7 @@
         <v>373</v>
       </c>
       <c r="C977" t="n">
-        <v>85.3</v>
+        <v>85.5</v>
       </c>
       <c r="D977" t="s">
         <v>374</v>
@@ -18143,7 +18146,7 @@
         <v>377</v>
       </c>
       <c r="C980" t="n">
-        <v>87.9</v>
+        <v>88.1</v>
       </c>
       <c r="D980" t="s">
         <v>374</v>
@@ -18160,7 +18163,7 @@
         <v>378</v>
       </c>
       <c r="C981" t="n">
-        <v>89.6</v>
+        <v>89.7</v>
       </c>
       <c r="D981" t="s">
         <v>374</v>
@@ -18177,7 +18180,7 @@
         <v>379</v>
       </c>
       <c r="C982" t="n">
-        <v>89.9</v>
+        <v>90.1</v>
       </c>
       <c r="D982" t="s">
         <v>374</v>
@@ -18194,7 +18197,7 @@
         <v>380</v>
       </c>
       <c r="C983" t="n">
-        <v>87.7</v>
+        <v>87.9</v>
       </c>
       <c r="D983" t="s">
         <v>374</v>
@@ -18211,7 +18214,7 @@
         <v>381</v>
       </c>
       <c r="C984" t="n">
-        <v>85.2</v>
+        <v>85.3</v>
       </c>
       <c r="D984" t="s">
         <v>374</v>
@@ -18636,7 +18639,7 @@
         <v>228</v>
       </c>
       <c r="C1009" t="n">
-        <v>93.1</v>
+        <v>93</v>
       </c>
       <c r="D1009" t="s">
         <v>218</v>
@@ -18670,7 +18673,7 @@
         <v>230</v>
       </c>
       <c r="C1011" t="n">
-        <v>90.3</v>
+        <v>90.2</v>
       </c>
       <c r="D1011" t="s">
         <v>231</v>
@@ -18687,7 +18690,7 @@
         <v>232</v>
       </c>
       <c r="C1012" t="n">
-        <v>92.3</v>
+        <v>92.2</v>
       </c>
       <c r="D1012" t="s">
         <v>231</v>
@@ -18789,7 +18792,7 @@
         <v>238</v>
       </c>
       <c r="C1018" t="n">
-        <v>92.9</v>
+        <v>92.8</v>
       </c>
       <c r="D1018" t="s">
         <v>231</v>
@@ -18823,7 +18826,7 @@
         <v>240</v>
       </c>
       <c r="C1020" t="n">
-        <v>90.3</v>
+        <v>90.2</v>
       </c>
       <c r="D1020" t="s">
         <v>231</v>
@@ -18874,7 +18877,7 @@
         <v>243</v>
       </c>
       <c r="C1023" t="n">
-        <v>86.1</v>
+        <v>86</v>
       </c>
       <c r="D1023" t="s">
         <v>244</v>
@@ -18925,7 +18928,7 @@
         <v>247</v>
       </c>
       <c r="C1026" t="n">
-        <v>92.5</v>
+        <v>92.4</v>
       </c>
       <c r="D1026" t="s">
         <v>244</v>
@@ -19027,7 +19030,7 @@
         <v>253</v>
       </c>
       <c r="C1032" t="n">
-        <v>96.6</v>
+        <v>96.5</v>
       </c>
       <c r="D1032" t="s">
         <v>244</v>
@@ -19214,7 +19217,7 @@
         <v>265</v>
       </c>
       <c r="C1043" t="n">
-        <v>101.2</v>
+        <v>101.1</v>
       </c>
       <c r="D1043" t="s">
         <v>257</v>
@@ -19435,7 +19438,7 @@
         <v>279</v>
       </c>
       <c r="C1056" t="n">
-        <v>105.5</v>
+        <v>105.8</v>
       </c>
       <c r="D1056" t="s">
         <v>270</v>
@@ -19486,7 +19489,7 @@
         <v>282</v>
       </c>
       <c r="C1059" t="n">
-        <v>111</v>
+        <v>111.1</v>
       </c>
       <c r="D1059" t="s">
         <v>283</v>
@@ -19741,7 +19744,7 @@
         <v>299</v>
       </c>
       <c r="C1074" t="n">
-        <v>114.3</v>
+        <v>114.4</v>
       </c>
       <c r="D1074" t="s">
         <v>296</v>
@@ -19792,7 +19795,7 @@
         <v>302</v>
       </c>
       <c r="C1077" t="n">
-        <v>113.4</v>
+        <v>113.7</v>
       </c>
       <c r="D1077" t="s">
         <v>296</v>
@@ -19809,7 +19812,7 @@
         <v>303</v>
       </c>
       <c r="C1078" t="n">
-        <v>110.1</v>
+        <v>110.4</v>
       </c>
       <c r="D1078" t="s">
         <v>296</v>
@@ -19843,7 +19846,7 @@
         <v>305</v>
       </c>
       <c r="C1080" t="n">
-        <v>115.2</v>
+        <v>115.3</v>
       </c>
       <c r="D1080" t="s">
         <v>296</v>
@@ -19945,7 +19948,7 @@
         <v>312</v>
       </c>
       <c r="C1086" t="n">
-        <v>114.9</v>
+        <v>115</v>
       </c>
       <c r="D1086" t="s">
         <v>309</v>
@@ -19979,7 +19982,7 @@
         <v>314</v>
       </c>
       <c r="C1088" t="n">
-        <v>113.7</v>
+        <v>113.8</v>
       </c>
       <c r="D1088" t="s">
         <v>309</v>
@@ -20030,7 +20033,7 @@
         <v>317</v>
       </c>
       <c r="C1091" t="n">
-        <v>113.3</v>
+        <v>112.9</v>
       </c>
       <c r="D1091" t="s">
         <v>309</v>
@@ -20132,7 +20135,7 @@
         <v>324</v>
       </c>
       <c r="C1097" t="n">
-        <v>105</v>
+        <v>104.7</v>
       </c>
       <c r="D1097" t="s">
         <v>322</v>
@@ -20200,7 +20203,7 @@
         <v>328</v>
       </c>
       <c r="C1101" t="n">
-        <v>96.9</v>
+        <v>97.2</v>
       </c>
       <c r="D1101" t="s">
         <v>322</v>
@@ -20234,7 +20237,7 @@
         <v>330</v>
       </c>
       <c r="C1103" t="n">
-        <v>94.8</v>
+        <v>94.7</v>
       </c>
       <c r="D1103" t="s">
         <v>322</v>
@@ -20302,7 +20305,7 @@
         <v>334</v>
       </c>
       <c r="C1107" t="n">
-        <v>98.7</v>
+        <v>98.6</v>
       </c>
       <c r="D1107" t="s">
         <v>335</v>
@@ -20370,7 +20373,7 @@
         <v>339</v>
       </c>
       <c r="C1111" t="n">
-        <v>76.5</v>
+        <v>76.2</v>
       </c>
       <c r="D1111" t="s">
         <v>335</v>
@@ -20404,7 +20407,7 @@
         <v>341</v>
       </c>
       <c r="C1113" t="n">
-        <v>96.1</v>
+        <v>96.8</v>
       </c>
       <c r="D1113" t="s">
         <v>335</v>
@@ -20421,7 +20424,7 @@
         <v>342</v>
       </c>
       <c r="C1114" t="n">
-        <v>96.4</v>
+        <v>96.7</v>
       </c>
       <c r="D1114" t="s">
         <v>335</v>
@@ -20523,7 +20526,7 @@
         <v>349</v>
       </c>
       <c r="C1120" t="n">
-        <v>111.7</v>
+        <v>111.8</v>
       </c>
       <c r="D1120" t="s">
         <v>348</v>
@@ -20540,7 +20543,7 @@
         <v>350</v>
       </c>
       <c r="C1121" t="n">
-        <v>114.4</v>
+        <v>114.1</v>
       </c>
       <c r="D1121" t="s">
         <v>348</v>
@@ -20574,7 +20577,7 @@
         <v>352</v>
       </c>
       <c r="C1123" t="n">
-        <v>121.3</v>
+        <v>121.4</v>
       </c>
       <c r="D1123" t="s">
         <v>348</v>
@@ -20608,7 +20611,7 @@
         <v>354</v>
       </c>
       <c r="C1125" t="n">
-        <v>124.9</v>
+        <v>125.6</v>
       </c>
       <c r="D1125" t="s">
         <v>348</v>
@@ -20642,7 +20645,7 @@
         <v>356</v>
       </c>
       <c r="C1127" t="n">
-        <v>123.3</v>
+        <v>122.6</v>
       </c>
       <c r="D1127" t="s">
         <v>348</v>
@@ -20659,7 +20662,7 @@
         <v>357</v>
       </c>
       <c r="C1128" t="n">
-        <v>126.5</v>
+        <v>126.6</v>
       </c>
       <c r="D1128" t="s">
         <v>348</v>
@@ -20727,7 +20730,7 @@
         <v>362</v>
       </c>
       <c r="C1132" t="n">
-        <v>123.7</v>
+        <v>123.8</v>
       </c>
       <c r="D1132" t="s">
         <v>361</v>
@@ -20812,7 +20815,7 @@
         <v>367</v>
       </c>
       <c r="C1137" t="n">
-        <v>119.9</v>
+        <v>120.2</v>
       </c>
       <c r="D1137" t="s">
         <v>361</v>
@@ -20829,7 +20832,7 @@
         <v>368</v>
       </c>
       <c r="C1138" t="n">
-        <v>114.8</v>
+        <v>114.9</v>
       </c>
       <c r="D1138" t="s">
         <v>361</v>
@@ -20846,7 +20849,7 @@
         <v>369</v>
       </c>
       <c r="C1139" t="n">
-        <v>109.6</v>
+        <v>109.4</v>
       </c>
       <c r="D1139" t="s">
         <v>361</v>
@@ -20863,7 +20866,7 @@
         <v>370</v>
       </c>
       <c r="C1140" t="n">
-        <v>104.8</v>
+        <v>105.1</v>
       </c>
       <c r="D1140" t="s">
         <v>361</v>
@@ -20931,7 +20934,7 @@
         <v>375</v>
       </c>
       <c r="C1144" t="n">
-        <v>102.6</v>
+        <v>102.4</v>
       </c>
       <c r="D1144" t="s">
         <v>374</v>
@@ -20948,7 +20951,7 @@
         <v>376</v>
       </c>
       <c r="C1145" t="n">
-        <v>103.6</v>
+        <v>103.4</v>
       </c>
       <c r="D1145" t="s">
         <v>374</v>
@@ -21016,7 +21019,7 @@
         <v>380</v>
       </c>
       <c r="C1149" t="n">
-        <v>97.5</v>
+        <v>98</v>
       </c>
       <c r="D1149" t="s">
         <v>374</v>
@@ -21033,7 +21036,7 @@
         <v>381</v>
       </c>
       <c r="C1150" t="n">
-        <v>96.6</v>
+        <v>96.9</v>
       </c>
       <c r="D1150" t="s">
         <v>374</v>
@@ -21084,7 +21087,7 @@
         <v>211</v>
       </c>
       <c r="C1153" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="D1153" t="s">
         <v>205</v>
@@ -21305,7 +21308,7 @@
         <v>225</v>
       </c>
       <c r="C1166" t="n">
-        <v>101.6</v>
+        <v>101.7</v>
       </c>
       <c r="D1166" t="s">
         <v>218</v>
@@ -21322,7 +21325,7 @@
         <v>226</v>
       </c>
       <c r="C1167" t="n">
-        <v>99.9</v>
+        <v>100</v>
       </c>
       <c r="D1167" t="s">
         <v>218</v>
@@ -21356,7 +21359,7 @@
         <v>228</v>
       </c>
       <c r="C1169" t="n">
-        <v>98.3</v>
+        <v>98.4</v>
       </c>
       <c r="D1169" t="s">
         <v>218</v>
@@ -21373,7 +21376,7 @@
         <v>229</v>
       </c>
       <c r="C1170" t="n">
-        <v>96</v>
+        <v>96.1</v>
       </c>
       <c r="D1170" t="s">
         <v>218</v>
@@ -21390,7 +21393,7 @@
         <v>230</v>
       </c>
       <c r="C1171" t="n">
-        <v>96.2</v>
+        <v>96.3</v>
       </c>
       <c r="D1171" t="s">
         <v>231</v>
@@ -21407,7 +21410,7 @@
         <v>232</v>
       </c>
       <c r="C1172" t="n">
-        <v>93.4</v>
+        <v>93.5</v>
       </c>
       <c r="D1172" t="s">
         <v>231</v>
@@ -21424,7 +21427,7 @@
         <v>233</v>
       </c>
       <c r="C1173" t="n">
-        <v>97.7</v>
+        <v>97.8</v>
       </c>
       <c r="D1173" t="s">
         <v>231</v>
@@ -21441,7 +21444,7 @@
         <v>234</v>
       </c>
       <c r="C1174" t="n">
-        <v>99.6</v>
+        <v>99.7</v>
       </c>
       <c r="D1174" t="s">
         <v>231</v>
@@ -21458,7 +21461,7 @@
         <v>235</v>
       </c>
       <c r="C1175" t="n">
-        <v>89.1</v>
+        <v>89.2</v>
       </c>
       <c r="D1175" t="s">
         <v>231</v>
@@ -21475,7 +21478,7 @@
         <v>236</v>
       </c>
       <c r="C1176" t="n">
-        <v>89.3</v>
+        <v>89.4</v>
       </c>
       <c r="D1176" t="s">
         <v>231</v>
@@ -21492,7 +21495,7 @@
         <v>237</v>
       </c>
       <c r="C1177" t="n">
-        <v>88.3</v>
+        <v>88.5</v>
       </c>
       <c r="D1177" t="s">
         <v>231</v>
@@ -21509,7 +21512,7 @@
         <v>238</v>
       </c>
       <c r="C1178" t="n">
-        <v>89.9</v>
+        <v>90</v>
       </c>
       <c r="D1178" t="s">
         <v>231</v>
@@ -21526,7 +21529,7 @@
         <v>239</v>
       </c>
       <c r="C1179" t="n">
-        <v>86.3</v>
+        <v>86.4</v>
       </c>
       <c r="D1179" t="s">
         <v>231</v>
@@ -21543,7 +21546,7 @@
         <v>240</v>
       </c>
       <c r="C1180" t="n">
-        <v>84.3</v>
+        <v>84.5</v>
       </c>
       <c r="D1180" t="s">
         <v>231</v>
@@ -21560,7 +21563,7 @@
         <v>241</v>
       </c>
       <c r="C1181" t="n">
-        <v>79.4</v>
+        <v>79.6</v>
       </c>
       <c r="D1181" t="s">
         <v>231</v>
@@ -21577,7 +21580,7 @@
         <v>242</v>
       </c>
       <c r="C1182" t="n">
-        <v>78.2</v>
+        <v>78.4</v>
       </c>
       <c r="D1182" t="s">
         <v>231</v>
@@ -21594,7 +21597,7 @@
         <v>243</v>
       </c>
       <c r="C1183" t="n">
-        <v>83.6</v>
+        <v>83.7</v>
       </c>
       <c r="D1183" t="s">
         <v>244</v>
@@ -21611,7 +21614,7 @@
         <v>245</v>
       </c>
       <c r="C1184" t="n">
-        <v>83</v>
+        <v>83.2</v>
       </c>
       <c r="D1184" t="s">
         <v>244</v>
@@ -21628,7 +21631,7 @@
         <v>246</v>
       </c>
       <c r="C1185" t="n">
-        <v>83.5</v>
+        <v>83.6</v>
       </c>
       <c r="D1185" t="s">
         <v>244</v>
@@ -21645,7 +21648,7 @@
         <v>247</v>
       </c>
       <c r="C1186" t="n">
-        <v>81.7</v>
+        <v>81.9</v>
       </c>
       <c r="D1186" t="s">
         <v>244</v>
@@ -21662,7 +21665,7 @@
         <v>248</v>
       </c>
       <c r="C1187" t="n">
-        <v>85.3</v>
+        <v>85.4</v>
       </c>
       <c r="D1187" t="s">
         <v>244</v>
@@ -21679,7 +21682,7 @@
         <v>249</v>
       </c>
       <c r="C1188" t="n">
-        <v>85.4</v>
+        <v>85.5</v>
       </c>
       <c r="D1188" t="s">
         <v>244</v>
@@ -21696,7 +21699,7 @@
         <v>250</v>
       </c>
       <c r="C1189" t="n">
-        <v>83.8</v>
+        <v>83.9</v>
       </c>
       <c r="D1189" t="s">
         <v>244</v>
@@ -21713,7 +21716,7 @@
         <v>251</v>
       </c>
       <c r="C1190" t="n">
-        <v>83.7</v>
+        <v>83.9</v>
       </c>
       <c r="D1190" t="s">
         <v>244</v>
@@ -21730,7 +21733,7 @@
         <v>252</v>
       </c>
       <c r="C1191" t="n">
-        <v>85.7</v>
+        <v>85.8</v>
       </c>
       <c r="D1191" t="s">
         <v>244</v>
@@ -21747,7 +21750,7 @@
         <v>253</v>
       </c>
       <c r="C1192" t="n">
-        <v>84.6</v>
+        <v>84.8</v>
       </c>
       <c r="D1192" t="s">
         <v>244</v>
@@ -21764,7 +21767,7 @@
         <v>254</v>
       </c>
       <c r="C1193" t="n">
-        <v>86.8</v>
+        <v>86.9</v>
       </c>
       <c r="D1193" t="s">
         <v>244</v>
@@ -21781,7 +21784,7 @@
         <v>255</v>
       </c>
       <c r="C1194" t="n">
-        <v>89.9</v>
+        <v>90.1</v>
       </c>
       <c r="D1194" t="s">
         <v>244</v>
@@ -21798,7 +21801,7 @@
         <v>256</v>
       </c>
       <c r="C1195" t="n">
-        <v>89.1</v>
+        <v>89.2</v>
       </c>
       <c r="D1195" t="s">
         <v>257</v>
@@ -21815,7 +21818,7 @@
         <v>258</v>
       </c>
       <c r="C1196" t="n">
-        <v>89.9</v>
+        <v>90</v>
       </c>
       <c r="D1196" t="s">
         <v>257</v>
@@ -21832,7 +21835,7 @@
         <v>259</v>
       </c>
       <c r="C1197" t="n">
-        <v>91.5</v>
+        <v>91.6</v>
       </c>
       <c r="D1197" t="s">
         <v>257</v>
@@ -21849,7 +21852,7 @@
         <v>260</v>
       </c>
       <c r="C1198" t="n">
-        <v>91.8</v>
+        <v>91.9</v>
       </c>
       <c r="D1198" t="s">
         <v>257</v>
@@ -21866,7 +21869,7 @@
         <v>261</v>
       </c>
       <c r="C1199" t="n">
-        <v>92.9</v>
+        <v>93</v>
       </c>
       <c r="D1199" t="s">
         <v>257</v>
@@ -21900,7 +21903,7 @@
         <v>263</v>
       </c>
       <c r="C1201" t="n">
-        <v>96.9</v>
+        <v>97</v>
       </c>
       <c r="D1201" t="s">
         <v>257</v>
@@ -21917,7 +21920,7 @@
         <v>264</v>
       </c>
       <c r="C1202" t="n">
-        <v>97.8</v>
+        <v>97.9</v>
       </c>
       <c r="D1202" t="s">
         <v>257</v>
@@ -21934,7 +21937,7 @@
         <v>265</v>
       </c>
       <c r="C1203" t="n">
-        <v>95.8</v>
+        <v>95.9</v>
       </c>
       <c r="D1203" t="s">
         <v>257</v>
@@ -21968,7 +21971,7 @@
         <v>267</v>
       </c>
       <c r="C1205" t="n">
-        <v>97</v>
+        <v>97.1</v>
       </c>
       <c r="D1205" t="s">
         <v>257</v>
@@ -21985,7 +21988,7 @@
         <v>268</v>
       </c>
       <c r="C1206" t="n">
-        <v>96.7</v>
+        <v>96.8</v>
       </c>
       <c r="D1206" t="s">
         <v>257</v>
@@ -22002,7 +22005,7 @@
         <v>269</v>
       </c>
       <c r="C1207" t="n">
-        <v>96.2</v>
+        <v>96.3</v>
       </c>
       <c r="D1207" t="s">
         <v>270</v>
@@ -22019,7 +22022,7 @@
         <v>271</v>
       </c>
       <c r="C1208" t="n">
-        <v>94</v>
+        <v>94.1</v>
       </c>
       <c r="D1208" t="s">
         <v>270</v>
@@ -22036,7 +22039,7 @@
         <v>272</v>
       </c>
       <c r="C1209" t="n">
-        <v>91.8</v>
+        <v>91.9</v>
       </c>
       <c r="D1209" t="s">
         <v>270</v>
@@ -22053,7 +22056,7 @@
         <v>273</v>
       </c>
       <c r="C1210" t="n">
-        <v>96.6</v>
+        <v>96.7</v>
       </c>
       <c r="D1210" t="s">
         <v>270</v>
@@ -22104,7 +22107,7 @@
         <v>276</v>
       </c>
       <c r="C1213" t="n">
-        <v>101.6</v>
+        <v>101.9</v>
       </c>
       <c r="D1213" t="s">
         <v>270</v>
@@ -22172,7 +22175,7 @@
         <v>280</v>
       </c>
       <c r="C1217" t="n">
-        <v>109.2</v>
+        <v>109.3</v>
       </c>
       <c r="D1217" t="s">
         <v>270</v>
@@ -22206,7 +22209,7 @@
         <v>282</v>
       </c>
       <c r="C1219" t="n">
-        <v>104.9</v>
+        <v>105</v>
       </c>
       <c r="D1219" t="s">
         <v>283</v>
@@ -22223,7 +22226,7 @@
         <v>284</v>
       </c>
       <c r="C1220" t="n">
-        <v>106.4</v>
+        <v>106.5</v>
       </c>
       <c r="D1220" t="s">
         <v>283</v>
@@ -22240,7 +22243,7 @@
         <v>285</v>
       </c>
       <c r="C1221" t="n">
-        <v>107.7</v>
+        <v>107.5</v>
       </c>
       <c r="D1221" t="s">
         <v>283</v>
@@ -22291,7 +22294,7 @@
         <v>288</v>
       </c>
       <c r="C1224" t="n">
-        <v>107.4</v>
+        <v>107.5</v>
       </c>
       <c r="D1224" t="s">
         <v>283</v>
@@ -22359,7 +22362,7 @@
         <v>292</v>
       </c>
       <c r="C1228" t="n">
-        <v>109</v>
+        <v>109.1</v>
       </c>
       <c r="D1228" t="s">
         <v>283</v>
@@ -22376,7 +22379,7 @@
         <v>293</v>
       </c>
       <c r="C1229" t="n">
-        <v>110.9</v>
+        <v>111</v>
       </c>
       <c r="D1229" t="s">
         <v>283</v>
@@ -22512,7 +22515,7 @@
         <v>302</v>
       </c>
       <c r="C1237" t="n">
-        <v>113.5</v>
+        <v>113.7</v>
       </c>
       <c r="D1237" t="s">
         <v>296</v>
@@ -22716,7 +22719,7 @@
         <v>315</v>
       </c>
       <c r="C1249" t="n">
-        <v>110.8</v>
+        <v>111.1</v>
       </c>
       <c r="D1249" t="s">
         <v>309</v>
@@ -22733,7 +22736,7 @@
         <v>316</v>
       </c>
       <c r="C1250" t="n">
-        <v>109.9</v>
+        <v>110</v>
       </c>
       <c r="D1250" t="s">
         <v>309</v>
@@ -22767,7 +22770,7 @@
         <v>318</v>
       </c>
       <c r="C1252" t="n">
-        <v>106.2</v>
+        <v>106.3</v>
       </c>
       <c r="D1252" t="s">
         <v>309</v>
@@ -22801,7 +22804,7 @@
         <v>320</v>
       </c>
       <c r="C1254" t="n">
-        <v>106.4</v>
+        <v>106.5</v>
       </c>
       <c r="D1254" t="s">
         <v>309</v>
@@ -22818,7 +22821,7 @@
         <v>321</v>
       </c>
       <c r="C1255" t="n">
-        <v>103</v>
+        <v>103.4</v>
       </c>
       <c r="D1255" t="s">
         <v>322</v>
@@ -22835,7 +22838,7 @@
         <v>323</v>
       </c>
       <c r="C1256" t="n">
-        <v>107.4</v>
+        <v>107.5</v>
       </c>
       <c r="D1256" t="s">
         <v>322</v>
@@ -22852,7 +22855,7 @@
         <v>324</v>
       </c>
       <c r="C1257" t="n">
-        <v>104.1</v>
+        <v>104.2</v>
       </c>
       <c r="D1257" t="s">
         <v>322</v>
@@ -22869,7 +22872,7 @@
         <v>325</v>
       </c>
       <c r="C1258" t="n">
-        <v>103.6</v>
+        <v>103.7</v>
       </c>
       <c r="D1258" t="s">
         <v>322</v>
@@ -22886,7 +22889,7 @@
         <v>326</v>
       </c>
       <c r="C1259" t="n">
-        <v>103.3</v>
+        <v>103.4</v>
       </c>
       <c r="D1259" t="s">
         <v>322</v>
@@ -22903,7 +22906,7 @@
         <v>327</v>
       </c>
       <c r="C1260" t="n">
-        <v>105.9</v>
+        <v>106.2</v>
       </c>
       <c r="D1260" t="s">
         <v>322</v>
@@ -22920,7 +22923,7 @@
         <v>328</v>
       </c>
       <c r="C1261" t="n">
-        <v>100.6</v>
+        <v>100.7</v>
       </c>
       <c r="D1261" t="s">
         <v>322</v>
@@ -22937,7 +22940,7 @@
         <v>329</v>
       </c>
       <c r="C1262" t="n">
-        <v>103.6</v>
+        <v>103.7</v>
       </c>
       <c r="D1262" t="s">
         <v>322</v>
@@ -22954,7 +22957,7 @@
         <v>330</v>
       </c>
       <c r="C1263" t="n">
-        <v>102.6</v>
+        <v>102.7</v>
       </c>
       <c r="D1263" t="s">
         <v>322</v>
@@ -22988,7 +22991,7 @@
         <v>332</v>
       </c>
       <c r="C1265" t="n">
-        <v>101.9</v>
+        <v>102</v>
       </c>
       <c r="D1265" t="s">
         <v>322</v>
@@ -23005,7 +23008,7 @@
         <v>333</v>
       </c>
       <c r="C1266" t="n">
-        <v>99.3</v>
+        <v>99.4</v>
       </c>
       <c r="D1266" t="s">
         <v>322</v>
@@ -23022,7 +23025,7 @@
         <v>334</v>
       </c>
       <c r="C1267" t="n">
-        <v>104.4</v>
+        <v>104.5</v>
       </c>
       <c r="D1267" t="s">
         <v>335</v>
@@ -23039,7 +23042,7 @@
         <v>336</v>
       </c>
       <c r="C1268" t="n">
-        <v>99</v>
+        <v>99.1</v>
       </c>
       <c r="D1268" t="s">
         <v>335</v>
@@ -23056,7 +23059,7 @@
         <v>337</v>
       </c>
       <c r="C1269" t="n">
-        <v>99.6</v>
+        <v>99.7</v>
       </c>
       <c r="D1269" t="s">
         <v>335</v>
@@ -23073,7 +23076,7 @@
         <v>338</v>
       </c>
       <c r="C1270" t="n">
-        <v>89.5</v>
+        <v>89.7</v>
       </c>
       <c r="D1270" t="s">
         <v>335</v>
@@ -23107,7 +23110,7 @@
         <v>340</v>
       </c>
       <c r="C1272" t="n">
-        <v>83.7</v>
+        <v>83.8</v>
       </c>
       <c r="D1272" t="s">
         <v>335</v>
@@ -23124,7 +23127,7 @@
         <v>341</v>
       </c>
       <c r="C1273" t="n">
-        <v>85.9</v>
+        <v>86.1</v>
       </c>
       <c r="D1273" t="s">
         <v>335</v>
@@ -23141,7 +23144,7 @@
         <v>342</v>
       </c>
       <c r="C1274" t="n">
-        <v>86</v>
+        <v>86.4</v>
       </c>
       <c r="D1274" t="s">
         <v>335</v>
@@ -23158,7 +23161,7 @@
         <v>343</v>
       </c>
       <c r="C1275" t="n">
-        <v>85.5</v>
+        <v>85.6</v>
       </c>
       <c r="D1275" t="s">
         <v>335</v>
@@ -23175,7 +23178,7 @@
         <v>344</v>
       </c>
       <c r="C1276" t="n">
-        <v>83.4</v>
+        <v>83.6</v>
       </c>
       <c r="D1276" t="s">
         <v>335</v>
@@ -23192,7 +23195,7 @@
         <v>345</v>
       </c>
       <c r="C1277" t="n">
-        <v>88.4</v>
+        <v>88.6</v>
       </c>
       <c r="D1277" t="s">
         <v>335</v>
@@ -23209,7 +23212,7 @@
         <v>346</v>
       </c>
       <c r="C1278" t="n">
-        <v>88.2</v>
+        <v>88.4</v>
       </c>
       <c r="D1278" t="s">
         <v>335</v>
@@ -23226,7 +23229,7 @@
         <v>347</v>
       </c>
       <c r="C1279" t="n">
-        <v>85.6</v>
+        <v>85.8</v>
       </c>
       <c r="D1279" t="s">
         <v>348</v>
@@ -23243,7 +23246,7 @@
         <v>349</v>
       </c>
       <c r="C1280" t="n">
-        <v>88.4</v>
+        <v>88.5</v>
       </c>
       <c r="D1280" t="s">
         <v>348</v>
@@ -23260,7 +23263,7 @@
         <v>350</v>
       </c>
       <c r="C1281" t="n">
-        <v>90.6</v>
+        <v>91</v>
       </c>
       <c r="D1281" t="s">
         <v>348</v>
@@ -23277,7 +23280,7 @@
         <v>351</v>
       </c>
       <c r="C1282" t="n">
-        <v>96.2</v>
+        <v>96.6</v>
       </c>
       <c r="D1282" t="s">
         <v>348</v>
@@ -23294,7 +23297,7 @@
         <v>352</v>
       </c>
       <c r="C1283" t="n">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="D1283" t="s">
         <v>348</v>
@@ -23328,7 +23331,7 @@
         <v>354</v>
       </c>
       <c r="C1285" t="n">
-        <v>105.6</v>
+        <v>105.9</v>
       </c>
       <c r="D1285" t="s">
         <v>348</v>
@@ -23345,7 +23348,7 @@
         <v>355</v>
       </c>
       <c r="C1286" t="n">
-        <v>105.2</v>
+        <v>105.3</v>
       </c>
       <c r="D1286" t="s">
         <v>348</v>
@@ -23362,7 +23365,7 @@
         <v>356</v>
       </c>
       <c r="C1287" t="n">
-        <v>105.3</v>
+        <v>105.1</v>
       </c>
       <c r="D1287" t="s">
         <v>348</v>
@@ -23379,7 +23382,7 @@
         <v>357</v>
       </c>
       <c r="C1288" t="n">
-        <v>108.3</v>
+        <v>108.4</v>
       </c>
       <c r="D1288" t="s">
         <v>348</v>
@@ -23413,7 +23416,7 @@
         <v>359</v>
       </c>
       <c r="C1290" t="n">
-        <v>106</v>
+        <v>106.3</v>
       </c>
       <c r="D1290" t="s">
         <v>348</v>
@@ -23464,7 +23467,7 @@
         <v>363</v>
       </c>
       <c r="C1293" t="n">
-        <v>108.1</v>
+        <v>108.2</v>
       </c>
       <c r="D1293" t="s">
         <v>361</v>
@@ -23481,7 +23484,7 @@
         <v>364</v>
       </c>
       <c r="C1294" t="n">
-        <v>105.8</v>
+        <v>105.9</v>
       </c>
       <c r="D1294" t="s">
         <v>361</v>
@@ -23498,7 +23501,7 @@
         <v>365</v>
       </c>
       <c r="C1295" t="n">
-        <v>104.5</v>
+        <v>104.6</v>
       </c>
       <c r="D1295" t="s">
         <v>361</v>
@@ -23515,7 +23518,7 @@
         <v>366</v>
       </c>
       <c r="C1296" t="n">
-        <v>103.7</v>
+        <v>103.8</v>
       </c>
       <c r="D1296" t="s">
         <v>361</v>
@@ -23532,7 +23535,7 @@
         <v>367</v>
       </c>
       <c r="C1297" t="n">
-        <v>101.3</v>
+        <v>101.7</v>
       </c>
       <c r="D1297" t="s">
         <v>361</v>
@@ -23549,7 +23552,7 @@
         <v>368</v>
       </c>
       <c r="C1298" t="n">
-        <v>101.2</v>
+        <v>101.5</v>
       </c>
       <c r="D1298" t="s">
         <v>361</v>
@@ -23566,7 +23569,7 @@
         <v>369</v>
       </c>
       <c r="C1299" t="n">
-        <v>101.8</v>
+        <v>101.6</v>
       </c>
       <c r="D1299" t="s">
         <v>361</v>
@@ -23583,7 +23586,7 @@
         <v>370</v>
       </c>
       <c r="C1300" t="n">
-        <v>99</v>
+        <v>99.1</v>
       </c>
       <c r="D1300" t="s">
         <v>361</v>
@@ -23600,7 +23603,7 @@
         <v>371</v>
       </c>
       <c r="C1301" t="n">
-        <v>96.4</v>
+        <v>96.7</v>
       </c>
       <c r="D1301" t="s">
         <v>361</v>
@@ -23617,7 +23620,7 @@
         <v>372</v>
       </c>
       <c r="C1302" t="n">
-        <v>97.7</v>
+        <v>97.8</v>
       </c>
       <c r="D1302" t="s">
         <v>361</v>
@@ -23634,7 +23637,7 @@
         <v>373</v>
       </c>
       <c r="C1303" t="n">
-        <v>94.3</v>
+        <v>94.4</v>
       </c>
       <c r="D1303" t="s">
         <v>374</v>
@@ -23651,7 +23654,7 @@
         <v>375</v>
       </c>
       <c r="C1304" t="n">
-        <v>90.7</v>
+        <v>90.8</v>
       </c>
       <c r="D1304" t="s">
         <v>374</v>
@@ -23668,7 +23671,7 @@
         <v>376</v>
       </c>
       <c r="C1305" t="n">
-        <v>92.1</v>
+        <v>92.6</v>
       </c>
       <c r="D1305" t="s">
         <v>374</v>
@@ -23685,7 +23688,7 @@
         <v>377</v>
       </c>
       <c r="C1306" t="n">
-        <v>91.6</v>
+        <v>92</v>
       </c>
       <c r="D1306" t="s">
         <v>374</v>
@@ -23702,7 +23705,7 @@
         <v>378</v>
       </c>
       <c r="C1307" t="n">
-        <v>94.1</v>
+        <v>94.2</v>
       </c>
       <c r="D1307" t="s">
         <v>374</v>
@@ -23719,7 +23722,7 @@
         <v>379</v>
       </c>
       <c r="C1308" t="n">
-        <v>87.7</v>
+        <v>88.1</v>
       </c>
       <c r="D1308" t="s">
         <v>374</v>
@@ -23736,7 +23739,7 @@
         <v>380</v>
       </c>
       <c r="C1309" t="n">
-        <v>81.7</v>
+        <v>82.1</v>
       </c>
       <c r="D1309" t="s">
         <v>374</v>
@@ -23753,7 +23756,7 @@
         <v>381</v>
       </c>
       <c r="C1310" t="n">
-        <v>84.2</v>
+        <v>84.3</v>
       </c>
       <c r="D1310" t="s">
         <v>374</v>
@@ -23770,7 +23773,7 @@
         <v>202</v>
       </c>
       <c r="C1311" t="n">
-        <v>114.8</v>
+        <v>114.9</v>
       </c>
       <c r="D1311" t="s">
         <v>182</v>
@@ -23923,7 +23926,7 @@
         <v>212</v>
       </c>
       <c r="C1320" t="n">
-        <v>100.8</v>
+        <v>100.9</v>
       </c>
       <c r="D1320" t="s">
         <v>205</v>
@@ -24008,7 +24011,7 @@
         <v>217</v>
       </c>
       <c r="C1325" t="n">
-        <v>104.7</v>
+        <v>104.8</v>
       </c>
       <c r="D1325" t="s">
         <v>218</v>
@@ -24042,7 +24045,7 @@
         <v>220</v>
       </c>
       <c r="C1327" t="n">
-        <v>99.4</v>
+        <v>99.5</v>
       </c>
       <c r="D1327" t="s">
         <v>218</v>
@@ -24076,7 +24079,7 @@
         <v>222</v>
       </c>
       <c r="C1329" t="n">
-        <v>96.7</v>
+        <v>96.8</v>
       </c>
       <c r="D1329" t="s">
         <v>218</v>
@@ -24093,7 +24096,7 @@
         <v>223</v>
       </c>
       <c r="C1330" t="n">
-        <v>95.1</v>
+        <v>95.2</v>
       </c>
       <c r="D1330" t="s">
         <v>218</v>
@@ -24110,7 +24113,7 @@
         <v>224</v>
       </c>
       <c r="C1331" t="n">
-        <v>92.8</v>
+        <v>92.9</v>
       </c>
       <c r="D1331" t="s">
         <v>218</v>
@@ -24127,7 +24130,7 @@
         <v>225</v>
       </c>
       <c r="C1332" t="n">
-        <v>89.2</v>
+        <v>89.3</v>
       </c>
       <c r="D1332" t="s">
         <v>218</v>
@@ -24144,7 +24147,7 @@
         <v>226</v>
       </c>
       <c r="C1333" t="n">
-        <v>82.5</v>
+        <v>82.6</v>
       </c>
       <c r="D1333" t="s">
         <v>218</v>
@@ -24161,7 +24164,7 @@
         <v>227</v>
       </c>
       <c r="C1334" t="n">
-        <v>82.2</v>
+        <v>82.3</v>
       </c>
       <c r="D1334" t="s">
         <v>218</v>
@@ -24178,7 +24181,7 @@
         <v>228</v>
       </c>
       <c r="C1335" t="n">
-        <v>84</v>
+        <v>84.1</v>
       </c>
       <c r="D1335" t="s">
         <v>218</v>
@@ -24195,7 +24198,7 @@
         <v>229</v>
       </c>
       <c r="C1336" t="n">
-        <v>86.2</v>
+        <v>86.3</v>
       </c>
       <c r="D1336" t="s">
         <v>218</v>
@@ -24246,7 +24249,7 @@
         <v>233</v>
       </c>
       <c r="C1339" t="n">
-        <v>94.2</v>
+        <v>94.3</v>
       </c>
       <c r="D1339" t="s">
         <v>231</v>
@@ -24280,7 +24283,7 @@
         <v>235</v>
       </c>
       <c r="C1341" t="n">
-        <v>94.4</v>
+        <v>94.5</v>
       </c>
       <c r="D1341" t="s">
         <v>231</v>
@@ -24297,7 +24300,7 @@
         <v>236</v>
       </c>
       <c r="C1342" t="n">
-        <v>94.3</v>
+        <v>94.4</v>
       </c>
       <c r="D1342" t="s">
         <v>231</v>
@@ -24382,7 +24385,7 @@
         <v>241</v>
       </c>
       <c r="C1347" t="n">
-        <v>92.8</v>
+        <v>92.9</v>
       </c>
       <c r="D1347" t="s">
         <v>231</v>
@@ -24399,7 +24402,7 @@
         <v>242</v>
       </c>
       <c r="C1348" t="n">
-        <v>92.7</v>
+        <v>92.8</v>
       </c>
       <c r="D1348" t="s">
         <v>231</v>
@@ -24416,7 +24419,7 @@
         <v>243</v>
       </c>
       <c r="C1349" t="n">
-        <v>96.3</v>
+        <v>96.4</v>
       </c>
       <c r="D1349" t="s">
         <v>244</v>
@@ -24450,7 +24453,7 @@
         <v>246</v>
       </c>
       <c r="C1351" t="n">
-        <v>95.5</v>
+        <v>95.6</v>
       </c>
       <c r="D1351" t="s">
         <v>244</v>
@@ -24467,7 +24470,7 @@
         <v>247</v>
       </c>
       <c r="C1352" t="n">
-        <v>93</v>
+        <v>93.1</v>
       </c>
       <c r="D1352" t="s">
         <v>244</v>
@@ -24484,7 +24487,7 @@
         <v>248</v>
       </c>
       <c r="C1353" t="n">
-        <v>89.4</v>
+        <v>89.5</v>
       </c>
       <c r="D1353" t="s">
         <v>244</v>
@@ -24501,7 +24504,7 @@
         <v>249</v>
       </c>
       <c r="C1354" t="n">
-        <v>95.2</v>
+        <v>95.3</v>
       </c>
       <c r="D1354" t="s">
         <v>244</v>
@@ -24518,7 +24521,7 @@
         <v>250</v>
       </c>
       <c r="C1355" t="n">
-        <v>97.8</v>
+        <v>97.9</v>
       </c>
       <c r="D1355" t="s">
         <v>244</v>
@@ -24535,7 +24538,7 @@
         <v>251</v>
       </c>
       <c r="C1356" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="D1356" t="s">
         <v>244</v>
@@ -24688,7 +24691,7 @@
         <v>261</v>
       </c>
       <c r="C1365" t="n">
-        <v>108.6</v>
+        <v>108.7</v>
       </c>
       <c r="D1365" t="s">
         <v>257</v>
@@ -24705,7 +24708,7 @@
         <v>262</v>
       </c>
       <c r="C1366" t="n">
-        <v>107.7</v>
+        <v>107.8</v>
       </c>
       <c r="D1366" t="s">
         <v>257</v>
@@ -24807,7 +24810,7 @@
         <v>268</v>
       </c>
       <c r="C1372" t="n">
-        <v>104.3</v>
+        <v>104.4</v>
       </c>
       <c r="D1372" t="s">
         <v>257</v>
@@ -24858,7 +24861,7 @@
         <v>272</v>
       </c>
       <c r="C1375" t="n">
-        <v>108</v>
+        <v>108.1</v>
       </c>
       <c r="D1375" t="s">
         <v>270</v>
@@ -24892,7 +24895,7 @@
         <v>274</v>
       </c>
       <c r="C1377" t="n">
-        <v>110.4</v>
+        <v>110.5</v>
       </c>
       <c r="D1377" t="s">
         <v>270</v>
@@ -24909,7 +24912,7 @@
         <v>275</v>
       </c>
       <c r="C1378" t="n">
-        <v>108.6</v>
+        <v>108.7</v>
       </c>
       <c r="D1378" t="s">
         <v>270</v>
@@ -24960,7 +24963,7 @@
         <v>278</v>
       </c>
       <c r="C1381" t="n">
-        <v>111.7</v>
+        <v>112.1</v>
       </c>
       <c r="D1381" t="s">
         <v>270</v>
@@ -25096,7 +25099,7 @@
         <v>287</v>
       </c>
       <c r="C1389" t="n">
-        <v>106.3</v>
+        <v>106.4</v>
       </c>
       <c r="D1389" t="s">
         <v>283</v>
@@ -25113,7 +25116,7 @@
         <v>288</v>
       </c>
       <c r="C1390" t="n">
-        <v>104.5</v>
+        <v>104.6</v>
       </c>
       <c r="D1390" t="s">
         <v>283</v>
@@ -25147,7 +25150,7 @@
         <v>290</v>
       </c>
       <c r="C1392" t="n">
-        <v>103.6</v>
+        <v>103.7</v>
       </c>
       <c r="D1392" t="s">
         <v>283</v>
@@ -25164,7 +25167,7 @@
         <v>291</v>
       </c>
       <c r="C1393" t="n">
-        <v>101.4</v>
+        <v>101.5</v>
       </c>
       <c r="D1393" t="s">
         <v>283</v>
@@ -25198,7 +25201,7 @@
         <v>293</v>
       </c>
       <c r="C1395" t="n">
-        <v>101.8</v>
+        <v>101.9</v>
       </c>
       <c r="D1395" t="s">
         <v>283</v>
@@ -25232,7 +25235,7 @@
         <v>295</v>
       </c>
       <c r="C1397" t="n">
-        <v>98.4</v>
+        <v>98.9</v>
       </c>
       <c r="D1397" t="s">
         <v>296</v>
@@ -25266,7 +25269,7 @@
         <v>298</v>
       </c>
       <c r="C1399" t="n">
-        <v>101.6</v>
+        <v>101.7</v>
       </c>
       <c r="D1399" t="s">
         <v>296</v>
@@ -25300,7 +25303,7 @@
         <v>300</v>
       </c>
       <c r="C1401" t="n">
-        <v>100.6</v>
+        <v>100.7</v>
       </c>
       <c r="D1401" t="s">
         <v>296</v>
@@ -25368,7 +25371,7 @@
         <v>304</v>
       </c>
       <c r="C1405" t="n">
-        <v>99.9</v>
+        <v>100</v>
       </c>
       <c r="D1405" t="s">
         <v>296</v>
@@ -25385,7 +25388,7 @@
         <v>305</v>
       </c>
       <c r="C1406" t="n">
-        <v>103.2</v>
+        <v>103.3</v>
       </c>
       <c r="D1406" t="s">
         <v>296</v>
@@ -25436,7 +25439,7 @@
         <v>308</v>
       </c>
       <c r="C1409" t="n">
-        <v>104</v>
+        <v>104.1</v>
       </c>
       <c r="D1409" t="s">
         <v>309</v>
@@ -25555,7 +25558,7 @@
         <v>316</v>
       </c>
       <c r="C1416" t="n">
-        <v>102.6</v>
+        <v>102.3</v>
       </c>
       <c r="D1416" t="s">
         <v>309</v>
@@ -25572,7 +25575,7 @@
         <v>317</v>
       </c>
       <c r="C1417" t="n">
-        <v>104.1</v>
+        <v>104.2</v>
       </c>
       <c r="D1417" t="s">
         <v>309</v>
@@ -25606,7 +25609,7 @@
         <v>319</v>
       </c>
       <c r="C1419" t="n">
-        <v>101.9</v>
+        <v>102</v>
       </c>
       <c r="D1419" t="s">
         <v>309</v>
@@ -25640,7 +25643,7 @@
         <v>321</v>
       </c>
       <c r="C1421" t="n">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="D1421" t="s">
         <v>322</v>
@@ -25674,7 +25677,7 @@
         <v>324</v>
       </c>
       <c r="C1423" t="n">
-        <v>98.6</v>
+        <v>98.7</v>
       </c>
       <c r="D1423" t="s">
         <v>322</v>
@@ -25691,7 +25694,7 @@
         <v>325</v>
       </c>
       <c r="C1424" t="n">
-        <v>104.7</v>
+        <v>105.2</v>
       </c>
       <c r="D1424" t="s">
         <v>322</v>
@@ -25708,7 +25711,7 @@
         <v>326</v>
       </c>
       <c r="C1425" t="n">
-        <v>106.6</v>
+        <v>106.7</v>
       </c>
       <c r="D1425" t="s">
         <v>322</v>
@@ -25725,7 +25728,7 @@
         <v>327</v>
       </c>
       <c r="C1426" t="n">
-        <v>102</v>
+        <v>102.1</v>
       </c>
       <c r="D1426" t="s">
         <v>322</v>
@@ -25759,7 +25762,7 @@
         <v>329</v>
       </c>
       <c r="C1428" t="n">
-        <v>102</v>
+        <v>101.6</v>
       </c>
       <c r="D1428" t="s">
         <v>322</v>
@@ -25844,7 +25847,7 @@
         <v>334</v>
       </c>
       <c r="C1433" t="n">
-        <v>108</v>
+        <v>108.1</v>
       </c>
       <c r="D1433" t="s">
         <v>335</v>
@@ -25878,7 +25881,7 @@
         <v>337</v>
       </c>
       <c r="C1435" t="n">
-        <v>104.6</v>
+        <v>104.7</v>
       </c>
       <c r="D1435" t="s">
         <v>335</v>
@@ -25895,7 +25898,7 @@
         <v>338</v>
       </c>
       <c r="C1436" t="n">
-        <v>74.8</v>
+        <v>75.4</v>
       </c>
       <c r="D1436" t="s">
         <v>335</v>
@@ -25912,7 +25915,7 @@
         <v>339</v>
       </c>
       <c r="C1437" t="n">
-        <v>77.4</v>
+        <v>77.5</v>
       </c>
       <c r="D1437" t="s">
         <v>335</v>
@@ -25929,7 +25932,7 @@
         <v>340</v>
       </c>
       <c r="C1438" t="n">
-        <v>84.4</v>
+        <v>84.5</v>
       </c>
       <c r="D1438" t="s">
         <v>335</v>
@@ -25946,7 +25949,7 @@
         <v>341</v>
       </c>
       <c r="C1439" t="n">
-        <v>94.3</v>
+        <v>94.4</v>
       </c>
       <c r="D1439" t="s">
         <v>335</v>
@@ -25963,7 +25966,7 @@
         <v>342</v>
       </c>
       <c r="C1440" t="n">
-        <v>98</v>
+        <v>98.1</v>
       </c>
       <c r="D1440" t="s">
         <v>335</v>
@@ -25980,7 +25983,7 @@
         <v>343</v>
       </c>
       <c r="C1441" t="n">
-        <v>102.5</v>
+        <v>103.2</v>
       </c>
       <c r="D1441" t="s">
         <v>335</v>
@@ -25997,7 +26000,7 @@
         <v>344</v>
       </c>
       <c r="C1442" t="n">
-        <v>106.5</v>
+        <v>106.6</v>
       </c>
       <c r="D1442" t="s">
         <v>335</v>
@@ -26014,7 +26017,7 @@
         <v>345</v>
       </c>
       <c r="C1443" t="n">
-        <v>97.9</v>
+        <v>98</v>
       </c>
       <c r="D1443" t="s">
         <v>335</v>
@@ -26031,7 +26034,7 @@
         <v>346</v>
       </c>
       <c r="C1444" t="n">
-        <v>98.6</v>
+        <v>98.7</v>
       </c>
       <c r="D1444" t="s">
         <v>335</v>
@@ -26048,7 +26051,7 @@
         <v>347</v>
       </c>
       <c r="C1445" t="n">
-        <v>97.7</v>
+        <v>97.8</v>
       </c>
       <c r="D1445" t="s">
         <v>348</v>
@@ -26150,7 +26153,7 @@
         <v>354</v>
       </c>
       <c r="C1451" t="n">
-        <v>116.1</v>
+        <v>116.2</v>
       </c>
       <c r="D1451" t="s">
         <v>348</v>
@@ -26167,7 +26170,7 @@
         <v>355</v>
       </c>
       <c r="C1452" t="n">
-        <v>109.4</v>
+        <v>109</v>
       </c>
       <c r="D1452" t="s">
         <v>348</v>
@@ -26184,7 +26187,7 @@
         <v>356</v>
       </c>
       <c r="C1453" t="n">
-        <v>114.7</v>
+        <v>115</v>
       </c>
       <c r="D1453" t="s">
         <v>348</v>
@@ -26201,7 +26204,7 @@
         <v>357</v>
       </c>
       <c r="C1454" t="n">
-        <v>117.6</v>
+        <v>117.7</v>
       </c>
       <c r="D1454" t="s">
         <v>348</v>
@@ -26269,7 +26272,7 @@
         <v>362</v>
       </c>
       <c r="C1458" t="n">
-        <v>120</v>
+        <v>120.1</v>
       </c>
       <c r="D1458" t="s">
         <v>361</v>
@@ -26286,7 +26289,7 @@
         <v>363</v>
       </c>
       <c r="C1459" t="n">
-        <v>111</v>
+        <v>110.8</v>
       </c>
       <c r="D1459" t="s">
         <v>361</v>
@@ -26303,7 +26306,7 @@
         <v>364</v>
       </c>
       <c r="C1460" t="n">
-        <v>110.5</v>
+        <v>110.7</v>
       </c>
       <c r="D1460" t="s">
         <v>361</v>
@@ -26320,7 +26323,7 @@
         <v>365</v>
       </c>
       <c r="C1461" t="n">
-        <v>109</v>
+        <v>109.1</v>
       </c>
       <c r="D1461" t="s">
         <v>361</v>
@@ -26337,7 +26340,7 @@
         <v>366</v>
       </c>
       <c r="C1462" t="n">
-        <v>101.2</v>
+        <v>101.3</v>
       </c>
       <c r="D1462" t="s">
         <v>361</v>
@@ -26354,7 +26357,7 @@
         <v>367</v>
       </c>
       <c r="C1463" t="n">
-        <v>92.2</v>
+        <v>91.8</v>
       </c>
       <c r="D1463" t="s">
         <v>361</v>
@@ -26371,7 +26374,7 @@
         <v>368</v>
       </c>
       <c r="C1464" t="n">
-        <v>92.3</v>
+        <v>91.5</v>
       </c>
       <c r="D1464" t="s">
         <v>361</v>
@@ -26388,7 +26391,7 @@
         <v>369</v>
       </c>
       <c r="C1465" t="n">
-        <v>83.5</v>
+        <v>85.2</v>
       </c>
       <c r="D1465" t="s">
         <v>361</v>
@@ -26405,7 +26408,7 @@
         <v>370</v>
       </c>
       <c r="C1466" t="n">
-        <v>78</v>
+        <v>78.2</v>
       </c>
       <c r="D1466" t="s">
         <v>361</v>
@@ -26422,7 +26425,7 @@
         <v>371</v>
       </c>
       <c r="C1467" t="n">
-        <v>78.4</v>
+        <v>78.5</v>
       </c>
       <c r="D1467" t="s">
         <v>361</v>
@@ -26439,7 +26442,7 @@
         <v>372</v>
       </c>
       <c r="C1468" t="n">
-        <v>77</v>
+        <v>77.2</v>
       </c>
       <c r="D1468" t="s">
         <v>361</v>
@@ -26456,7 +26459,7 @@
         <v>373</v>
       </c>
       <c r="C1469" t="n">
-        <v>79.8</v>
+        <v>79.9</v>
       </c>
       <c r="D1469" t="s">
         <v>374</v>
@@ -26473,7 +26476,7 @@
         <v>375</v>
       </c>
       <c r="C1470" t="n">
-        <v>79.4</v>
+        <v>79.5</v>
       </c>
       <c r="D1470" t="s">
         <v>374</v>
@@ -26490,7 +26493,7 @@
         <v>376</v>
       </c>
       <c r="C1471" t="n">
-        <v>82.5</v>
+        <v>82.4</v>
       </c>
       <c r="D1471" t="s">
         <v>374</v>
@@ -26507,7 +26510,7 @@
         <v>377</v>
       </c>
       <c r="C1472" t="n">
-        <v>81</v>
+        <v>80.8</v>
       </c>
       <c r="D1472" t="s">
         <v>374</v>
@@ -26524,7 +26527,7 @@
         <v>378</v>
       </c>
       <c r="C1473" t="n">
-        <v>86.3</v>
+        <v>86.4</v>
       </c>
       <c r="D1473" t="s">
         <v>374</v>
@@ -26541,7 +26544,7 @@
         <v>379</v>
       </c>
       <c r="C1474" t="n">
-        <v>87.3</v>
+        <v>87.4</v>
       </c>
       <c r="D1474" t="s">
         <v>374</v>
@@ -26558,7 +26561,7 @@
         <v>380</v>
       </c>
       <c r="C1475" t="n">
-        <v>88.7</v>
+        <v>88.5</v>
       </c>
       <c r="D1475" t="s">
         <v>374</v>
@@ -26575,7 +26578,7 @@
         <v>381</v>
       </c>
       <c r="C1476" t="n">
-        <v>88.4</v>
+        <v>87.8</v>
       </c>
       <c r="D1476" t="s">
         <v>374</v>
@@ -26626,7 +26629,7 @@
         <v>204</v>
       </c>
       <c r="C1479" t="n">
-        <v>103.5</v>
+        <v>103.6</v>
       </c>
       <c r="D1479" t="s">
         <v>205</v>
@@ -26643,7 +26646,7 @@
         <v>206</v>
       </c>
       <c r="C1480" t="n">
-        <v>104</v>
+        <v>104.1</v>
       </c>
       <c r="D1480" t="s">
         <v>205</v>
@@ -26677,7 +26680,7 @@
         <v>208</v>
       </c>
       <c r="C1482" t="n">
-        <v>105.5</v>
+        <v>105.6</v>
       </c>
       <c r="D1482" t="s">
         <v>205</v>
@@ -26796,7 +26799,7 @@
         <v>215</v>
       </c>
       <c r="C1489" t="n">
-        <v>118.5</v>
+        <v>118.6</v>
       </c>
       <c r="D1489" t="s">
         <v>205</v>
@@ -26881,7 +26884,7 @@
         <v>221</v>
       </c>
       <c r="C1494" t="n">
-        <v>111.3</v>
+        <v>111.4</v>
       </c>
       <c r="D1494" t="s">
         <v>218</v>
@@ -26932,7 +26935,7 @@
         <v>224</v>
       </c>
       <c r="C1497" t="n">
-        <v>105</v>
+        <v>105.1</v>
       </c>
       <c r="D1497" t="s">
         <v>218</v>
@@ -26966,7 +26969,7 @@
         <v>226</v>
       </c>
       <c r="C1499" t="n">
-        <v>98.3</v>
+        <v>98.4</v>
       </c>
       <c r="D1499" t="s">
         <v>218</v>
@@ -27000,7 +27003,7 @@
         <v>228</v>
       </c>
       <c r="C1501" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
       <c r="D1501" t="s">
         <v>218</v>
@@ -27068,7 +27071,7 @@
         <v>233</v>
       </c>
       <c r="C1505" t="n">
-        <v>99.3</v>
+        <v>99.4</v>
       </c>
       <c r="D1505" t="s">
         <v>231</v>
@@ -27085,7 +27088,7 @@
         <v>234</v>
       </c>
       <c r="C1506" t="n">
-        <v>103.4</v>
+        <v>103.5</v>
       </c>
       <c r="D1506" t="s">
         <v>231</v>
@@ -27119,7 +27122,7 @@
         <v>236</v>
       </c>
       <c r="C1508" t="n">
-        <v>96.5</v>
+        <v>96.6</v>
       </c>
       <c r="D1508" t="s">
         <v>231</v>
@@ -27153,7 +27156,7 @@
         <v>238</v>
       </c>
       <c r="C1510" t="n">
-        <v>96.3</v>
+        <v>96.4</v>
       </c>
       <c r="D1510" t="s">
         <v>231</v>
@@ -27204,7 +27207,7 @@
         <v>241</v>
       </c>
       <c r="C1513" t="n">
-        <v>86.5</v>
+        <v>86.6</v>
       </c>
       <c r="D1513" t="s">
         <v>231</v>
@@ -27255,7 +27258,7 @@
         <v>245</v>
       </c>
       <c r="C1516" t="n">
-        <v>92.1</v>
+        <v>92.2</v>
       </c>
       <c r="D1516" t="s">
         <v>244</v>
@@ -27289,7 +27292,7 @@
         <v>247</v>
       </c>
       <c r="C1518" t="n">
-        <v>94.1</v>
+        <v>94.2</v>
       </c>
       <c r="D1518" t="s">
         <v>244</v>
@@ -27323,7 +27326,7 @@
         <v>249</v>
       </c>
       <c r="C1520" t="n">
-        <v>97.8</v>
+        <v>97.9</v>
       </c>
       <c r="D1520" t="s">
         <v>244</v>
@@ -27374,7 +27377,7 @@
         <v>252</v>
       </c>
       <c r="C1523" t="n">
-        <v>105.1</v>
+        <v>105.2</v>
       </c>
       <c r="D1523" t="s">
         <v>244</v>
@@ -27391,7 +27394,7 @@
         <v>253</v>
       </c>
       <c r="C1524" t="n">
-        <v>102.2</v>
+        <v>102.3</v>
       </c>
       <c r="D1524" t="s">
         <v>244</v>
@@ -27408,7 +27411,7 @@
         <v>254</v>
       </c>
       <c r="C1525" t="n">
-        <v>103.5</v>
+        <v>103.6</v>
       </c>
       <c r="D1525" t="s">
         <v>244</v>
@@ -27442,7 +27445,7 @@
         <v>256</v>
       </c>
       <c r="C1527" t="n">
-        <v>106.3</v>
+        <v>106.4</v>
       </c>
       <c r="D1527" t="s">
         <v>257</v>
@@ -27544,7 +27547,7 @@
         <v>263</v>
       </c>
       <c r="C1533" t="n">
-        <v>100.8</v>
+        <v>100.9</v>
       </c>
       <c r="D1533" t="s">
         <v>257</v>
@@ -27561,7 +27564,7 @@
         <v>264</v>
       </c>
       <c r="C1534" t="n">
-        <v>101.3</v>
+        <v>101.4</v>
       </c>
       <c r="D1534" t="s">
         <v>257</v>
@@ -27646,7 +27649,7 @@
         <v>269</v>
       </c>
       <c r="C1539" t="n">
-        <v>103.5</v>
+        <v>103.6</v>
       </c>
       <c r="D1539" t="s">
         <v>270</v>
@@ -27697,7 +27700,7 @@
         <v>273</v>
       </c>
       <c r="C1542" t="n">
-        <v>105.3</v>
+        <v>105.4</v>
       </c>
       <c r="D1542" t="s">
         <v>270</v>
@@ -27714,7 +27717,7 @@
         <v>274</v>
       </c>
       <c r="C1543" t="n">
-        <v>104.7</v>
+        <v>104.8</v>
       </c>
       <c r="D1543" t="s">
         <v>270</v>
@@ -27799,7 +27802,7 @@
         <v>279</v>
       </c>
       <c r="C1548" t="n">
-        <v>104.6</v>
+        <v>104.7</v>
       </c>
       <c r="D1548" t="s">
         <v>270</v>
@@ -27816,7 +27819,7 @@
         <v>280</v>
       </c>
       <c r="C1549" t="n">
-        <v>105.8</v>
+        <v>105.9</v>
       </c>
       <c r="D1549" t="s">
         <v>270</v>
@@ -27935,7 +27938,7 @@
         <v>288</v>
       </c>
       <c r="C1556" t="n">
-        <v>102.5</v>
+        <v>102.6</v>
       </c>
       <c r="D1556" t="s">
         <v>283</v>
@@ -27969,7 +27972,7 @@
         <v>290</v>
       </c>
       <c r="C1558" t="n">
-        <v>104.8</v>
+        <v>104.9</v>
       </c>
       <c r="D1558" t="s">
         <v>283</v>
@@ -27986,7 +27989,7 @@
         <v>291</v>
       </c>
       <c r="C1559" t="n">
-        <v>105.5</v>
+        <v>105.6</v>
       </c>
       <c r="D1559" t="s">
         <v>283</v>
@@ -28003,7 +28006,7 @@
         <v>292</v>
       </c>
       <c r="C1560" t="n">
-        <v>104.1</v>
+        <v>104.2</v>
       </c>
       <c r="D1560" t="s">
         <v>283</v>
@@ -28020,7 +28023,7 @@
         <v>293</v>
       </c>
       <c r="C1561" t="n">
-        <v>105.3</v>
+        <v>105.4</v>
       </c>
       <c r="D1561" t="s">
         <v>283</v>
@@ -28071,7 +28074,7 @@
         <v>297</v>
       </c>
       <c r="C1564" t="n">
-        <v>106.2</v>
+        <v>106.3</v>
       </c>
       <c r="D1564" t="s">
         <v>296</v>
@@ -28088,7 +28091,7 @@
         <v>298</v>
       </c>
       <c r="C1565" t="n">
-        <v>106.5</v>
+        <v>106.6</v>
       </c>
       <c r="D1565" t="s">
         <v>296</v>
@@ -28105,7 +28108,7 @@
         <v>299</v>
       </c>
       <c r="C1566" t="n">
-        <v>105</v>
+        <v>105.1</v>
       </c>
       <c r="D1566" t="s">
         <v>296</v>
@@ -28139,7 +28142,7 @@
         <v>301</v>
       </c>
       <c r="C1568" t="n">
-        <v>105.2</v>
+        <v>105.3</v>
       </c>
       <c r="D1568" t="s">
         <v>296</v>
@@ -28190,7 +28193,7 @@
         <v>304</v>
       </c>
       <c r="C1571" t="n">
-        <v>103.2</v>
+        <v>103.3</v>
       </c>
       <c r="D1571" t="s">
         <v>296</v>
@@ -28241,7 +28244,7 @@
         <v>307</v>
       </c>
       <c r="C1574" t="n">
-        <v>106.7</v>
+        <v>106.8</v>
       </c>
       <c r="D1574" t="s">
         <v>296</v>
@@ -28275,7 +28278,7 @@
         <v>310</v>
       </c>
       <c r="C1576" t="n">
-        <v>105.8</v>
+        <v>105.9</v>
       </c>
       <c r="D1576" t="s">
         <v>309</v>
@@ -28292,7 +28295,7 @@
         <v>311</v>
       </c>
       <c r="C1577" t="n">
-        <v>103.6</v>
+        <v>103.7</v>
       </c>
       <c r="D1577" t="s">
         <v>309</v>
@@ -28326,7 +28329,7 @@
         <v>313</v>
       </c>
       <c r="C1579" t="n">
-        <v>103.5</v>
+        <v>103.6</v>
       </c>
       <c r="D1579" t="s">
         <v>309</v>
@@ -28428,7 +28431,7 @@
         <v>319</v>
       </c>
       <c r="C1585" t="n">
-        <v>98.3</v>
+        <v>98.6</v>
       </c>
       <c r="D1585" t="s">
         <v>309</v>
@@ -28615,7 +28618,7 @@
         <v>331</v>
       </c>
       <c r="C1596" t="n">
-        <v>90.9</v>
+        <v>91</v>
       </c>
       <c r="D1596" t="s">
         <v>322</v>
@@ -28666,7 +28669,7 @@
         <v>334</v>
       </c>
       <c r="C1599" t="n">
-        <v>94.4</v>
+        <v>94.5</v>
       </c>
       <c r="D1599" t="s">
         <v>335</v>
@@ -28683,7 +28686,7 @@
         <v>336</v>
       </c>
       <c r="C1600" t="n">
-        <v>94.5</v>
+        <v>94.6</v>
       </c>
       <c r="D1600" t="s">
         <v>335</v>
@@ -28700,7 +28703,7 @@
         <v>337</v>
       </c>
       <c r="C1601" t="n">
-        <v>88.3</v>
+        <v>88.1</v>
       </c>
       <c r="D1601" t="s">
         <v>335</v>
@@ -28717,7 +28720,7 @@
         <v>338</v>
       </c>
       <c r="C1602" t="n">
-        <v>52.2</v>
+        <v>52.3</v>
       </c>
       <c r="D1602" t="s">
         <v>335</v>
@@ -28734,7 +28737,7 @@
         <v>339</v>
       </c>
       <c r="C1603" t="n">
-        <v>54.9</v>
+        <v>55</v>
       </c>
       <c r="D1603" t="s">
         <v>335</v>
@@ -28751,7 +28754,7 @@
         <v>340</v>
       </c>
       <c r="C1604" t="n">
-        <v>63.5</v>
+        <v>63.6</v>
       </c>
       <c r="D1604" t="s">
         <v>335</v>
@@ -28768,7 +28771,7 @@
         <v>341</v>
       </c>
       <c r="C1605" t="n">
-        <v>73.7</v>
+        <v>73.8</v>
       </c>
       <c r="D1605" t="s">
         <v>335</v>
@@ -28785,7 +28788,7 @@
         <v>342</v>
       </c>
       <c r="C1606" t="n">
-        <v>79.6</v>
+        <v>79.7</v>
       </c>
       <c r="D1606" t="s">
         <v>335</v>
@@ -28802,7 +28805,7 @@
         <v>343</v>
       </c>
       <c r="C1607" t="n">
-        <v>86.1</v>
+        <v>86.4</v>
       </c>
       <c r="D1607" t="s">
         <v>335</v>
@@ -28819,7 +28822,7 @@
         <v>344</v>
       </c>
       <c r="C1608" t="n">
-        <v>87.1</v>
+        <v>87.2</v>
       </c>
       <c r="D1608" t="s">
         <v>335</v>
@@ -28836,7 +28839,7 @@
         <v>345</v>
       </c>
       <c r="C1609" t="n">
-        <v>88.3</v>
+        <v>88.4</v>
       </c>
       <c r="D1609" t="s">
         <v>335</v>
@@ -28853,7 +28856,7 @@
         <v>346</v>
       </c>
       <c r="C1610" t="n">
-        <v>87.5</v>
+        <v>87.6</v>
       </c>
       <c r="D1610" t="s">
         <v>335</v>
@@ -28870,7 +28873,7 @@
         <v>347</v>
       </c>
       <c r="C1611" t="n">
-        <v>92.7</v>
+        <v>92.8</v>
       </c>
       <c r="D1611" t="s">
         <v>348</v>
@@ -28887,7 +28890,7 @@
         <v>349</v>
       </c>
       <c r="C1612" t="n">
-        <v>97.3</v>
+        <v>96.7</v>
       </c>
       <c r="D1612" t="s">
         <v>348</v>
@@ -28904,7 +28907,7 @@
         <v>350</v>
       </c>
       <c r="C1613" t="n">
-        <v>97</v>
+        <v>96.9</v>
       </c>
       <c r="D1613" t="s">
         <v>348</v>
@@ -29006,7 +29009,7 @@
         <v>356</v>
       </c>
       <c r="C1619" t="n">
-        <v>111.4</v>
+        <v>111.7</v>
       </c>
       <c r="D1619" t="s">
         <v>348</v>
@@ -29023,7 +29026,7 @@
         <v>357</v>
       </c>
       <c r="C1620" t="n">
-        <v>112.8</v>
+        <v>113</v>
       </c>
       <c r="D1620" t="s">
         <v>348</v>
@@ -29040,7 +29043,7 @@
         <v>358</v>
       </c>
       <c r="C1621" t="n">
-        <v>112.2</v>
+        <v>112.3</v>
       </c>
       <c r="D1621" t="s">
         <v>348</v>
@@ -29074,7 +29077,7 @@
         <v>360</v>
       </c>
       <c r="C1623" t="n">
-        <v>106.4</v>
+        <v>106.5</v>
       </c>
       <c r="D1623" t="s">
         <v>361</v>
@@ -29091,7 +29094,7 @@
         <v>362</v>
       </c>
       <c r="C1624" t="n">
-        <v>107.5</v>
+        <v>107.6</v>
       </c>
       <c r="D1624" t="s">
         <v>361</v>
@@ -29108,7 +29111,7 @@
         <v>363</v>
       </c>
       <c r="C1625" t="n">
-        <v>109.2</v>
+        <v>109.3</v>
       </c>
       <c r="D1625" t="s">
         <v>361</v>
@@ -29125,7 +29128,7 @@
         <v>364</v>
       </c>
       <c r="C1626" t="n">
-        <v>109.2</v>
+        <v>109.3</v>
       </c>
       <c r="D1626" t="s">
         <v>361</v>
@@ -29142,7 +29145,7 @@
         <v>365</v>
       </c>
       <c r="C1627" t="n">
-        <v>108.2</v>
+        <v>108.3</v>
       </c>
       <c r="D1627" t="s">
         <v>361</v>
@@ -29176,7 +29179,7 @@
         <v>367</v>
       </c>
       <c r="C1629" t="n">
-        <v>102.2</v>
+        <v>102.3</v>
       </c>
       <c r="D1629" t="s">
         <v>361</v>
@@ -29193,7 +29196,7 @@
         <v>368</v>
       </c>
       <c r="C1630" t="n">
-        <v>97.8</v>
+        <v>97.6</v>
       </c>
       <c r="D1630" t="s">
         <v>361</v>
@@ -29210,7 +29213,7 @@
         <v>369</v>
       </c>
       <c r="C1631" t="n">
-        <v>94.6</v>
+        <v>95.2</v>
       </c>
       <c r="D1631" t="s">
         <v>361</v>
@@ -29227,7 +29230,7 @@
         <v>370</v>
       </c>
       <c r="C1632" t="n">
-        <v>89.1</v>
+        <v>89.4</v>
       </c>
       <c r="D1632" t="s">
         <v>361</v>
@@ -29261,7 +29264,7 @@
         <v>372</v>
       </c>
       <c r="C1634" t="n">
-        <v>88.7</v>
+        <v>88.8</v>
       </c>
       <c r="D1634" t="s">
         <v>361</v>
@@ -29278,7 +29281,7 @@
         <v>373</v>
       </c>
       <c r="C1635" t="n">
-        <v>88.1</v>
+        <v>88.2</v>
       </c>
       <c r="D1635" t="s">
         <v>374</v>
@@ -29295,7 +29298,7 @@
         <v>375</v>
       </c>
       <c r="C1636" t="n">
-        <v>90.6</v>
+        <v>90.4</v>
       </c>
       <c r="D1636" t="s">
         <v>374</v>
@@ -29312,7 +29315,7 @@
         <v>376</v>
       </c>
       <c r="C1637" t="n">
-        <v>92</v>
+        <v>92.1</v>
       </c>
       <c r="D1637" t="s">
         <v>374</v>
@@ -29329,7 +29332,7 @@
         <v>377</v>
       </c>
       <c r="C1638" t="n">
-        <v>90.4</v>
+        <v>90.5</v>
       </c>
       <c r="D1638" t="s">
         <v>374</v>
@@ -29346,7 +29349,7 @@
         <v>378</v>
       </c>
       <c r="C1639" t="n">
-        <v>90.2</v>
+        <v>90.3</v>
       </c>
       <c r="D1639" t="s">
         <v>374</v>
@@ -29363,7 +29366,7 @@
         <v>379</v>
       </c>
       <c r="C1640" t="n">
-        <v>92.1</v>
+        <v>92.2</v>
       </c>
       <c r="D1640" t="s">
         <v>374</v>
@@ -29397,7 +29400,7 @@
         <v>381</v>
       </c>
       <c r="C1642" t="n">
-        <v>87.2</v>
+        <v>87.3</v>
       </c>
       <c r="D1642" t="s">
         <v>374</v>
@@ -29414,7 +29417,7 @@
         <v>202</v>
       </c>
       <c r="C1643" t="n">
-        <v>104.6</v>
+        <v>104.7</v>
       </c>
       <c r="D1643" t="s">
         <v>182</v>
@@ -29431,7 +29434,7 @@
         <v>203</v>
       </c>
       <c r="C1644" t="n">
-        <v>102.8</v>
+        <v>102.9</v>
       </c>
       <c r="D1644" t="s">
         <v>182</v>
@@ -29448,7 +29451,7 @@
         <v>204</v>
       </c>
       <c r="C1645" t="n">
-        <v>101.1</v>
+        <v>101.2</v>
       </c>
       <c r="D1645" t="s">
         <v>205</v>
@@ -29465,7 +29468,7 @@
         <v>206</v>
       </c>
       <c r="C1646" t="n">
-        <v>104.4</v>
+        <v>104.5</v>
       </c>
       <c r="D1646" t="s">
         <v>205</v>
@@ -29482,7 +29485,7 @@
         <v>207</v>
       </c>
       <c r="C1647" t="n">
-        <v>104.9</v>
+        <v>105</v>
       </c>
       <c r="D1647" t="s">
         <v>205</v>
@@ -29499,7 +29502,7 @@
         <v>208</v>
       </c>
       <c r="C1648" t="n">
-        <v>106.6</v>
+        <v>106.7</v>
       </c>
       <c r="D1648" t="s">
         <v>205</v>
@@ -29516,7 +29519,7 @@
         <v>209</v>
       </c>
       <c r="C1649" t="n">
-        <v>107</v>
+        <v>107.1</v>
       </c>
       <c r="D1649" t="s">
         <v>205</v>
@@ -29686,7 +29689,7 @@
         <v>220</v>
       </c>
       <c r="C1659" t="n">
-        <v>106.1</v>
+        <v>106.2</v>
       </c>
       <c r="D1659" t="s">
         <v>218</v>
@@ -29720,7 +29723,7 @@
         <v>222</v>
       </c>
       <c r="C1661" t="n">
-        <v>104.7</v>
+        <v>104.8</v>
       </c>
       <c r="D1661" t="s">
         <v>218</v>
@@ -29737,7 +29740,7 @@
         <v>223</v>
       </c>
       <c r="C1662" t="n">
-        <v>105.2</v>
+        <v>105.3</v>
       </c>
       <c r="D1662" t="s">
         <v>218</v>
@@ -29754,7 +29757,7 @@
         <v>224</v>
       </c>
       <c r="C1663" t="n">
-        <v>101.8</v>
+        <v>101.9</v>
       </c>
       <c r="D1663" t="s">
         <v>218</v>
@@ -29771,7 +29774,7 @@
         <v>225</v>
       </c>
       <c r="C1664" t="n">
-        <v>96.7</v>
+        <v>96.9</v>
       </c>
       <c r="D1664" t="s">
         <v>218</v>
@@ -29788,7 +29791,7 @@
         <v>226</v>
       </c>
       <c r="C1665" t="n">
-        <v>92.6</v>
+        <v>92.8</v>
       </c>
       <c r="D1665" t="s">
         <v>218</v>
@@ -29805,7 +29808,7 @@
         <v>227</v>
       </c>
       <c r="C1666" t="n">
-        <v>93.5</v>
+        <v>93.7</v>
       </c>
       <c r="D1666" t="s">
         <v>218</v>
@@ -29822,7 +29825,7 @@
         <v>228</v>
       </c>
       <c r="C1667" t="n">
-        <v>94.6</v>
+        <v>94.7</v>
       </c>
       <c r="D1667" t="s">
         <v>218</v>
@@ -29839,7 +29842,7 @@
         <v>229</v>
       </c>
       <c r="C1668" t="n">
-        <v>95.6</v>
+        <v>95.7</v>
       </c>
       <c r="D1668" t="s">
         <v>218</v>
@@ -29856,7 +29859,7 @@
         <v>230</v>
       </c>
       <c r="C1669" t="n">
-        <v>96.9</v>
+        <v>97</v>
       </c>
       <c r="D1669" t="s">
         <v>231</v>
@@ -29873,7 +29876,7 @@
         <v>232</v>
       </c>
       <c r="C1670" t="n">
-        <v>96.5</v>
+        <v>96.6</v>
       </c>
       <c r="D1670" t="s">
         <v>231</v>
@@ -29890,7 +29893,7 @@
         <v>233</v>
       </c>
       <c r="C1671" t="n">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
       <c r="D1671" t="s">
         <v>231</v>
@@ -29907,7 +29910,7 @@
         <v>234</v>
       </c>
       <c r="C1672" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
       <c r="D1672" t="s">
         <v>231</v>
@@ -29924,7 +29927,7 @@
         <v>235</v>
       </c>
       <c r="C1673" t="n">
-        <v>99.9</v>
+        <v>100</v>
       </c>
       <c r="D1673" t="s">
         <v>231</v>
@@ -29941,7 +29944,7 @@
         <v>236</v>
       </c>
       <c r="C1674" t="n">
-        <v>99.9</v>
+        <v>100</v>
       </c>
       <c r="D1674" t="s">
         <v>231</v>
@@ -29958,7 +29961,7 @@
         <v>237</v>
       </c>
       <c r="C1675" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="D1675" t="s">
         <v>231</v>
@@ -29975,7 +29978,7 @@
         <v>238</v>
       </c>
       <c r="C1676" t="n">
-        <v>101</v>
+        <v>101.1</v>
       </c>
       <c r="D1676" t="s">
         <v>231</v>
@@ -29992,7 +29995,7 @@
         <v>239</v>
       </c>
       <c r="C1677" t="n">
-        <v>99.2</v>
+        <v>99.3</v>
       </c>
       <c r="D1677" t="s">
         <v>231</v>
@@ -30026,7 +30029,7 @@
         <v>241</v>
       </c>
       <c r="C1679" t="n">
-        <v>96.5</v>
+        <v>96.6</v>
       </c>
       <c r="D1679" t="s">
         <v>231</v>
@@ -30043,7 +30046,7 @@
         <v>242</v>
       </c>
       <c r="C1680" t="n">
-        <v>93.3</v>
+        <v>93.4</v>
       </c>
       <c r="D1680" t="s">
         <v>231</v>
@@ -30060,7 +30063,7 @@
         <v>243</v>
       </c>
       <c r="C1681" t="n">
-        <v>98.2</v>
+        <v>98.3</v>
       </c>
       <c r="D1681" t="s">
         <v>244</v>
@@ -30077,7 +30080,7 @@
         <v>245</v>
       </c>
       <c r="C1682" t="n">
-        <v>99.2</v>
+        <v>99.3</v>
       </c>
       <c r="D1682" t="s">
         <v>244</v>
@@ -30094,7 +30097,7 @@
         <v>246</v>
       </c>
       <c r="C1683" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="D1683" t="s">
         <v>244</v>
@@ -30111,7 +30114,7 @@
         <v>247</v>
       </c>
       <c r="C1684" t="n">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="D1684" t="s">
         <v>244</v>
@@ -30128,7 +30131,7 @@
         <v>248</v>
       </c>
       <c r="C1685" t="n">
-        <v>99.1</v>
+        <v>99.2</v>
       </c>
       <c r="D1685" t="s">
         <v>244</v>
@@ -30145,7 +30148,7 @@
         <v>249</v>
       </c>
       <c r="C1686" t="n">
-        <v>99.4</v>
+        <v>99.5</v>
       </c>
       <c r="D1686" t="s">
         <v>244</v>
@@ -30179,7 +30182,7 @@
         <v>251</v>
       </c>
       <c r="C1688" t="n">
-        <v>101.8</v>
+        <v>101.9</v>
       </c>
       <c r="D1688" t="s">
         <v>244</v>
@@ -30213,7 +30216,7 @@
         <v>253</v>
       </c>
       <c r="C1690" t="n">
-        <v>103.1</v>
+        <v>103.2</v>
       </c>
       <c r="D1690" t="s">
         <v>244</v>
@@ -30281,7 +30284,7 @@
         <v>258</v>
       </c>
       <c r="C1694" t="n">
-        <v>103.1</v>
+        <v>103.2</v>
       </c>
       <c r="D1694" t="s">
         <v>257</v>
@@ -30298,7 +30301,7 @@
         <v>259</v>
       </c>
       <c r="C1695" t="n">
-        <v>102.3</v>
+        <v>102.4</v>
       </c>
       <c r="D1695" t="s">
         <v>257</v>
@@ -30315,7 +30318,7 @@
         <v>260</v>
       </c>
       <c r="C1696" t="n">
-        <v>103</v>
+        <v>103.1</v>
       </c>
       <c r="D1696" t="s">
         <v>257</v>
@@ -30366,7 +30369,7 @@
         <v>263</v>
       </c>
       <c r="C1699" t="n">
-        <v>104.3</v>
+        <v>104.4</v>
       </c>
       <c r="D1699" t="s">
         <v>257</v>
@@ -30383,7 +30386,7 @@
         <v>264</v>
       </c>
       <c r="C1700" t="n">
-        <v>101.8</v>
+        <v>101.9</v>
       </c>
       <c r="D1700" t="s">
         <v>257</v>
@@ -30417,7 +30420,7 @@
         <v>266</v>
       </c>
       <c r="C1702" t="n">
-        <v>101.3</v>
+        <v>101.4</v>
       </c>
       <c r="D1702" t="s">
         <v>257</v>
@@ -30451,7 +30454,7 @@
         <v>268</v>
       </c>
       <c r="C1704" t="n">
-        <v>101.7</v>
+        <v>101.8</v>
       </c>
       <c r="D1704" t="s">
         <v>257</v>
@@ -30468,7 +30471,7 @@
         <v>269</v>
       </c>
       <c r="C1705" t="n">
-        <v>101.3</v>
+        <v>101.4</v>
       </c>
       <c r="D1705" t="s">
         <v>270</v>
@@ -30485,7 +30488,7 @@
         <v>271</v>
       </c>
       <c r="C1706" t="n">
-        <v>100.8</v>
+        <v>100.9</v>
       </c>
       <c r="D1706" t="s">
         <v>270</v>
@@ -30502,7 +30505,7 @@
         <v>272</v>
       </c>
       <c r="C1707" t="n">
-        <v>101.7</v>
+        <v>101.8</v>
       </c>
       <c r="D1707" t="s">
         <v>270</v>
@@ -30638,7 +30641,7 @@
         <v>280</v>
       </c>
       <c r="C1715" t="n">
-        <v>96.8</v>
+        <v>96.9</v>
       </c>
       <c r="D1715" t="s">
         <v>270</v>
@@ -30655,7 +30658,7 @@
         <v>281</v>
       </c>
       <c r="C1716" t="n">
-        <v>99.8</v>
+        <v>99.9</v>
       </c>
       <c r="D1716" t="s">
         <v>270</v>
@@ -30672,7 +30675,7 @@
         <v>282</v>
       </c>
       <c r="C1717" t="n">
-        <v>99</v>
+        <v>99.1</v>
       </c>
       <c r="D1717" t="s">
         <v>283</v>
@@ -30740,7 +30743,7 @@
         <v>287</v>
       </c>
       <c r="C1721" t="n">
-        <v>99.8</v>
+        <v>99.9</v>
       </c>
       <c r="D1721" t="s">
         <v>283</v>
@@ -30757,7 +30760,7 @@
         <v>288</v>
       </c>
       <c r="C1722" t="n">
-        <v>101.6</v>
+        <v>101.7</v>
       </c>
       <c r="D1722" t="s">
         <v>283</v>
@@ -30791,7 +30794,7 @@
         <v>290</v>
       </c>
       <c r="C1724" t="n">
-        <v>98.9</v>
+        <v>99</v>
       </c>
       <c r="D1724" t="s">
         <v>283</v>
@@ -30859,7 +30862,7 @@
         <v>294</v>
       </c>
       <c r="C1728" t="n">
-        <v>102.8</v>
+        <v>102.9</v>
       </c>
       <c r="D1728" t="s">
         <v>283</v>
@@ -30927,7 +30930,7 @@
         <v>299</v>
       </c>
       <c r="C1732" t="n">
-        <v>104</v>
+        <v>104.1</v>
       </c>
       <c r="D1732" t="s">
         <v>296</v>
@@ -30944,7 +30947,7 @@
         <v>300</v>
       </c>
       <c r="C1733" t="n">
-        <v>107.8</v>
+        <v>107.7</v>
       </c>
       <c r="D1733" t="s">
         <v>296</v>
@@ -30995,7 +30998,7 @@
         <v>303</v>
       </c>
       <c r="C1736" t="n">
-        <v>103.8</v>
+        <v>103.9</v>
       </c>
       <c r="D1736" t="s">
         <v>296</v>
@@ -31012,7 +31015,7 @@
         <v>304</v>
       </c>
       <c r="C1737" t="n">
-        <v>103.5</v>
+        <v>103.6</v>
       </c>
       <c r="D1737" t="s">
         <v>296</v>
@@ -31131,7 +31134,7 @@
         <v>312</v>
       </c>
       <c r="C1744" t="n">
-        <v>103.3</v>
+        <v>103.4</v>
       </c>
       <c r="D1744" t="s">
         <v>309</v>
@@ -31165,7 +31168,7 @@
         <v>314</v>
       </c>
       <c r="C1746" t="n">
-        <v>101.7</v>
+        <v>101.8</v>
       </c>
       <c r="D1746" t="s">
         <v>309</v>
@@ -31250,7 +31253,7 @@
         <v>319</v>
       </c>
       <c r="C1751" t="n">
-        <v>100.6</v>
+        <v>100.7</v>
       </c>
       <c r="D1751" t="s">
         <v>309</v>
@@ -31284,7 +31287,7 @@
         <v>321</v>
       </c>
       <c r="C1753" t="n">
-        <v>97</v>
+        <v>97.1</v>
       </c>
       <c r="D1753" t="s">
         <v>322</v>
@@ -31301,7 +31304,7 @@
         <v>323</v>
       </c>
       <c r="C1754" t="n">
-        <v>97.1</v>
+        <v>97.2</v>
       </c>
       <c r="D1754" t="s">
         <v>322</v>
@@ -31318,7 +31321,7 @@
         <v>324</v>
       </c>
       <c r="C1755" t="n">
-        <v>99.6</v>
+        <v>99.7</v>
       </c>
       <c r="D1755" t="s">
         <v>322</v>
@@ -31335,7 +31338,7 @@
         <v>325</v>
       </c>
       <c r="C1756" t="n">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="D1756" t="s">
         <v>322</v>
@@ -31352,7 +31355,7 @@
         <v>326</v>
       </c>
       <c r="C1757" t="n">
-        <v>98.3</v>
+        <v>98.6</v>
       </c>
       <c r="D1757" t="s">
         <v>322</v>
@@ -31369,7 +31372,7 @@
         <v>327</v>
       </c>
       <c r="C1758" t="n">
-        <v>98.2</v>
+        <v>98.3</v>
       </c>
       <c r="D1758" t="s">
         <v>322</v>
@@ -31386,7 +31389,7 @@
         <v>328</v>
       </c>
       <c r="C1759" t="n">
-        <v>101.2</v>
+        <v>101.3</v>
       </c>
       <c r="D1759" t="s">
         <v>322</v>
@@ -31403,7 +31406,7 @@
         <v>329</v>
       </c>
       <c r="C1760" t="n">
-        <v>97.9</v>
+        <v>98.1</v>
       </c>
       <c r="D1760" t="s">
         <v>322</v>
@@ -31420,7 +31423,7 @@
         <v>330</v>
       </c>
       <c r="C1761" t="n">
-        <v>95.4</v>
+        <v>95.5</v>
       </c>
       <c r="D1761" t="s">
         <v>322</v>
@@ -31437,7 +31440,7 @@
         <v>331</v>
       </c>
       <c r="C1762" t="n">
-        <v>97.1</v>
+        <v>97</v>
       </c>
       <c r="D1762" t="s">
         <v>322</v>
@@ -31454,7 +31457,7 @@
         <v>332</v>
       </c>
       <c r="C1763" t="n">
-        <v>96.9</v>
+        <v>97</v>
       </c>
       <c r="D1763" t="s">
         <v>322</v>
@@ -31471,7 +31474,7 @@
         <v>333</v>
       </c>
       <c r="C1764" t="n">
-        <v>97.5</v>
+        <v>97.6</v>
       </c>
       <c r="D1764" t="s">
         <v>322</v>
@@ -31488,7 +31491,7 @@
         <v>334</v>
       </c>
       <c r="C1765" t="n">
-        <v>97.2</v>
+        <v>97.3</v>
       </c>
       <c r="D1765" t="s">
         <v>335</v>
@@ -31505,7 +31508,7 @@
         <v>336</v>
       </c>
       <c r="C1766" t="n">
-        <v>100.7</v>
+        <v>100.8</v>
       </c>
       <c r="D1766" t="s">
         <v>335</v>
@@ -31522,7 +31525,7 @@
         <v>337</v>
       </c>
       <c r="C1767" t="n">
-        <v>95.2</v>
+        <v>95.4</v>
       </c>
       <c r="D1767" t="s">
         <v>335</v>
@@ -31539,7 +31542,7 @@
         <v>338</v>
       </c>
       <c r="C1768" t="n">
-        <v>83.5</v>
+        <v>83.8</v>
       </c>
       <c r="D1768" t="s">
         <v>335</v>
@@ -31556,7 +31559,7 @@
         <v>339</v>
       </c>
       <c r="C1769" t="n">
-        <v>85.8</v>
+        <v>86</v>
       </c>
       <c r="D1769" t="s">
         <v>335</v>
@@ -31573,7 +31576,7 @@
         <v>340</v>
       </c>
       <c r="C1770" t="n">
-        <v>89.9</v>
+        <v>90.1</v>
       </c>
       <c r="D1770" t="s">
         <v>335</v>
@@ -31590,7 +31593,7 @@
         <v>341</v>
       </c>
       <c r="C1771" t="n">
-        <v>91.5</v>
+        <v>91.7</v>
       </c>
       <c r="D1771" t="s">
         <v>335</v>
@@ -31607,7 +31610,7 @@
         <v>342</v>
       </c>
       <c r="C1772" t="n">
-        <v>91.7</v>
+        <v>91.9</v>
       </c>
       <c r="D1772" t="s">
         <v>335</v>
@@ -31624,7 +31627,7 @@
         <v>343</v>
       </c>
       <c r="C1773" t="n">
-        <v>93.7</v>
+        <v>94.3</v>
       </c>
       <c r="D1773" t="s">
         <v>335</v>
@@ -31641,7 +31644,7 @@
         <v>344</v>
       </c>
       <c r="C1774" t="n">
-        <v>95.6</v>
+        <v>95.8</v>
       </c>
       <c r="D1774" t="s">
         <v>335</v>
@@ -31658,7 +31661,7 @@
         <v>345</v>
       </c>
       <c r="C1775" t="n">
-        <v>94.7</v>
+        <v>94.8</v>
       </c>
       <c r="D1775" t="s">
         <v>335</v>
@@ -31675,7 +31678,7 @@
         <v>346</v>
       </c>
       <c r="C1776" t="n">
-        <v>96.6</v>
+        <v>96.7</v>
       </c>
       <c r="D1776" t="s">
         <v>335</v>
@@ -31692,7 +31695,7 @@
         <v>347</v>
       </c>
       <c r="C1777" t="n">
-        <v>98.7</v>
+        <v>98.9</v>
       </c>
       <c r="D1777" t="s">
         <v>348</v>
@@ -31709,7 +31712,7 @@
         <v>349</v>
       </c>
       <c r="C1778" t="n">
-        <v>100.4</v>
+        <v>100.5</v>
       </c>
       <c r="D1778" t="s">
         <v>348</v>
@@ -31726,7 +31729,7 @@
         <v>350</v>
       </c>
       <c r="C1779" t="n">
-        <v>101.6</v>
+        <v>101.5</v>
       </c>
       <c r="D1779" t="s">
         <v>348</v>
@@ -31760,7 +31763,7 @@
         <v>352</v>
       </c>
       <c r="C1781" t="n">
-        <v>109.3</v>
+        <v>109.5</v>
       </c>
       <c r="D1781" t="s">
         <v>348</v>
@@ -31794,7 +31797,7 @@
         <v>354</v>
       </c>
       <c r="C1783" t="n">
-        <v>108</v>
+        <v>107.6</v>
       </c>
       <c r="D1783" t="s">
         <v>348</v>
@@ -31811,7 +31814,7 @@
         <v>355</v>
       </c>
       <c r="C1784" t="n">
-        <v>107.9</v>
+        <v>107.8</v>
       </c>
       <c r="D1784" t="s">
         <v>348</v>
@@ -31828,7 +31831,7 @@
         <v>356</v>
       </c>
       <c r="C1785" t="n">
-        <v>107.5</v>
+        <v>107.8</v>
       </c>
       <c r="D1785" t="s">
         <v>348</v>
@@ -31845,7 +31848,7 @@
         <v>357</v>
       </c>
       <c r="C1786" t="n">
-        <v>105</v>
+        <v>105.2</v>
       </c>
       <c r="D1786" t="s">
         <v>348</v>
@@ -31862,7 +31865,7 @@
         <v>358</v>
       </c>
       <c r="C1787" t="n">
-        <v>102.3</v>
+        <v>102.4</v>
       </c>
       <c r="D1787" t="s">
         <v>348</v>
@@ -31879,7 +31882,7 @@
         <v>359</v>
       </c>
       <c r="C1788" t="n">
-        <v>101.5</v>
+        <v>101.3</v>
       </c>
       <c r="D1788" t="s">
         <v>348</v>
@@ -31896,7 +31899,7 @@
         <v>360</v>
       </c>
       <c r="C1789" t="n">
-        <v>96</v>
+        <v>96.2</v>
       </c>
       <c r="D1789" t="s">
         <v>361</v>
@@ -31913,7 +31916,7 @@
         <v>362</v>
       </c>
       <c r="C1790" t="n">
-        <v>94.4</v>
+        <v>94.7</v>
       </c>
       <c r="D1790" t="s">
         <v>361</v>
@@ -31930,7 +31933,7 @@
         <v>363</v>
       </c>
       <c r="C1791" t="n">
-        <v>84.8</v>
+        <v>85</v>
       </c>
       <c r="D1791" t="s">
         <v>361</v>
@@ -31947,7 +31950,7 @@
         <v>364</v>
       </c>
       <c r="C1792" t="n">
-        <v>83.7</v>
+        <v>84</v>
       </c>
       <c r="D1792" t="s">
         <v>361</v>
@@ -31964,7 +31967,7 @@
         <v>365</v>
       </c>
       <c r="C1793" t="n">
-        <v>79.2</v>
+        <v>79.6</v>
       </c>
       <c r="D1793" t="s">
         <v>361</v>
@@ -31981,7 +31984,7 @@
         <v>366</v>
       </c>
       <c r="C1794" t="n">
-        <v>75.4</v>
+        <v>76</v>
       </c>
       <c r="D1794" t="s">
         <v>361</v>
@@ -31998,7 +32001,7 @@
         <v>367</v>
       </c>
       <c r="C1795" t="n">
-        <v>69.1</v>
+        <v>69</v>
       </c>
       <c r="D1795" t="s">
         <v>361</v>
@@ -32015,7 +32018,7 @@
         <v>368</v>
       </c>
       <c r="C1796" t="n">
-        <v>68.3</v>
+        <v>68.9</v>
       </c>
       <c r="D1796" t="s">
         <v>361</v>
@@ -32032,7 +32035,7 @@
         <v>369</v>
       </c>
       <c r="C1797" t="n">
-        <v>62.3</v>
+        <v>63.5</v>
       </c>
       <c r="D1797" t="s">
         <v>361</v>
@@ -32049,7 +32052,7 @@
         <v>370</v>
       </c>
       <c r="C1798" t="n">
-        <v>59.9</v>
+        <v>60.3</v>
       </c>
       <c r="D1798" t="s">
         <v>361</v>
@@ -32066,7 +32069,7 @@
         <v>371</v>
       </c>
       <c r="C1799" t="n">
-        <v>64.1</v>
+        <v>64.6</v>
       </c>
       <c r="D1799" t="s">
         <v>361</v>
@@ -32083,7 +32086,7 @@
         <v>372</v>
       </c>
       <c r="C1800" t="n">
-        <v>61.8</v>
+        <v>62.4</v>
       </c>
       <c r="D1800" t="s">
         <v>361</v>
@@ -32100,7 +32103,7 @@
         <v>373</v>
       </c>
       <c r="C1801" t="n">
-        <v>62.4</v>
+        <v>63.3</v>
       </c>
       <c r="D1801" t="s">
         <v>374</v>
@@ -32117,7 +32120,7 @@
         <v>375</v>
       </c>
       <c r="C1802" t="n">
-        <v>64.8</v>
+        <v>65.6</v>
       </c>
       <c r="D1802" t="s">
         <v>374</v>
@@ -32134,7 +32137,7 @@
         <v>376</v>
       </c>
       <c r="C1803" t="n">
-        <v>66.6</v>
+        <v>67.2</v>
       </c>
       <c r="D1803" t="s">
         <v>374</v>
@@ -32151,7 +32154,7 @@
         <v>377</v>
       </c>
       <c r="C1804" t="n">
-        <v>67.9</v>
+        <v>68.5</v>
       </c>
       <c r="D1804" t="s">
         <v>374</v>
@@ -32168,7 +32171,7 @@
         <v>378</v>
       </c>
       <c r="C1805" t="n">
-        <v>71.4</v>
+        <v>72</v>
       </c>
       <c r="D1805" t="s">
         <v>374</v>
@@ -32185,7 +32188,7 @@
         <v>379</v>
       </c>
       <c r="C1806" t="n">
-        <v>72.2</v>
+        <v>72.8</v>
       </c>
       <c r="D1806" t="s">
         <v>374</v>
@@ -32202,7 +32205,7 @@
         <v>380</v>
       </c>
       <c r="C1807" t="n">
-        <v>72.5</v>
+        <v>72.6</v>
       </c>
       <c r="D1807" t="s">
         <v>374</v>
@@ -32219,13 +32222,115 @@
         <v>381</v>
       </c>
       <c r="C1808" t="n">
-        <v>70.4</v>
+        <v>70.6</v>
       </c>
       <c r="D1808" t="s">
         <v>374</v>
       </c>
       <c r="E1808" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="1809">
+      <c r="A1809" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1809" t="s">
+        <v>383</v>
+      </c>
+      <c r="C1809" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="D1809" t="s">
+        <v>374</v>
+      </c>
+      <c r="E1809" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1810">
+      <c r="A1810" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1810" t="s">
+        <v>383</v>
+      </c>
+      <c r="C1810" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="D1810" t="s">
+        <v>374</v>
+      </c>
+      <c r="E1810" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1811">
+      <c r="A1811" t="s">
+        <v>382</v>
+      </c>
+      <c r="B1811" t="s">
+        <v>383</v>
+      </c>
+      <c r="C1811" t="n">
+        <v>84</v>
+      </c>
+      <c r="D1811" t="s">
+        <v>374</v>
+      </c>
+      <c r="E1811" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1812">
+      <c r="A1812" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1812" t="s">
+        <v>383</v>
+      </c>
+      <c r="C1812" t="n">
+        <v>83.7</v>
+      </c>
+      <c r="D1812" t="s">
+        <v>374</v>
+      </c>
+      <c r="E1812" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1813">
+      <c r="A1813" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1813" t="s">
+        <v>383</v>
+      </c>
+      <c r="C1813" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="D1813" t="s">
+        <v>374</v>
+      </c>
+      <c r="E1813" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1814">
+      <c r="A1814" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1814" t="s">
+        <v>383</v>
+      </c>
+      <c r="C1814" t="n">
+        <v>69.1</v>
+      </c>
+      <c r="D1814" t="s">
+        <v>374</v>
+      </c>
+      <c r="E1814" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Data/konjunkturbarometern.xlsx
+++ b/Data/konjunkturbarometern.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="385">
   <si>
     <t xml:space="preserve">Indikator</t>
   </si>
@@ -1164,6 +1164,9 @@
   </si>
   <si>
     <t xml:space="preserve">2023-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-10</t>
   </si>
 </sst>
 </file>
@@ -1520,7 +1523,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>86.1</v>
+        <v>86.2</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -1537,7 +1540,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>88.4</v>
+        <v>88.5</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -1571,7 +1574,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>91.5</v>
+        <v>91.6</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -1588,7 +1591,7 @@
         <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>92.1</v>
+        <v>92.2</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -1605,7 +1608,7 @@
         <v>17</v>
       </c>
       <c r="C7" t="n">
-        <v>91.6</v>
+        <v>91.7</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -1639,7 +1642,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="n">
-        <v>93.9</v>
+        <v>94</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
@@ -1656,7 +1659,7 @@
         <v>24</v>
       </c>
       <c r="C10" t="n">
-        <v>96.5</v>
+        <v>96.6</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1690,7 +1693,7 @@
         <v>28</v>
       </c>
       <c r="C12" t="n">
-        <v>95.6</v>
+        <v>95.7</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1724,7 +1727,7 @@
         <v>32</v>
       </c>
       <c r="C14" t="n">
-        <v>99.1</v>
+        <v>99.2</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1741,7 +1744,7 @@
         <v>33</v>
       </c>
       <c r="C15" t="n">
-        <v>99.2</v>
+        <v>99.3</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
@@ -1758,7 +1761,7 @@
         <v>34</v>
       </c>
       <c r="C16" t="n">
-        <v>102.1</v>
+        <v>102.2</v>
       </c>
       <c r="D16" t="s">
         <v>20</v>
@@ -1792,7 +1795,7 @@
         <v>36</v>
       </c>
       <c r="C18" t="n">
-        <v>104</v>
+        <v>104.1</v>
       </c>
       <c r="D18" t="s">
         <v>20</v>
@@ -1843,7 +1846,7 @@
         <v>40</v>
       </c>
       <c r="C21" t="n">
-        <v>104.1</v>
+        <v>104.2</v>
       </c>
       <c r="D21" t="s">
         <v>39</v>
@@ -1877,7 +1880,7 @@
         <v>42</v>
       </c>
       <c r="C23" t="n">
-        <v>102.7</v>
+        <v>102.8</v>
       </c>
       <c r="D23" t="s">
         <v>39</v>
@@ -1979,7 +1982,7 @@
         <v>48</v>
       </c>
       <c r="C29" t="n">
-        <v>99.9</v>
+        <v>100</v>
       </c>
       <c r="D29" t="s">
         <v>39</v>
@@ -2047,7 +2050,7 @@
         <v>53</v>
       </c>
       <c r="C33" t="n">
-        <v>95.4</v>
+        <v>95.5</v>
       </c>
       <c r="D33" t="s">
         <v>52</v>
@@ -2064,7 +2067,7 @@
         <v>54</v>
       </c>
       <c r="C34" t="n">
-        <v>95.1</v>
+        <v>95.2</v>
       </c>
       <c r="D34" t="s">
         <v>52</v>
@@ -2115,7 +2118,7 @@
         <v>57</v>
       </c>
       <c r="C37" t="n">
-        <v>103.1</v>
+        <v>103.2</v>
       </c>
       <c r="D37" t="s">
         <v>52</v>
@@ -2200,7 +2203,7 @@
         <v>62</v>
       </c>
       <c r="C42" t="n">
-        <v>108.2</v>
+        <v>108.3</v>
       </c>
       <c r="D42" t="s">
         <v>52</v>
@@ -2370,7 +2373,7 @@
         <v>73</v>
       </c>
       <c r="C52" t="n">
-        <v>110.2</v>
+        <v>110.3</v>
       </c>
       <c r="D52" t="s">
         <v>65</v>
@@ -2404,7 +2407,7 @@
         <v>75</v>
       </c>
       <c r="C54" t="n">
-        <v>108.5</v>
+        <v>108.6</v>
       </c>
       <c r="D54" t="s">
         <v>65</v>
@@ -2472,7 +2475,7 @@
         <v>80</v>
       </c>
       <c r="C58" t="n">
-        <v>94.5</v>
+        <v>94.6</v>
       </c>
       <c r="D58" t="s">
         <v>78</v>
@@ -2506,7 +2509,7 @@
         <v>82</v>
       </c>
       <c r="C60" t="n">
-        <v>90.5</v>
+        <v>90.6</v>
       </c>
       <c r="D60" t="s">
         <v>78</v>
@@ -2557,7 +2560,7 @@
         <v>85</v>
       </c>
       <c r="C63" t="n">
-        <v>84.4</v>
+        <v>84.5</v>
       </c>
       <c r="D63" t="s">
         <v>78</v>
@@ -2591,7 +2594,7 @@
         <v>87</v>
       </c>
       <c r="C65" t="n">
-        <v>85.9</v>
+        <v>86</v>
       </c>
       <c r="D65" t="s">
         <v>78</v>
@@ -2608,7 +2611,7 @@
         <v>88</v>
       </c>
       <c r="C66" t="n">
-        <v>88.2</v>
+        <v>88.3</v>
       </c>
       <c r="D66" t="s">
         <v>78</v>
@@ -2625,7 +2628,7 @@
         <v>89</v>
       </c>
       <c r="C67" t="n">
-        <v>90.2</v>
+        <v>90.3</v>
       </c>
       <c r="D67" t="s">
         <v>78</v>
@@ -2642,7 +2645,7 @@
         <v>90</v>
       </c>
       <c r="C68" t="n">
-        <v>91.5</v>
+        <v>91.6</v>
       </c>
       <c r="D68" t="s">
         <v>91</v>
@@ -2676,7 +2679,7 @@
         <v>93</v>
       </c>
       <c r="C70" t="n">
-        <v>94.4</v>
+        <v>94.5</v>
       </c>
       <c r="D70" t="s">
         <v>91</v>
@@ -2693,7 +2696,7 @@
         <v>94</v>
       </c>
       <c r="C71" t="n">
-        <v>93.9</v>
+        <v>94</v>
       </c>
       <c r="D71" t="s">
         <v>91</v>
@@ -2710,7 +2713,7 @@
         <v>95</v>
       </c>
       <c r="C72" t="n">
-        <v>91.8</v>
+        <v>91.9</v>
       </c>
       <c r="D72" t="s">
         <v>91</v>
@@ -2727,7 +2730,7 @@
         <v>96</v>
       </c>
       <c r="C73" t="n">
-        <v>95.4</v>
+        <v>95.5</v>
       </c>
       <c r="D73" t="s">
         <v>91</v>
@@ -2744,7 +2747,7 @@
         <v>97</v>
       </c>
       <c r="C74" t="n">
-        <v>93.1</v>
+        <v>93.2</v>
       </c>
       <c r="D74" t="s">
         <v>91</v>
@@ -2761,7 +2764,7 @@
         <v>98</v>
       </c>
       <c r="C75" t="n">
-        <v>91.1</v>
+        <v>91.2</v>
       </c>
       <c r="D75" t="s">
         <v>91</v>
@@ -2812,7 +2815,7 @@
         <v>101</v>
       </c>
       <c r="C78" t="n">
-        <v>89.2</v>
+        <v>89.3</v>
       </c>
       <c r="D78" t="s">
         <v>91</v>
@@ -2880,7 +2883,7 @@
         <v>106</v>
       </c>
       <c r="C82" t="n">
-        <v>91.1</v>
+        <v>91.2</v>
       </c>
       <c r="D82" t="s">
         <v>104</v>
@@ -2914,7 +2917,7 @@
         <v>108</v>
       </c>
       <c r="C84" t="n">
-        <v>89.8</v>
+        <v>89.9</v>
       </c>
       <c r="D84" t="s">
         <v>104</v>
@@ -2948,7 +2951,7 @@
         <v>110</v>
       </c>
       <c r="C86" t="n">
-        <v>85.9</v>
+        <v>86</v>
       </c>
       <c r="D86" t="s">
         <v>104</v>
@@ -2965,7 +2968,7 @@
         <v>111</v>
       </c>
       <c r="C87" t="n">
-        <v>89.1</v>
+        <v>89.2</v>
       </c>
       <c r="D87" t="s">
         <v>104</v>
@@ -3016,7 +3019,7 @@
         <v>114</v>
       </c>
       <c r="C90" t="n">
-        <v>89.9</v>
+        <v>90</v>
       </c>
       <c r="D90" t="s">
         <v>104</v>
@@ -3033,7 +3036,7 @@
         <v>115</v>
       </c>
       <c r="C91" t="n">
-        <v>93.4</v>
+        <v>93.5</v>
       </c>
       <c r="D91" t="s">
         <v>104</v>
@@ -3050,7 +3053,7 @@
         <v>116</v>
       </c>
       <c r="C92" t="n">
-        <v>93</v>
+        <v>93.1</v>
       </c>
       <c r="D92" t="s">
         <v>117</v>
@@ -3084,7 +3087,7 @@
         <v>119</v>
       </c>
       <c r="C94" t="n">
-        <v>95.3</v>
+        <v>95.4</v>
       </c>
       <c r="D94" t="s">
         <v>117</v>
@@ -3118,7 +3121,7 @@
         <v>121</v>
       </c>
       <c r="C96" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -3169,7 +3172,7 @@
         <v>124</v>
       </c>
       <c r="C99" t="n">
-        <v>104.2</v>
+        <v>104.3</v>
       </c>
       <c r="D99" t="s">
         <v>117</v>
@@ -3203,7 +3206,7 @@
         <v>126</v>
       </c>
       <c r="C101" t="n">
-        <v>103.5</v>
+        <v>103.6</v>
       </c>
       <c r="D101" t="s">
         <v>117</v>
@@ -3220,7 +3223,7 @@
         <v>127</v>
       </c>
       <c r="C102" t="n">
-        <v>103.4</v>
+        <v>103.5</v>
       </c>
       <c r="D102" t="s">
         <v>117</v>
@@ -3271,7 +3274,7 @@
         <v>131</v>
       </c>
       <c r="C105" t="n">
-        <v>102.7</v>
+        <v>102.8</v>
       </c>
       <c r="D105" t="s">
         <v>130</v>
@@ -3390,7 +3393,7 @@
         <v>138</v>
       </c>
       <c r="C112" t="n">
-        <v>101.9</v>
+        <v>102</v>
       </c>
       <c r="D112" t="s">
         <v>130</v>
@@ -3441,7 +3444,7 @@
         <v>141</v>
       </c>
       <c r="C115" t="n">
-        <v>105.7</v>
+        <v>105.8</v>
       </c>
       <c r="D115" t="s">
         <v>130</v>
@@ -3475,7 +3478,7 @@
         <v>144</v>
       </c>
       <c r="C117" t="n">
-        <v>109.7</v>
+        <v>109.8</v>
       </c>
       <c r="D117" t="s">
         <v>143</v>
@@ -3679,7 +3682,7 @@
         <v>157</v>
       </c>
       <c r="C129" t="n">
-        <v>110.7</v>
+        <v>110.8</v>
       </c>
       <c r="D129" t="s">
         <v>156</v>
@@ -3696,7 +3699,7 @@
         <v>158</v>
       </c>
       <c r="C130" t="n">
-        <v>110.2</v>
+        <v>110.3</v>
       </c>
       <c r="D130" t="s">
         <v>156</v>
@@ -3866,7 +3869,7 @@
         <v>168</v>
       </c>
       <c r="C140" t="n">
-        <v>102.9</v>
+        <v>103</v>
       </c>
       <c r="D140" t="s">
         <v>169</v>
@@ -3883,7 +3886,7 @@
         <v>170</v>
       </c>
       <c r="C141" t="n">
-        <v>100.6</v>
+        <v>100.7</v>
       </c>
       <c r="D141" t="s">
         <v>169</v>
@@ -3934,7 +3937,7 @@
         <v>173</v>
       </c>
       <c r="C144" t="n">
-        <v>96</v>
+        <v>96.1</v>
       </c>
       <c r="D144" t="s">
         <v>169</v>
@@ -3951,7 +3954,7 @@
         <v>174</v>
       </c>
       <c r="C145" t="n">
-        <v>93.6</v>
+        <v>93.7</v>
       </c>
       <c r="D145" t="s">
         <v>169</v>
@@ -3968,7 +3971,7 @@
         <v>175</v>
       </c>
       <c r="C146" t="n">
-        <v>89.1</v>
+        <v>89.2</v>
       </c>
       <c r="D146" t="s">
         <v>169</v>
@@ -3985,7 +3988,7 @@
         <v>176</v>
       </c>
       <c r="C147" t="n">
-        <v>86.8</v>
+        <v>86.9</v>
       </c>
       <c r="D147" t="s">
         <v>169</v>
@@ -4002,7 +4005,7 @@
         <v>177</v>
       </c>
       <c r="C148" t="n">
-        <v>88.1</v>
+        <v>88.2</v>
       </c>
       <c r="D148" t="s">
         <v>169</v>
@@ -4019,7 +4022,7 @@
         <v>178</v>
       </c>
       <c r="C149" t="n">
-        <v>82.1</v>
+        <v>82.2</v>
       </c>
       <c r="D149" t="s">
         <v>169</v>
@@ -4036,7 +4039,7 @@
         <v>179</v>
       </c>
       <c r="C150" t="n">
-        <v>73.6</v>
+        <v>73.7</v>
       </c>
       <c r="D150" t="s">
         <v>169</v>
@@ -4053,7 +4056,7 @@
         <v>180</v>
       </c>
       <c r="C151" t="n">
-        <v>70.9</v>
+        <v>71</v>
       </c>
       <c r="D151" t="s">
         <v>169</v>
@@ -4070,7 +4073,7 @@
         <v>181</v>
       </c>
       <c r="C152" t="n">
-        <v>73.1</v>
+        <v>73.2</v>
       </c>
       <c r="D152" t="s">
         <v>182</v>
@@ -4087,7 +4090,7 @@
         <v>183</v>
       </c>
       <c r="C153" t="n">
-        <v>72.8</v>
+        <v>72.9</v>
       </c>
       <c r="D153" t="s">
         <v>182</v>
@@ -4104,7 +4107,7 @@
         <v>184</v>
       </c>
       <c r="C154" t="n">
-        <v>69.2</v>
+        <v>69.3</v>
       </c>
       <c r="D154" t="s">
         <v>182</v>
@@ -4121,7 +4124,7 @@
         <v>185</v>
       </c>
       <c r="C155" t="n">
-        <v>69.4</v>
+        <v>69.5</v>
       </c>
       <c r="D155" t="s">
         <v>182</v>
@@ -4138,7 +4141,7 @@
         <v>186</v>
       </c>
       <c r="C156" t="n">
-        <v>74.7</v>
+        <v>74.8</v>
       </c>
       <c r="D156" t="s">
         <v>182</v>
@@ -4665,7 +4668,7 @@
         <v>41</v>
       </c>
       <c r="C187" t="n">
-        <v>104.7</v>
+        <v>104.8</v>
       </c>
       <c r="D187" t="s">
         <v>39</v>
@@ -5141,7 +5144,7 @@
         <v>71</v>
       </c>
       <c r="C215" t="n">
-        <v>108.1</v>
+        <v>108.2</v>
       </c>
       <c r="D215" t="s">
         <v>65</v>
@@ -5175,7 +5178,7 @@
         <v>73</v>
       </c>
       <c r="C217" t="n">
-        <v>104.8</v>
+        <v>104.9</v>
       </c>
       <c r="D217" t="s">
         <v>65</v>
@@ -5209,7 +5212,7 @@
         <v>75</v>
       </c>
       <c r="C219" t="n">
-        <v>107.2</v>
+        <v>107.3</v>
       </c>
       <c r="D219" t="s">
         <v>65</v>
@@ -5396,7 +5399,7 @@
         <v>87</v>
       </c>
       <c r="C230" t="n">
-        <v>84</v>
+        <v>83.9</v>
       </c>
       <c r="D230" t="s">
         <v>78</v>
@@ -5515,7 +5518,7 @@
         <v>95</v>
       </c>
       <c r="C237" t="n">
-        <v>92.1</v>
+        <v>92</v>
       </c>
       <c r="D237" t="s">
         <v>91</v>
@@ -5583,7 +5586,7 @@
         <v>99</v>
       </c>
       <c r="C241" t="n">
-        <v>95.9</v>
+        <v>95.8</v>
       </c>
       <c r="D241" t="s">
         <v>91</v>
@@ -6807,7 +6810,7 @@
         <v>177</v>
       </c>
       <c r="C313" t="n">
-        <v>88.1</v>
+        <v>88</v>
       </c>
       <c r="D313" t="s">
         <v>169</v>
@@ -6892,7 +6895,7 @@
         <v>183</v>
       </c>
       <c r="C318" t="n">
-        <v>75.6</v>
+        <v>75.5</v>
       </c>
       <c r="D318" t="s">
         <v>182</v>
@@ -6909,7 +6912,7 @@
         <v>184</v>
       </c>
       <c r="C319" t="n">
-        <v>68.1</v>
+        <v>68</v>
       </c>
       <c r="D319" t="s">
         <v>182</v>
@@ -7079,7 +7082,7 @@
         <v>11</v>
       </c>
       <c r="C329" t="n">
-        <v>93.2</v>
+        <v>93.3</v>
       </c>
       <c r="D329" t="s">
         <v>7</v>
@@ -7130,7 +7133,7 @@
         <v>17</v>
       </c>
       <c r="C332" t="n">
-        <v>93.6</v>
+        <v>93.7</v>
       </c>
       <c r="D332" t="s">
         <v>7</v>
@@ -7215,7 +7218,7 @@
         <v>28</v>
       </c>
       <c r="C337" t="n">
-        <v>101.6</v>
+        <v>101.7</v>
       </c>
       <c r="D337" t="s">
         <v>20</v>
@@ -7249,7 +7252,7 @@
         <v>32</v>
       </c>
       <c r="C339" t="n">
-        <v>107</v>
+        <v>107.1</v>
       </c>
       <c r="D339" t="s">
         <v>20</v>
@@ -7368,7 +7371,7 @@
         <v>40</v>
       </c>
       <c r="C346" t="n">
-        <v>96</v>
+        <v>96.1</v>
       </c>
       <c r="D346" t="s">
         <v>39</v>
@@ -7504,7 +7507,7 @@
         <v>48</v>
       </c>
       <c r="C354" t="n">
-        <v>100.8</v>
+        <v>100.9</v>
       </c>
       <c r="D354" t="s">
         <v>39</v>
@@ -7606,7 +7609,7 @@
         <v>55</v>
       </c>
       <c r="C360" t="n">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="D360" t="s">
         <v>52</v>
@@ -7793,7 +7796,7 @@
         <v>67</v>
       </c>
       <c r="C371" t="n">
-        <v>117.1</v>
+        <v>117.2</v>
       </c>
       <c r="D371" t="s">
         <v>65</v>
@@ -7878,7 +7881,7 @@
         <v>72</v>
       </c>
       <c r="C376" t="n">
-        <v>111.8</v>
+        <v>111.9</v>
       </c>
       <c r="D376" t="s">
         <v>65</v>
@@ -7929,7 +7932,7 @@
         <v>75</v>
       </c>
       <c r="C379" t="n">
-        <v>102.4</v>
+        <v>102.5</v>
       </c>
       <c r="D379" t="s">
         <v>65</v>
@@ -7980,7 +7983,7 @@
         <v>79</v>
       </c>
       <c r="C382" t="n">
-        <v>92.9</v>
+        <v>93</v>
       </c>
       <c r="D382" t="s">
         <v>78</v>
@@ -7997,7 +8000,7 @@
         <v>80</v>
       </c>
       <c r="C383" t="n">
-        <v>93.8</v>
+        <v>93.9</v>
       </c>
       <c r="D383" t="s">
         <v>78</v>
@@ -8014,7 +8017,7 @@
         <v>81</v>
       </c>
       <c r="C384" t="n">
-        <v>91.7</v>
+        <v>91.8</v>
       </c>
       <c r="D384" t="s">
         <v>78</v>
@@ -8031,7 +8034,7 @@
         <v>82</v>
       </c>
       <c r="C385" t="n">
-        <v>87.9</v>
+        <v>88</v>
       </c>
       <c r="D385" t="s">
         <v>78</v>
@@ -8065,7 +8068,7 @@
         <v>84</v>
       </c>
       <c r="C387" t="n">
-        <v>87.1</v>
+        <v>87.2</v>
       </c>
       <c r="D387" t="s">
         <v>78</v>
@@ -8082,7 +8085,7 @@
         <v>85</v>
       </c>
       <c r="C388" t="n">
-        <v>85.7</v>
+        <v>85.8</v>
       </c>
       <c r="D388" t="s">
         <v>78</v>
@@ -8099,7 +8102,7 @@
         <v>86</v>
       </c>
       <c r="C389" t="n">
-        <v>83.7</v>
+        <v>83.8</v>
       </c>
       <c r="D389" t="s">
         <v>78</v>
@@ -8116,7 +8119,7 @@
         <v>87</v>
       </c>
       <c r="C390" t="n">
-        <v>87.7</v>
+        <v>87.8</v>
       </c>
       <c r="D390" t="s">
         <v>78</v>
@@ -8133,7 +8136,7 @@
         <v>88</v>
       </c>
       <c r="C391" t="n">
-        <v>90.1</v>
+        <v>90.2</v>
       </c>
       <c r="D391" t="s">
         <v>78</v>
@@ -8150,7 +8153,7 @@
         <v>89</v>
       </c>
       <c r="C392" t="n">
-        <v>94.7</v>
+        <v>94.8</v>
       </c>
       <c r="D392" t="s">
         <v>78</v>
@@ -8286,7 +8289,7 @@
         <v>98</v>
       </c>
       <c r="C400" t="n">
-        <v>104.5</v>
+        <v>104.6</v>
       </c>
       <c r="D400" t="s">
         <v>91</v>
@@ -8303,7 +8306,7 @@
         <v>99</v>
       </c>
       <c r="C401" t="n">
-        <v>105</v>
+        <v>105.1</v>
       </c>
       <c r="D401" t="s">
         <v>91</v>
@@ -8320,7 +8323,7 @@
         <v>100</v>
       </c>
       <c r="C402" t="n">
-        <v>103.4</v>
+        <v>103.5</v>
       </c>
       <c r="D402" t="s">
         <v>91</v>
@@ -8439,7 +8442,7 @@
         <v>108</v>
       </c>
       <c r="C409" t="n">
-        <v>92.1</v>
+        <v>92.2</v>
       </c>
       <c r="D409" t="s">
         <v>104</v>
@@ -8456,7 +8459,7 @@
         <v>109</v>
       </c>
       <c r="C410" t="n">
-        <v>88.7</v>
+        <v>88.8</v>
       </c>
       <c r="D410" t="s">
         <v>104</v>
@@ -8524,7 +8527,7 @@
         <v>113</v>
       </c>
       <c r="C414" t="n">
-        <v>93</v>
+        <v>93.1</v>
       </c>
       <c r="D414" t="s">
         <v>104</v>
@@ -8643,7 +8646,7 @@
         <v>121</v>
       </c>
       <c r="C421" t="n">
-        <v>95</v>
+        <v>95.1</v>
       </c>
       <c r="D421" t="s">
         <v>117</v>
@@ -8660,7 +8663,7 @@
         <v>122</v>
       </c>
       <c r="C422" t="n">
-        <v>92.8</v>
+        <v>92.9</v>
       </c>
       <c r="D422" t="s">
         <v>117</v>
@@ -8762,7 +8765,7 @@
         <v>128</v>
       </c>
       <c r="C428" t="n">
-        <v>90.4</v>
+        <v>90.5</v>
       </c>
       <c r="D428" t="s">
         <v>117</v>
@@ -8779,7 +8782,7 @@
         <v>129</v>
       </c>
       <c r="C429" t="n">
-        <v>88.1</v>
+        <v>88.2</v>
       </c>
       <c r="D429" t="s">
         <v>130</v>
@@ -8813,7 +8816,7 @@
         <v>132</v>
       </c>
       <c r="C431" t="n">
-        <v>88.4</v>
+        <v>88.5</v>
       </c>
       <c r="D431" t="s">
         <v>130</v>
@@ -8847,7 +8850,7 @@
         <v>134</v>
       </c>
       <c r="C433" t="n">
-        <v>87.9</v>
+        <v>88</v>
       </c>
       <c r="D433" t="s">
         <v>130</v>
@@ -8966,7 +8969,7 @@
         <v>141</v>
       </c>
       <c r="C440" t="n">
-        <v>101.8</v>
+        <v>101.9</v>
       </c>
       <c r="D440" t="s">
         <v>130</v>
@@ -8983,7 +8986,7 @@
         <v>142</v>
       </c>
       <c r="C441" t="n">
-        <v>107.7</v>
+        <v>107.8</v>
       </c>
       <c r="D441" t="s">
         <v>143</v>
@@ -9000,7 +9003,7 @@
         <v>144</v>
       </c>
       <c r="C442" t="n">
-        <v>111.1</v>
+        <v>111.2</v>
       </c>
       <c r="D442" t="s">
         <v>143</v>
@@ -9034,7 +9037,7 @@
         <v>146</v>
       </c>
       <c r="C444" t="n">
-        <v>111.1</v>
+        <v>111.2</v>
       </c>
       <c r="D444" t="s">
         <v>143</v>
@@ -9085,7 +9088,7 @@
         <v>149</v>
       </c>
       <c r="C447" t="n">
-        <v>117.6</v>
+        <v>117.7</v>
       </c>
       <c r="D447" t="s">
         <v>143</v>
@@ -9204,7 +9207,7 @@
         <v>157</v>
       </c>
       <c r="C454" t="n">
-        <v>109.1</v>
+        <v>109.2</v>
       </c>
       <c r="D454" t="s">
         <v>156</v>
@@ -9272,7 +9275,7 @@
         <v>161</v>
       </c>
       <c r="C458" t="n">
-        <v>107.3</v>
+        <v>107.4</v>
       </c>
       <c r="D458" t="s">
         <v>156</v>
@@ -9323,7 +9326,7 @@
         <v>164</v>
       </c>
       <c r="C461" t="n">
-        <v>108.9</v>
+        <v>109</v>
       </c>
       <c r="D461" t="s">
         <v>156</v>
@@ -9340,7 +9343,7 @@
         <v>165</v>
       </c>
       <c r="C462" t="n">
-        <v>106.6</v>
+        <v>106.7</v>
       </c>
       <c r="D462" t="s">
         <v>156</v>
@@ -9527,7 +9530,7 @@
         <v>177</v>
       </c>
       <c r="C473" t="n">
-        <v>84.9</v>
+        <v>85</v>
       </c>
       <c r="D473" t="s">
         <v>169</v>
@@ -9595,7 +9598,7 @@
         <v>181</v>
       </c>
       <c r="C477" t="n">
-        <v>70.1</v>
+        <v>70.2</v>
       </c>
       <c r="D477" t="s">
         <v>182</v>
@@ -9646,7 +9649,7 @@
         <v>185</v>
       </c>
       <c r="C480" t="n">
-        <v>79.8</v>
+        <v>79.9</v>
       </c>
       <c r="D480" t="s">
         <v>182</v>
@@ -9714,7 +9717,7 @@
         <v>189</v>
       </c>
       <c r="C484" t="n">
-        <v>108.3</v>
+        <v>108.4</v>
       </c>
       <c r="D484" t="s">
         <v>182</v>
@@ -9765,7 +9768,7 @@
         <v>200</v>
       </c>
       <c r="C487" t="n">
-        <v>94.6</v>
+        <v>94.7</v>
       </c>
       <c r="D487" t="s">
         <v>7</v>
@@ -9782,7 +9785,7 @@
         <v>193</v>
       </c>
       <c r="C488" t="n">
-        <v>95</v>
+        <v>95.1</v>
       </c>
       <c r="D488" t="s">
         <v>7</v>
@@ -9816,7 +9819,7 @@
         <v>195</v>
       </c>
       <c r="C490" t="n">
-        <v>90.3</v>
+        <v>90.4</v>
       </c>
       <c r="D490" t="s">
         <v>7</v>
@@ -9833,7 +9836,7 @@
         <v>196</v>
       </c>
       <c r="C491" t="n">
-        <v>90.7</v>
+        <v>90.8</v>
       </c>
       <c r="D491" t="s">
         <v>7</v>
@@ -9918,7 +9921,7 @@
         <v>13</v>
       </c>
       <c r="C496" t="n">
-        <v>99</v>
+        <v>99.1</v>
       </c>
       <c r="D496" t="s">
         <v>7</v>
@@ -9952,7 +9955,7 @@
         <v>17</v>
       </c>
       <c r="C498" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
       <c r="D498" t="s">
         <v>7</v>
@@ -10020,7 +10023,7 @@
         <v>26</v>
       </c>
       <c r="C502" t="n">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="D502" t="s">
         <v>20</v>
@@ -10071,7 +10074,7 @@
         <v>32</v>
       </c>
       <c r="C505" t="n">
-        <v>101.1</v>
+        <v>101.2</v>
       </c>
       <c r="D505" t="s">
         <v>20</v>
@@ -10088,7 +10091,7 @@
         <v>33</v>
       </c>
       <c r="C506" t="n">
-        <v>102.5</v>
+        <v>102.6</v>
       </c>
       <c r="D506" t="s">
         <v>20</v>
@@ -10190,7 +10193,7 @@
         <v>40</v>
       </c>
       <c r="C512" t="n">
-        <v>106.7</v>
+        <v>106.8</v>
       </c>
       <c r="D512" t="s">
         <v>39</v>
@@ -10241,7 +10244,7 @@
         <v>43</v>
       </c>
       <c r="C515" t="n">
-        <v>106</v>
+        <v>106.1</v>
       </c>
       <c r="D515" t="s">
         <v>39</v>
@@ -10258,7 +10261,7 @@
         <v>44</v>
       </c>
       <c r="C516" t="n">
-        <v>105.4</v>
+        <v>105.5</v>
       </c>
       <c r="D516" t="s">
         <v>39</v>
@@ -10292,7 +10295,7 @@
         <v>46</v>
       </c>
       <c r="C518" t="n">
-        <v>103.6</v>
+        <v>103.7</v>
       </c>
       <c r="D518" t="s">
         <v>39</v>
@@ -10309,7 +10312,7 @@
         <v>47</v>
       </c>
       <c r="C519" t="n">
-        <v>102.7</v>
+        <v>102.8</v>
       </c>
       <c r="D519" t="s">
         <v>39</v>
@@ -10377,7 +10380,7 @@
         <v>51</v>
       </c>
       <c r="C523" t="n">
-        <v>97.3</v>
+        <v>97.4</v>
       </c>
       <c r="D523" t="s">
         <v>52</v>
@@ -10394,7 +10397,7 @@
         <v>53</v>
       </c>
       <c r="C524" t="n">
-        <v>98.6</v>
+        <v>98.7</v>
       </c>
       <c r="D524" t="s">
         <v>52</v>
@@ -10462,7 +10465,7 @@
         <v>57</v>
       </c>
       <c r="C528" t="n">
-        <v>105.6</v>
+        <v>105.7</v>
       </c>
       <c r="D528" t="s">
         <v>52</v>
@@ -10564,7 +10567,7 @@
         <v>63</v>
       </c>
       <c r="C534" t="n">
-        <v>108.9</v>
+        <v>109</v>
       </c>
       <c r="D534" t="s">
         <v>52</v>
@@ -10649,7 +10652,7 @@
         <v>69</v>
       </c>
       <c r="C539" t="n">
-        <v>112.3</v>
+        <v>112.4</v>
       </c>
       <c r="D539" t="s">
         <v>65</v>
@@ -10666,7 +10669,7 @@
         <v>70</v>
       </c>
       <c r="C540" t="n">
-        <v>112.4</v>
+        <v>112.5</v>
       </c>
       <c r="D540" t="s">
         <v>65</v>
@@ -10717,7 +10720,7 @@
         <v>73</v>
       </c>
       <c r="C543" t="n">
-        <v>109</v>
+        <v>109.1</v>
       </c>
       <c r="D543" t="s">
         <v>65</v>
@@ -10734,7 +10737,7 @@
         <v>74</v>
       </c>
       <c r="C544" t="n">
-        <v>105.1</v>
+        <v>105.2</v>
       </c>
       <c r="D544" t="s">
         <v>65</v>
@@ -10802,7 +10805,7 @@
         <v>79</v>
       </c>
       <c r="C548" t="n">
-        <v>95.6</v>
+        <v>95.7</v>
       </c>
       <c r="D548" t="s">
         <v>78</v>
@@ -10836,7 +10839,7 @@
         <v>81</v>
       </c>
       <c r="C550" t="n">
-        <v>96.9</v>
+        <v>97</v>
       </c>
       <c r="D550" t="s">
         <v>78</v>
@@ -10870,7 +10873,7 @@
         <v>83</v>
       </c>
       <c r="C552" t="n">
-        <v>88.9</v>
+        <v>89</v>
       </c>
       <c r="D552" t="s">
         <v>78</v>
@@ -10887,7 +10890,7 @@
         <v>84</v>
       </c>
       <c r="C553" t="n">
-        <v>80.4</v>
+        <v>80.5</v>
       </c>
       <c r="D553" t="s">
         <v>78</v>
@@ -10904,7 +10907,7 @@
         <v>85</v>
       </c>
       <c r="C554" t="n">
-        <v>81</v>
+        <v>81.1</v>
       </c>
       <c r="D554" t="s">
         <v>78</v>
@@ -10921,7 +10924,7 @@
         <v>86</v>
       </c>
       <c r="C555" t="n">
-        <v>85.7</v>
+        <v>85.8</v>
       </c>
       <c r="D555" t="s">
         <v>78</v>
@@ -10938,7 +10941,7 @@
         <v>87</v>
       </c>
       <c r="C556" t="n">
-        <v>87.5</v>
+        <v>87.6</v>
       </c>
       <c r="D556" t="s">
         <v>78</v>
@@ -10955,7 +10958,7 @@
         <v>88</v>
       </c>
       <c r="C557" t="n">
-        <v>90.9</v>
+        <v>91</v>
       </c>
       <c r="D557" t="s">
         <v>78</v>
@@ -10972,7 +10975,7 @@
         <v>89</v>
       </c>
       <c r="C558" t="n">
-        <v>92.1</v>
+        <v>92.2</v>
       </c>
       <c r="D558" t="s">
         <v>78</v>
@@ -10989,7 +10992,7 @@
         <v>90</v>
       </c>
       <c r="C559" t="n">
-        <v>95.8</v>
+        <v>95.9</v>
       </c>
       <c r="D559" t="s">
         <v>91</v>
@@ -11006,7 +11009,7 @@
         <v>92</v>
       </c>
       <c r="C560" t="n">
-        <v>91.8</v>
+        <v>91.9</v>
       </c>
       <c r="D560" t="s">
         <v>91</v>
@@ -11057,7 +11060,7 @@
         <v>95</v>
       </c>
       <c r="C563" t="n">
-        <v>87.6</v>
+        <v>87.7</v>
       </c>
       <c r="D563" t="s">
         <v>91</v>
@@ -11108,7 +11111,7 @@
         <v>98</v>
       </c>
       <c r="C566" t="n">
-        <v>87.7</v>
+        <v>87.8</v>
       </c>
       <c r="D566" t="s">
         <v>91</v>
@@ -11125,7 +11128,7 @@
         <v>99</v>
       </c>
       <c r="C567" t="n">
-        <v>86.7</v>
+        <v>86.8</v>
       </c>
       <c r="D567" t="s">
         <v>91</v>
@@ -11142,7 +11145,7 @@
         <v>100</v>
       </c>
       <c r="C568" t="n">
-        <v>81.5</v>
+        <v>81.6</v>
       </c>
       <c r="D568" t="s">
         <v>91</v>
@@ -11159,7 +11162,7 @@
         <v>101</v>
       </c>
       <c r="C569" t="n">
-        <v>87</v>
+        <v>87.1</v>
       </c>
       <c r="D569" t="s">
         <v>91</v>
@@ -11176,7 +11179,7 @@
         <v>102</v>
       </c>
       <c r="C570" t="n">
-        <v>88.8</v>
+        <v>88.9</v>
       </c>
       <c r="D570" t="s">
         <v>91</v>
@@ -11193,7 +11196,7 @@
         <v>103</v>
       </c>
       <c r="C571" t="n">
-        <v>85.4</v>
+        <v>85.5</v>
       </c>
       <c r="D571" t="s">
         <v>104</v>
@@ -11210,7 +11213,7 @@
         <v>105</v>
       </c>
       <c r="C572" t="n">
-        <v>90.2</v>
+        <v>90.3</v>
       </c>
       <c r="D572" t="s">
         <v>104</v>
@@ -11227,7 +11230,7 @@
         <v>106</v>
       </c>
       <c r="C573" t="n">
-        <v>84.6</v>
+        <v>84.7</v>
       </c>
       <c r="D573" t="s">
         <v>104</v>
@@ -11244,7 +11247,7 @@
         <v>107</v>
       </c>
       <c r="C574" t="n">
-        <v>81.7</v>
+        <v>81.8</v>
       </c>
       <c r="D574" t="s">
         <v>104</v>
@@ -11261,7 +11264,7 @@
         <v>108</v>
       </c>
       <c r="C575" t="n">
-        <v>86.9</v>
+        <v>87</v>
       </c>
       <c r="D575" t="s">
         <v>104</v>
@@ -11278,7 +11281,7 @@
         <v>109</v>
       </c>
       <c r="C576" t="n">
-        <v>89.1</v>
+        <v>89.2</v>
       </c>
       <c r="D576" t="s">
         <v>104</v>
@@ -11295,7 +11298,7 @@
         <v>110</v>
       </c>
       <c r="C577" t="n">
-        <v>88.6</v>
+        <v>88.7</v>
       </c>
       <c r="D577" t="s">
         <v>104</v>
@@ -11312,7 +11315,7 @@
         <v>111</v>
       </c>
       <c r="C578" t="n">
-        <v>89</v>
+        <v>89.1</v>
       </c>
       <c r="D578" t="s">
         <v>104</v>
@@ -11329,7 +11332,7 @@
         <v>112</v>
       </c>
       <c r="C579" t="n">
-        <v>88.9</v>
+        <v>89</v>
       </c>
       <c r="D579" t="s">
         <v>104</v>
@@ -11346,7 +11349,7 @@
         <v>113</v>
       </c>
       <c r="C580" t="n">
-        <v>90</v>
+        <v>90.1</v>
       </c>
       <c r="D580" t="s">
         <v>104</v>
@@ -11363,7 +11366,7 @@
         <v>114</v>
       </c>
       <c r="C581" t="n">
-        <v>90.8</v>
+        <v>90.9</v>
       </c>
       <c r="D581" t="s">
         <v>104</v>
@@ -11380,7 +11383,7 @@
         <v>115</v>
       </c>
       <c r="C582" t="n">
-        <v>97</v>
+        <v>97.1</v>
       </c>
       <c r="D582" t="s">
         <v>104</v>
@@ -11397,7 +11400,7 @@
         <v>116</v>
       </c>
       <c r="C583" t="n">
-        <v>93.5</v>
+        <v>93.6</v>
       </c>
       <c r="D583" t="s">
         <v>117</v>
@@ -11448,7 +11451,7 @@
         <v>120</v>
       </c>
       <c r="C586" t="n">
-        <v>99.1</v>
+        <v>99.2</v>
       </c>
       <c r="D586" t="s">
         <v>117</v>
@@ -11465,7 +11468,7 @@
         <v>121</v>
       </c>
       <c r="C587" t="n">
-        <v>101.2</v>
+        <v>101.3</v>
       </c>
       <c r="D587" t="s">
         <v>117</v>
@@ -11499,7 +11502,7 @@
         <v>123</v>
       </c>
       <c r="C589" t="n">
-        <v>103.6</v>
+        <v>103.7</v>
       </c>
       <c r="D589" t="s">
         <v>117</v>
@@ -11618,7 +11621,7 @@
         <v>131</v>
       </c>
       <c r="C596" t="n">
-        <v>107.7</v>
+        <v>107.8</v>
       </c>
       <c r="D596" t="s">
         <v>130</v>
@@ -11635,7 +11638,7 @@
         <v>132</v>
       </c>
       <c r="C597" t="n">
-        <v>110.3</v>
+        <v>110.4</v>
       </c>
       <c r="D597" t="s">
         <v>130</v>
@@ -11703,7 +11706,7 @@
         <v>136</v>
       </c>
       <c r="C601" t="n">
-        <v>107.3</v>
+        <v>107.4</v>
       </c>
       <c r="D601" t="s">
         <v>130</v>
@@ -11788,7 +11791,7 @@
         <v>141</v>
       </c>
       <c r="C606" t="n">
-        <v>109.3</v>
+        <v>109.4</v>
       </c>
       <c r="D606" t="s">
         <v>130</v>
@@ -11907,7 +11910,7 @@
         <v>149</v>
       </c>
       <c r="C613" t="n">
-        <v>104.8</v>
+        <v>104.9</v>
       </c>
       <c r="D613" t="s">
         <v>143</v>
@@ -12094,7 +12097,7 @@
         <v>161</v>
       </c>
       <c r="C624" t="n">
-        <v>112.8</v>
+        <v>112.9</v>
       </c>
       <c r="D624" t="s">
         <v>156</v>
@@ -12247,7 +12250,7 @@
         <v>171</v>
       </c>
       <c r="C633" t="n">
-        <v>105</v>
+        <v>105.1</v>
       </c>
       <c r="D633" t="s">
         <v>169</v>
@@ -12281,7 +12284,7 @@
         <v>173</v>
       </c>
       <c r="C635" t="n">
-        <v>97.1</v>
+        <v>97.2</v>
       </c>
       <c r="D635" t="s">
         <v>169</v>
@@ -12315,7 +12318,7 @@
         <v>175</v>
       </c>
       <c r="C637" t="n">
-        <v>95.9</v>
+        <v>96</v>
       </c>
       <c r="D637" t="s">
         <v>169</v>
@@ -12332,7 +12335,7 @@
         <v>176</v>
       </c>
       <c r="C638" t="n">
-        <v>92.3</v>
+        <v>92.4</v>
       </c>
       <c r="D638" t="s">
         <v>169</v>
@@ -12349,7 +12352,7 @@
         <v>177</v>
       </c>
       <c r="C639" t="n">
-        <v>93.3</v>
+        <v>93.4</v>
       </c>
       <c r="D639" t="s">
         <v>169</v>
@@ -12366,7 +12369,7 @@
         <v>178</v>
       </c>
       <c r="C640" t="n">
-        <v>87.1</v>
+        <v>87.2</v>
       </c>
       <c r="D640" t="s">
         <v>169</v>
@@ -12383,7 +12386,7 @@
         <v>179</v>
       </c>
       <c r="C641" t="n">
-        <v>76.8</v>
+        <v>76.9</v>
       </c>
       <c r="D641" t="s">
         <v>169</v>
@@ -12400,7 +12403,7 @@
         <v>180</v>
       </c>
       <c r="C642" t="n">
-        <v>76.2</v>
+        <v>76.3</v>
       </c>
       <c r="D642" t="s">
         <v>169</v>
@@ -12417,7 +12420,7 @@
         <v>181</v>
       </c>
       <c r="C643" t="n">
-        <v>76.6</v>
+        <v>76.7</v>
       </c>
       <c r="D643" t="s">
         <v>182</v>
@@ -12434,7 +12437,7 @@
         <v>183</v>
       </c>
       <c r="C644" t="n">
-        <v>73.9</v>
+        <v>74</v>
       </c>
       <c r="D644" t="s">
         <v>182</v>
@@ -12451,7 +12454,7 @@
         <v>184</v>
       </c>
       <c r="C645" t="n">
-        <v>74.3</v>
+        <v>74.4</v>
       </c>
       <c r="D645" t="s">
         <v>182</v>
@@ -12468,7 +12471,7 @@
         <v>185</v>
       </c>
       <c r="C646" t="n">
-        <v>73.1</v>
+        <v>73.2</v>
       </c>
       <c r="D646" t="s">
         <v>182</v>
@@ -12485,7 +12488,7 @@
         <v>186</v>
       </c>
       <c r="C647" t="n">
-        <v>75.8</v>
+        <v>76</v>
       </c>
       <c r="D647" t="s">
         <v>182</v>
@@ -12502,7 +12505,7 @@
         <v>187</v>
       </c>
       <c r="C648" t="n">
-        <v>77.8</v>
+        <v>77.9</v>
       </c>
       <c r="D648" t="s">
         <v>182</v>
@@ -12519,7 +12522,7 @@
         <v>188</v>
       </c>
       <c r="C649" t="n">
-        <v>81.3</v>
+        <v>81.4</v>
       </c>
       <c r="D649" t="s">
         <v>182</v>
@@ -12536,7 +12539,7 @@
         <v>189</v>
       </c>
       <c r="C650" t="n">
-        <v>85.9</v>
+        <v>86</v>
       </c>
       <c r="D650" t="s">
         <v>182</v>
@@ -12553,7 +12556,7 @@
         <v>190</v>
       </c>
       <c r="C651" t="n">
-        <v>90.8</v>
+        <v>90.9</v>
       </c>
       <c r="D651" t="s">
         <v>182</v>
@@ -12570,7 +12573,7 @@
         <v>191</v>
       </c>
       <c r="C652" t="n">
-        <v>94.2</v>
+        <v>94.3</v>
       </c>
       <c r="D652" t="s">
         <v>182</v>
@@ -12587,7 +12590,7 @@
         <v>200</v>
       </c>
       <c r="C653" t="n">
-        <v>87.4</v>
+        <v>87.7</v>
       </c>
       <c r="D653" t="s">
         <v>7</v>
@@ -12604,7 +12607,7 @@
         <v>193</v>
       </c>
       <c r="C654" t="n">
-        <v>88.8</v>
+        <v>89</v>
       </c>
       <c r="D654" t="s">
         <v>7</v>
@@ -12621,7 +12624,7 @@
         <v>194</v>
       </c>
       <c r="C655" t="n">
-        <v>88.3</v>
+        <v>88.5</v>
       </c>
       <c r="D655" t="s">
         <v>7</v>
@@ -12638,7 +12641,7 @@
         <v>195</v>
       </c>
       <c r="C656" t="n">
-        <v>87.8</v>
+        <v>88.1</v>
       </c>
       <c r="D656" t="s">
         <v>7</v>
@@ -12655,7 +12658,7 @@
         <v>196</v>
       </c>
       <c r="C657" t="n">
-        <v>88.2</v>
+        <v>88.4</v>
       </c>
       <c r="D657" t="s">
         <v>7</v>
@@ -12672,7 +12675,7 @@
         <v>197</v>
       </c>
       <c r="C658" t="n">
-        <v>88.7</v>
+        <v>88.9</v>
       </c>
       <c r="D658" t="s">
         <v>7</v>
@@ -12689,7 +12692,7 @@
         <v>6</v>
       </c>
       <c r="C659" t="n">
-        <v>87.3</v>
+        <v>87.5</v>
       </c>
       <c r="D659" t="s">
         <v>7</v>
@@ -12706,7 +12709,7 @@
         <v>9</v>
       </c>
       <c r="C660" t="n">
-        <v>91.9</v>
+        <v>92.1</v>
       </c>
       <c r="D660" t="s">
         <v>7</v>
@@ -12723,7 +12726,7 @@
         <v>11</v>
       </c>
       <c r="C661" t="n">
-        <v>92.7</v>
+        <v>92.8</v>
       </c>
       <c r="D661" t="s">
         <v>7</v>
@@ -12740,7 +12743,7 @@
         <v>13</v>
       </c>
       <c r="C662" t="n">
-        <v>89.5</v>
+        <v>89.7</v>
       </c>
       <c r="D662" t="s">
         <v>7</v>
@@ -12757,7 +12760,7 @@
         <v>15</v>
       </c>
       <c r="C663" t="n">
-        <v>90.4</v>
+        <v>90.6</v>
       </c>
       <c r="D663" t="s">
         <v>7</v>
@@ -12774,7 +12777,7 @@
         <v>17</v>
       </c>
       <c r="C664" t="n">
-        <v>91.1</v>
+        <v>91.3</v>
       </c>
       <c r="D664" t="s">
         <v>7</v>
@@ -12791,7 +12794,7 @@
         <v>19</v>
       </c>
       <c r="C665" t="n">
-        <v>90</v>
+        <v>90.2</v>
       </c>
       <c r="D665" t="s">
         <v>20</v>
@@ -12808,7 +12811,7 @@
         <v>22</v>
       </c>
       <c r="C666" t="n">
-        <v>92</v>
+        <v>92.2</v>
       </c>
       <c r="D666" t="s">
         <v>20</v>
@@ -12825,7 +12828,7 @@
         <v>24</v>
       </c>
       <c r="C667" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="D667" t="s">
         <v>20</v>
@@ -12842,7 +12845,7 @@
         <v>26</v>
       </c>
       <c r="C668" t="n">
-        <v>96</v>
+        <v>96.1</v>
       </c>
       <c r="D668" t="s">
         <v>20</v>
@@ -12859,7 +12862,7 @@
         <v>28</v>
       </c>
       <c r="C669" t="n">
-        <v>97.4</v>
+        <v>97.5</v>
       </c>
       <c r="D669" t="s">
         <v>20</v>
@@ -12876,7 +12879,7 @@
         <v>30</v>
       </c>
       <c r="C670" t="n">
-        <v>97.4</v>
+        <v>97.6</v>
       </c>
       <c r="D670" t="s">
         <v>20</v>
@@ -12893,7 +12896,7 @@
         <v>32</v>
       </c>
       <c r="C671" t="n">
-        <v>98.8</v>
+        <v>98.9</v>
       </c>
       <c r="D671" t="s">
         <v>20</v>
@@ -12910,7 +12913,7 @@
         <v>33</v>
       </c>
       <c r="C672" t="n">
-        <v>97.9</v>
+        <v>98</v>
       </c>
       <c r="D672" t="s">
         <v>20</v>
@@ -12927,7 +12930,7 @@
         <v>34</v>
       </c>
       <c r="C673" t="n">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="D673" t="s">
         <v>20</v>
@@ -12944,7 +12947,7 @@
         <v>35</v>
       </c>
       <c r="C674" t="n">
-        <v>104.4</v>
+        <v>104.5</v>
       </c>
       <c r="D674" t="s">
         <v>20</v>
@@ -12961,7 +12964,7 @@
         <v>36</v>
       </c>
       <c r="C675" t="n">
-        <v>102.9</v>
+        <v>103</v>
       </c>
       <c r="D675" t="s">
         <v>20</v>
@@ -12978,7 +12981,7 @@
         <v>37</v>
       </c>
       <c r="C676" t="n">
-        <v>105.9</v>
+        <v>106</v>
       </c>
       <c r="D676" t="s">
         <v>20</v>
@@ -12995,7 +12998,7 @@
         <v>38</v>
       </c>
       <c r="C677" t="n">
-        <v>105.5</v>
+        <v>105.6</v>
       </c>
       <c r="D677" t="s">
         <v>39</v>
@@ -13012,7 +13015,7 @@
         <v>40</v>
       </c>
       <c r="C678" t="n">
-        <v>103.3</v>
+        <v>103.4</v>
       </c>
       <c r="D678" t="s">
         <v>39</v>
@@ -13029,7 +13032,7 @@
         <v>41</v>
       </c>
       <c r="C679" t="n">
-        <v>103.7</v>
+        <v>103.8</v>
       </c>
       <c r="D679" t="s">
         <v>39</v>
@@ -13063,7 +13066,7 @@
         <v>43</v>
       </c>
       <c r="C681" t="n">
-        <v>106.7</v>
+        <v>106.8</v>
       </c>
       <c r="D681" t="s">
         <v>39</v>
@@ -13080,7 +13083,7 @@
         <v>44</v>
       </c>
       <c r="C682" t="n">
-        <v>107</v>
+        <v>107.1</v>
       </c>
       <c r="D682" t="s">
         <v>39</v>
@@ -13097,7 +13100,7 @@
         <v>45</v>
       </c>
       <c r="C683" t="n">
-        <v>107.4</v>
+        <v>107.5</v>
       </c>
       <c r="D683" t="s">
         <v>39</v>
@@ -13131,7 +13134,7 @@
         <v>47</v>
       </c>
       <c r="C685" t="n">
-        <v>105.2</v>
+        <v>105.3</v>
       </c>
       <c r="D685" t="s">
         <v>39</v>
@@ -13250,7 +13253,7 @@
         <v>55</v>
       </c>
       <c r="C692" t="n">
-        <v>107.7</v>
+        <v>107.8</v>
       </c>
       <c r="D692" t="s">
         <v>52</v>
@@ -13403,7 +13406,7 @@
         <v>64</v>
       </c>
       <c r="C701" t="n">
-        <v>118.2</v>
+        <v>118.1</v>
       </c>
       <c r="D701" t="s">
         <v>65</v>
@@ -13437,7 +13440,7 @@
         <v>67</v>
       </c>
       <c r="C703" t="n">
-        <v>119.2</v>
+        <v>119.1</v>
       </c>
       <c r="D703" t="s">
         <v>65</v>
@@ -13454,7 +13457,7 @@
         <v>68</v>
       </c>
       <c r="C704" t="n">
-        <v>118.6</v>
+        <v>118.5</v>
       </c>
       <c r="D704" t="s">
         <v>65</v>
@@ -13471,7 +13474,7 @@
         <v>69</v>
       </c>
       <c r="C705" t="n">
-        <v>117</v>
+        <v>116.9</v>
       </c>
       <c r="D705" t="s">
         <v>65</v>
@@ -13505,7 +13508,7 @@
         <v>71</v>
       </c>
       <c r="C707" t="n">
-        <v>115.4</v>
+        <v>115.3</v>
       </c>
       <c r="D707" t="s">
         <v>65</v>
@@ -13522,7 +13525,7 @@
         <v>72</v>
       </c>
       <c r="C708" t="n">
-        <v>117.4</v>
+        <v>117.3</v>
       </c>
       <c r="D708" t="s">
         <v>65</v>
@@ -13556,7 +13559,7 @@
         <v>74</v>
       </c>
       <c r="C710" t="n">
-        <v>115.9</v>
+        <v>115.8</v>
       </c>
       <c r="D710" t="s">
         <v>65</v>
@@ -13590,7 +13593,7 @@
         <v>76</v>
       </c>
       <c r="C712" t="n">
-        <v>112.5</v>
+        <v>112.4</v>
       </c>
       <c r="D712" t="s">
         <v>65</v>
@@ -13641,7 +13644,7 @@
         <v>80</v>
       </c>
       <c r="C715" t="n">
-        <v>105.2</v>
+        <v>105.3</v>
       </c>
       <c r="D715" t="s">
         <v>78</v>
@@ -13675,7 +13678,7 @@
         <v>82</v>
       </c>
       <c r="C717" t="n">
-        <v>103.2</v>
+        <v>103.3</v>
       </c>
       <c r="D717" t="s">
         <v>78</v>
@@ -13709,7 +13712,7 @@
         <v>84</v>
       </c>
       <c r="C719" t="n">
-        <v>101.9</v>
+        <v>102</v>
       </c>
       <c r="D719" t="s">
         <v>78</v>
@@ -13743,7 +13746,7 @@
         <v>86</v>
       </c>
       <c r="C721" t="n">
-        <v>97.4</v>
+        <v>97.5</v>
       </c>
       <c r="D721" t="s">
         <v>78</v>
@@ -13760,7 +13763,7 @@
         <v>87</v>
       </c>
       <c r="C722" t="n">
-        <v>98.9</v>
+        <v>99</v>
       </c>
       <c r="D722" t="s">
         <v>78</v>
@@ -13777,7 +13780,7 @@
         <v>88</v>
       </c>
       <c r="C723" t="n">
-        <v>101</v>
+        <v>101.1</v>
       </c>
       <c r="D723" t="s">
         <v>78</v>
@@ -13794,7 +13797,7 @@
         <v>89</v>
       </c>
       <c r="C724" t="n">
-        <v>101.3</v>
+        <v>101.4</v>
       </c>
       <c r="D724" t="s">
         <v>78</v>
@@ -13811,7 +13814,7 @@
         <v>90</v>
       </c>
       <c r="C725" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="D725" t="s">
         <v>91</v>
@@ -13930,7 +13933,7 @@
         <v>98</v>
       </c>
       <c r="C732" t="n">
-        <v>101.2</v>
+        <v>101.3</v>
       </c>
       <c r="D732" t="s">
         <v>91</v>
@@ -13947,7 +13950,7 @@
         <v>99</v>
       </c>
       <c r="C733" t="n">
-        <v>101.6</v>
+        <v>101.7</v>
       </c>
       <c r="D733" t="s">
         <v>91</v>
@@ -13964,7 +13967,7 @@
         <v>100</v>
       </c>
       <c r="C734" t="n">
-        <v>99</v>
+        <v>99.1</v>
       </c>
       <c r="D734" t="s">
         <v>91</v>
@@ -13981,7 +13984,7 @@
         <v>101</v>
       </c>
       <c r="C735" t="n">
-        <v>99.5</v>
+        <v>99.6</v>
       </c>
       <c r="D735" t="s">
         <v>91</v>
@@ -13998,7 +14001,7 @@
         <v>102</v>
       </c>
       <c r="C736" t="n">
-        <v>98.1</v>
+        <v>98.2</v>
       </c>
       <c r="D736" t="s">
         <v>91</v>
@@ -14015,7 +14018,7 @@
         <v>103</v>
       </c>
       <c r="C737" t="n">
-        <v>95.4</v>
+        <v>95.6</v>
       </c>
       <c r="D737" t="s">
         <v>104</v>
@@ -14032,7 +14035,7 @@
         <v>105</v>
       </c>
       <c r="C738" t="n">
-        <v>96.2</v>
+        <v>96.4</v>
       </c>
       <c r="D738" t="s">
         <v>104</v>
@@ -14049,7 +14052,7 @@
         <v>106</v>
       </c>
       <c r="C739" t="n">
-        <v>93.4</v>
+        <v>93.5</v>
       </c>
       <c r="D739" t="s">
         <v>104</v>
@@ -14066,7 +14069,7 @@
         <v>107</v>
       </c>
       <c r="C740" t="n">
-        <v>94</v>
+        <v>94.1</v>
       </c>
       <c r="D740" t="s">
         <v>104</v>
@@ -14083,7 +14086,7 @@
         <v>108</v>
       </c>
       <c r="C741" t="n">
-        <v>95.7</v>
+        <v>95.8</v>
       </c>
       <c r="D741" t="s">
         <v>104</v>
@@ -14100,7 +14103,7 @@
         <v>109</v>
       </c>
       <c r="C742" t="n">
-        <v>97.2</v>
+        <v>97.3</v>
       </c>
       <c r="D742" t="s">
         <v>104</v>
@@ -14117,7 +14120,7 @@
         <v>110</v>
       </c>
       <c r="C743" t="n">
-        <v>100.9</v>
+        <v>101</v>
       </c>
       <c r="D743" t="s">
         <v>104</v>
@@ -14134,7 +14137,7 @@
         <v>111</v>
       </c>
       <c r="C744" t="n">
-        <v>101.2</v>
+        <v>101.3</v>
       </c>
       <c r="D744" t="s">
         <v>104</v>
@@ -14168,7 +14171,7 @@
         <v>113</v>
       </c>
       <c r="C746" t="n">
-        <v>100.7</v>
+        <v>100.8</v>
       </c>
       <c r="D746" t="s">
         <v>104</v>
@@ -14185,7 +14188,7 @@
         <v>114</v>
       </c>
       <c r="C747" t="n">
-        <v>96.2</v>
+        <v>96.3</v>
       </c>
       <c r="D747" t="s">
         <v>104</v>
@@ -14202,7 +14205,7 @@
         <v>115</v>
       </c>
       <c r="C748" t="n">
-        <v>97.1</v>
+        <v>97.2</v>
       </c>
       <c r="D748" t="s">
         <v>104</v>
@@ -14219,7 +14222,7 @@
         <v>116</v>
       </c>
       <c r="C749" t="n">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="D749" t="s">
         <v>117</v>
@@ -14287,7 +14290,7 @@
         <v>121</v>
       </c>
       <c r="C753" t="n">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="D753" t="s">
         <v>117</v>
@@ -14304,7 +14307,7 @@
         <v>122</v>
       </c>
       <c r="C754" t="n">
-        <v>102.6</v>
+        <v>102.7</v>
       </c>
       <c r="D754" t="s">
         <v>117</v>
@@ -14321,7 +14324,7 @@
         <v>123</v>
       </c>
       <c r="C755" t="n">
-        <v>100.8</v>
+        <v>100.9</v>
       </c>
       <c r="D755" t="s">
         <v>117</v>
@@ -14355,7 +14358,7 @@
         <v>125</v>
       </c>
       <c r="C757" t="n">
-        <v>102.2</v>
+        <v>102.3</v>
       </c>
       <c r="D757" t="s">
         <v>117</v>
@@ -14389,7 +14392,7 @@
         <v>127</v>
       </c>
       <c r="C759" t="n">
-        <v>103.3</v>
+        <v>103.4</v>
       </c>
       <c r="D759" t="s">
         <v>117</v>
@@ -14508,7 +14511,7 @@
         <v>135</v>
       </c>
       <c r="C766" t="n">
-        <v>102.5</v>
+        <v>102.6</v>
       </c>
       <c r="D766" t="s">
         <v>130</v>
@@ -14542,7 +14545,7 @@
         <v>137</v>
       </c>
       <c r="C768" t="n">
-        <v>105.5</v>
+        <v>105.4</v>
       </c>
       <c r="D768" t="s">
         <v>130</v>
@@ -14627,7 +14630,7 @@
         <v>142</v>
       </c>
       <c r="C773" t="n">
-        <v>111.4</v>
+        <v>111.3</v>
       </c>
       <c r="D773" t="s">
         <v>143</v>
@@ -14712,7 +14715,7 @@
         <v>148</v>
       </c>
       <c r="C778" t="n">
-        <v>107.7</v>
+        <v>107.6</v>
       </c>
       <c r="D778" t="s">
         <v>143</v>
@@ -15069,7 +15072,7 @@
         <v>171</v>
       </c>
       <c r="C799" t="n">
-        <v>99.6</v>
+        <v>99.7</v>
       </c>
       <c r="D799" t="s">
         <v>169</v>
@@ -15103,7 +15106,7 @@
         <v>173</v>
       </c>
       <c r="C801" t="n">
-        <v>95.1</v>
+        <v>95.2</v>
       </c>
       <c r="D801" t="s">
         <v>169</v>
@@ -15120,7 +15123,7 @@
         <v>174</v>
       </c>
       <c r="C802" t="n">
-        <v>89.4</v>
+        <v>89.6</v>
       </c>
       <c r="D802" t="s">
         <v>169</v>
@@ -15137,7 +15140,7 @@
         <v>175</v>
       </c>
       <c r="C803" t="n">
-        <v>83.4</v>
+        <v>83.6</v>
       </c>
       <c r="D803" t="s">
         <v>169</v>
@@ -15154,7 +15157,7 @@
         <v>176</v>
       </c>
       <c r="C804" t="n">
-        <v>85.8</v>
+        <v>86</v>
       </c>
       <c r="D804" t="s">
         <v>169</v>
@@ -15171,7 +15174,7 @@
         <v>177</v>
       </c>
       <c r="C805" t="n">
-        <v>87.9</v>
+        <v>88.1</v>
       </c>
       <c r="D805" t="s">
         <v>169</v>
@@ -15188,7 +15191,7 @@
         <v>178</v>
       </c>
       <c r="C806" t="n">
-        <v>80.7</v>
+        <v>81.1</v>
       </c>
       <c r="D806" t="s">
         <v>169</v>
@@ -15205,7 +15208,7 @@
         <v>179</v>
       </c>
       <c r="C807" t="n">
-        <v>81.6</v>
+        <v>81.9</v>
       </c>
       <c r="D807" t="s">
         <v>169</v>
@@ -15222,7 +15225,7 @@
         <v>180</v>
       </c>
       <c r="C808" t="n">
-        <v>84</v>
+        <v>84.3</v>
       </c>
       <c r="D808" t="s">
         <v>169</v>
@@ -15239,7 +15242,7 @@
         <v>181</v>
       </c>
       <c r="C809" t="n">
-        <v>88.2</v>
+        <v>88.4</v>
       </c>
       <c r="D809" t="s">
         <v>182</v>
@@ -15256,7 +15259,7 @@
         <v>183</v>
       </c>
       <c r="C810" t="n">
-        <v>88</v>
+        <v>88.2</v>
       </c>
       <c r="D810" t="s">
         <v>182</v>
@@ -15273,7 +15276,7 @@
         <v>184</v>
       </c>
       <c r="C811" t="n">
-        <v>87.6</v>
+        <v>87.8</v>
       </c>
       <c r="D811" t="s">
         <v>182</v>
@@ -15290,7 +15293,7 @@
         <v>185</v>
       </c>
       <c r="C812" t="n">
-        <v>83.5</v>
+        <v>83.8</v>
       </c>
       <c r="D812" t="s">
         <v>182</v>
@@ -15307,7 +15310,7 @@
         <v>186</v>
       </c>
       <c r="C813" t="n">
-        <v>89.5</v>
+        <v>89.7</v>
       </c>
       <c r="D813" t="s">
         <v>182</v>
@@ -15324,7 +15327,7 @@
         <v>187</v>
       </c>
       <c r="C814" t="n">
-        <v>91.1</v>
+        <v>91.3</v>
       </c>
       <c r="D814" t="s">
         <v>182</v>
@@ -15341,7 +15344,7 @@
         <v>188</v>
       </c>
       <c r="C815" t="n">
-        <v>95</v>
+        <v>95.2</v>
       </c>
       <c r="D815" t="s">
         <v>182</v>
@@ -15358,7 +15361,7 @@
         <v>189</v>
       </c>
       <c r="C816" t="n">
-        <v>98.7</v>
+        <v>98.9</v>
       </c>
       <c r="D816" t="s">
         <v>182</v>
@@ -15375,7 +15378,7 @@
         <v>190</v>
       </c>
       <c r="C817" t="n">
-        <v>100.4</v>
+        <v>100.5</v>
       </c>
       <c r="D817" t="s">
         <v>182</v>
@@ -15392,7 +15395,7 @@
         <v>191</v>
       </c>
       <c r="C818" t="n">
-        <v>103.2</v>
+        <v>103.3</v>
       </c>
       <c r="D818" t="s">
         <v>182</v>
@@ -15409,7 +15412,7 @@
         <v>202</v>
       </c>
       <c r="C819" t="n">
-        <v>96.8</v>
+        <v>96.9</v>
       </c>
       <c r="D819" t="s">
         <v>182</v>
@@ -15511,7 +15514,7 @@
         <v>209</v>
       </c>
       <c r="C825" t="n">
-        <v>108.1</v>
+        <v>108.2</v>
       </c>
       <c r="D825" t="s">
         <v>205</v>
@@ -15562,7 +15565,7 @@
         <v>212</v>
       </c>
       <c r="C828" t="n">
-        <v>109.8</v>
+        <v>109.9</v>
       </c>
       <c r="D828" t="s">
         <v>205</v>
@@ -15579,7 +15582,7 @@
         <v>213</v>
       </c>
       <c r="C829" t="n">
-        <v>114.6</v>
+        <v>114.7</v>
       </c>
       <c r="D829" t="s">
         <v>205</v>
@@ -15630,7 +15633,7 @@
         <v>216</v>
       </c>
       <c r="C832" t="n">
-        <v>113.4</v>
+        <v>113.5</v>
       </c>
       <c r="D832" t="s">
         <v>205</v>
@@ -15698,7 +15701,7 @@
         <v>221</v>
       </c>
       <c r="C836" t="n">
-        <v>108.1</v>
+        <v>108.2</v>
       </c>
       <c r="D836" t="s">
         <v>218</v>
@@ -15732,7 +15735,7 @@
         <v>223</v>
       </c>
       <c r="C838" t="n">
-        <v>107.3</v>
+        <v>107.4</v>
       </c>
       <c r="D838" t="s">
         <v>218</v>
@@ -15766,7 +15769,7 @@
         <v>225</v>
       </c>
       <c r="C840" t="n">
-        <v>98.2</v>
+        <v>98.3</v>
       </c>
       <c r="D840" t="s">
         <v>218</v>
@@ -15783,7 +15786,7 @@
         <v>226</v>
       </c>
       <c r="C841" t="n">
-        <v>96.1</v>
+        <v>96.2</v>
       </c>
       <c r="D841" t="s">
         <v>218</v>
@@ -15800,7 +15803,7 @@
         <v>227</v>
       </c>
       <c r="C842" t="n">
-        <v>95.4</v>
+        <v>95.5</v>
       </c>
       <c r="D842" t="s">
         <v>218</v>
@@ -15817,7 +15820,7 @@
         <v>228</v>
       </c>
       <c r="C843" t="n">
-        <v>94.7</v>
+        <v>94.8</v>
       </c>
       <c r="D843" t="s">
         <v>218</v>
@@ -15868,7 +15871,7 @@
         <v>232</v>
       </c>
       <c r="C846" t="n">
-        <v>91.5</v>
+        <v>91.6</v>
       </c>
       <c r="D846" t="s">
         <v>231</v>
@@ -15902,7 +15905,7 @@
         <v>234</v>
       </c>
       <c r="C848" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="D848" t="s">
         <v>231</v>
@@ -15919,7 +15922,7 @@
         <v>235</v>
       </c>
       <c r="C849" t="n">
-        <v>98.8</v>
+        <v>98.9</v>
       </c>
       <c r="D849" t="s">
         <v>231</v>
@@ -15936,7 +15939,7 @@
         <v>236</v>
       </c>
       <c r="C850" t="n">
-        <v>96.3</v>
+        <v>96.4</v>
       </c>
       <c r="D850" t="s">
         <v>231</v>
@@ -15970,7 +15973,7 @@
         <v>238</v>
       </c>
       <c r="C852" t="n">
-        <v>94.5</v>
+        <v>94.6</v>
       </c>
       <c r="D852" t="s">
         <v>231</v>
@@ -16038,7 +16041,7 @@
         <v>242</v>
       </c>
       <c r="C856" t="n">
-        <v>87.2</v>
+        <v>87.3</v>
       </c>
       <c r="D856" t="s">
         <v>231</v>
@@ -16191,7 +16194,7 @@
         <v>252</v>
       </c>
       <c r="C865" t="n">
-        <v>98.5</v>
+        <v>98.6</v>
       </c>
       <c r="D865" t="s">
         <v>244</v>
@@ -16378,7 +16381,7 @@
         <v>264</v>
       </c>
       <c r="C876" t="n">
-        <v>103.1</v>
+        <v>103.2</v>
       </c>
       <c r="D876" t="s">
         <v>257</v>
@@ -16395,7 +16398,7 @@
         <v>265</v>
       </c>
       <c r="C877" t="n">
-        <v>101.7</v>
+        <v>101.8</v>
       </c>
       <c r="D877" t="s">
         <v>257</v>
@@ -16429,7 +16432,7 @@
         <v>267</v>
       </c>
       <c r="C879" t="n">
-        <v>101.2</v>
+        <v>101.3</v>
       </c>
       <c r="D879" t="s">
         <v>257</v>
@@ -16565,7 +16568,7 @@
         <v>276</v>
       </c>
       <c r="C887" t="n">
-        <v>103.2</v>
+        <v>103.3</v>
       </c>
       <c r="D887" t="s">
         <v>270</v>
@@ -16599,7 +16602,7 @@
         <v>278</v>
       </c>
       <c r="C889" t="n">
-        <v>106.4</v>
+        <v>106.5</v>
       </c>
       <c r="D889" t="s">
         <v>270</v>
@@ -16633,7 +16636,7 @@
         <v>280</v>
       </c>
       <c r="C891" t="n">
-        <v>104</v>
+        <v>104.1</v>
       </c>
       <c r="D891" t="s">
         <v>270</v>
@@ -16718,7 +16721,7 @@
         <v>286</v>
       </c>
       <c r="C896" t="n">
-        <v>102.6</v>
+        <v>102.7</v>
       </c>
       <c r="D896" t="s">
         <v>283</v>
@@ -16752,7 +16755,7 @@
         <v>288</v>
       </c>
       <c r="C898" t="n">
-        <v>102.9</v>
+        <v>103</v>
       </c>
       <c r="D898" t="s">
         <v>283</v>
@@ -16769,7 +16772,7 @@
         <v>289</v>
       </c>
       <c r="C899" t="n">
-        <v>102.2</v>
+        <v>102.3</v>
       </c>
       <c r="D899" t="s">
         <v>283</v>
@@ -16803,7 +16806,7 @@
         <v>291</v>
       </c>
       <c r="C901" t="n">
-        <v>103.4</v>
+        <v>103.5</v>
       </c>
       <c r="D901" t="s">
         <v>283</v>
@@ -16854,7 +16857,7 @@
         <v>294</v>
       </c>
       <c r="C904" t="n">
-        <v>110</v>
+        <v>110.1</v>
       </c>
       <c r="D904" t="s">
         <v>283</v>
@@ -16871,7 +16874,7 @@
         <v>295</v>
       </c>
       <c r="C905" t="n">
-        <v>108.5</v>
+        <v>108.6</v>
       </c>
       <c r="D905" t="s">
         <v>296</v>
@@ -16939,7 +16942,7 @@
         <v>300</v>
       </c>
       <c r="C909" t="n">
-        <v>111.8</v>
+        <v>111.7</v>
       </c>
       <c r="D909" t="s">
         <v>296</v>
@@ -16990,7 +16993,7 @@
         <v>303</v>
       </c>
       <c r="C912" t="n">
-        <v>109.4</v>
+        <v>109.5</v>
       </c>
       <c r="D912" t="s">
         <v>296</v>
@@ -17092,7 +17095,7 @@
         <v>310</v>
       </c>
       <c r="C918" t="n">
-        <v>108.5</v>
+        <v>108.6</v>
       </c>
       <c r="D918" t="s">
         <v>309</v>
@@ -17109,7 +17112,7 @@
         <v>311</v>
       </c>
       <c r="C919" t="n">
-        <v>109.1</v>
+        <v>109</v>
       </c>
       <c r="D919" t="s">
         <v>309</v>
@@ -17126,7 +17129,7 @@
         <v>312</v>
       </c>
       <c r="C920" t="n">
-        <v>110.4</v>
+        <v>110.5</v>
       </c>
       <c r="D920" t="s">
         <v>309</v>
@@ -17160,7 +17163,7 @@
         <v>314</v>
       </c>
       <c r="C922" t="n">
-        <v>110</v>
+        <v>110.1</v>
       </c>
       <c r="D922" t="s">
         <v>309</v>
@@ -17194,7 +17197,7 @@
         <v>316</v>
       </c>
       <c r="C924" t="n">
-        <v>110.2</v>
+        <v>110.3</v>
       </c>
       <c r="D924" t="s">
         <v>309</v>
@@ -17211,7 +17214,7 @@
         <v>317</v>
       </c>
       <c r="C925" t="n">
-        <v>109.7</v>
+        <v>109.8</v>
       </c>
       <c r="D925" t="s">
         <v>309</v>
@@ -17228,7 +17231,7 @@
         <v>318</v>
       </c>
       <c r="C926" t="n">
-        <v>106.3</v>
+        <v>106.4</v>
       </c>
       <c r="D926" t="s">
         <v>309</v>
@@ -17262,7 +17265,7 @@
         <v>320</v>
       </c>
       <c r="C928" t="n">
-        <v>105.2</v>
+        <v>105.3</v>
       </c>
       <c r="D928" t="s">
         <v>309</v>
@@ -17279,7 +17282,7 @@
         <v>321</v>
       </c>
       <c r="C929" t="n">
-        <v>101.1</v>
+        <v>101.2</v>
       </c>
       <c r="D929" t="s">
         <v>322</v>
@@ -17296,7 +17299,7 @@
         <v>323</v>
       </c>
       <c r="C930" t="n">
-        <v>102</v>
+        <v>102.1</v>
       </c>
       <c r="D930" t="s">
         <v>322</v>
@@ -17347,7 +17350,7 @@
         <v>326</v>
       </c>
       <c r="C933" t="n">
-        <v>101.7</v>
+        <v>101.6</v>
       </c>
       <c r="D933" t="s">
         <v>322</v>
@@ -17398,7 +17401,7 @@
         <v>329</v>
       </c>
       <c r="C936" t="n">
-        <v>95.1</v>
+        <v>95.2</v>
       </c>
       <c r="D936" t="s">
         <v>322</v>
@@ -17415,7 +17418,7 @@
         <v>330</v>
       </c>
       <c r="C937" t="n">
-        <v>93.6</v>
+        <v>93.7</v>
       </c>
       <c r="D937" t="s">
         <v>322</v>
@@ -17449,7 +17452,7 @@
         <v>332</v>
       </c>
       <c r="C939" t="n">
-        <v>94.1</v>
+        <v>94.3</v>
       </c>
       <c r="D939" t="s">
         <v>322</v>
@@ -17500,7 +17503,7 @@
         <v>336</v>
       </c>
       <c r="C942" t="n">
-        <v>99</v>
+        <v>98.9</v>
       </c>
       <c r="D942" t="s">
         <v>335</v>
@@ -17517,7 +17520,7 @@
         <v>337</v>
       </c>
       <c r="C943" t="n">
-        <v>93.5</v>
+        <v>93.6</v>
       </c>
       <c r="D943" t="s">
         <v>335</v>
@@ -17534,7 +17537,7 @@
         <v>338</v>
       </c>
       <c r="C944" t="n">
-        <v>61.4</v>
+        <v>61.6</v>
       </c>
       <c r="D944" t="s">
         <v>335</v>
@@ -17551,7 +17554,7 @@
         <v>339</v>
       </c>
       <c r="C945" t="n">
-        <v>64.7</v>
+        <v>64.9</v>
       </c>
       <c r="D945" t="s">
         <v>335</v>
@@ -17568,7 +17571,7 @@
         <v>340</v>
       </c>
       <c r="C946" t="n">
-        <v>76.1</v>
+        <v>76.2</v>
       </c>
       <c r="D946" t="s">
         <v>335</v>
@@ -17585,7 +17588,7 @@
         <v>341</v>
       </c>
       <c r="C947" t="n">
-        <v>84.9</v>
+        <v>84.8</v>
       </c>
       <c r="D947" t="s">
         <v>335</v>
@@ -17602,7 +17605,7 @@
         <v>342</v>
       </c>
       <c r="C948" t="n">
-        <v>87.5</v>
+        <v>87.6</v>
       </c>
       <c r="D948" t="s">
         <v>335</v>
@@ -17636,7 +17639,7 @@
         <v>344</v>
       </c>
       <c r="C950" t="n">
-        <v>95</v>
+        <v>95.2</v>
       </c>
       <c r="D950" t="s">
         <v>335</v>
@@ -17653,7 +17656,7 @@
         <v>345</v>
       </c>
       <c r="C951" t="n">
-        <v>96.7</v>
+        <v>96.6</v>
       </c>
       <c r="D951" t="s">
         <v>335</v>
@@ -17670,7 +17673,7 @@
         <v>346</v>
       </c>
       <c r="C952" t="n">
-        <v>96.2</v>
+        <v>96.3</v>
       </c>
       <c r="D952" t="s">
         <v>335</v>
@@ -17687,7 +17690,7 @@
         <v>347</v>
       </c>
       <c r="C953" t="n">
-        <v>102.1</v>
+        <v>102.2</v>
       </c>
       <c r="D953" t="s">
         <v>348</v>
@@ -17704,7 +17707,7 @@
         <v>349</v>
       </c>
       <c r="C954" t="n">
-        <v>104</v>
+        <v>104.1</v>
       </c>
       <c r="D954" t="s">
         <v>348</v>
@@ -17721,7 +17724,7 @@
         <v>350</v>
       </c>
       <c r="C955" t="n">
-        <v>105.5</v>
+        <v>105.4</v>
       </c>
       <c r="D955" t="s">
         <v>348</v>
@@ -17738,7 +17741,7 @@
         <v>351</v>
       </c>
       <c r="C956" t="n">
-        <v>112.6</v>
+        <v>112.5</v>
       </c>
       <c r="D956" t="s">
         <v>348</v>
@@ -17755,7 +17758,7 @@
         <v>352</v>
       </c>
       <c r="C957" t="n">
-        <v>116.7</v>
+        <v>117.1</v>
       </c>
       <c r="D957" t="s">
         <v>348</v>
@@ -17772,7 +17775,7 @@
         <v>353</v>
       </c>
       <c r="C958" t="n">
-        <v>117.3</v>
+        <v>117.2</v>
       </c>
       <c r="D958" t="s">
         <v>348</v>
@@ -17789,7 +17792,7 @@
         <v>354</v>
       </c>
       <c r="C959" t="n">
-        <v>120.8</v>
+        <v>120.6</v>
       </c>
       <c r="D959" t="s">
         <v>348</v>
@@ -17806,7 +17809,7 @@
         <v>355</v>
       </c>
       <c r="C960" t="n">
-        <v>119.4</v>
+        <v>119.3</v>
       </c>
       <c r="D960" t="s">
         <v>348</v>
@@ -17823,7 +17826,7 @@
         <v>356</v>
       </c>
       <c r="C961" t="n">
-        <v>118.7</v>
+        <v>118.9</v>
       </c>
       <c r="D961" t="s">
         <v>348</v>
@@ -17840,7 +17843,7 @@
         <v>357</v>
       </c>
       <c r="C962" t="n">
-        <v>120.7</v>
+        <v>120.9</v>
       </c>
       <c r="D962" t="s">
         <v>348</v>
@@ -17857,7 +17860,7 @@
         <v>358</v>
       </c>
       <c r="C963" t="n">
-        <v>118.6</v>
+        <v>118.8</v>
       </c>
       <c r="D963" t="s">
         <v>348</v>
@@ -17874,7 +17877,7 @@
         <v>359</v>
       </c>
       <c r="C964" t="n">
-        <v>118.5</v>
+        <v>118.7</v>
       </c>
       <c r="D964" t="s">
         <v>348</v>
@@ -17908,7 +17911,7 @@
         <v>362</v>
       </c>
       <c r="C966" t="n">
-        <v>114.8</v>
+        <v>114.7</v>
       </c>
       <c r="D966" t="s">
         <v>361</v>
@@ -17942,7 +17945,7 @@
         <v>364</v>
       </c>
       <c r="C968" t="n">
-        <v>111</v>
+        <v>111.1</v>
       </c>
       <c r="D968" t="s">
         <v>361</v>
@@ -17959,7 +17962,7 @@
         <v>365</v>
       </c>
       <c r="C969" t="n">
-        <v>110.5</v>
+        <v>111.1</v>
       </c>
       <c r="D969" t="s">
         <v>361</v>
@@ -17976,7 +17979,7 @@
         <v>366</v>
       </c>
       <c r="C970" t="n">
-        <v>105.5</v>
+        <v>105.7</v>
       </c>
       <c r="D970" t="s">
         <v>361</v>
@@ -18010,7 +18013,7 @@
         <v>368</v>
       </c>
       <c r="C972" t="n">
-        <v>98.6</v>
+        <v>98.9</v>
       </c>
       <c r="D972" t="s">
         <v>361</v>
@@ -18027,7 +18030,7 @@
         <v>369</v>
       </c>
       <c r="C973" t="n">
-        <v>93.3</v>
+        <v>93.4</v>
       </c>
       <c r="D973" t="s">
         <v>361</v>
@@ -18044,7 +18047,7 @@
         <v>370</v>
       </c>
       <c r="C974" t="n">
-        <v>87.6</v>
+        <v>88.2</v>
       </c>
       <c r="D974" t="s">
         <v>361</v>
@@ -18061,7 +18064,7 @@
         <v>371</v>
       </c>
       <c r="C975" t="n">
-        <v>87.4</v>
+        <v>87.7</v>
       </c>
       <c r="D975" t="s">
         <v>361</v>
@@ -18078,7 +18081,7 @@
         <v>372</v>
       </c>
       <c r="C976" t="n">
-        <v>87.4</v>
+        <v>87.6</v>
       </c>
       <c r="D976" t="s">
         <v>361</v>
@@ -18095,7 +18098,7 @@
         <v>373</v>
       </c>
       <c r="C977" t="n">
-        <v>85.5</v>
+        <v>85.6</v>
       </c>
       <c r="D977" t="s">
         <v>374</v>
@@ -18112,7 +18115,7 @@
         <v>375</v>
       </c>
       <c r="C978" t="n">
-        <v>87.5</v>
+        <v>87.7</v>
       </c>
       <c r="D978" t="s">
         <v>374</v>
@@ -18129,7 +18132,7 @@
         <v>376</v>
       </c>
       <c r="C979" t="n">
-        <v>89.3</v>
+        <v>89.2</v>
       </c>
       <c r="D979" t="s">
         <v>374</v>
@@ -18146,7 +18149,7 @@
         <v>377</v>
       </c>
       <c r="C980" t="n">
-        <v>88.1</v>
+        <v>88</v>
       </c>
       <c r="D980" t="s">
         <v>374</v>
@@ -18163,7 +18166,7 @@
         <v>378</v>
       </c>
       <c r="C981" t="n">
-        <v>89.7</v>
+        <v>90.3</v>
       </c>
       <c r="D981" t="s">
         <v>374</v>
@@ -18214,7 +18217,7 @@
         <v>381</v>
       </c>
       <c r="C984" t="n">
-        <v>85.3</v>
+        <v>85.5</v>
       </c>
       <c r="D984" t="s">
         <v>374</v>
@@ -18367,7 +18370,7 @@
         <v>211</v>
       </c>
       <c r="C993" t="n">
-        <v>102</v>
+        <v>101.9</v>
       </c>
       <c r="D993" t="s">
         <v>205</v>
@@ -18486,7 +18489,7 @@
         <v>219</v>
       </c>
       <c r="C1000" t="n">
-        <v>110.6</v>
+        <v>110.7</v>
       </c>
       <c r="D1000" t="s">
         <v>218</v>
@@ -18996,7 +18999,7 @@
         <v>251</v>
       </c>
       <c r="C1030" t="n">
-        <v>96.5</v>
+        <v>96.4</v>
       </c>
       <c r="D1030" t="s">
         <v>244</v>
@@ -19574,7 +19577,7 @@
         <v>288</v>
       </c>
       <c r="C1064" t="n">
-        <v>101.5</v>
+        <v>101.4</v>
       </c>
       <c r="D1064" t="s">
         <v>283</v>
@@ -19761,7 +19764,7 @@
         <v>300</v>
       </c>
       <c r="C1075" t="n">
-        <v>113.1</v>
+        <v>113.2</v>
       </c>
       <c r="D1075" t="s">
         <v>296</v>
@@ -19778,7 +19781,7 @@
         <v>301</v>
       </c>
       <c r="C1076" t="n">
-        <v>115.1</v>
+        <v>115.2</v>
       </c>
       <c r="D1076" t="s">
         <v>296</v>
@@ -19931,7 +19934,7 @@
         <v>311</v>
       </c>
       <c r="C1085" t="n">
-        <v>112.5</v>
+        <v>112.2</v>
       </c>
       <c r="D1085" t="s">
         <v>309</v>
@@ -19965,7 +19968,7 @@
         <v>313</v>
       </c>
       <c r="C1087" t="n">
-        <v>115</v>
+        <v>115.1</v>
       </c>
       <c r="D1087" t="s">
         <v>309</v>
@@ -20084,7 +20087,7 @@
         <v>320</v>
       </c>
       <c r="C1094" t="n">
-        <v>112.8</v>
+        <v>112.9</v>
       </c>
       <c r="D1094" t="s">
         <v>309</v>
@@ -20322,7 +20325,7 @@
         <v>336</v>
       </c>
       <c r="C1108" t="n">
-        <v>101.3</v>
+        <v>101</v>
       </c>
       <c r="D1108" t="s">
         <v>335</v>
@@ -20373,7 +20376,7 @@
         <v>339</v>
       </c>
       <c r="C1111" t="n">
-        <v>76.2</v>
+        <v>76.4</v>
       </c>
       <c r="D1111" t="s">
         <v>335</v>
@@ -20407,7 +20410,7 @@
         <v>341</v>
       </c>
       <c r="C1113" t="n">
-        <v>96.8</v>
+        <v>96.5</v>
       </c>
       <c r="D1113" t="s">
         <v>335</v>
@@ -20475,7 +20478,7 @@
         <v>345</v>
       </c>
       <c r="C1117" t="n">
-        <v>106.9</v>
+        <v>106.5</v>
       </c>
       <c r="D1117" t="s">
         <v>335</v>
@@ -20543,7 +20546,7 @@
         <v>350</v>
       </c>
       <c r="C1121" t="n">
-        <v>114.1</v>
+        <v>114.2</v>
       </c>
       <c r="D1121" t="s">
         <v>348</v>
@@ -20560,7 +20563,7 @@
         <v>351</v>
       </c>
       <c r="C1122" t="n">
-        <v>117.8</v>
+        <v>117.5</v>
       </c>
       <c r="D1122" t="s">
         <v>348</v>
@@ -20577,7 +20580,7 @@
         <v>352</v>
       </c>
       <c r="C1123" t="n">
-        <v>121.4</v>
+        <v>122</v>
       </c>
       <c r="D1123" t="s">
         <v>348</v>
@@ -20594,7 +20597,7 @@
         <v>353</v>
       </c>
       <c r="C1124" t="n">
-        <v>120.6</v>
+        <v>120.3</v>
       </c>
       <c r="D1124" t="s">
         <v>348</v>
@@ -20611,7 +20614,7 @@
         <v>354</v>
       </c>
       <c r="C1125" t="n">
-        <v>125.6</v>
+        <v>125.3</v>
       </c>
       <c r="D1125" t="s">
         <v>348</v>
@@ -20628,7 +20631,7 @@
         <v>355</v>
       </c>
       <c r="C1126" t="n">
-        <v>124.6</v>
+        <v>124.7</v>
       </c>
       <c r="D1126" t="s">
         <v>348</v>
@@ -20645,7 +20648,7 @@
         <v>356</v>
       </c>
       <c r="C1127" t="n">
-        <v>122.6</v>
+        <v>122.9</v>
       </c>
       <c r="D1127" t="s">
         <v>348</v>
@@ -20662,7 +20665,7 @@
         <v>357</v>
       </c>
       <c r="C1128" t="n">
-        <v>126.6</v>
+        <v>126.4</v>
       </c>
       <c r="D1128" t="s">
         <v>348</v>
@@ -20679,7 +20682,7 @@
         <v>358</v>
       </c>
       <c r="C1129" t="n">
-        <v>124.3</v>
+        <v>124.6</v>
       </c>
       <c r="D1129" t="s">
         <v>348</v>
@@ -20747,7 +20750,7 @@
         <v>363</v>
       </c>
       <c r="C1133" t="n">
-        <v>124</v>
+        <v>123.8</v>
       </c>
       <c r="D1133" t="s">
         <v>361</v>
@@ -20764,7 +20767,7 @@
         <v>364</v>
       </c>
       <c r="C1134" t="n">
-        <v>120.8</v>
+        <v>120.9</v>
       </c>
       <c r="D1134" t="s">
         <v>361</v>
@@ -20781,7 +20784,7 @@
         <v>365</v>
       </c>
       <c r="C1135" t="n">
-        <v>123.5</v>
+        <v>124.5</v>
       </c>
       <c r="D1135" t="s">
         <v>361</v>
@@ -20798,7 +20801,7 @@
         <v>366</v>
       </c>
       <c r="C1136" t="n">
-        <v>118.5</v>
+        <v>118.9</v>
       </c>
       <c r="D1136" t="s">
         <v>361</v>
@@ -20815,7 +20818,7 @@
         <v>367</v>
       </c>
       <c r="C1137" t="n">
-        <v>120.2</v>
+        <v>120</v>
       </c>
       <c r="D1137" t="s">
         <v>361</v>
@@ -20832,7 +20835,7 @@
         <v>368</v>
       </c>
       <c r="C1138" t="n">
-        <v>114.9</v>
+        <v>115.2</v>
       </c>
       <c r="D1138" t="s">
         <v>361</v>
@@ -20849,7 +20852,7 @@
         <v>369</v>
       </c>
       <c r="C1139" t="n">
-        <v>109.4</v>
+        <v>109.7</v>
       </c>
       <c r="D1139" t="s">
         <v>361</v>
@@ -20866,7 +20869,7 @@
         <v>370</v>
       </c>
       <c r="C1140" t="n">
-        <v>105.1</v>
+        <v>105.2</v>
       </c>
       <c r="D1140" t="s">
         <v>361</v>
@@ -20883,7 +20886,7 @@
         <v>371</v>
       </c>
       <c r="C1141" t="n">
-        <v>104.8</v>
+        <v>105.1</v>
       </c>
       <c r="D1141" t="s">
         <v>361</v>
@@ -20951,7 +20954,7 @@
         <v>376</v>
       </c>
       <c r="C1145" t="n">
-        <v>103.4</v>
+        <v>103.1</v>
       </c>
       <c r="D1145" t="s">
         <v>374</v>
@@ -20968,7 +20971,7 @@
         <v>377</v>
       </c>
       <c r="C1146" t="n">
-        <v>101.3</v>
+        <v>101</v>
       </c>
       <c r="D1146" t="s">
         <v>374</v>
@@ -20985,7 +20988,7 @@
         <v>378</v>
       </c>
       <c r="C1147" t="n">
-        <v>102.5</v>
+        <v>103.4</v>
       </c>
       <c r="D1147" t="s">
         <v>374</v>
@@ -21002,7 +21005,7 @@
         <v>379</v>
       </c>
       <c r="C1148" t="n">
-        <v>101.6</v>
+        <v>101.3</v>
       </c>
       <c r="D1148" t="s">
         <v>374</v>
@@ -21019,7 +21022,7 @@
         <v>380</v>
       </c>
       <c r="C1149" t="n">
-        <v>98</v>
+        <v>97.7</v>
       </c>
       <c r="D1149" t="s">
         <v>374</v>
@@ -21036,7 +21039,7 @@
         <v>381</v>
       </c>
       <c r="C1150" t="n">
-        <v>96.9</v>
+        <v>97.1</v>
       </c>
       <c r="D1150" t="s">
         <v>374</v>
@@ -21053,7 +21056,7 @@
         <v>209</v>
       </c>
       <c r="C1151" t="n">
-        <v>97.5</v>
+        <v>97.6</v>
       </c>
       <c r="D1151" t="s">
         <v>205</v>
@@ -21070,7 +21073,7 @@
         <v>210</v>
       </c>
       <c r="C1152" t="n">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="D1152" t="s">
         <v>205</v>
@@ -21104,7 +21107,7 @@
         <v>212</v>
       </c>
       <c r="C1154" t="n">
-        <v>102.8</v>
+        <v>102.9</v>
       </c>
       <c r="D1154" t="s">
         <v>205</v>
@@ -21257,7 +21260,7 @@
         <v>222</v>
       </c>
       <c r="C1163" t="n">
-        <v>108.4</v>
+        <v>108.5</v>
       </c>
       <c r="D1163" t="s">
         <v>218</v>
@@ -21291,7 +21294,7 @@
         <v>224</v>
       </c>
       <c r="C1165" t="n">
-        <v>104.4</v>
+        <v>104.5</v>
       </c>
       <c r="D1165" t="s">
         <v>218</v>
@@ -21308,7 +21311,7 @@
         <v>225</v>
       </c>
       <c r="C1166" t="n">
-        <v>101.7</v>
+        <v>101.8</v>
       </c>
       <c r="D1166" t="s">
         <v>218</v>
@@ -21325,7 +21328,7 @@
         <v>226</v>
       </c>
       <c r="C1167" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
       <c r="D1167" t="s">
         <v>218</v>
@@ -21342,7 +21345,7 @@
         <v>227</v>
       </c>
       <c r="C1168" t="n">
-        <v>102.8</v>
+        <v>102.9</v>
       </c>
       <c r="D1168" t="s">
         <v>218</v>
@@ -21359,7 +21362,7 @@
         <v>228</v>
       </c>
       <c r="C1169" t="n">
-        <v>98.4</v>
+        <v>98.5</v>
       </c>
       <c r="D1169" t="s">
         <v>218</v>
@@ -21376,7 +21379,7 @@
         <v>229</v>
       </c>
       <c r="C1170" t="n">
-        <v>96.1</v>
+        <v>96.2</v>
       </c>
       <c r="D1170" t="s">
         <v>218</v>
@@ -21393,7 +21396,7 @@
         <v>230</v>
       </c>
       <c r="C1171" t="n">
-        <v>96.3</v>
+        <v>96.5</v>
       </c>
       <c r="D1171" t="s">
         <v>231</v>
@@ -21410,7 +21413,7 @@
         <v>232</v>
       </c>
       <c r="C1172" t="n">
-        <v>93.5</v>
+        <v>93.7</v>
       </c>
       <c r="D1172" t="s">
         <v>231</v>
@@ -21427,7 +21430,7 @@
         <v>233</v>
       </c>
       <c r="C1173" t="n">
-        <v>97.8</v>
+        <v>97.9</v>
       </c>
       <c r="D1173" t="s">
         <v>231</v>
@@ -21444,7 +21447,7 @@
         <v>234</v>
       </c>
       <c r="C1174" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="D1174" t="s">
         <v>231</v>
@@ -21461,7 +21464,7 @@
         <v>235</v>
       </c>
       <c r="C1175" t="n">
-        <v>89.2</v>
+        <v>89.4</v>
       </c>
       <c r="D1175" t="s">
         <v>231</v>
@@ -21478,7 +21481,7 @@
         <v>236</v>
       </c>
       <c r="C1176" t="n">
-        <v>89.4</v>
+        <v>89.6</v>
       </c>
       <c r="D1176" t="s">
         <v>231</v>
@@ -21495,7 +21498,7 @@
         <v>237</v>
       </c>
       <c r="C1177" t="n">
-        <v>88.5</v>
+        <v>88.6</v>
       </c>
       <c r="D1177" t="s">
         <v>231</v>
@@ -21512,7 +21515,7 @@
         <v>238</v>
       </c>
       <c r="C1178" t="n">
-        <v>90</v>
+        <v>90.2</v>
       </c>
       <c r="D1178" t="s">
         <v>231</v>
@@ -21529,7 +21532,7 @@
         <v>239</v>
       </c>
       <c r="C1179" t="n">
-        <v>86.4</v>
+        <v>86.6</v>
       </c>
       <c r="D1179" t="s">
         <v>231</v>
@@ -21546,7 +21549,7 @@
         <v>240</v>
       </c>
       <c r="C1180" t="n">
-        <v>84.5</v>
+        <v>84.7</v>
       </c>
       <c r="D1180" t="s">
         <v>231</v>
@@ -21563,7 +21566,7 @@
         <v>241</v>
       </c>
       <c r="C1181" t="n">
-        <v>79.6</v>
+        <v>79.8</v>
       </c>
       <c r="D1181" t="s">
         <v>231</v>
@@ -21580,7 +21583,7 @@
         <v>242</v>
       </c>
       <c r="C1182" t="n">
-        <v>78.4</v>
+        <v>78.6</v>
       </c>
       <c r="D1182" t="s">
         <v>231</v>
@@ -21597,7 +21600,7 @@
         <v>243</v>
       </c>
       <c r="C1183" t="n">
-        <v>83.7</v>
+        <v>84</v>
       </c>
       <c r="D1183" t="s">
         <v>244</v>
@@ -21614,7 +21617,7 @@
         <v>245</v>
       </c>
       <c r="C1184" t="n">
-        <v>83.2</v>
+        <v>83.4</v>
       </c>
       <c r="D1184" t="s">
         <v>244</v>
@@ -21631,7 +21634,7 @@
         <v>246</v>
       </c>
       <c r="C1185" t="n">
-        <v>83.6</v>
+        <v>83.8</v>
       </c>
       <c r="D1185" t="s">
         <v>244</v>
@@ -21648,7 +21651,7 @@
         <v>247</v>
       </c>
       <c r="C1186" t="n">
-        <v>81.9</v>
+        <v>82.1</v>
       </c>
       <c r="D1186" t="s">
         <v>244</v>
@@ -21665,7 +21668,7 @@
         <v>248</v>
       </c>
       <c r="C1187" t="n">
-        <v>85.4</v>
+        <v>85.6</v>
       </c>
       <c r="D1187" t="s">
         <v>244</v>
@@ -21682,7 +21685,7 @@
         <v>249</v>
       </c>
       <c r="C1188" t="n">
-        <v>85.5</v>
+        <v>85.7</v>
       </c>
       <c r="D1188" t="s">
         <v>244</v>
@@ -21699,7 +21702,7 @@
         <v>250</v>
       </c>
       <c r="C1189" t="n">
-        <v>83.9</v>
+        <v>84.2</v>
       </c>
       <c r="D1189" t="s">
         <v>244</v>
@@ -21716,7 +21719,7 @@
         <v>251</v>
       </c>
       <c r="C1190" t="n">
-        <v>83.9</v>
+        <v>84.1</v>
       </c>
       <c r="D1190" t="s">
         <v>244</v>
@@ -21733,7 +21736,7 @@
         <v>252</v>
       </c>
       <c r="C1191" t="n">
-        <v>85.8</v>
+        <v>86</v>
       </c>
       <c r="D1191" t="s">
         <v>244</v>
@@ -21750,7 +21753,7 @@
         <v>253</v>
       </c>
       <c r="C1192" t="n">
-        <v>84.8</v>
+        <v>85</v>
       </c>
       <c r="D1192" t="s">
         <v>244</v>
@@ -21767,7 +21770,7 @@
         <v>254</v>
       </c>
       <c r="C1193" t="n">
-        <v>86.9</v>
+        <v>87.1</v>
       </c>
       <c r="D1193" t="s">
         <v>244</v>
@@ -21784,7 +21787,7 @@
         <v>255</v>
       </c>
       <c r="C1194" t="n">
-        <v>90.1</v>
+        <v>90.2</v>
       </c>
       <c r="D1194" t="s">
         <v>244</v>
@@ -21801,7 +21804,7 @@
         <v>256</v>
       </c>
       <c r="C1195" t="n">
-        <v>89.2</v>
+        <v>89.3</v>
       </c>
       <c r="D1195" t="s">
         <v>257</v>
@@ -21818,7 +21821,7 @@
         <v>258</v>
       </c>
       <c r="C1196" t="n">
-        <v>90</v>
+        <v>90.2</v>
       </c>
       <c r="D1196" t="s">
         <v>257</v>
@@ -21835,7 +21838,7 @@
         <v>259</v>
       </c>
       <c r="C1197" t="n">
-        <v>91.6</v>
+        <v>91.7</v>
       </c>
       <c r="D1197" t="s">
         <v>257</v>
@@ -21852,7 +21855,7 @@
         <v>260</v>
       </c>
       <c r="C1198" t="n">
-        <v>91.9</v>
+        <v>92.1</v>
       </c>
       <c r="D1198" t="s">
         <v>257</v>
@@ -21869,7 +21872,7 @@
         <v>261</v>
       </c>
       <c r="C1199" t="n">
-        <v>93</v>
+        <v>93.1</v>
       </c>
       <c r="D1199" t="s">
         <v>257</v>
@@ -21886,7 +21889,7 @@
         <v>262</v>
       </c>
       <c r="C1200" t="n">
-        <v>95.7</v>
+        <v>95.8</v>
       </c>
       <c r="D1200" t="s">
         <v>257</v>
@@ -21903,7 +21906,7 @@
         <v>263</v>
       </c>
       <c r="C1201" t="n">
-        <v>97</v>
+        <v>97.1</v>
       </c>
       <c r="D1201" t="s">
         <v>257</v>
@@ -21920,7 +21923,7 @@
         <v>264</v>
       </c>
       <c r="C1202" t="n">
-        <v>97.9</v>
+        <v>98</v>
       </c>
       <c r="D1202" t="s">
         <v>257</v>
@@ -21937,7 +21940,7 @@
         <v>265</v>
       </c>
       <c r="C1203" t="n">
-        <v>95.9</v>
+        <v>96</v>
       </c>
       <c r="D1203" t="s">
         <v>257</v>
@@ -21954,7 +21957,7 @@
         <v>266</v>
       </c>
       <c r="C1204" t="n">
-        <v>95.7</v>
+        <v>95.8</v>
       </c>
       <c r="D1204" t="s">
         <v>257</v>
@@ -21971,7 +21974,7 @@
         <v>267</v>
       </c>
       <c r="C1205" t="n">
-        <v>97.1</v>
+        <v>97.2</v>
       </c>
       <c r="D1205" t="s">
         <v>257</v>
@@ -21988,7 +21991,7 @@
         <v>268</v>
       </c>
       <c r="C1206" t="n">
-        <v>96.8</v>
+        <v>96.9</v>
       </c>
       <c r="D1206" t="s">
         <v>257</v>
@@ -22005,7 +22008,7 @@
         <v>269</v>
       </c>
       <c r="C1207" t="n">
-        <v>96.3</v>
+        <v>96.4</v>
       </c>
       <c r="D1207" t="s">
         <v>270</v>
@@ -22022,7 +22025,7 @@
         <v>271</v>
       </c>
       <c r="C1208" t="n">
-        <v>94.1</v>
+        <v>94.2</v>
       </c>
       <c r="D1208" t="s">
         <v>270</v>
@@ -22039,7 +22042,7 @@
         <v>272</v>
       </c>
       <c r="C1209" t="n">
-        <v>91.9</v>
+        <v>92</v>
       </c>
       <c r="D1209" t="s">
         <v>270</v>
@@ -22056,7 +22059,7 @@
         <v>273</v>
       </c>
       <c r="C1210" t="n">
-        <v>96.7</v>
+        <v>96.8</v>
       </c>
       <c r="D1210" t="s">
         <v>270</v>
@@ -22073,7 +22076,7 @@
         <v>274</v>
       </c>
       <c r="C1211" t="n">
-        <v>98.6</v>
+        <v>98.7</v>
       </c>
       <c r="D1211" t="s">
         <v>270</v>
@@ -22090,7 +22093,7 @@
         <v>275</v>
       </c>
       <c r="C1212" t="n">
-        <v>98.8</v>
+        <v>99</v>
       </c>
       <c r="D1212" t="s">
         <v>270</v>
@@ -22124,7 +22127,7 @@
         <v>277</v>
       </c>
       <c r="C1214" t="n">
-        <v>101.8</v>
+        <v>101.9</v>
       </c>
       <c r="D1214" t="s">
         <v>270</v>
@@ -22141,7 +22144,7 @@
         <v>278</v>
       </c>
       <c r="C1215" t="n">
-        <v>103.4</v>
+        <v>103.5</v>
       </c>
       <c r="D1215" t="s">
         <v>270</v>
@@ -22158,7 +22161,7 @@
         <v>279</v>
       </c>
       <c r="C1216" t="n">
-        <v>110</v>
+        <v>110.1</v>
       </c>
       <c r="D1216" t="s">
         <v>270</v>
@@ -22192,7 +22195,7 @@
         <v>281</v>
       </c>
       <c r="C1218" t="n">
-        <v>106.7</v>
+        <v>106.8</v>
       </c>
       <c r="D1218" t="s">
         <v>270</v>
@@ -22243,7 +22246,7 @@
         <v>285</v>
       </c>
       <c r="C1221" t="n">
-        <v>107.5</v>
+        <v>107.6</v>
       </c>
       <c r="D1221" t="s">
         <v>283</v>
@@ -22277,7 +22280,7 @@
         <v>287</v>
       </c>
       <c r="C1223" t="n">
-        <v>107.5</v>
+        <v>107.6</v>
       </c>
       <c r="D1223" t="s">
         <v>283</v>
@@ -22311,7 +22314,7 @@
         <v>289</v>
       </c>
       <c r="C1225" t="n">
-        <v>108.9</v>
+        <v>109</v>
       </c>
       <c r="D1225" t="s">
         <v>283</v>
@@ -22328,7 +22331,7 @@
         <v>290</v>
       </c>
       <c r="C1226" t="n">
-        <v>108.7</v>
+        <v>108.8</v>
       </c>
       <c r="D1226" t="s">
         <v>283</v>
@@ -22345,7 +22348,7 @@
         <v>291</v>
       </c>
       <c r="C1227" t="n">
-        <v>110.6</v>
+        <v>110.7</v>
       </c>
       <c r="D1227" t="s">
         <v>283</v>
@@ -22515,7 +22518,7 @@
         <v>302</v>
       </c>
       <c r="C1237" t="n">
-        <v>113.7</v>
+        <v>113.8</v>
       </c>
       <c r="D1237" t="s">
         <v>296</v>
@@ -22600,7 +22603,7 @@
         <v>307</v>
       </c>
       <c r="C1242" t="n">
-        <v>115.4</v>
+        <v>115.5</v>
       </c>
       <c r="D1242" t="s">
         <v>296</v>
@@ -22634,7 +22637,7 @@
         <v>310</v>
       </c>
       <c r="C1244" t="n">
-        <v>113.6</v>
+        <v>113.7</v>
       </c>
       <c r="D1244" t="s">
         <v>309</v>
@@ -22651,7 +22654,7 @@
         <v>311</v>
       </c>
       <c r="C1245" t="n">
-        <v>114</v>
+        <v>114.1</v>
       </c>
       <c r="D1245" t="s">
         <v>309</v>
@@ -22685,7 +22688,7 @@
         <v>313</v>
       </c>
       <c r="C1247" t="n">
-        <v>114.5</v>
+        <v>114.6</v>
       </c>
       <c r="D1247" t="s">
         <v>309</v>
@@ -22702,7 +22705,7 @@
         <v>314</v>
       </c>
       <c r="C1248" t="n">
-        <v>111.9</v>
+        <v>112</v>
       </c>
       <c r="D1248" t="s">
         <v>309</v>
@@ -22719,7 +22722,7 @@
         <v>315</v>
       </c>
       <c r="C1249" t="n">
-        <v>111.1</v>
+        <v>111.2</v>
       </c>
       <c r="D1249" t="s">
         <v>309</v>
@@ -22753,7 +22756,7 @@
         <v>317</v>
       </c>
       <c r="C1251" t="n">
-        <v>107.2</v>
+        <v>107.3</v>
       </c>
       <c r="D1251" t="s">
         <v>309</v>
@@ -22770,7 +22773,7 @@
         <v>318</v>
       </c>
       <c r="C1252" t="n">
-        <v>106.3</v>
+        <v>106.4</v>
       </c>
       <c r="D1252" t="s">
         <v>309</v>
@@ -22787,7 +22790,7 @@
         <v>319</v>
       </c>
       <c r="C1253" t="n">
-        <v>102.2</v>
+        <v>102.4</v>
       </c>
       <c r="D1253" t="s">
         <v>309</v>
@@ -22804,7 +22807,7 @@
         <v>320</v>
       </c>
       <c r="C1254" t="n">
-        <v>106.5</v>
+        <v>106.6</v>
       </c>
       <c r="D1254" t="s">
         <v>309</v>
@@ -22821,7 +22824,7 @@
         <v>321</v>
       </c>
       <c r="C1255" t="n">
-        <v>103.4</v>
+        <v>103.5</v>
       </c>
       <c r="D1255" t="s">
         <v>322</v>
@@ -22838,7 +22841,7 @@
         <v>323</v>
       </c>
       <c r="C1256" t="n">
-        <v>107.5</v>
+        <v>107.6</v>
       </c>
       <c r="D1256" t="s">
         <v>322</v>
@@ -22855,7 +22858,7 @@
         <v>324</v>
       </c>
       <c r="C1257" t="n">
-        <v>104.2</v>
+        <v>104.3</v>
       </c>
       <c r="D1257" t="s">
         <v>322</v>
@@ -22872,7 +22875,7 @@
         <v>325</v>
       </c>
       <c r="C1258" t="n">
-        <v>103.7</v>
+        <v>103.8</v>
       </c>
       <c r="D1258" t="s">
         <v>322</v>
@@ -22889,7 +22892,7 @@
         <v>326</v>
       </c>
       <c r="C1259" t="n">
-        <v>103.4</v>
+        <v>103.5</v>
       </c>
       <c r="D1259" t="s">
         <v>322</v>
@@ -22906,7 +22909,7 @@
         <v>327</v>
       </c>
       <c r="C1260" t="n">
-        <v>106.2</v>
+        <v>106.3</v>
       </c>
       <c r="D1260" t="s">
         <v>322</v>
@@ -22923,7 +22926,7 @@
         <v>328</v>
       </c>
       <c r="C1261" t="n">
-        <v>100.7</v>
+        <v>100.8</v>
       </c>
       <c r="D1261" t="s">
         <v>322</v>
@@ -22940,7 +22943,7 @@
         <v>329</v>
       </c>
       <c r="C1262" t="n">
-        <v>103.7</v>
+        <v>103.8</v>
       </c>
       <c r="D1262" t="s">
         <v>322</v>
@@ -22957,7 +22960,7 @@
         <v>330</v>
       </c>
       <c r="C1263" t="n">
-        <v>102.7</v>
+        <v>102.8</v>
       </c>
       <c r="D1263" t="s">
         <v>322</v>
@@ -22974,7 +22977,7 @@
         <v>331</v>
       </c>
       <c r="C1264" t="n">
-        <v>106.9</v>
+        <v>107</v>
       </c>
       <c r="D1264" t="s">
         <v>322</v>
@@ -22991,7 +22994,7 @@
         <v>332</v>
       </c>
       <c r="C1265" t="n">
-        <v>102</v>
+        <v>102.1</v>
       </c>
       <c r="D1265" t="s">
         <v>322</v>
@@ -23008,7 +23011,7 @@
         <v>333</v>
       </c>
       <c r="C1266" t="n">
-        <v>99.4</v>
+        <v>99.6</v>
       </c>
       <c r="D1266" t="s">
         <v>322</v>
@@ -23025,7 +23028,7 @@
         <v>334</v>
       </c>
       <c r="C1267" t="n">
-        <v>104.5</v>
+        <v>104.6</v>
       </c>
       <c r="D1267" t="s">
         <v>335</v>
@@ -23042,7 +23045,7 @@
         <v>336</v>
       </c>
       <c r="C1268" t="n">
-        <v>99.1</v>
+        <v>99.3</v>
       </c>
       <c r="D1268" t="s">
         <v>335</v>
@@ -23059,7 +23062,7 @@
         <v>337</v>
       </c>
       <c r="C1269" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="D1269" t="s">
         <v>335</v>
@@ -23076,7 +23079,7 @@
         <v>338</v>
       </c>
       <c r="C1270" t="n">
-        <v>89.7</v>
+        <v>89.9</v>
       </c>
       <c r="D1270" t="s">
         <v>335</v>
@@ -23093,7 +23096,7 @@
         <v>339</v>
       </c>
       <c r="C1271" t="n">
-        <v>81.3</v>
+        <v>81.8</v>
       </c>
       <c r="D1271" t="s">
         <v>335</v>
@@ -23110,7 +23113,7 @@
         <v>340</v>
       </c>
       <c r="C1272" t="n">
-        <v>83.8</v>
+        <v>84.1</v>
       </c>
       <c r="D1272" t="s">
         <v>335</v>
@@ -23127,7 +23130,7 @@
         <v>341</v>
       </c>
       <c r="C1273" t="n">
-        <v>86.1</v>
+        <v>86.3</v>
       </c>
       <c r="D1273" t="s">
         <v>335</v>
@@ -23144,7 +23147,7 @@
         <v>342</v>
       </c>
       <c r="C1274" t="n">
-        <v>86.4</v>
+        <v>86.6</v>
       </c>
       <c r="D1274" t="s">
         <v>335</v>
@@ -23161,7 +23164,7 @@
         <v>343</v>
       </c>
       <c r="C1275" t="n">
-        <v>85.6</v>
+        <v>85.8</v>
       </c>
       <c r="D1275" t="s">
         <v>335</v>
@@ -23178,7 +23181,7 @@
         <v>344</v>
       </c>
       <c r="C1276" t="n">
-        <v>83.6</v>
+        <v>83.8</v>
       </c>
       <c r="D1276" t="s">
         <v>335</v>
@@ -23195,7 +23198,7 @@
         <v>345</v>
       </c>
       <c r="C1277" t="n">
-        <v>88.6</v>
+        <v>88.8</v>
       </c>
       <c r="D1277" t="s">
         <v>335</v>
@@ -23212,7 +23215,7 @@
         <v>346</v>
       </c>
       <c r="C1278" t="n">
-        <v>88.4</v>
+        <v>88.6</v>
       </c>
       <c r="D1278" t="s">
         <v>335</v>
@@ -23229,7 +23232,7 @@
         <v>347</v>
       </c>
       <c r="C1279" t="n">
-        <v>85.8</v>
+        <v>86</v>
       </c>
       <c r="D1279" t="s">
         <v>348</v>
@@ -23246,7 +23249,7 @@
         <v>349</v>
       </c>
       <c r="C1280" t="n">
-        <v>88.5</v>
+        <v>88.7</v>
       </c>
       <c r="D1280" t="s">
         <v>348</v>
@@ -23263,7 +23266,7 @@
         <v>350</v>
       </c>
       <c r="C1281" t="n">
-        <v>91</v>
+        <v>90.9</v>
       </c>
       <c r="D1281" t="s">
         <v>348</v>
@@ -23280,7 +23283,7 @@
         <v>351</v>
       </c>
       <c r="C1282" t="n">
-        <v>96.6</v>
+        <v>96.4</v>
       </c>
       <c r="D1282" t="s">
         <v>348</v>
@@ -23297,7 +23300,7 @@
         <v>352</v>
       </c>
       <c r="C1283" t="n">
-        <v>100.4</v>
+        <v>100.5</v>
       </c>
       <c r="D1283" t="s">
         <v>348</v>
@@ -23314,7 +23317,7 @@
         <v>353</v>
       </c>
       <c r="C1284" t="n">
-        <v>105.1</v>
+        <v>105.2</v>
       </c>
       <c r="D1284" t="s">
         <v>348</v>
@@ -23348,7 +23351,7 @@
         <v>355</v>
       </c>
       <c r="C1286" t="n">
-        <v>105.3</v>
+        <v>105.4</v>
       </c>
       <c r="D1286" t="s">
         <v>348</v>
@@ -23365,7 +23368,7 @@
         <v>356</v>
       </c>
       <c r="C1287" t="n">
-        <v>105.1</v>
+        <v>105.4</v>
       </c>
       <c r="D1287" t="s">
         <v>348</v>
@@ -23382,7 +23385,7 @@
         <v>357</v>
       </c>
       <c r="C1288" t="n">
-        <v>108.4</v>
+        <v>108.7</v>
       </c>
       <c r="D1288" t="s">
         <v>348</v>
@@ -23399,7 +23402,7 @@
         <v>358</v>
       </c>
       <c r="C1289" t="n">
-        <v>107.2</v>
+        <v>107.6</v>
       </c>
       <c r="D1289" t="s">
         <v>348</v>
@@ -23416,7 +23419,7 @@
         <v>359</v>
       </c>
       <c r="C1290" t="n">
-        <v>106.3</v>
+        <v>106.2</v>
       </c>
       <c r="D1290" t="s">
         <v>348</v>
@@ -23433,7 +23436,7 @@
         <v>360</v>
       </c>
       <c r="C1291" t="n">
-        <v>109.6</v>
+        <v>109.7</v>
       </c>
       <c r="D1291" t="s">
         <v>361</v>
@@ -23450,7 +23453,7 @@
         <v>362</v>
       </c>
       <c r="C1292" t="n">
-        <v>107</v>
+        <v>107.1</v>
       </c>
       <c r="D1292" t="s">
         <v>361</v>
@@ -23501,7 +23504,7 @@
         <v>365</v>
       </c>
       <c r="C1295" t="n">
-        <v>104.6</v>
+        <v>104.7</v>
       </c>
       <c r="D1295" t="s">
         <v>361</v>
@@ -23518,7 +23521,7 @@
         <v>366</v>
       </c>
       <c r="C1296" t="n">
-        <v>103.8</v>
+        <v>103.9</v>
       </c>
       <c r="D1296" t="s">
         <v>361</v>
@@ -23535,7 +23538,7 @@
         <v>367</v>
       </c>
       <c r="C1297" t="n">
-        <v>101.7</v>
+        <v>101.8</v>
       </c>
       <c r="D1297" t="s">
         <v>361</v>
@@ -23552,7 +23555,7 @@
         <v>368</v>
       </c>
       <c r="C1298" t="n">
-        <v>101.5</v>
+        <v>101.6</v>
       </c>
       <c r="D1298" t="s">
         <v>361</v>
@@ -23569,7 +23572,7 @@
         <v>369</v>
       </c>
       <c r="C1299" t="n">
-        <v>101.6</v>
+        <v>101.8</v>
       </c>
       <c r="D1299" t="s">
         <v>361</v>
@@ -23586,7 +23589,7 @@
         <v>370</v>
       </c>
       <c r="C1300" t="n">
-        <v>99.1</v>
+        <v>99.2</v>
       </c>
       <c r="D1300" t="s">
         <v>361</v>
@@ -23603,7 +23606,7 @@
         <v>371</v>
       </c>
       <c r="C1301" t="n">
-        <v>96.7</v>
+        <v>97</v>
       </c>
       <c r="D1301" t="s">
         <v>361</v>
@@ -23620,7 +23623,7 @@
         <v>372</v>
       </c>
       <c r="C1302" t="n">
-        <v>97.8</v>
+        <v>98</v>
       </c>
       <c r="D1302" t="s">
         <v>361</v>
@@ -23637,7 +23640,7 @@
         <v>373</v>
       </c>
       <c r="C1303" t="n">
-        <v>94.4</v>
+        <v>94.6</v>
       </c>
       <c r="D1303" t="s">
         <v>374</v>
@@ -23654,7 +23657,7 @@
         <v>375</v>
       </c>
       <c r="C1304" t="n">
-        <v>90.8</v>
+        <v>91</v>
       </c>
       <c r="D1304" t="s">
         <v>374</v>
@@ -23671,7 +23674,7 @@
         <v>376</v>
       </c>
       <c r="C1305" t="n">
-        <v>92.6</v>
+        <v>92.5</v>
       </c>
       <c r="D1305" t="s">
         <v>374</v>
@@ -23688,7 +23691,7 @@
         <v>377</v>
       </c>
       <c r="C1306" t="n">
-        <v>92</v>
+        <v>91.9</v>
       </c>
       <c r="D1306" t="s">
         <v>374</v>
@@ -23705,7 +23708,7 @@
         <v>378</v>
       </c>
       <c r="C1307" t="n">
-        <v>94.2</v>
+        <v>94.4</v>
       </c>
       <c r="D1307" t="s">
         <v>374</v>
@@ -23722,7 +23725,7 @@
         <v>379</v>
       </c>
       <c r="C1308" t="n">
-        <v>88.1</v>
+        <v>88.3</v>
       </c>
       <c r="D1308" t="s">
         <v>374</v>
@@ -23739,7 +23742,7 @@
         <v>380</v>
       </c>
       <c r="C1309" t="n">
-        <v>82.1</v>
+        <v>82.4</v>
       </c>
       <c r="D1309" t="s">
         <v>374</v>
@@ -23756,7 +23759,7 @@
         <v>381</v>
       </c>
       <c r="C1310" t="n">
-        <v>84.3</v>
+        <v>84.5</v>
       </c>
       <c r="D1310" t="s">
         <v>374</v>
@@ -23824,7 +23827,7 @@
         <v>206</v>
       </c>
       <c r="C1314" t="n">
-        <v>116.5</v>
+        <v>116.6</v>
       </c>
       <c r="D1314" t="s">
         <v>205</v>
@@ -23841,7 +23844,7 @@
         <v>207</v>
       </c>
       <c r="C1315" t="n">
-        <v>113.2</v>
+        <v>113.3</v>
       </c>
       <c r="D1315" t="s">
         <v>205</v>
@@ -23892,7 +23895,7 @@
         <v>210</v>
       </c>
       <c r="C1318" t="n">
-        <v>106.5</v>
+        <v>106.6</v>
       </c>
       <c r="D1318" t="s">
         <v>205</v>
@@ -23960,7 +23963,7 @@
         <v>214</v>
       </c>
       <c r="C1322" t="n">
-        <v>110.4</v>
+        <v>110.5</v>
       </c>
       <c r="D1322" t="s">
         <v>205</v>
@@ -24062,7 +24065,7 @@
         <v>221</v>
       </c>
       <c r="C1328" t="n">
-        <v>98</v>
+        <v>98.1</v>
       </c>
       <c r="D1328" t="s">
         <v>218</v>
@@ -24164,7 +24167,7 @@
         <v>227</v>
       </c>
       <c r="C1334" t="n">
-        <v>82.3</v>
+        <v>82.4</v>
       </c>
       <c r="D1334" t="s">
         <v>218</v>
@@ -24215,7 +24218,7 @@
         <v>230</v>
       </c>
       <c r="C1337" t="n">
-        <v>84.5</v>
+        <v>84.6</v>
       </c>
       <c r="D1337" t="s">
         <v>231</v>
@@ -24232,7 +24235,7 @@
         <v>232</v>
       </c>
       <c r="C1338" t="n">
-        <v>89.9</v>
+        <v>90</v>
       </c>
       <c r="D1338" t="s">
         <v>231</v>
@@ -24266,7 +24269,7 @@
         <v>234</v>
       </c>
       <c r="C1340" t="n">
-        <v>93</v>
+        <v>93.1</v>
       </c>
       <c r="D1340" t="s">
         <v>231</v>
@@ -24317,7 +24320,7 @@
         <v>237</v>
       </c>
       <c r="C1343" t="n">
-        <v>93.4</v>
+        <v>93.5</v>
       </c>
       <c r="D1343" t="s">
         <v>231</v>
@@ -24351,7 +24354,7 @@
         <v>239</v>
       </c>
       <c r="C1345" t="n">
-        <v>97.9</v>
+        <v>98</v>
       </c>
       <c r="D1345" t="s">
         <v>231</v>
@@ -24368,7 +24371,7 @@
         <v>240</v>
       </c>
       <c r="C1346" t="n">
-        <v>95.1</v>
+        <v>95.2</v>
       </c>
       <c r="D1346" t="s">
         <v>231</v>
@@ -24436,7 +24439,7 @@
         <v>245</v>
       </c>
       <c r="C1350" t="n">
-        <v>95.4</v>
+        <v>95.5</v>
       </c>
       <c r="D1350" t="s">
         <v>244</v>
@@ -24640,7 +24643,7 @@
         <v>258</v>
       </c>
       <c r="C1362" t="n">
-        <v>105</v>
+        <v>105.1</v>
       </c>
       <c r="D1362" t="s">
         <v>257</v>
@@ -24657,7 +24660,7 @@
         <v>259</v>
       </c>
       <c r="C1363" t="n">
-        <v>106</v>
+        <v>106.1</v>
       </c>
       <c r="D1363" t="s">
         <v>257</v>
@@ -24725,7 +24728,7 @@
         <v>263</v>
       </c>
       <c r="C1367" t="n">
-        <v>108.7</v>
+        <v>108.8</v>
       </c>
       <c r="D1367" t="s">
         <v>257</v>
@@ -24742,7 +24745,7 @@
         <v>264</v>
       </c>
       <c r="C1368" t="n">
-        <v>105.1</v>
+        <v>105.2</v>
       </c>
       <c r="D1368" t="s">
         <v>257</v>
@@ -24776,7 +24779,7 @@
         <v>266</v>
       </c>
       <c r="C1370" t="n">
-        <v>106.9</v>
+        <v>107</v>
       </c>
       <c r="D1370" t="s">
         <v>257</v>
@@ -24946,7 +24949,7 @@
         <v>277</v>
       </c>
       <c r="C1380" t="n">
-        <v>111.5</v>
+        <v>111.6</v>
       </c>
       <c r="D1380" t="s">
         <v>270</v>
@@ -24963,7 +24966,7 @@
         <v>278</v>
       </c>
       <c r="C1381" t="n">
-        <v>112.1</v>
+        <v>112.2</v>
       </c>
       <c r="D1381" t="s">
         <v>270</v>
@@ -24980,7 +24983,7 @@
         <v>279</v>
       </c>
       <c r="C1382" t="n">
-        <v>111.5</v>
+        <v>111.6</v>
       </c>
       <c r="D1382" t="s">
         <v>270</v>
@@ -25082,7 +25085,7 @@
         <v>286</v>
       </c>
       <c r="C1388" t="n">
-        <v>107.7</v>
+        <v>107.8</v>
       </c>
       <c r="D1388" t="s">
         <v>283</v>
@@ -25133,7 +25136,7 @@
         <v>289</v>
       </c>
       <c r="C1391" t="n">
-        <v>104.6</v>
+        <v>104.7</v>
       </c>
       <c r="D1391" t="s">
         <v>283</v>
@@ -25252,7 +25255,7 @@
         <v>297</v>
       </c>
       <c r="C1398" t="n">
-        <v>102.4</v>
+        <v>102.5</v>
       </c>
       <c r="D1398" t="s">
         <v>296</v>
@@ -25286,7 +25289,7 @@
         <v>299</v>
       </c>
       <c r="C1400" t="n">
-        <v>101.4</v>
+        <v>101.5</v>
       </c>
       <c r="D1400" t="s">
         <v>296</v>
@@ -25320,7 +25323,7 @@
         <v>301</v>
       </c>
       <c r="C1402" t="n">
-        <v>106</v>
+        <v>106.1</v>
       </c>
       <c r="D1402" t="s">
         <v>296</v>
@@ -25473,7 +25476,7 @@
         <v>311</v>
       </c>
       <c r="C1411" t="n">
-        <v>105.1</v>
+        <v>105.2</v>
       </c>
       <c r="D1411" t="s">
         <v>309</v>
@@ -25490,7 +25493,7 @@
         <v>312</v>
       </c>
       <c r="C1412" t="n">
-        <v>101.9</v>
+        <v>102</v>
       </c>
       <c r="D1412" t="s">
         <v>309</v>
@@ -25541,7 +25544,7 @@
         <v>315</v>
       </c>
       <c r="C1415" t="n">
-        <v>97.8</v>
+        <v>97.9</v>
       </c>
       <c r="D1415" t="s">
         <v>309</v>
@@ -25592,7 +25595,7 @@
         <v>318</v>
       </c>
       <c r="C1418" t="n">
-        <v>101.4</v>
+        <v>101.5</v>
       </c>
       <c r="D1418" t="s">
         <v>309</v>
@@ -25626,7 +25629,7 @@
         <v>320</v>
       </c>
       <c r="C1420" t="n">
-        <v>101.3</v>
+        <v>101.4</v>
       </c>
       <c r="D1420" t="s">
         <v>309</v>
@@ -25728,7 +25731,7 @@
         <v>327</v>
       </c>
       <c r="C1426" t="n">
-        <v>102.1</v>
+        <v>102.2</v>
       </c>
       <c r="D1426" t="s">
         <v>322</v>
@@ -25745,7 +25748,7 @@
         <v>328</v>
       </c>
       <c r="C1427" t="n">
-        <v>101.1</v>
+        <v>101.2</v>
       </c>
       <c r="D1427" t="s">
         <v>322</v>
@@ -25762,7 +25765,7 @@
         <v>329</v>
       </c>
       <c r="C1428" t="n">
-        <v>101.6</v>
+        <v>101.7</v>
       </c>
       <c r="D1428" t="s">
         <v>322</v>
@@ -25779,7 +25782,7 @@
         <v>330</v>
       </c>
       <c r="C1429" t="n">
-        <v>101.5</v>
+        <v>101.6</v>
       </c>
       <c r="D1429" t="s">
         <v>322</v>
@@ -25796,7 +25799,7 @@
         <v>331</v>
       </c>
       <c r="C1430" t="n">
-        <v>101.9</v>
+        <v>102</v>
       </c>
       <c r="D1430" t="s">
         <v>322</v>
@@ -25915,7 +25918,7 @@
         <v>339</v>
       </c>
       <c r="C1437" t="n">
-        <v>77.5</v>
+        <v>77.6</v>
       </c>
       <c r="D1437" t="s">
         <v>335</v>
@@ -25932,7 +25935,7 @@
         <v>340</v>
       </c>
       <c r="C1438" t="n">
-        <v>84.5</v>
+        <v>84.6</v>
       </c>
       <c r="D1438" t="s">
         <v>335</v>
@@ -25949,7 +25952,7 @@
         <v>341</v>
       </c>
       <c r="C1439" t="n">
-        <v>94.4</v>
+        <v>94.5</v>
       </c>
       <c r="D1439" t="s">
         <v>335</v>
@@ -25983,7 +25986,7 @@
         <v>343</v>
       </c>
       <c r="C1441" t="n">
-        <v>103.2</v>
+        <v>103.3</v>
       </c>
       <c r="D1441" t="s">
         <v>335</v>
@@ -26000,7 +26003,7 @@
         <v>344</v>
       </c>
       <c r="C1442" t="n">
-        <v>106.6</v>
+        <v>105.7</v>
       </c>
       <c r="D1442" t="s">
         <v>335</v>
@@ -26068,7 +26071,7 @@
         <v>349</v>
       </c>
       <c r="C1446" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="D1446" t="s">
         <v>348</v>
@@ -26085,7 +26088,7 @@
         <v>350</v>
       </c>
       <c r="C1447" t="n">
-        <v>96.8</v>
+        <v>96.9</v>
       </c>
       <c r="D1447" t="s">
         <v>348</v>
@@ -26102,7 +26105,7 @@
         <v>351</v>
       </c>
       <c r="C1448" t="n">
-        <v>112</v>
+        <v>112.1</v>
       </c>
       <c r="D1448" t="s">
         <v>348</v>
@@ -26119,7 +26122,7 @@
         <v>352</v>
       </c>
       <c r="C1449" t="n">
-        <v>107.2</v>
+        <v>107.3</v>
       </c>
       <c r="D1449" t="s">
         <v>348</v>
@@ -26136,7 +26139,7 @@
         <v>353</v>
       </c>
       <c r="C1450" t="n">
-        <v>111.8</v>
+        <v>111.9</v>
       </c>
       <c r="D1450" t="s">
         <v>348</v>
@@ -26170,7 +26173,7 @@
         <v>355</v>
       </c>
       <c r="C1452" t="n">
-        <v>109</v>
+        <v>109.1</v>
       </c>
       <c r="D1452" t="s">
         <v>348</v>
@@ -26187,7 +26190,7 @@
         <v>356</v>
       </c>
       <c r="C1453" t="n">
-        <v>115</v>
+        <v>115.3</v>
       </c>
       <c r="D1453" t="s">
         <v>348</v>
@@ -26204,7 +26207,7 @@
         <v>357</v>
       </c>
       <c r="C1454" t="n">
-        <v>117.7</v>
+        <v>117.5</v>
       </c>
       <c r="D1454" t="s">
         <v>348</v>
@@ -26221,7 +26224,7 @@
         <v>358</v>
       </c>
       <c r="C1455" t="n">
-        <v>118.2</v>
+        <v>118.3</v>
       </c>
       <c r="D1455" t="s">
         <v>348</v>
@@ -26238,7 +26241,7 @@
         <v>359</v>
       </c>
       <c r="C1456" t="n">
-        <v>114.5</v>
+        <v>114.6</v>
       </c>
       <c r="D1456" t="s">
         <v>348</v>
@@ -26255,7 +26258,7 @@
         <v>360</v>
       </c>
       <c r="C1457" t="n">
-        <v>104.9</v>
+        <v>105</v>
       </c>
       <c r="D1457" t="s">
         <v>361</v>
@@ -26289,7 +26292,7 @@
         <v>363</v>
       </c>
       <c r="C1459" t="n">
-        <v>110.8</v>
+        <v>110.9</v>
       </c>
       <c r="D1459" t="s">
         <v>361</v>
@@ -26306,7 +26309,7 @@
         <v>364</v>
       </c>
       <c r="C1460" t="n">
-        <v>110.7</v>
+        <v>111</v>
       </c>
       <c r="D1460" t="s">
         <v>361</v>
@@ -26357,7 +26360,7 @@
         <v>367</v>
       </c>
       <c r="C1463" t="n">
-        <v>91.8</v>
+        <v>92.1</v>
       </c>
       <c r="D1463" t="s">
         <v>361</v>
@@ -26374,7 +26377,7 @@
         <v>368</v>
       </c>
       <c r="C1464" t="n">
-        <v>91.5</v>
+        <v>91.6</v>
       </c>
       <c r="D1464" t="s">
         <v>361</v>
@@ -26408,7 +26411,7 @@
         <v>370</v>
       </c>
       <c r="C1466" t="n">
-        <v>78.2</v>
+        <v>77.6</v>
       </c>
       <c r="D1466" t="s">
         <v>361</v>
@@ -26425,7 +26428,7 @@
         <v>371</v>
       </c>
       <c r="C1467" t="n">
-        <v>78.5</v>
+        <v>78.6</v>
       </c>
       <c r="D1467" t="s">
         <v>361</v>
@@ -26493,7 +26496,7 @@
         <v>376</v>
       </c>
       <c r="C1471" t="n">
-        <v>82.4</v>
+        <v>82.7</v>
       </c>
       <c r="D1471" t="s">
         <v>374</v>
@@ -26561,7 +26564,7 @@
         <v>380</v>
       </c>
       <c r="C1475" t="n">
-        <v>88.5</v>
+        <v>88.6</v>
       </c>
       <c r="D1475" t="s">
         <v>374</v>
@@ -26578,7 +26581,7 @@
         <v>381</v>
       </c>
       <c r="C1476" t="n">
-        <v>87.8</v>
+        <v>87.9</v>
       </c>
       <c r="D1476" t="s">
         <v>374</v>
@@ -26595,7 +26598,7 @@
         <v>202</v>
       </c>
       <c r="C1477" t="n">
-        <v>96</v>
+        <v>96.1</v>
       </c>
       <c r="D1477" t="s">
         <v>182</v>
@@ -26612,7 +26615,7 @@
         <v>203</v>
       </c>
       <c r="C1478" t="n">
-        <v>103.9</v>
+        <v>104</v>
       </c>
       <c r="D1478" t="s">
         <v>182</v>
@@ -26867,7 +26870,7 @@
         <v>220</v>
       </c>
       <c r="C1493" t="n">
-        <v>112.6</v>
+        <v>112.7</v>
       </c>
       <c r="D1493" t="s">
         <v>218</v>
@@ -26918,7 +26921,7 @@
         <v>223</v>
       </c>
       <c r="C1496" t="n">
-        <v>107.5</v>
+        <v>107.6</v>
       </c>
       <c r="D1496" t="s">
         <v>218</v>
@@ -26952,7 +26955,7 @@
         <v>225</v>
       </c>
       <c r="C1498" t="n">
-        <v>101</v>
+        <v>101.1</v>
       </c>
       <c r="D1498" t="s">
         <v>218</v>
@@ -26986,7 +26989,7 @@
         <v>227</v>
       </c>
       <c r="C1500" t="n">
-        <v>97.6</v>
+        <v>97.7</v>
       </c>
       <c r="D1500" t="s">
         <v>218</v>
@@ -27020,7 +27023,7 @@
         <v>229</v>
       </c>
       <c r="C1502" t="n">
-        <v>96.6</v>
+        <v>96.7</v>
       </c>
       <c r="D1502" t="s">
         <v>218</v>
@@ -27037,7 +27040,7 @@
         <v>230</v>
       </c>
       <c r="C1503" t="n">
-        <v>91.9</v>
+        <v>92</v>
       </c>
       <c r="D1503" t="s">
         <v>231</v>
@@ -27054,7 +27057,7 @@
         <v>232</v>
       </c>
       <c r="C1504" t="n">
-        <v>92.5</v>
+        <v>92.6</v>
       </c>
       <c r="D1504" t="s">
         <v>231</v>
@@ -27105,7 +27108,7 @@
         <v>235</v>
       </c>
       <c r="C1507" t="n">
-        <v>96.7</v>
+        <v>96.8</v>
       </c>
       <c r="D1507" t="s">
         <v>231</v>
@@ -27139,7 +27142,7 @@
         <v>237</v>
       </c>
       <c r="C1509" t="n">
-        <v>92</v>
+        <v>92.1</v>
       </c>
       <c r="D1509" t="s">
         <v>231</v>
@@ -27173,7 +27176,7 @@
         <v>239</v>
       </c>
       <c r="C1511" t="n">
-        <v>94.8</v>
+        <v>94.9</v>
       </c>
       <c r="D1511" t="s">
         <v>231</v>
@@ -27190,7 +27193,7 @@
         <v>240</v>
       </c>
       <c r="C1512" t="n">
-        <v>92.5</v>
+        <v>92.6</v>
       </c>
       <c r="D1512" t="s">
         <v>231</v>
@@ -27224,7 +27227,7 @@
         <v>242</v>
       </c>
       <c r="C1514" t="n">
-        <v>87.9</v>
+        <v>88</v>
       </c>
       <c r="D1514" t="s">
         <v>231</v>
@@ -27241,7 +27244,7 @@
         <v>243</v>
       </c>
       <c r="C1515" t="n">
-        <v>89.1</v>
+        <v>89.2</v>
       </c>
       <c r="D1515" t="s">
         <v>244</v>
@@ -27275,7 +27278,7 @@
         <v>246</v>
       </c>
       <c r="C1517" t="n">
-        <v>97.2</v>
+        <v>97.3</v>
       </c>
       <c r="D1517" t="s">
         <v>244</v>
@@ -27309,7 +27312,7 @@
         <v>248</v>
       </c>
       <c r="C1519" t="n">
-        <v>95.9</v>
+        <v>96</v>
       </c>
       <c r="D1519" t="s">
         <v>244</v>
@@ -27343,7 +27346,7 @@
         <v>250</v>
       </c>
       <c r="C1521" t="n">
-        <v>100.4</v>
+        <v>100.5</v>
       </c>
       <c r="D1521" t="s">
         <v>244</v>
@@ -27360,7 +27363,7 @@
         <v>251</v>
       </c>
       <c r="C1522" t="n">
-        <v>99</v>
+        <v>99.1</v>
       </c>
       <c r="D1522" t="s">
         <v>244</v>
@@ -27428,7 +27431,7 @@
         <v>255</v>
       </c>
       <c r="C1526" t="n">
-        <v>104.3</v>
+        <v>104.4</v>
       </c>
       <c r="D1526" t="s">
         <v>244</v>
@@ -27496,7 +27499,7 @@
         <v>260</v>
       </c>
       <c r="C1530" t="n">
-        <v>103.1</v>
+        <v>103.2</v>
       </c>
       <c r="D1530" t="s">
         <v>257</v>
@@ -27513,7 +27516,7 @@
         <v>261</v>
       </c>
       <c r="C1531" t="n">
-        <v>103.2</v>
+        <v>103.3</v>
       </c>
       <c r="D1531" t="s">
         <v>257</v>
@@ -27581,7 +27584,7 @@
         <v>265</v>
       </c>
       <c r="C1535" t="n">
-        <v>98.9</v>
+        <v>99</v>
       </c>
       <c r="D1535" t="s">
         <v>257</v>
@@ -27615,7 +27618,7 @@
         <v>267</v>
       </c>
       <c r="C1537" t="n">
-        <v>100.4</v>
+        <v>100.5</v>
       </c>
       <c r="D1537" t="s">
         <v>257</v>
@@ -27632,7 +27635,7 @@
         <v>268</v>
       </c>
       <c r="C1538" t="n">
-        <v>104.2</v>
+        <v>104.3</v>
       </c>
       <c r="D1538" t="s">
         <v>257</v>
@@ -27666,7 +27669,7 @@
         <v>271</v>
       </c>
       <c r="C1540" t="n">
-        <v>103.4</v>
+        <v>103.5</v>
       </c>
       <c r="D1540" t="s">
         <v>270</v>
@@ -27734,7 +27737,7 @@
         <v>275</v>
       </c>
       <c r="C1544" t="n">
-        <v>103.8</v>
+        <v>103.9</v>
       </c>
       <c r="D1544" t="s">
         <v>270</v>
@@ -27751,7 +27754,7 @@
         <v>276</v>
       </c>
       <c r="C1545" t="n">
-        <v>104.5</v>
+        <v>104.6</v>
       </c>
       <c r="D1545" t="s">
         <v>270</v>
@@ -27785,7 +27788,7 @@
         <v>278</v>
       </c>
       <c r="C1547" t="n">
-        <v>104.8</v>
+        <v>104.9</v>
       </c>
       <c r="D1547" t="s">
         <v>270</v>
@@ -27853,7 +27856,7 @@
         <v>282</v>
       </c>
       <c r="C1551" t="n">
-        <v>104</v>
+        <v>104.1</v>
       </c>
       <c r="D1551" t="s">
         <v>283</v>
@@ -27870,7 +27873,7 @@
         <v>284</v>
       </c>
       <c r="C1552" t="n">
-        <v>102.5</v>
+        <v>102.6</v>
       </c>
       <c r="D1552" t="s">
         <v>283</v>
@@ -27887,7 +27890,7 @@
         <v>285</v>
       </c>
       <c r="C1553" t="n">
-        <v>102.3</v>
+        <v>102.4</v>
       </c>
       <c r="D1553" t="s">
         <v>283</v>
@@ -27904,7 +27907,7 @@
         <v>286</v>
       </c>
       <c r="C1554" t="n">
-        <v>103.8</v>
+        <v>103.9</v>
       </c>
       <c r="D1554" t="s">
         <v>283</v>
@@ -27921,7 +27924,7 @@
         <v>287</v>
       </c>
       <c r="C1555" t="n">
-        <v>102.6</v>
+        <v>102.7</v>
       </c>
       <c r="D1555" t="s">
         <v>283</v>
@@ -28159,7 +28162,7 @@
         <v>302</v>
       </c>
       <c r="C1569" t="n">
-        <v>105.9</v>
+        <v>106</v>
       </c>
       <c r="D1569" t="s">
         <v>296</v>
@@ -28176,7 +28179,7 @@
         <v>303</v>
       </c>
       <c r="C1570" t="n">
-        <v>106.1</v>
+        <v>106.2</v>
       </c>
       <c r="D1570" t="s">
         <v>296</v>
@@ -28210,7 +28213,7 @@
         <v>305</v>
       </c>
       <c r="C1572" t="n">
-        <v>103.8</v>
+        <v>103.9</v>
       </c>
       <c r="D1572" t="s">
         <v>296</v>
@@ -28227,7 +28230,7 @@
         <v>306</v>
       </c>
       <c r="C1573" t="n">
-        <v>103.9</v>
+        <v>104</v>
       </c>
       <c r="D1573" t="s">
         <v>296</v>
@@ -28261,7 +28264,7 @@
         <v>308</v>
       </c>
       <c r="C1575" t="n">
-        <v>104.7</v>
+        <v>104.8</v>
       </c>
       <c r="D1575" t="s">
         <v>309</v>
@@ -28380,7 +28383,7 @@
         <v>316</v>
       </c>
       <c r="C1582" t="n">
-        <v>101.9</v>
+        <v>102</v>
       </c>
       <c r="D1582" t="s">
         <v>309</v>
@@ -28414,7 +28417,7 @@
         <v>318</v>
       </c>
       <c r="C1584" t="n">
-        <v>101.2</v>
+        <v>101.3</v>
       </c>
       <c r="D1584" t="s">
         <v>309</v>
@@ -28431,7 +28434,7 @@
         <v>319</v>
       </c>
       <c r="C1585" t="n">
-        <v>98.6</v>
+        <v>98.4</v>
       </c>
       <c r="D1585" t="s">
         <v>309</v>
@@ -28448,7 +28451,7 @@
         <v>320</v>
       </c>
       <c r="C1586" t="n">
-        <v>98.6</v>
+        <v>98.7</v>
       </c>
       <c r="D1586" t="s">
         <v>309</v>
@@ -28465,7 +28468,7 @@
         <v>321</v>
       </c>
       <c r="C1587" t="n">
-        <v>96.4</v>
+        <v>96.5</v>
       </c>
       <c r="D1587" t="s">
         <v>322</v>
@@ -28482,7 +28485,7 @@
         <v>323</v>
       </c>
       <c r="C1588" t="n">
-        <v>96.5</v>
+        <v>96.6</v>
       </c>
       <c r="D1588" t="s">
         <v>322</v>
@@ -28499,7 +28502,7 @@
         <v>324</v>
       </c>
       <c r="C1589" t="n">
-        <v>101.2</v>
+        <v>101.3</v>
       </c>
       <c r="D1589" t="s">
         <v>322</v>
@@ -28533,7 +28536,7 @@
         <v>326</v>
       </c>
       <c r="C1591" t="n">
-        <v>102</v>
+        <v>102.1</v>
       </c>
       <c r="D1591" t="s">
         <v>322</v>
@@ -28550,7 +28553,7 @@
         <v>327</v>
       </c>
       <c r="C1592" t="n">
-        <v>100.9</v>
+        <v>101</v>
       </c>
       <c r="D1592" t="s">
         <v>322</v>
@@ -28567,7 +28570,7 @@
         <v>328</v>
       </c>
       <c r="C1593" t="n">
-        <v>98.8</v>
+        <v>98.9</v>
       </c>
       <c r="D1593" t="s">
         <v>322</v>
@@ -28584,7 +28587,7 @@
         <v>329</v>
       </c>
       <c r="C1594" t="n">
-        <v>97</v>
+        <v>97.1</v>
       </c>
       <c r="D1594" t="s">
         <v>322</v>
@@ -28601,7 +28604,7 @@
         <v>330</v>
       </c>
       <c r="C1595" t="n">
-        <v>93.1</v>
+        <v>93.2</v>
       </c>
       <c r="D1595" t="s">
         <v>322</v>
@@ -28635,7 +28638,7 @@
         <v>332</v>
       </c>
       <c r="C1597" t="n">
-        <v>93.8</v>
+        <v>93.9</v>
       </c>
       <c r="D1597" t="s">
         <v>322</v>
@@ -28652,7 +28655,7 @@
         <v>333</v>
       </c>
       <c r="C1598" t="n">
-        <v>92.6</v>
+        <v>92.7</v>
       </c>
       <c r="D1598" t="s">
         <v>322</v>
@@ -28703,7 +28706,7 @@
         <v>337</v>
       </c>
       <c r="C1601" t="n">
-        <v>88.1</v>
+        <v>88.2</v>
       </c>
       <c r="D1601" t="s">
         <v>335</v>
@@ -28720,7 +28723,7 @@
         <v>338</v>
       </c>
       <c r="C1602" t="n">
-        <v>52.3</v>
+        <v>52.5</v>
       </c>
       <c r="D1602" t="s">
         <v>335</v>
@@ -28737,7 +28740,7 @@
         <v>339</v>
       </c>
       <c r="C1603" t="n">
-        <v>55</v>
+        <v>55.2</v>
       </c>
       <c r="D1603" t="s">
         <v>335</v>
@@ -28754,7 +28757,7 @@
         <v>340</v>
       </c>
       <c r="C1604" t="n">
-        <v>63.6</v>
+        <v>63.7</v>
       </c>
       <c r="D1604" t="s">
         <v>335</v>
@@ -28771,7 +28774,7 @@
         <v>341</v>
       </c>
       <c r="C1605" t="n">
-        <v>73.8</v>
+        <v>73.9</v>
       </c>
       <c r="D1605" t="s">
         <v>335</v>
@@ -28788,7 +28791,7 @@
         <v>342</v>
       </c>
       <c r="C1606" t="n">
-        <v>79.7</v>
+        <v>79.8</v>
       </c>
       <c r="D1606" t="s">
         <v>335</v>
@@ -28805,7 +28808,7 @@
         <v>343</v>
       </c>
       <c r="C1607" t="n">
-        <v>86.4</v>
+        <v>86.5</v>
       </c>
       <c r="D1607" t="s">
         <v>335</v>
@@ -28822,7 +28825,7 @@
         <v>344</v>
       </c>
       <c r="C1608" t="n">
-        <v>87.2</v>
+        <v>87.5</v>
       </c>
       <c r="D1608" t="s">
         <v>335</v>
@@ -28839,7 +28842,7 @@
         <v>345</v>
       </c>
       <c r="C1609" t="n">
-        <v>88.4</v>
+        <v>88.5</v>
       </c>
       <c r="D1609" t="s">
         <v>335</v>
@@ -28873,7 +28876,7 @@
         <v>347</v>
       </c>
       <c r="C1611" t="n">
-        <v>92.8</v>
+        <v>92.9</v>
       </c>
       <c r="D1611" t="s">
         <v>348</v>
@@ -28907,7 +28910,7 @@
         <v>350</v>
       </c>
       <c r="C1613" t="n">
-        <v>96.9</v>
+        <v>96.7</v>
       </c>
       <c r="D1613" t="s">
         <v>348</v>
@@ -28992,7 +28995,7 @@
         <v>355</v>
       </c>
       <c r="C1618" t="n">
-        <v>112</v>
+        <v>111.8</v>
       </c>
       <c r="D1618" t="s">
         <v>348</v>
@@ -29026,7 +29029,7 @@
         <v>357</v>
       </c>
       <c r="C1620" t="n">
-        <v>113</v>
+        <v>113.4</v>
       </c>
       <c r="D1620" t="s">
         <v>348</v>
@@ -29060,7 +29063,7 @@
         <v>359</v>
       </c>
       <c r="C1622" t="n">
-        <v>111.1</v>
+        <v>111.3</v>
       </c>
       <c r="D1622" t="s">
         <v>348</v>
@@ -29094,7 +29097,7 @@
         <v>362</v>
       </c>
       <c r="C1624" t="n">
-        <v>107.6</v>
+        <v>107.4</v>
       </c>
       <c r="D1624" t="s">
         <v>361</v>
@@ -29162,7 +29165,7 @@
         <v>366</v>
       </c>
       <c r="C1628" t="n">
-        <v>104.5</v>
+        <v>104.6</v>
       </c>
       <c r="D1628" t="s">
         <v>361</v>
@@ -29213,7 +29216,7 @@
         <v>369</v>
       </c>
       <c r="C1631" t="n">
-        <v>95.2</v>
+        <v>95</v>
       </c>
       <c r="D1631" t="s">
         <v>361</v>
@@ -29230,7 +29233,7 @@
         <v>370</v>
       </c>
       <c r="C1632" t="n">
-        <v>89.4</v>
+        <v>90.1</v>
       </c>
       <c r="D1632" t="s">
         <v>361</v>
@@ -29247,7 +29250,7 @@
         <v>371</v>
       </c>
       <c r="C1633" t="n">
-        <v>86.8</v>
+        <v>86.9</v>
       </c>
       <c r="D1633" t="s">
         <v>361</v>
@@ -29264,7 +29267,7 @@
         <v>372</v>
       </c>
       <c r="C1634" t="n">
-        <v>88.8</v>
+        <v>89.1</v>
       </c>
       <c r="D1634" t="s">
         <v>361</v>
@@ -29281,7 +29284,7 @@
         <v>373</v>
       </c>
       <c r="C1635" t="n">
-        <v>88.2</v>
+        <v>88.3</v>
       </c>
       <c r="D1635" t="s">
         <v>374</v>
@@ -29298,7 +29301,7 @@
         <v>375</v>
       </c>
       <c r="C1636" t="n">
-        <v>90.4</v>
+        <v>90.5</v>
       </c>
       <c r="D1636" t="s">
         <v>374</v>
@@ -29315,7 +29318,7 @@
         <v>376</v>
       </c>
       <c r="C1637" t="n">
-        <v>92.1</v>
+        <v>92</v>
       </c>
       <c r="D1637" t="s">
         <v>374</v>
@@ -29332,7 +29335,7 @@
         <v>377</v>
       </c>
       <c r="C1638" t="n">
-        <v>90.5</v>
+        <v>90.4</v>
       </c>
       <c r="D1638" t="s">
         <v>374</v>
@@ -29349,7 +29352,7 @@
         <v>378</v>
       </c>
       <c r="C1639" t="n">
-        <v>90.3</v>
+        <v>90.4</v>
       </c>
       <c r="D1639" t="s">
         <v>374</v>
@@ -29383,7 +29386,7 @@
         <v>380</v>
       </c>
       <c r="C1641" t="n">
-        <v>91.3</v>
+        <v>91.4</v>
       </c>
       <c r="D1641" t="s">
         <v>374</v>
@@ -29400,7 +29403,7 @@
         <v>381</v>
       </c>
       <c r="C1642" t="n">
-        <v>87.3</v>
+        <v>87.2</v>
       </c>
       <c r="D1642" t="s">
         <v>374</v>
@@ -29417,7 +29420,7 @@
         <v>202</v>
       </c>
       <c r="C1643" t="n">
-        <v>104.7</v>
+        <v>104.8</v>
       </c>
       <c r="D1643" t="s">
         <v>182</v>
@@ -29434,7 +29437,7 @@
         <v>203</v>
       </c>
       <c r="C1644" t="n">
-        <v>102.9</v>
+        <v>103</v>
       </c>
       <c r="D1644" t="s">
         <v>182</v>
@@ -29451,7 +29454,7 @@
         <v>204</v>
       </c>
       <c r="C1645" t="n">
-        <v>101.2</v>
+        <v>101.3</v>
       </c>
       <c r="D1645" t="s">
         <v>205</v>
@@ -29468,7 +29471,7 @@
         <v>206</v>
       </c>
       <c r="C1646" t="n">
-        <v>104.5</v>
+        <v>104.6</v>
       </c>
       <c r="D1646" t="s">
         <v>205</v>
@@ -29485,7 +29488,7 @@
         <v>207</v>
       </c>
       <c r="C1647" t="n">
-        <v>105</v>
+        <v>105.1</v>
       </c>
       <c r="D1647" t="s">
         <v>205</v>
@@ -29502,7 +29505,7 @@
         <v>208</v>
       </c>
       <c r="C1648" t="n">
-        <v>106.7</v>
+        <v>106.8</v>
       </c>
       <c r="D1648" t="s">
         <v>205</v>
@@ -29536,7 +29539,7 @@
         <v>210</v>
       </c>
       <c r="C1650" t="n">
-        <v>108.6</v>
+        <v>108.7</v>
       </c>
       <c r="D1650" t="s">
         <v>205</v>
@@ -29553,7 +29556,7 @@
         <v>211</v>
       </c>
       <c r="C1651" t="n">
-        <v>107.5</v>
+        <v>107.6</v>
       </c>
       <c r="D1651" t="s">
         <v>205</v>
@@ -29706,7 +29709,7 @@
         <v>221</v>
       </c>
       <c r="C1660" t="n">
-        <v>105</v>
+        <v>105.1</v>
       </c>
       <c r="D1660" t="s">
         <v>218</v>
@@ -29757,7 +29760,7 @@
         <v>224</v>
       </c>
       <c r="C1663" t="n">
-        <v>101.9</v>
+        <v>102</v>
       </c>
       <c r="D1663" t="s">
         <v>218</v>
@@ -29774,7 +29777,7 @@
         <v>225</v>
       </c>
       <c r="C1664" t="n">
-        <v>96.9</v>
+        <v>97</v>
       </c>
       <c r="D1664" t="s">
         <v>218</v>
@@ -29791,7 +29794,7 @@
         <v>226</v>
       </c>
       <c r="C1665" t="n">
-        <v>92.8</v>
+        <v>93</v>
       </c>
       <c r="D1665" t="s">
         <v>218</v>
@@ -29808,7 +29811,7 @@
         <v>227</v>
       </c>
       <c r="C1666" t="n">
-        <v>93.7</v>
+        <v>93.8</v>
       </c>
       <c r="D1666" t="s">
         <v>218</v>
@@ -29825,7 +29828,7 @@
         <v>228</v>
       </c>
       <c r="C1667" t="n">
-        <v>94.7</v>
+        <v>94.9</v>
       </c>
       <c r="D1667" t="s">
         <v>218</v>
@@ -29842,7 +29845,7 @@
         <v>229</v>
       </c>
       <c r="C1668" t="n">
-        <v>95.7</v>
+        <v>95.9</v>
       </c>
       <c r="D1668" t="s">
         <v>218</v>
@@ -29859,7 +29862,7 @@
         <v>230</v>
       </c>
       <c r="C1669" t="n">
-        <v>97</v>
+        <v>97.1</v>
       </c>
       <c r="D1669" t="s">
         <v>231</v>
@@ -29876,7 +29879,7 @@
         <v>232</v>
       </c>
       <c r="C1670" t="n">
-        <v>96.6</v>
+        <v>96.8</v>
       </c>
       <c r="D1670" t="s">
         <v>231</v>
@@ -29893,7 +29896,7 @@
         <v>233</v>
       </c>
       <c r="C1671" t="n">
-        <v>98.8</v>
+        <v>98.9</v>
       </c>
       <c r="D1671" t="s">
         <v>231</v>
@@ -29910,7 +29913,7 @@
         <v>234</v>
       </c>
       <c r="C1672" t="n">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="D1672" t="s">
         <v>231</v>
@@ -29927,7 +29930,7 @@
         <v>235</v>
       </c>
       <c r="C1673" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
       <c r="D1673" t="s">
         <v>231</v>
@@ -29944,7 +29947,7 @@
         <v>236</v>
       </c>
       <c r="C1674" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
       <c r="D1674" t="s">
         <v>231</v>
@@ -29978,7 +29981,7 @@
         <v>238</v>
       </c>
       <c r="C1676" t="n">
-        <v>101.1</v>
+        <v>101.2</v>
       </c>
       <c r="D1676" t="s">
         <v>231</v>
@@ -29995,7 +29998,7 @@
         <v>239</v>
       </c>
       <c r="C1677" t="n">
-        <v>99.3</v>
+        <v>99.4</v>
       </c>
       <c r="D1677" t="s">
         <v>231</v>
@@ -30012,7 +30015,7 @@
         <v>240</v>
       </c>
       <c r="C1678" t="n">
-        <v>98.8</v>
+        <v>98.9</v>
       </c>
       <c r="D1678" t="s">
         <v>231</v>
@@ -30029,7 +30032,7 @@
         <v>241</v>
       </c>
       <c r="C1679" t="n">
-        <v>96.6</v>
+        <v>96.8</v>
       </c>
       <c r="D1679" t="s">
         <v>231</v>
@@ -30046,7 +30049,7 @@
         <v>242</v>
       </c>
       <c r="C1680" t="n">
-        <v>93.4</v>
+        <v>93.5</v>
       </c>
       <c r="D1680" t="s">
         <v>231</v>
@@ -30063,7 +30066,7 @@
         <v>243</v>
       </c>
       <c r="C1681" t="n">
-        <v>98.3</v>
+        <v>98.4</v>
       </c>
       <c r="D1681" t="s">
         <v>244</v>
@@ -30080,7 +30083,7 @@
         <v>245</v>
       </c>
       <c r="C1682" t="n">
-        <v>99.3</v>
+        <v>99.4</v>
       </c>
       <c r="D1682" t="s">
         <v>244</v>
@@ -30097,7 +30100,7 @@
         <v>246</v>
       </c>
       <c r="C1683" t="n">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="D1683" t="s">
         <v>244</v>
@@ -30114,7 +30117,7 @@
         <v>247</v>
       </c>
       <c r="C1684" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="D1684" t="s">
         <v>244</v>
@@ -30131,7 +30134,7 @@
         <v>248</v>
       </c>
       <c r="C1685" t="n">
-        <v>99.2</v>
+        <v>99.3</v>
       </c>
       <c r="D1685" t="s">
         <v>244</v>
@@ -30148,7 +30151,7 @@
         <v>249</v>
       </c>
       <c r="C1686" t="n">
-        <v>99.5</v>
+        <v>99.6</v>
       </c>
       <c r="D1686" t="s">
         <v>244</v>
@@ -30165,7 +30168,7 @@
         <v>250</v>
       </c>
       <c r="C1687" t="n">
-        <v>102.4</v>
+        <v>102.5</v>
       </c>
       <c r="D1687" t="s">
         <v>244</v>
@@ -30182,7 +30185,7 @@
         <v>251</v>
       </c>
       <c r="C1688" t="n">
-        <v>101.9</v>
+        <v>102</v>
       </c>
       <c r="D1688" t="s">
         <v>244</v>
@@ -30199,7 +30202,7 @@
         <v>252</v>
       </c>
       <c r="C1689" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="D1689" t="s">
         <v>244</v>
@@ -30216,7 +30219,7 @@
         <v>253</v>
       </c>
       <c r="C1690" t="n">
-        <v>103.2</v>
+        <v>103.3</v>
       </c>
       <c r="D1690" t="s">
         <v>244</v>
@@ -30250,7 +30253,7 @@
         <v>255</v>
       </c>
       <c r="C1692" t="n">
-        <v>105.2</v>
+        <v>105.3</v>
       </c>
       <c r="D1692" t="s">
         <v>244</v>
@@ -30267,7 +30270,7 @@
         <v>256</v>
       </c>
       <c r="C1693" t="n">
-        <v>104.3</v>
+        <v>104.4</v>
       </c>
       <c r="D1693" t="s">
         <v>257</v>
@@ -30301,7 +30304,7 @@
         <v>259</v>
       </c>
       <c r="C1695" t="n">
-        <v>102.4</v>
+        <v>102.5</v>
       </c>
       <c r="D1695" t="s">
         <v>257</v>
@@ -30352,7 +30355,7 @@
         <v>262</v>
       </c>
       <c r="C1698" t="n">
-        <v>104.4</v>
+        <v>104.5</v>
       </c>
       <c r="D1698" t="s">
         <v>257</v>
@@ -30386,7 +30389,7 @@
         <v>264</v>
       </c>
       <c r="C1700" t="n">
-        <v>101.9</v>
+        <v>102</v>
       </c>
       <c r="D1700" t="s">
         <v>257</v>
@@ -30437,7 +30440,7 @@
         <v>267</v>
       </c>
       <c r="C1703" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="D1703" t="s">
         <v>257</v>
@@ -30539,7 +30542,7 @@
         <v>274</v>
       </c>
       <c r="C1709" t="n">
-        <v>101.2</v>
+        <v>101.3</v>
       </c>
       <c r="D1709" t="s">
         <v>270</v>
@@ -30573,7 +30576,7 @@
         <v>276</v>
       </c>
       <c r="C1711" t="n">
-        <v>100.8</v>
+        <v>100.9</v>
       </c>
       <c r="D1711" t="s">
         <v>270</v>
@@ -30624,7 +30627,7 @@
         <v>279</v>
       </c>
       <c r="C1714" t="n">
-        <v>99.2</v>
+        <v>99.3</v>
       </c>
       <c r="D1714" t="s">
         <v>270</v>
@@ -30675,7 +30678,7 @@
         <v>282</v>
       </c>
       <c r="C1717" t="n">
-        <v>99.1</v>
+        <v>99.2</v>
       </c>
       <c r="D1717" t="s">
         <v>283</v>
@@ -30692,7 +30695,7 @@
         <v>284</v>
       </c>
       <c r="C1718" t="n">
-        <v>99.5</v>
+        <v>99.6</v>
       </c>
       <c r="D1718" t="s">
         <v>283</v>
@@ -30709,7 +30712,7 @@
         <v>285</v>
       </c>
       <c r="C1719" t="n">
-        <v>101.2</v>
+        <v>101.3</v>
       </c>
       <c r="D1719" t="s">
         <v>283</v>
@@ -30726,7 +30729,7 @@
         <v>286</v>
       </c>
       <c r="C1720" t="n">
-        <v>99.8</v>
+        <v>99.9</v>
       </c>
       <c r="D1720" t="s">
         <v>283</v>
@@ -30777,7 +30780,7 @@
         <v>289</v>
       </c>
       <c r="C1723" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="D1723" t="s">
         <v>283</v>
@@ -30794,7 +30797,7 @@
         <v>290</v>
       </c>
       <c r="C1724" t="n">
-        <v>99</v>
+        <v>99.1</v>
       </c>
       <c r="D1724" t="s">
         <v>283</v>
@@ -30811,7 +30814,7 @@
         <v>291</v>
       </c>
       <c r="C1725" t="n">
-        <v>102.8</v>
+        <v>102.9</v>
       </c>
       <c r="D1725" t="s">
         <v>283</v>
@@ -30828,7 +30831,7 @@
         <v>292</v>
       </c>
       <c r="C1726" t="n">
-        <v>104</v>
+        <v>104.1</v>
       </c>
       <c r="D1726" t="s">
         <v>283</v>
@@ -30896,7 +30899,7 @@
         <v>297</v>
       </c>
       <c r="C1730" t="n">
-        <v>103.7</v>
+        <v>103.8</v>
       </c>
       <c r="D1730" t="s">
         <v>296</v>
@@ -30913,7 +30916,7 @@
         <v>298</v>
       </c>
       <c r="C1731" t="n">
-        <v>103.9</v>
+        <v>104</v>
       </c>
       <c r="D1731" t="s">
         <v>296</v>
@@ -30947,7 +30950,7 @@
         <v>300</v>
       </c>
       <c r="C1733" t="n">
-        <v>107.7</v>
+        <v>107.5</v>
       </c>
       <c r="D1733" t="s">
         <v>296</v>
@@ -31083,7 +31086,7 @@
         <v>308</v>
       </c>
       <c r="C1741" t="n">
-        <v>105.9</v>
+        <v>106</v>
       </c>
       <c r="D1741" t="s">
         <v>309</v>
@@ -31100,7 +31103,7 @@
         <v>310</v>
       </c>
       <c r="C1742" t="n">
-        <v>104.7</v>
+        <v>104.8</v>
       </c>
       <c r="D1742" t="s">
         <v>309</v>
@@ -31117,7 +31120,7 @@
         <v>311</v>
       </c>
       <c r="C1743" t="n">
-        <v>103.3</v>
+        <v>103.4</v>
       </c>
       <c r="D1743" t="s">
         <v>309</v>
@@ -31151,7 +31154,7 @@
         <v>313</v>
       </c>
       <c r="C1745" t="n">
-        <v>103.2</v>
+        <v>103</v>
       </c>
       <c r="D1745" t="s">
         <v>309</v>
@@ -31168,7 +31171,7 @@
         <v>314</v>
       </c>
       <c r="C1746" t="n">
-        <v>101.8</v>
+        <v>101.9</v>
       </c>
       <c r="D1746" t="s">
         <v>309</v>
@@ -31185,7 +31188,7 @@
         <v>315</v>
       </c>
       <c r="C1747" t="n">
-        <v>102.2</v>
+        <v>102.3</v>
       </c>
       <c r="D1747" t="s">
         <v>309</v>
@@ -31219,7 +31222,7 @@
         <v>317</v>
       </c>
       <c r="C1749" t="n">
-        <v>104.9</v>
+        <v>105</v>
       </c>
       <c r="D1749" t="s">
         <v>309</v>
@@ -31236,7 +31239,7 @@
         <v>318</v>
       </c>
       <c r="C1750" t="n">
-        <v>101.2</v>
+        <v>101.3</v>
       </c>
       <c r="D1750" t="s">
         <v>309</v>
@@ -31270,7 +31273,7 @@
         <v>320</v>
       </c>
       <c r="C1752" t="n">
-        <v>98.4</v>
+        <v>98.5</v>
       </c>
       <c r="D1752" t="s">
         <v>309</v>
@@ -31287,7 +31290,7 @@
         <v>321</v>
       </c>
       <c r="C1753" t="n">
-        <v>97.1</v>
+        <v>97.2</v>
       </c>
       <c r="D1753" t="s">
         <v>322</v>
@@ -31304,7 +31307,7 @@
         <v>323</v>
       </c>
       <c r="C1754" t="n">
-        <v>97.2</v>
+        <v>97.5</v>
       </c>
       <c r="D1754" t="s">
         <v>322</v>
@@ -31355,7 +31358,7 @@
         <v>326</v>
       </c>
       <c r="C1757" t="n">
-        <v>98.6</v>
+        <v>98.3</v>
       </c>
       <c r="D1757" t="s">
         <v>322</v>
@@ -31372,7 +31375,7 @@
         <v>327</v>
       </c>
       <c r="C1758" t="n">
-        <v>98.3</v>
+        <v>98.4</v>
       </c>
       <c r="D1758" t="s">
         <v>322</v>
@@ -31423,7 +31426,7 @@
         <v>330</v>
       </c>
       <c r="C1761" t="n">
-        <v>95.5</v>
+        <v>95.6</v>
       </c>
       <c r="D1761" t="s">
         <v>322</v>
@@ -31440,7 +31443,7 @@
         <v>331</v>
       </c>
       <c r="C1762" t="n">
-        <v>97</v>
+        <v>97.1</v>
       </c>
       <c r="D1762" t="s">
         <v>322</v>
@@ -31457,7 +31460,7 @@
         <v>332</v>
       </c>
       <c r="C1763" t="n">
-        <v>97</v>
+        <v>97.4</v>
       </c>
       <c r="D1763" t="s">
         <v>322</v>
@@ -31474,7 +31477,7 @@
         <v>333</v>
       </c>
       <c r="C1764" t="n">
-        <v>97.6</v>
+        <v>97.7</v>
       </c>
       <c r="D1764" t="s">
         <v>322</v>
@@ -31491,7 +31494,7 @@
         <v>334</v>
       </c>
       <c r="C1765" t="n">
-        <v>97.3</v>
+        <v>97.4</v>
       </c>
       <c r="D1765" t="s">
         <v>335</v>
@@ -31508,7 +31511,7 @@
         <v>336</v>
       </c>
       <c r="C1766" t="n">
-        <v>100.8</v>
+        <v>100.9</v>
       </c>
       <c r="D1766" t="s">
         <v>335</v>
@@ -31525,7 +31528,7 @@
         <v>337</v>
       </c>
       <c r="C1767" t="n">
-        <v>95.4</v>
+        <v>95.5</v>
       </c>
       <c r="D1767" t="s">
         <v>335</v>
@@ -31542,7 +31545,7 @@
         <v>338</v>
       </c>
       <c r="C1768" t="n">
-        <v>83.8</v>
+        <v>84.5</v>
       </c>
       <c r="D1768" t="s">
         <v>335</v>
@@ -31576,7 +31579,7 @@
         <v>340</v>
       </c>
       <c r="C1770" t="n">
-        <v>90.1</v>
+        <v>90.3</v>
       </c>
       <c r="D1770" t="s">
         <v>335</v>
@@ -31593,7 +31596,7 @@
         <v>341</v>
       </c>
       <c r="C1771" t="n">
-        <v>91.7</v>
+        <v>91.9</v>
       </c>
       <c r="D1771" t="s">
         <v>335</v>
@@ -31610,7 +31613,7 @@
         <v>342</v>
       </c>
       <c r="C1772" t="n">
-        <v>91.9</v>
+        <v>92.2</v>
       </c>
       <c r="D1772" t="s">
         <v>335</v>
@@ -31627,7 +31630,7 @@
         <v>343</v>
       </c>
       <c r="C1773" t="n">
-        <v>94.3</v>
+        <v>94.4</v>
       </c>
       <c r="D1773" t="s">
         <v>335</v>
@@ -31644,7 +31647,7 @@
         <v>344</v>
       </c>
       <c r="C1774" t="n">
-        <v>95.8</v>
+        <v>96.2</v>
       </c>
       <c r="D1774" t="s">
         <v>335</v>
@@ -31661,7 +31664,7 @@
         <v>345</v>
       </c>
       <c r="C1775" t="n">
-        <v>94.8</v>
+        <v>95</v>
       </c>
       <c r="D1775" t="s">
         <v>335</v>
@@ -31678,7 +31681,7 @@
         <v>346</v>
       </c>
       <c r="C1776" t="n">
-        <v>96.7</v>
+        <v>96.9</v>
       </c>
       <c r="D1776" t="s">
         <v>335</v>
@@ -31712,7 +31715,7 @@
         <v>349</v>
       </c>
       <c r="C1778" t="n">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="D1778" t="s">
         <v>348</v>
@@ -31746,7 +31749,7 @@
         <v>351</v>
       </c>
       <c r="C1780" t="n">
-        <v>104.6</v>
+        <v>104.8</v>
       </c>
       <c r="D1780" t="s">
         <v>348</v>
@@ -31763,7 +31766,7 @@
         <v>352</v>
       </c>
       <c r="C1781" t="n">
-        <v>109.5</v>
+        <v>109.6</v>
       </c>
       <c r="D1781" t="s">
         <v>348</v>
@@ -31780,7 +31783,7 @@
         <v>353</v>
       </c>
       <c r="C1782" t="n">
-        <v>107.3</v>
+        <v>107.2</v>
       </c>
       <c r="D1782" t="s">
         <v>348</v>
@@ -31814,7 +31817,7 @@
         <v>355</v>
       </c>
       <c r="C1784" t="n">
-        <v>107.8</v>
+        <v>107.9</v>
       </c>
       <c r="D1784" t="s">
         <v>348</v>
@@ -31848,7 +31851,7 @@
         <v>357</v>
       </c>
       <c r="C1786" t="n">
-        <v>105.2</v>
+        <v>105.5</v>
       </c>
       <c r="D1786" t="s">
         <v>348</v>
@@ -31865,7 +31868,7 @@
         <v>358</v>
       </c>
       <c r="C1787" t="n">
-        <v>102.4</v>
+        <v>102.5</v>
       </c>
       <c r="D1787" t="s">
         <v>348</v>
@@ -31882,7 +31885,7 @@
         <v>359</v>
       </c>
       <c r="C1788" t="n">
-        <v>101.3</v>
+        <v>101.5</v>
       </c>
       <c r="D1788" t="s">
         <v>348</v>
@@ -31899,7 +31902,7 @@
         <v>360</v>
       </c>
       <c r="C1789" t="n">
-        <v>96.2</v>
+        <v>96.1</v>
       </c>
       <c r="D1789" t="s">
         <v>361</v>
@@ -31933,7 +31936,7 @@
         <v>363</v>
       </c>
       <c r="C1791" t="n">
-        <v>85</v>
+        <v>85.2</v>
       </c>
       <c r="D1791" t="s">
         <v>361</v>
@@ -31950,7 +31953,7 @@
         <v>364</v>
       </c>
       <c r="C1792" t="n">
-        <v>84</v>
+        <v>84.5</v>
       </c>
       <c r="D1792" t="s">
         <v>361</v>
@@ -31967,7 +31970,7 @@
         <v>365</v>
       </c>
       <c r="C1793" t="n">
-        <v>79.6</v>
+        <v>79.9</v>
       </c>
       <c r="D1793" t="s">
         <v>361</v>
@@ -31984,7 +31987,7 @@
         <v>366</v>
       </c>
       <c r="C1794" t="n">
-        <v>76</v>
+        <v>76.4</v>
       </c>
       <c r="D1794" t="s">
         <v>361</v>
@@ -32001,7 +32004,7 @@
         <v>367</v>
       </c>
       <c r="C1795" t="n">
-        <v>69</v>
+        <v>69.4</v>
       </c>
       <c r="D1795" t="s">
         <v>361</v>
@@ -32018,7 +32021,7 @@
         <v>368</v>
       </c>
       <c r="C1796" t="n">
-        <v>68.9</v>
+        <v>69.3</v>
       </c>
       <c r="D1796" t="s">
         <v>361</v>
@@ -32035,7 +32038,7 @@
         <v>369</v>
       </c>
       <c r="C1797" t="n">
-        <v>63.5</v>
+        <v>63.8</v>
       </c>
       <c r="D1797" t="s">
         <v>361</v>
@@ -32052,7 +32055,7 @@
         <v>370</v>
       </c>
       <c r="C1798" t="n">
-        <v>60.3</v>
+        <v>61.4</v>
       </c>
       <c r="D1798" t="s">
         <v>361</v>
@@ -32069,7 +32072,7 @@
         <v>371</v>
       </c>
       <c r="C1799" t="n">
-        <v>64.6</v>
+        <v>65.2</v>
       </c>
       <c r="D1799" t="s">
         <v>361</v>
@@ -32086,7 +32089,7 @@
         <v>372</v>
       </c>
       <c r="C1800" t="n">
-        <v>62.4</v>
+        <v>63.2</v>
       </c>
       <c r="D1800" t="s">
         <v>361</v>
@@ -32103,7 +32106,7 @@
         <v>373</v>
       </c>
       <c r="C1801" t="n">
-        <v>63.3</v>
+        <v>63.6</v>
       </c>
       <c r="D1801" t="s">
         <v>374</v>
@@ -32120,7 +32123,7 @@
         <v>375</v>
       </c>
       <c r="C1802" t="n">
-        <v>65.6</v>
+        <v>66.2</v>
       </c>
       <c r="D1802" t="s">
         <v>374</v>
@@ -32137,7 +32140,7 @@
         <v>376</v>
       </c>
       <c r="C1803" t="n">
-        <v>67.2</v>
+        <v>67.7</v>
       </c>
       <c r="D1803" t="s">
         <v>374</v>
@@ -32154,7 +32157,7 @@
         <v>377</v>
       </c>
       <c r="C1804" t="n">
-        <v>68.5</v>
+        <v>69</v>
       </c>
       <c r="D1804" t="s">
         <v>374</v>
@@ -32171,7 +32174,7 @@
         <v>378</v>
       </c>
       <c r="C1805" t="n">
-        <v>72</v>
+        <v>72.6</v>
       </c>
       <c r="D1805" t="s">
         <v>374</v>
@@ -32188,7 +32191,7 @@
         <v>379</v>
       </c>
       <c r="C1806" t="n">
-        <v>72.8</v>
+        <v>73.3</v>
       </c>
       <c r="D1806" t="s">
         <v>374</v>
@@ -32205,7 +32208,7 @@
         <v>380</v>
       </c>
       <c r="C1807" t="n">
-        <v>72.6</v>
+        <v>73.1</v>
       </c>
       <c r="D1807" t="s">
         <v>374</v>
@@ -32222,7 +32225,7 @@
         <v>381</v>
       </c>
       <c r="C1808" t="n">
-        <v>70.6</v>
+        <v>71.1</v>
       </c>
       <c r="D1808" t="s">
         <v>374</v>
@@ -32239,7 +32242,7 @@
         <v>383</v>
       </c>
       <c r="C1809" t="n">
-        <v>85.8</v>
+        <v>86</v>
       </c>
       <c r="D1809" t="s">
         <v>374</v>
@@ -32250,30 +32253,30 @@
     </row>
     <row r="1810">
       <c r="A1810" t="s">
-        <v>192</v>
+        <v>5</v>
       </c>
       <c r="B1810" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C1810" t="n">
-        <v>100.1</v>
+        <v>84.7</v>
       </c>
       <c r="D1810" t="s">
         <v>374</v>
       </c>
       <c r="E1810" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1811">
       <c r="A1811" t="s">
-        <v>382</v>
+        <v>192</v>
       </c>
       <c r="B1811" t="s">
         <v>383</v>
       </c>
       <c r="C1811" t="n">
-        <v>84</v>
+        <v>100.4</v>
       </c>
       <c r="D1811" t="s">
         <v>374</v>
@@ -32284,30 +32287,30 @@
     </row>
     <row r="1812">
       <c r="A1812" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B1812" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C1812" t="n">
-        <v>83.7</v>
+        <v>99.5</v>
       </c>
       <c r="D1812" t="s">
         <v>374</v>
       </c>
       <c r="E1812" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1813">
       <c r="A1813" t="s">
-        <v>199</v>
+        <v>382</v>
       </c>
       <c r="B1813" t="s">
         <v>383</v>
       </c>
       <c r="C1813" t="n">
-        <v>86.2</v>
+        <v>84.2</v>
       </c>
       <c r="D1813" t="s">
         <v>374</v>
@@ -32318,19 +32321,121 @@
     </row>
     <row r="1814">
       <c r="A1814" t="s">
-        <v>201</v>
+        <v>382</v>
       </c>
       <c r="B1814" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C1814" t="n">
-        <v>69.1</v>
+        <v>83</v>
       </c>
       <c r="D1814" t="s">
         <v>374</v>
       </c>
       <c r="E1814" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1815">
+      <c r="A1815" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1815" t="s">
+        <v>383</v>
+      </c>
+      <c r="C1815" t="n">
+        <v>84.5</v>
+      </c>
+      <c r="D1815" t="s">
+        <v>374</v>
+      </c>
+      <c r="E1815" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="1816">
+      <c r="A1816" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1816" t="s">
+        <v>384</v>
+      </c>
+      <c r="C1816" t="n">
+        <v>90.6</v>
+      </c>
+      <c r="D1816" t="s">
+        <v>374</v>
+      </c>
+      <c r="E1816" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1817">
+      <c r="A1817" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1817" t="s">
+        <v>383</v>
+      </c>
+      <c r="C1817" t="n">
+        <v>86</v>
+      </c>
+      <c r="D1817" t="s">
+        <v>374</v>
+      </c>
+      <c r="E1817" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1818">
+      <c r="A1818" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1818" t="s">
+        <v>384</v>
+      </c>
+      <c r="C1818" t="n">
+        <v>83.2</v>
+      </c>
+      <c r="D1818" t="s">
+        <v>374</v>
+      </c>
+      <c r="E1818" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1819">
+      <c r="A1819" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1819" t="s">
+        <v>383</v>
+      </c>
+      <c r="C1819" t="n">
+        <v>69.4</v>
+      </c>
+      <c r="D1819" t="s">
+        <v>374</v>
+      </c>
+      <c r="E1819" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1820">
+      <c r="A1820" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1820" t="s">
+        <v>384</v>
+      </c>
+      <c r="C1820" t="n">
+        <v>70.1</v>
+      </c>
+      <c r="D1820" t="s">
+        <v>374</v>
+      </c>
+      <c r="E1820" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Data/konjunkturbarometern.xlsx
+++ b/Data/konjunkturbarometern.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="386">
   <si>
     <t xml:space="preserve">Indikator</t>
   </si>
@@ -1167,6 +1167,9 @@
   </si>
   <si>
     <t xml:space="preserve">2023-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-11</t>
   </si>
 </sst>
 </file>
@@ -1523,7 +1526,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>86.2</v>
+        <v>86.3</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -1540,7 +1543,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>88.5</v>
+        <v>88.6</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -1557,7 +1560,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>89.4</v>
+        <v>89.5</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -1591,7 +1594,7 @@
         <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>92.2</v>
+        <v>92.3</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -1625,7 +1628,7 @@
         <v>19</v>
       </c>
       <c r="C8" t="n">
-        <v>93.7</v>
+        <v>93.8</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -1642,7 +1645,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="n">
-        <v>94</v>
+        <v>94.1</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
@@ -1676,7 +1679,7 @@
         <v>26</v>
       </c>
       <c r="C11" t="n">
-        <v>96.8</v>
+        <v>96.9</v>
       </c>
       <c r="D11" t="s">
         <v>20</v>
@@ -1710,7 +1713,7 @@
         <v>30</v>
       </c>
       <c r="C13" t="n">
-        <v>96.7</v>
+        <v>96.8</v>
       </c>
       <c r="D13" t="s">
         <v>20</v>
@@ -1778,7 +1781,7 @@
         <v>35</v>
       </c>
       <c r="C17" t="n">
-        <v>104.3</v>
+        <v>104.4</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1812,7 +1815,7 @@
         <v>37</v>
       </c>
       <c r="C19" t="n">
-        <v>105.2</v>
+        <v>105.3</v>
       </c>
       <c r="D19" t="s">
         <v>20</v>
@@ -1829,7 +1832,7 @@
         <v>38</v>
       </c>
       <c r="C20" t="n">
-        <v>106.4</v>
+        <v>106.5</v>
       </c>
       <c r="D20" t="s">
         <v>39</v>
@@ -1863,7 +1866,7 @@
         <v>41</v>
       </c>
       <c r="C22" t="n">
-        <v>104.4</v>
+        <v>104.5</v>
       </c>
       <c r="D22" t="s">
         <v>39</v>
@@ -1948,7 +1951,7 @@
         <v>46</v>
       </c>
       <c r="C27" t="n">
-        <v>101.1</v>
+        <v>101.2</v>
       </c>
       <c r="D27" t="s">
         <v>39</v>
@@ -1965,7 +1968,7 @@
         <v>47</v>
       </c>
       <c r="C28" t="n">
-        <v>100.8</v>
+        <v>100.9</v>
       </c>
       <c r="D28" t="s">
         <v>39</v>
@@ -1999,7 +2002,7 @@
         <v>49</v>
       </c>
       <c r="C30" t="n">
-        <v>98.6</v>
+        <v>98.7</v>
       </c>
       <c r="D30" t="s">
         <v>39</v>
@@ -2016,7 +2019,7 @@
         <v>50</v>
       </c>
       <c r="C31" t="n">
-        <v>96.9</v>
+        <v>97</v>
       </c>
       <c r="D31" t="s">
         <v>39</v>
@@ -2033,7 +2036,7 @@
         <v>51</v>
       </c>
       <c r="C32" t="n">
-        <v>95.2</v>
+        <v>95.3</v>
       </c>
       <c r="D32" t="s">
         <v>52</v>
@@ -2152,7 +2155,7 @@
         <v>59</v>
       </c>
       <c r="C39" t="n">
-        <v>106.5</v>
+        <v>106.6</v>
       </c>
       <c r="D39" t="s">
         <v>52</v>
@@ -2492,7 +2495,7 @@
         <v>81</v>
       </c>
       <c r="C59" t="n">
-        <v>93</v>
+        <v>93.1</v>
       </c>
       <c r="D59" t="s">
         <v>78</v>
@@ -2526,7 +2529,7 @@
         <v>83</v>
       </c>
       <c r="C61" t="n">
-        <v>88.3</v>
+        <v>88.4</v>
       </c>
       <c r="D61" t="s">
         <v>78</v>
@@ -2543,7 +2546,7 @@
         <v>84</v>
       </c>
       <c r="C62" t="n">
-        <v>84.3</v>
+        <v>84.4</v>
       </c>
       <c r="D62" t="s">
         <v>78</v>
@@ -2560,7 +2563,7 @@
         <v>85</v>
       </c>
       <c r="C63" t="n">
-        <v>84.5</v>
+        <v>84.6</v>
       </c>
       <c r="D63" t="s">
         <v>78</v>
@@ -2577,7 +2580,7 @@
         <v>86</v>
       </c>
       <c r="C64" t="n">
-        <v>85.8</v>
+        <v>85.9</v>
       </c>
       <c r="D64" t="s">
         <v>78</v>
@@ -2662,7 +2665,7 @@
         <v>92</v>
       </c>
       <c r="C69" t="n">
-        <v>91.5</v>
+        <v>91.6</v>
       </c>
       <c r="D69" t="s">
         <v>91</v>
@@ -2781,7 +2784,7 @@
         <v>99</v>
       </c>
       <c r="C76" t="n">
-        <v>92.2</v>
+        <v>92.3</v>
       </c>
       <c r="D76" t="s">
         <v>91</v>
@@ -2798,7 +2801,7 @@
         <v>100</v>
       </c>
       <c r="C77" t="n">
-        <v>87.7</v>
+        <v>87.8</v>
       </c>
       <c r="D77" t="s">
         <v>91</v>
@@ -2832,7 +2835,7 @@
         <v>102</v>
       </c>
       <c r="C79" t="n">
-        <v>90.9</v>
+        <v>91</v>
       </c>
       <c r="D79" t="s">
         <v>91</v>
@@ -2849,7 +2852,7 @@
         <v>103</v>
       </c>
       <c r="C80" t="n">
-        <v>88.6</v>
+        <v>88.7</v>
       </c>
       <c r="D80" t="s">
         <v>104</v>
@@ -2866,7 +2869,7 @@
         <v>105</v>
       </c>
       <c r="C81" t="n">
-        <v>94.4</v>
+        <v>94.5</v>
       </c>
       <c r="D81" t="s">
         <v>104</v>
@@ -2883,7 +2886,7 @@
         <v>106</v>
       </c>
       <c r="C82" t="n">
-        <v>91.2</v>
+        <v>91.3</v>
       </c>
       <c r="D82" t="s">
         <v>104</v>
@@ -2900,7 +2903,7 @@
         <v>107</v>
       </c>
       <c r="C83" t="n">
-        <v>87.7</v>
+        <v>87.8</v>
       </c>
       <c r="D83" t="s">
         <v>104</v>
@@ -2917,7 +2920,7 @@
         <v>108</v>
       </c>
       <c r="C84" t="n">
-        <v>89.9</v>
+        <v>90</v>
       </c>
       <c r="D84" t="s">
         <v>104</v>
@@ -2934,7 +2937,7 @@
         <v>109</v>
       </c>
       <c r="C85" t="n">
-        <v>86.9</v>
+        <v>87</v>
       </c>
       <c r="D85" t="s">
         <v>104</v>
@@ -2985,7 +2988,7 @@
         <v>112</v>
       </c>
       <c r="C88" t="n">
-        <v>90</v>
+        <v>90.1</v>
       </c>
       <c r="D88" t="s">
         <v>104</v>
@@ -3002,7 +3005,7 @@
         <v>113</v>
       </c>
       <c r="C89" t="n">
-        <v>90.6</v>
+        <v>90.7</v>
       </c>
       <c r="D89" t="s">
         <v>104</v>
@@ -3019,7 +3022,7 @@
         <v>114</v>
       </c>
       <c r="C90" t="n">
-        <v>90</v>
+        <v>90.1</v>
       </c>
       <c r="D90" t="s">
         <v>104</v>
@@ -3053,7 +3056,7 @@
         <v>116</v>
       </c>
       <c r="C92" t="n">
-        <v>93.1</v>
+        <v>93.2</v>
       </c>
       <c r="D92" t="s">
         <v>117</v>
@@ -3070,7 +3073,7 @@
         <v>118</v>
       </c>
       <c r="C93" t="n">
-        <v>95.3</v>
+        <v>95.4</v>
       </c>
       <c r="D93" t="s">
         <v>117</v>
@@ -3104,7 +3107,7 @@
         <v>120</v>
       </c>
       <c r="C95" t="n">
-        <v>98.8</v>
+        <v>98.9</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -3138,7 +3141,7 @@
         <v>122</v>
       </c>
       <c r="C97" t="n">
-        <v>101.4</v>
+        <v>101.5</v>
       </c>
       <c r="D97" t="s">
         <v>117</v>
@@ -3155,7 +3158,7 @@
         <v>123</v>
       </c>
       <c r="C98" t="n">
-        <v>101.6</v>
+        <v>101.7</v>
       </c>
       <c r="D98" t="s">
         <v>117</v>
@@ -3189,7 +3192,7 @@
         <v>125</v>
       </c>
       <c r="C100" t="n">
-        <v>106.9</v>
+        <v>107</v>
       </c>
       <c r="D100" t="s">
         <v>117</v>
@@ -3291,7 +3294,7 @@
         <v>132</v>
       </c>
       <c r="C106" t="n">
-        <v>102.1</v>
+        <v>102.2</v>
       </c>
       <c r="D106" t="s">
         <v>130</v>
@@ -3359,7 +3362,7 @@
         <v>136</v>
       </c>
       <c r="C110" t="n">
-        <v>98.8</v>
+        <v>98.9</v>
       </c>
       <c r="D110" t="s">
         <v>130</v>
@@ -3376,7 +3379,7 @@
         <v>137</v>
       </c>
       <c r="C111" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="D111" t="s">
         <v>130</v>
@@ -3648,7 +3651,7 @@
         <v>154</v>
       </c>
       <c r="C127" t="n">
-        <v>110.1</v>
+        <v>110.2</v>
       </c>
       <c r="D127" t="s">
         <v>143</v>
@@ -3784,7 +3787,7 @@
         <v>163</v>
       </c>
       <c r="C135" t="n">
-        <v>109.8</v>
+        <v>109.9</v>
       </c>
       <c r="D135" t="s">
         <v>156</v>
@@ -3920,7 +3923,7 @@
         <v>172</v>
       </c>
       <c r="C143" t="n">
-        <v>102</v>
+        <v>102.1</v>
       </c>
       <c r="D143" t="s">
         <v>169</v>
@@ -3971,7 +3974,7 @@
         <v>175</v>
       </c>
       <c r="C146" t="n">
-        <v>89.2</v>
+        <v>89.3</v>
       </c>
       <c r="D146" t="s">
         <v>169</v>
@@ -4005,7 +4008,7 @@
         <v>177</v>
       </c>
       <c r="C148" t="n">
-        <v>88.2</v>
+        <v>88.3</v>
       </c>
       <c r="D148" t="s">
         <v>169</v>
@@ -4022,7 +4025,7 @@
         <v>178</v>
       </c>
       <c r="C149" t="n">
-        <v>82.2</v>
+        <v>82.3</v>
       </c>
       <c r="D149" t="s">
         <v>169</v>
@@ -4039,7 +4042,7 @@
         <v>179</v>
       </c>
       <c r="C150" t="n">
-        <v>73.7</v>
+        <v>73.8</v>
       </c>
       <c r="D150" t="s">
         <v>169</v>
@@ -4056,7 +4059,7 @@
         <v>180</v>
       </c>
       <c r="C151" t="n">
-        <v>71</v>
+        <v>71.1</v>
       </c>
       <c r="D151" t="s">
         <v>169</v>
@@ -4073,7 +4076,7 @@
         <v>181</v>
       </c>
       <c r="C152" t="n">
-        <v>73.2</v>
+        <v>73.3</v>
       </c>
       <c r="D152" t="s">
         <v>182</v>
@@ -4090,7 +4093,7 @@
         <v>183</v>
       </c>
       <c r="C153" t="n">
-        <v>72.9</v>
+        <v>73</v>
       </c>
       <c r="D153" t="s">
         <v>182</v>
@@ -4107,7 +4110,7 @@
         <v>184</v>
       </c>
       <c r="C154" t="n">
-        <v>69.3</v>
+        <v>69.4</v>
       </c>
       <c r="D154" t="s">
         <v>182</v>
@@ -4124,7 +4127,7 @@
         <v>185</v>
       </c>
       <c r="C155" t="n">
-        <v>69.5</v>
+        <v>69.6</v>
       </c>
       <c r="D155" t="s">
         <v>182</v>
@@ -4141,7 +4144,7 @@
         <v>186</v>
       </c>
       <c r="C156" t="n">
-        <v>74.8</v>
+        <v>74.9</v>
       </c>
       <c r="D156" t="s">
         <v>182</v>
@@ -4158,7 +4161,7 @@
         <v>187</v>
       </c>
       <c r="C157" t="n">
-        <v>76.7</v>
+        <v>76.8</v>
       </c>
       <c r="D157" t="s">
         <v>182</v>
@@ -4175,7 +4178,7 @@
         <v>188</v>
       </c>
       <c r="C158" t="n">
-        <v>83.8</v>
+        <v>83.9</v>
       </c>
       <c r="D158" t="s">
         <v>182</v>
@@ -4192,7 +4195,7 @@
         <v>189</v>
       </c>
       <c r="C159" t="n">
-        <v>87.4</v>
+        <v>87.5</v>
       </c>
       <c r="D159" t="s">
         <v>182</v>
@@ -4209,7 +4212,7 @@
         <v>190</v>
       </c>
       <c r="C160" t="n">
-        <v>88.9</v>
+        <v>89</v>
       </c>
       <c r="D160" t="s">
         <v>182</v>
@@ -4226,7 +4229,7 @@
         <v>191</v>
       </c>
       <c r="C161" t="n">
-        <v>94.2</v>
+        <v>94.3</v>
       </c>
       <c r="D161" t="s">
         <v>182</v>
@@ -4260,7 +4263,7 @@
         <v>194</v>
       </c>
       <c r="C163" t="n">
-        <v>85.4</v>
+        <v>85.3</v>
       </c>
       <c r="D163" t="s">
         <v>7</v>
@@ -4583,7 +4586,7 @@
         <v>35</v>
       </c>
       <c r="C182" t="n">
-        <v>104.3</v>
+        <v>104.4</v>
       </c>
       <c r="D182" t="s">
         <v>20</v>
@@ -4617,7 +4620,7 @@
         <v>37</v>
       </c>
       <c r="C184" t="n">
-        <v>104.6</v>
+        <v>104.7</v>
       </c>
       <c r="D184" t="s">
         <v>20</v>
@@ -4855,7 +4858,7 @@
         <v>53</v>
       </c>
       <c r="C198" t="n">
-        <v>89.2</v>
+        <v>89.1</v>
       </c>
       <c r="D198" t="s">
         <v>52</v>
@@ -5093,7 +5096,7 @@
         <v>68</v>
       </c>
       <c r="C212" t="n">
-        <v>108.9</v>
+        <v>109</v>
       </c>
       <c r="D212" t="s">
         <v>65</v>
@@ -5739,7 +5742,7 @@
         <v>109</v>
       </c>
       <c r="C250" t="n">
-        <v>87</v>
+        <v>86.9</v>
       </c>
       <c r="D250" t="s">
         <v>104</v>
@@ -6266,7 +6269,7 @@
         <v>142</v>
       </c>
       <c r="C281" t="n">
-        <v>102.1</v>
+        <v>102.2</v>
       </c>
       <c r="D281" t="s">
         <v>143</v>
@@ -6351,7 +6354,7 @@
         <v>148</v>
       </c>
       <c r="C286" t="n">
-        <v>105.1</v>
+        <v>105.2</v>
       </c>
       <c r="D286" t="s">
         <v>143</v>
@@ -6538,7 +6541,7 @@
         <v>160</v>
       </c>
       <c r="C297" t="n">
-        <v>105.5</v>
+        <v>105.6</v>
       </c>
       <c r="D297" t="s">
         <v>156</v>
@@ -6623,7 +6626,7 @@
         <v>165</v>
       </c>
       <c r="C302" t="n">
-        <v>101.6</v>
+        <v>101.7</v>
       </c>
       <c r="D302" t="s">
         <v>156</v>
@@ -6827,7 +6830,7 @@
         <v>178</v>
       </c>
       <c r="C314" t="n">
-        <v>84.8</v>
+        <v>84.7</v>
       </c>
       <c r="D314" t="s">
         <v>169</v>
@@ -6844,7 +6847,7 @@
         <v>179</v>
       </c>
       <c r="C315" t="n">
-        <v>78.5</v>
+        <v>78.4</v>
       </c>
       <c r="D315" t="s">
         <v>169</v>
@@ -6878,7 +6881,7 @@
         <v>181</v>
       </c>
       <c r="C317" t="n">
-        <v>74.7</v>
+        <v>74.6</v>
       </c>
       <c r="D317" t="s">
         <v>182</v>
@@ -6929,7 +6932,7 @@
         <v>185</v>
       </c>
       <c r="C320" t="n">
-        <v>71.9</v>
+        <v>71.8</v>
       </c>
       <c r="D320" t="s">
         <v>182</v>
@@ -6946,7 +6949,7 @@
         <v>186</v>
       </c>
       <c r="C321" t="n">
-        <v>76.3</v>
+        <v>76.2</v>
       </c>
       <c r="D321" t="s">
         <v>182</v>
@@ -6997,7 +7000,7 @@
         <v>189</v>
       </c>
       <c r="C324" t="n">
-        <v>87.5</v>
+        <v>87.4</v>
       </c>
       <c r="D324" t="s">
         <v>182</v>
@@ -7048,7 +7051,7 @@
         <v>6</v>
       </c>
       <c r="C327" t="n">
-        <v>83.6</v>
+        <v>83.7</v>
       </c>
       <c r="D327" t="s">
         <v>7</v>
@@ -7065,7 +7068,7 @@
         <v>9</v>
       </c>
       <c r="C328" t="n">
-        <v>96.4</v>
+        <v>96.5</v>
       </c>
       <c r="D328" t="s">
         <v>7</v>
@@ -7116,7 +7119,7 @@
         <v>15</v>
       </c>
       <c r="C331" t="n">
-        <v>92.1</v>
+        <v>92.2</v>
       </c>
       <c r="D331" t="s">
         <v>7</v>
@@ -7201,7 +7204,7 @@
         <v>26</v>
       </c>
       <c r="C336" t="n">
-        <v>97</v>
+        <v>97.1</v>
       </c>
       <c r="D336" t="s">
         <v>20</v>
@@ -7269,7 +7272,7 @@
         <v>33</v>
       </c>
       <c r="C340" t="n">
-        <v>97.9</v>
+        <v>98</v>
       </c>
       <c r="D340" t="s">
         <v>20</v>
@@ -7303,7 +7306,7 @@
         <v>35</v>
       </c>
       <c r="C342" t="n">
-        <v>94</v>
+        <v>94.1</v>
       </c>
       <c r="D342" t="s">
         <v>20</v>
@@ -7354,7 +7357,7 @@
         <v>38</v>
       </c>
       <c r="C345" t="n">
-        <v>96.5</v>
+        <v>96.6</v>
       </c>
       <c r="D345" t="s">
         <v>39</v>
@@ -7422,7 +7425,7 @@
         <v>43</v>
       </c>
       <c r="C349" t="n">
-        <v>93.3</v>
+        <v>93.4</v>
       </c>
       <c r="D349" t="s">
         <v>39</v>
@@ -7592,7 +7595,7 @@
         <v>54</v>
       </c>
       <c r="C359" t="n">
-        <v>97.8</v>
+        <v>97.9</v>
       </c>
       <c r="D359" t="s">
         <v>52</v>
@@ -7626,7 +7629,7 @@
         <v>56</v>
       </c>
       <c r="C361" t="n">
-        <v>106</v>
+        <v>106.1</v>
       </c>
       <c r="D361" t="s">
         <v>52</v>
@@ -7643,7 +7646,7 @@
         <v>57</v>
       </c>
       <c r="C362" t="n">
-        <v>105.5</v>
+        <v>105.6</v>
       </c>
       <c r="D362" t="s">
         <v>52</v>
@@ -7711,7 +7714,7 @@
         <v>61</v>
       </c>
       <c r="C366" t="n">
-        <v>112.4</v>
+        <v>112.5</v>
       </c>
       <c r="D366" t="s">
         <v>52</v>
@@ -7915,7 +7918,7 @@
         <v>74</v>
       </c>
       <c r="C378" t="n">
-        <v>112.8</v>
+        <v>112.9</v>
       </c>
       <c r="D378" t="s">
         <v>65</v>
@@ -7949,7 +7952,7 @@
         <v>76</v>
       </c>
       <c r="C380" t="n">
-        <v>92.7</v>
+        <v>92.8</v>
       </c>
       <c r="D380" t="s">
         <v>65</v>
@@ -8187,7 +8190,7 @@
         <v>92</v>
       </c>
       <c r="C394" t="n">
-        <v>97.8</v>
+        <v>97.9</v>
       </c>
       <c r="D394" t="s">
         <v>91</v>
@@ -8238,7 +8241,7 @@
         <v>95</v>
       </c>
       <c r="C397" t="n">
-        <v>104.3</v>
+        <v>104.4</v>
       </c>
       <c r="D397" t="s">
         <v>91</v>
@@ -8255,7 +8258,7 @@
         <v>96</v>
       </c>
       <c r="C398" t="n">
-        <v>105.1</v>
+        <v>105.2</v>
       </c>
       <c r="D398" t="s">
         <v>91</v>
@@ -8272,7 +8275,7 @@
         <v>97</v>
       </c>
       <c r="C399" t="n">
-        <v>108.6</v>
+        <v>108.7</v>
       </c>
       <c r="D399" t="s">
         <v>91</v>
@@ -8357,7 +8360,7 @@
         <v>102</v>
       </c>
       <c r="C404" t="n">
-        <v>104.2</v>
+        <v>104.3</v>
       </c>
       <c r="D404" t="s">
         <v>91</v>
@@ -8391,7 +8394,7 @@
         <v>105</v>
       </c>
       <c r="C406" t="n">
-        <v>97.8</v>
+        <v>97.9</v>
       </c>
       <c r="D406" t="s">
         <v>104</v>
@@ -8476,7 +8479,7 @@
         <v>110</v>
       </c>
       <c r="C411" t="n">
-        <v>88.2</v>
+        <v>88.3</v>
       </c>
       <c r="D411" t="s">
         <v>104</v>
@@ -8493,7 +8496,7 @@
         <v>111</v>
       </c>
       <c r="C412" t="n">
-        <v>90.8</v>
+        <v>90.9</v>
       </c>
       <c r="D412" t="s">
         <v>104</v>
@@ -8561,7 +8564,7 @@
         <v>115</v>
       </c>
       <c r="C416" t="n">
-        <v>91.6</v>
+        <v>91.7</v>
       </c>
       <c r="D416" t="s">
         <v>104</v>
@@ -8680,7 +8683,7 @@
         <v>123</v>
       </c>
       <c r="C423" t="n">
-        <v>89</v>
+        <v>89.1</v>
       </c>
       <c r="D423" t="s">
         <v>117</v>
@@ -8748,7 +8751,7 @@
         <v>127</v>
       </c>
       <c r="C427" t="n">
-        <v>86</v>
+        <v>86.1</v>
       </c>
       <c r="D427" t="s">
         <v>117</v>
@@ -8884,7 +8887,7 @@
         <v>136</v>
       </c>
       <c r="C435" t="n">
-        <v>90.9</v>
+        <v>91</v>
       </c>
       <c r="D435" t="s">
         <v>130</v>
@@ -8901,7 +8904,7 @@
         <v>137</v>
       </c>
       <c r="C436" t="n">
-        <v>93.8</v>
+        <v>93.9</v>
       </c>
       <c r="D436" t="s">
         <v>130</v>
@@ -9173,7 +9176,7 @@
         <v>154</v>
       </c>
       <c r="C452" t="n">
-        <v>113.7</v>
+        <v>113.8</v>
       </c>
       <c r="D452" t="s">
         <v>143</v>
@@ -9292,7 +9295,7 @@
         <v>162</v>
       </c>
       <c r="C459" t="n">
-        <v>108.8</v>
+        <v>108.9</v>
       </c>
       <c r="D459" t="s">
         <v>156</v>
@@ -9360,7 +9363,7 @@
         <v>166</v>
       </c>
       <c r="C463" t="n">
-        <v>109.9</v>
+        <v>110</v>
       </c>
       <c r="D463" t="s">
         <v>156</v>
@@ -9479,7 +9482,7 @@
         <v>174</v>
       </c>
       <c r="C470" t="n">
-        <v>95</v>
+        <v>95.1</v>
       </c>
       <c r="D470" t="s">
         <v>169</v>
@@ -9496,7 +9499,7 @@
         <v>175</v>
       </c>
       <c r="C471" t="n">
-        <v>90.6</v>
+        <v>90.7</v>
       </c>
       <c r="D471" t="s">
         <v>169</v>
@@ -9513,7 +9516,7 @@
         <v>176</v>
       </c>
       <c r="C472" t="n">
-        <v>85.7</v>
+        <v>85.8</v>
       </c>
       <c r="D472" t="s">
         <v>169</v>
@@ -9581,7 +9584,7 @@
         <v>180</v>
       </c>
       <c r="C476" t="n">
-        <v>69.5</v>
+        <v>69.6</v>
       </c>
       <c r="D476" t="s">
         <v>169</v>
@@ -9632,7 +9635,7 @@
         <v>184</v>
       </c>
       <c r="C479" t="n">
-        <v>77.5</v>
+        <v>77.6</v>
       </c>
       <c r="D479" t="s">
         <v>182</v>
@@ -9666,7 +9669,7 @@
         <v>186</v>
       </c>
       <c r="C481" t="n">
-        <v>90.4</v>
+        <v>90.5</v>
       </c>
       <c r="D481" t="s">
         <v>182</v>
@@ -9683,7 +9686,7 @@
         <v>187</v>
       </c>
       <c r="C482" t="n">
-        <v>97.4</v>
+        <v>97.5</v>
       </c>
       <c r="D482" t="s">
         <v>182</v>
@@ -9700,7 +9703,7 @@
         <v>188</v>
       </c>
       <c r="C483" t="n">
-        <v>95.3</v>
+        <v>95.4</v>
       </c>
       <c r="D483" t="s">
         <v>182</v>
@@ -9751,7 +9754,7 @@
         <v>191</v>
       </c>
       <c r="C486" t="n">
-        <v>110.6</v>
+        <v>110.7</v>
       </c>
       <c r="D486" t="s">
         <v>182</v>
@@ -9768,7 +9771,7 @@
         <v>200</v>
       </c>
       <c r="C487" t="n">
-        <v>94.7</v>
+        <v>94.8</v>
       </c>
       <c r="D487" t="s">
         <v>7</v>
@@ -9802,7 +9805,7 @@
         <v>194</v>
       </c>
       <c r="C489" t="n">
-        <v>92.9</v>
+        <v>93</v>
       </c>
       <c r="D489" t="s">
         <v>7</v>
@@ -9819,7 +9822,7 @@
         <v>195</v>
       </c>
       <c r="C490" t="n">
-        <v>90.4</v>
+        <v>90.5</v>
       </c>
       <c r="D490" t="s">
         <v>7</v>
@@ -9836,7 +9839,7 @@
         <v>196</v>
       </c>
       <c r="C491" t="n">
-        <v>90.8</v>
+        <v>90.9</v>
       </c>
       <c r="D491" t="s">
         <v>7</v>
@@ -9853,7 +9856,7 @@
         <v>197</v>
       </c>
       <c r="C492" t="n">
-        <v>92.7</v>
+        <v>92.8</v>
       </c>
       <c r="D492" t="s">
         <v>7</v>
@@ -9870,7 +9873,7 @@
         <v>6</v>
       </c>
       <c r="C493" t="n">
-        <v>94.1</v>
+        <v>94.2</v>
       </c>
       <c r="D493" t="s">
         <v>7</v>
@@ -9887,7 +9890,7 @@
         <v>9</v>
       </c>
       <c r="C494" t="n">
-        <v>95.6</v>
+        <v>95.7</v>
       </c>
       <c r="D494" t="s">
         <v>7</v>
@@ -9904,7 +9907,7 @@
         <v>11</v>
       </c>
       <c r="C495" t="n">
-        <v>96.9</v>
+        <v>97</v>
       </c>
       <c r="D495" t="s">
         <v>7</v>
@@ -9938,7 +9941,7 @@
         <v>15</v>
       </c>
       <c r="C497" t="n">
-        <v>99.6</v>
+        <v>99.7</v>
       </c>
       <c r="D497" t="s">
         <v>7</v>
@@ -9972,7 +9975,7 @@
         <v>19</v>
       </c>
       <c r="C499" t="n">
-        <v>99.3</v>
+        <v>99.4</v>
       </c>
       <c r="D499" t="s">
         <v>20</v>
@@ -9989,7 +9992,7 @@
         <v>22</v>
       </c>
       <c r="C500" t="n">
-        <v>100.4</v>
+        <v>100.5</v>
       </c>
       <c r="D500" t="s">
         <v>20</v>
@@ -10006,7 +10009,7 @@
         <v>24</v>
       </c>
       <c r="C501" t="n">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="D501" t="s">
         <v>20</v>
@@ -10040,7 +10043,7 @@
         <v>28</v>
       </c>
       <c r="C503" t="n">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="D503" t="s">
         <v>20</v>
@@ -10057,7 +10060,7 @@
         <v>30</v>
       </c>
       <c r="C504" t="n">
-        <v>101.2</v>
+        <v>101.3</v>
       </c>
       <c r="D504" t="s">
         <v>20</v>
@@ -10142,7 +10145,7 @@
         <v>36</v>
       </c>
       <c r="C509" t="n">
-        <v>107.4</v>
+        <v>107.5</v>
       </c>
       <c r="D509" t="s">
         <v>20</v>
@@ -10176,7 +10179,7 @@
         <v>38</v>
       </c>
       <c r="C511" t="n">
-        <v>106.4</v>
+        <v>106.5</v>
       </c>
       <c r="D511" t="s">
         <v>39</v>
@@ -10227,7 +10230,7 @@
         <v>42</v>
       </c>
       <c r="C514" t="n">
-        <v>106.8</v>
+        <v>106.9</v>
       </c>
       <c r="D514" t="s">
         <v>39</v>
@@ -10329,7 +10332,7 @@
         <v>48</v>
       </c>
       <c r="C520" t="n">
-        <v>101.4</v>
+        <v>101.5</v>
       </c>
       <c r="D520" t="s">
         <v>39</v>
@@ -10346,7 +10349,7 @@
         <v>49</v>
       </c>
       <c r="C521" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="D521" t="s">
         <v>39</v>
@@ -10363,7 +10366,7 @@
         <v>50</v>
       </c>
       <c r="C522" t="n">
-        <v>99.5</v>
+        <v>99.6</v>
       </c>
       <c r="D522" t="s">
         <v>39</v>
@@ -10397,7 +10400,7 @@
         <v>53</v>
       </c>
       <c r="C524" t="n">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
       <c r="D524" t="s">
         <v>52</v>
@@ -10414,7 +10417,7 @@
         <v>54</v>
       </c>
       <c r="C525" t="n">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="D525" t="s">
         <v>52</v>
@@ -10431,7 +10434,7 @@
         <v>55</v>
       </c>
       <c r="C526" t="n">
-        <v>103.5</v>
+        <v>103.6</v>
       </c>
       <c r="D526" t="s">
         <v>52</v>
@@ -10448,7 +10451,7 @@
         <v>56</v>
       </c>
       <c r="C527" t="n">
-        <v>104.5</v>
+        <v>104.6</v>
       </c>
       <c r="D527" t="s">
         <v>52</v>
@@ -10550,7 +10553,7 @@
         <v>62</v>
       </c>
       <c r="C533" t="n">
-        <v>107.9</v>
+        <v>108</v>
       </c>
       <c r="D533" t="s">
         <v>52</v>
@@ -10754,7 +10757,7 @@
         <v>75</v>
       </c>
       <c r="C545" t="n">
-        <v>103</v>
+        <v>103.1</v>
       </c>
       <c r="D545" t="s">
         <v>65</v>
@@ -10771,7 +10774,7 @@
         <v>76</v>
       </c>
       <c r="C546" t="n">
-        <v>99.5</v>
+        <v>99.6</v>
       </c>
       <c r="D546" t="s">
         <v>65</v>
@@ -10788,7 +10791,7 @@
         <v>77</v>
       </c>
       <c r="C547" t="n">
-        <v>97.7</v>
+        <v>97.8</v>
       </c>
       <c r="D547" t="s">
         <v>78</v>
@@ -10805,7 +10808,7 @@
         <v>79</v>
       </c>
       <c r="C548" t="n">
-        <v>95.7</v>
+        <v>95.8</v>
       </c>
       <c r="D548" t="s">
         <v>78</v>
@@ -10822,7 +10825,7 @@
         <v>80</v>
       </c>
       <c r="C549" t="n">
-        <v>95.4</v>
+        <v>95.5</v>
       </c>
       <c r="D549" t="s">
         <v>78</v>
@@ -10856,7 +10859,7 @@
         <v>82</v>
       </c>
       <c r="C551" t="n">
-        <v>92.9</v>
+        <v>93</v>
       </c>
       <c r="D551" t="s">
         <v>78</v>
@@ -10873,7 +10876,7 @@
         <v>83</v>
       </c>
       <c r="C552" t="n">
-        <v>89</v>
+        <v>89.1</v>
       </c>
       <c r="D552" t="s">
         <v>78</v>
@@ -10890,7 +10893,7 @@
         <v>84</v>
       </c>
       <c r="C553" t="n">
-        <v>80.5</v>
+        <v>80.6</v>
       </c>
       <c r="D553" t="s">
         <v>78</v>
@@ -10907,7 +10910,7 @@
         <v>85</v>
       </c>
       <c r="C554" t="n">
-        <v>81.1</v>
+        <v>81.3</v>
       </c>
       <c r="D554" t="s">
         <v>78</v>
@@ -10924,7 +10927,7 @@
         <v>86</v>
       </c>
       <c r="C555" t="n">
-        <v>85.8</v>
+        <v>85.9</v>
       </c>
       <c r="D555" t="s">
         <v>78</v>
@@ -10941,7 +10944,7 @@
         <v>87</v>
       </c>
       <c r="C556" t="n">
-        <v>87.6</v>
+        <v>87.7</v>
       </c>
       <c r="D556" t="s">
         <v>78</v>
@@ -10958,7 +10961,7 @@
         <v>88</v>
       </c>
       <c r="C557" t="n">
-        <v>91</v>
+        <v>91.1</v>
       </c>
       <c r="D557" t="s">
         <v>78</v>
@@ -10992,7 +10995,7 @@
         <v>90</v>
       </c>
       <c r="C559" t="n">
-        <v>95.9</v>
+        <v>96</v>
       </c>
       <c r="D559" t="s">
         <v>91</v>
@@ -11009,7 +11012,7 @@
         <v>92</v>
       </c>
       <c r="C560" t="n">
-        <v>91.9</v>
+        <v>92</v>
       </c>
       <c r="D560" t="s">
         <v>91</v>
@@ -11026,7 +11029,7 @@
         <v>93</v>
       </c>
       <c r="C561" t="n">
-        <v>93.5</v>
+        <v>93.6</v>
       </c>
       <c r="D561" t="s">
         <v>91</v>
@@ -11043,7 +11046,7 @@
         <v>94</v>
       </c>
       <c r="C562" t="n">
-        <v>92.8</v>
+        <v>92.9</v>
       </c>
       <c r="D562" t="s">
         <v>91</v>
@@ -11060,7 +11063,7 @@
         <v>95</v>
       </c>
       <c r="C563" t="n">
-        <v>87.7</v>
+        <v>87.8</v>
       </c>
       <c r="D563" t="s">
         <v>91</v>
@@ -11077,7 +11080,7 @@
         <v>96</v>
       </c>
       <c r="C564" t="n">
-        <v>86.9</v>
+        <v>87.1</v>
       </c>
       <c r="D564" t="s">
         <v>91</v>
@@ -11094,7 +11097,7 @@
         <v>97</v>
       </c>
       <c r="C565" t="n">
-        <v>89.6</v>
+        <v>89.7</v>
       </c>
       <c r="D565" t="s">
         <v>91</v>
@@ -11111,7 +11114,7 @@
         <v>98</v>
       </c>
       <c r="C566" t="n">
-        <v>87.8</v>
+        <v>87.9</v>
       </c>
       <c r="D566" t="s">
         <v>91</v>
@@ -11128,7 +11131,7 @@
         <v>99</v>
       </c>
       <c r="C567" t="n">
-        <v>86.8</v>
+        <v>86.9</v>
       </c>
       <c r="D567" t="s">
         <v>91</v>
@@ -11145,7 +11148,7 @@
         <v>100</v>
       </c>
       <c r="C568" t="n">
-        <v>81.6</v>
+        <v>81.7</v>
       </c>
       <c r="D568" t="s">
         <v>91</v>
@@ -11162,7 +11165,7 @@
         <v>101</v>
       </c>
       <c r="C569" t="n">
-        <v>87.1</v>
+        <v>87.2</v>
       </c>
       <c r="D569" t="s">
         <v>91</v>
@@ -11179,7 +11182,7 @@
         <v>102</v>
       </c>
       <c r="C570" t="n">
-        <v>88.9</v>
+        <v>89</v>
       </c>
       <c r="D570" t="s">
         <v>91</v>
@@ -11196,7 +11199,7 @@
         <v>103</v>
       </c>
       <c r="C571" t="n">
-        <v>85.5</v>
+        <v>85.6</v>
       </c>
       <c r="D571" t="s">
         <v>104</v>
@@ -11213,7 +11216,7 @@
         <v>105</v>
       </c>
       <c r="C572" t="n">
-        <v>90.3</v>
+        <v>90.4</v>
       </c>
       <c r="D572" t="s">
         <v>104</v>
@@ -11230,7 +11233,7 @@
         <v>106</v>
       </c>
       <c r="C573" t="n">
-        <v>84.7</v>
+        <v>84.8</v>
       </c>
       <c r="D573" t="s">
         <v>104</v>
@@ -11247,7 +11250,7 @@
         <v>107</v>
       </c>
       <c r="C574" t="n">
-        <v>81.8</v>
+        <v>81.9</v>
       </c>
       <c r="D574" t="s">
         <v>104</v>
@@ -11264,7 +11267,7 @@
         <v>108</v>
       </c>
       <c r="C575" t="n">
-        <v>87</v>
+        <v>87.1</v>
       </c>
       <c r="D575" t="s">
         <v>104</v>
@@ -11281,7 +11284,7 @@
         <v>109</v>
       </c>
       <c r="C576" t="n">
-        <v>89.2</v>
+        <v>89.3</v>
       </c>
       <c r="D576" t="s">
         <v>104</v>
@@ -11298,7 +11301,7 @@
         <v>110</v>
       </c>
       <c r="C577" t="n">
-        <v>88.7</v>
+        <v>88.8</v>
       </c>
       <c r="D577" t="s">
         <v>104</v>
@@ -11315,7 +11318,7 @@
         <v>111</v>
       </c>
       <c r="C578" t="n">
-        <v>89.1</v>
+        <v>89.2</v>
       </c>
       <c r="D578" t="s">
         <v>104</v>
@@ -11332,7 +11335,7 @@
         <v>112</v>
       </c>
       <c r="C579" t="n">
-        <v>89</v>
+        <v>89.1</v>
       </c>
       <c r="D579" t="s">
         <v>104</v>
@@ -11349,7 +11352,7 @@
         <v>113</v>
       </c>
       <c r="C580" t="n">
-        <v>90.1</v>
+        <v>90.2</v>
       </c>
       <c r="D580" t="s">
         <v>104</v>
@@ -11366,7 +11369,7 @@
         <v>114</v>
       </c>
       <c r="C581" t="n">
-        <v>90.9</v>
+        <v>91</v>
       </c>
       <c r="D581" t="s">
         <v>104</v>
@@ -11383,7 +11386,7 @@
         <v>115</v>
       </c>
       <c r="C582" t="n">
-        <v>97.1</v>
+        <v>97.2</v>
       </c>
       <c r="D582" t="s">
         <v>104</v>
@@ -11400,7 +11403,7 @@
         <v>116</v>
       </c>
       <c r="C583" t="n">
-        <v>93.6</v>
+        <v>93.7</v>
       </c>
       <c r="D583" t="s">
         <v>117</v>
@@ -11417,7 +11420,7 @@
         <v>118</v>
       </c>
       <c r="C584" t="n">
-        <v>95.9</v>
+        <v>96</v>
       </c>
       <c r="D584" t="s">
         <v>117</v>
@@ -11434,7 +11437,7 @@
         <v>119</v>
       </c>
       <c r="C585" t="n">
-        <v>97.1</v>
+        <v>97.2</v>
       </c>
       <c r="D585" t="s">
         <v>117</v>
@@ -11485,7 +11488,7 @@
         <v>122</v>
       </c>
       <c r="C588" t="n">
-        <v>103.5</v>
+        <v>103.6</v>
       </c>
       <c r="D588" t="s">
         <v>117</v>
@@ -11519,7 +11522,7 @@
         <v>124</v>
       </c>
       <c r="C590" t="n">
-        <v>108.6</v>
+        <v>108.7</v>
       </c>
       <c r="D590" t="s">
         <v>117</v>
@@ -11587,7 +11590,7 @@
         <v>128</v>
       </c>
       <c r="C594" t="n">
-        <v>101.9</v>
+        <v>102</v>
       </c>
       <c r="D594" t="s">
         <v>117</v>
@@ -11604,7 +11607,7 @@
         <v>129</v>
       </c>
       <c r="C595" t="n">
-        <v>107.6</v>
+        <v>107.7</v>
       </c>
       <c r="D595" t="s">
         <v>130</v>
@@ -11672,7 +11675,7 @@
         <v>134</v>
       </c>
       <c r="C599" t="n">
-        <v>103.4</v>
+        <v>103.5</v>
       </c>
       <c r="D599" t="s">
         <v>130</v>
@@ -11689,7 +11692,7 @@
         <v>135</v>
       </c>
       <c r="C600" t="n">
-        <v>107.8</v>
+        <v>107.9</v>
       </c>
       <c r="D600" t="s">
         <v>130</v>
@@ -11723,7 +11726,7 @@
         <v>137</v>
       </c>
       <c r="C602" t="n">
-        <v>101.5</v>
+        <v>101.6</v>
       </c>
       <c r="D602" t="s">
         <v>130</v>
@@ -11757,7 +11760,7 @@
         <v>139</v>
       </c>
       <c r="C604" t="n">
-        <v>108.9</v>
+        <v>109</v>
       </c>
       <c r="D604" t="s">
         <v>130</v>
@@ -11808,7 +11811,7 @@
         <v>142</v>
       </c>
       <c r="C607" t="n">
-        <v>109.8</v>
+        <v>109.9</v>
       </c>
       <c r="D607" t="s">
         <v>143</v>
@@ -11944,7 +11947,7 @@
         <v>151</v>
       </c>
       <c r="C615" t="n">
-        <v>109.5</v>
+        <v>109.6</v>
       </c>
       <c r="D615" t="s">
         <v>143</v>
@@ -12063,7 +12066,7 @@
         <v>159</v>
       </c>
       <c r="C622" t="n">
-        <v>110.4</v>
+        <v>110.5</v>
       </c>
       <c r="D622" t="s">
         <v>156</v>
@@ -12148,7 +12151,7 @@
         <v>164</v>
       </c>
       <c r="C627" t="n">
-        <v>110.2</v>
+        <v>110.3</v>
       </c>
       <c r="D627" t="s">
         <v>156</v>
@@ -12199,7 +12202,7 @@
         <v>167</v>
       </c>
       <c r="C630" t="n">
-        <v>106.6</v>
+        <v>106.7</v>
       </c>
       <c r="D630" t="s">
         <v>156</v>
@@ -12216,7 +12219,7 @@
         <v>168</v>
       </c>
       <c r="C631" t="n">
-        <v>102.8</v>
+        <v>102.9</v>
       </c>
       <c r="D631" t="s">
         <v>169</v>
@@ -12233,7 +12236,7 @@
         <v>170</v>
       </c>
       <c r="C632" t="n">
-        <v>102</v>
+        <v>102.1</v>
       </c>
       <c r="D632" t="s">
         <v>169</v>
@@ -12267,7 +12270,7 @@
         <v>172</v>
       </c>
       <c r="C634" t="n">
-        <v>104.2</v>
+        <v>104.3</v>
       </c>
       <c r="D634" t="s">
         <v>169</v>
@@ -12284,7 +12287,7 @@
         <v>173</v>
       </c>
       <c r="C635" t="n">
-        <v>97.2</v>
+        <v>97.3</v>
       </c>
       <c r="D635" t="s">
         <v>169</v>
@@ -12301,7 +12304,7 @@
         <v>174</v>
       </c>
       <c r="C636" t="n">
-        <v>102</v>
+        <v>102.1</v>
       </c>
       <c r="D636" t="s">
         <v>169</v>
@@ -12335,7 +12338,7 @@
         <v>176</v>
       </c>
       <c r="C638" t="n">
-        <v>92.4</v>
+        <v>92.5</v>
       </c>
       <c r="D638" t="s">
         <v>169</v>
@@ -12369,7 +12372,7 @@
         <v>178</v>
       </c>
       <c r="C640" t="n">
-        <v>87.2</v>
+        <v>87.3</v>
       </c>
       <c r="D640" t="s">
         <v>169</v>
@@ -12386,7 +12389,7 @@
         <v>179</v>
       </c>
       <c r="C641" t="n">
-        <v>76.9</v>
+        <v>77</v>
       </c>
       <c r="D641" t="s">
         <v>169</v>
@@ -12403,7 +12406,7 @@
         <v>180</v>
       </c>
       <c r="C642" t="n">
-        <v>76.3</v>
+        <v>76.5</v>
       </c>
       <c r="D642" t="s">
         <v>169</v>
@@ -12420,7 +12423,7 @@
         <v>181</v>
       </c>
       <c r="C643" t="n">
-        <v>76.7</v>
+        <v>76.8</v>
       </c>
       <c r="D643" t="s">
         <v>182</v>
@@ -12437,7 +12440,7 @@
         <v>183</v>
       </c>
       <c r="C644" t="n">
-        <v>74</v>
+        <v>74.2</v>
       </c>
       <c r="D644" t="s">
         <v>182</v>
@@ -12454,7 +12457,7 @@
         <v>184</v>
       </c>
       <c r="C645" t="n">
-        <v>74.4</v>
+        <v>74.6</v>
       </c>
       <c r="D645" t="s">
         <v>182</v>
@@ -12471,7 +12474,7 @@
         <v>185</v>
       </c>
       <c r="C646" t="n">
-        <v>73.2</v>
+        <v>73.4</v>
       </c>
       <c r="D646" t="s">
         <v>182</v>
@@ -12488,7 +12491,7 @@
         <v>186</v>
       </c>
       <c r="C647" t="n">
-        <v>76</v>
+        <v>76.1</v>
       </c>
       <c r="D647" t="s">
         <v>182</v>
@@ -12505,7 +12508,7 @@
         <v>187</v>
       </c>
       <c r="C648" t="n">
-        <v>77.9</v>
+        <v>78</v>
       </c>
       <c r="D648" t="s">
         <v>182</v>
@@ -12522,7 +12525,7 @@
         <v>188</v>
       </c>
       <c r="C649" t="n">
-        <v>81.4</v>
+        <v>81.5</v>
       </c>
       <c r="D649" t="s">
         <v>182</v>
@@ -12539,7 +12542,7 @@
         <v>189</v>
       </c>
       <c r="C650" t="n">
-        <v>86</v>
+        <v>86.1</v>
       </c>
       <c r="D650" t="s">
         <v>182</v>
@@ -12556,7 +12559,7 @@
         <v>190</v>
       </c>
       <c r="C651" t="n">
-        <v>90.9</v>
+        <v>91</v>
       </c>
       <c r="D651" t="s">
         <v>182</v>
@@ -12573,7 +12576,7 @@
         <v>191</v>
       </c>
       <c r="C652" t="n">
-        <v>94.3</v>
+        <v>94.4</v>
       </c>
       <c r="D652" t="s">
         <v>182</v>
@@ -12590,7 +12593,7 @@
         <v>200</v>
       </c>
       <c r="C653" t="n">
-        <v>87.7</v>
+        <v>87.9</v>
       </c>
       <c r="D653" t="s">
         <v>7</v>
@@ -12607,7 +12610,7 @@
         <v>193</v>
       </c>
       <c r="C654" t="n">
-        <v>89</v>
+        <v>89.2</v>
       </c>
       <c r="D654" t="s">
         <v>7</v>
@@ -12624,7 +12627,7 @@
         <v>194</v>
       </c>
       <c r="C655" t="n">
-        <v>88.5</v>
+        <v>88.8</v>
       </c>
       <c r="D655" t="s">
         <v>7</v>
@@ -12641,7 +12644,7 @@
         <v>195</v>
       </c>
       <c r="C656" t="n">
-        <v>88.1</v>
+        <v>88.3</v>
       </c>
       <c r="D656" t="s">
         <v>7</v>
@@ -12658,7 +12661,7 @@
         <v>196</v>
       </c>
       <c r="C657" t="n">
-        <v>88.4</v>
+        <v>88.6</v>
       </c>
       <c r="D657" t="s">
         <v>7</v>
@@ -12675,7 +12678,7 @@
         <v>197</v>
       </c>
       <c r="C658" t="n">
-        <v>88.9</v>
+        <v>89.1</v>
       </c>
       <c r="D658" t="s">
         <v>7</v>
@@ -12692,7 +12695,7 @@
         <v>6</v>
       </c>
       <c r="C659" t="n">
-        <v>87.5</v>
+        <v>87.7</v>
       </c>
       <c r="D659" t="s">
         <v>7</v>
@@ -12709,7 +12712,7 @@
         <v>9</v>
       </c>
       <c r="C660" t="n">
-        <v>92.1</v>
+        <v>92.3</v>
       </c>
       <c r="D660" t="s">
         <v>7</v>
@@ -12726,7 +12729,7 @@
         <v>11</v>
       </c>
       <c r="C661" t="n">
-        <v>92.8</v>
+        <v>93</v>
       </c>
       <c r="D661" t="s">
         <v>7</v>
@@ -12743,7 +12746,7 @@
         <v>13</v>
       </c>
       <c r="C662" t="n">
-        <v>89.7</v>
+        <v>89.9</v>
       </c>
       <c r="D662" t="s">
         <v>7</v>
@@ -12760,7 +12763,7 @@
         <v>15</v>
       </c>
       <c r="C663" t="n">
-        <v>90.6</v>
+        <v>90.8</v>
       </c>
       <c r="D663" t="s">
         <v>7</v>
@@ -12777,7 +12780,7 @@
         <v>17</v>
       </c>
       <c r="C664" t="n">
-        <v>91.3</v>
+        <v>91.5</v>
       </c>
       <c r="D664" t="s">
         <v>7</v>
@@ -12794,7 +12797,7 @@
         <v>19</v>
       </c>
       <c r="C665" t="n">
-        <v>90.2</v>
+        <v>90.4</v>
       </c>
       <c r="D665" t="s">
         <v>20</v>
@@ -12811,7 +12814,7 @@
         <v>22</v>
       </c>
       <c r="C666" t="n">
-        <v>92.2</v>
+        <v>92.4</v>
       </c>
       <c r="D666" t="s">
         <v>20</v>
@@ -12828,7 +12831,7 @@
         <v>24</v>
       </c>
       <c r="C667" t="n">
-        <v>94.7</v>
+        <v>94.8</v>
       </c>
       <c r="D667" t="s">
         <v>20</v>
@@ -12845,7 +12848,7 @@
         <v>26</v>
       </c>
       <c r="C668" t="n">
-        <v>96.1</v>
+        <v>96.2</v>
       </c>
       <c r="D668" t="s">
         <v>20</v>
@@ -12862,7 +12865,7 @@
         <v>28</v>
       </c>
       <c r="C669" t="n">
-        <v>97.5</v>
+        <v>97.6</v>
       </c>
       <c r="D669" t="s">
         <v>20</v>
@@ -12879,7 +12882,7 @@
         <v>30</v>
       </c>
       <c r="C670" t="n">
-        <v>97.6</v>
+        <v>97.7</v>
       </c>
       <c r="D670" t="s">
         <v>20</v>
@@ -12896,7 +12899,7 @@
         <v>32</v>
       </c>
       <c r="C671" t="n">
-        <v>98.9</v>
+        <v>99</v>
       </c>
       <c r="D671" t="s">
         <v>20</v>
@@ -12913,7 +12916,7 @@
         <v>33</v>
       </c>
       <c r="C672" t="n">
-        <v>98</v>
+        <v>98.1</v>
       </c>
       <c r="D672" t="s">
         <v>20</v>
@@ -12930,7 +12933,7 @@
         <v>34</v>
       </c>
       <c r="C673" t="n">
-        <v>100.6</v>
+        <v>100.7</v>
       </c>
       <c r="D673" t="s">
         <v>20</v>
@@ -12947,7 +12950,7 @@
         <v>35</v>
       </c>
       <c r="C674" t="n">
-        <v>104.5</v>
+        <v>104.6</v>
       </c>
       <c r="D674" t="s">
         <v>20</v>
@@ -12964,7 +12967,7 @@
         <v>36</v>
       </c>
       <c r="C675" t="n">
-        <v>103</v>
+        <v>103.1</v>
       </c>
       <c r="D675" t="s">
         <v>20</v>
@@ -12981,7 +12984,7 @@
         <v>37</v>
       </c>
       <c r="C676" t="n">
-        <v>106</v>
+        <v>106.1</v>
       </c>
       <c r="D676" t="s">
         <v>20</v>
@@ -13015,7 +13018,7 @@
         <v>40</v>
       </c>
       <c r="C678" t="n">
-        <v>103.4</v>
+        <v>103.5</v>
       </c>
       <c r="D678" t="s">
         <v>39</v>
@@ -13032,7 +13035,7 @@
         <v>41</v>
       </c>
       <c r="C679" t="n">
-        <v>103.8</v>
+        <v>103.9</v>
       </c>
       <c r="D679" t="s">
         <v>39</v>
@@ -13049,7 +13052,7 @@
         <v>42</v>
       </c>
       <c r="C680" t="n">
-        <v>105.8</v>
+        <v>105.9</v>
       </c>
       <c r="D680" t="s">
         <v>39</v>
@@ -13117,7 +13120,7 @@
         <v>46</v>
       </c>
       <c r="C684" t="n">
-        <v>105.1</v>
+        <v>105.2</v>
       </c>
       <c r="D684" t="s">
         <v>39</v>
@@ -13185,7 +13188,7 @@
         <v>50</v>
       </c>
       <c r="C688" t="n">
-        <v>105.3</v>
+        <v>105.4</v>
       </c>
       <c r="D688" t="s">
         <v>39</v>
@@ -13236,7 +13239,7 @@
         <v>54</v>
       </c>
       <c r="C691" t="n">
-        <v>107.8</v>
+        <v>107.9</v>
       </c>
       <c r="D691" t="s">
         <v>52</v>
@@ -13270,7 +13273,7 @@
         <v>56</v>
       </c>
       <c r="C693" t="n">
-        <v>108.3</v>
+        <v>108.4</v>
       </c>
       <c r="D693" t="s">
         <v>52</v>
@@ -13338,7 +13341,7 @@
         <v>60</v>
       </c>
       <c r="C697" t="n">
-        <v>114.1</v>
+        <v>114</v>
       </c>
       <c r="D697" t="s">
         <v>52</v>
@@ -13406,7 +13409,7 @@
         <v>64</v>
       </c>
       <c r="C701" t="n">
-        <v>118.1</v>
+        <v>118</v>
       </c>
       <c r="D701" t="s">
         <v>65</v>
@@ -13423,7 +13426,7 @@
         <v>66</v>
       </c>
       <c r="C702" t="n">
-        <v>118.1</v>
+        <v>118</v>
       </c>
       <c r="D702" t="s">
         <v>65</v>
@@ -13440,7 +13443,7 @@
         <v>67</v>
       </c>
       <c r="C703" t="n">
-        <v>119.1</v>
+        <v>119</v>
       </c>
       <c r="D703" t="s">
         <v>65</v>
@@ -13474,7 +13477,7 @@
         <v>69</v>
       </c>
       <c r="C705" t="n">
-        <v>116.9</v>
+        <v>116.8</v>
       </c>
       <c r="D705" t="s">
         <v>65</v>
@@ -13491,7 +13494,7 @@
         <v>70</v>
       </c>
       <c r="C706" t="n">
-        <v>115.8</v>
+        <v>115.7</v>
       </c>
       <c r="D706" t="s">
         <v>65</v>
@@ -13576,7 +13579,7 @@
         <v>75</v>
       </c>
       <c r="C711" t="n">
-        <v>114.7</v>
+        <v>114.6</v>
       </c>
       <c r="D711" t="s">
         <v>65</v>
@@ -13695,7 +13698,7 @@
         <v>83</v>
       </c>
       <c r="C718" t="n">
-        <v>102.8</v>
+        <v>102.9</v>
       </c>
       <c r="D718" t="s">
         <v>78</v>
@@ -13729,7 +13732,7 @@
         <v>85</v>
       </c>
       <c r="C720" t="n">
-        <v>100.7</v>
+        <v>100.8</v>
       </c>
       <c r="D720" t="s">
         <v>78</v>
@@ -13746,7 +13749,7 @@
         <v>86</v>
       </c>
       <c r="C721" t="n">
-        <v>97.5</v>
+        <v>97.6</v>
       </c>
       <c r="D721" t="s">
         <v>78</v>
@@ -13814,7 +13817,7 @@
         <v>90</v>
       </c>
       <c r="C725" t="n">
-        <v>99.8</v>
+        <v>99.9</v>
       </c>
       <c r="D725" t="s">
         <v>91</v>
@@ -13831,7 +13834,7 @@
         <v>92</v>
       </c>
       <c r="C726" t="n">
-        <v>104.7</v>
+        <v>104.8</v>
       </c>
       <c r="D726" t="s">
         <v>91</v>
@@ -13848,7 +13851,7 @@
         <v>93</v>
       </c>
       <c r="C727" t="n">
-        <v>106.6</v>
+        <v>106.7</v>
       </c>
       <c r="D727" t="s">
         <v>91</v>
@@ -13865,7 +13868,7 @@
         <v>94</v>
       </c>
       <c r="C728" t="n">
-        <v>105.6</v>
+        <v>105.7</v>
       </c>
       <c r="D728" t="s">
         <v>91</v>
@@ -13882,7 +13885,7 @@
         <v>95</v>
       </c>
       <c r="C729" t="n">
-        <v>104.8</v>
+        <v>104.9</v>
       </c>
       <c r="D729" t="s">
         <v>91</v>
@@ -13899,7 +13902,7 @@
         <v>96</v>
       </c>
       <c r="C730" t="n">
-        <v>103.7</v>
+        <v>103.8</v>
       </c>
       <c r="D730" t="s">
         <v>91</v>
@@ -13916,7 +13919,7 @@
         <v>97</v>
       </c>
       <c r="C731" t="n">
-        <v>104.3</v>
+        <v>104.4</v>
       </c>
       <c r="D731" t="s">
         <v>91</v>
@@ -13933,7 +13936,7 @@
         <v>98</v>
       </c>
       <c r="C732" t="n">
-        <v>101.3</v>
+        <v>101.4</v>
       </c>
       <c r="D732" t="s">
         <v>91</v>
@@ -13950,7 +13953,7 @@
         <v>99</v>
       </c>
       <c r="C733" t="n">
-        <v>101.7</v>
+        <v>101.8</v>
       </c>
       <c r="D733" t="s">
         <v>91</v>
@@ -13967,7 +13970,7 @@
         <v>100</v>
       </c>
       <c r="C734" t="n">
-        <v>99.1</v>
+        <v>99.2</v>
       </c>
       <c r="D734" t="s">
         <v>91</v>
@@ -13984,7 +13987,7 @@
         <v>101</v>
       </c>
       <c r="C735" t="n">
-        <v>99.6</v>
+        <v>99.7</v>
       </c>
       <c r="D735" t="s">
         <v>91</v>
@@ -14001,7 +14004,7 @@
         <v>102</v>
       </c>
       <c r="C736" t="n">
-        <v>98.2</v>
+        <v>98.3</v>
       </c>
       <c r="D736" t="s">
         <v>91</v>
@@ -14018,7 +14021,7 @@
         <v>103</v>
       </c>
       <c r="C737" t="n">
-        <v>95.6</v>
+        <v>95.7</v>
       </c>
       <c r="D737" t="s">
         <v>104</v>
@@ -14035,7 +14038,7 @@
         <v>105</v>
       </c>
       <c r="C738" t="n">
-        <v>96.4</v>
+        <v>96.5</v>
       </c>
       <c r="D738" t="s">
         <v>104</v>
@@ -14052,7 +14055,7 @@
         <v>106</v>
       </c>
       <c r="C739" t="n">
-        <v>93.5</v>
+        <v>93.7</v>
       </c>
       <c r="D739" t="s">
         <v>104</v>
@@ -14069,7 +14072,7 @@
         <v>107</v>
       </c>
       <c r="C740" t="n">
-        <v>94.1</v>
+        <v>94.2</v>
       </c>
       <c r="D740" t="s">
         <v>104</v>
@@ -14086,7 +14089,7 @@
         <v>108</v>
       </c>
       <c r="C741" t="n">
-        <v>95.8</v>
+        <v>95.9</v>
       </c>
       <c r="D741" t="s">
         <v>104</v>
@@ -14103,7 +14106,7 @@
         <v>109</v>
       </c>
       <c r="C742" t="n">
-        <v>97.3</v>
+        <v>97.4</v>
       </c>
       <c r="D742" t="s">
         <v>104</v>
@@ -14120,7 +14123,7 @@
         <v>110</v>
       </c>
       <c r="C743" t="n">
-        <v>101</v>
+        <v>101.1</v>
       </c>
       <c r="D743" t="s">
         <v>104</v>
@@ -14137,7 +14140,7 @@
         <v>111</v>
       </c>
       <c r="C744" t="n">
-        <v>101.3</v>
+        <v>101.4</v>
       </c>
       <c r="D744" t="s">
         <v>104</v>
@@ -14171,7 +14174,7 @@
         <v>113</v>
       </c>
       <c r="C746" t="n">
-        <v>100.8</v>
+        <v>100.9</v>
       </c>
       <c r="D746" t="s">
         <v>104</v>
@@ -14188,7 +14191,7 @@
         <v>114</v>
       </c>
       <c r="C747" t="n">
-        <v>96.3</v>
+        <v>96.4</v>
       </c>
       <c r="D747" t="s">
         <v>104</v>
@@ -14205,7 +14208,7 @@
         <v>115</v>
       </c>
       <c r="C748" t="n">
-        <v>97.2</v>
+        <v>97.3</v>
       </c>
       <c r="D748" t="s">
         <v>104</v>
@@ -14222,7 +14225,7 @@
         <v>116</v>
       </c>
       <c r="C749" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="D749" t="s">
         <v>117</v>
@@ -14239,7 +14242,7 @@
         <v>118</v>
       </c>
       <c r="C750" t="n">
-        <v>103.8</v>
+        <v>103.9</v>
       </c>
       <c r="D750" t="s">
         <v>117</v>
@@ -14256,7 +14259,7 @@
         <v>119</v>
       </c>
       <c r="C751" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="D751" t="s">
         <v>117</v>
@@ -14290,7 +14293,7 @@
         <v>121</v>
       </c>
       <c r="C753" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="D753" t="s">
         <v>117</v>
@@ -14341,7 +14344,7 @@
         <v>124</v>
       </c>
       <c r="C756" t="n">
-        <v>102.3</v>
+        <v>102.4</v>
       </c>
       <c r="D756" t="s">
         <v>117</v>
@@ -14375,7 +14378,7 @@
         <v>126</v>
       </c>
       <c r="C758" t="n">
-        <v>103.3</v>
+        <v>103.4</v>
       </c>
       <c r="D758" t="s">
         <v>117</v>
@@ -14409,7 +14412,7 @@
         <v>128</v>
       </c>
       <c r="C760" t="n">
-        <v>105</v>
+        <v>105.1</v>
       </c>
       <c r="D760" t="s">
         <v>117</v>
@@ -14443,7 +14446,7 @@
         <v>131</v>
       </c>
       <c r="C762" t="n">
-        <v>103.8</v>
+        <v>103.9</v>
       </c>
       <c r="D762" t="s">
         <v>130</v>
@@ -14477,7 +14480,7 @@
         <v>133</v>
       </c>
       <c r="C764" t="n">
-        <v>101.3</v>
+        <v>101.4</v>
       </c>
       <c r="D764" t="s">
         <v>130</v>
@@ -14715,7 +14718,7 @@
         <v>148</v>
       </c>
       <c r="C778" t="n">
-        <v>107.6</v>
+        <v>107.7</v>
       </c>
       <c r="D778" t="s">
         <v>143</v>
@@ -14834,7 +14837,7 @@
         <v>155</v>
       </c>
       <c r="C785" t="n">
-        <v>105.4</v>
+        <v>105.5</v>
       </c>
       <c r="D785" t="s">
         <v>156</v>
@@ -14885,7 +14888,7 @@
         <v>159</v>
       </c>
       <c r="C788" t="n">
-        <v>112.3</v>
+        <v>112.2</v>
       </c>
       <c r="D788" t="s">
         <v>156</v>
@@ -14919,7 +14922,7 @@
         <v>161</v>
       </c>
       <c r="C790" t="n">
-        <v>110.7</v>
+        <v>110.6</v>
       </c>
       <c r="D790" t="s">
         <v>156</v>
@@ -14987,7 +14990,7 @@
         <v>165</v>
       </c>
       <c r="C794" t="n">
-        <v>107.9</v>
+        <v>107.8</v>
       </c>
       <c r="D794" t="s">
         <v>156</v>
@@ -15038,7 +15041,7 @@
         <v>168</v>
       </c>
       <c r="C797" t="n">
-        <v>101.5</v>
+        <v>101.6</v>
       </c>
       <c r="D797" t="s">
         <v>169</v>
@@ -15055,7 +15058,7 @@
         <v>170</v>
       </c>
       <c r="C798" t="n">
-        <v>98.3</v>
+        <v>98.4</v>
       </c>
       <c r="D798" t="s">
         <v>169</v>
@@ -15089,7 +15092,7 @@
         <v>172</v>
       </c>
       <c r="C800" t="n">
-        <v>97.8</v>
+        <v>97.9</v>
       </c>
       <c r="D800" t="s">
         <v>169</v>
@@ -15106,7 +15109,7 @@
         <v>173</v>
       </c>
       <c r="C801" t="n">
-        <v>95.2</v>
+        <v>95.3</v>
       </c>
       <c r="D801" t="s">
         <v>169</v>
@@ -15123,7 +15126,7 @@
         <v>174</v>
       </c>
       <c r="C802" t="n">
-        <v>89.6</v>
+        <v>89.7</v>
       </c>
       <c r="D802" t="s">
         <v>169</v>
@@ -15140,7 +15143,7 @@
         <v>175</v>
       </c>
       <c r="C803" t="n">
-        <v>83.6</v>
+        <v>83.9</v>
       </c>
       <c r="D803" t="s">
         <v>169</v>
@@ -15157,7 +15160,7 @@
         <v>176</v>
       </c>
       <c r="C804" t="n">
-        <v>86</v>
+        <v>86.2</v>
       </c>
       <c r="D804" t="s">
         <v>169</v>
@@ -15174,7 +15177,7 @@
         <v>177</v>
       </c>
       <c r="C805" t="n">
-        <v>88.1</v>
+        <v>88.3</v>
       </c>
       <c r="D805" t="s">
         <v>169</v>
@@ -15191,7 +15194,7 @@
         <v>178</v>
       </c>
       <c r="C806" t="n">
-        <v>81.1</v>
+        <v>81.4</v>
       </c>
       <c r="D806" t="s">
         <v>169</v>
@@ -15208,7 +15211,7 @@
         <v>179</v>
       </c>
       <c r="C807" t="n">
-        <v>81.9</v>
+        <v>82.2</v>
       </c>
       <c r="D807" t="s">
         <v>169</v>
@@ -15225,7 +15228,7 @@
         <v>180</v>
       </c>
       <c r="C808" t="n">
-        <v>84.3</v>
+        <v>84.5</v>
       </c>
       <c r="D808" t="s">
         <v>169</v>
@@ -15242,7 +15245,7 @@
         <v>181</v>
       </c>
       <c r="C809" t="n">
-        <v>88.4</v>
+        <v>88.6</v>
       </c>
       <c r="D809" t="s">
         <v>182</v>
@@ -15259,7 +15262,7 @@
         <v>183</v>
       </c>
       <c r="C810" t="n">
-        <v>88.2</v>
+        <v>88.4</v>
       </c>
       <c r="D810" t="s">
         <v>182</v>
@@ -15276,7 +15279,7 @@
         <v>184</v>
       </c>
       <c r="C811" t="n">
-        <v>87.8</v>
+        <v>88</v>
       </c>
       <c r="D811" t="s">
         <v>182</v>
@@ -15293,7 +15296,7 @@
         <v>185</v>
       </c>
       <c r="C812" t="n">
-        <v>83.8</v>
+        <v>84</v>
       </c>
       <c r="D812" t="s">
         <v>182</v>
@@ -15310,7 +15313,7 @@
         <v>186</v>
       </c>
       <c r="C813" t="n">
-        <v>89.7</v>
+        <v>90</v>
       </c>
       <c r="D813" t="s">
         <v>182</v>
@@ -15327,7 +15330,7 @@
         <v>187</v>
       </c>
       <c r="C814" t="n">
-        <v>91.3</v>
+        <v>91.5</v>
       </c>
       <c r="D814" t="s">
         <v>182</v>
@@ -15344,7 +15347,7 @@
         <v>188</v>
       </c>
       <c r="C815" t="n">
-        <v>95.2</v>
+        <v>95.3</v>
       </c>
       <c r="D815" t="s">
         <v>182</v>
@@ -15361,7 +15364,7 @@
         <v>189</v>
       </c>
       <c r="C816" t="n">
-        <v>98.9</v>
+        <v>99</v>
       </c>
       <c r="D816" t="s">
         <v>182</v>
@@ -15378,7 +15381,7 @@
         <v>190</v>
       </c>
       <c r="C817" t="n">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="D817" t="s">
         <v>182</v>
@@ -15429,7 +15432,7 @@
         <v>203</v>
       </c>
       <c r="C820" t="n">
-        <v>102</v>
+        <v>102.1</v>
       </c>
       <c r="D820" t="s">
         <v>182</v>
@@ -15446,7 +15449,7 @@
         <v>204</v>
       </c>
       <c r="C821" t="n">
-        <v>102.2</v>
+        <v>102.3</v>
       </c>
       <c r="D821" t="s">
         <v>205</v>
@@ -15480,7 +15483,7 @@
         <v>207</v>
       </c>
       <c r="C823" t="n">
-        <v>104.4</v>
+        <v>104.5</v>
       </c>
       <c r="D823" t="s">
         <v>205</v>
@@ -15497,7 +15500,7 @@
         <v>208</v>
       </c>
       <c r="C824" t="n">
-        <v>103.4</v>
+        <v>103.5</v>
       </c>
       <c r="D824" t="s">
         <v>205</v>
@@ -15531,7 +15534,7 @@
         <v>210</v>
       </c>
       <c r="C826" t="n">
-        <v>109.8</v>
+        <v>109.9</v>
       </c>
       <c r="D826" t="s">
         <v>205</v>
@@ -15548,7 +15551,7 @@
         <v>211</v>
       </c>
       <c r="C827" t="n">
-        <v>108.8</v>
+        <v>108.9</v>
       </c>
       <c r="D827" t="s">
         <v>205</v>
@@ -15684,7 +15687,7 @@
         <v>220</v>
       </c>
       <c r="C835" t="n">
-        <v>111.2</v>
+        <v>111.3</v>
       </c>
       <c r="D835" t="s">
         <v>218</v>
@@ -15803,7 +15806,7 @@
         <v>227</v>
       </c>
       <c r="C842" t="n">
-        <v>95.5</v>
+        <v>95.6</v>
       </c>
       <c r="D842" t="s">
         <v>218</v>
@@ -15837,7 +15840,7 @@
         <v>229</v>
       </c>
       <c r="C844" t="n">
-        <v>93.6</v>
+        <v>93.7</v>
       </c>
       <c r="D844" t="s">
         <v>218</v>
@@ -15854,7 +15857,7 @@
         <v>230</v>
       </c>
       <c r="C845" t="n">
-        <v>90.5</v>
+        <v>90.6</v>
       </c>
       <c r="D845" t="s">
         <v>231</v>
@@ -15888,7 +15891,7 @@
         <v>233</v>
       </c>
       <c r="C847" t="n">
-        <v>99.1</v>
+        <v>99.2</v>
       </c>
       <c r="D847" t="s">
         <v>231</v>
@@ -15956,7 +15959,7 @@
         <v>237</v>
       </c>
       <c r="C851" t="n">
-        <v>94.3</v>
+        <v>94.4</v>
       </c>
       <c r="D851" t="s">
         <v>231</v>
@@ -15990,7 +15993,7 @@
         <v>239</v>
       </c>
       <c r="C853" t="n">
-        <v>95</v>
+        <v>95.1</v>
       </c>
       <c r="D853" t="s">
         <v>231</v>
@@ -16007,7 +16010,7 @@
         <v>240</v>
       </c>
       <c r="C854" t="n">
-        <v>90.9</v>
+        <v>91</v>
       </c>
       <c r="D854" t="s">
         <v>231</v>
@@ -16024,7 +16027,7 @@
         <v>241</v>
       </c>
       <c r="C855" t="n">
-        <v>85.5</v>
+        <v>85.6</v>
       </c>
       <c r="D855" t="s">
         <v>231</v>
@@ -16041,7 +16044,7 @@
         <v>242</v>
       </c>
       <c r="C856" t="n">
-        <v>87.3</v>
+        <v>87.4</v>
       </c>
       <c r="D856" t="s">
         <v>231</v>
@@ -16058,7 +16061,7 @@
         <v>243</v>
       </c>
       <c r="C857" t="n">
-        <v>87.3</v>
+        <v>87.4</v>
       </c>
       <c r="D857" t="s">
         <v>244</v>
@@ -16075,7 +16078,7 @@
         <v>245</v>
       </c>
       <c r="C858" t="n">
-        <v>92.6</v>
+        <v>92.7</v>
       </c>
       <c r="D858" t="s">
         <v>244</v>
@@ -16092,7 +16095,7 @@
         <v>246</v>
       </c>
       <c r="C859" t="n">
-        <v>93.9</v>
+        <v>94</v>
       </c>
       <c r="D859" t="s">
         <v>244</v>
@@ -16109,7 +16112,7 @@
         <v>247</v>
       </c>
       <c r="C860" t="n">
-        <v>92.8</v>
+        <v>92.9</v>
       </c>
       <c r="D860" t="s">
         <v>244</v>
@@ -16126,7 +16129,7 @@
         <v>248</v>
       </c>
       <c r="C861" t="n">
-        <v>92.6</v>
+        <v>92.7</v>
       </c>
       <c r="D861" t="s">
         <v>244</v>
@@ -16143,7 +16146,7 @@
         <v>249</v>
       </c>
       <c r="C862" t="n">
-        <v>95.1</v>
+        <v>95.2</v>
       </c>
       <c r="D862" t="s">
         <v>244</v>
@@ -16160,7 +16163,7 @@
         <v>250</v>
       </c>
       <c r="C863" t="n">
-        <v>96.9</v>
+        <v>97</v>
       </c>
       <c r="D863" t="s">
         <v>244</v>
@@ -16177,7 +16180,7 @@
         <v>251</v>
       </c>
       <c r="C864" t="n">
-        <v>97.5</v>
+        <v>97.6</v>
       </c>
       <c r="D864" t="s">
         <v>244</v>
@@ -16211,7 +16214,7 @@
         <v>253</v>
       </c>
       <c r="C866" t="n">
-        <v>99.3</v>
+        <v>99.4</v>
       </c>
       <c r="D866" t="s">
         <v>244</v>
@@ -16228,7 +16231,7 @@
         <v>254</v>
       </c>
       <c r="C867" t="n">
-        <v>102.1</v>
+        <v>102.2</v>
       </c>
       <c r="D867" t="s">
         <v>244</v>
@@ -16245,7 +16248,7 @@
         <v>255</v>
       </c>
       <c r="C868" t="n">
-        <v>101.9</v>
+        <v>102</v>
       </c>
       <c r="D868" t="s">
         <v>244</v>
@@ -16262,7 +16265,7 @@
         <v>256</v>
       </c>
       <c r="C869" t="n">
-        <v>103.3</v>
+        <v>103.4</v>
       </c>
       <c r="D869" t="s">
         <v>257</v>
@@ -16313,7 +16316,7 @@
         <v>260</v>
       </c>
       <c r="C872" t="n">
-        <v>102.6</v>
+        <v>102.7</v>
       </c>
       <c r="D872" t="s">
         <v>257</v>
@@ -16347,7 +16350,7 @@
         <v>262</v>
       </c>
       <c r="C874" t="n">
-        <v>102.1</v>
+        <v>102.2</v>
       </c>
       <c r="D874" t="s">
         <v>257</v>
@@ -16364,7 +16367,7 @@
         <v>263</v>
       </c>
       <c r="C875" t="n">
-        <v>101.9</v>
+        <v>102</v>
       </c>
       <c r="D875" t="s">
         <v>257</v>
@@ -16415,7 +16418,7 @@
         <v>266</v>
       </c>
       <c r="C878" t="n">
-        <v>102.1</v>
+        <v>102.2</v>
       </c>
       <c r="D878" t="s">
         <v>257</v>
@@ -16449,7 +16452,7 @@
         <v>268</v>
       </c>
       <c r="C880" t="n">
-        <v>101.8</v>
+        <v>101.9</v>
       </c>
       <c r="D880" t="s">
         <v>257</v>
@@ -16500,7 +16503,7 @@
         <v>272</v>
       </c>
       <c r="C883" t="n">
-        <v>101</v>
+        <v>101.1</v>
       </c>
       <c r="D883" t="s">
         <v>270</v>
@@ -16551,7 +16554,7 @@
         <v>275</v>
       </c>
       <c r="C886" t="n">
-        <v>102.4</v>
+        <v>102.5</v>
       </c>
       <c r="D886" t="s">
         <v>270</v>
@@ -16653,7 +16656,7 @@
         <v>281</v>
       </c>
       <c r="C892" t="n">
-        <v>105.5</v>
+        <v>105.6</v>
       </c>
       <c r="D892" t="s">
         <v>270</v>
@@ -16704,7 +16707,7 @@
         <v>285</v>
       </c>
       <c r="C895" t="n">
-        <v>104.9</v>
+        <v>105.1</v>
       </c>
       <c r="D895" t="s">
         <v>283</v>
@@ -16738,7 +16741,7 @@
         <v>287</v>
       </c>
       <c r="C897" t="n">
-        <v>102.4</v>
+        <v>102.5</v>
       </c>
       <c r="D897" t="s">
         <v>283</v>
@@ -16840,7 +16843,7 @@
         <v>293</v>
       </c>
       <c r="C903" t="n">
-        <v>106.7</v>
+        <v>106.8</v>
       </c>
       <c r="D903" t="s">
         <v>283</v>
@@ -16874,7 +16877,7 @@
         <v>295</v>
       </c>
       <c r="C905" t="n">
-        <v>108.6</v>
+        <v>108.7</v>
       </c>
       <c r="D905" t="s">
         <v>296</v>
@@ -16908,7 +16911,7 @@
         <v>298</v>
       </c>
       <c r="C907" t="n">
-        <v>107.9</v>
+        <v>108</v>
       </c>
       <c r="D907" t="s">
         <v>296</v>
@@ -16942,7 +16945,7 @@
         <v>300</v>
       </c>
       <c r="C909" t="n">
-        <v>111.7</v>
+        <v>111.8</v>
       </c>
       <c r="D909" t="s">
         <v>296</v>
@@ -16959,7 +16962,7 @@
         <v>301</v>
       </c>
       <c r="C910" t="n">
-        <v>111.6</v>
+        <v>111.7</v>
       </c>
       <c r="D910" t="s">
         <v>296</v>
@@ -16976,7 +16979,7 @@
         <v>302</v>
       </c>
       <c r="C911" t="n">
-        <v>110.9</v>
+        <v>110.8</v>
       </c>
       <c r="D911" t="s">
         <v>296</v>
@@ -17010,7 +17013,7 @@
         <v>304</v>
       </c>
       <c r="C913" t="n">
-        <v>112</v>
+        <v>112.1</v>
       </c>
       <c r="D913" t="s">
         <v>296</v>
@@ -17078,7 +17081,7 @@
         <v>308</v>
       </c>
       <c r="C917" t="n">
-        <v>108.4</v>
+        <v>108.6</v>
       </c>
       <c r="D917" t="s">
         <v>309</v>
@@ -17180,7 +17183,7 @@
         <v>315</v>
       </c>
       <c r="C923" t="n">
-        <v>109.7</v>
+        <v>109.8</v>
       </c>
       <c r="D923" t="s">
         <v>309</v>
@@ -17248,7 +17251,7 @@
         <v>319</v>
       </c>
       <c r="C927" t="n">
-        <v>105</v>
+        <v>105.2</v>
       </c>
       <c r="D927" t="s">
         <v>309</v>
@@ -17282,7 +17285,7 @@
         <v>321</v>
       </c>
       <c r="C929" t="n">
-        <v>101.2</v>
+        <v>101.4</v>
       </c>
       <c r="D929" t="s">
         <v>322</v>
@@ -17299,7 +17302,7 @@
         <v>323</v>
       </c>
       <c r="C930" t="n">
-        <v>102.1</v>
+        <v>102.2</v>
       </c>
       <c r="D930" t="s">
         <v>322</v>
@@ -17316,7 +17319,7 @@
         <v>324</v>
       </c>
       <c r="C931" t="n">
-        <v>102.6</v>
+        <v>102.8</v>
       </c>
       <c r="D931" t="s">
         <v>322</v>
@@ -17350,7 +17353,7 @@
         <v>326</v>
       </c>
       <c r="C933" t="n">
-        <v>101.6</v>
+        <v>101.8</v>
       </c>
       <c r="D933" t="s">
         <v>322</v>
@@ -17418,7 +17421,7 @@
         <v>330</v>
       </c>
       <c r="C937" t="n">
-        <v>93.7</v>
+        <v>93.8</v>
       </c>
       <c r="D937" t="s">
         <v>322</v>
@@ -17435,7 +17438,7 @@
         <v>331</v>
       </c>
       <c r="C938" t="n">
-        <v>93.1</v>
+        <v>93.2</v>
       </c>
       <c r="D938" t="s">
         <v>322</v>
@@ -17469,7 +17472,7 @@
         <v>333</v>
       </c>
       <c r="C940" t="n">
-        <v>94</v>
+        <v>94.1</v>
       </c>
       <c r="D940" t="s">
         <v>322</v>
@@ -17486,7 +17489,7 @@
         <v>334</v>
       </c>
       <c r="C941" t="n">
-        <v>96.8</v>
+        <v>96.9</v>
       </c>
       <c r="D941" t="s">
         <v>335</v>
@@ -17503,7 +17506,7 @@
         <v>336</v>
       </c>
       <c r="C942" t="n">
-        <v>98.9</v>
+        <v>99</v>
       </c>
       <c r="D942" t="s">
         <v>335</v>
@@ -17520,7 +17523,7 @@
         <v>337</v>
       </c>
       <c r="C943" t="n">
-        <v>93.6</v>
+        <v>93.7</v>
       </c>
       <c r="D943" t="s">
         <v>335</v>
@@ -17588,7 +17591,7 @@
         <v>341</v>
       </c>
       <c r="C947" t="n">
-        <v>84.8</v>
+        <v>84.7</v>
       </c>
       <c r="D947" t="s">
         <v>335</v>
@@ -17605,7 +17608,7 @@
         <v>342</v>
       </c>
       <c r="C948" t="n">
-        <v>87.6</v>
+        <v>87.7</v>
       </c>
       <c r="D948" t="s">
         <v>335</v>
@@ -17622,7 +17625,7 @@
         <v>343</v>
       </c>
       <c r="C949" t="n">
-        <v>94.1</v>
+        <v>94.2</v>
       </c>
       <c r="D949" t="s">
         <v>335</v>
@@ -17639,7 +17642,7 @@
         <v>344</v>
       </c>
       <c r="C950" t="n">
-        <v>95.2</v>
+        <v>95.3</v>
       </c>
       <c r="D950" t="s">
         <v>335</v>
@@ -17656,7 +17659,7 @@
         <v>345</v>
       </c>
       <c r="C951" t="n">
-        <v>96.6</v>
+        <v>97</v>
       </c>
       <c r="D951" t="s">
         <v>335</v>
@@ -17673,7 +17676,7 @@
         <v>346</v>
       </c>
       <c r="C952" t="n">
-        <v>96.3</v>
+        <v>96.4</v>
       </c>
       <c r="D952" t="s">
         <v>335</v>
@@ -17707,7 +17710,7 @@
         <v>349</v>
       </c>
       <c r="C954" t="n">
-        <v>104.1</v>
+        <v>104.2</v>
       </c>
       <c r="D954" t="s">
         <v>348</v>
@@ -17724,7 +17727,7 @@
         <v>350</v>
       </c>
       <c r="C955" t="n">
-        <v>105.4</v>
+        <v>105.6</v>
       </c>
       <c r="D955" t="s">
         <v>348</v>
@@ -17758,7 +17761,7 @@
         <v>352</v>
       </c>
       <c r="C957" t="n">
-        <v>117.1</v>
+        <v>117</v>
       </c>
       <c r="D957" t="s">
         <v>348</v>
@@ -17792,7 +17795,7 @@
         <v>354</v>
       </c>
       <c r="C959" t="n">
-        <v>120.6</v>
+        <v>120.5</v>
       </c>
       <c r="D959" t="s">
         <v>348</v>
@@ -17826,7 +17829,7 @@
         <v>356</v>
       </c>
       <c r="C961" t="n">
-        <v>118.9</v>
+        <v>119</v>
       </c>
       <c r="D961" t="s">
         <v>348</v>
@@ -17860,7 +17863,7 @@
         <v>358</v>
       </c>
       <c r="C963" t="n">
-        <v>118.8</v>
+        <v>119.1</v>
       </c>
       <c r="D963" t="s">
         <v>348</v>
@@ -17911,7 +17914,7 @@
         <v>362</v>
       </c>
       <c r="C966" t="n">
-        <v>114.7</v>
+        <v>114.8</v>
       </c>
       <c r="D966" t="s">
         <v>361</v>
@@ -17928,7 +17931,7 @@
         <v>363</v>
       </c>
       <c r="C967" t="n">
-        <v>112.8</v>
+        <v>112.7</v>
       </c>
       <c r="D967" t="s">
         <v>361</v>
@@ -17945,7 +17948,7 @@
         <v>364</v>
       </c>
       <c r="C968" t="n">
-        <v>111.1</v>
+        <v>110.9</v>
       </c>
       <c r="D968" t="s">
         <v>361</v>
@@ -17962,7 +17965,7 @@
         <v>365</v>
       </c>
       <c r="C969" t="n">
-        <v>111.1</v>
+        <v>111.2</v>
       </c>
       <c r="D969" t="s">
         <v>361</v>
@@ -18013,7 +18016,7 @@
         <v>368</v>
       </c>
       <c r="C972" t="n">
-        <v>98.9</v>
+        <v>98.8</v>
       </c>
       <c r="D972" t="s">
         <v>361</v>
@@ -18030,7 +18033,7 @@
         <v>369</v>
       </c>
       <c r="C973" t="n">
-        <v>93.4</v>
+        <v>93.6</v>
       </c>
       <c r="D973" t="s">
         <v>361</v>
@@ -18047,7 +18050,7 @@
         <v>370</v>
       </c>
       <c r="C974" t="n">
-        <v>88.2</v>
+        <v>88.4</v>
       </c>
       <c r="D974" t="s">
         <v>361</v>
@@ -18064,7 +18067,7 @@
         <v>371</v>
       </c>
       <c r="C975" t="n">
-        <v>87.7</v>
+        <v>88.3</v>
       </c>
       <c r="D975" t="s">
         <v>361</v>
@@ -18081,7 +18084,7 @@
         <v>372</v>
       </c>
       <c r="C976" t="n">
-        <v>87.6</v>
+        <v>87.8</v>
       </c>
       <c r="D976" t="s">
         <v>361</v>
@@ -18098,7 +18101,7 @@
         <v>373</v>
       </c>
       <c r="C977" t="n">
-        <v>85.6</v>
+        <v>85.7</v>
       </c>
       <c r="D977" t="s">
         <v>374</v>
@@ -18115,7 +18118,7 @@
         <v>375</v>
       </c>
       <c r="C978" t="n">
-        <v>87.7</v>
+        <v>87.8</v>
       </c>
       <c r="D978" t="s">
         <v>374</v>
@@ -18132,7 +18135,7 @@
         <v>376</v>
       </c>
       <c r="C979" t="n">
-        <v>89.2</v>
+        <v>89.3</v>
       </c>
       <c r="D979" t="s">
         <v>374</v>
@@ -18149,7 +18152,7 @@
         <v>377</v>
       </c>
       <c r="C980" t="n">
-        <v>88</v>
+        <v>87.9</v>
       </c>
       <c r="D980" t="s">
         <v>374</v>
@@ -18200,7 +18203,7 @@
         <v>380</v>
       </c>
       <c r="C983" t="n">
-        <v>87.9</v>
+        <v>87.8</v>
       </c>
       <c r="D983" t="s">
         <v>374</v>
@@ -18370,7 +18373,7 @@
         <v>211</v>
       </c>
       <c r="C993" t="n">
-        <v>101.9</v>
+        <v>102</v>
       </c>
       <c r="D993" t="s">
         <v>205</v>
@@ -18999,7 +19002,7 @@
         <v>251</v>
       </c>
       <c r="C1030" t="n">
-        <v>96.4</v>
+        <v>96.5</v>
       </c>
       <c r="D1030" t="s">
         <v>244</v>
@@ -19220,7 +19223,7 @@
         <v>265</v>
       </c>
       <c r="C1043" t="n">
-        <v>101.1</v>
+        <v>101.2</v>
       </c>
       <c r="D1043" t="s">
         <v>257</v>
@@ -19441,7 +19444,7 @@
         <v>279</v>
       </c>
       <c r="C1056" t="n">
-        <v>105.8</v>
+        <v>105.9</v>
       </c>
       <c r="D1056" t="s">
         <v>270</v>
@@ -19577,7 +19580,7 @@
         <v>288</v>
       </c>
       <c r="C1064" t="n">
-        <v>101.4</v>
+        <v>101.5</v>
       </c>
       <c r="D1064" t="s">
         <v>283</v>
@@ -19679,7 +19682,7 @@
         <v>294</v>
       </c>
       <c r="C1070" t="n">
-        <v>112.2</v>
+        <v>112.3</v>
       </c>
       <c r="D1070" t="s">
         <v>283</v>
@@ -19696,7 +19699,7 @@
         <v>295</v>
       </c>
       <c r="C1071" t="n">
-        <v>110.9</v>
+        <v>111</v>
       </c>
       <c r="D1071" t="s">
         <v>296</v>
@@ -19798,7 +19801,7 @@
         <v>302</v>
       </c>
       <c r="C1077" t="n">
-        <v>113.7</v>
+        <v>113.4</v>
       </c>
       <c r="D1077" t="s">
         <v>296</v>
@@ -19815,7 +19818,7 @@
         <v>303</v>
       </c>
       <c r="C1078" t="n">
-        <v>110.4</v>
+        <v>110.5</v>
       </c>
       <c r="D1078" t="s">
         <v>296</v>
@@ -19832,7 +19835,7 @@
         <v>304</v>
       </c>
       <c r="C1079" t="n">
-        <v>118.8</v>
+        <v>118.9</v>
       </c>
       <c r="D1079" t="s">
         <v>296</v>
@@ -19900,7 +19903,7 @@
         <v>308</v>
       </c>
       <c r="C1083" t="n">
-        <v>108.9</v>
+        <v>109</v>
       </c>
       <c r="D1083" t="s">
         <v>309</v>
@@ -20070,7 +20073,7 @@
         <v>319</v>
       </c>
       <c r="C1093" t="n">
-        <v>111.5</v>
+        <v>111.7</v>
       </c>
       <c r="D1093" t="s">
         <v>309</v>
@@ -20104,7 +20107,7 @@
         <v>321</v>
       </c>
       <c r="C1095" t="n">
-        <v>106.8</v>
+        <v>106.9</v>
       </c>
       <c r="D1095" t="s">
         <v>322</v>
@@ -20172,7 +20175,7 @@
         <v>326</v>
       </c>
       <c r="C1099" t="n">
-        <v>101.8</v>
+        <v>102.1</v>
       </c>
       <c r="D1099" t="s">
         <v>322</v>
@@ -20274,7 +20277,7 @@
         <v>332</v>
       </c>
       <c r="C1105" t="n">
-        <v>94.1</v>
+        <v>93.9</v>
       </c>
       <c r="D1105" t="s">
         <v>322</v>
@@ -20359,7 +20362,7 @@
         <v>338</v>
       </c>
       <c r="C1110" t="n">
-        <v>72.3</v>
+        <v>72</v>
       </c>
       <c r="D1110" t="s">
         <v>335</v>
@@ -20410,7 +20413,7 @@
         <v>341</v>
       </c>
       <c r="C1113" t="n">
-        <v>96.5</v>
+        <v>96.3</v>
       </c>
       <c r="D1113" t="s">
         <v>335</v>
@@ -20478,7 +20481,7 @@
         <v>345</v>
       </c>
       <c r="C1117" t="n">
-        <v>106.5</v>
+        <v>106.7</v>
       </c>
       <c r="D1117" t="s">
         <v>335</v>
@@ -20512,7 +20515,7 @@
         <v>347</v>
       </c>
       <c r="C1119" t="n">
-        <v>112.1</v>
+        <v>112.2</v>
       </c>
       <c r="D1119" t="s">
         <v>348</v>
@@ -20597,7 +20600,7 @@
         <v>353</v>
       </c>
       <c r="C1124" t="n">
-        <v>120.3</v>
+        <v>120.4</v>
       </c>
       <c r="D1124" t="s">
         <v>348</v>
@@ -20614,7 +20617,7 @@
         <v>354</v>
       </c>
       <c r="C1125" t="n">
-        <v>125.3</v>
+        <v>125.4</v>
       </c>
       <c r="D1125" t="s">
         <v>348</v>
@@ -20648,7 +20651,7 @@
         <v>356</v>
       </c>
       <c r="C1127" t="n">
-        <v>122.9</v>
+        <v>123</v>
       </c>
       <c r="D1127" t="s">
         <v>348</v>
@@ -20699,7 +20702,7 @@
         <v>359</v>
       </c>
       <c r="C1130" t="n">
-        <v>126.2</v>
+        <v>126.3</v>
       </c>
       <c r="D1130" t="s">
         <v>348</v>
@@ -20716,7 +20719,7 @@
         <v>360</v>
       </c>
       <c r="C1131" t="n">
-        <v>122.2</v>
+        <v>122.3</v>
       </c>
       <c r="D1131" t="s">
         <v>361</v>
@@ -20784,7 +20787,7 @@
         <v>365</v>
       </c>
       <c r="C1135" t="n">
-        <v>124.5</v>
+        <v>124.8</v>
       </c>
       <c r="D1135" t="s">
         <v>361</v>
@@ -20818,7 +20821,7 @@
         <v>367</v>
       </c>
       <c r="C1137" t="n">
-        <v>120</v>
+        <v>119.7</v>
       </c>
       <c r="D1137" t="s">
         <v>361</v>
@@ -20869,7 +20872,7 @@
         <v>370</v>
       </c>
       <c r="C1140" t="n">
-        <v>105.2</v>
+        <v>105.3</v>
       </c>
       <c r="D1140" t="s">
         <v>361</v>
@@ -20886,7 +20889,7 @@
         <v>371</v>
       </c>
       <c r="C1141" t="n">
-        <v>105.1</v>
+        <v>104.9</v>
       </c>
       <c r="D1141" t="s">
         <v>361</v>
@@ -20903,7 +20906,7 @@
         <v>372</v>
       </c>
       <c r="C1142" t="n">
-        <v>104.5</v>
+        <v>104.7</v>
       </c>
       <c r="D1142" t="s">
         <v>361</v>
@@ -21022,7 +21025,7 @@
         <v>380</v>
       </c>
       <c r="C1149" t="n">
-        <v>97.7</v>
+        <v>97.4</v>
       </c>
       <c r="D1149" t="s">
         <v>374</v>
@@ -21039,7 +21042,7 @@
         <v>381</v>
       </c>
       <c r="C1150" t="n">
-        <v>97.1</v>
+        <v>96.9</v>
       </c>
       <c r="D1150" t="s">
         <v>374</v>
@@ -21090,7 +21093,7 @@
         <v>211</v>
       </c>
       <c r="C1153" t="n">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="D1153" t="s">
         <v>205</v>
@@ -21175,7 +21178,7 @@
         <v>216</v>
       </c>
       <c r="C1158" t="n">
-        <v>107.1</v>
+        <v>107.2</v>
       </c>
       <c r="D1158" t="s">
         <v>205</v>
@@ -21192,7 +21195,7 @@
         <v>217</v>
       </c>
       <c r="C1159" t="n">
-        <v>104.6</v>
+        <v>104.7</v>
       </c>
       <c r="D1159" t="s">
         <v>218</v>
@@ -21243,7 +21246,7 @@
         <v>221</v>
       </c>
       <c r="C1162" t="n">
-        <v>108</v>
+        <v>108.1</v>
       </c>
       <c r="D1162" t="s">
         <v>218</v>
@@ -21328,7 +21331,7 @@
         <v>226</v>
       </c>
       <c r="C1167" t="n">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="D1167" t="s">
         <v>218</v>
@@ -21345,7 +21348,7 @@
         <v>227</v>
       </c>
       <c r="C1168" t="n">
-        <v>102.9</v>
+        <v>103</v>
       </c>
       <c r="D1168" t="s">
         <v>218</v>
@@ -21362,7 +21365,7 @@
         <v>228</v>
       </c>
       <c r="C1169" t="n">
-        <v>98.5</v>
+        <v>98.6</v>
       </c>
       <c r="D1169" t="s">
         <v>218</v>
@@ -21379,7 +21382,7 @@
         <v>229</v>
       </c>
       <c r="C1170" t="n">
-        <v>96.2</v>
+        <v>96.3</v>
       </c>
       <c r="D1170" t="s">
         <v>218</v>
@@ -21396,7 +21399,7 @@
         <v>230</v>
       </c>
       <c r="C1171" t="n">
-        <v>96.5</v>
+        <v>96.6</v>
       </c>
       <c r="D1171" t="s">
         <v>231</v>
@@ -21413,7 +21416,7 @@
         <v>232</v>
       </c>
       <c r="C1172" t="n">
-        <v>93.7</v>
+        <v>93.8</v>
       </c>
       <c r="D1172" t="s">
         <v>231</v>
@@ -21430,7 +21433,7 @@
         <v>233</v>
       </c>
       <c r="C1173" t="n">
-        <v>97.9</v>
+        <v>98.1</v>
       </c>
       <c r="D1173" t="s">
         <v>231</v>
@@ -21447,7 +21450,7 @@
         <v>234</v>
       </c>
       <c r="C1174" t="n">
-        <v>99.8</v>
+        <v>99.9</v>
       </c>
       <c r="D1174" t="s">
         <v>231</v>
@@ -21464,7 +21467,7 @@
         <v>235</v>
       </c>
       <c r="C1175" t="n">
-        <v>89.4</v>
+        <v>89.6</v>
       </c>
       <c r="D1175" t="s">
         <v>231</v>
@@ -21481,7 +21484,7 @@
         <v>236</v>
       </c>
       <c r="C1176" t="n">
-        <v>89.6</v>
+        <v>89.8</v>
       </c>
       <c r="D1176" t="s">
         <v>231</v>
@@ -21498,7 +21501,7 @@
         <v>237</v>
       </c>
       <c r="C1177" t="n">
-        <v>88.6</v>
+        <v>88.8</v>
       </c>
       <c r="D1177" t="s">
         <v>231</v>
@@ -21515,7 +21518,7 @@
         <v>238</v>
       </c>
       <c r="C1178" t="n">
-        <v>90.2</v>
+        <v>90.3</v>
       </c>
       <c r="D1178" t="s">
         <v>231</v>
@@ -21532,7 +21535,7 @@
         <v>239</v>
       </c>
       <c r="C1179" t="n">
-        <v>86.6</v>
+        <v>86.8</v>
       </c>
       <c r="D1179" t="s">
         <v>231</v>
@@ -21549,7 +21552,7 @@
         <v>240</v>
       </c>
       <c r="C1180" t="n">
-        <v>84.7</v>
+        <v>84.9</v>
       </c>
       <c r="D1180" t="s">
         <v>231</v>
@@ -21566,7 +21569,7 @@
         <v>241</v>
       </c>
       <c r="C1181" t="n">
-        <v>79.8</v>
+        <v>80</v>
       </c>
       <c r="D1181" t="s">
         <v>231</v>
@@ -21583,7 +21586,7 @@
         <v>242</v>
       </c>
       <c r="C1182" t="n">
-        <v>78.6</v>
+        <v>78.9</v>
       </c>
       <c r="D1182" t="s">
         <v>231</v>
@@ -21600,7 +21603,7 @@
         <v>243</v>
       </c>
       <c r="C1183" t="n">
-        <v>84</v>
+        <v>84.1</v>
       </c>
       <c r="D1183" t="s">
         <v>244</v>
@@ -21617,7 +21620,7 @@
         <v>245</v>
       </c>
       <c r="C1184" t="n">
-        <v>83.4</v>
+        <v>83.6</v>
       </c>
       <c r="D1184" t="s">
         <v>244</v>
@@ -21634,7 +21637,7 @@
         <v>246</v>
       </c>
       <c r="C1185" t="n">
-        <v>83.8</v>
+        <v>84</v>
       </c>
       <c r="D1185" t="s">
         <v>244</v>
@@ -21651,7 +21654,7 @@
         <v>247</v>
       </c>
       <c r="C1186" t="n">
-        <v>82.1</v>
+        <v>82.3</v>
       </c>
       <c r="D1186" t="s">
         <v>244</v>
@@ -21668,7 +21671,7 @@
         <v>248</v>
       </c>
       <c r="C1187" t="n">
-        <v>85.6</v>
+        <v>85.8</v>
       </c>
       <c r="D1187" t="s">
         <v>244</v>
@@ -21685,7 +21688,7 @@
         <v>249</v>
       </c>
       <c r="C1188" t="n">
-        <v>85.7</v>
+        <v>85.9</v>
       </c>
       <c r="D1188" t="s">
         <v>244</v>
@@ -21702,7 +21705,7 @@
         <v>250</v>
       </c>
       <c r="C1189" t="n">
-        <v>84.2</v>
+        <v>84.3</v>
       </c>
       <c r="D1189" t="s">
         <v>244</v>
@@ -21719,7 +21722,7 @@
         <v>251</v>
       </c>
       <c r="C1190" t="n">
-        <v>84.1</v>
+        <v>84.3</v>
       </c>
       <c r="D1190" t="s">
         <v>244</v>
@@ -21736,7 +21739,7 @@
         <v>252</v>
       </c>
       <c r="C1191" t="n">
-        <v>86</v>
+        <v>86.2</v>
       </c>
       <c r="D1191" t="s">
         <v>244</v>
@@ -21753,7 +21756,7 @@
         <v>253</v>
       </c>
       <c r="C1192" t="n">
-        <v>85</v>
+        <v>85.1</v>
       </c>
       <c r="D1192" t="s">
         <v>244</v>
@@ -21770,7 +21773,7 @@
         <v>254</v>
       </c>
       <c r="C1193" t="n">
-        <v>87.1</v>
+        <v>87.2</v>
       </c>
       <c r="D1193" t="s">
         <v>244</v>
@@ -21787,7 +21790,7 @@
         <v>255</v>
       </c>
       <c r="C1194" t="n">
-        <v>90.2</v>
+        <v>90.3</v>
       </c>
       <c r="D1194" t="s">
         <v>244</v>
@@ -21804,7 +21807,7 @@
         <v>256</v>
       </c>
       <c r="C1195" t="n">
-        <v>89.3</v>
+        <v>89.5</v>
       </c>
       <c r="D1195" t="s">
         <v>257</v>
@@ -21821,7 +21824,7 @@
         <v>258</v>
       </c>
       <c r="C1196" t="n">
-        <v>90.2</v>
+        <v>90.3</v>
       </c>
       <c r="D1196" t="s">
         <v>257</v>
@@ -21838,7 +21841,7 @@
         <v>259</v>
       </c>
       <c r="C1197" t="n">
-        <v>91.7</v>
+        <v>91.8</v>
       </c>
       <c r="D1197" t="s">
         <v>257</v>
@@ -21855,7 +21858,7 @@
         <v>260</v>
       </c>
       <c r="C1198" t="n">
-        <v>92.1</v>
+        <v>92.2</v>
       </c>
       <c r="D1198" t="s">
         <v>257</v>
@@ -21872,7 +21875,7 @@
         <v>261</v>
       </c>
       <c r="C1199" t="n">
-        <v>93.1</v>
+        <v>93.2</v>
       </c>
       <c r="D1199" t="s">
         <v>257</v>
@@ -21889,7 +21892,7 @@
         <v>262</v>
       </c>
       <c r="C1200" t="n">
-        <v>95.8</v>
+        <v>95.9</v>
       </c>
       <c r="D1200" t="s">
         <v>257</v>
@@ -21906,7 +21909,7 @@
         <v>263</v>
       </c>
       <c r="C1201" t="n">
-        <v>97.1</v>
+        <v>97.2</v>
       </c>
       <c r="D1201" t="s">
         <v>257</v>
@@ -21940,7 +21943,7 @@
         <v>265</v>
       </c>
       <c r="C1203" t="n">
-        <v>96</v>
+        <v>96.1</v>
       </c>
       <c r="D1203" t="s">
         <v>257</v>
@@ -21957,7 +21960,7 @@
         <v>266</v>
       </c>
       <c r="C1204" t="n">
-        <v>95.8</v>
+        <v>95.9</v>
       </c>
       <c r="D1204" t="s">
         <v>257</v>
@@ -21974,7 +21977,7 @@
         <v>267</v>
       </c>
       <c r="C1205" t="n">
-        <v>97.2</v>
+        <v>97.3</v>
       </c>
       <c r="D1205" t="s">
         <v>257</v>
@@ -21991,7 +21994,7 @@
         <v>268</v>
       </c>
       <c r="C1206" t="n">
-        <v>96.9</v>
+        <v>97</v>
       </c>
       <c r="D1206" t="s">
         <v>257</v>
@@ -22008,7 +22011,7 @@
         <v>269</v>
       </c>
       <c r="C1207" t="n">
-        <v>96.4</v>
+        <v>96.5</v>
       </c>
       <c r="D1207" t="s">
         <v>270</v>
@@ -22025,7 +22028,7 @@
         <v>271</v>
       </c>
       <c r="C1208" t="n">
-        <v>94.2</v>
+        <v>94.3</v>
       </c>
       <c r="D1208" t="s">
         <v>270</v>
@@ -22042,7 +22045,7 @@
         <v>272</v>
       </c>
       <c r="C1209" t="n">
-        <v>92</v>
+        <v>92.2</v>
       </c>
       <c r="D1209" t="s">
         <v>270</v>
@@ -22059,7 +22062,7 @@
         <v>273</v>
       </c>
       <c r="C1210" t="n">
-        <v>96.8</v>
+        <v>97.1</v>
       </c>
       <c r="D1210" t="s">
         <v>270</v>
@@ -22076,7 +22079,7 @@
         <v>274</v>
       </c>
       <c r="C1211" t="n">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
       <c r="D1211" t="s">
         <v>270</v>
@@ -22093,7 +22096,7 @@
         <v>275</v>
       </c>
       <c r="C1212" t="n">
-        <v>99</v>
+        <v>99.1</v>
       </c>
       <c r="D1212" t="s">
         <v>270</v>
@@ -22110,7 +22113,7 @@
         <v>276</v>
       </c>
       <c r="C1213" t="n">
-        <v>101.9</v>
+        <v>101.8</v>
       </c>
       <c r="D1213" t="s">
         <v>270</v>
@@ -22127,7 +22130,7 @@
         <v>277</v>
       </c>
       <c r="C1214" t="n">
-        <v>101.9</v>
+        <v>102</v>
       </c>
       <c r="D1214" t="s">
         <v>270</v>
@@ -22144,7 +22147,7 @@
         <v>278</v>
       </c>
       <c r="C1215" t="n">
-        <v>103.5</v>
+        <v>103.6</v>
       </c>
       <c r="D1215" t="s">
         <v>270</v>
@@ -22212,7 +22215,7 @@
         <v>282</v>
       </c>
       <c r="C1219" t="n">
-        <v>105</v>
+        <v>105.1</v>
       </c>
       <c r="D1219" t="s">
         <v>283</v>
@@ -22229,7 +22232,7 @@
         <v>284</v>
       </c>
       <c r="C1220" t="n">
-        <v>106.5</v>
+        <v>106.6</v>
       </c>
       <c r="D1220" t="s">
         <v>283</v>
@@ -22263,7 +22266,7 @@
         <v>286</v>
       </c>
       <c r="C1222" t="n">
-        <v>110.3</v>
+        <v>110.4</v>
       </c>
       <c r="D1222" t="s">
         <v>283</v>
@@ -22297,7 +22300,7 @@
         <v>288</v>
       </c>
       <c r="C1224" t="n">
-        <v>107.5</v>
+        <v>107.6</v>
       </c>
       <c r="D1224" t="s">
         <v>283</v>
@@ -22365,7 +22368,7 @@
         <v>292</v>
       </c>
       <c r="C1228" t="n">
-        <v>109.1</v>
+        <v>109.2</v>
       </c>
       <c r="D1228" t="s">
         <v>283</v>
@@ -22416,7 +22419,7 @@
         <v>295</v>
       </c>
       <c r="C1231" t="n">
-        <v>112.4</v>
+        <v>112.5</v>
       </c>
       <c r="D1231" t="s">
         <v>296</v>
@@ -22518,7 +22521,7 @@
         <v>302</v>
       </c>
       <c r="C1237" t="n">
-        <v>113.8</v>
+        <v>113.5</v>
       </c>
       <c r="D1237" t="s">
         <v>296</v>
@@ -22535,7 +22538,7 @@
         <v>303</v>
       </c>
       <c r="C1238" t="n">
-        <v>116.8</v>
+        <v>116.9</v>
       </c>
       <c r="D1238" t="s">
         <v>296</v>
@@ -22552,7 +22555,7 @@
         <v>304</v>
       </c>
       <c r="C1239" t="n">
-        <v>117.8</v>
+        <v>117.9</v>
       </c>
       <c r="D1239" t="s">
         <v>296</v>
@@ -22569,7 +22572,7 @@
         <v>305</v>
       </c>
       <c r="C1240" t="n">
-        <v>118.3</v>
+        <v>118.4</v>
       </c>
       <c r="D1240" t="s">
         <v>296</v>
@@ -22586,7 +22589,7 @@
         <v>306</v>
       </c>
       <c r="C1241" t="n">
-        <v>115.4</v>
+        <v>115.5</v>
       </c>
       <c r="D1241" t="s">
         <v>296</v>
@@ -22620,7 +22623,7 @@
         <v>308</v>
       </c>
       <c r="C1243" t="n">
-        <v>116.2</v>
+        <v>116.3</v>
       </c>
       <c r="D1243" t="s">
         <v>309</v>
@@ -22654,7 +22657,7 @@
         <v>311</v>
       </c>
       <c r="C1245" t="n">
-        <v>114.1</v>
+        <v>114.2</v>
       </c>
       <c r="D1245" t="s">
         <v>309</v>
@@ -22705,7 +22708,7 @@
         <v>314</v>
       </c>
       <c r="C1248" t="n">
-        <v>112</v>
+        <v>112.1</v>
       </c>
       <c r="D1248" t="s">
         <v>309</v>
@@ -22722,7 +22725,7 @@
         <v>315</v>
       </c>
       <c r="C1249" t="n">
-        <v>111.2</v>
+        <v>111</v>
       </c>
       <c r="D1249" t="s">
         <v>309</v>
@@ -22739,7 +22742,7 @@
         <v>316</v>
       </c>
       <c r="C1250" t="n">
-        <v>110</v>
+        <v>110.1</v>
       </c>
       <c r="D1250" t="s">
         <v>309</v>
@@ -22756,7 +22759,7 @@
         <v>317</v>
       </c>
       <c r="C1251" t="n">
-        <v>107.3</v>
+        <v>107.4</v>
       </c>
       <c r="D1251" t="s">
         <v>309</v>
@@ -22773,7 +22776,7 @@
         <v>318</v>
       </c>
       <c r="C1252" t="n">
-        <v>106.4</v>
+        <v>106.5</v>
       </c>
       <c r="D1252" t="s">
         <v>309</v>
@@ -22790,7 +22793,7 @@
         <v>319</v>
       </c>
       <c r="C1253" t="n">
-        <v>102.4</v>
+        <v>102.5</v>
       </c>
       <c r="D1253" t="s">
         <v>309</v>
@@ -22807,7 +22810,7 @@
         <v>320</v>
       </c>
       <c r="C1254" t="n">
-        <v>106.6</v>
+        <v>106.7</v>
       </c>
       <c r="D1254" t="s">
         <v>309</v>
@@ -22824,7 +22827,7 @@
         <v>321</v>
       </c>
       <c r="C1255" t="n">
-        <v>103.5</v>
+        <v>103.6</v>
       </c>
       <c r="D1255" t="s">
         <v>322</v>
@@ -22841,7 +22844,7 @@
         <v>323</v>
       </c>
       <c r="C1256" t="n">
-        <v>107.6</v>
+        <v>107.7</v>
       </c>
       <c r="D1256" t="s">
         <v>322</v>
@@ -22858,7 +22861,7 @@
         <v>324</v>
       </c>
       <c r="C1257" t="n">
-        <v>104.3</v>
+        <v>104.4</v>
       </c>
       <c r="D1257" t="s">
         <v>322</v>
@@ -22875,7 +22878,7 @@
         <v>325</v>
       </c>
       <c r="C1258" t="n">
-        <v>103.8</v>
+        <v>103.9</v>
       </c>
       <c r="D1258" t="s">
         <v>322</v>
@@ -22892,7 +22895,7 @@
         <v>326</v>
       </c>
       <c r="C1259" t="n">
-        <v>103.5</v>
+        <v>103.6</v>
       </c>
       <c r="D1259" t="s">
         <v>322</v>
@@ -22909,7 +22912,7 @@
         <v>327</v>
       </c>
       <c r="C1260" t="n">
-        <v>106.3</v>
+        <v>106.2</v>
       </c>
       <c r="D1260" t="s">
         <v>322</v>
@@ -22926,7 +22929,7 @@
         <v>328</v>
       </c>
       <c r="C1261" t="n">
-        <v>100.8</v>
+        <v>100.9</v>
       </c>
       <c r="D1261" t="s">
         <v>322</v>
@@ -22943,7 +22946,7 @@
         <v>329</v>
       </c>
       <c r="C1262" t="n">
-        <v>103.8</v>
+        <v>103.9</v>
       </c>
       <c r="D1262" t="s">
         <v>322</v>
@@ -22960,7 +22963,7 @@
         <v>330</v>
       </c>
       <c r="C1263" t="n">
-        <v>102.8</v>
+        <v>102.9</v>
       </c>
       <c r="D1263" t="s">
         <v>322</v>
@@ -22977,7 +22980,7 @@
         <v>331</v>
       </c>
       <c r="C1264" t="n">
-        <v>107</v>
+        <v>107.1</v>
       </c>
       <c r="D1264" t="s">
         <v>322</v>
@@ -22994,7 +22997,7 @@
         <v>332</v>
       </c>
       <c r="C1265" t="n">
-        <v>102.1</v>
+        <v>102.2</v>
       </c>
       <c r="D1265" t="s">
         <v>322</v>
@@ -23011,7 +23014,7 @@
         <v>333</v>
       </c>
       <c r="C1266" t="n">
-        <v>99.6</v>
+        <v>99.7</v>
       </c>
       <c r="D1266" t="s">
         <v>322</v>
@@ -23028,7 +23031,7 @@
         <v>334</v>
       </c>
       <c r="C1267" t="n">
-        <v>104.6</v>
+        <v>104.7</v>
       </c>
       <c r="D1267" t="s">
         <v>335</v>
@@ -23045,7 +23048,7 @@
         <v>336</v>
       </c>
       <c r="C1268" t="n">
-        <v>99.3</v>
+        <v>99.4</v>
       </c>
       <c r="D1268" t="s">
         <v>335</v>
@@ -23062,7 +23065,7 @@
         <v>337</v>
       </c>
       <c r="C1269" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="D1269" t="s">
         <v>335</v>
@@ -23079,7 +23082,7 @@
         <v>338</v>
       </c>
       <c r="C1270" t="n">
-        <v>89.9</v>
+        <v>89.8</v>
       </c>
       <c r="D1270" t="s">
         <v>335</v>
@@ -23096,7 +23099,7 @@
         <v>339</v>
       </c>
       <c r="C1271" t="n">
-        <v>81.8</v>
+        <v>82</v>
       </c>
       <c r="D1271" t="s">
         <v>335</v>
@@ -23113,7 +23116,7 @@
         <v>340</v>
       </c>
       <c r="C1272" t="n">
-        <v>84.1</v>
+        <v>84</v>
       </c>
       <c r="D1272" t="s">
         <v>335</v>
@@ -23130,7 +23133,7 @@
         <v>341</v>
       </c>
       <c r="C1273" t="n">
-        <v>86.3</v>
+        <v>86.5</v>
       </c>
       <c r="D1273" t="s">
         <v>335</v>
@@ -23147,7 +23150,7 @@
         <v>342</v>
       </c>
       <c r="C1274" t="n">
-        <v>86.6</v>
+        <v>86.8</v>
       </c>
       <c r="D1274" t="s">
         <v>335</v>
@@ -23164,7 +23167,7 @@
         <v>343</v>
       </c>
       <c r="C1275" t="n">
-        <v>85.8</v>
+        <v>86</v>
       </c>
       <c r="D1275" t="s">
         <v>335</v>
@@ -23181,7 +23184,7 @@
         <v>344</v>
       </c>
       <c r="C1276" t="n">
-        <v>83.8</v>
+        <v>84.5</v>
       </c>
       <c r="D1276" t="s">
         <v>335</v>
@@ -23198,7 +23201,7 @@
         <v>345</v>
       </c>
       <c r="C1277" t="n">
-        <v>88.8</v>
+        <v>88.9</v>
       </c>
       <c r="D1277" t="s">
         <v>335</v>
@@ -23215,7 +23218,7 @@
         <v>346</v>
       </c>
       <c r="C1278" t="n">
-        <v>88.6</v>
+        <v>89.1</v>
       </c>
       <c r="D1278" t="s">
         <v>335</v>
@@ -23232,7 +23235,7 @@
         <v>347</v>
       </c>
       <c r="C1279" t="n">
-        <v>86</v>
+        <v>86.1</v>
       </c>
       <c r="D1279" t="s">
         <v>348</v>
@@ -23249,7 +23252,7 @@
         <v>349</v>
       </c>
       <c r="C1280" t="n">
-        <v>88.7</v>
+        <v>88.9</v>
       </c>
       <c r="D1280" t="s">
         <v>348</v>
@@ -23266,7 +23269,7 @@
         <v>350</v>
       </c>
       <c r="C1281" t="n">
-        <v>90.9</v>
+        <v>91</v>
       </c>
       <c r="D1281" t="s">
         <v>348</v>
@@ -23283,7 +23286,7 @@
         <v>351</v>
       </c>
       <c r="C1282" t="n">
-        <v>96.4</v>
+        <v>96.6</v>
       </c>
       <c r="D1282" t="s">
         <v>348</v>
@@ -23300,7 +23303,7 @@
         <v>352</v>
       </c>
       <c r="C1283" t="n">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="D1283" t="s">
         <v>348</v>
@@ -23317,7 +23320,7 @@
         <v>353</v>
       </c>
       <c r="C1284" t="n">
-        <v>105.2</v>
+        <v>105.1</v>
       </c>
       <c r="D1284" t="s">
         <v>348</v>
@@ -23334,7 +23337,7 @@
         <v>354</v>
       </c>
       <c r="C1285" t="n">
-        <v>105.9</v>
+        <v>105.8</v>
       </c>
       <c r="D1285" t="s">
         <v>348</v>
@@ -23368,7 +23371,7 @@
         <v>356</v>
       </c>
       <c r="C1287" t="n">
-        <v>105.4</v>
+        <v>105.8</v>
       </c>
       <c r="D1287" t="s">
         <v>348</v>
@@ -23385,7 +23388,7 @@
         <v>357</v>
       </c>
       <c r="C1288" t="n">
-        <v>108.7</v>
+        <v>109</v>
       </c>
       <c r="D1288" t="s">
         <v>348</v>
@@ -23419,7 +23422,7 @@
         <v>359</v>
       </c>
       <c r="C1290" t="n">
-        <v>106.2</v>
+        <v>106.5</v>
       </c>
       <c r="D1290" t="s">
         <v>348</v>
@@ -23436,7 +23439,7 @@
         <v>360</v>
       </c>
       <c r="C1291" t="n">
-        <v>109.7</v>
+        <v>109.8</v>
       </c>
       <c r="D1291" t="s">
         <v>361</v>
@@ -23453,7 +23456,7 @@
         <v>362</v>
       </c>
       <c r="C1292" t="n">
-        <v>107.1</v>
+        <v>107.2</v>
       </c>
       <c r="D1292" t="s">
         <v>361</v>
@@ -23470,7 +23473,7 @@
         <v>363</v>
       </c>
       <c r="C1293" t="n">
-        <v>108.2</v>
+        <v>108.3</v>
       </c>
       <c r="D1293" t="s">
         <v>361</v>
@@ -23487,7 +23490,7 @@
         <v>364</v>
       </c>
       <c r="C1294" t="n">
-        <v>105.9</v>
+        <v>106</v>
       </c>
       <c r="D1294" t="s">
         <v>361</v>
@@ -23504,7 +23507,7 @@
         <v>365</v>
       </c>
       <c r="C1295" t="n">
-        <v>104.7</v>
+        <v>104.8</v>
       </c>
       <c r="D1295" t="s">
         <v>361</v>
@@ -23521,7 +23524,7 @@
         <v>366</v>
       </c>
       <c r="C1296" t="n">
-        <v>103.9</v>
+        <v>104.1</v>
       </c>
       <c r="D1296" t="s">
         <v>361</v>
@@ -23538,7 +23541,7 @@
         <v>367</v>
       </c>
       <c r="C1297" t="n">
-        <v>101.8</v>
+        <v>101.7</v>
       </c>
       <c r="D1297" t="s">
         <v>361</v>
@@ -23555,7 +23558,7 @@
         <v>368</v>
       </c>
       <c r="C1298" t="n">
-        <v>101.6</v>
+        <v>101.8</v>
       </c>
       <c r="D1298" t="s">
         <v>361</v>
@@ -23572,7 +23575,7 @@
         <v>369</v>
       </c>
       <c r="C1299" t="n">
-        <v>101.8</v>
+        <v>102.2</v>
       </c>
       <c r="D1299" t="s">
         <v>361</v>
@@ -23589,7 +23592,7 @@
         <v>370</v>
       </c>
       <c r="C1300" t="n">
-        <v>99.2</v>
+        <v>99.6</v>
       </c>
       <c r="D1300" t="s">
         <v>361</v>
@@ -23606,7 +23609,7 @@
         <v>371</v>
       </c>
       <c r="C1301" t="n">
-        <v>97</v>
+        <v>97.4</v>
       </c>
       <c r="D1301" t="s">
         <v>361</v>
@@ -23623,7 +23626,7 @@
         <v>372</v>
       </c>
       <c r="C1302" t="n">
-        <v>98</v>
+        <v>98.1</v>
       </c>
       <c r="D1302" t="s">
         <v>361</v>
@@ -23640,7 +23643,7 @@
         <v>373</v>
       </c>
       <c r="C1303" t="n">
-        <v>94.6</v>
+        <v>94.8</v>
       </c>
       <c r="D1303" t="s">
         <v>374</v>
@@ -23657,7 +23660,7 @@
         <v>375</v>
       </c>
       <c r="C1304" t="n">
-        <v>91</v>
+        <v>91.1</v>
       </c>
       <c r="D1304" t="s">
         <v>374</v>
@@ -23674,7 +23677,7 @@
         <v>376</v>
       </c>
       <c r="C1305" t="n">
-        <v>92.5</v>
+        <v>92.6</v>
       </c>
       <c r="D1305" t="s">
         <v>374</v>
@@ -23691,7 +23694,7 @@
         <v>377</v>
       </c>
       <c r="C1306" t="n">
-        <v>91.9</v>
+        <v>92.1</v>
       </c>
       <c r="D1306" t="s">
         <v>374</v>
@@ -23708,7 +23711,7 @@
         <v>378</v>
       </c>
       <c r="C1307" t="n">
-        <v>94.4</v>
+        <v>94.5</v>
       </c>
       <c r="D1307" t="s">
         <v>374</v>
@@ -23725,7 +23728,7 @@
         <v>379</v>
       </c>
       <c r="C1308" t="n">
-        <v>88.3</v>
+        <v>88</v>
       </c>
       <c r="D1308" t="s">
         <v>374</v>
@@ -23742,7 +23745,7 @@
         <v>380</v>
       </c>
       <c r="C1309" t="n">
-        <v>82.4</v>
+        <v>82.6</v>
       </c>
       <c r="D1309" t="s">
         <v>374</v>
@@ -23759,7 +23762,7 @@
         <v>381</v>
       </c>
       <c r="C1310" t="n">
-        <v>84.5</v>
+        <v>84.7</v>
       </c>
       <c r="D1310" t="s">
         <v>374</v>
@@ -23861,7 +23864,7 @@
         <v>208</v>
       </c>
       <c r="C1316" t="n">
-        <v>118.3</v>
+        <v>118.4</v>
       </c>
       <c r="D1316" t="s">
         <v>205</v>
@@ -23878,7 +23881,7 @@
         <v>209</v>
       </c>
       <c r="C1317" t="n">
-        <v>110.5</v>
+        <v>110.6</v>
       </c>
       <c r="D1317" t="s">
         <v>205</v>
@@ -23912,7 +23915,7 @@
         <v>211</v>
       </c>
       <c r="C1319" t="n">
-        <v>106.9</v>
+        <v>107</v>
       </c>
       <c r="D1319" t="s">
         <v>205</v>
@@ -23929,7 +23932,7 @@
         <v>212</v>
       </c>
       <c r="C1320" t="n">
-        <v>100.9</v>
+        <v>101</v>
       </c>
       <c r="D1320" t="s">
         <v>205</v>
@@ -23946,7 +23949,7 @@
         <v>213</v>
       </c>
       <c r="C1321" t="n">
-        <v>105.3</v>
+        <v>105.4</v>
       </c>
       <c r="D1321" t="s">
         <v>205</v>
@@ -23980,7 +23983,7 @@
         <v>215</v>
       </c>
       <c r="C1323" t="n">
-        <v>109.5</v>
+        <v>109.6</v>
       </c>
       <c r="D1323" t="s">
         <v>205</v>
@@ -23997,7 +24000,7 @@
         <v>216</v>
       </c>
       <c r="C1324" t="n">
-        <v>109.3</v>
+        <v>109.4</v>
       </c>
       <c r="D1324" t="s">
         <v>205</v>
@@ -24014,7 +24017,7 @@
         <v>217</v>
       </c>
       <c r="C1325" t="n">
-        <v>104.8</v>
+        <v>104.9</v>
       </c>
       <c r="D1325" t="s">
         <v>218</v>
@@ -24031,7 +24034,7 @@
         <v>219</v>
       </c>
       <c r="C1326" t="n">
-        <v>101.1</v>
+        <v>101.2</v>
       </c>
       <c r="D1326" t="s">
         <v>218</v>
@@ -24048,7 +24051,7 @@
         <v>220</v>
       </c>
       <c r="C1327" t="n">
-        <v>99.5</v>
+        <v>99.6</v>
       </c>
       <c r="D1327" t="s">
         <v>218</v>
@@ -24082,7 +24085,7 @@
         <v>222</v>
       </c>
       <c r="C1329" t="n">
-        <v>96.8</v>
+        <v>96.9</v>
       </c>
       <c r="D1329" t="s">
         <v>218</v>
@@ -24099,7 +24102,7 @@
         <v>223</v>
       </c>
       <c r="C1330" t="n">
-        <v>95.2</v>
+        <v>95.3</v>
       </c>
       <c r="D1330" t="s">
         <v>218</v>
@@ -24133,7 +24136,7 @@
         <v>225</v>
       </c>
       <c r="C1332" t="n">
-        <v>89.3</v>
+        <v>89.4</v>
       </c>
       <c r="D1332" t="s">
         <v>218</v>
@@ -24150,7 +24153,7 @@
         <v>226</v>
       </c>
       <c r="C1333" t="n">
-        <v>82.6</v>
+        <v>82.7</v>
       </c>
       <c r="D1333" t="s">
         <v>218</v>
@@ -24184,7 +24187,7 @@
         <v>228</v>
       </c>
       <c r="C1335" t="n">
-        <v>84.1</v>
+        <v>84.2</v>
       </c>
       <c r="D1335" t="s">
         <v>218</v>
@@ -24303,7 +24306,7 @@
         <v>236</v>
       </c>
       <c r="C1342" t="n">
-        <v>94.4</v>
+        <v>94.5</v>
       </c>
       <c r="D1342" t="s">
         <v>231</v>
@@ -24337,7 +24340,7 @@
         <v>238</v>
       </c>
       <c r="C1344" t="n">
-        <v>95.3</v>
+        <v>95.4</v>
       </c>
       <c r="D1344" t="s">
         <v>231</v>
@@ -24388,7 +24391,7 @@
         <v>241</v>
       </c>
       <c r="C1347" t="n">
-        <v>92.9</v>
+        <v>93</v>
       </c>
       <c r="D1347" t="s">
         <v>231</v>
@@ -24422,7 +24425,7 @@
         <v>243</v>
       </c>
       <c r="C1349" t="n">
-        <v>96.4</v>
+        <v>96.5</v>
       </c>
       <c r="D1349" t="s">
         <v>244</v>
@@ -24456,7 +24459,7 @@
         <v>246</v>
       </c>
       <c r="C1351" t="n">
-        <v>95.6</v>
+        <v>95.7</v>
       </c>
       <c r="D1351" t="s">
         <v>244</v>
@@ -24473,7 +24476,7 @@
         <v>247</v>
       </c>
       <c r="C1352" t="n">
-        <v>93.1</v>
+        <v>93.2</v>
       </c>
       <c r="D1352" t="s">
         <v>244</v>
@@ -24490,7 +24493,7 @@
         <v>248</v>
       </c>
       <c r="C1353" t="n">
-        <v>89.5</v>
+        <v>89.6</v>
       </c>
       <c r="D1353" t="s">
         <v>244</v>
@@ -24507,7 +24510,7 @@
         <v>249</v>
       </c>
       <c r="C1354" t="n">
-        <v>95.3</v>
+        <v>95.4</v>
       </c>
       <c r="D1354" t="s">
         <v>244</v>
@@ -24558,7 +24561,7 @@
         <v>252</v>
       </c>
       <c r="C1357" t="n">
-        <v>96.4</v>
+        <v>96.5</v>
       </c>
       <c r="D1357" t="s">
         <v>244</v>
@@ -24575,7 +24578,7 @@
         <v>253</v>
       </c>
       <c r="C1358" t="n">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="D1358" t="s">
         <v>244</v>
@@ -24592,7 +24595,7 @@
         <v>254</v>
       </c>
       <c r="C1359" t="n">
-        <v>102.5</v>
+        <v>102.6</v>
       </c>
       <c r="D1359" t="s">
         <v>244</v>
@@ -24609,7 +24612,7 @@
         <v>255</v>
       </c>
       <c r="C1360" t="n">
-        <v>102.3</v>
+        <v>102.4</v>
       </c>
       <c r="D1360" t="s">
         <v>244</v>
@@ -24626,7 +24629,7 @@
         <v>256</v>
       </c>
       <c r="C1361" t="n">
-        <v>104.9</v>
+        <v>105.2</v>
       </c>
       <c r="D1361" t="s">
         <v>257</v>
@@ -24762,7 +24765,7 @@
         <v>265</v>
       </c>
       <c r="C1369" t="n">
-        <v>107.8</v>
+        <v>107.9</v>
       </c>
       <c r="D1369" t="s">
         <v>257</v>
@@ -24796,7 +24799,7 @@
         <v>267</v>
       </c>
       <c r="C1371" t="n">
-        <v>104.2</v>
+        <v>104.3</v>
       </c>
       <c r="D1371" t="s">
         <v>257</v>
@@ -24830,7 +24833,7 @@
         <v>269</v>
       </c>
       <c r="C1373" t="n">
-        <v>106.2</v>
+        <v>106.3</v>
       </c>
       <c r="D1373" t="s">
         <v>270</v>
@@ -24847,7 +24850,7 @@
         <v>271</v>
       </c>
       <c r="C1374" t="n">
-        <v>107.7</v>
+        <v>107.8</v>
       </c>
       <c r="D1374" t="s">
         <v>270</v>
@@ -24881,7 +24884,7 @@
         <v>273</v>
       </c>
       <c r="C1376" t="n">
-        <v>111.2</v>
+        <v>111.3</v>
       </c>
       <c r="D1376" t="s">
         <v>270</v>
@@ -24932,7 +24935,7 @@
         <v>276</v>
       </c>
       <c r="C1379" t="n">
-        <v>107.2</v>
+        <v>107</v>
       </c>
       <c r="D1379" t="s">
         <v>270</v>
@@ -25034,7 +25037,7 @@
         <v>282</v>
       </c>
       <c r="C1385" t="n">
-        <v>113.8</v>
+        <v>113.9</v>
       </c>
       <c r="D1385" t="s">
         <v>283</v>
@@ -25068,7 +25071,7 @@
         <v>285</v>
       </c>
       <c r="C1387" t="n">
-        <v>105.3</v>
+        <v>105.4</v>
       </c>
       <c r="D1387" t="s">
         <v>283</v>
@@ -25153,7 +25156,7 @@
         <v>290</v>
       </c>
       <c r="C1392" t="n">
-        <v>103.7</v>
+        <v>103.8</v>
       </c>
       <c r="D1392" t="s">
         <v>283</v>
@@ -25187,7 +25190,7 @@
         <v>292</v>
       </c>
       <c r="C1394" t="n">
-        <v>103.6</v>
+        <v>103.7</v>
       </c>
       <c r="D1394" t="s">
         <v>283</v>
@@ -25221,7 +25224,7 @@
         <v>294</v>
       </c>
       <c r="C1396" t="n">
-        <v>99.3</v>
+        <v>99.4</v>
       </c>
       <c r="D1396" t="s">
         <v>283</v>
@@ -25306,7 +25309,7 @@
         <v>300</v>
       </c>
       <c r="C1401" t="n">
-        <v>100.7</v>
+        <v>101</v>
       </c>
       <c r="D1401" t="s">
         <v>296</v>
@@ -25340,7 +25343,7 @@
         <v>302</v>
       </c>
       <c r="C1403" t="n">
-        <v>105.9</v>
+        <v>106</v>
       </c>
       <c r="D1403" t="s">
         <v>296</v>
@@ -25357,7 +25360,7 @@
         <v>303</v>
       </c>
       <c r="C1404" t="n">
-        <v>103.5</v>
+        <v>103.6</v>
       </c>
       <c r="D1404" t="s">
         <v>296</v>
@@ -25374,7 +25377,7 @@
         <v>304</v>
       </c>
       <c r="C1405" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
       <c r="D1405" t="s">
         <v>296</v>
@@ -25408,7 +25411,7 @@
         <v>306</v>
       </c>
       <c r="C1407" t="n">
-        <v>102.5</v>
+        <v>102.6</v>
       </c>
       <c r="D1407" t="s">
         <v>296</v>
@@ -25425,7 +25428,7 @@
         <v>307</v>
       </c>
       <c r="C1408" t="n">
-        <v>102.1</v>
+        <v>102.2</v>
       </c>
       <c r="D1408" t="s">
         <v>296</v>
@@ -25459,7 +25462,7 @@
         <v>310</v>
       </c>
       <c r="C1410" t="n">
-        <v>106.2</v>
+        <v>106.3</v>
       </c>
       <c r="D1410" t="s">
         <v>309</v>
@@ -25510,7 +25513,7 @@
         <v>313</v>
       </c>
       <c r="C1413" t="n">
-        <v>103.6</v>
+        <v>103.7</v>
       </c>
       <c r="D1413" t="s">
         <v>309</v>
@@ -25527,7 +25530,7 @@
         <v>314</v>
       </c>
       <c r="C1414" t="n">
-        <v>105.5</v>
+        <v>105.2</v>
       </c>
       <c r="D1414" t="s">
         <v>309</v>
@@ -25561,7 +25564,7 @@
         <v>316</v>
       </c>
       <c r="C1416" t="n">
-        <v>102.3</v>
+        <v>102.4</v>
       </c>
       <c r="D1416" t="s">
         <v>309</v>
@@ -25663,7 +25666,7 @@
         <v>323</v>
       </c>
       <c r="C1422" t="n">
-        <v>99</v>
+        <v>99.1</v>
       </c>
       <c r="D1422" t="s">
         <v>322</v>
@@ -25697,7 +25700,7 @@
         <v>325</v>
       </c>
       <c r="C1424" t="n">
-        <v>105.2</v>
+        <v>104.9</v>
       </c>
       <c r="D1424" t="s">
         <v>322</v>
@@ -25714,7 +25717,7 @@
         <v>326</v>
       </c>
       <c r="C1425" t="n">
-        <v>106.7</v>
+        <v>106.8</v>
       </c>
       <c r="D1425" t="s">
         <v>322</v>
@@ -25731,7 +25734,7 @@
         <v>327</v>
       </c>
       <c r="C1426" t="n">
-        <v>102.2</v>
+        <v>101.8</v>
       </c>
       <c r="D1426" t="s">
         <v>322</v>
@@ -25782,7 +25785,7 @@
         <v>330</v>
       </c>
       <c r="C1429" t="n">
-        <v>101.6</v>
+        <v>102</v>
       </c>
       <c r="D1429" t="s">
         <v>322</v>
@@ -25816,7 +25819,7 @@
         <v>332</v>
       </c>
       <c r="C1431" t="n">
-        <v>104.6</v>
+        <v>104.7</v>
       </c>
       <c r="D1431" t="s">
         <v>322</v>
@@ -25833,7 +25836,7 @@
         <v>333</v>
       </c>
       <c r="C1432" t="n">
-        <v>108.6</v>
+        <v>108.7</v>
       </c>
       <c r="D1432" t="s">
         <v>322</v>
@@ -25850,7 +25853,7 @@
         <v>334</v>
       </c>
       <c r="C1433" t="n">
-        <v>108.1</v>
+        <v>108.2</v>
       </c>
       <c r="D1433" t="s">
         <v>335</v>
@@ -25867,7 +25870,7 @@
         <v>336</v>
       </c>
       <c r="C1434" t="n">
-        <v>110.3</v>
+        <v>110.4</v>
       </c>
       <c r="D1434" t="s">
         <v>335</v>
@@ -25901,7 +25904,7 @@
         <v>338</v>
       </c>
       <c r="C1436" t="n">
-        <v>75.4</v>
+        <v>75.1</v>
       </c>
       <c r="D1436" t="s">
         <v>335</v>
@@ -25986,7 +25989,7 @@
         <v>343</v>
       </c>
       <c r="C1441" t="n">
-        <v>103.3</v>
+        <v>103.4</v>
       </c>
       <c r="D1441" t="s">
         <v>335</v>
@@ -26003,7 +26006,7 @@
         <v>344</v>
       </c>
       <c r="C1442" t="n">
-        <v>105.7</v>
+        <v>106.4</v>
       </c>
       <c r="D1442" t="s">
         <v>335</v>
@@ -26037,7 +26040,7 @@
         <v>346</v>
       </c>
       <c r="C1444" t="n">
-        <v>98.7</v>
+        <v>99.1</v>
       </c>
       <c r="D1444" t="s">
         <v>335</v>
@@ -26054,7 +26057,7 @@
         <v>347</v>
       </c>
       <c r="C1445" t="n">
-        <v>97.8</v>
+        <v>97.9</v>
       </c>
       <c r="D1445" t="s">
         <v>348</v>
@@ -26156,7 +26159,7 @@
         <v>354</v>
       </c>
       <c r="C1451" t="n">
-        <v>116.2</v>
+        <v>116.3</v>
       </c>
       <c r="D1451" t="s">
         <v>348</v>
@@ -26190,7 +26193,7 @@
         <v>356</v>
       </c>
       <c r="C1453" t="n">
-        <v>115.3</v>
+        <v>115.8</v>
       </c>
       <c r="D1453" t="s">
         <v>348</v>
@@ -26207,7 +26210,7 @@
         <v>357</v>
       </c>
       <c r="C1454" t="n">
-        <v>117.5</v>
+        <v>117.3</v>
       </c>
       <c r="D1454" t="s">
         <v>348</v>
@@ -26224,7 +26227,7 @@
         <v>358</v>
       </c>
       <c r="C1455" t="n">
-        <v>118.3</v>
+        <v>118.8</v>
       </c>
       <c r="D1455" t="s">
         <v>348</v>
@@ -26241,7 +26244,7 @@
         <v>359</v>
       </c>
       <c r="C1456" t="n">
-        <v>114.6</v>
+        <v>114.4</v>
       </c>
       <c r="D1456" t="s">
         <v>348</v>
@@ -26258,7 +26261,7 @@
         <v>360</v>
       </c>
       <c r="C1457" t="n">
-        <v>105</v>
+        <v>105.3</v>
       </c>
       <c r="D1457" t="s">
         <v>361</v>
@@ -26275,7 +26278,7 @@
         <v>362</v>
       </c>
       <c r="C1458" t="n">
-        <v>120.1</v>
+        <v>120.2</v>
       </c>
       <c r="D1458" t="s">
         <v>361</v>
@@ -26309,7 +26312,7 @@
         <v>364</v>
       </c>
       <c r="C1460" t="n">
-        <v>111</v>
+        <v>110.7</v>
       </c>
       <c r="D1460" t="s">
         <v>361</v>
@@ -26326,7 +26329,7 @@
         <v>365</v>
       </c>
       <c r="C1461" t="n">
-        <v>109.1</v>
+        <v>109.2</v>
       </c>
       <c r="D1461" t="s">
         <v>361</v>
@@ -26343,7 +26346,7 @@
         <v>366</v>
       </c>
       <c r="C1462" t="n">
-        <v>101.3</v>
+        <v>101.4</v>
       </c>
       <c r="D1462" t="s">
         <v>361</v>
@@ -26360,7 +26363,7 @@
         <v>367</v>
       </c>
       <c r="C1463" t="n">
-        <v>92.1</v>
+        <v>91.9</v>
       </c>
       <c r="D1463" t="s">
         <v>361</v>
@@ -26394,7 +26397,7 @@
         <v>369</v>
       </c>
       <c r="C1465" t="n">
-        <v>85.2</v>
+        <v>85.3</v>
       </c>
       <c r="D1465" t="s">
         <v>361</v>
@@ -26411,7 +26414,7 @@
         <v>370</v>
       </c>
       <c r="C1466" t="n">
-        <v>77.6</v>
+        <v>78.1</v>
       </c>
       <c r="D1466" t="s">
         <v>361</v>
@@ -26428,7 +26431,7 @@
         <v>371</v>
       </c>
       <c r="C1467" t="n">
-        <v>78.6</v>
+        <v>79.3</v>
       </c>
       <c r="D1467" t="s">
         <v>361</v>
@@ -26445,7 +26448,7 @@
         <v>372</v>
       </c>
       <c r="C1468" t="n">
-        <v>77.2</v>
+        <v>77.5</v>
       </c>
       <c r="D1468" t="s">
         <v>361</v>
@@ -26462,7 +26465,7 @@
         <v>373</v>
       </c>
       <c r="C1469" t="n">
-        <v>79.9</v>
+        <v>80.3</v>
       </c>
       <c r="D1469" t="s">
         <v>374</v>
@@ -26479,7 +26482,7 @@
         <v>375</v>
       </c>
       <c r="C1470" t="n">
-        <v>79.5</v>
+        <v>79.6</v>
       </c>
       <c r="D1470" t="s">
         <v>374</v>
@@ -26496,7 +26499,7 @@
         <v>376</v>
       </c>
       <c r="C1471" t="n">
-        <v>82.7</v>
+        <v>82.5</v>
       </c>
       <c r="D1471" t="s">
         <v>374</v>
@@ -26513,7 +26516,7 @@
         <v>377</v>
       </c>
       <c r="C1472" t="n">
-        <v>80.8</v>
+        <v>80.9</v>
       </c>
       <c r="D1472" t="s">
         <v>374</v>
@@ -26530,7 +26533,7 @@
         <v>378</v>
       </c>
       <c r="C1473" t="n">
-        <v>86.4</v>
+        <v>86.2</v>
       </c>
       <c r="D1473" t="s">
         <v>374</v>
@@ -26547,7 +26550,7 @@
         <v>379</v>
       </c>
       <c r="C1474" t="n">
-        <v>87.4</v>
+        <v>86.8</v>
       </c>
       <c r="D1474" t="s">
         <v>374</v>
@@ -26564,7 +26567,7 @@
         <v>380</v>
       </c>
       <c r="C1475" t="n">
-        <v>88.6</v>
+        <v>88.3</v>
       </c>
       <c r="D1475" t="s">
         <v>374</v>
@@ -26581,7 +26584,7 @@
         <v>381</v>
       </c>
       <c r="C1476" t="n">
-        <v>87.9</v>
+        <v>87.7</v>
       </c>
       <c r="D1476" t="s">
         <v>374</v>
@@ -26598,7 +26601,7 @@
         <v>202</v>
       </c>
       <c r="C1477" t="n">
-        <v>96.1</v>
+        <v>96.2</v>
       </c>
       <c r="D1477" t="s">
         <v>182</v>
@@ -26632,7 +26635,7 @@
         <v>204</v>
       </c>
       <c r="C1479" t="n">
-        <v>103.6</v>
+        <v>103.7</v>
       </c>
       <c r="D1479" t="s">
         <v>205</v>
@@ -26666,7 +26669,7 @@
         <v>207</v>
       </c>
       <c r="C1481" t="n">
-        <v>104.3</v>
+        <v>104.4</v>
       </c>
       <c r="D1481" t="s">
         <v>205</v>
@@ -26683,7 +26686,7 @@
         <v>208</v>
       </c>
       <c r="C1482" t="n">
-        <v>105.6</v>
+        <v>105.7</v>
       </c>
       <c r="D1482" t="s">
         <v>205</v>
@@ -26717,7 +26720,7 @@
         <v>210</v>
       </c>
       <c r="C1484" t="n">
-        <v>109.4</v>
+        <v>109.5</v>
       </c>
       <c r="D1484" t="s">
         <v>205</v>
@@ -26785,7 +26788,7 @@
         <v>214</v>
       </c>
       <c r="C1488" t="n">
-        <v>113.8</v>
+        <v>113.9</v>
       </c>
       <c r="D1488" t="s">
         <v>205</v>
@@ -26802,7 +26805,7 @@
         <v>215</v>
       </c>
       <c r="C1489" t="n">
-        <v>118.6</v>
+        <v>118.5</v>
       </c>
       <c r="D1489" t="s">
         <v>205</v>
@@ -26972,7 +26975,7 @@
         <v>226</v>
       </c>
       <c r="C1499" t="n">
-        <v>98.4</v>
+        <v>98.5</v>
       </c>
       <c r="D1499" t="s">
         <v>218</v>
@@ -27006,7 +27009,7 @@
         <v>228</v>
       </c>
       <c r="C1501" t="n">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="D1501" t="s">
         <v>218</v>
@@ -27023,7 +27026,7 @@
         <v>229</v>
       </c>
       <c r="C1502" t="n">
-        <v>96.7</v>
+        <v>96.8</v>
       </c>
       <c r="D1502" t="s">
         <v>218</v>
@@ -27040,7 +27043,7 @@
         <v>230</v>
       </c>
       <c r="C1503" t="n">
-        <v>92</v>
+        <v>92.1</v>
       </c>
       <c r="D1503" t="s">
         <v>231</v>
@@ -27057,7 +27060,7 @@
         <v>232</v>
       </c>
       <c r="C1504" t="n">
-        <v>92.6</v>
+        <v>92.7</v>
       </c>
       <c r="D1504" t="s">
         <v>231</v>
@@ -27074,7 +27077,7 @@
         <v>233</v>
       </c>
       <c r="C1505" t="n">
-        <v>99.4</v>
+        <v>99.5</v>
       </c>
       <c r="D1505" t="s">
         <v>231</v>
@@ -27091,7 +27094,7 @@
         <v>234</v>
       </c>
       <c r="C1506" t="n">
-        <v>103.5</v>
+        <v>103.6</v>
       </c>
       <c r="D1506" t="s">
         <v>231</v>
@@ -27108,7 +27111,7 @@
         <v>235</v>
       </c>
       <c r="C1507" t="n">
-        <v>96.8</v>
+        <v>96.9</v>
       </c>
       <c r="D1507" t="s">
         <v>231</v>
@@ -27125,7 +27128,7 @@
         <v>236</v>
       </c>
       <c r="C1508" t="n">
-        <v>96.6</v>
+        <v>96.7</v>
       </c>
       <c r="D1508" t="s">
         <v>231</v>
@@ -27142,7 +27145,7 @@
         <v>237</v>
       </c>
       <c r="C1509" t="n">
-        <v>92.1</v>
+        <v>92.2</v>
       </c>
       <c r="D1509" t="s">
         <v>231</v>
@@ -27159,7 +27162,7 @@
         <v>238</v>
       </c>
       <c r="C1510" t="n">
-        <v>96.4</v>
+        <v>96.5</v>
       </c>
       <c r="D1510" t="s">
         <v>231</v>
@@ -27193,7 +27196,7 @@
         <v>240</v>
       </c>
       <c r="C1512" t="n">
-        <v>92.6</v>
+        <v>92.7</v>
       </c>
       <c r="D1512" t="s">
         <v>231</v>
@@ -27210,7 +27213,7 @@
         <v>241</v>
       </c>
       <c r="C1513" t="n">
-        <v>86.6</v>
+        <v>86.7</v>
       </c>
       <c r="D1513" t="s">
         <v>231</v>
@@ -27227,7 +27230,7 @@
         <v>242</v>
       </c>
       <c r="C1514" t="n">
-        <v>88</v>
+        <v>88.1</v>
       </c>
       <c r="D1514" t="s">
         <v>231</v>
@@ -27244,7 +27247,7 @@
         <v>243</v>
       </c>
       <c r="C1515" t="n">
-        <v>89.2</v>
+        <v>89.3</v>
       </c>
       <c r="D1515" t="s">
         <v>244</v>
@@ -27261,7 +27264,7 @@
         <v>245</v>
       </c>
       <c r="C1516" t="n">
-        <v>92.2</v>
+        <v>92.3</v>
       </c>
       <c r="D1516" t="s">
         <v>244</v>
@@ -27295,7 +27298,7 @@
         <v>247</v>
       </c>
       <c r="C1518" t="n">
-        <v>94.2</v>
+        <v>94.3</v>
       </c>
       <c r="D1518" t="s">
         <v>244</v>
@@ -27312,7 +27315,7 @@
         <v>248</v>
       </c>
       <c r="C1519" t="n">
-        <v>96</v>
+        <v>96.1</v>
       </c>
       <c r="D1519" t="s">
         <v>244</v>
@@ -27329,7 +27332,7 @@
         <v>249</v>
       </c>
       <c r="C1520" t="n">
-        <v>97.9</v>
+        <v>98</v>
       </c>
       <c r="D1520" t="s">
         <v>244</v>
@@ -27397,7 +27400,7 @@
         <v>253</v>
       </c>
       <c r="C1524" t="n">
-        <v>102.3</v>
+        <v>102.4</v>
       </c>
       <c r="D1524" t="s">
         <v>244</v>
@@ -27414,7 +27417,7 @@
         <v>254</v>
       </c>
       <c r="C1525" t="n">
-        <v>103.6</v>
+        <v>103.7</v>
       </c>
       <c r="D1525" t="s">
         <v>244</v>
@@ -27465,7 +27468,7 @@
         <v>258</v>
       </c>
       <c r="C1528" t="n">
-        <v>105.1</v>
+        <v>105.2</v>
       </c>
       <c r="D1528" t="s">
         <v>257</v>
@@ -27482,7 +27485,7 @@
         <v>259</v>
       </c>
       <c r="C1529" t="n">
-        <v>105</v>
+        <v>105.1</v>
       </c>
       <c r="D1529" t="s">
         <v>257</v>
@@ -27533,7 +27536,7 @@
         <v>262</v>
       </c>
       <c r="C1532" t="n">
-        <v>102.6</v>
+        <v>102.7</v>
       </c>
       <c r="D1532" t="s">
         <v>257</v>
@@ -27550,7 +27553,7 @@
         <v>263</v>
       </c>
       <c r="C1533" t="n">
-        <v>100.9</v>
+        <v>101</v>
       </c>
       <c r="D1533" t="s">
         <v>257</v>
@@ -27567,7 +27570,7 @@
         <v>264</v>
       </c>
       <c r="C1534" t="n">
-        <v>101.4</v>
+        <v>101.5</v>
       </c>
       <c r="D1534" t="s">
         <v>257</v>
@@ -27601,7 +27604,7 @@
         <v>266</v>
       </c>
       <c r="C1536" t="n">
-        <v>101.5</v>
+        <v>101.6</v>
       </c>
       <c r="D1536" t="s">
         <v>257</v>
@@ -27652,7 +27655,7 @@
         <v>269</v>
       </c>
       <c r="C1539" t="n">
-        <v>103.6</v>
+        <v>103.7</v>
       </c>
       <c r="D1539" t="s">
         <v>270</v>
@@ -27686,7 +27689,7 @@
         <v>272</v>
       </c>
       <c r="C1541" t="n">
-        <v>103.1</v>
+        <v>103.2</v>
       </c>
       <c r="D1541" t="s">
         <v>270</v>
@@ -27771,7 +27774,7 @@
         <v>277</v>
       </c>
       <c r="C1546" t="n">
-        <v>105</v>
+        <v>105.1</v>
       </c>
       <c r="D1546" t="s">
         <v>270</v>
@@ -27805,7 +27808,7 @@
         <v>279</v>
       </c>
       <c r="C1548" t="n">
-        <v>104.7</v>
+        <v>104.8</v>
       </c>
       <c r="D1548" t="s">
         <v>270</v>
@@ -27839,7 +27842,7 @@
         <v>281</v>
       </c>
       <c r="C1550" t="n">
-        <v>104.3</v>
+        <v>104.4</v>
       </c>
       <c r="D1550" t="s">
         <v>270</v>
@@ -27890,7 +27893,7 @@
         <v>285</v>
       </c>
       <c r="C1553" t="n">
-        <v>102.4</v>
+        <v>102.7</v>
       </c>
       <c r="D1553" t="s">
         <v>283</v>
@@ -27941,7 +27944,7 @@
         <v>288</v>
       </c>
       <c r="C1556" t="n">
-        <v>102.6</v>
+        <v>102.7</v>
       </c>
       <c r="D1556" t="s">
         <v>283</v>
@@ -27958,7 +27961,7 @@
         <v>289</v>
       </c>
       <c r="C1557" t="n">
-        <v>104.4</v>
+        <v>104.5</v>
       </c>
       <c r="D1557" t="s">
         <v>283</v>
@@ -27975,7 +27978,7 @@
         <v>290</v>
       </c>
       <c r="C1558" t="n">
-        <v>104.9</v>
+        <v>105</v>
       </c>
       <c r="D1558" t="s">
         <v>283</v>
@@ -27992,7 +27995,7 @@
         <v>291</v>
       </c>
       <c r="C1559" t="n">
-        <v>105.6</v>
+        <v>105.7</v>
       </c>
       <c r="D1559" t="s">
         <v>283</v>
@@ -28009,7 +28012,7 @@
         <v>292</v>
       </c>
       <c r="C1560" t="n">
-        <v>104.2</v>
+        <v>104.3</v>
       </c>
       <c r="D1560" t="s">
         <v>283</v>
@@ -28043,7 +28046,7 @@
         <v>294</v>
       </c>
       <c r="C1562" t="n">
-        <v>107.5</v>
+        <v>107.6</v>
       </c>
       <c r="D1562" t="s">
         <v>283</v>
@@ -28060,7 +28063,7 @@
         <v>295</v>
       </c>
       <c r="C1563" t="n">
-        <v>105.3</v>
+        <v>105.6</v>
       </c>
       <c r="D1563" t="s">
         <v>296</v>
@@ -28111,7 +28114,7 @@
         <v>299</v>
       </c>
       <c r="C1566" t="n">
-        <v>105.1</v>
+        <v>105.2</v>
       </c>
       <c r="D1566" t="s">
         <v>296</v>
@@ -28128,7 +28131,7 @@
         <v>300</v>
       </c>
       <c r="C1567" t="n">
-        <v>106.6</v>
+        <v>106.7</v>
       </c>
       <c r="D1567" t="s">
         <v>296</v>
@@ -28196,7 +28199,7 @@
         <v>304</v>
       </c>
       <c r="C1571" t="n">
-        <v>103.3</v>
+        <v>103.4</v>
       </c>
       <c r="D1571" t="s">
         <v>296</v>
@@ -28264,7 +28267,7 @@
         <v>308</v>
       </c>
       <c r="C1575" t="n">
-        <v>104.8</v>
+        <v>105.1</v>
       </c>
       <c r="D1575" t="s">
         <v>309</v>
@@ -28298,7 +28301,7 @@
         <v>311</v>
       </c>
       <c r="C1577" t="n">
-        <v>103.7</v>
+        <v>103.8</v>
       </c>
       <c r="D1577" t="s">
         <v>309</v>
@@ -28315,7 +28318,7 @@
         <v>312</v>
       </c>
       <c r="C1578" t="n">
-        <v>103.9</v>
+        <v>104</v>
       </c>
       <c r="D1578" t="s">
         <v>309</v>
@@ -28349,7 +28352,7 @@
         <v>314</v>
       </c>
       <c r="C1580" t="n">
-        <v>105.9</v>
+        <v>106</v>
       </c>
       <c r="D1580" t="s">
         <v>309</v>
@@ -28366,7 +28369,7 @@
         <v>315</v>
       </c>
       <c r="C1581" t="n">
-        <v>105.1</v>
+        <v>105.2</v>
       </c>
       <c r="D1581" t="s">
         <v>309</v>
@@ -28400,7 +28403,7 @@
         <v>317</v>
       </c>
       <c r="C1583" t="n">
-        <v>104.6</v>
+        <v>104.7</v>
       </c>
       <c r="D1583" t="s">
         <v>309</v>
@@ -28434,7 +28437,7 @@
         <v>319</v>
       </c>
       <c r="C1585" t="n">
-        <v>98.4</v>
+        <v>98.7</v>
       </c>
       <c r="D1585" t="s">
         <v>309</v>
@@ -28468,7 +28471,7 @@
         <v>321</v>
       </c>
       <c r="C1587" t="n">
-        <v>96.5</v>
+        <v>96.8</v>
       </c>
       <c r="D1587" t="s">
         <v>322</v>
@@ -28502,7 +28505,7 @@
         <v>324</v>
       </c>
       <c r="C1589" t="n">
-        <v>101.3</v>
+        <v>101.6</v>
       </c>
       <c r="D1589" t="s">
         <v>322</v>
@@ -28519,7 +28522,7 @@
         <v>325</v>
       </c>
       <c r="C1590" t="n">
-        <v>101.7</v>
+        <v>101.8</v>
       </c>
       <c r="D1590" t="s">
         <v>322</v>
@@ -28553,7 +28556,7 @@
         <v>327</v>
       </c>
       <c r="C1592" t="n">
-        <v>101</v>
+        <v>100.8</v>
       </c>
       <c r="D1592" t="s">
         <v>322</v>
@@ -28570,7 +28573,7 @@
         <v>328</v>
       </c>
       <c r="C1593" t="n">
-        <v>98.9</v>
+        <v>98.7</v>
       </c>
       <c r="D1593" t="s">
         <v>322</v>
@@ -28587,7 +28590,7 @@
         <v>329</v>
       </c>
       <c r="C1594" t="n">
-        <v>97.1</v>
+        <v>97.2</v>
       </c>
       <c r="D1594" t="s">
         <v>322</v>
@@ -28604,7 +28607,7 @@
         <v>330</v>
       </c>
       <c r="C1595" t="n">
-        <v>93.2</v>
+        <v>93.3</v>
       </c>
       <c r="D1595" t="s">
         <v>322</v>
@@ -28621,7 +28624,7 @@
         <v>331</v>
       </c>
       <c r="C1596" t="n">
-        <v>91</v>
+        <v>91.1</v>
       </c>
       <c r="D1596" t="s">
         <v>322</v>
@@ -28638,7 +28641,7 @@
         <v>332</v>
       </c>
       <c r="C1597" t="n">
-        <v>93.9</v>
+        <v>94.2</v>
       </c>
       <c r="D1597" t="s">
         <v>322</v>
@@ -28655,7 +28658,7 @@
         <v>333</v>
       </c>
       <c r="C1598" t="n">
-        <v>92.7</v>
+        <v>92.8</v>
       </c>
       <c r="D1598" t="s">
         <v>322</v>
@@ -28672,7 +28675,7 @@
         <v>334</v>
       </c>
       <c r="C1599" t="n">
-        <v>94.5</v>
+        <v>94.6</v>
       </c>
       <c r="D1599" t="s">
         <v>335</v>
@@ -28689,7 +28692,7 @@
         <v>336</v>
       </c>
       <c r="C1600" t="n">
-        <v>94.6</v>
+        <v>94.7</v>
       </c>
       <c r="D1600" t="s">
         <v>335</v>
@@ -28706,7 +28709,7 @@
         <v>337</v>
       </c>
       <c r="C1601" t="n">
-        <v>88.2</v>
+        <v>88.3</v>
       </c>
       <c r="D1601" t="s">
         <v>335</v>
@@ -28723,7 +28726,7 @@
         <v>338</v>
       </c>
       <c r="C1602" t="n">
-        <v>52.5</v>
+        <v>52.7</v>
       </c>
       <c r="D1602" t="s">
         <v>335</v>
@@ -28774,7 +28777,7 @@
         <v>341</v>
       </c>
       <c r="C1605" t="n">
-        <v>73.9</v>
+        <v>74</v>
       </c>
       <c r="D1605" t="s">
         <v>335</v>
@@ -28791,7 +28794,7 @@
         <v>342</v>
       </c>
       <c r="C1606" t="n">
-        <v>79.8</v>
+        <v>79.9</v>
       </c>
       <c r="D1606" t="s">
         <v>335</v>
@@ -28808,7 +28811,7 @@
         <v>343</v>
       </c>
       <c r="C1607" t="n">
-        <v>86.5</v>
+        <v>86.6</v>
       </c>
       <c r="D1607" t="s">
         <v>335</v>
@@ -28825,7 +28828,7 @@
         <v>344</v>
       </c>
       <c r="C1608" t="n">
-        <v>87.5</v>
+        <v>87.6</v>
       </c>
       <c r="D1608" t="s">
         <v>335</v>
@@ -28842,7 +28845,7 @@
         <v>345</v>
       </c>
       <c r="C1609" t="n">
-        <v>88.5</v>
+        <v>89</v>
       </c>
       <c r="D1609" t="s">
         <v>335</v>
@@ -28859,7 +28862,7 @@
         <v>346</v>
       </c>
       <c r="C1610" t="n">
-        <v>87.6</v>
+        <v>87.7</v>
       </c>
       <c r="D1610" t="s">
         <v>335</v>
@@ -28893,7 +28896,7 @@
         <v>349</v>
       </c>
       <c r="C1612" t="n">
-        <v>96.7</v>
+        <v>96.8</v>
       </c>
       <c r="D1612" t="s">
         <v>348</v>
@@ -28910,7 +28913,7 @@
         <v>350</v>
       </c>
       <c r="C1613" t="n">
-        <v>96.7</v>
+        <v>97</v>
       </c>
       <c r="D1613" t="s">
         <v>348</v>
@@ -28927,7 +28930,7 @@
         <v>351</v>
       </c>
       <c r="C1614" t="n">
-        <v>105.9</v>
+        <v>105.8</v>
       </c>
       <c r="D1614" t="s">
         <v>348</v>
@@ -28961,7 +28964,7 @@
         <v>353</v>
       </c>
       <c r="C1616" t="n">
-        <v>111.3</v>
+        <v>111.4</v>
       </c>
       <c r="D1616" t="s">
         <v>348</v>
@@ -28978,7 +28981,7 @@
         <v>354</v>
       </c>
       <c r="C1617" t="n">
-        <v>113.4</v>
+        <v>113</v>
       </c>
       <c r="D1617" t="s">
         <v>348</v>
@@ -28995,7 +28998,7 @@
         <v>355</v>
       </c>
       <c r="C1618" t="n">
-        <v>111.8</v>
+        <v>111.6</v>
       </c>
       <c r="D1618" t="s">
         <v>348</v>
@@ -29029,7 +29032,7 @@
         <v>357</v>
       </c>
       <c r="C1620" t="n">
-        <v>113.4</v>
+        <v>113.2</v>
       </c>
       <c r="D1620" t="s">
         <v>348</v>
@@ -29046,7 +29049,7 @@
         <v>358</v>
       </c>
       <c r="C1621" t="n">
-        <v>112.3</v>
+        <v>112.9</v>
       </c>
       <c r="D1621" t="s">
         <v>348</v>
@@ -29063,7 +29066,7 @@
         <v>359</v>
       </c>
       <c r="C1622" t="n">
-        <v>111.3</v>
+        <v>111.4</v>
       </c>
       <c r="D1622" t="s">
         <v>348</v>
@@ -29080,7 +29083,7 @@
         <v>360</v>
       </c>
       <c r="C1623" t="n">
-        <v>106.5</v>
+        <v>106.3</v>
       </c>
       <c r="D1623" t="s">
         <v>361</v>
@@ -29114,7 +29117,7 @@
         <v>363</v>
       </c>
       <c r="C1625" t="n">
-        <v>109.3</v>
+        <v>109.1</v>
       </c>
       <c r="D1625" t="s">
         <v>361</v>
@@ -29131,7 +29134,7 @@
         <v>364</v>
       </c>
       <c r="C1626" t="n">
-        <v>109.3</v>
+        <v>108.9</v>
       </c>
       <c r="D1626" t="s">
         <v>361</v>
@@ -29148,7 +29151,7 @@
         <v>365</v>
       </c>
       <c r="C1627" t="n">
-        <v>108.3</v>
+        <v>108.1</v>
       </c>
       <c r="D1627" t="s">
         <v>361</v>
@@ -29165,7 +29168,7 @@
         <v>366</v>
       </c>
       <c r="C1628" t="n">
-        <v>104.6</v>
+        <v>104.4</v>
       </c>
       <c r="D1628" t="s">
         <v>361</v>
@@ -29182,7 +29185,7 @@
         <v>367</v>
       </c>
       <c r="C1629" t="n">
-        <v>102.3</v>
+        <v>102.4</v>
       </c>
       <c r="D1629" t="s">
         <v>361</v>
@@ -29199,7 +29202,7 @@
         <v>368</v>
       </c>
       <c r="C1630" t="n">
-        <v>97.6</v>
+        <v>97.3</v>
       </c>
       <c r="D1630" t="s">
         <v>361</v>
@@ -29216,7 +29219,7 @@
         <v>369</v>
       </c>
       <c r="C1631" t="n">
-        <v>95</v>
+        <v>95.1</v>
       </c>
       <c r="D1631" t="s">
         <v>361</v>
@@ -29233,7 +29236,7 @@
         <v>370</v>
       </c>
       <c r="C1632" t="n">
-        <v>90.1</v>
+        <v>90.2</v>
       </c>
       <c r="D1632" t="s">
         <v>361</v>
@@ -29250,7 +29253,7 @@
         <v>371</v>
       </c>
       <c r="C1633" t="n">
-        <v>86.9</v>
+        <v>88.2</v>
       </c>
       <c r="D1633" t="s">
         <v>361</v>
@@ -29267,7 +29270,7 @@
         <v>372</v>
       </c>
       <c r="C1634" t="n">
-        <v>89.1</v>
+        <v>88.9</v>
       </c>
       <c r="D1634" t="s">
         <v>361</v>
@@ -29284,7 +29287,7 @@
         <v>373</v>
       </c>
       <c r="C1635" t="n">
-        <v>88.3</v>
+        <v>88.2</v>
       </c>
       <c r="D1635" t="s">
         <v>374</v>
@@ -29301,7 +29304,7 @@
         <v>375</v>
       </c>
       <c r="C1636" t="n">
-        <v>90.5</v>
+        <v>90.4</v>
       </c>
       <c r="D1636" t="s">
         <v>374</v>
@@ -29318,7 +29321,7 @@
         <v>376</v>
       </c>
       <c r="C1637" t="n">
-        <v>92</v>
+        <v>91.8</v>
       </c>
       <c r="D1637" t="s">
         <v>374</v>
@@ -29335,7 +29338,7 @@
         <v>377</v>
       </c>
       <c r="C1638" t="n">
-        <v>90.4</v>
+        <v>90</v>
       </c>
       <c r="D1638" t="s">
         <v>374</v>
@@ -29352,7 +29355,7 @@
         <v>378</v>
       </c>
       <c r="C1639" t="n">
-        <v>90.4</v>
+        <v>90.3</v>
       </c>
       <c r="D1639" t="s">
         <v>374</v>
@@ -29369,7 +29372,7 @@
         <v>379</v>
       </c>
       <c r="C1640" t="n">
-        <v>92.2</v>
+        <v>92.1</v>
       </c>
       <c r="D1640" t="s">
         <v>374</v>
@@ -29386,7 +29389,7 @@
         <v>380</v>
       </c>
       <c r="C1641" t="n">
-        <v>91.4</v>
+        <v>91.1</v>
       </c>
       <c r="D1641" t="s">
         <v>374</v>
@@ -29403,7 +29406,7 @@
         <v>381</v>
       </c>
       <c r="C1642" t="n">
-        <v>87.2</v>
+        <v>87.3</v>
       </c>
       <c r="D1642" t="s">
         <v>374</v>
@@ -29420,7 +29423,7 @@
         <v>202</v>
       </c>
       <c r="C1643" t="n">
-        <v>104.8</v>
+        <v>104.9</v>
       </c>
       <c r="D1643" t="s">
         <v>182</v>
@@ -29437,7 +29440,7 @@
         <v>203</v>
       </c>
       <c r="C1644" t="n">
-        <v>103</v>
+        <v>103.1</v>
       </c>
       <c r="D1644" t="s">
         <v>182</v>
@@ -29454,7 +29457,7 @@
         <v>204</v>
       </c>
       <c r="C1645" t="n">
-        <v>101.3</v>
+        <v>101.4</v>
       </c>
       <c r="D1645" t="s">
         <v>205</v>
@@ -29471,7 +29474,7 @@
         <v>206</v>
       </c>
       <c r="C1646" t="n">
-        <v>104.6</v>
+        <v>104.7</v>
       </c>
       <c r="D1646" t="s">
         <v>205</v>
@@ -29488,7 +29491,7 @@
         <v>207</v>
       </c>
       <c r="C1647" t="n">
-        <v>105.1</v>
+        <v>105.2</v>
       </c>
       <c r="D1647" t="s">
         <v>205</v>
@@ -29505,7 +29508,7 @@
         <v>208</v>
       </c>
       <c r="C1648" t="n">
-        <v>106.8</v>
+        <v>106.9</v>
       </c>
       <c r="D1648" t="s">
         <v>205</v>
@@ -29522,7 +29525,7 @@
         <v>209</v>
       </c>
       <c r="C1649" t="n">
-        <v>107.1</v>
+        <v>107.2</v>
       </c>
       <c r="D1649" t="s">
         <v>205</v>
@@ -29556,7 +29559,7 @@
         <v>211</v>
       </c>
       <c r="C1651" t="n">
-        <v>107.6</v>
+        <v>107.7</v>
       </c>
       <c r="D1651" t="s">
         <v>205</v>
@@ -29573,7 +29576,7 @@
         <v>212</v>
       </c>
       <c r="C1652" t="n">
-        <v>109.2</v>
+        <v>109.3</v>
       </c>
       <c r="D1652" t="s">
         <v>205</v>
@@ -29692,7 +29695,7 @@
         <v>220</v>
       </c>
       <c r="C1659" t="n">
-        <v>106.2</v>
+        <v>106.3</v>
       </c>
       <c r="D1659" t="s">
         <v>218</v>
@@ -29726,7 +29729,7 @@
         <v>222</v>
       </c>
       <c r="C1661" t="n">
-        <v>104.8</v>
+        <v>104.9</v>
       </c>
       <c r="D1661" t="s">
         <v>218</v>
@@ -29743,7 +29746,7 @@
         <v>223</v>
       </c>
       <c r="C1662" t="n">
-        <v>105.3</v>
+        <v>105.4</v>
       </c>
       <c r="D1662" t="s">
         <v>218</v>
@@ -29777,7 +29780,7 @@
         <v>225</v>
       </c>
       <c r="C1664" t="n">
-        <v>97</v>
+        <v>97.1</v>
       </c>
       <c r="D1664" t="s">
         <v>218</v>
@@ -29794,7 +29797,7 @@
         <v>226</v>
       </c>
       <c r="C1665" t="n">
-        <v>93</v>
+        <v>93.1</v>
       </c>
       <c r="D1665" t="s">
         <v>218</v>
@@ -29811,7 +29814,7 @@
         <v>227</v>
       </c>
       <c r="C1666" t="n">
-        <v>93.8</v>
+        <v>94</v>
       </c>
       <c r="D1666" t="s">
         <v>218</v>
@@ -29828,7 +29831,7 @@
         <v>228</v>
       </c>
       <c r="C1667" t="n">
-        <v>94.9</v>
+        <v>95</v>
       </c>
       <c r="D1667" t="s">
         <v>218</v>
@@ -29845,7 +29848,7 @@
         <v>229</v>
       </c>
       <c r="C1668" t="n">
-        <v>95.9</v>
+        <v>96</v>
       </c>
       <c r="D1668" t="s">
         <v>218</v>
@@ -29862,7 +29865,7 @@
         <v>230</v>
       </c>
       <c r="C1669" t="n">
-        <v>97.1</v>
+        <v>97.2</v>
       </c>
       <c r="D1669" t="s">
         <v>231</v>
@@ -29896,7 +29899,7 @@
         <v>233</v>
       </c>
       <c r="C1671" t="n">
-        <v>98.9</v>
+        <v>99</v>
       </c>
       <c r="D1671" t="s">
         <v>231</v>
@@ -29913,7 +29916,7 @@
         <v>234</v>
       </c>
       <c r="C1672" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="D1672" t="s">
         <v>231</v>
@@ -29930,7 +29933,7 @@
         <v>235</v>
       </c>
       <c r="C1673" t="n">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="D1673" t="s">
         <v>231</v>
@@ -29947,7 +29950,7 @@
         <v>236</v>
       </c>
       <c r="C1674" t="n">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="D1674" t="s">
         <v>231</v>
@@ -29964,7 +29967,7 @@
         <v>237</v>
       </c>
       <c r="C1675" t="n">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="D1675" t="s">
         <v>231</v>
@@ -29998,7 +30001,7 @@
         <v>239</v>
       </c>
       <c r="C1677" t="n">
-        <v>99.4</v>
+        <v>99.5</v>
       </c>
       <c r="D1677" t="s">
         <v>231</v>
@@ -30015,7 +30018,7 @@
         <v>240</v>
       </c>
       <c r="C1678" t="n">
-        <v>98.9</v>
+        <v>99</v>
       </c>
       <c r="D1678" t="s">
         <v>231</v>
@@ -30032,7 +30035,7 @@
         <v>241</v>
       </c>
       <c r="C1679" t="n">
-        <v>96.8</v>
+        <v>96.9</v>
       </c>
       <c r="D1679" t="s">
         <v>231</v>
@@ -30049,7 +30052,7 @@
         <v>242</v>
       </c>
       <c r="C1680" t="n">
-        <v>93.5</v>
+        <v>93.7</v>
       </c>
       <c r="D1680" t="s">
         <v>231</v>
@@ -30066,7 +30069,7 @@
         <v>243</v>
       </c>
       <c r="C1681" t="n">
-        <v>98.4</v>
+        <v>98.5</v>
       </c>
       <c r="D1681" t="s">
         <v>244</v>
@@ -30083,7 +30086,7 @@
         <v>245</v>
       </c>
       <c r="C1682" t="n">
-        <v>99.4</v>
+        <v>99.5</v>
       </c>
       <c r="D1682" t="s">
         <v>244</v>
@@ -30117,7 +30120,7 @@
         <v>247</v>
       </c>
       <c r="C1684" t="n">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="D1684" t="s">
         <v>244</v>
@@ -30151,7 +30154,7 @@
         <v>249</v>
       </c>
       <c r="C1686" t="n">
-        <v>99.6</v>
+        <v>99.7</v>
       </c>
       <c r="D1686" t="s">
         <v>244</v>
@@ -30168,7 +30171,7 @@
         <v>250</v>
       </c>
       <c r="C1687" t="n">
-        <v>102.5</v>
+        <v>102.6</v>
       </c>
       <c r="D1687" t="s">
         <v>244</v>
@@ -30202,7 +30205,7 @@
         <v>252</v>
       </c>
       <c r="C1689" t="n">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="D1689" t="s">
         <v>244</v>
@@ -30236,7 +30239,7 @@
         <v>254</v>
       </c>
       <c r="C1691" t="n">
-        <v>105.8</v>
+        <v>105.9</v>
       </c>
       <c r="D1691" t="s">
         <v>244</v>
@@ -30270,7 +30273,7 @@
         <v>256</v>
       </c>
       <c r="C1693" t="n">
-        <v>104.4</v>
+        <v>104.5</v>
       </c>
       <c r="D1693" t="s">
         <v>257</v>
@@ -30287,7 +30290,7 @@
         <v>258</v>
       </c>
       <c r="C1694" t="n">
-        <v>103.2</v>
+        <v>103.3</v>
       </c>
       <c r="D1694" t="s">
         <v>257</v>
@@ -30321,7 +30324,7 @@
         <v>260</v>
       </c>
       <c r="C1696" t="n">
-        <v>103.1</v>
+        <v>103.2</v>
       </c>
       <c r="D1696" t="s">
         <v>257</v>
@@ -30338,7 +30341,7 @@
         <v>261</v>
       </c>
       <c r="C1697" t="n">
-        <v>104.3</v>
+        <v>104.4</v>
       </c>
       <c r="D1697" t="s">
         <v>257</v>
@@ -30372,7 +30375,7 @@
         <v>263</v>
       </c>
       <c r="C1699" t="n">
-        <v>104.4</v>
+        <v>104.5</v>
       </c>
       <c r="D1699" t="s">
         <v>257</v>
@@ -30406,7 +30409,7 @@
         <v>265</v>
       </c>
       <c r="C1701" t="n">
-        <v>105.1</v>
+        <v>105.2</v>
       </c>
       <c r="D1701" t="s">
         <v>257</v>
@@ -30423,7 +30426,7 @@
         <v>266</v>
       </c>
       <c r="C1702" t="n">
-        <v>101.4</v>
+        <v>101.5</v>
       </c>
       <c r="D1702" t="s">
         <v>257</v>
@@ -30457,7 +30460,7 @@
         <v>268</v>
       </c>
       <c r="C1704" t="n">
-        <v>101.8</v>
+        <v>101.9</v>
       </c>
       <c r="D1704" t="s">
         <v>257</v>
@@ -30474,7 +30477,7 @@
         <v>269</v>
       </c>
       <c r="C1705" t="n">
-        <v>101.4</v>
+        <v>101.5</v>
       </c>
       <c r="D1705" t="s">
         <v>270</v>
@@ -30491,7 +30494,7 @@
         <v>271</v>
       </c>
       <c r="C1706" t="n">
-        <v>100.9</v>
+        <v>101</v>
       </c>
       <c r="D1706" t="s">
         <v>270</v>
@@ -30525,7 +30528,7 @@
         <v>273</v>
       </c>
       <c r="C1708" t="n">
-        <v>100.4</v>
+        <v>100.5</v>
       </c>
       <c r="D1708" t="s">
         <v>270</v>
@@ -30559,7 +30562,7 @@
         <v>275</v>
       </c>
       <c r="C1710" t="n">
-        <v>101</v>
+        <v>101.1</v>
       </c>
       <c r="D1710" t="s">
         <v>270</v>
@@ -30593,7 +30596,7 @@
         <v>277</v>
       </c>
       <c r="C1712" t="n">
-        <v>102.7</v>
+        <v>102.8</v>
       </c>
       <c r="D1712" t="s">
         <v>270</v>
@@ -30610,7 +30613,7 @@
         <v>278</v>
       </c>
       <c r="C1713" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
       <c r="D1713" t="s">
         <v>270</v>
@@ -30644,7 +30647,7 @@
         <v>280</v>
       </c>
       <c r="C1715" t="n">
-        <v>96.9</v>
+        <v>97</v>
       </c>
       <c r="D1715" t="s">
         <v>270</v>
@@ -30661,7 +30664,7 @@
         <v>281</v>
       </c>
       <c r="C1716" t="n">
-        <v>99.9</v>
+        <v>100</v>
       </c>
       <c r="D1716" t="s">
         <v>270</v>
@@ -30729,7 +30732,7 @@
         <v>286</v>
       </c>
       <c r="C1720" t="n">
-        <v>99.9</v>
+        <v>100</v>
       </c>
       <c r="D1720" t="s">
         <v>283</v>
@@ -30746,7 +30749,7 @@
         <v>287</v>
       </c>
       <c r="C1721" t="n">
-        <v>99.9</v>
+        <v>100</v>
       </c>
       <c r="D1721" t="s">
         <v>283</v>
@@ -30763,7 +30766,7 @@
         <v>288</v>
       </c>
       <c r="C1722" t="n">
-        <v>101.7</v>
+        <v>101.8</v>
       </c>
       <c r="D1722" t="s">
         <v>283</v>
@@ -30814,7 +30817,7 @@
         <v>291</v>
       </c>
       <c r="C1725" t="n">
-        <v>102.9</v>
+        <v>102.7</v>
       </c>
       <c r="D1725" t="s">
         <v>283</v>
@@ -30848,7 +30851,7 @@
         <v>293</v>
       </c>
       <c r="C1727" t="n">
-        <v>103.7</v>
+        <v>103.8</v>
       </c>
       <c r="D1727" t="s">
         <v>283</v>
@@ -30882,7 +30885,7 @@
         <v>295</v>
       </c>
       <c r="C1729" t="n">
-        <v>103.4</v>
+        <v>103.5</v>
       </c>
       <c r="D1729" t="s">
         <v>296</v>
@@ -30967,7 +30970,7 @@
         <v>301</v>
       </c>
       <c r="C1734" t="n">
-        <v>104.9</v>
+        <v>105</v>
       </c>
       <c r="D1734" t="s">
         <v>296</v>
@@ -31035,7 +31038,7 @@
         <v>305</v>
       </c>
       <c r="C1738" t="n">
-        <v>105.5</v>
+        <v>105.6</v>
       </c>
       <c r="D1738" t="s">
         <v>296</v>
@@ -31120,7 +31123,7 @@
         <v>311</v>
       </c>
       <c r="C1743" t="n">
-        <v>103.4</v>
+        <v>103.1</v>
       </c>
       <c r="D1743" t="s">
         <v>309</v>
@@ -31137,7 +31140,7 @@
         <v>312</v>
       </c>
       <c r="C1744" t="n">
-        <v>103.4</v>
+        <v>103.5</v>
       </c>
       <c r="D1744" t="s">
         <v>309</v>
@@ -31154,7 +31157,7 @@
         <v>313</v>
       </c>
       <c r="C1745" t="n">
-        <v>103</v>
+        <v>103.1</v>
       </c>
       <c r="D1745" t="s">
         <v>309</v>
@@ -31256,7 +31259,7 @@
         <v>319</v>
       </c>
       <c r="C1751" t="n">
-        <v>100.7</v>
+        <v>100.8</v>
       </c>
       <c r="D1751" t="s">
         <v>309</v>
@@ -31273,7 +31276,7 @@
         <v>320</v>
       </c>
       <c r="C1752" t="n">
-        <v>98.5</v>
+        <v>98.6</v>
       </c>
       <c r="D1752" t="s">
         <v>309</v>
@@ -31290,7 +31293,7 @@
         <v>321</v>
       </c>
       <c r="C1753" t="n">
-        <v>97.2</v>
+        <v>97.4</v>
       </c>
       <c r="D1753" t="s">
         <v>322</v>
@@ -31307,7 +31310,7 @@
         <v>323</v>
       </c>
       <c r="C1754" t="n">
-        <v>97.5</v>
+        <v>97.6</v>
       </c>
       <c r="D1754" t="s">
         <v>322</v>
@@ -31324,7 +31327,7 @@
         <v>324</v>
       </c>
       <c r="C1755" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="D1755" t="s">
         <v>322</v>
@@ -31358,7 +31361,7 @@
         <v>326</v>
       </c>
       <c r="C1757" t="n">
-        <v>98.3</v>
+        <v>98.2</v>
       </c>
       <c r="D1757" t="s">
         <v>322</v>
@@ -31375,7 +31378,7 @@
         <v>327</v>
       </c>
       <c r="C1758" t="n">
-        <v>98.4</v>
+        <v>98.5</v>
       </c>
       <c r="D1758" t="s">
         <v>322</v>
@@ -31392,7 +31395,7 @@
         <v>328</v>
       </c>
       <c r="C1759" t="n">
-        <v>101.3</v>
+        <v>101.4</v>
       </c>
       <c r="D1759" t="s">
         <v>322</v>
@@ -31409,7 +31412,7 @@
         <v>329</v>
       </c>
       <c r="C1760" t="n">
-        <v>98.1</v>
+        <v>98.2</v>
       </c>
       <c r="D1760" t="s">
         <v>322</v>
@@ -31426,7 +31429,7 @@
         <v>330</v>
       </c>
       <c r="C1761" t="n">
-        <v>95.6</v>
+        <v>95.7</v>
       </c>
       <c r="D1761" t="s">
         <v>322</v>
@@ -31443,7 +31446,7 @@
         <v>331</v>
       </c>
       <c r="C1762" t="n">
-        <v>97.1</v>
+        <v>97.2</v>
       </c>
       <c r="D1762" t="s">
         <v>322</v>
@@ -31460,7 +31463,7 @@
         <v>332</v>
       </c>
       <c r="C1763" t="n">
-        <v>97.4</v>
+        <v>97.5</v>
       </c>
       <c r="D1763" t="s">
         <v>322</v>
@@ -31494,7 +31497,7 @@
         <v>334</v>
       </c>
       <c r="C1765" t="n">
-        <v>97.4</v>
+        <v>97.5</v>
       </c>
       <c r="D1765" t="s">
         <v>335</v>
@@ -31528,7 +31531,7 @@
         <v>337</v>
       </c>
       <c r="C1767" t="n">
-        <v>95.5</v>
+        <v>95.6</v>
       </c>
       <c r="D1767" t="s">
         <v>335</v>
@@ -31545,7 +31548,7 @@
         <v>338</v>
       </c>
       <c r="C1768" t="n">
-        <v>84.5</v>
+        <v>84.8</v>
       </c>
       <c r="D1768" t="s">
         <v>335</v>
@@ -31562,7 +31565,7 @@
         <v>339</v>
       </c>
       <c r="C1769" t="n">
-        <v>86</v>
+        <v>86.1</v>
       </c>
       <c r="D1769" t="s">
         <v>335</v>
@@ -31579,7 +31582,7 @@
         <v>340</v>
       </c>
       <c r="C1770" t="n">
-        <v>90.3</v>
+        <v>90.4</v>
       </c>
       <c r="D1770" t="s">
         <v>335</v>
@@ -31596,7 +31599,7 @@
         <v>341</v>
       </c>
       <c r="C1771" t="n">
-        <v>91.9</v>
+        <v>91.8</v>
       </c>
       <c r="D1771" t="s">
         <v>335</v>
@@ -31613,7 +31616,7 @@
         <v>342</v>
       </c>
       <c r="C1772" t="n">
-        <v>92.2</v>
+        <v>92.4</v>
       </c>
       <c r="D1772" t="s">
         <v>335</v>
@@ -31630,7 +31633,7 @@
         <v>343</v>
       </c>
       <c r="C1773" t="n">
-        <v>94.4</v>
+        <v>94.6</v>
       </c>
       <c r="D1773" t="s">
         <v>335</v>
@@ -31647,7 +31650,7 @@
         <v>344</v>
       </c>
       <c r="C1774" t="n">
-        <v>96.2</v>
+        <v>96.4</v>
       </c>
       <c r="D1774" t="s">
         <v>335</v>
@@ -31681,7 +31684,7 @@
         <v>346</v>
       </c>
       <c r="C1776" t="n">
-        <v>96.9</v>
+        <v>96.8</v>
       </c>
       <c r="D1776" t="s">
         <v>335</v>
@@ -31698,7 +31701,7 @@
         <v>347</v>
       </c>
       <c r="C1777" t="n">
-        <v>98.9</v>
+        <v>99.1</v>
       </c>
       <c r="D1777" t="s">
         <v>348</v>
@@ -31715,7 +31718,7 @@
         <v>349</v>
       </c>
       <c r="C1778" t="n">
-        <v>100.6</v>
+        <v>100.7</v>
       </c>
       <c r="D1778" t="s">
         <v>348</v>
@@ -31732,7 +31735,7 @@
         <v>350</v>
       </c>
       <c r="C1779" t="n">
-        <v>101.5</v>
+        <v>101.7</v>
       </c>
       <c r="D1779" t="s">
         <v>348</v>
@@ -31749,7 +31752,7 @@
         <v>351</v>
       </c>
       <c r="C1780" t="n">
-        <v>104.8</v>
+        <v>104.7</v>
       </c>
       <c r="D1780" t="s">
         <v>348</v>
@@ -31766,7 +31769,7 @@
         <v>352</v>
       </c>
       <c r="C1781" t="n">
-        <v>109.6</v>
+        <v>109.2</v>
       </c>
       <c r="D1781" t="s">
         <v>348</v>
@@ -31783,7 +31786,7 @@
         <v>353</v>
       </c>
       <c r="C1782" t="n">
-        <v>107.2</v>
+        <v>107.1</v>
       </c>
       <c r="D1782" t="s">
         <v>348</v>
@@ -31800,7 +31803,7 @@
         <v>354</v>
       </c>
       <c r="C1783" t="n">
-        <v>107.6</v>
+        <v>107.8</v>
       </c>
       <c r="D1783" t="s">
         <v>348</v>
@@ -31851,7 +31854,7 @@
         <v>357</v>
       </c>
       <c r="C1786" t="n">
-        <v>105.5</v>
+        <v>105.7</v>
       </c>
       <c r="D1786" t="s">
         <v>348</v>
@@ -31868,7 +31871,7 @@
         <v>358</v>
       </c>
       <c r="C1787" t="n">
-        <v>102.5</v>
+        <v>102.6</v>
       </c>
       <c r="D1787" t="s">
         <v>348</v>
@@ -31885,7 +31888,7 @@
         <v>359</v>
       </c>
       <c r="C1788" t="n">
-        <v>101.5</v>
+        <v>101.6</v>
       </c>
       <c r="D1788" t="s">
         <v>348</v>
@@ -31902,7 +31905,7 @@
         <v>360</v>
       </c>
       <c r="C1789" t="n">
-        <v>96.1</v>
+        <v>96.4</v>
       </c>
       <c r="D1789" t="s">
         <v>361</v>
@@ -31919,7 +31922,7 @@
         <v>362</v>
       </c>
       <c r="C1790" t="n">
-        <v>94.7</v>
+        <v>95</v>
       </c>
       <c r="D1790" t="s">
         <v>361</v>
@@ -31953,7 +31956,7 @@
         <v>364</v>
       </c>
       <c r="C1792" t="n">
-        <v>84.5</v>
+        <v>84.3</v>
       </c>
       <c r="D1792" t="s">
         <v>361</v>
@@ -31970,7 +31973,7 @@
         <v>365</v>
       </c>
       <c r="C1793" t="n">
-        <v>79.9</v>
+        <v>80</v>
       </c>
       <c r="D1793" t="s">
         <v>361</v>
@@ -31987,7 +31990,7 @@
         <v>366</v>
       </c>
       <c r="C1794" t="n">
-        <v>76.4</v>
+        <v>76.7</v>
       </c>
       <c r="D1794" t="s">
         <v>361</v>
@@ -32004,7 +32007,7 @@
         <v>367</v>
       </c>
       <c r="C1795" t="n">
-        <v>69.4</v>
+        <v>69.8</v>
       </c>
       <c r="D1795" t="s">
         <v>361</v>
@@ -32021,7 +32024,7 @@
         <v>368</v>
       </c>
       <c r="C1796" t="n">
-        <v>69.3</v>
+        <v>69.7</v>
       </c>
       <c r="D1796" t="s">
         <v>361</v>
@@ -32038,7 +32041,7 @@
         <v>369</v>
       </c>
       <c r="C1797" t="n">
-        <v>63.8</v>
+        <v>64.4</v>
       </c>
       <c r="D1797" t="s">
         <v>361</v>
@@ -32055,7 +32058,7 @@
         <v>370</v>
       </c>
       <c r="C1798" t="n">
-        <v>61.4</v>
+        <v>61.8</v>
       </c>
       <c r="D1798" t="s">
         <v>361</v>
@@ -32072,7 +32075,7 @@
         <v>371</v>
       </c>
       <c r="C1799" t="n">
-        <v>65.2</v>
+        <v>65.7</v>
       </c>
       <c r="D1799" t="s">
         <v>361</v>
@@ -32089,7 +32092,7 @@
         <v>372</v>
       </c>
       <c r="C1800" t="n">
-        <v>63.2</v>
+        <v>63.6</v>
       </c>
       <c r="D1800" t="s">
         <v>361</v>
@@ -32106,7 +32109,7 @@
         <v>373</v>
       </c>
       <c r="C1801" t="n">
-        <v>63.6</v>
+        <v>64.1</v>
       </c>
       <c r="D1801" t="s">
         <v>374</v>
@@ -32123,7 +32126,7 @@
         <v>375</v>
       </c>
       <c r="C1802" t="n">
-        <v>66.2</v>
+        <v>66.7</v>
       </c>
       <c r="D1802" t="s">
         <v>374</v>
@@ -32140,7 +32143,7 @@
         <v>376</v>
       </c>
       <c r="C1803" t="n">
-        <v>67.7</v>
+        <v>68.2</v>
       </c>
       <c r="D1803" t="s">
         <v>374</v>
@@ -32157,7 +32160,7 @@
         <v>377</v>
       </c>
       <c r="C1804" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="D1804" t="s">
         <v>374</v>
@@ -32174,7 +32177,7 @@
         <v>378</v>
       </c>
       <c r="C1805" t="n">
-        <v>72.6</v>
+        <v>72.7</v>
       </c>
       <c r="D1805" t="s">
         <v>374</v>
@@ -32191,7 +32194,7 @@
         <v>379</v>
       </c>
       <c r="C1806" t="n">
-        <v>73.3</v>
+        <v>73.8</v>
       </c>
       <c r="D1806" t="s">
         <v>374</v>
@@ -32208,7 +32211,7 @@
         <v>380</v>
       </c>
       <c r="C1807" t="n">
-        <v>73.1</v>
+        <v>73.6</v>
       </c>
       <c r="D1807" t="s">
         <v>374</v>
@@ -32225,7 +32228,7 @@
         <v>381</v>
       </c>
       <c r="C1808" t="n">
-        <v>71.1</v>
+        <v>71.6</v>
       </c>
       <c r="D1808" t="s">
         <v>374</v>
@@ -32242,7 +32245,7 @@
         <v>383</v>
       </c>
       <c r="C1809" t="n">
-        <v>86</v>
+        <v>86.1</v>
       </c>
       <c r="D1809" t="s">
         <v>374</v>
@@ -32259,7 +32262,7 @@
         <v>384</v>
       </c>
       <c r="C1810" t="n">
-        <v>84.7</v>
+        <v>84.9</v>
       </c>
       <c r="D1810" t="s">
         <v>374</v>
@@ -32270,19 +32273,19 @@
     </row>
     <row r="1811">
       <c r="A1811" t="s">
-        <v>192</v>
+        <v>5</v>
       </c>
       <c r="B1811" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C1811" t="n">
-        <v>100.4</v>
+        <v>84.6</v>
       </c>
       <c r="D1811" t="s">
         <v>374</v>
       </c>
       <c r="E1811" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1812">
@@ -32290,61 +32293,61 @@
         <v>192</v>
       </c>
       <c r="B1812" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C1812" t="n">
-        <v>99.5</v>
+        <v>100.4</v>
       </c>
       <c r="D1812" t="s">
         <v>374</v>
       </c>
       <c r="E1812" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1813">
       <c r="A1813" t="s">
-        <v>382</v>
+        <v>192</v>
       </c>
       <c r="B1813" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C1813" t="n">
-        <v>84.2</v>
+        <v>99.6</v>
       </c>
       <c r="D1813" t="s">
         <v>374</v>
       </c>
       <c r="E1813" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1814">
       <c r="A1814" t="s">
-        <v>382</v>
+        <v>192</v>
       </c>
       <c r="B1814" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C1814" t="n">
-        <v>83</v>
+        <v>99.1</v>
       </c>
       <c r="D1814" t="s">
         <v>374</v>
       </c>
       <c r="E1814" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1815">
       <c r="A1815" t="s">
-        <v>198</v>
+        <v>382</v>
       </c>
       <c r="B1815" t="s">
         <v>383</v>
       </c>
       <c r="C1815" t="n">
-        <v>84.5</v>
+        <v>84.4</v>
       </c>
       <c r="D1815" t="s">
         <v>374</v>
@@ -32355,13 +32358,13 @@
     </row>
     <row r="1816">
       <c r="A1816" t="s">
-        <v>198</v>
+        <v>382</v>
       </c>
       <c r="B1816" t="s">
         <v>384</v>
       </c>
       <c r="C1816" t="n">
-        <v>90.6</v>
+        <v>83.4</v>
       </c>
       <c r="D1816" t="s">
         <v>374</v>
@@ -32372,70 +32375,172 @@
     </row>
     <row r="1817">
       <c r="A1817" t="s">
-        <v>199</v>
+        <v>382</v>
       </c>
       <c r="B1817" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C1817" t="n">
-        <v>86</v>
+        <v>83.4</v>
       </c>
       <c r="D1817" t="s">
         <v>374</v>
       </c>
       <c r="E1817" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1818">
       <c r="A1818" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B1818" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C1818" t="n">
-        <v>83.2</v>
+        <v>84.3</v>
       </c>
       <c r="D1818" t="s">
         <v>374</v>
       </c>
       <c r="E1818" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1819">
       <c r="A1819" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B1819" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C1819" t="n">
-        <v>69.4</v>
+        <v>90.9</v>
       </c>
       <c r="D1819" t="s">
         <v>374</v>
       </c>
       <c r="E1819" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1820">
       <c r="A1820" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B1820" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C1820" t="n">
-        <v>70.1</v>
+        <v>88</v>
       </c>
       <c r="D1820" t="s">
         <v>374</v>
       </c>
       <c r="E1820" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1821">
+      <c r="A1821" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1821" t="s">
+        <v>383</v>
+      </c>
+      <c r="C1821" t="n">
+        <v>86.1</v>
+      </c>
+      <c r="D1821" t="s">
+        <v>374</v>
+      </c>
+      <c r="E1821" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1822">
+      <c r="A1822" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1822" t="s">
+        <v>384</v>
+      </c>
+      <c r="C1822" t="n">
+        <v>83.1</v>
+      </c>
+      <c r="D1822" t="s">
+        <v>374</v>
+      </c>
+      <c r="E1822" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="1823">
+      <c r="A1823" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1823" t="s">
+        <v>385</v>
+      </c>
+      <c r="C1823" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="D1823" t="s">
+        <v>374</v>
+      </c>
+      <c r="E1823" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1824">
+      <c r="A1824" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1824" t="s">
+        <v>383</v>
+      </c>
+      <c r="C1824" t="n">
+        <v>69.9</v>
+      </c>
+      <c r="D1824" t="s">
+        <v>374</v>
+      </c>
+      <c r="E1824" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1825">
+      <c r="A1825" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1825" t="s">
+        <v>384</v>
+      </c>
+      <c r="C1825" t="n">
+        <v>70.6</v>
+      </c>
+      <c r="D1825" t="s">
+        <v>374</v>
+      </c>
+      <c r="E1825" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1826">
+      <c r="A1826" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1826" t="s">
+        <v>385</v>
+      </c>
+      <c r="C1826" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="D1826" t="s">
+        <v>374</v>
+      </c>
+      <c r="E1826" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Data/konjunkturbarometern.xlsx
+++ b/Data/konjunkturbarometern.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="387">
   <si>
     <t xml:space="preserve">Indikator</t>
   </si>
@@ -1170,6 +1170,9 @@
   </si>
   <si>
     <t xml:space="preserve">2023-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-12</t>
   </si>
 </sst>
 </file>
@@ -1526,7 +1529,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>86.3</v>
+        <v>86.4</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -1560,7 +1563,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>89.5</v>
+        <v>89.6</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -1577,7 +1580,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>91.6</v>
+        <v>91.7</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -1611,7 +1614,7 @@
         <v>17</v>
       </c>
       <c r="C7" t="n">
-        <v>91.7</v>
+        <v>91.8</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -1628,7 +1631,7 @@
         <v>19</v>
       </c>
       <c r="C8" t="n">
-        <v>93.8</v>
+        <v>93.9</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -1662,7 +1665,7 @@
         <v>24</v>
       </c>
       <c r="C10" t="n">
-        <v>96.6</v>
+        <v>96.7</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1696,7 +1699,7 @@
         <v>28</v>
       </c>
       <c r="C12" t="n">
-        <v>95.7</v>
+        <v>95.8</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1713,7 +1716,7 @@
         <v>30</v>
       </c>
       <c r="C13" t="n">
-        <v>96.8</v>
+        <v>96.9</v>
       </c>
       <c r="D13" t="s">
         <v>20</v>
@@ -1730,7 +1733,7 @@
         <v>32</v>
       </c>
       <c r="C14" t="n">
-        <v>99.2</v>
+        <v>99.3</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1747,7 +1750,7 @@
         <v>33</v>
       </c>
       <c r="C15" t="n">
-        <v>99.3</v>
+        <v>99.4</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
@@ -1764,7 +1767,7 @@
         <v>34</v>
       </c>
       <c r="C16" t="n">
-        <v>102.2</v>
+        <v>102.3</v>
       </c>
       <c r="D16" t="s">
         <v>20</v>
@@ -1798,7 +1801,7 @@
         <v>36</v>
       </c>
       <c r="C18" t="n">
-        <v>104.1</v>
+        <v>104.2</v>
       </c>
       <c r="D18" t="s">
         <v>20</v>
@@ -1849,7 +1852,7 @@
         <v>40</v>
       </c>
       <c r="C21" t="n">
-        <v>104.2</v>
+        <v>104.3</v>
       </c>
       <c r="D21" t="s">
         <v>39</v>
@@ -1900,7 +1903,7 @@
         <v>43</v>
       </c>
       <c r="C24" t="n">
-        <v>104.7</v>
+        <v>104.8</v>
       </c>
       <c r="D24" t="s">
         <v>39</v>
@@ -1917,7 +1920,7 @@
         <v>44</v>
       </c>
       <c r="C25" t="n">
-        <v>106.2</v>
+        <v>106.3</v>
       </c>
       <c r="D25" t="s">
         <v>39</v>
@@ -1934,7 +1937,7 @@
         <v>45</v>
       </c>
       <c r="C26" t="n">
-        <v>105.2</v>
+        <v>105.3</v>
       </c>
       <c r="D26" t="s">
         <v>39</v>
@@ -2087,7 +2090,7 @@
         <v>55</v>
       </c>
       <c r="C35" t="n">
-        <v>96.7</v>
+        <v>96.8</v>
       </c>
       <c r="D35" t="s">
         <v>52</v>
@@ -2104,7 +2107,7 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>101.9</v>
+        <v>102</v>
       </c>
       <c r="D36" t="s">
         <v>52</v>
@@ -2138,7 +2141,7 @@
         <v>58</v>
       </c>
       <c r="C38" t="n">
-        <v>103</v>
+        <v>103.1</v>
       </c>
       <c r="D38" t="s">
         <v>52</v>
@@ -2189,7 +2192,7 @@
         <v>61</v>
       </c>
       <c r="C41" t="n">
-        <v>106.5</v>
+        <v>106.6</v>
       </c>
       <c r="D41" t="s">
         <v>52</v>
@@ -2223,7 +2226,7 @@
         <v>63</v>
       </c>
       <c r="C43" t="n">
-        <v>110.1</v>
+        <v>110.2</v>
       </c>
       <c r="D43" t="s">
         <v>52</v>
@@ -2240,7 +2243,7 @@
         <v>64</v>
       </c>
       <c r="C44" t="n">
-        <v>111.6</v>
+        <v>111.7</v>
       </c>
       <c r="D44" t="s">
         <v>65</v>
@@ -2308,7 +2311,7 @@
         <v>69</v>
       </c>
       <c r="C48" t="n">
-        <v>113.1</v>
+        <v>113.2</v>
       </c>
       <c r="D48" t="s">
         <v>65</v>
@@ -2427,7 +2430,7 @@
         <v>76</v>
       </c>
       <c r="C55" t="n">
-        <v>103.6</v>
+        <v>103.7</v>
       </c>
       <c r="D55" t="s">
         <v>65</v>
@@ -2444,7 +2447,7 @@
         <v>77</v>
       </c>
       <c r="C56" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="D56" t="s">
         <v>78</v>
@@ -2461,7 +2464,7 @@
         <v>79</v>
       </c>
       <c r="C57" t="n">
-        <v>96.6</v>
+        <v>96.7</v>
       </c>
       <c r="D57" t="s">
         <v>78</v>
@@ -2478,7 +2481,7 @@
         <v>80</v>
       </c>
       <c r="C58" t="n">
-        <v>94.6</v>
+        <v>94.7</v>
       </c>
       <c r="D58" t="s">
         <v>78</v>
@@ -2512,7 +2515,7 @@
         <v>82</v>
       </c>
       <c r="C60" t="n">
-        <v>90.6</v>
+        <v>90.7</v>
       </c>
       <c r="D60" t="s">
         <v>78</v>
@@ -2597,7 +2600,7 @@
         <v>87</v>
       </c>
       <c r="C65" t="n">
-        <v>86</v>
+        <v>86.1</v>
       </c>
       <c r="D65" t="s">
         <v>78</v>
@@ -2614,7 +2617,7 @@
         <v>88</v>
       </c>
       <c r="C66" t="n">
-        <v>88.3</v>
+        <v>88.4</v>
       </c>
       <c r="D66" t="s">
         <v>78</v>
@@ -2631,7 +2634,7 @@
         <v>89</v>
       </c>
       <c r="C67" t="n">
-        <v>90.3</v>
+        <v>90.4</v>
       </c>
       <c r="D67" t="s">
         <v>78</v>
@@ -2648,7 +2651,7 @@
         <v>90</v>
       </c>
       <c r="C68" t="n">
-        <v>91.6</v>
+        <v>91.7</v>
       </c>
       <c r="D68" t="s">
         <v>91</v>
@@ -2682,7 +2685,7 @@
         <v>93</v>
       </c>
       <c r="C70" t="n">
-        <v>94.5</v>
+        <v>94.6</v>
       </c>
       <c r="D70" t="s">
         <v>91</v>
@@ -2699,7 +2702,7 @@
         <v>94</v>
       </c>
       <c r="C71" t="n">
-        <v>94</v>
+        <v>94.1</v>
       </c>
       <c r="D71" t="s">
         <v>91</v>
@@ -2716,7 +2719,7 @@
         <v>95</v>
       </c>
       <c r="C72" t="n">
-        <v>91.9</v>
+        <v>92</v>
       </c>
       <c r="D72" t="s">
         <v>91</v>
@@ -2733,7 +2736,7 @@
         <v>96</v>
       </c>
       <c r="C73" t="n">
-        <v>95.5</v>
+        <v>95.6</v>
       </c>
       <c r="D73" t="s">
         <v>91</v>
@@ -2750,7 +2753,7 @@
         <v>97</v>
       </c>
       <c r="C74" t="n">
-        <v>93.2</v>
+        <v>93.3</v>
       </c>
       <c r="D74" t="s">
         <v>91</v>
@@ -2767,7 +2770,7 @@
         <v>98</v>
       </c>
       <c r="C75" t="n">
-        <v>91.2</v>
+        <v>91.3</v>
       </c>
       <c r="D75" t="s">
         <v>91</v>
@@ -2784,7 +2787,7 @@
         <v>99</v>
       </c>
       <c r="C76" t="n">
-        <v>92.3</v>
+        <v>92.4</v>
       </c>
       <c r="D76" t="s">
         <v>91</v>
@@ -2801,7 +2804,7 @@
         <v>100</v>
       </c>
       <c r="C77" t="n">
-        <v>87.8</v>
+        <v>87.9</v>
       </c>
       <c r="D77" t="s">
         <v>91</v>
@@ -2818,7 +2821,7 @@
         <v>101</v>
       </c>
       <c r="C78" t="n">
-        <v>89.3</v>
+        <v>89.4</v>
       </c>
       <c r="D78" t="s">
         <v>91</v>
@@ -2835,7 +2838,7 @@
         <v>102</v>
       </c>
       <c r="C79" t="n">
-        <v>91</v>
+        <v>91.1</v>
       </c>
       <c r="D79" t="s">
         <v>91</v>
@@ -2852,7 +2855,7 @@
         <v>103</v>
       </c>
       <c r="C80" t="n">
-        <v>88.7</v>
+        <v>88.8</v>
       </c>
       <c r="D80" t="s">
         <v>104</v>
@@ -2869,7 +2872,7 @@
         <v>105</v>
       </c>
       <c r="C81" t="n">
-        <v>94.5</v>
+        <v>94.6</v>
       </c>
       <c r="D81" t="s">
         <v>104</v>
@@ -2903,7 +2906,7 @@
         <v>107</v>
       </c>
       <c r="C83" t="n">
-        <v>87.8</v>
+        <v>87.9</v>
       </c>
       <c r="D83" t="s">
         <v>104</v>
@@ -2920,7 +2923,7 @@
         <v>108</v>
       </c>
       <c r="C84" t="n">
-        <v>90</v>
+        <v>90.1</v>
       </c>
       <c r="D84" t="s">
         <v>104</v>
@@ -2954,7 +2957,7 @@
         <v>110</v>
       </c>
       <c r="C86" t="n">
-        <v>86</v>
+        <v>86.1</v>
       </c>
       <c r="D86" t="s">
         <v>104</v>
@@ -2971,7 +2974,7 @@
         <v>111</v>
       </c>
       <c r="C87" t="n">
-        <v>89.2</v>
+        <v>89.3</v>
       </c>
       <c r="D87" t="s">
         <v>104</v>
@@ -3039,7 +3042,7 @@
         <v>115</v>
       </c>
       <c r="C91" t="n">
-        <v>93.5</v>
+        <v>93.6</v>
       </c>
       <c r="D91" t="s">
         <v>104</v>
@@ -3090,7 +3093,7 @@
         <v>119</v>
       </c>
       <c r="C94" t="n">
-        <v>95.4</v>
+        <v>95.5</v>
       </c>
       <c r="D94" t="s">
         <v>117</v>
@@ -3243,7 +3246,7 @@
         <v>128</v>
       </c>
       <c r="C103" t="n">
-        <v>101.8</v>
+        <v>101.9</v>
       </c>
       <c r="D103" t="s">
         <v>117</v>
@@ -3260,7 +3263,7 @@
         <v>129</v>
       </c>
       <c r="C104" t="n">
-        <v>104.3</v>
+        <v>104.4</v>
       </c>
       <c r="D104" t="s">
         <v>130</v>
@@ -3328,7 +3331,7 @@
         <v>134</v>
       </c>
       <c r="C108" t="n">
-        <v>98.2</v>
+        <v>98.3</v>
       </c>
       <c r="D108" t="s">
         <v>130</v>
@@ -3345,7 +3348,7 @@
         <v>135</v>
       </c>
       <c r="C109" t="n">
-        <v>100.4</v>
+        <v>100.5</v>
       </c>
       <c r="D109" t="s">
         <v>130</v>
@@ -3430,7 +3433,7 @@
         <v>140</v>
       </c>
       <c r="C114" t="n">
-        <v>104.2</v>
+        <v>104.3</v>
       </c>
       <c r="D114" t="s">
         <v>130</v>
@@ -3566,7 +3569,7 @@
         <v>149</v>
       </c>
       <c r="C122" t="n">
-        <v>105.9</v>
+        <v>106</v>
       </c>
       <c r="D122" t="s">
         <v>143</v>
@@ -3583,7 +3586,7 @@
         <v>150</v>
       </c>
       <c r="C123" t="n">
-        <v>106.8</v>
+        <v>106.9</v>
       </c>
       <c r="D123" t="s">
         <v>143</v>
@@ -3600,7 +3603,7 @@
         <v>151</v>
       </c>
       <c r="C124" t="n">
-        <v>107.9</v>
+        <v>108</v>
       </c>
       <c r="D124" t="s">
         <v>143</v>
@@ -3719,7 +3722,7 @@
         <v>159</v>
       </c>
       <c r="C131" t="n">
-        <v>114.2</v>
+        <v>114.3</v>
       </c>
       <c r="D131" t="s">
         <v>156</v>
@@ -3736,7 +3739,7 @@
         <v>160</v>
       </c>
       <c r="C132" t="n">
-        <v>111.9</v>
+        <v>112</v>
       </c>
       <c r="D132" t="s">
         <v>156</v>
@@ -3770,7 +3773,7 @@
         <v>162</v>
       </c>
       <c r="C134" t="n">
-        <v>112.4</v>
+        <v>112.5</v>
       </c>
       <c r="D134" t="s">
         <v>156</v>
@@ -3821,7 +3824,7 @@
         <v>165</v>
       </c>
       <c r="C137" t="n">
-        <v>108</v>
+        <v>108.1</v>
       </c>
       <c r="D137" t="s">
         <v>156</v>
@@ -3838,7 +3841,7 @@
         <v>166</v>
       </c>
       <c r="C138" t="n">
-        <v>106.9</v>
+        <v>107</v>
       </c>
       <c r="D138" t="s">
         <v>156</v>
@@ -3889,7 +3892,7 @@
         <v>170</v>
       </c>
       <c r="C141" t="n">
-        <v>100.7</v>
+        <v>100.8</v>
       </c>
       <c r="D141" t="s">
         <v>169</v>
@@ -3906,7 +3909,7 @@
         <v>171</v>
       </c>
       <c r="C142" t="n">
-        <v>102.9</v>
+        <v>103</v>
       </c>
       <c r="D142" t="s">
         <v>169</v>
@@ -3940,7 +3943,7 @@
         <v>173</v>
       </c>
       <c r="C144" t="n">
-        <v>96.1</v>
+        <v>96.2</v>
       </c>
       <c r="D144" t="s">
         <v>169</v>
@@ -3957,7 +3960,7 @@
         <v>174</v>
       </c>
       <c r="C145" t="n">
-        <v>93.7</v>
+        <v>93.8</v>
       </c>
       <c r="D145" t="s">
         <v>169</v>
@@ -3991,7 +3994,7 @@
         <v>176</v>
       </c>
       <c r="C147" t="n">
-        <v>86.9</v>
+        <v>87</v>
       </c>
       <c r="D147" t="s">
         <v>169</v>
@@ -4008,7 +4011,7 @@
         <v>177</v>
       </c>
       <c r="C148" t="n">
-        <v>88.3</v>
+        <v>88.4</v>
       </c>
       <c r="D148" t="s">
         <v>169</v>
@@ -4025,7 +4028,7 @@
         <v>178</v>
       </c>
       <c r="C149" t="n">
-        <v>82.3</v>
+        <v>82.4</v>
       </c>
       <c r="D149" t="s">
         <v>169</v>
@@ -4042,7 +4045,7 @@
         <v>179</v>
       </c>
       <c r="C150" t="n">
-        <v>73.8</v>
+        <v>73.9</v>
       </c>
       <c r="D150" t="s">
         <v>169</v>
@@ -4059,7 +4062,7 @@
         <v>180</v>
       </c>
       <c r="C151" t="n">
-        <v>71.1</v>
+        <v>71.3</v>
       </c>
       <c r="D151" t="s">
         <v>169</v>
@@ -4076,7 +4079,7 @@
         <v>181</v>
       </c>
       <c r="C152" t="n">
-        <v>73.3</v>
+        <v>73.4</v>
       </c>
       <c r="D152" t="s">
         <v>182</v>
@@ -4093,7 +4096,7 @@
         <v>183</v>
       </c>
       <c r="C153" t="n">
-        <v>73</v>
+        <v>73.1</v>
       </c>
       <c r="D153" t="s">
         <v>182</v>
@@ -4110,7 +4113,7 @@
         <v>184</v>
       </c>
       <c r="C154" t="n">
-        <v>69.4</v>
+        <v>69.5</v>
       </c>
       <c r="D154" t="s">
         <v>182</v>
@@ -4127,7 +4130,7 @@
         <v>185</v>
       </c>
       <c r="C155" t="n">
-        <v>69.6</v>
+        <v>69.7</v>
       </c>
       <c r="D155" t="s">
         <v>182</v>
@@ -4144,7 +4147,7 @@
         <v>186</v>
       </c>
       <c r="C156" t="n">
-        <v>74.9</v>
+        <v>75</v>
       </c>
       <c r="D156" t="s">
         <v>182</v>
@@ -4161,7 +4164,7 @@
         <v>187</v>
       </c>
       <c r="C157" t="n">
-        <v>76.8</v>
+        <v>76.9</v>
       </c>
       <c r="D157" t="s">
         <v>182</v>
@@ -4178,7 +4181,7 @@
         <v>188</v>
       </c>
       <c r="C158" t="n">
-        <v>83.9</v>
+        <v>84</v>
       </c>
       <c r="D158" t="s">
         <v>182</v>
@@ -4195,7 +4198,7 @@
         <v>189</v>
       </c>
       <c r="C159" t="n">
-        <v>87.5</v>
+        <v>87.6</v>
       </c>
       <c r="D159" t="s">
         <v>182</v>
@@ -4229,7 +4232,7 @@
         <v>191</v>
       </c>
       <c r="C161" t="n">
-        <v>94.3</v>
+        <v>94.4</v>
       </c>
       <c r="D161" t="s">
         <v>182</v>
@@ -4263,7 +4266,7 @@
         <v>194</v>
       </c>
       <c r="C163" t="n">
-        <v>85.3</v>
+        <v>85.4</v>
       </c>
       <c r="D163" t="s">
         <v>7</v>
@@ -4467,7 +4470,7 @@
         <v>24</v>
       </c>
       <c r="C175" t="n">
-        <v>98.8</v>
+        <v>98.9</v>
       </c>
       <c r="D175" t="s">
         <v>20</v>
@@ -4603,7 +4606,7 @@
         <v>36</v>
       </c>
       <c r="C183" t="n">
-        <v>103.2</v>
+        <v>103.3</v>
       </c>
       <c r="D183" t="s">
         <v>20</v>
@@ -4637,7 +4640,7 @@
         <v>38</v>
       </c>
       <c r="C185" t="n">
-        <v>108.3</v>
+        <v>108.4</v>
       </c>
       <c r="D185" t="s">
         <v>39</v>
@@ -4654,7 +4657,7 @@
         <v>40</v>
       </c>
       <c r="C186" t="n">
-        <v>104.3</v>
+        <v>104.4</v>
       </c>
       <c r="D186" t="s">
         <v>39</v>
@@ -4739,7 +4742,7 @@
         <v>45</v>
       </c>
       <c r="C191" t="n">
-        <v>104.8</v>
+        <v>104.9</v>
       </c>
       <c r="D191" t="s">
         <v>39</v>
@@ -4858,7 +4861,7 @@
         <v>53</v>
       </c>
       <c r="C198" t="n">
-        <v>89.1</v>
+        <v>89.2</v>
       </c>
       <c r="D198" t="s">
         <v>52</v>
@@ -4926,7 +4929,7 @@
         <v>57</v>
       </c>
       <c r="C202" t="n">
-        <v>97.9</v>
+        <v>98</v>
       </c>
       <c r="D202" t="s">
         <v>52</v>
@@ -4960,7 +4963,7 @@
         <v>59</v>
       </c>
       <c r="C204" t="n">
-        <v>101.8</v>
+        <v>101.9</v>
       </c>
       <c r="D204" t="s">
         <v>52</v>
@@ -5079,7 +5082,7 @@
         <v>67</v>
       </c>
       <c r="C211" t="n">
-        <v>110</v>
+        <v>110.1</v>
       </c>
       <c r="D211" t="s">
         <v>65</v>
@@ -5164,7 +5167,7 @@
         <v>72</v>
       </c>
       <c r="C216" t="n">
-        <v>106.9</v>
+        <v>107</v>
       </c>
       <c r="D216" t="s">
         <v>65</v>
@@ -5419,7 +5422,7 @@
         <v>88</v>
       </c>
       <c r="C231" t="n">
-        <v>85.2</v>
+        <v>85.1</v>
       </c>
       <c r="D231" t="s">
         <v>78</v>
@@ -5538,7 +5541,7 @@
         <v>96</v>
       </c>
       <c r="C238" t="n">
-        <v>101</v>
+        <v>101.1</v>
       </c>
       <c r="D238" t="s">
         <v>91</v>
@@ -5589,7 +5592,7 @@
         <v>99</v>
       </c>
       <c r="C241" t="n">
-        <v>95.8</v>
+        <v>95.9</v>
       </c>
       <c r="D241" t="s">
         <v>91</v>
@@ -6235,7 +6238,7 @@
         <v>140</v>
       </c>
       <c r="C279" t="n">
-        <v>93.8</v>
+        <v>93.7</v>
       </c>
       <c r="D279" t="s">
         <v>130</v>
@@ -6439,7 +6442,7 @@
         <v>153</v>
       </c>
       <c r="C291" t="n">
-        <v>107.1</v>
+        <v>107.2</v>
       </c>
       <c r="D291" t="s">
         <v>143</v>
@@ -6490,7 +6493,7 @@
         <v>157</v>
       </c>
       <c r="C294" t="n">
-        <v>104.5</v>
+        <v>104.6</v>
       </c>
       <c r="D294" t="s">
         <v>156</v>
@@ -6609,7 +6612,7 @@
         <v>164</v>
       </c>
       <c r="C301" t="n">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="D301" t="s">
         <v>156</v>
@@ -6745,7 +6748,7 @@
         <v>173</v>
       </c>
       <c r="C309" t="n">
-        <v>96.8</v>
+        <v>96.9</v>
       </c>
       <c r="D309" t="s">
         <v>169</v>
@@ -6966,7 +6969,7 @@
         <v>187</v>
       </c>
       <c r="C322" t="n">
-        <v>77.1</v>
+        <v>77</v>
       </c>
       <c r="D322" t="s">
         <v>182</v>
@@ -6983,7 +6986,7 @@
         <v>188</v>
       </c>
       <c r="C323" t="n">
-        <v>87.4</v>
+        <v>87.3</v>
       </c>
       <c r="D323" t="s">
         <v>182</v>
@@ -7017,7 +7020,7 @@
         <v>190</v>
       </c>
       <c r="C325" t="n">
-        <v>85.5</v>
+        <v>85.4</v>
       </c>
       <c r="D325" t="s">
         <v>182</v>
@@ -7680,7 +7683,7 @@
         <v>59</v>
       </c>
       <c r="C364" t="n">
-        <v>110.3</v>
+        <v>110.4</v>
       </c>
       <c r="D364" t="s">
         <v>52</v>
@@ -7816,7 +7819,7 @@
         <v>68</v>
       </c>
       <c r="C372" t="n">
-        <v>115</v>
+        <v>115.1</v>
       </c>
       <c r="D372" t="s">
         <v>65</v>
@@ -7833,7 +7836,7 @@
         <v>69</v>
       </c>
       <c r="C373" t="n">
-        <v>115.6</v>
+        <v>115.7</v>
       </c>
       <c r="D373" t="s">
         <v>65</v>
@@ -7901,7 +7904,7 @@
         <v>73</v>
       </c>
       <c r="C377" t="n">
-        <v>109.7</v>
+        <v>109.8</v>
       </c>
       <c r="D377" t="s">
         <v>65</v>
@@ -8173,7 +8176,7 @@
         <v>90</v>
       </c>
       <c r="C393" t="n">
-        <v>99.5</v>
+        <v>99.6</v>
       </c>
       <c r="D393" t="s">
         <v>91</v>
@@ -8224,7 +8227,7 @@
         <v>94</v>
       </c>
       <c r="C396" t="n">
-        <v>106</v>
+        <v>106.1</v>
       </c>
       <c r="D396" t="s">
         <v>91</v>
@@ -8343,7 +8346,7 @@
         <v>101</v>
       </c>
       <c r="C403" t="n">
-        <v>105</v>
+        <v>105.1</v>
       </c>
       <c r="D403" t="s">
         <v>91</v>
@@ -8411,7 +8414,7 @@
         <v>106</v>
       </c>
       <c r="C407" t="n">
-        <v>92.7</v>
+        <v>92.8</v>
       </c>
       <c r="D407" t="s">
         <v>104</v>
@@ -8428,7 +8431,7 @@
         <v>107</v>
       </c>
       <c r="C408" t="n">
-        <v>91.7</v>
+        <v>91.8</v>
       </c>
       <c r="D408" t="s">
         <v>104</v>
@@ -8547,7 +8550,7 @@
         <v>114</v>
       </c>
       <c r="C415" t="n">
-        <v>97.3</v>
+        <v>97.4</v>
       </c>
       <c r="D415" t="s">
         <v>104</v>
@@ -8581,7 +8584,7 @@
         <v>116</v>
       </c>
       <c r="C417" t="n">
-        <v>88.5</v>
+        <v>88.6</v>
       </c>
       <c r="D417" t="s">
         <v>117</v>
@@ -8700,7 +8703,7 @@
         <v>124</v>
       </c>
       <c r="C424" t="n">
-        <v>91.6</v>
+        <v>91.7</v>
       </c>
       <c r="D424" t="s">
         <v>117</v>
@@ -8717,7 +8720,7 @@
         <v>125</v>
       </c>
       <c r="C425" t="n">
-        <v>91.2</v>
+        <v>91.3</v>
       </c>
       <c r="D425" t="s">
         <v>117</v>
@@ -8921,7 +8924,7 @@
         <v>138</v>
       </c>
       <c r="C437" t="n">
-        <v>96.9</v>
+        <v>97</v>
       </c>
       <c r="D437" t="s">
         <v>130</v>
@@ -8938,7 +8941,7 @@
         <v>139</v>
       </c>
       <c r="C438" t="n">
-        <v>97</v>
+        <v>97.1</v>
       </c>
       <c r="D438" t="s">
         <v>130</v>
@@ -8955,7 +8958,7 @@
         <v>140</v>
       </c>
       <c r="C439" t="n">
-        <v>100.4</v>
+        <v>100.5</v>
       </c>
       <c r="D439" t="s">
         <v>130</v>
@@ -9142,7 +9145,7 @@
         <v>152</v>
       </c>
       <c r="C450" t="n">
-        <v>113.7</v>
+        <v>113.8</v>
       </c>
       <c r="D450" t="s">
         <v>143</v>
@@ -9159,7 +9162,7 @@
         <v>153</v>
       </c>
       <c r="C451" t="n">
-        <v>111.7</v>
+        <v>111.8</v>
       </c>
       <c r="D451" t="s">
         <v>143</v>
@@ -9227,7 +9230,7 @@
         <v>158</v>
       </c>
       <c r="C455" t="n">
-        <v>112.3</v>
+        <v>112.4</v>
       </c>
       <c r="D455" t="s">
         <v>156</v>
@@ -9244,7 +9247,7 @@
         <v>159</v>
       </c>
       <c r="C456" t="n">
-        <v>114.5</v>
+        <v>114.6</v>
       </c>
       <c r="D456" t="s">
         <v>156</v>
@@ -9312,7 +9315,7 @@
         <v>163</v>
       </c>
       <c r="C460" t="n">
-        <v>111.8</v>
+        <v>111.9</v>
       </c>
       <c r="D460" t="s">
         <v>156</v>
@@ -9380,7 +9383,7 @@
         <v>167</v>
       </c>
       <c r="C464" t="n">
-        <v>105.8</v>
+        <v>105.9</v>
       </c>
       <c r="D464" t="s">
         <v>156</v>
@@ -9397,7 +9400,7 @@
         <v>168</v>
       </c>
       <c r="C465" t="n">
-        <v>104.7</v>
+        <v>104.8</v>
       </c>
       <c r="D465" t="s">
         <v>169</v>
@@ -9414,7 +9417,7 @@
         <v>170</v>
       </c>
       <c r="C466" t="n">
-        <v>101.5</v>
+        <v>101.6</v>
       </c>
       <c r="D466" t="s">
         <v>169</v>
@@ -9448,7 +9451,7 @@
         <v>172</v>
       </c>
       <c r="C468" t="n">
-        <v>98.9</v>
+        <v>99</v>
       </c>
       <c r="D468" t="s">
         <v>169</v>
@@ -9465,7 +9468,7 @@
         <v>173</v>
       </c>
       <c r="C469" t="n">
-        <v>93.9</v>
+        <v>94</v>
       </c>
       <c r="D469" t="s">
         <v>169</v>
@@ -9601,7 +9604,7 @@
         <v>181</v>
       </c>
       <c r="C477" t="n">
-        <v>70.2</v>
+        <v>70.3</v>
       </c>
       <c r="D477" t="s">
         <v>182</v>
@@ -9618,7 +9621,7 @@
         <v>183</v>
       </c>
       <c r="C478" t="n">
-        <v>77.3</v>
+        <v>77.4</v>
       </c>
       <c r="D478" t="s">
         <v>182</v>
@@ -9652,7 +9655,7 @@
         <v>185</v>
       </c>
       <c r="C480" t="n">
-        <v>79.9</v>
+        <v>80</v>
       </c>
       <c r="D480" t="s">
         <v>182</v>
@@ -9737,7 +9740,7 @@
         <v>190</v>
       </c>
       <c r="C485" t="n">
-        <v>110.9</v>
+        <v>111</v>
       </c>
       <c r="D485" t="s">
         <v>182</v>
@@ -9788,7 +9791,7 @@
         <v>193</v>
       </c>
       <c r="C488" t="n">
-        <v>95.1</v>
+        <v>95.2</v>
       </c>
       <c r="D488" t="s">
         <v>7</v>
@@ -9805,7 +9808,7 @@
         <v>194</v>
       </c>
       <c r="C489" t="n">
-        <v>93</v>
+        <v>93.1</v>
       </c>
       <c r="D489" t="s">
         <v>7</v>
@@ -9856,7 +9859,7 @@
         <v>197</v>
       </c>
       <c r="C492" t="n">
-        <v>92.8</v>
+        <v>92.9</v>
       </c>
       <c r="D492" t="s">
         <v>7</v>
@@ -9873,7 +9876,7 @@
         <v>6</v>
       </c>
       <c r="C493" t="n">
-        <v>94.2</v>
+        <v>94.3</v>
       </c>
       <c r="D493" t="s">
         <v>7</v>
@@ -9890,7 +9893,7 @@
         <v>9</v>
       </c>
       <c r="C494" t="n">
-        <v>95.7</v>
+        <v>95.8</v>
       </c>
       <c r="D494" t="s">
         <v>7</v>
@@ -9924,7 +9927,7 @@
         <v>13</v>
       </c>
       <c r="C496" t="n">
-        <v>99.1</v>
+        <v>99.2</v>
       </c>
       <c r="D496" t="s">
         <v>7</v>
@@ -9958,7 +9961,7 @@
         <v>17</v>
       </c>
       <c r="C498" t="n">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="D498" t="s">
         <v>7</v>
@@ -10026,7 +10029,7 @@
         <v>26</v>
       </c>
       <c r="C502" t="n">
-        <v>100.6</v>
+        <v>100.7</v>
       </c>
       <c r="D502" t="s">
         <v>20</v>
@@ -10077,7 +10080,7 @@
         <v>32</v>
       </c>
       <c r="C505" t="n">
-        <v>101.2</v>
+        <v>101.3</v>
       </c>
       <c r="D505" t="s">
         <v>20</v>
@@ -10094,7 +10097,7 @@
         <v>33</v>
       </c>
       <c r="C506" t="n">
-        <v>102.6</v>
+        <v>102.7</v>
       </c>
       <c r="D506" t="s">
         <v>20</v>
@@ -10111,7 +10114,7 @@
         <v>34</v>
       </c>
       <c r="C507" t="n">
-        <v>104.5</v>
+        <v>104.6</v>
       </c>
       <c r="D507" t="s">
         <v>20</v>
@@ -10128,7 +10131,7 @@
         <v>35</v>
       </c>
       <c r="C508" t="n">
-        <v>107.1</v>
+        <v>107.2</v>
       </c>
       <c r="D508" t="s">
         <v>20</v>
@@ -10162,7 +10165,7 @@
         <v>37</v>
       </c>
       <c r="C510" t="n">
-        <v>107.1</v>
+        <v>107.2</v>
       </c>
       <c r="D510" t="s">
         <v>20</v>
@@ -10213,7 +10216,7 @@
         <v>41</v>
       </c>
       <c r="C513" t="n">
-        <v>106.5</v>
+        <v>106.6</v>
       </c>
       <c r="D513" t="s">
         <v>39</v>
@@ -10264,7 +10267,7 @@
         <v>44</v>
       </c>
       <c r="C516" t="n">
-        <v>105.5</v>
+        <v>105.6</v>
       </c>
       <c r="D516" t="s">
         <v>39</v>
@@ -10281,7 +10284,7 @@
         <v>45</v>
       </c>
       <c r="C517" t="n">
-        <v>104.8</v>
+        <v>104.9</v>
       </c>
       <c r="D517" t="s">
         <v>39</v>
@@ -10315,7 +10318,7 @@
         <v>47</v>
       </c>
       <c r="C519" t="n">
-        <v>102.8</v>
+        <v>102.9</v>
       </c>
       <c r="D519" t="s">
         <v>39</v>
@@ -10383,7 +10386,7 @@
         <v>51</v>
       </c>
       <c r="C523" t="n">
-        <v>97.4</v>
+        <v>97.5</v>
       </c>
       <c r="D523" t="s">
         <v>52</v>
@@ -10485,7 +10488,7 @@
         <v>58</v>
       </c>
       <c r="C529" t="n">
-        <v>106.4</v>
+        <v>106.5</v>
       </c>
       <c r="D529" t="s">
         <v>52</v>
@@ -10502,7 +10505,7 @@
         <v>59</v>
       </c>
       <c r="C530" t="n">
-        <v>106.8</v>
+        <v>106.9</v>
       </c>
       <c r="D530" t="s">
         <v>52</v>
@@ -10519,7 +10522,7 @@
         <v>60</v>
       </c>
       <c r="C531" t="n">
-        <v>107.6</v>
+        <v>107.7</v>
       </c>
       <c r="D531" t="s">
         <v>52</v>
@@ -10536,7 +10539,7 @@
         <v>61</v>
       </c>
       <c r="C532" t="n">
-        <v>106.4</v>
+        <v>106.5</v>
       </c>
       <c r="D532" t="s">
         <v>52</v>
@@ -10689,7 +10692,7 @@
         <v>71</v>
       </c>
       <c r="C541" t="n">
-        <v>113.5</v>
+        <v>113.6</v>
       </c>
       <c r="D541" t="s">
         <v>65</v>
@@ -10740,7 +10743,7 @@
         <v>74</v>
       </c>
       <c r="C544" t="n">
-        <v>105.2</v>
+        <v>105.3</v>
       </c>
       <c r="D544" t="s">
         <v>65</v>
@@ -10825,7 +10828,7 @@
         <v>80</v>
       </c>
       <c r="C549" t="n">
-        <v>95.5</v>
+        <v>95.6</v>
       </c>
       <c r="D549" t="s">
         <v>78</v>
@@ -10842,7 +10845,7 @@
         <v>81</v>
       </c>
       <c r="C550" t="n">
-        <v>97</v>
+        <v>97.1</v>
       </c>
       <c r="D550" t="s">
         <v>78</v>
@@ -10859,7 +10862,7 @@
         <v>82</v>
       </c>
       <c r="C551" t="n">
-        <v>93</v>
+        <v>93.1</v>
       </c>
       <c r="D551" t="s">
         <v>78</v>
@@ -10876,7 +10879,7 @@
         <v>83</v>
       </c>
       <c r="C552" t="n">
-        <v>89.1</v>
+        <v>89.2</v>
       </c>
       <c r="D552" t="s">
         <v>78</v>
@@ -10893,7 +10896,7 @@
         <v>84</v>
       </c>
       <c r="C553" t="n">
-        <v>80.6</v>
+        <v>80.7</v>
       </c>
       <c r="D553" t="s">
         <v>78</v>
@@ -10944,7 +10947,7 @@
         <v>87</v>
       </c>
       <c r="C556" t="n">
-        <v>87.7</v>
+        <v>87.8</v>
       </c>
       <c r="D556" t="s">
         <v>78</v>
@@ -10978,7 +10981,7 @@
         <v>89</v>
       </c>
       <c r="C558" t="n">
-        <v>92.2</v>
+        <v>92.3</v>
       </c>
       <c r="D558" t="s">
         <v>78</v>
@@ -11012,7 +11015,7 @@
         <v>92</v>
       </c>
       <c r="C560" t="n">
-        <v>92</v>
+        <v>92.1</v>
       </c>
       <c r="D560" t="s">
         <v>91</v>
@@ -11029,7 +11032,7 @@
         <v>93</v>
       </c>
       <c r="C561" t="n">
-        <v>93.6</v>
+        <v>93.7</v>
       </c>
       <c r="D561" t="s">
         <v>91</v>
@@ -11046,7 +11049,7 @@
         <v>94</v>
       </c>
       <c r="C562" t="n">
-        <v>92.9</v>
+        <v>93</v>
       </c>
       <c r="D562" t="s">
         <v>91</v>
@@ -11063,7 +11066,7 @@
         <v>95</v>
       </c>
       <c r="C563" t="n">
-        <v>87.8</v>
+        <v>87.9</v>
       </c>
       <c r="D563" t="s">
         <v>91</v>
@@ -11097,7 +11100,7 @@
         <v>97</v>
       </c>
       <c r="C565" t="n">
-        <v>89.7</v>
+        <v>89.8</v>
       </c>
       <c r="D565" t="s">
         <v>91</v>
@@ -11114,7 +11117,7 @@
         <v>98</v>
       </c>
       <c r="C566" t="n">
-        <v>87.9</v>
+        <v>88</v>
       </c>
       <c r="D566" t="s">
         <v>91</v>
@@ -11131,7 +11134,7 @@
         <v>99</v>
       </c>
       <c r="C567" t="n">
-        <v>86.9</v>
+        <v>87</v>
       </c>
       <c r="D567" t="s">
         <v>91</v>
@@ -11148,7 +11151,7 @@
         <v>100</v>
       </c>
       <c r="C568" t="n">
-        <v>81.7</v>
+        <v>81.8</v>
       </c>
       <c r="D568" t="s">
         <v>91</v>
@@ -11165,7 +11168,7 @@
         <v>101</v>
       </c>
       <c r="C569" t="n">
-        <v>87.2</v>
+        <v>87.3</v>
       </c>
       <c r="D569" t="s">
         <v>91</v>
@@ -11233,7 +11236,7 @@
         <v>106</v>
       </c>
       <c r="C573" t="n">
-        <v>84.8</v>
+        <v>84.9</v>
       </c>
       <c r="D573" t="s">
         <v>104</v>
@@ -11250,7 +11253,7 @@
         <v>107</v>
       </c>
       <c r="C574" t="n">
-        <v>81.9</v>
+        <v>82</v>
       </c>
       <c r="D574" t="s">
         <v>104</v>
@@ -11267,7 +11270,7 @@
         <v>108</v>
       </c>
       <c r="C575" t="n">
-        <v>87.1</v>
+        <v>87.2</v>
       </c>
       <c r="D575" t="s">
         <v>104</v>
@@ -11301,7 +11304,7 @@
         <v>110</v>
       </c>
       <c r="C577" t="n">
-        <v>88.8</v>
+        <v>88.9</v>
       </c>
       <c r="D577" t="s">
         <v>104</v>
@@ -11335,7 +11338,7 @@
         <v>112</v>
       </c>
       <c r="C579" t="n">
-        <v>89.1</v>
+        <v>89.2</v>
       </c>
       <c r="D579" t="s">
         <v>104</v>
@@ -11369,7 +11372,7 @@
         <v>114</v>
       </c>
       <c r="C581" t="n">
-        <v>91</v>
+        <v>91.1</v>
       </c>
       <c r="D581" t="s">
         <v>104</v>
@@ -11403,7 +11406,7 @@
         <v>116</v>
       </c>
       <c r="C583" t="n">
-        <v>93.7</v>
+        <v>93.8</v>
       </c>
       <c r="D583" t="s">
         <v>117</v>
@@ -11420,7 +11423,7 @@
         <v>118</v>
       </c>
       <c r="C584" t="n">
-        <v>96</v>
+        <v>96.1</v>
       </c>
       <c r="D584" t="s">
         <v>117</v>
@@ -11437,7 +11440,7 @@
         <v>119</v>
       </c>
       <c r="C585" t="n">
-        <v>97.2</v>
+        <v>97.3</v>
       </c>
       <c r="D585" t="s">
         <v>117</v>
@@ -11454,7 +11457,7 @@
         <v>120</v>
       </c>
       <c r="C586" t="n">
-        <v>99.2</v>
+        <v>99.3</v>
       </c>
       <c r="D586" t="s">
         <v>117</v>
@@ -11471,7 +11474,7 @@
         <v>121</v>
       </c>
       <c r="C587" t="n">
-        <v>101.3</v>
+        <v>101.4</v>
       </c>
       <c r="D587" t="s">
         <v>117</v>
@@ -11505,7 +11508,7 @@
         <v>123</v>
       </c>
       <c r="C589" t="n">
-        <v>103.7</v>
+        <v>103.8</v>
       </c>
       <c r="D589" t="s">
         <v>117</v>
@@ -11556,7 +11559,7 @@
         <v>126</v>
       </c>
       <c r="C592" t="n">
-        <v>108</v>
+        <v>108.1</v>
       </c>
       <c r="D592" t="s">
         <v>117</v>
@@ -11573,7 +11576,7 @@
         <v>127</v>
       </c>
       <c r="C593" t="n">
-        <v>104.8</v>
+        <v>104.9</v>
       </c>
       <c r="D593" t="s">
         <v>117</v>
@@ -11658,7 +11661,7 @@
         <v>133</v>
       </c>
       <c r="C598" t="n">
-        <v>108.1</v>
+        <v>108.2</v>
       </c>
       <c r="D598" t="s">
         <v>130</v>
@@ -11743,7 +11746,7 @@
         <v>138</v>
       </c>
       <c r="C603" t="n">
-        <v>109</v>
+        <v>109.1</v>
       </c>
       <c r="D603" t="s">
         <v>130</v>
@@ -11777,7 +11780,7 @@
         <v>140</v>
       </c>
       <c r="C605" t="n">
-        <v>113.9</v>
+        <v>114</v>
       </c>
       <c r="D605" t="s">
         <v>130</v>
@@ -11896,7 +11899,7 @@
         <v>148</v>
       </c>
       <c r="C612" t="n">
-        <v>107</v>
+        <v>107.1</v>
       </c>
       <c r="D612" t="s">
         <v>143</v>
@@ -11913,7 +11916,7 @@
         <v>149</v>
       </c>
       <c r="C613" t="n">
-        <v>104.9</v>
+        <v>105</v>
       </c>
       <c r="D613" t="s">
         <v>143</v>
@@ -11964,7 +11967,7 @@
         <v>152</v>
       </c>
       <c r="C616" t="n">
-        <v>111.8</v>
+        <v>111.9</v>
       </c>
       <c r="D616" t="s">
         <v>143</v>
@@ -11981,7 +11984,7 @@
         <v>153</v>
       </c>
       <c r="C617" t="n">
-        <v>113.3</v>
+        <v>113.4</v>
       </c>
       <c r="D617" t="s">
         <v>143</v>
@@ -12049,7 +12052,7 @@
         <v>158</v>
       </c>
       <c r="C621" t="n">
-        <v>112.1</v>
+        <v>112.2</v>
       </c>
       <c r="D621" t="s">
         <v>156</v>
@@ -12168,7 +12171,7 @@
         <v>165</v>
       </c>
       <c r="C628" t="n">
-        <v>110</v>
+        <v>110.1</v>
       </c>
       <c r="D628" t="s">
         <v>156</v>
@@ -12185,7 +12188,7 @@
         <v>166</v>
       </c>
       <c r="C629" t="n">
-        <v>107.2</v>
+        <v>107.3</v>
       </c>
       <c r="D629" t="s">
         <v>156</v>
@@ -12321,7 +12324,7 @@
         <v>175</v>
       </c>
       <c r="C637" t="n">
-        <v>96</v>
+        <v>96.1</v>
       </c>
       <c r="D637" t="s">
         <v>169</v>
@@ -12355,7 +12358,7 @@
         <v>177</v>
       </c>
       <c r="C639" t="n">
-        <v>93.4</v>
+        <v>93.5</v>
       </c>
       <c r="D639" t="s">
         <v>169</v>
@@ -12372,7 +12375,7 @@
         <v>178</v>
       </c>
       <c r="C640" t="n">
-        <v>87.3</v>
+        <v>87.4</v>
       </c>
       <c r="D640" t="s">
         <v>169</v>
@@ -12389,7 +12392,7 @@
         <v>179</v>
       </c>
       <c r="C641" t="n">
-        <v>77</v>
+        <v>77.1</v>
       </c>
       <c r="D641" t="s">
         <v>169</v>
@@ -12423,7 +12426,7 @@
         <v>181</v>
       </c>
       <c r="C643" t="n">
-        <v>76.8</v>
+        <v>76.9</v>
       </c>
       <c r="D643" t="s">
         <v>182</v>
@@ -12440,7 +12443,7 @@
         <v>183</v>
       </c>
       <c r="C644" t="n">
-        <v>74.2</v>
+        <v>74.3</v>
       </c>
       <c r="D644" t="s">
         <v>182</v>
@@ -12457,7 +12460,7 @@
         <v>184</v>
       </c>
       <c r="C645" t="n">
-        <v>74.6</v>
+        <v>74.7</v>
       </c>
       <c r="D645" t="s">
         <v>182</v>
@@ -12491,7 +12494,7 @@
         <v>186</v>
       </c>
       <c r="C647" t="n">
-        <v>76.1</v>
+        <v>76.2</v>
       </c>
       <c r="D647" t="s">
         <v>182</v>
@@ -12508,7 +12511,7 @@
         <v>187</v>
       </c>
       <c r="C648" t="n">
-        <v>78</v>
+        <v>78.1</v>
       </c>
       <c r="D648" t="s">
         <v>182</v>
@@ -12525,7 +12528,7 @@
         <v>188</v>
       </c>
       <c r="C649" t="n">
-        <v>81.5</v>
+        <v>81.6</v>
       </c>
       <c r="D649" t="s">
         <v>182</v>
@@ -12542,7 +12545,7 @@
         <v>189</v>
       </c>
       <c r="C650" t="n">
-        <v>86.1</v>
+        <v>86.2</v>
       </c>
       <c r="D650" t="s">
         <v>182</v>
@@ -12593,7 +12596,7 @@
         <v>200</v>
       </c>
       <c r="C653" t="n">
-        <v>87.9</v>
+        <v>88.1</v>
       </c>
       <c r="D653" t="s">
         <v>7</v>
@@ -12610,7 +12613,7 @@
         <v>193</v>
       </c>
       <c r="C654" t="n">
-        <v>89.2</v>
+        <v>89.4</v>
       </c>
       <c r="D654" t="s">
         <v>7</v>
@@ -12627,7 +12630,7 @@
         <v>194</v>
       </c>
       <c r="C655" t="n">
-        <v>88.8</v>
+        <v>88.9</v>
       </c>
       <c r="D655" t="s">
         <v>7</v>
@@ -12644,7 +12647,7 @@
         <v>195</v>
       </c>
       <c r="C656" t="n">
-        <v>88.3</v>
+        <v>88.5</v>
       </c>
       <c r="D656" t="s">
         <v>7</v>
@@ -12661,7 +12664,7 @@
         <v>196</v>
       </c>
       <c r="C657" t="n">
-        <v>88.6</v>
+        <v>88.8</v>
       </c>
       <c r="D657" t="s">
         <v>7</v>
@@ -12678,7 +12681,7 @@
         <v>197</v>
       </c>
       <c r="C658" t="n">
-        <v>89.1</v>
+        <v>89.2</v>
       </c>
       <c r="D658" t="s">
         <v>7</v>
@@ -12695,7 +12698,7 @@
         <v>6</v>
       </c>
       <c r="C659" t="n">
-        <v>87.7</v>
+        <v>87.9</v>
       </c>
       <c r="D659" t="s">
         <v>7</v>
@@ -12712,7 +12715,7 @@
         <v>9</v>
       </c>
       <c r="C660" t="n">
-        <v>92.3</v>
+        <v>92.4</v>
       </c>
       <c r="D660" t="s">
         <v>7</v>
@@ -12729,7 +12732,7 @@
         <v>11</v>
       </c>
       <c r="C661" t="n">
-        <v>93</v>
+        <v>93.1</v>
       </c>
       <c r="D661" t="s">
         <v>7</v>
@@ -12746,7 +12749,7 @@
         <v>13</v>
       </c>
       <c r="C662" t="n">
-        <v>89.9</v>
+        <v>90.1</v>
       </c>
       <c r="D662" t="s">
         <v>7</v>
@@ -12763,7 +12766,7 @@
         <v>15</v>
       </c>
       <c r="C663" t="n">
-        <v>90.8</v>
+        <v>90.9</v>
       </c>
       <c r="D663" t="s">
         <v>7</v>
@@ -12780,7 +12783,7 @@
         <v>17</v>
       </c>
       <c r="C664" t="n">
-        <v>91.5</v>
+        <v>91.6</v>
       </c>
       <c r="D664" t="s">
         <v>7</v>
@@ -12797,7 +12800,7 @@
         <v>19</v>
       </c>
       <c r="C665" t="n">
-        <v>90.4</v>
+        <v>90.6</v>
       </c>
       <c r="D665" t="s">
         <v>20</v>
@@ -12814,7 +12817,7 @@
         <v>22</v>
       </c>
       <c r="C666" t="n">
-        <v>92.4</v>
+        <v>92.5</v>
       </c>
       <c r="D666" t="s">
         <v>20</v>
@@ -12831,7 +12834,7 @@
         <v>24</v>
       </c>
       <c r="C667" t="n">
-        <v>94.8</v>
+        <v>95</v>
       </c>
       <c r="D667" t="s">
         <v>20</v>
@@ -12848,7 +12851,7 @@
         <v>26</v>
       </c>
       <c r="C668" t="n">
-        <v>96.2</v>
+        <v>96.3</v>
       </c>
       <c r="D668" t="s">
         <v>20</v>
@@ -12865,7 +12868,7 @@
         <v>28</v>
       </c>
       <c r="C669" t="n">
-        <v>97.6</v>
+        <v>97.7</v>
       </c>
       <c r="D669" t="s">
         <v>20</v>
@@ -12882,7 +12885,7 @@
         <v>30</v>
       </c>
       <c r="C670" t="n">
-        <v>97.7</v>
+        <v>97.8</v>
       </c>
       <c r="D670" t="s">
         <v>20</v>
@@ -12899,7 +12902,7 @@
         <v>32</v>
       </c>
       <c r="C671" t="n">
-        <v>99</v>
+        <v>99.1</v>
       </c>
       <c r="D671" t="s">
         <v>20</v>
@@ -12916,7 +12919,7 @@
         <v>33</v>
       </c>
       <c r="C672" t="n">
-        <v>98.1</v>
+        <v>98.2</v>
       </c>
       <c r="D672" t="s">
         <v>20</v>
@@ -12933,7 +12936,7 @@
         <v>34</v>
       </c>
       <c r="C673" t="n">
-        <v>100.7</v>
+        <v>100.8</v>
       </c>
       <c r="D673" t="s">
         <v>20</v>
@@ -12950,7 +12953,7 @@
         <v>35</v>
       </c>
       <c r="C674" t="n">
-        <v>104.6</v>
+        <v>104.7</v>
       </c>
       <c r="D674" t="s">
         <v>20</v>
@@ -12967,7 +12970,7 @@
         <v>36</v>
       </c>
       <c r="C675" t="n">
-        <v>103.1</v>
+        <v>103.2</v>
       </c>
       <c r="D675" t="s">
         <v>20</v>
@@ -13001,7 +13004,7 @@
         <v>38</v>
       </c>
       <c r="C677" t="n">
-        <v>105.6</v>
+        <v>105.7</v>
       </c>
       <c r="D677" t="s">
         <v>39</v>
@@ -13018,7 +13021,7 @@
         <v>40</v>
       </c>
       <c r="C678" t="n">
-        <v>103.5</v>
+        <v>103.6</v>
       </c>
       <c r="D678" t="s">
         <v>39</v>
@@ -13035,7 +13038,7 @@
         <v>41</v>
       </c>
       <c r="C679" t="n">
-        <v>103.9</v>
+        <v>104</v>
       </c>
       <c r="D679" t="s">
         <v>39</v>
@@ -13052,7 +13055,7 @@
         <v>42</v>
       </c>
       <c r="C680" t="n">
-        <v>105.9</v>
+        <v>106</v>
       </c>
       <c r="D680" t="s">
         <v>39</v>
@@ -13069,7 +13072,7 @@
         <v>43</v>
       </c>
       <c r="C681" t="n">
-        <v>106.8</v>
+        <v>106.9</v>
       </c>
       <c r="D681" t="s">
         <v>39</v>
@@ -13086,7 +13089,7 @@
         <v>44</v>
       </c>
       <c r="C682" t="n">
-        <v>107.1</v>
+        <v>107.2</v>
       </c>
       <c r="D682" t="s">
         <v>39</v>
@@ -13103,7 +13106,7 @@
         <v>45</v>
       </c>
       <c r="C683" t="n">
-        <v>107.5</v>
+        <v>107.6</v>
       </c>
       <c r="D683" t="s">
         <v>39</v>
@@ -13120,7 +13123,7 @@
         <v>46</v>
       </c>
       <c r="C684" t="n">
-        <v>105.2</v>
+        <v>105.3</v>
       </c>
       <c r="D684" t="s">
         <v>39</v>
@@ -13137,7 +13140,7 @@
         <v>47</v>
       </c>
       <c r="C685" t="n">
-        <v>105.3</v>
+        <v>105.4</v>
       </c>
       <c r="D685" t="s">
         <v>39</v>
@@ -13154,7 +13157,7 @@
         <v>48</v>
       </c>
       <c r="C686" t="n">
-        <v>105.8</v>
+        <v>105.9</v>
       </c>
       <c r="D686" t="s">
         <v>39</v>
@@ -13171,7 +13174,7 @@
         <v>49</v>
       </c>
       <c r="C687" t="n">
-        <v>106.9</v>
+        <v>107</v>
       </c>
       <c r="D687" t="s">
         <v>39</v>
@@ -13222,7 +13225,7 @@
         <v>53</v>
       </c>
       <c r="C690" t="n">
-        <v>107.3</v>
+        <v>107.4</v>
       </c>
       <c r="D690" t="s">
         <v>52</v>
@@ -13341,7 +13344,7 @@
         <v>60</v>
       </c>
       <c r="C697" t="n">
-        <v>114</v>
+        <v>114.1</v>
       </c>
       <c r="D697" t="s">
         <v>52</v>
@@ -13443,7 +13446,7 @@
         <v>67</v>
       </c>
       <c r="C703" t="n">
-        <v>119</v>
+        <v>118.9</v>
       </c>
       <c r="D703" t="s">
         <v>65</v>
@@ -13545,7 +13548,7 @@
         <v>73</v>
       </c>
       <c r="C709" t="n">
-        <v>114.8</v>
+        <v>114.7</v>
       </c>
       <c r="D709" t="s">
         <v>65</v>
@@ -13664,7 +13667,7 @@
         <v>81</v>
       </c>
       <c r="C716" t="n">
-        <v>103.1</v>
+        <v>103.2</v>
       </c>
       <c r="D716" t="s">
         <v>78</v>
@@ -13681,7 +13684,7 @@
         <v>82</v>
       </c>
       <c r="C717" t="n">
-        <v>103.3</v>
+        <v>103.4</v>
       </c>
       <c r="D717" t="s">
         <v>78</v>
@@ -13715,7 +13718,7 @@
         <v>84</v>
       </c>
       <c r="C719" t="n">
-        <v>102</v>
+        <v>102.1</v>
       </c>
       <c r="D719" t="s">
         <v>78</v>
@@ -13766,7 +13769,7 @@
         <v>87</v>
       </c>
       <c r="C722" t="n">
-        <v>99</v>
+        <v>99.1</v>
       </c>
       <c r="D722" t="s">
         <v>78</v>
@@ -13783,7 +13786,7 @@
         <v>88</v>
       </c>
       <c r="C723" t="n">
-        <v>101.1</v>
+        <v>101.2</v>
       </c>
       <c r="D723" t="s">
         <v>78</v>
@@ -13800,7 +13803,7 @@
         <v>89</v>
       </c>
       <c r="C724" t="n">
-        <v>101.4</v>
+        <v>101.5</v>
       </c>
       <c r="D724" t="s">
         <v>78</v>
@@ -13817,7 +13820,7 @@
         <v>90</v>
       </c>
       <c r="C725" t="n">
-        <v>99.9</v>
+        <v>100</v>
       </c>
       <c r="D725" t="s">
         <v>91</v>
@@ -13834,7 +13837,7 @@
         <v>92</v>
       </c>
       <c r="C726" t="n">
-        <v>104.8</v>
+        <v>104.9</v>
       </c>
       <c r="D726" t="s">
         <v>91</v>
@@ -13902,7 +13905,7 @@
         <v>96</v>
       </c>
       <c r="C730" t="n">
-        <v>103.8</v>
+        <v>103.9</v>
       </c>
       <c r="D730" t="s">
         <v>91</v>
@@ -13919,7 +13922,7 @@
         <v>97</v>
       </c>
       <c r="C731" t="n">
-        <v>104.4</v>
+        <v>104.5</v>
       </c>
       <c r="D731" t="s">
         <v>91</v>
@@ -13987,7 +13990,7 @@
         <v>101</v>
       </c>
       <c r="C735" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="D735" t="s">
         <v>91</v>
@@ -14004,7 +14007,7 @@
         <v>102</v>
       </c>
       <c r="C736" t="n">
-        <v>98.3</v>
+        <v>98.4</v>
       </c>
       <c r="D736" t="s">
         <v>91</v>
@@ -14021,7 +14024,7 @@
         <v>103</v>
       </c>
       <c r="C737" t="n">
-        <v>95.7</v>
+        <v>95.8</v>
       </c>
       <c r="D737" t="s">
         <v>104</v>
@@ -14038,7 +14041,7 @@
         <v>105</v>
       </c>
       <c r="C738" t="n">
-        <v>96.5</v>
+        <v>96.6</v>
       </c>
       <c r="D738" t="s">
         <v>104</v>
@@ -14055,7 +14058,7 @@
         <v>106</v>
       </c>
       <c r="C739" t="n">
-        <v>93.7</v>
+        <v>93.8</v>
       </c>
       <c r="D739" t="s">
         <v>104</v>
@@ -14072,7 +14075,7 @@
         <v>107</v>
       </c>
       <c r="C740" t="n">
-        <v>94.2</v>
+        <v>94.3</v>
       </c>
       <c r="D740" t="s">
         <v>104</v>
@@ -14089,7 +14092,7 @@
         <v>108</v>
       </c>
       <c r="C741" t="n">
-        <v>95.9</v>
+        <v>96</v>
       </c>
       <c r="D741" t="s">
         <v>104</v>
@@ -14106,7 +14109,7 @@
         <v>109</v>
       </c>
       <c r="C742" t="n">
-        <v>97.4</v>
+        <v>97.5</v>
       </c>
       <c r="D742" t="s">
         <v>104</v>
@@ -14157,7 +14160,7 @@
         <v>112</v>
       </c>
       <c r="C745" t="n">
-        <v>104.7</v>
+        <v>104.8</v>
       </c>
       <c r="D745" t="s">
         <v>104</v>
@@ -14191,7 +14194,7 @@
         <v>114</v>
       </c>
       <c r="C747" t="n">
-        <v>96.4</v>
+        <v>96.5</v>
       </c>
       <c r="D747" t="s">
         <v>104</v>
@@ -14208,7 +14211,7 @@
         <v>115</v>
       </c>
       <c r="C748" t="n">
-        <v>97.3</v>
+        <v>97.4</v>
       </c>
       <c r="D748" t="s">
         <v>104</v>
@@ -14327,7 +14330,7 @@
         <v>123</v>
       </c>
       <c r="C755" t="n">
-        <v>100.9</v>
+        <v>101</v>
       </c>
       <c r="D755" t="s">
         <v>117</v>
@@ -14497,7 +14500,7 @@
         <v>134</v>
       </c>
       <c r="C765" t="n">
-        <v>102.4</v>
+        <v>102.5</v>
       </c>
       <c r="D765" t="s">
         <v>130</v>
@@ -14531,7 +14534,7 @@
         <v>136</v>
       </c>
       <c r="C767" t="n">
-        <v>102.5</v>
+        <v>102.6</v>
       </c>
       <c r="D767" t="s">
         <v>130</v>
@@ -14582,7 +14585,7 @@
         <v>139</v>
       </c>
       <c r="C770" t="n">
-        <v>105.5</v>
+        <v>105.4</v>
       </c>
       <c r="D770" t="s">
         <v>130</v>
@@ -14633,7 +14636,7 @@
         <v>142</v>
       </c>
       <c r="C773" t="n">
-        <v>111.3</v>
+        <v>111.2</v>
       </c>
       <c r="D773" t="s">
         <v>143</v>
@@ -14735,7 +14738,7 @@
         <v>149</v>
       </c>
       <c r="C779" t="n">
-        <v>107.8</v>
+        <v>107.7</v>
       </c>
       <c r="D779" t="s">
         <v>143</v>
@@ -14803,7 +14806,7 @@
         <v>153</v>
       </c>
       <c r="C783" t="n">
-        <v>106.7</v>
+        <v>106.6</v>
       </c>
       <c r="D783" t="s">
         <v>143</v>
@@ -15075,7 +15078,7 @@
         <v>171</v>
       </c>
       <c r="C799" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="D799" t="s">
         <v>169</v>
@@ -15092,7 +15095,7 @@
         <v>172</v>
       </c>
       <c r="C800" t="n">
-        <v>97.9</v>
+        <v>98</v>
       </c>
       <c r="D800" t="s">
         <v>169</v>
@@ -15109,7 +15112,7 @@
         <v>173</v>
       </c>
       <c r="C801" t="n">
-        <v>95.3</v>
+        <v>95.4</v>
       </c>
       <c r="D801" t="s">
         <v>169</v>
@@ -15126,7 +15129,7 @@
         <v>174</v>
       </c>
       <c r="C802" t="n">
-        <v>89.7</v>
+        <v>89.8</v>
       </c>
       <c r="D802" t="s">
         <v>169</v>
@@ -15143,7 +15146,7 @@
         <v>175</v>
       </c>
       <c r="C803" t="n">
-        <v>83.9</v>
+        <v>84</v>
       </c>
       <c r="D803" t="s">
         <v>169</v>
@@ -15160,7 +15163,7 @@
         <v>176</v>
       </c>
       <c r="C804" t="n">
-        <v>86.2</v>
+        <v>86.4</v>
       </c>
       <c r="D804" t="s">
         <v>169</v>
@@ -15177,7 +15180,7 @@
         <v>177</v>
       </c>
       <c r="C805" t="n">
-        <v>88.3</v>
+        <v>88.4</v>
       </c>
       <c r="D805" t="s">
         <v>169</v>
@@ -15194,7 +15197,7 @@
         <v>178</v>
       </c>
       <c r="C806" t="n">
-        <v>81.4</v>
+        <v>81.6</v>
       </c>
       <c r="D806" t="s">
         <v>169</v>
@@ -15211,7 +15214,7 @@
         <v>179</v>
       </c>
       <c r="C807" t="n">
-        <v>82.2</v>
+        <v>82.4</v>
       </c>
       <c r="D807" t="s">
         <v>169</v>
@@ -15228,7 +15231,7 @@
         <v>180</v>
       </c>
       <c r="C808" t="n">
-        <v>84.5</v>
+        <v>84.7</v>
       </c>
       <c r="D808" t="s">
         <v>169</v>
@@ -15245,7 +15248,7 @@
         <v>181</v>
       </c>
       <c r="C809" t="n">
-        <v>88.6</v>
+        <v>88.7</v>
       </c>
       <c r="D809" t="s">
         <v>182</v>
@@ -15262,7 +15265,7 @@
         <v>183</v>
       </c>
       <c r="C810" t="n">
-        <v>88.4</v>
+        <v>88.6</v>
       </c>
       <c r="D810" t="s">
         <v>182</v>
@@ -15279,7 +15282,7 @@
         <v>184</v>
       </c>
       <c r="C811" t="n">
-        <v>88</v>
+        <v>88.2</v>
       </c>
       <c r="D811" t="s">
         <v>182</v>
@@ -15296,7 +15299,7 @@
         <v>185</v>
       </c>
       <c r="C812" t="n">
-        <v>84</v>
+        <v>84.2</v>
       </c>
       <c r="D812" t="s">
         <v>182</v>
@@ -15313,7 +15316,7 @@
         <v>186</v>
       </c>
       <c r="C813" t="n">
-        <v>90</v>
+        <v>90.2</v>
       </c>
       <c r="D813" t="s">
         <v>182</v>
@@ -15330,7 +15333,7 @@
         <v>187</v>
       </c>
       <c r="C814" t="n">
-        <v>91.5</v>
+        <v>91.6</v>
       </c>
       <c r="D814" t="s">
         <v>182</v>
@@ -15347,7 +15350,7 @@
         <v>188</v>
       </c>
       <c r="C815" t="n">
-        <v>95.3</v>
+        <v>95.4</v>
       </c>
       <c r="D815" t="s">
         <v>182</v>
@@ -15364,7 +15367,7 @@
         <v>189</v>
       </c>
       <c r="C816" t="n">
-        <v>99</v>
+        <v>99.1</v>
       </c>
       <c r="D816" t="s">
         <v>182</v>
@@ -15381,7 +15384,7 @@
         <v>190</v>
       </c>
       <c r="C817" t="n">
-        <v>100.6</v>
+        <v>100.7</v>
       </c>
       <c r="D817" t="s">
         <v>182</v>
@@ -15398,7 +15401,7 @@
         <v>191</v>
       </c>
       <c r="C818" t="n">
-        <v>103.3</v>
+        <v>103.4</v>
       </c>
       <c r="D818" t="s">
         <v>182</v>
@@ -15415,7 +15418,7 @@
         <v>202</v>
       </c>
       <c r="C819" t="n">
-        <v>96.9</v>
+        <v>97</v>
       </c>
       <c r="D819" t="s">
         <v>182</v>
@@ -15466,7 +15469,7 @@
         <v>206</v>
       </c>
       <c r="C822" t="n">
-        <v>105.7</v>
+        <v>105.8</v>
       </c>
       <c r="D822" t="s">
         <v>205</v>
@@ -15602,7 +15605,7 @@
         <v>214</v>
       </c>
       <c r="C830" t="n">
-        <v>112.6</v>
+        <v>112.7</v>
       </c>
       <c r="D830" t="s">
         <v>205</v>
@@ -15653,7 +15656,7 @@
         <v>217</v>
       </c>
       <c r="C833" t="n">
-        <v>115.1</v>
+        <v>115.2</v>
       </c>
       <c r="D833" t="s">
         <v>218</v>
@@ -15721,7 +15724,7 @@
         <v>222</v>
       </c>
       <c r="C837" t="n">
-        <v>109.7</v>
+        <v>109.8</v>
       </c>
       <c r="D837" t="s">
         <v>218</v>
@@ -15738,7 +15741,7 @@
         <v>223</v>
       </c>
       <c r="C838" t="n">
-        <v>107.4</v>
+        <v>107.5</v>
       </c>
       <c r="D838" t="s">
         <v>218</v>
@@ -15755,7 +15758,7 @@
         <v>224</v>
       </c>
       <c r="C839" t="n">
-        <v>102.1</v>
+        <v>102.2</v>
       </c>
       <c r="D839" t="s">
         <v>218</v>
@@ -15772,7 +15775,7 @@
         <v>225</v>
       </c>
       <c r="C840" t="n">
-        <v>98.3</v>
+        <v>98.4</v>
       </c>
       <c r="D840" t="s">
         <v>218</v>
@@ -15789,7 +15792,7 @@
         <v>226</v>
       </c>
       <c r="C841" t="n">
-        <v>96.2</v>
+        <v>96.3</v>
       </c>
       <c r="D841" t="s">
         <v>218</v>
@@ -15823,7 +15826,7 @@
         <v>228</v>
       </c>
       <c r="C843" t="n">
-        <v>94.8</v>
+        <v>94.9</v>
       </c>
       <c r="D843" t="s">
         <v>218</v>
@@ -15857,7 +15860,7 @@
         <v>230</v>
       </c>
       <c r="C845" t="n">
-        <v>90.6</v>
+        <v>90.7</v>
       </c>
       <c r="D845" t="s">
         <v>231</v>
@@ -15874,7 +15877,7 @@
         <v>232</v>
       </c>
       <c r="C846" t="n">
-        <v>91.6</v>
+        <v>91.7</v>
       </c>
       <c r="D846" t="s">
         <v>231</v>
@@ -15908,7 +15911,7 @@
         <v>234</v>
       </c>
       <c r="C848" t="n">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="D848" t="s">
         <v>231</v>
@@ -15925,7 +15928,7 @@
         <v>235</v>
       </c>
       <c r="C849" t="n">
-        <v>98.9</v>
+        <v>99</v>
       </c>
       <c r="D849" t="s">
         <v>231</v>
@@ -15942,7 +15945,7 @@
         <v>236</v>
       </c>
       <c r="C850" t="n">
-        <v>96.4</v>
+        <v>96.5</v>
       </c>
       <c r="D850" t="s">
         <v>231</v>
@@ -15959,7 +15962,7 @@
         <v>237</v>
       </c>
       <c r="C851" t="n">
-        <v>94.4</v>
+        <v>94.5</v>
       </c>
       <c r="D851" t="s">
         <v>231</v>
@@ -15976,7 +15979,7 @@
         <v>238</v>
       </c>
       <c r="C852" t="n">
-        <v>94.6</v>
+        <v>94.7</v>
       </c>
       <c r="D852" t="s">
         <v>231</v>
@@ -16027,7 +16030,7 @@
         <v>241</v>
       </c>
       <c r="C855" t="n">
-        <v>85.6</v>
+        <v>85.7</v>
       </c>
       <c r="D855" t="s">
         <v>231</v>
@@ -16061,7 +16064,7 @@
         <v>243</v>
       </c>
       <c r="C857" t="n">
-        <v>87.4</v>
+        <v>87.5</v>
       </c>
       <c r="D857" t="s">
         <v>244</v>
@@ -16078,7 +16081,7 @@
         <v>245</v>
       </c>
       <c r="C858" t="n">
-        <v>92.7</v>
+        <v>92.8</v>
       </c>
       <c r="D858" t="s">
         <v>244</v>
@@ -16112,7 +16115,7 @@
         <v>247</v>
       </c>
       <c r="C860" t="n">
-        <v>92.9</v>
+        <v>93</v>
       </c>
       <c r="D860" t="s">
         <v>244</v>
@@ -16282,7 +16285,7 @@
         <v>258</v>
       </c>
       <c r="C870" t="n">
-        <v>101.1</v>
+        <v>101.2</v>
       </c>
       <c r="D870" t="s">
         <v>257</v>
@@ -16299,7 +16302,7 @@
         <v>259</v>
       </c>
       <c r="C871" t="n">
-        <v>100.8</v>
+        <v>100.9</v>
       </c>
       <c r="D871" t="s">
         <v>257</v>
@@ -16333,7 +16336,7 @@
         <v>261</v>
       </c>
       <c r="C873" t="n">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="D873" t="s">
         <v>257</v>
@@ -16350,7 +16353,7 @@
         <v>262</v>
       </c>
       <c r="C874" t="n">
-        <v>102.2</v>
+        <v>102.1</v>
       </c>
       <c r="D874" t="s">
         <v>257</v>
@@ -16384,7 +16387,7 @@
         <v>264</v>
       </c>
       <c r="C876" t="n">
-        <v>103.2</v>
+        <v>103.3</v>
       </c>
       <c r="D876" t="s">
         <v>257</v>
@@ -16435,7 +16438,7 @@
         <v>267</v>
       </c>
       <c r="C879" t="n">
-        <v>101.3</v>
+        <v>101.4</v>
       </c>
       <c r="D879" t="s">
         <v>257</v>
@@ -16469,7 +16472,7 @@
         <v>269</v>
       </c>
       <c r="C881" t="n">
-        <v>101.6</v>
+        <v>101.7</v>
       </c>
       <c r="D881" t="s">
         <v>270</v>
@@ -16486,7 +16489,7 @@
         <v>271</v>
       </c>
       <c r="C882" t="n">
-        <v>101.6</v>
+        <v>101.7</v>
       </c>
       <c r="D882" t="s">
         <v>270</v>
@@ -16537,7 +16540,7 @@
         <v>274</v>
       </c>
       <c r="C885" t="n">
-        <v>102.8</v>
+        <v>102.9</v>
       </c>
       <c r="D885" t="s">
         <v>270</v>
@@ -16588,7 +16591,7 @@
         <v>277</v>
       </c>
       <c r="C888" t="n">
-        <v>104.9</v>
+        <v>105</v>
       </c>
       <c r="D888" t="s">
         <v>270</v>
@@ -16622,7 +16625,7 @@
         <v>279</v>
       </c>
       <c r="C890" t="n">
-        <v>105.6</v>
+        <v>105.7</v>
       </c>
       <c r="D890" t="s">
         <v>270</v>
@@ -16673,7 +16676,7 @@
         <v>282</v>
       </c>
       <c r="C893" t="n">
-        <v>107.9</v>
+        <v>108</v>
       </c>
       <c r="D893" t="s">
         <v>283</v>
@@ -16690,7 +16693,7 @@
         <v>284</v>
       </c>
       <c r="C894" t="n">
-        <v>105.1</v>
+        <v>105.2</v>
       </c>
       <c r="D894" t="s">
         <v>283</v>
@@ -16792,7 +16795,7 @@
         <v>290</v>
       </c>
       <c r="C900" t="n">
-        <v>101</v>
+        <v>101.1</v>
       </c>
       <c r="D900" t="s">
         <v>283</v>
@@ -16826,7 +16829,7 @@
         <v>292</v>
       </c>
       <c r="C902" t="n">
-        <v>104.7</v>
+        <v>104.8</v>
       </c>
       <c r="D902" t="s">
         <v>283</v>
@@ -16894,7 +16897,7 @@
         <v>297</v>
       </c>
       <c r="C906" t="n">
-        <v>108.9</v>
+        <v>109</v>
       </c>
       <c r="D906" t="s">
         <v>296</v>
@@ -16945,7 +16948,7 @@
         <v>300</v>
       </c>
       <c r="C909" t="n">
-        <v>111.8</v>
+        <v>111.7</v>
       </c>
       <c r="D909" t="s">
         <v>296</v>
@@ -17030,7 +17033,7 @@
         <v>305</v>
       </c>
       <c r="C914" t="n">
-        <v>111.2</v>
+        <v>111.3</v>
       </c>
       <c r="D914" t="s">
         <v>296</v>
@@ -17047,7 +17050,7 @@
         <v>306</v>
       </c>
       <c r="C915" t="n">
-        <v>111.6</v>
+        <v>111.8</v>
       </c>
       <c r="D915" t="s">
         <v>296</v>
@@ -17064,7 +17067,7 @@
         <v>307</v>
       </c>
       <c r="C916" t="n">
-        <v>109.7</v>
+        <v>109.8</v>
       </c>
       <c r="D916" t="s">
         <v>296</v>
@@ -17081,7 +17084,7 @@
         <v>308</v>
       </c>
       <c r="C917" t="n">
-        <v>108.6</v>
+        <v>108.5</v>
       </c>
       <c r="D917" t="s">
         <v>309</v>
@@ -17115,7 +17118,7 @@
         <v>311</v>
       </c>
       <c r="C919" t="n">
-        <v>109</v>
+        <v>109.1</v>
       </c>
       <c r="D919" t="s">
         <v>309</v>
@@ -17149,7 +17152,7 @@
         <v>313</v>
       </c>
       <c r="C921" t="n">
-        <v>110</v>
+        <v>110.1</v>
       </c>
       <c r="D921" t="s">
         <v>309</v>
@@ -17234,7 +17237,7 @@
         <v>318</v>
       </c>
       <c r="C926" t="n">
-        <v>106.4</v>
+        <v>106.5</v>
       </c>
       <c r="D926" t="s">
         <v>309</v>
@@ -17251,7 +17254,7 @@
         <v>319</v>
       </c>
       <c r="C927" t="n">
-        <v>105.2</v>
+        <v>105.3</v>
       </c>
       <c r="D927" t="s">
         <v>309</v>
@@ -17268,7 +17271,7 @@
         <v>320</v>
       </c>
       <c r="C928" t="n">
-        <v>105.3</v>
+        <v>105.4</v>
       </c>
       <c r="D928" t="s">
         <v>309</v>
@@ -17302,7 +17305,7 @@
         <v>323</v>
       </c>
       <c r="C930" t="n">
-        <v>102.2</v>
+        <v>102.4</v>
       </c>
       <c r="D930" t="s">
         <v>322</v>
@@ -17319,7 +17322,7 @@
         <v>324</v>
       </c>
       <c r="C931" t="n">
-        <v>102.8</v>
+        <v>102.7</v>
       </c>
       <c r="D931" t="s">
         <v>322</v>
@@ -17336,7 +17339,7 @@
         <v>325</v>
       </c>
       <c r="C932" t="n">
-        <v>104.6</v>
+        <v>104.7</v>
       </c>
       <c r="D932" t="s">
         <v>322</v>
@@ -17353,7 +17356,7 @@
         <v>326</v>
       </c>
       <c r="C933" t="n">
-        <v>101.8</v>
+        <v>101.7</v>
       </c>
       <c r="D933" t="s">
         <v>322</v>
@@ -17387,7 +17390,7 @@
         <v>328</v>
       </c>
       <c r="C935" t="n">
-        <v>98.5</v>
+        <v>98.4</v>
       </c>
       <c r="D935" t="s">
         <v>322</v>
@@ -17438,7 +17441,7 @@
         <v>331</v>
       </c>
       <c r="C938" t="n">
-        <v>93.2</v>
+        <v>93.4</v>
       </c>
       <c r="D938" t="s">
         <v>322</v>
@@ -17455,7 +17458,7 @@
         <v>332</v>
       </c>
       <c r="C939" t="n">
-        <v>94.3</v>
+        <v>94.5</v>
       </c>
       <c r="D939" t="s">
         <v>322</v>
@@ -17472,7 +17475,7 @@
         <v>333</v>
       </c>
       <c r="C940" t="n">
-        <v>94.1</v>
+        <v>94.2</v>
       </c>
       <c r="D940" t="s">
         <v>322</v>
@@ -17506,7 +17509,7 @@
         <v>336</v>
       </c>
       <c r="C942" t="n">
-        <v>99</v>
+        <v>99.3</v>
       </c>
       <c r="D942" t="s">
         <v>335</v>
@@ -17523,7 +17526,7 @@
         <v>337</v>
       </c>
       <c r="C943" t="n">
-        <v>93.7</v>
+        <v>93.8</v>
       </c>
       <c r="D943" t="s">
         <v>335</v>
@@ -17557,7 +17560,7 @@
         <v>339</v>
       </c>
       <c r="C945" t="n">
-        <v>64.9</v>
+        <v>65.1</v>
       </c>
       <c r="D945" t="s">
         <v>335</v>
@@ -17574,7 +17577,7 @@
         <v>340</v>
       </c>
       <c r="C946" t="n">
-        <v>76.2</v>
+        <v>76.3</v>
       </c>
       <c r="D946" t="s">
         <v>335</v>
@@ -17608,7 +17611,7 @@
         <v>342</v>
       </c>
       <c r="C948" t="n">
-        <v>87.7</v>
+        <v>87.5</v>
       </c>
       <c r="D948" t="s">
         <v>335</v>
@@ -17625,7 +17628,7 @@
         <v>343</v>
       </c>
       <c r="C949" t="n">
-        <v>94.2</v>
+        <v>94.3</v>
       </c>
       <c r="D949" t="s">
         <v>335</v>
@@ -17642,7 +17645,7 @@
         <v>344</v>
       </c>
       <c r="C950" t="n">
-        <v>95.3</v>
+        <v>95.5</v>
       </c>
       <c r="D950" t="s">
         <v>335</v>
@@ -17659,7 +17662,7 @@
         <v>345</v>
       </c>
       <c r="C951" t="n">
-        <v>97</v>
+        <v>97.2</v>
       </c>
       <c r="D951" t="s">
         <v>335</v>
@@ -17676,7 +17679,7 @@
         <v>346</v>
       </c>
       <c r="C952" t="n">
-        <v>96.4</v>
+        <v>96.6</v>
       </c>
       <c r="D952" t="s">
         <v>335</v>
@@ -17693,7 +17696,7 @@
         <v>347</v>
       </c>
       <c r="C953" t="n">
-        <v>102.2</v>
+        <v>102.3</v>
       </c>
       <c r="D953" t="s">
         <v>348</v>
@@ -17710,7 +17713,7 @@
         <v>349</v>
       </c>
       <c r="C954" t="n">
-        <v>104.2</v>
+        <v>104.4</v>
       </c>
       <c r="D954" t="s">
         <v>348</v>
@@ -17727,7 +17730,7 @@
         <v>350</v>
       </c>
       <c r="C955" t="n">
-        <v>105.6</v>
+        <v>105.5</v>
       </c>
       <c r="D955" t="s">
         <v>348</v>
@@ -17761,7 +17764,7 @@
         <v>352</v>
       </c>
       <c r="C957" t="n">
-        <v>117</v>
+        <v>117.1</v>
       </c>
       <c r="D957" t="s">
         <v>348</v>
@@ -17778,7 +17781,7 @@
         <v>353</v>
       </c>
       <c r="C958" t="n">
-        <v>117.2</v>
+        <v>117</v>
       </c>
       <c r="D958" t="s">
         <v>348</v>
@@ -17795,7 +17798,7 @@
         <v>354</v>
       </c>
       <c r="C959" t="n">
-        <v>120.5</v>
+        <v>120.2</v>
       </c>
       <c r="D959" t="s">
         <v>348</v>
@@ -17846,7 +17849,7 @@
         <v>357</v>
       </c>
       <c r="C962" t="n">
-        <v>120.9</v>
+        <v>121.1</v>
       </c>
       <c r="D962" t="s">
         <v>348</v>
@@ -17863,7 +17866,7 @@
         <v>358</v>
       </c>
       <c r="C963" t="n">
-        <v>119.1</v>
+        <v>119.4</v>
       </c>
       <c r="D963" t="s">
         <v>348</v>
@@ -17880,7 +17883,7 @@
         <v>359</v>
       </c>
       <c r="C964" t="n">
-        <v>118.7</v>
+        <v>119.1</v>
       </c>
       <c r="D964" t="s">
         <v>348</v>
@@ -17897,7 +17900,7 @@
         <v>360</v>
       </c>
       <c r="C965" t="n">
-        <v>113.2</v>
+        <v>113.3</v>
       </c>
       <c r="D965" t="s">
         <v>361</v>
@@ -17914,7 +17917,7 @@
         <v>362</v>
       </c>
       <c r="C966" t="n">
-        <v>114.8</v>
+        <v>114.9</v>
       </c>
       <c r="D966" t="s">
         <v>361</v>
@@ -17931,7 +17934,7 @@
         <v>363</v>
       </c>
       <c r="C967" t="n">
-        <v>112.7</v>
+        <v>112.8</v>
       </c>
       <c r="D967" t="s">
         <v>361</v>
@@ -17965,7 +17968,7 @@
         <v>365</v>
       </c>
       <c r="C969" t="n">
-        <v>111.2</v>
+        <v>110.7</v>
       </c>
       <c r="D969" t="s">
         <v>361</v>
@@ -17982,7 +17985,7 @@
         <v>366</v>
       </c>
       <c r="C970" t="n">
-        <v>105.7</v>
+        <v>105.6</v>
       </c>
       <c r="D970" t="s">
         <v>361</v>
@@ -17999,7 +18002,7 @@
         <v>367</v>
       </c>
       <c r="C971" t="n">
-        <v>103.3</v>
+        <v>103.2</v>
       </c>
       <c r="D971" t="s">
         <v>361</v>
@@ -18050,7 +18053,7 @@
         <v>370</v>
       </c>
       <c r="C974" t="n">
-        <v>88.4</v>
+        <v>88.5</v>
       </c>
       <c r="D974" t="s">
         <v>361</v>
@@ -18067,7 +18070,7 @@
         <v>371</v>
       </c>
       <c r="C975" t="n">
-        <v>88.3</v>
+        <v>88.6</v>
       </c>
       <c r="D975" t="s">
         <v>361</v>
@@ -18084,7 +18087,7 @@
         <v>372</v>
       </c>
       <c r="C976" t="n">
-        <v>87.8</v>
+        <v>88.5</v>
       </c>
       <c r="D976" t="s">
         <v>361</v>
@@ -18101,7 +18104,7 @@
         <v>373</v>
       </c>
       <c r="C977" t="n">
-        <v>85.7</v>
+        <v>85.9</v>
       </c>
       <c r="D977" t="s">
         <v>374</v>
@@ -18118,7 +18121,7 @@
         <v>375</v>
       </c>
       <c r="C978" t="n">
-        <v>87.8</v>
+        <v>88</v>
       </c>
       <c r="D978" t="s">
         <v>374</v>
@@ -18135,7 +18138,7 @@
         <v>376</v>
       </c>
       <c r="C979" t="n">
-        <v>89.3</v>
+        <v>89.5</v>
       </c>
       <c r="D979" t="s">
         <v>374</v>
@@ -18152,7 +18155,7 @@
         <v>377</v>
       </c>
       <c r="C980" t="n">
-        <v>87.9</v>
+        <v>88</v>
       </c>
       <c r="D980" t="s">
         <v>374</v>
@@ -18169,7 +18172,7 @@
         <v>378</v>
       </c>
       <c r="C981" t="n">
-        <v>90.3</v>
+        <v>90.1</v>
       </c>
       <c r="D981" t="s">
         <v>374</v>
@@ -18186,7 +18189,7 @@
         <v>379</v>
       </c>
       <c r="C982" t="n">
-        <v>90.1</v>
+        <v>90</v>
       </c>
       <c r="D982" t="s">
         <v>374</v>
@@ -18203,7 +18206,7 @@
         <v>380</v>
       </c>
       <c r="C983" t="n">
-        <v>87.8</v>
+        <v>87.7</v>
       </c>
       <c r="D983" t="s">
         <v>374</v>
@@ -18339,7 +18342,7 @@
         <v>209</v>
       </c>
       <c r="C991" t="n">
-        <v>102.5</v>
+        <v>102.6</v>
       </c>
       <c r="D991" t="s">
         <v>205</v>
@@ -18356,7 +18359,7 @@
         <v>210</v>
       </c>
       <c r="C992" t="n">
-        <v>107.4</v>
+        <v>107.5</v>
       </c>
       <c r="D992" t="s">
         <v>205</v>
@@ -18424,7 +18427,7 @@
         <v>214</v>
       </c>
       <c r="C996" t="n">
-        <v>107.7</v>
+        <v>107.8</v>
       </c>
       <c r="D996" t="s">
         <v>205</v>
@@ -18798,7 +18801,7 @@
         <v>238</v>
       </c>
       <c r="C1018" t="n">
-        <v>92.8</v>
+        <v>92.9</v>
       </c>
       <c r="D1018" t="s">
         <v>231</v>
@@ -19087,7 +19090,7 @@
         <v>256</v>
       </c>
       <c r="C1035" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="D1035" t="s">
         <v>257</v>
@@ -19138,7 +19141,7 @@
         <v>260</v>
       </c>
       <c r="C1038" t="n">
-        <v>101.1</v>
+        <v>101.2</v>
       </c>
       <c r="D1038" t="s">
         <v>257</v>
@@ -19563,7 +19566,7 @@
         <v>287</v>
       </c>
       <c r="C1063" t="n">
-        <v>101.1</v>
+        <v>101.2</v>
       </c>
       <c r="D1063" t="s">
         <v>283</v>
@@ -19716,7 +19719,7 @@
         <v>297</v>
       </c>
       <c r="C1072" t="n">
-        <v>109.6</v>
+        <v>109.7</v>
       </c>
       <c r="D1072" t="s">
         <v>296</v>
@@ -19733,7 +19736,7 @@
         <v>298</v>
       </c>
       <c r="C1073" t="n">
-        <v>107</v>
+        <v>107.1</v>
       </c>
       <c r="D1073" t="s">
         <v>296</v>
@@ -19801,7 +19804,7 @@
         <v>302</v>
       </c>
       <c r="C1077" t="n">
-        <v>113.4</v>
+        <v>113.5</v>
       </c>
       <c r="D1077" t="s">
         <v>296</v>
@@ -19852,7 +19855,7 @@
         <v>305</v>
       </c>
       <c r="C1080" t="n">
-        <v>115.3</v>
+        <v>115.4</v>
       </c>
       <c r="D1080" t="s">
         <v>296</v>
@@ -19869,7 +19872,7 @@
         <v>306</v>
       </c>
       <c r="C1081" t="n">
-        <v>115.8</v>
+        <v>115.9</v>
       </c>
       <c r="D1081" t="s">
         <v>296</v>
@@ -19886,7 +19889,7 @@
         <v>307</v>
       </c>
       <c r="C1082" t="n">
-        <v>109.8</v>
+        <v>109.9</v>
       </c>
       <c r="D1082" t="s">
         <v>296</v>
@@ -19920,7 +19923,7 @@
         <v>310</v>
       </c>
       <c r="C1084" t="n">
-        <v>109.2</v>
+        <v>109.3</v>
       </c>
       <c r="D1084" t="s">
         <v>309</v>
@@ -19937,7 +19940,7 @@
         <v>311</v>
       </c>
       <c r="C1085" t="n">
-        <v>112.2</v>
+        <v>112.3</v>
       </c>
       <c r="D1085" t="s">
         <v>309</v>
@@ -20005,7 +20008,7 @@
         <v>315</v>
       </c>
       <c r="C1089" t="n">
-        <v>114.4</v>
+        <v>114.5</v>
       </c>
       <c r="D1089" t="s">
         <v>309</v>
@@ -20022,7 +20025,7 @@
         <v>316</v>
       </c>
       <c r="C1090" t="n">
-        <v>116.7</v>
+        <v>116.8</v>
       </c>
       <c r="D1090" t="s">
         <v>309</v>
@@ -20039,7 +20042,7 @@
         <v>317</v>
       </c>
       <c r="C1091" t="n">
-        <v>112.9</v>
+        <v>113</v>
       </c>
       <c r="D1091" t="s">
         <v>309</v>
@@ -20056,7 +20059,7 @@
         <v>318</v>
       </c>
       <c r="C1092" t="n">
-        <v>111.4</v>
+        <v>111.5</v>
       </c>
       <c r="D1092" t="s">
         <v>309</v>
@@ -20073,7 +20076,7 @@
         <v>319</v>
       </c>
       <c r="C1093" t="n">
-        <v>111.7</v>
+        <v>111.8</v>
       </c>
       <c r="D1093" t="s">
         <v>309</v>
@@ -20124,7 +20127,7 @@
         <v>323</v>
       </c>
       <c r="C1096" t="n">
-        <v>108.7</v>
+        <v>109.1</v>
       </c>
       <c r="D1096" t="s">
         <v>322</v>
@@ -20175,7 +20178,7 @@
         <v>326</v>
       </c>
       <c r="C1099" t="n">
-        <v>102.1</v>
+        <v>101.8</v>
       </c>
       <c r="D1099" t="s">
         <v>322</v>
@@ -20192,7 +20195,7 @@
         <v>327</v>
       </c>
       <c r="C1100" t="n">
-        <v>100.8</v>
+        <v>100.9</v>
       </c>
       <c r="D1100" t="s">
         <v>322</v>
@@ -20209,7 +20212,7 @@
         <v>328</v>
       </c>
       <c r="C1101" t="n">
-        <v>97.2</v>
+        <v>96.9</v>
       </c>
       <c r="D1101" t="s">
         <v>322</v>
@@ -20243,7 +20246,7 @@
         <v>330</v>
       </c>
       <c r="C1103" t="n">
-        <v>94.7</v>
+        <v>94.8</v>
       </c>
       <c r="D1103" t="s">
         <v>322</v>
@@ -20277,7 +20280,7 @@
         <v>332</v>
       </c>
       <c r="C1105" t="n">
-        <v>93.9</v>
+        <v>94.1</v>
       </c>
       <c r="D1105" t="s">
         <v>322</v>
@@ -20311,7 +20314,7 @@
         <v>334</v>
       </c>
       <c r="C1107" t="n">
-        <v>98.6</v>
+        <v>98.7</v>
       </c>
       <c r="D1107" t="s">
         <v>335</v>
@@ -20328,7 +20331,7 @@
         <v>336</v>
       </c>
       <c r="C1108" t="n">
-        <v>101</v>
+        <v>101.3</v>
       </c>
       <c r="D1108" t="s">
         <v>335</v>
@@ -20345,7 +20348,7 @@
         <v>337</v>
       </c>
       <c r="C1109" t="n">
-        <v>98.8</v>
+        <v>98.9</v>
       </c>
       <c r="D1109" t="s">
         <v>335</v>
@@ -20379,7 +20382,7 @@
         <v>339</v>
       </c>
       <c r="C1111" t="n">
-        <v>76.4</v>
+        <v>76.5</v>
       </c>
       <c r="D1111" t="s">
         <v>335</v>
@@ -20413,7 +20416,7 @@
         <v>341</v>
       </c>
       <c r="C1113" t="n">
-        <v>96.3</v>
+        <v>95.9</v>
       </c>
       <c r="D1113" t="s">
         <v>335</v>
@@ -20481,7 +20484,7 @@
         <v>345</v>
       </c>
       <c r="C1117" t="n">
-        <v>106.7</v>
+        <v>106.8</v>
       </c>
       <c r="D1117" t="s">
         <v>335</v>
@@ -20498,7 +20501,7 @@
         <v>346</v>
       </c>
       <c r="C1118" t="n">
-        <v>105.3</v>
+        <v>105.7</v>
       </c>
       <c r="D1118" t="s">
         <v>335</v>
@@ -20566,7 +20569,7 @@
         <v>351</v>
       </c>
       <c r="C1122" t="n">
-        <v>117.5</v>
+        <v>117.6</v>
       </c>
       <c r="D1122" t="s">
         <v>348</v>
@@ -20583,7 +20586,7 @@
         <v>352</v>
       </c>
       <c r="C1123" t="n">
-        <v>122</v>
+        <v>122.1</v>
       </c>
       <c r="D1123" t="s">
         <v>348</v>
@@ -20617,7 +20620,7 @@
         <v>354</v>
       </c>
       <c r="C1125" t="n">
-        <v>125.4</v>
+        <v>124.8</v>
       </c>
       <c r="D1125" t="s">
         <v>348</v>
@@ -20634,7 +20637,7 @@
         <v>355</v>
       </c>
       <c r="C1126" t="n">
-        <v>124.7</v>
+        <v>124.8</v>
       </c>
       <c r="D1126" t="s">
         <v>348</v>
@@ -20668,7 +20671,7 @@
         <v>357</v>
       </c>
       <c r="C1128" t="n">
-        <v>126.4</v>
+        <v>126.5</v>
       </c>
       <c r="D1128" t="s">
         <v>348</v>
@@ -20685,7 +20688,7 @@
         <v>358</v>
       </c>
       <c r="C1129" t="n">
-        <v>124.6</v>
+        <v>124.7</v>
       </c>
       <c r="D1129" t="s">
         <v>348</v>
@@ -20702,7 +20705,7 @@
         <v>359</v>
       </c>
       <c r="C1130" t="n">
-        <v>126.3</v>
+        <v>126.9</v>
       </c>
       <c r="D1130" t="s">
         <v>348</v>
@@ -20736,7 +20739,7 @@
         <v>362</v>
       </c>
       <c r="C1132" t="n">
-        <v>123.8</v>
+        <v>123.9</v>
       </c>
       <c r="D1132" t="s">
         <v>361</v>
@@ -20753,7 +20756,7 @@
         <v>363</v>
       </c>
       <c r="C1133" t="n">
-        <v>123.8</v>
+        <v>123.9</v>
       </c>
       <c r="D1133" t="s">
         <v>361</v>
@@ -20770,7 +20773,7 @@
         <v>364</v>
       </c>
       <c r="C1134" t="n">
-        <v>120.9</v>
+        <v>121</v>
       </c>
       <c r="D1134" t="s">
         <v>361</v>
@@ -20787,7 +20790,7 @@
         <v>365</v>
       </c>
       <c r="C1135" t="n">
-        <v>124.8</v>
+        <v>124.2</v>
       </c>
       <c r="D1135" t="s">
         <v>361</v>
@@ -20804,7 +20807,7 @@
         <v>366</v>
       </c>
       <c r="C1136" t="n">
-        <v>118.9</v>
+        <v>118.7</v>
       </c>
       <c r="D1136" t="s">
         <v>361</v>
@@ -20821,7 +20824,7 @@
         <v>367</v>
       </c>
       <c r="C1137" t="n">
-        <v>119.7</v>
+        <v>119.8</v>
       </c>
       <c r="D1137" t="s">
         <v>361</v>
@@ -20838,7 +20841,7 @@
         <v>368</v>
       </c>
       <c r="C1138" t="n">
-        <v>115.2</v>
+        <v>115</v>
       </c>
       <c r="D1138" t="s">
         <v>361</v>
@@ -20872,7 +20875,7 @@
         <v>370</v>
       </c>
       <c r="C1140" t="n">
-        <v>105.3</v>
+        <v>105</v>
       </c>
       <c r="D1140" t="s">
         <v>361</v>
@@ -20889,7 +20892,7 @@
         <v>371</v>
       </c>
       <c r="C1141" t="n">
-        <v>104.9</v>
+        <v>105</v>
       </c>
       <c r="D1141" t="s">
         <v>361</v>
@@ -20906,7 +20909,7 @@
         <v>372</v>
       </c>
       <c r="C1142" t="n">
-        <v>104.7</v>
+        <v>105.6</v>
       </c>
       <c r="D1142" t="s">
         <v>361</v>
@@ -20940,7 +20943,7 @@
         <v>375</v>
       </c>
       <c r="C1144" t="n">
-        <v>102.4</v>
+        <v>102.5</v>
       </c>
       <c r="D1144" t="s">
         <v>374</v>
@@ -20974,7 +20977,7 @@
         <v>377</v>
       </c>
       <c r="C1146" t="n">
-        <v>101</v>
+        <v>101.1</v>
       </c>
       <c r="D1146" t="s">
         <v>374</v>
@@ -20991,7 +20994,7 @@
         <v>378</v>
       </c>
       <c r="C1147" t="n">
-        <v>103.4</v>
+        <v>103.1</v>
       </c>
       <c r="D1147" t="s">
         <v>374</v>
@@ -21025,7 +21028,7 @@
         <v>380</v>
       </c>
       <c r="C1149" t="n">
-        <v>97.4</v>
+        <v>97.2</v>
       </c>
       <c r="D1149" t="s">
         <v>374</v>
@@ -21059,7 +21062,7 @@
         <v>209</v>
       </c>
       <c r="C1151" t="n">
-        <v>97.6</v>
+        <v>97.9</v>
       </c>
       <c r="D1151" t="s">
         <v>205</v>
@@ -21076,7 +21079,7 @@
         <v>210</v>
       </c>
       <c r="C1152" t="n">
-        <v>100.6</v>
+        <v>100.4</v>
       </c>
       <c r="D1152" t="s">
         <v>205</v>
@@ -21093,7 +21096,7 @@
         <v>211</v>
       </c>
       <c r="C1153" t="n">
-        <v>100.4</v>
+        <v>100.1</v>
       </c>
       <c r="D1153" t="s">
         <v>205</v>
@@ -21144,7 +21147,7 @@
         <v>214</v>
       </c>
       <c r="C1156" t="n">
-        <v>105.7</v>
+        <v>106</v>
       </c>
       <c r="D1156" t="s">
         <v>205</v>
@@ -21178,7 +21181,7 @@
         <v>216</v>
       </c>
       <c r="C1158" t="n">
-        <v>107.2</v>
+        <v>106.9</v>
       </c>
       <c r="D1158" t="s">
         <v>205</v>
@@ -21246,7 +21249,7 @@
         <v>221</v>
       </c>
       <c r="C1162" t="n">
-        <v>108.1</v>
+        <v>108.3</v>
       </c>
       <c r="D1162" t="s">
         <v>218</v>
@@ -21263,7 +21266,7 @@
         <v>222</v>
       </c>
       <c r="C1163" t="n">
-        <v>108.5</v>
+        <v>109</v>
       </c>
       <c r="D1163" t="s">
         <v>218</v>
@@ -21297,7 +21300,7 @@
         <v>224</v>
       </c>
       <c r="C1165" t="n">
-        <v>104.5</v>
+        <v>104.6</v>
       </c>
       <c r="D1165" t="s">
         <v>218</v>
@@ -21314,7 +21317,7 @@
         <v>225</v>
       </c>
       <c r="C1166" t="n">
-        <v>101.8</v>
+        <v>101.9</v>
       </c>
       <c r="D1166" t="s">
         <v>218</v>
@@ -21365,7 +21368,7 @@
         <v>228</v>
       </c>
       <c r="C1169" t="n">
-        <v>98.6</v>
+        <v>98.7</v>
       </c>
       <c r="D1169" t="s">
         <v>218</v>
@@ -21382,7 +21385,7 @@
         <v>229</v>
       </c>
       <c r="C1170" t="n">
-        <v>96.3</v>
+        <v>96.4</v>
       </c>
       <c r="D1170" t="s">
         <v>218</v>
@@ -21399,7 +21402,7 @@
         <v>230</v>
       </c>
       <c r="C1171" t="n">
-        <v>96.6</v>
+        <v>96.7</v>
       </c>
       <c r="D1171" t="s">
         <v>231</v>
@@ -21416,7 +21419,7 @@
         <v>232</v>
       </c>
       <c r="C1172" t="n">
-        <v>93.8</v>
+        <v>93.9</v>
       </c>
       <c r="D1172" t="s">
         <v>231</v>
@@ -21433,7 +21436,7 @@
         <v>233</v>
       </c>
       <c r="C1173" t="n">
-        <v>98.1</v>
+        <v>97.9</v>
       </c>
       <c r="D1173" t="s">
         <v>231</v>
@@ -21450,7 +21453,7 @@
         <v>234</v>
       </c>
       <c r="C1174" t="n">
-        <v>99.9</v>
+        <v>100</v>
       </c>
       <c r="D1174" t="s">
         <v>231</v>
@@ -21467,7 +21470,7 @@
         <v>235</v>
       </c>
       <c r="C1175" t="n">
-        <v>89.6</v>
+        <v>90</v>
       </c>
       <c r="D1175" t="s">
         <v>231</v>
@@ -21484,7 +21487,7 @@
         <v>236</v>
       </c>
       <c r="C1176" t="n">
-        <v>89.8</v>
+        <v>90.2</v>
       </c>
       <c r="D1176" t="s">
         <v>231</v>
@@ -21501,7 +21504,7 @@
         <v>237</v>
       </c>
       <c r="C1177" t="n">
-        <v>88.8</v>
+        <v>89.2</v>
       </c>
       <c r="D1177" t="s">
         <v>231</v>
@@ -21518,7 +21521,7 @@
         <v>238</v>
       </c>
       <c r="C1178" t="n">
-        <v>90.3</v>
+        <v>90.7</v>
       </c>
       <c r="D1178" t="s">
         <v>231</v>
@@ -21535,7 +21538,7 @@
         <v>239</v>
       </c>
       <c r="C1179" t="n">
-        <v>86.8</v>
+        <v>86.9</v>
       </c>
       <c r="D1179" t="s">
         <v>231</v>
@@ -21552,7 +21555,7 @@
         <v>240</v>
       </c>
       <c r="C1180" t="n">
-        <v>84.9</v>
+        <v>84.8</v>
       </c>
       <c r="D1180" t="s">
         <v>231</v>
@@ -21569,7 +21572,7 @@
         <v>241</v>
       </c>
       <c r="C1181" t="n">
-        <v>80</v>
+        <v>79.9</v>
       </c>
       <c r="D1181" t="s">
         <v>231</v>
@@ -21586,7 +21589,7 @@
         <v>242</v>
       </c>
       <c r="C1182" t="n">
-        <v>78.9</v>
+        <v>78.8</v>
       </c>
       <c r="D1182" t="s">
         <v>231</v>
@@ -21603,7 +21606,7 @@
         <v>243</v>
       </c>
       <c r="C1183" t="n">
-        <v>84.1</v>
+        <v>84.3</v>
       </c>
       <c r="D1183" t="s">
         <v>244</v>
@@ -21620,7 +21623,7 @@
         <v>245</v>
       </c>
       <c r="C1184" t="n">
-        <v>83.6</v>
+        <v>83.5</v>
       </c>
       <c r="D1184" t="s">
         <v>244</v>
@@ -21637,7 +21640,7 @@
         <v>246</v>
       </c>
       <c r="C1185" t="n">
-        <v>84</v>
+        <v>84.1</v>
       </c>
       <c r="D1185" t="s">
         <v>244</v>
@@ -21654,7 +21657,7 @@
         <v>247</v>
       </c>
       <c r="C1186" t="n">
-        <v>82.3</v>
+        <v>82.7</v>
       </c>
       <c r="D1186" t="s">
         <v>244</v>
@@ -21671,7 +21674,7 @@
         <v>248</v>
       </c>
       <c r="C1187" t="n">
-        <v>85.8</v>
+        <v>85.9</v>
       </c>
       <c r="D1187" t="s">
         <v>244</v>
@@ -21688,7 +21691,7 @@
         <v>249</v>
       </c>
       <c r="C1188" t="n">
-        <v>85.9</v>
+        <v>86.3</v>
       </c>
       <c r="D1188" t="s">
         <v>244</v>
@@ -21705,7 +21708,7 @@
         <v>250</v>
       </c>
       <c r="C1189" t="n">
-        <v>84.3</v>
+        <v>84.7</v>
       </c>
       <c r="D1189" t="s">
         <v>244</v>
@@ -21722,7 +21725,7 @@
         <v>251</v>
       </c>
       <c r="C1190" t="n">
-        <v>84.3</v>
+        <v>84.4</v>
       </c>
       <c r="D1190" t="s">
         <v>244</v>
@@ -21739,7 +21742,7 @@
         <v>252</v>
       </c>
       <c r="C1191" t="n">
-        <v>86.2</v>
+        <v>86.3</v>
       </c>
       <c r="D1191" t="s">
         <v>244</v>
@@ -21756,7 +21759,7 @@
         <v>253</v>
       </c>
       <c r="C1192" t="n">
-        <v>85.1</v>
+        <v>85</v>
       </c>
       <c r="D1192" t="s">
         <v>244</v>
@@ -21773,7 +21776,7 @@
         <v>254</v>
       </c>
       <c r="C1193" t="n">
-        <v>87.2</v>
+        <v>87.1</v>
       </c>
       <c r="D1193" t="s">
         <v>244</v>
@@ -21790,7 +21793,7 @@
         <v>255</v>
       </c>
       <c r="C1194" t="n">
-        <v>90.3</v>
+        <v>90.5</v>
       </c>
       <c r="D1194" t="s">
         <v>244</v>
@@ -21807,7 +21810,7 @@
         <v>256</v>
       </c>
       <c r="C1195" t="n">
-        <v>89.5</v>
+        <v>89.8</v>
       </c>
       <c r="D1195" t="s">
         <v>257</v>
@@ -21824,7 +21827,7 @@
         <v>258</v>
       </c>
       <c r="C1196" t="n">
-        <v>90.3</v>
+        <v>90.4</v>
       </c>
       <c r="D1196" t="s">
         <v>257</v>
@@ -21841,7 +21844,7 @@
         <v>259</v>
       </c>
       <c r="C1197" t="n">
-        <v>91.8</v>
+        <v>91.6</v>
       </c>
       <c r="D1197" t="s">
         <v>257</v>
@@ -21875,7 +21878,7 @@
         <v>261</v>
       </c>
       <c r="C1199" t="n">
-        <v>93.2</v>
+        <v>93.3</v>
       </c>
       <c r="D1199" t="s">
         <v>257</v>
@@ -21926,7 +21929,7 @@
         <v>264</v>
       </c>
       <c r="C1202" t="n">
-        <v>98</v>
+        <v>98.1</v>
       </c>
       <c r="D1202" t="s">
         <v>257</v>
@@ -21960,7 +21963,7 @@
         <v>266</v>
       </c>
       <c r="C1204" t="n">
-        <v>95.9</v>
+        <v>95.7</v>
       </c>
       <c r="D1204" t="s">
         <v>257</v>
@@ -22011,7 +22014,7 @@
         <v>269</v>
       </c>
       <c r="C1207" t="n">
-        <v>96.5</v>
+        <v>96.6</v>
       </c>
       <c r="D1207" t="s">
         <v>270</v>
@@ -22045,7 +22048,7 @@
         <v>272</v>
       </c>
       <c r="C1209" t="n">
-        <v>92.2</v>
+        <v>92.5</v>
       </c>
       <c r="D1209" t="s">
         <v>270</v>
@@ -22062,7 +22065,7 @@
         <v>273</v>
       </c>
       <c r="C1210" t="n">
-        <v>97.1</v>
+        <v>97.2</v>
       </c>
       <c r="D1210" t="s">
         <v>270</v>
@@ -22079,7 +22082,7 @@
         <v>274</v>
       </c>
       <c r="C1211" t="n">
-        <v>98.8</v>
+        <v>98.6</v>
       </c>
       <c r="D1211" t="s">
         <v>270</v>
@@ -22096,7 +22099,7 @@
         <v>275</v>
       </c>
       <c r="C1212" t="n">
-        <v>99.1</v>
+        <v>98.9</v>
       </c>
       <c r="D1212" t="s">
         <v>270</v>
@@ -22113,7 +22116,7 @@
         <v>276</v>
       </c>
       <c r="C1213" t="n">
-        <v>101.8</v>
+        <v>102.1</v>
       </c>
       <c r="D1213" t="s">
         <v>270</v>
@@ -22130,7 +22133,7 @@
         <v>277</v>
       </c>
       <c r="C1214" t="n">
-        <v>102</v>
+        <v>101.8</v>
       </c>
       <c r="D1214" t="s">
         <v>270</v>
@@ -22181,7 +22184,7 @@
         <v>280</v>
       </c>
       <c r="C1217" t="n">
-        <v>109.3</v>
+        <v>109.6</v>
       </c>
       <c r="D1217" t="s">
         <v>270</v>
@@ -22198,7 +22201,7 @@
         <v>281</v>
       </c>
       <c r="C1218" t="n">
-        <v>106.8</v>
+        <v>106.9</v>
       </c>
       <c r="D1218" t="s">
         <v>270</v>
@@ -22232,7 +22235,7 @@
         <v>284</v>
       </c>
       <c r="C1220" t="n">
-        <v>106.6</v>
+        <v>106.9</v>
       </c>
       <c r="D1220" t="s">
         <v>283</v>
@@ -22249,7 +22252,7 @@
         <v>285</v>
       </c>
       <c r="C1221" t="n">
-        <v>107.6</v>
+        <v>107.9</v>
       </c>
       <c r="D1221" t="s">
         <v>283</v>
@@ -22283,7 +22286,7 @@
         <v>287</v>
       </c>
       <c r="C1223" t="n">
-        <v>107.6</v>
+        <v>107.7</v>
       </c>
       <c r="D1223" t="s">
         <v>283</v>
@@ -22300,7 +22303,7 @@
         <v>288</v>
       </c>
       <c r="C1224" t="n">
-        <v>107.6</v>
+        <v>107.4</v>
       </c>
       <c r="D1224" t="s">
         <v>283</v>
@@ -22317,7 +22320,7 @@
         <v>289</v>
       </c>
       <c r="C1225" t="n">
-        <v>109</v>
+        <v>108.8</v>
       </c>
       <c r="D1225" t="s">
         <v>283</v>
@@ -22334,7 +22337,7 @@
         <v>290</v>
       </c>
       <c r="C1226" t="n">
-        <v>108.8</v>
+        <v>108.6</v>
       </c>
       <c r="D1226" t="s">
         <v>283</v>
@@ -22351,7 +22354,7 @@
         <v>291</v>
       </c>
       <c r="C1227" t="n">
-        <v>110.7</v>
+        <v>110.8</v>
       </c>
       <c r="D1227" t="s">
         <v>283</v>
@@ -22385,7 +22388,7 @@
         <v>293</v>
       </c>
       <c r="C1229" t="n">
-        <v>111</v>
+        <v>111.3</v>
       </c>
       <c r="D1229" t="s">
         <v>283</v>
@@ -22402,7 +22405,7 @@
         <v>294</v>
       </c>
       <c r="C1230" t="n">
-        <v>111.5</v>
+        <v>111.8</v>
       </c>
       <c r="D1230" t="s">
         <v>283</v>
@@ -22436,7 +22439,7 @@
         <v>297</v>
       </c>
       <c r="C1232" t="n">
-        <v>113.7</v>
+        <v>113.8</v>
       </c>
       <c r="D1232" t="s">
         <v>296</v>
@@ -22470,7 +22473,7 @@
         <v>299</v>
       </c>
       <c r="C1234" t="n">
-        <v>114.2</v>
+        <v>114.3</v>
       </c>
       <c r="D1234" t="s">
         <v>296</v>
@@ -22504,7 +22507,7 @@
         <v>301</v>
       </c>
       <c r="C1236" t="n">
-        <v>115</v>
+        <v>115.1</v>
       </c>
       <c r="D1236" t="s">
         <v>296</v>
@@ -22521,7 +22524,7 @@
         <v>302</v>
       </c>
       <c r="C1237" t="n">
-        <v>113.5</v>
+        <v>113.3</v>
       </c>
       <c r="D1237" t="s">
         <v>296</v>
@@ -22538,7 +22541,7 @@
         <v>303</v>
       </c>
       <c r="C1238" t="n">
-        <v>116.9</v>
+        <v>116.6</v>
       </c>
       <c r="D1238" t="s">
         <v>296</v>
@@ -22589,7 +22592,7 @@
         <v>306</v>
       </c>
       <c r="C1241" t="n">
-        <v>115.5</v>
+        <v>115.8</v>
       </c>
       <c r="D1241" t="s">
         <v>296</v>
@@ -22606,7 +22609,7 @@
         <v>307</v>
       </c>
       <c r="C1242" t="n">
-        <v>115.5</v>
+        <v>115.9</v>
       </c>
       <c r="D1242" t="s">
         <v>296</v>
@@ -22623,7 +22626,7 @@
         <v>308</v>
       </c>
       <c r="C1243" t="n">
-        <v>116.3</v>
+        <v>116.4</v>
       </c>
       <c r="D1243" t="s">
         <v>309</v>
@@ -22640,7 +22643,7 @@
         <v>310</v>
       </c>
       <c r="C1244" t="n">
-        <v>113.7</v>
+        <v>113.8</v>
       </c>
       <c r="D1244" t="s">
         <v>309</v>
@@ -22657,7 +22660,7 @@
         <v>311</v>
       </c>
       <c r="C1245" t="n">
-        <v>114.2</v>
+        <v>114</v>
       </c>
       <c r="D1245" t="s">
         <v>309</v>
@@ -22674,7 +22677,7 @@
         <v>312</v>
       </c>
       <c r="C1246" t="n">
-        <v>117</v>
+        <v>116.8</v>
       </c>
       <c r="D1246" t="s">
         <v>309</v>
@@ -22691,7 +22694,7 @@
         <v>313</v>
       </c>
       <c r="C1247" t="n">
-        <v>114.6</v>
+        <v>114.7</v>
       </c>
       <c r="D1247" t="s">
         <v>309</v>
@@ -22708,7 +22711,7 @@
         <v>314</v>
       </c>
       <c r="C1248" t="n">
-        <v>112.1</v>
+        <v>112.2</v>
       </c>
       <c r="D1248" t="s">
         <v>309</v>
@@ -22725,7 +22728,7 @@
         <v>315</v>
       </c>
       <c r="C1249" t="n">
-        <v>111</v>
+        <v>110.8</v>
       </c>
       <c r="D1249" t="s">
         <v>309</v>
@@ -22742,7 +22745,7 @@
         <v>316</v>
       </c>
       <c r="C1250" t="n">
-        <v>110.1</v>
+        <v>110.5</v>
       </c>
       <c r="D1250" t="s">
         <v>309</v>
@@ -22759,7 +22762,7 @@
         <v>317</v>
       </c>
       <c r="C1251" t="n">
-        <v>107.4</v>
+        <v>107.5</v>
       </c>
       <c r="D1251" t="s">
         <v>309</v>
@@ -22776,7 +22779,7 @@
         <v>318</v>
       </c>
       <c r="C1252" t="n">
-        <v>106.5</v>
+        <v>106.6</v>
       </c>
       <c r="D1252" t="s">
         <v>309</v>
@@ -22793,7 +22796,7 @@
         <v>319</v>
       </c>
       <c r="C1253" t="n">
-        <v>102.5</v>
+        <v>102.6</v>
       </c>
       <c r="D1253" t="s">
         <v>309</v>
@@ -22810,7 +22813,7 @@
         <v>320</v>
       </c>
       <c r="C1254" t="n">
-        <v>106.7</v>
+        <v>107.1</v>
       </c>
       <c r="D1254" t="s">
         <v>309</v>
@@ -22827,7 +22830,7 @@
         <v>321</v>
       </c>
       <c r="C1255" t="n">
-        <v>103.6</v>
+        <v>103.7</v>
       </c>
       <c r="D1255" t="s">
         <v>322</v>
@@ -22844,7 +22847,7 @@
         <v>323</v>
       </c>
       <c r="C1256" t="n">
-        <v>107.7</v>
+        <v>108</v>
       </c>
       <c r="D1256" t="s">
         <v>322</v>
@@ -22861,7 +22864,7 @@
         <v>324</v>
       </c>
       <c r="C1257" t="n">
-        <v>104.4</v>
+        <v>104</v>
       </c>
       <c r="D1257" t="s">
         <v>322</v>
@@ -22878,7 +22881,7 @@
         <v>325</v>
       </c>
       <c r="C1258" t="n">
-        <v>103.9</v>
+        <v>103.7</v>
       </c>
       <c r="D1258" t="s">
         <v>322</v>
@@ -22895,7 +22898,7 @@
         <v>326</v>
       </c>
       <c r="C1259" t="n">
-        <v>103.6</v>
+        <v>103.7</v>
       </c>
       <c r="D1259" t="s">
         <v>322</v>
@@ -22912,7 +22915,7 @@
         <v>327</v>
       </c>
       <c r="C1260" t="n">
-        <v>106.2</v>
+        <v>106.3</v>
       </c>
       <c r="D1260" t="s">
         <v>322</v>
@@ -22929,7 +22932,7 @@
         <v>328</v>
       </c>
       <c r="C1261" t="n">
-        <v>100.9</v>
+        <v>100.7</v>
       </c>
       <c r="D1261" t="s">
         <v>322</v>
@@ -22946,7 +22949,7 @@
         <v>329</v>
       </c>
       <c r="C1262" t="n">
-        <v>103.9</v>
+        <v>104.3</v>
       </c>
       <c r="D1262" t="s">
         <v>322</v>
@@ -22963,7 +22966,7 @@
         <v>330</v>
       </c>
       <c r="C1263" t="n">
-        <v>102.9</v>
+        <v>103</v>
       </c>
       <c r="D1263" t="s">
         <v>322</v>
@@ -22980,7 +22983,7 @@
         <v>331</v>
       </c>
       <c r="C1264" t="n">
-        <v>107.1</v>
+        <v>107.4</v>
       </c>
       <c r="D1264" t="s">
         <v>322</v>
@@ -22997,7 +23000,7 @@
         <v>332</v>
       </c>
       <c r="C1265" t="n">
-        <v>102.2</v>
+        <v>102.6</v>
       </c>
       <c r="D1265" t="s">
         <v>322</v>
@@ -23014,7 +23017,7 @@
         <v>333</v>
       </c>
       <c r="C1266" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="D1266" t="s">
         <v>322</v>
@@ -23031,7 +23034,7 @@
         <v>334</v>
       </c>
       <c r="C1267" t="n">
-        <v>104.7</v>
+        <v>105</v>
       </c>
       <c r="D1267" t="s">
         <v>335</v>
@@ -23048,7 +23051,7 @@
         <v>336</v>
       </c>
       <c r="C1268" t="n">
-        <v>99.4</v>
+        <v>100.1</v>
       </c>
       <c r="D1268" t="s">
         <v>335</v>
@@ -23065,7 +23068,7 @@
         <v>337</v>
       </c>
       <c r="C1269" t="n">
-        <v>100</v>
+        <v>99.6</v>
       </c>
       <c r="D1269" t="s">
         <v>335</v>
@@ -23116,7 +23119,7 @@
         <v>340</v>
       </c>
       <c r="C1272" t="n">
-        <v>84</v>
+        <v>83.9</v>
       </c>
       <c r="D1272" t="s">
         <v>335</v>
@@ -23133,7 +23136,7 @@
         <v>341</v>
       </c>
       <c r="C1273" t="n">
-        <v>86.5</v>
+        <v>86.7</v>
       </c>
       <c r="D1273" t="s">
         <v>335</v>
@@ -23150,7 +23153,7 @@
         <v>342</v>
       </c>
       <c r="C1274" t="n">
-        <v>86.8</v>
+        <v>87.2</v>
       </c>
       <c r="D1274" t="s">
         <v>335</v>
@@ -23167,7 +23170,7 @@
         <v>343</v>
       </c>
       <c r="C1275" t="n">
-        <v>86</v>
+        <v>86.2</v>
       </c>
       <c r="D1275" t="s">
         <v>335</v>
@@ -23184,7 +23187,7 @@
         <v>344</v>
       </c>
       <c r="C1276" t="n">
-        <v>84.5</v>
+        <v>84.7</v>
       </c>
       <c r="D1276" t="s">
         <v>335</v>
@@ -23201,7 +23204,7 @@
         <v>345</v>
       </c>
       <c r="C1277" t="n">
-        <v>88.9</v>
+        <v>89.6</v>
       </c>
       <c r="D1277" t="s">
         <v>335</v>
@@ -23218,7 +23221,7 @@
         <v>346</v>
       </c>
       <c r="C1278" t="n">
-        <v>89.1</v>
+        <v>88.7</v>
       </c>
       <c r="D1278" t="s">
         <v>335</v>
@@ -23235,7 +23238,7 @@
         <v>347</v>
       </c>
       <c r="C1279" t="n">
-        <v>86.1</v>
+        <v>86.3</v>
       </c>
       <c r="D1279" t="s">
         <v>348</v>
@@ -23252,7 +23255,7 @@
         <v>349</v>
       </c>
       <c r="C1280" t="n">
-        <v>88.9</v>
+        <v>89.1</v>
       </c>
       <c r="D1280" t="s">
         <v>348</v>
@@ -23269,7 +23272,7 @@
         <v>350</v>
       </c>
       <c r="C1281" t="n">
-        <v>91</v>
+        <v>90.6</v>
       </c>
       <c r="D1281" t="s">
         <v>348</v>
@@ -23286,7 +23289,7 @@
         <v>351</v>
       </c>
       <c r="C1282" t="n">
-        <v>96.6</v>
+        <v>96.4</v>
       </c>
       <c r="D1282" t="s">
         <v>348</v>
@@ -23303,7 +23306,7 @@
         <v>352</v>
       </c>
       <c r="C1283" t="n">
-        <v>100.6</v>
+        <v>100.7</v>
       </c>
       <c r="D1283" t="s">
         <v>348</v>
@@ -23320,7 +23323,7 @@
         <v>353</v>
       </c>
       <c r="C1284" t="n">
-        <v>105.1</v>
+        <v>105.2</v>
       </c>
       <c r="D1284" t="s">
         <v>348</v>
@@ -23337,7 +23340,7 @@
         <v>354</v>
       </c>
       <c r="C1285" t="n">
-        <v>105.8</v>
+        <v>106.4</v>
       </c>
       <c r="D1285" t="s">
         <v>348</v>
@@ -23354,7 +23357,7 @@
         <v>355</v>
       </c>
       <c r="C1286" t="n">
-        <v>105.4</v>
+        <v>105.5</v>
       </c>
       <c r="D1286" t="s">
         <v>348</v>
@@ -23388,7 +23391,7 @@
         <v>357</v>
       </c>
       <c r="C1288" t="n">
-        <v>109</v>
+        <v>109.1</v>
       </c>
       <c r="D1288" t="s">
         <v>348</v>
@@ -23405,7 +23408,7 @@
         <v>358</v>
       </c>
       <c r="C1289" t="n">
-        <v>107.6</v>
+        <v>108.2</v>
       </c>
       <c r="D1289" t="s">
         <v>348</v>
@@ -23422,7 +23425,7 @@
         <v>359</v>
       </c>
       <c r="C1290" t="n">
-        <v>106.5</v>
+        <v>106</v>
       </c>
       <c r="D1290" t="s">
         <v>348</v>
@@ -23456,7 +23459,7 @@
         <v>362</v>
       </c>
       <c r="C1292" t="n">
-        <v>107.2</v>
+        <v>107</v>
       </c>
       <c r="D1292" t="s">
         <v>361</v>
@@ -23473,7 +23476,7 @@
         <v>363</v>
       </c>
       <c r="C1293" t="n">
-        <v>108.3</v>
+        <v>107.8</v>
       </c>
       <c r="D1293" t="s">
         <v>361</v>
@@ -23490,7 +23493,7 @@
         <v>364</v>
       </c>
       <c r="C1294" t="n">
-        <v>106</v>
+        <v>106.1</v>
       </c>
       <c r="D1294" t="s">
         <v>361</v>
@@ -23507,7 +23510,7 @@
         <v>365</v>
       </c>
       <c r="C1295" t="n">
-        <v>104.8</v>
+        <v>105.2</v>
       </c>
       <c r="D1295" t="s">
         <v>361</v>
@@ -23524,7 +23527,7 @@
         <v>366</v>
       </c>
       <c r="C1296" t="n">
-        <v>104.1</v>
+        <v>103.9</v>
       </c>
       <c r="D1296" t="s">
         <v>361</v>
@@ -23541,7 +23544,7 @@
         <v>367</v>
       </c>
       <c r="C1297" t="n">
-        <v>101.7</v>
+        <v>102.3</v>
       </c>
       <c r="D1297" t="s">
         <v>361</v>
@@ -23558,7 +23561,7 @@
         <v>368</v>
       </c>
       <c r="C1298" t="n">
-        <v>101.8</v>
+        <v>101.9</v>
       </c>
       <c r="D1298" t="s">
         <v>361</v>
@@ -23575,7 +23578,7 @@
         <v>369</v>
       </c>
       <c r="C1299" t="n">
-        <v>102.2</v>
+        <v>102.3</v>
       </c>
       <c r="D1299" t="s">
         <v>361</v>
@@ -23592,7 +23595,7 @@
         <v>370</v>
       </c>
       <c r="C1300" t="n">
-        <v>99.6</v>
+        <v>100</v>
       </c>
       <c r="D1300" t="s">
         <v>361</v>
@@ -23609,7 +23612,7 @@
         <v>371</v>
       </c>
       <c r="C1301" t="n">
-        <v>97.4</v>
+        <v>97.8</v>
       </c>
       <c r="D1301" t="s">
         <v>361</v>
@@ -23626,7 +23629,7 @@
         <v>372</v>
       </c>
       <c r="C1302" t="n">
-        <v>98.1</v>
+        <v>97.8</v>
       </c>
       <c r="D1302" t="s">
         <v>361</v>
@@ -23643,7 +23646,7 @@
         <v>373</v>
       </c>
       <c r="C1303" t="n">
-        <v>94.8</v>
+        <v>94.9</v>
       </c>
       <c r="D1303" t="s">
         <v>374</v>
@@ -23660,7 +23663,7 @@
         <v>375</v>
       </c>
       <c r="C1304" t="n">
-        <v>91.1</v>
+        <v>91</v>
       </c>
       <c r="D1304" t="s">
         <v>374</v>
@@ -23677,7 +23680,7 @@
         <v>376</v>
       </c>
       <c r="C1305" t="n">
-        <v>92.6</v>
+        <v>92.2</v>
       </c>
       <c r="D1305" t="s">
         <v>374</v>
@@ -23694,7 +23697,7 @@
         <v>377</v>
       </c>
       <c r="C1306" t="n">
-        <v>92.1</v>
+        <v>92.5</v>
       </c>
       <c r="D1306" t="s">
         <v>374</v>
@@ -23711,7 +23714,7 @@
         <v>378</v>
       </c>
       <c r="C1307" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="D1307" t="s">
         <v>374</v>
@@ -23728,7 +23731,7 @@
         <v>379</v>
       </c>
       <c r="C1308" t="n">
-        <v>88</v>
+        <v>88.1</v>
       </c>
       <c r="D1308" t="s">
         <v>374</v>
@@ -23745,7 +23748,7 @@
         <v>380</v>
       </c>
       <c r="C1309" t="n">
-        <v>82.6</v>
+        <v>82.8</v>
       </c>
       <c r="D1309" t="s">
         <v>374</v>
@@ -23762,7 +23765,7 @@
         <v>381</v>
       </c>
       <c r="C1310" t="n">
-        <v>84.7</v>
+        <v>84.9</v>
       </c>
       <c r="D1310" t="s">
         <v>374</v>
@@ -23779,7 +23782,7 @@
         <v>202</v>
       </c>
       <c r="C1311" t="n">
-        <v>114.9</v>
+        <v>115</v>
       </c>
       <c r="D1311" t="s">
         <v>182</v>
@@ -23796,7 +23799,7 @@
         <v>203</v>
       </c>
       <c r="C1312" t="n">
-        <v>116.4</v>
+        <v>116.5</v>
       </c>
       <c r="D1312" t="s">
         <v>182</v>
@@ -23813,7 +23816,7 @@
         <v>204</v>
       </c>
       <c r="C1313" t="n">
-        <v>123.2</v>
+        <v>123.3</v>
       </c>
       <c r="D1313" t="s">
         <v>205</v>
@@ -23847,7 +23850,7 @@
         <v>207</v>
       </c>
       <c r="C1315" t="n">
-        <v>113.3</v>
+        <v>113.4</v>
       </c>
       <c r="D1315" t="s">
         <v>205</v>
@@ -23898,7 +23901,7 @@
         <v>210</v>
       </c>
       <c r="C1318" t="n">
-        <v>106.6</v>
+        <v>106.7</v>
       </c>
       <c r="D1318" t="s">
         <v>205</v>
@@ -24119,7 +24122,7 @@
         <v>224</v>
       </c>
       <c r="C1331" t="n">
-        <v>92.9</v>
+        <v>93</v>
       </c>
       <c r="D1331" t="s">
         <v>218</v>
@@ -24204,7 +24207,7 @@
         <v>229</v>
       </c>
       <c r="C1336" t="n">
-        <v>86.3</v>
+        <v>86.4</v>
       </c>
       <c r="D1336" t="s">
         <v>218</v>
@@ -24255,7 +24258,7 @@
         <v>233</v>
       </c>
       <c r="C1339" t="n">
-        <v>94.3</v>
+        <v>94.4</v>
       </c>
       <c r="D1339" t="s">
         <v>231</v>
@@ -24289,7 +24292,7 @@
         <v>235</v>
       </c>
       <c r="C1341" t="n">
-        <v>94.5</v>
+        <v>94.6</v>
       </c>
       <c r="D1341" t="s">
         <v>231</v>
@@ -24323,7 +24326,7 @@
         <v>237</v>
       </c>
       <c r="C1343" t="n">
-        <v>93.5</v>
+        <v>93.6</v>
       </c>
       <c r="D1343" t="s">
         <v>231</v>
@@ -24374,7 +24377,7 @@
         <v>240</v>
       </c>
       <c r="C1346" t="n">
-        <v>95.2</v>
+        <v>95.3</v>
       </c>
       <c r="D1346" t="s">
         <v>231</v>
@@ -24408,7 +24411,7 @@
         <v>242</v>
       </c>
       <c r="C1348" t="n">
-        <v>92.8</v>
+        <v>92.9</v>
       </c>
       <c r="D1348" t="s">
         <v>231</v>
@@ -24527,7 +24530,7 @@
         <v>250</v>
       </c>
       <c r="C1355" t="n">
-        <v>97.9</v>
+        <v>98</v>
       </c>
       <c r="D1355" t="s">
         <v>244</v>
@@ -24544,7 +24547,7 @@
         <v>251</v>
       </c>
       <c r="C1356" t="n">
-        <v>99.8</v>
+        <v>99.9</v>
       </c>
       <c r="D1356" t="s">
         <v>244</v>
@@ -24629,7 +24632,7 @@
         <v>256</v>
       </c>
       <c r="C1361" t="n">
-        <v>105.2</v>
+        <v>105</v>
       </c>
       <c r="D1361" t="s">
         <v>257</v>
@@ -24680,7 +24683,7 @@
         <v>260</v>
       </c>
       <c r="C1364" t="n">
-        <v>107.4</v>
+        <v>107.5</v>
       </c>
       <c r="D1364" t="s">
         <v>257</v>
@@ -24816,7 +24819,7 @@
         <v>268</v>
       </c>
       <c r="C1372" t="n">
-        <v>104.4</v>
+        <v>104.5</v>
       </c>
       <c r="D1372" t="s">
         <v>257</v>
@@ -25003,7 +25006,7 @@
         <v>280</v>
       </c>
       <c r="C1383" t="n">
-        <v>113.7</v>
+        <v>113.8</v>
       </c>
       <c r="D1383" t="s">
         <v>270</v>
@@ -25020,7 +25023,7 @@
         <v>281</v>
       </c>
       <c r="C1384" t="n">
-        <v>113.6</v>
+        <v>113.7</v>
       </c>
       <c r="D1384" t="s">
         <v>270</v>
@@ -25054,7 +25057,7 @@
         <v>284</v>
       </c>
       <c r="C1386" t="n">
-        <v>106.4</v>
+        <v>106.5</v>
       </c>
       <c r="D1386" t="s">
         <v>283</v>
@@ -25122,7 +25125,7 @@
         <v>288</v>
       </c>
       <c r="C1390" t="n">
-        <v>104.6</v>
+        <v>104.7</v>
       </c>
       <c r="D1390" t="s">
         <v>283</v>
@@ -25173,7 +25176,7 @@
         <v>291</v>
       </c>
       <c r="C1393" t="n">
-        <v>101.5</v>
+        <v>101.6</v>
       </c>
       <c r="D1393" t="s">
         <v>283</v>
@@ -25207,7 +25210,7 @@
         <v>293</v>
       </c>
       <c r="C1395" t="n">
-        <v>101.9</v>
+        <v>102</v>
       </c>
       <c r="D1395" t="s">
         <v>283</v>
@@ -25241,7 +25244,7 @@
         <v>295</v>
       </c>
       <c r="C1397" t="n">
-        <v>98.9</v>
+        <v>99</v>
       </c>
       <c r="D1397" t="s">
         <v>296</v>
@@ -25275,7 +25278,7 @@
         <v>298</v>
       </c>
       <c r="C1399" t="n">
-        <v>101.7</v>
+        <v>101.8</v>
       </c>
       <c r="D1399" t="s">
         <v>296</v>
@@ -25394,7 +25397,7 @@
         <v>305</v>
       </c>
       <c r="C1406" t="n">
-        <v>103.3</v>
+        <v>103.4</v>
       </c>
       <c r="D1406" t="s">
         <v>296</v>
@@ -25445,7 +25448,7 @@
         <v>308</v>
       </c>
       <c r="C1409" t="n">
-        <v>104.1</v>
+        <v>104.2</v>
       </c>
       <c r="D1409" t="s">
         <v>309</v>
@@ -25581,7 +25584,7 @@
         <v>317</v>
       </c>
       <c r="C1417" t="n">
-        <v>104.2</v>
+        <v>104.3</v>
       </c>
       <c r="D1417" t="s">
         <v>309</v>
@@ -25615,7 +25618,7 @@
         <v>319</v>
       </c>
       <c r="C1419" t="n">
-        <v>102</v>
+        <v>102.1</v>
       </c>
       <c r="D1419" t="s">
         <v>309</v>
@@ -25649,7 +25652,7 @@
         <v>321</v>
       </c>
       <c r="C1421" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="D1421" t="s">
         <v>322</v>
@@ -25700,7 +25703,7 @@
         <v>325</v>
       </c>
       <c r="C1424" t="n">
-        <v>104.9</v>
+        <v>105</v>
       </c>
       <c r="D1424" t="s">
         <v>322</v>
@@ -25785,7 +25788,7 @@
         <v>330</v>
       </c>
       <c r="C1429" t="n">
-        <v>102</v>
+        <v>101.6</v>
       </c>
       <c r="D1429" t="s">
         <v>322</v>
@@ -25802,7 +25805,7 @@
         <v>331</v>
       </c>
       <c r="C1430" t="n">
-        <v>102</v>
+        <v>102.1</v>
       </c>
       <c r="D1430" t="s">
         <v>322</v>
@@ -25887,7 +25890,7 @@
         <v>337</v>
       </c>
       <c r="C1435" t="n">
-        <v>104.7</v>
+        <v>104.8</v>
       </c>
       <c r="D1435" t="s">
         <v>335</v>
@@ -25904,7 +25907,7 @@
         <v>338</v>
       </c>
       <c r="C1436" t="n">
-        <v>75.1</v>
+        <v>74.8</v>
       </c>
       <c r="D1436" t="s">
         <v>335</v>
@@ -25921,7 +25924,7 @@
         <v>339</v>
       </c>
       <c r="C1437" t="n">
-        <v>77.6</v>
+        <v>77.7</v>
       </c>
       <c r="D1437" t="s">
         <v>335</v>
@@ -25938,7 +25941,7 @@
         <v>340</v>
       </c>
       <c r="C1438" t="n">
-        <v>84.6</v>
+        <v>84.7</v>
       </c>
       <c r="D1438" t="s">
         <v>335</v>
@@ -25955,7 +25958,7 @@
         <v>341</v>
       </c>
       <c r="C1439" t="n">
-        <v>94.5</v>
+        <v>94.6</v>
       </c>
       <c r="D1439" t="s">
         <v>335</v>
@@ -25972,7 +25975,7 @@
         <v>342</v>
       </c>
       <c r="C1440" t="n">
-        <v>98.1</v>
+        <v>98.2</v>
       </c>
       <c r="D1440" t="s">
         <v>335</v>
@@ -26006,7 +26009,7 @@
         <v>344</v>
       </c>
       <c r="C1442" t="n">
-        <v>106.4</v>
+        <v>106.5</v>
       </c>
       <c r="D1442" t="s">
         <v>335</v>
@@ -26023,7 +26026,7 @@
         <v>345</v>
       </c>
       <c r="C1443" t="n">
-        <v>98</v>
+        <v>98.1</v>
       </c>
       <c r="D1443" t="s">
         <v>335</v>
@@ -26057,7 +26060,7 @@
         <v>347</v>
       </c>
       <c r="C1445" t="n">
-        <v>97.9</v>
+        <v>98</v>
       </c>
       <c r="D1445" t="s">
         <v>348</v>
@@ -26074,7 +26077,7 @@
         <v>349</v>
       </c>
       <c r="C1446" t="n">
-        <v>99.8</v>
+        <v>99.9</v>
       </c>
       <c r="D1446" t="s">
         <v>348</v>
@@ -26091,7 +26094,7 @@
         <v>350</v>
       </c>
       <c r="C1447" t="n">
-        <v>96.9</v>
+        <v>97</v>
       </c>
       <c r="D1447" t="s">
         <v>348</v>
@@ -26108,7 +26111,7 @@
         <v>351</v>
       </c>
       <c r="C1448" t="n">
-        <v>112.1</v>
+        <v>111.9</v>
       </c>
       <c r="D1448" t="s">
         <v>348</v>
@@ -26125,7 +26128,7 @@
         <v>352</v>
       </c>
       <c r="C1449" t="n">
-        <v>107.3</v>
+        <v>107.4</v>
       </c>
       <c r="D1449" t="s">
         <v>348</v>
@@ -26142,7 +26145,7 @@
         <v>353</v>
       </c>
       <c r="C1450" t="n">
-        <v>111.9</v>
+        <v>112</v>
       </c>
       <c r="D1450" t="s">
         <v>348</v>
@@ -26176,7 +26179,7 @@
         <v>355</v>
       </c>
       <c r="C1452" t="n">
-        <v>109.1</v>
+        <v>109.2</v>
       </c>
       <c r="D1452" t="s">
         <v>348</v>
@@ -26193,7 +26196,7 @@
         <v>356</v>
       </c>
       <c r="C1453" t="n">
-        <v>115.8</v>
+        <v>115.5</v>
       </c>
       <c r="D1453" t="s">
         <v>348</v>
@@ -26210,7 +26213,7 @@
         <v>357</v>
       </c>
       <c r="C1454" t="n">
-        <v>117.3</v>
+        <v>117.7</v>
       </c>
       <c r="D1454" t="s">
         <v>348</v>
@@ -26227,7 +26230,7 @@
         <v>358</v>
       </c>
       <c r="C1455" t="n">
-        <v>118.8</v>
+        <v>119.2</v>
       </c>
       <c r="D1455" t="s">
         <v>348</v>
@@ -26244,7 +26247,7 @@
         <v>359</v>
       </c>
       <c r="C1456" t="n">
-        <v>114.4</v>
+        <v>115</v>
       </c>
       <c r="D1456" t="s">
         <v>348</v>
@@ -26261,7 +26264,7 @@
         <v>360</v>
       </c>
       <c r="C1457" t="n">
-        <v>105.3</v>
+        <v>105.4</v>
       </c>
       <c r="D1457" t="s">
         <v>361</v>
@@ -26278,7 +26281,7 @@
         <v>362</v>
       </c>
       <c r="C1458" t="n">
-        <v>120.2</v>
+        <v>120.3</v>
       </c>
       <c r="D1458" t="s">
         <v>361</v>
@@ -26295,7 +26298,7 @@
         <v>363</v>
       </c>
       <c r="C1459" t="n">
-        <v>110.9</v>
+        <v>111</v>
       </c>
       <c r="D1459" t="s">
         <v>361</v>
@@ -26312,7 +26315,7 @@
         <v>364</v>
       </c>
       <c r="C1460" t="n">
-        <v>110.7</v>
+        <v>110.2</v>
       </c>
       <c r="D1460" t="s">
         <v>361</v>
@@ -26329,7 +26332,7 @@
         <v>365</v>
       </c>
       <c r="C1461" t="n">
-        <v>109.2</v>
+        <v>109</v>
       </c>
       <c r="D1461" t="s">
         <v>361</v>
@@ -26346,7 +26349,7 @@
         <v>366</v>
       </c>
       <c r="C1462" t="n">
-        <v>101.4</v>
+        <v>101.2</v>
       </c>
       <c r="D1462" t="s">
         <v>361</v>
@@ -26363,7 +26366,7 @@
         <v>367</v>
       </c>
       <c r="C1463" t="n">
-        <v>91.9</v>
+        <v>91.5</v>
       </c>
       <c r="D1463" t="s">
         <v>361</v>
@@ -26380,7 +26383,7 @@
         <v>368</v>
       </c>
       <c r="C1464" t="n">
-        <v>91.6</v>
+        <v>91.7</v>
       </c>
       <c r="D1464" t="s">
         <v>361</v>
@@ -26414,7 +26417,7 @@
         <v>370</v>
       </c>
       <c r="C1466" t="n">
-        <v>78.1</v>
+        <v>77.9</v>
       </c>
       <c r="D1466" t="s">
         <v>361</v>
@@ -26431,7 +26434,7 @@
         <v>371</v>
       </c>
       <c r="C1467" t="n">
-        <v>79.3</v>
+        <v>79.4</v>
       </c>
       <c r="D1467" t="s">
         <v>361</v>
@@ -26448,7 +26451,7 @@
         <v>372</v>
       </c>
       <c r="C1468" t="n">
-        <v>77.5</v>
+        <v>78.2</v>
       </c>
       <c r="D1468" t="s">
         <v>361</v>
@@ -26482,7 +26485,7 @@
         <v>375</v>
       </c>
       <c r="C1470" t="n">
-        <v>79.6</v>
+        <v>80</v>
       </c>
       <c r="D1470" t="s">
         <v>374</v>
@@ -26516,7 +26519,7 @@
         <v>377</v>
       </c>
       <c r="C1472" t="n">
-        <v>80.9</v>
+        <v>80.4</v>
       </c>
       <c r="D1472" t="s">
         <v>374</v>
@@ -26567,7 +26570,7 @@
         <v>380</v>
       </c>
       <c r="C1475" t="n">
-        <v>88.3</v>
+        <v>88</v>
       </c>
       <c r="D1475" t="s">
         <v>374</v>
@@ -26618,7 +26621,7 @@
         <v>203</v>
       </c>
       <c r="C1478" t="n">
-        <v>104</v>
+        <v>104.1</v>
       </c>
       <c r="D1478" t="s">
         <v>182</v>
@@ -26652,7 +26655,7 @@
         <v>206</v>
       </c>
       <c r="C1480" t="n">
-        <v>104.1</v>
+        <v>104.2</v>
       </c>
       <c r="D1480" t="s">
         <v>205</v>
@@ -26703,7 +26706,7 @@
         <v>209</v>
       </c>
       <c r="C1483" t="n">
-        <v>111.8</v>
+        <v>111.9</v>
       </c>
       <c r="D1483" t="s">
         <v>205</v>
@@ -26737,7 +26740,7 @@
         <v>211</v>
       </c>
       <c r="C1485" t="n">
-        <v>114.2</v>
+        <v>114.3</v>
       </c>
       <c r="D1485" t="s">
         <v>205</v>
@@ -26754,7 +26757,7 @@
         <v>212</v>
       </c>
       <c r="C1486" t="n">
-        <v>110.3</v>
+        <v>110.4</v>
       </c>
       <c r="D1486" t="s">
         <v>205</v>
@@ -26805,7 +26808,7 @@
         <v>215</v>
       </c>
       <c r="C1489" t="n">
-        <v>118.5</v>
+        <v>118.6</v>
       </c>
       <c r="D1489" t="s">
         <v>205</v>
@@ -26907,7 +26910,7 @@
         <v>222</v>
       </c>
       <c r="C1495" t="n">
-        <v>108.8</v>
+        <v>108.9</v>
       </c>
       <c r="D1495" t="s">
         <v>218</v>
@@ -26941,7 +26944,7 @@
         <v>224</v>
       </c>
       <c r="C1497" t="n">
-        <v>105.1</v>
+        <v>105.2</v>
       </c>
       <c r="D1497" t="s">
         <v>218</v>
@@ -26958,7 +26961,7 @@
         <v>225</v>
       </c>
       <c r="C1498" t="n">
-        <v>101.1</v>
+        <v>101.2</v>
       </c>
       <c r="D1498" t="s">
         <v>218</v>
@@ -26992,7 +26995,7 @@
         <v>227</v>
       </c>
       <c r="C1500" t="n">
-        <v>97.7</v>
+        <v>97.8</v>
       </c>
       <c r="D1500" t="s">
         <v>218</v>
@@ -27128,7 +27131,7 @@
         <v>236</v>
       </c>
       <c r="C1508" t="n">
-        <v>96.7</v>
+        <v>96.8</v>
       </c>
       <c r="D1508" t="s">
         <v>231</v>
@@ -27162,7 +27165,7 @@
         <v>238</v>
       </c>
       <c r="C1510" t="n">
-        <v>96.5</v>
+        <v>96.6</v>
       </c>
       <c r="D1510" t="s">
         <v>231</v>
@@ -27179,7 +27182,7 @@
         <v>239</v>
       </c>
       <c r="C1511" t="n">
-        <v>94.9</v>
+        <v>95</v>
       </c>
       <c r="D1511" t="s">
         <v>231</v>
@@ -27196,7 +27199,7 @@
         <v>240</v>
       </c>
       <c r="C1512" t="n">
-        <v>92.7</v>
+        <v>92.8</v>
       </c>
       <c r="D1512" t="s">
         <v>231</v>
@@ -27213,7 +27216,7 @@
         <v>241</v>
       </c>
       <c r="C1513" t="n">
-        <v>86.7</v>
+        <v>86.8</v>
       </c>
       <c r="D1513" t="s">
         <v>231</v>
@@ -27230,7 +27233,7 @@
         <v>242</v>
       </c>
       <c r="C1514" t="n">
-        <v>88.1</v>
+        <v>88.2</v>
       </c>
       <c r="D1514" t="s">
         <v>231</v>
@@ -27247,7 +27250,7 @@
         <v>243</v>
       </c>
       <c r="C1515" t="n">
-        <v>89.3</v>
+        <v>89.4</v>
       </c>
       <c r="D1515" t="s">
         <v>244</v>
@@ -27264,7 +27267,7 @@
         <v>245</v>
       </c>
       <c r="C1516" t="n">
-        <v>92.3</v>
+        <v>92.4</v>
       </c>
       <c r="D1516" t="s">
         <v>244</v>
@@ -27281,7 +27284,7 @@
         <v>246</v>
       </c>
       <c r="C1517" t="n">
-        <v>97.3</v>
+        <v>97.4</v>
       </c>
       <c r="D1517" t="s">
         <v>244</v>
@@ -27298,7 +27301,7 @@
         <v>247</v>
       </c>
       <c r="C1518" t="n">
-        <v>94.3</v>
+        <v>94.4</v>
       </c>
       <c r="D1518" t="s">
         <v>244</v>
@@ -27349,7 +27352,7 @@
         <v>250</v>
       </c>
       <c r="C1521" t="n">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="D1521" t="s">
         <v>244</v>
@@ -27366,7 +27369,7 @@
         <v>251</v>
       </c>
       <c r="C1522" t="n">
-        <v>99.1</v>
+        <v>99.2</v>
       </c>
       <c r="D1522" t="s">
         <v>244</v>
@@ -27383,7 +27386,7 @@
         <v>252</v>
       </c>
       <c r="C1523" t="n">
-        <v>105.2</v>
+        <v>105.3</v>
       </c>
       <c r="D1523" t="s">
         <v>244</v>
@@ -27434,7 +27437,7 @@
         <v>255</v>
       </c>
       <c r="C1526" t="n">
-        <v>104.4</v>
+        <v>104.5</v>
       </c>
       <c r="D1526" t="s">
         <v>244</v>
@@ -27451,7 +27454,7 @@
         <v>256</v>
       </c>
       <c r="C1527" t="n">
-        <v>106.4</v>
+        <v>106.5</v>
       </c>
       <c r="D1527" t="s">
         <v>257</v>
@@ -27502,7 +27505,7 @@
         <v>260</v>
       </c>
       <c r="C1530" t="n">
-        <v>103.2</v>
+        <v>103.3</v>
       </c>
       <c r="D1530" t="s">
         <v>257</v>
@@ -27519,7 +27522,7 @@
         <v>261</v>
       </c>
       <c r="C1531" t="n">
-        <v>103.3</v>
+        <v>103.4</v>
       </c>
       <c r="D1531" t="s">
         <v>257</v>
@@ -27536,7 +27539,7 @@
         <v>262</v>
       </c>
       <c r="C1532" t="n">
-        <v>102.7</v>
+        <v>102.5</v>
       </c>
       <c r="D1532" t="s">
         <v>257</v>
@@ -27587,7 +27590,7 @@
         <v>265</v>
       </c>
       <c r="C1535" t="n">
-        <v>99</v>
+        <v>99.1</v>
       </c>
       <c r="D1535" t="s">
         <v>257</v>
@@ -27621,7 +27624,7 @@
         <v>267</v>
       </c>
       <c r="C1537" t="n">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="D1537" t="s">
         <v>257</v>
@@ -27672,7 +27675,7 @@
         <v>271</v>
       </c>
       <c r="C1540" t="n">
-        <v>103.5</v>
+        <v>103.6</v>
       </c>
       <c r="D1540" t="s">
         <v>270</v>
@@ -27706,7 +27709,7 @@
         <v>273</v>
       </c>
       <c r="C1542" t="n">
-        <v>105.4</v>
+        <v>105.5</v>
       </c>
       <c r="D1542" t="s">
         <v>270</v>
@@ -27723,7 +27726,7 @@
         <v>274</v>
       </c>
       <c r="C1543" t="n">
-        <v>104.8</v>
+        <v>104.9</v>
       </c>
       <c r="D1543" t="s">
         <v>270</v>
@@ -27740,7 +27743,7 @@
         <v>275</v>
       </c>
       <c r="C1544" t="n">
-        <v>103.9</v>
+        <v>104</v>
       </c>
       <c r="D1544" t="s">
         <v>270</v>
@@ -27757,7 +27760,7 @@
         <v>276</v>
       </c>
       <c r="C1545" t="n">
-        <v>104.6</v>
+        <v>104.7</v>
       </c>
       <c r="D1545" t="s">
         <v>270</v>
@@ -27825,7 +27828,7 @@
         <v>280</v>
       </c>
       <c r="C1549" t="n">
-        <v>105.9</v>
+        <v>106</v>
       </c>
       <c r="D1549" t="s">
         <v>270</v>
@@ -27876,7 +27879,7 @@
         <v>284</v>
       </c>
       <c r="C1552" t="n">
-        <v>102.6</v>
+        <v>102.7</v>
       </c>
       <c r="D1552" t="s">
         <v>283</v>
@@ -27910,7 +27913,7 @@
         <v>286</v>
       </c>
       <c r="C1554" t="n">
-        <v>103.9</v>
+        <v>104</v>
       </c>
       <c r="D1554" t="s">
         <v>283</v>
@@ -27927,7 +27930,7 @@
         <v>287</v>
       </c>
       <c r="C1555" t="n">
-        <v>102.7</v>
+        <v>102.8</v>
       </c>
       <c r="D1555" t="s">
         <v>283</v>
@@ -28029,7 +28032,7 @@
         <v>293</v>
       </c>
       <c r="C1561" t="n">
-        <v>105.4</v>
+        <v>105.5</v>
       </c>
       <c r="D1561" t="s">
         <v>283</v>
@@ -28063,7 +28066,7 @@
         <v>295</v>
       </c>
       <c r="C1563" t="n">
-        <v>105.6</v>
+        <v>105.4</v>
       </c>
       <c r="D1563" t="s">
         <v>296</v>
@@ -28080,7 +28083,7 @@
         <v>297</v>
       </c>
       <c r="C1564" t="n">
-        <v>106.3</v>
+        <v>106.4</v>
       </c>
       <c r="D1564" t="s">
         <v>296</v>
@@ -28097,7 +28100,7 @@
         <v>298</v>
       </c>
       <c r="C1565" t="n">
-        <v>106.6</v>
+        <v>106.7</v>
       </c>
       <c r="D1565" t="s">
         <v>296</v>
@@ -28131,7 +28134,7 @@
         <v>300</v>
       </c>
       <c r="C1567" t="n">
-        <v>106.7</v>
+        <v>106.5</v>
       </c>
       <c r="D1567" t="s">
         <v>296</v>
@@ -28148,7 +28151,7 @@
         <v>301</v>
       </c>
       <c r="C1568" t="n">
-        <v>105.3</v>
+        <v>105.4</v>
       </c>
       <c r="D1568" t="s">
         <v>296</v>
@@ -28165,7 +28168,7 @@
         <v>302</v>
       </c>
       <c r="C1569" t="n">
-        <v>106</v>
+        <v>106.1</v>
       </c>
       <c r="D1569" t="s">
         <v>296</v>
@@ -28216,7 +28219,7 @@
         <v>305</v>
       </c>
       <c r="C1572" t="n">
-        <v>103.9</v>
+        <v>104</v>
       </c>
       <c r="D1572" t="s">
         <v>296</v>
@@ -28233,7 +28236,7 @@
         <v>306</v>
       </c>
       <c r="C1573" t="n">
-        <v>104</v>
+        <v>104.3</v>
       </c>
       <c r="D1573" t="s">
         <v>296</v>
@@ -28250,7 +28253,7 @@
         <v>307</v>
       </c>
       <c r="C1574" t="n">
-        <v>106.8</v>
+        <v>106.9</v>
       </c>
       <c r="D1574" t="s">
         <v>296</v>
@@ -28267,7 +28270,7 @@
         <v>308</v>
       </c>
       <c r="C1575" t="n">
-        <v>105.1</v>
+        <v>104.9</v>
       </c>
       <c r="D1575" t="s">
         <v>309</v>
@@ -28284,7 +28287,7 @@
         <v>310</v>
       </c>
       <c r="C1576" t="n">
-        <v>105.9</v>
+        <v>106</v>
       </c>
       <c r="D1576" t="s">
         <v>309</v>
@@ -28335,7 +28338,7 @@
         <v>313</v>
       </c>
       <c r="C1579" t="n">
-        <v>103.6</v>
+        <v>103.7</v>
       </c>
       <c r="D1579" t="s">
         <v>309</v>
@@ -28386,7 +28389,7 @@
         <v>316</v>
       </c>
       <c r="C1582" t="n">
-        <v>102</v>
+        <v>102.1</v>
       </c>
       <c r="D1582" t="s">
         <v>309</v>
@@ -28420,7 +28423,7 @@
         <v>318</v>
       </c>
       <c r="C1584" t="n">
-        <v>101.3</v>
+        <v>101.4</v>
       </c>
       <c r="D1584" t="s">
         <v>309</v>
@@ -28437,7 +28440,7 @@
         <v>319</v>
       </c>
       <c r="C1585" t="n">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
       <c r="D1585" t="s">
         <v>309</v>
@@ -28454,7 +28457,7 @@
         <v>320</v>
       </c>
       <c r="C1586" t="n">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
       <c r="D1586" t="s">
         <v>309</v>
@@ -28488,7 +28491,7 @@
         <v>323</v>
       </c>
       <c r="C1588" t="n">
-        <v>96.6</v>
+        <v>96.7</v>
       </c>
       <c r="D1588" t="s">
         <v>322</v>
@@ -28505,7 +28508,7 @@
         <v>324</v>
       </c>
       <c r="C1589" t="n">
-        <v>101.6</v>
+        <v>101.4</v>
       </c>
       <c r="D1589" t="s">
         <v>322</v>
@@ -28556,7 +28559,7 @@
         <v>327</v>
       </c>
       <c r="C1592" t="n">
-        <v>100.8</v>
+        <v>100.9</v>
       </c>
       <c r="D1592" t="s">
         <v>322</v>
@@ -28573,7 +28576,7 @@
         <v>328</v>
       </c>
       <c r="C1593" t="n">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
       <c r="D1593" t="s">
         <v>322</v>
@@ -28607,7 +28610,7 @@
         <v>330</v>
       </c>
       <c r="C1595" t="n">
-        <v>93.3</v>
+        <v>93.4</v>
       </c>
       <c r="D1595" t="s">
         <v>322</v>
@@ -28624,7 +28627,7 @@
         <v>331</v>
       </c>
       <c r="C1596" t="n">
-        <v>91.1</v>
+        <v>91.2</v>
       </c>
       <c r="D1596" t="s">
         <v>322</v>
@@ -28675,7 +28678,7 @@
         <v>334</v>
       </c>
       <c r="C1599" t="n">
-        <v>94.6</v>
+        <v>94.4</v>
       </c>
       <c r="D1599" t="s">
         <v>335</v>
@@ -28692,7 +28695,7 @@
         <v>336</v>
       </c>
       <c r="C1600" t="n">
-        <v>94.7</v>
+        <v>95</v>
       </c>
       <c r="D1600" t="s">
         <v>335</v>
@@ -28709,7 +28712,7 @@
         <v>337</v>
       </c>
       <c r="C1601" t="n">
-        <v>88.3</v>
+        <v>88.6</v>
       </c>
       <c r="D1601" t="s">
         <v>335</v>
@@ -28726,7 +28729,7 @@
         <v>338</v>
       </c>
       <c r="C1602" t="n">
-        <v>52.7</v>
+        <v>52.8</v>
       </c>
       <c r="D1602" t="s">
         <v>335</v>
@@ -28743,7 +28746,7 @@
         <v>339</v>
       </c>
       <c r="C1603" t="n">
-        <v>55.2</v>
+        <v>55.3</v>
       </c>
       <c r="D1603" t="s">
         <v>335</v>
@@ -28760,7 +28763,7 @@
         <v>340</v>
       </c>
       <c r="C1604" t="n">
-        <v>63.7</v>
+        <v>63.8</v>
       </c>
       <c r="D1604" t="s">
         <v>335</v>
@@ -28777,7 +28780,7 @@
         <v>341</v>
       </c>
       <c r="C1605" t="n">
-        <v>74</v>
+        <v>74.1</v>
       </c>
       <c r="D1605" t="s">
         <v>335</v>
@@ -28794,7 +28797,7 @@
         <v>342</v>
       </c>
       <c r="C1606" t="n">
-        <v>79.9</v>
+        <v>79.6</v>
       </c>
       <c r="D1606" t="s">
         <v>335</v>
@@ -28811,7 +28814,7 @@
         <v>343</v>
       </c>
       <c r="C1607" t="n">
-        <v>86.6</v>
+        <v>86.7</v>
       </c>
       <c r="D1607" t="s">
         <v>335</v>
@@ -28828,7 +28831,7 @@
         <v>344</v>
       </c>
       <c r="C1608" t="n">
-        <v>87.6</v>
+        <v>87.9</v>
       </c>
       <c r="D1608" t="s">
         <v>335</v>
@@ -28845,7 +28848,7 @@
         <v>345</v>
       </c>
       <c r="C1609" t="n">
-        <v>89</v>
+        <v>89.3</v>
       </c>
       <c r="D1609" t="s">
         <v>335</v>
@@ -28862,7 +28865,7 @@
         <v>346</v>
       </c>
       <c r="C1610" t="n">
-        <v>87.7</v>
+        <v>87.8</v>
       </c>
       <c r="D1610" t="s">
         <v>335</v>
@@ -28879,7 +28882,7 @@
         <v>347</v>
       </c>
       <c r="C1611" t="n">
-        <v>92.9</v>
+        <v>93</v>
       </c>
       <c r="D1611" t="s">
         <v>348</v>
@@ -28896,7 +28899,7 @@
         <v>349</v>
       </c>
       <c r="C1612" t="n">
-        <v>96.8</v>
+        <v>97.3</v>
       </c>
       <c r="D1612" t="s">
         <v>348</v>
@@ -28913,7 +28916,7 @@
         <v>350</v>
       </c>
       <c r="C1613" t="n">
-        <v>97</v>
+        <v>96.8</v>
       </c>
       <c r="D1613" t="s">
         <v>348</v>
@@ -28947,7 +28950,7 @@
         <v>352</v>
       </c>
       <c r="C1615" t="n">
-        <v>108.7</v>
+        <v>108.8</v>
       </c>
       <c r="D1615" t="s">
         <v>348</v>
@@ -28964,7 +28967,7 @@
         <v>353</v>
       </c>
       <c r="C1616" t="n">
-        <v>111.4</v>
+        <v>111</v>
       </c>
       <c r="D1616" t="s">
         <v>348</v>
@@ -28998,7 +29001,7 @@
         <v>355</v>
       </c>
       <c r="C1618" t="n">
-        <v>111.6</v>
+        <v>111.7</v>
       </c>
       <c r="D1618" t="s">
         <v>348</v>
@@ -29032,7 +29035,7 @@
         <v>357</v>
       </c>
       <c r="C1620" t="n">
-        <v>113.2</v>
+        <v>113.3</v>
       </c>
       <c r="D1620" t="s">
         <v>348</v>
@@ -29049,7 +29052,7 @@
         <v>358</v>
       </c>
       <c r="C1621" t="n">
-        <v>112.9</v>
+        <v>113.4</v>
       </c>
       <c r="D1621" t="s">
         <v>348</v>
@@ -29100,7 +29103,7 @@
         <v>362</v>
       </c>
       <c r="C1624" t="n">
-        <v>107.4</v>
+        <v>107.7</v>
       </c>
       <c r="D1624" t="s">
         <v>361</v>
@@ -29117,7 +29120,7 @@
         <v>363</v>
       </c>
       <c r="C1625" t="n">
-        <v>109.1</v>
+        <v>109.3</v>
       </c>
       <c r="D1625" t="s">
         <v>361</v>
@@ -29151,7 +29154,7 @@
         <v>365</v>
       </c>
       <c r="C1627" t="n">
-        <v>108.1</v>
+        <v>107.7</v>
       </c>
       <c r="D1627" t="s">
         <v>361</v>
@@ -29168,7 +29171,7 @@
         <v>366</v>
       </c>
       <c r="C1628" t="n">
-        <v>104.4</v>
+        <v>104.2</v>
       </c>
       <c r="D1628" t="s">
         <v>361</v>
@@ -29185,7 +29188,7 @@
         <v>367</v>
       </c>
       <c r="C1629" t="n">
-        <v>102.4</v>
+        <v>102.2</v>
       </c>
       <c r="D1629" t="s">
         <v>361</v>
@@ -29219,7 +29222,7 @@
         <v>369</v>
       </c>
       <c r="C1631" t="n">
-        <v>95.1</v>
+        <v>94.9</v>
       </c>
       <c r="D1631" t="s">
         <v>361</v>
@@ -29236,7 +29239,7 @@
         <v>370</v>
       </c>
       <c r="C1632" t="n">
-        <v>90.2</v>
+        <v>90.3</v>
       </c>
       <c r="D1632" t="s">
         <v>361</v>
@@ -29253,7 +29256,7 @@
         <v>371</v>
       </c>
       <c r="C1633" t="n">
-        <v>88.2</v>
+        <v>88.7</v>
       </c>
       <c r="D1633" t="s">
         <v>361</v>
@@ -29270,7 +29273,7 @@
         <v>372</v>
       </c>
       <c r="C1634" t="n">
-        <v>88.9</v>
+        <v>89.2</v>
       </c>
       <c r="D1634" t="s">
         <v>361</v>
@@ -29304,7 +29307,7 @@
         <v>375</v>
       </c>
       <c r="C1636" t="n">
-        <v>90.4</v>
+        <v>90.7</v>
       </c>
       <c r="D1636" t="s">
         <v>374</v>
@@ -29321,7 +29324,7 @@
         <v>376</v>
       </c>
       <c r="C1637" t="n">
-        <v>91.8</v>
+        <v>92.1</v>
       </c>
       <c r="D1637" t="s">
         <v>374</v>
@@ -29338,7 +29341,7 @@
         <v>377</v>
       </c>
       <c r="C1638" t="n">
-        <v>90</v>
+        <v>90.1</v>
       </c>
       <c r="D1638" t="s">
         <v>374</v>
@@ -29355,7 +29358,7 @@
         <v>378</v>
       </c>
       <c r="C1639" t="n">
-        <v>90.3</v>
+        <v>89.9</v>
       </c>
       <c r="D1639" t="s">
         <v>374</v>
@@ -29372,7 +29375,7 @@
         <v>379</v>
       </c>
       <c r="C1640" t="n">
-        <v>92.1</v>
+        <v>91.8</v>
       </c>
       <c r="D1640" t="s">
         <v>374</v>
@@ -29389,7 +29392,7 @@
         <v>380</v>
       </c>
       <c r="C1641" t="n">
-        <v>91.1</v>
+        <v>90.9</v>
       </c>
       <c r="D1641" t="s">
         <v>374</v>
@@ -29406,7 +29409,7 @@
         <v>381</v>
       </c>
       <c r="C1642" t="n">
-        <v>87.3</v>
+        <v>86.9</v>
       </c>
       <c r="D1642" t="s">
         <v>374</v>
@@ -29440,7 +29443,7 @@
         <v>203</v>
       </c>
       <c r="C1644" t="n">
-        <v>103.1</v>
+        <v>103.2</v>
       </c>
       <c r="D1644" t="s">
         <v>182</v>
@@ -29457,7 +29460,7 @@
         <v>204</v>
       </c>
       <c r="C1645" t="n">
-        <v>101.4</v>
+        <v>101.5</v>
       </c>
       <c r="D1645" t="s">
         <v>205</v>
@@ -29474,7 +29477,7 @@
         <v>206</v>
       </c>
       <c r="C1646" t="n">
-        <v>104.7</v>
+        <v>104.8</v>
       </c>
       <c r="D1646" t="s">
         <v>205</v>
@@ -29491,7 +29494,7 @@
         <v>207</v>
       </c>
       <c r="C1647" t="n">
-        <v>105.2</v>
+        <v>105.3</v>
       </c>
       <c r="D1647" t="s">
         <v>205</v>
@@ -29525,7 +29528,7 @@
         <v>209</v>
       </c>
       <c r="C1649" t="n">
-        <v>107.2</v>
+        <v>107.3</v>
       </c>
       <c r="D1649" t="s">
         <v>205</v>
@@ -29542,7 +29545,7 @@
         <v>210</v>
       </c>
       <c r="C1650" t="n">
-        <v>108.7</v>
+        <v>108.8</v>
       </c>
       <c r="D1650" t="s">
         <v>205</v>
@@ -29610,7 +29613,7 @@
         <v>214</v>
       </c>
       <c r="C1654" t="n">
-        <v>110.7</v>
+        <v>110.8</v>
       </c>
       <c r="D1654" t="s">
         <v>205</v>
@@ -29678,7 +29681,7 @@
         <v>219</v>
       </c>
       <c r="C1658" t="n">
-        <v>109.5</v>
+        <v>109.6</v>
       </c>
       <c r="D1658" t="s">
         <v>218</v>
@@ -29695,7 +29698,7 @@
         <v>220</v>
       </c>
       <c r="C1659" t="n">
-        <v>106.3</v>
+        <v>106.4</v>
       </c>
       <c r="D1659" t="s">
         <v>218</v>
@@ -29712,7 +29715,7 @@
         <v>221</v>
       </c>
       <c r="C1660" t="n">
-        <v>105.1</v>
+        <v>105.2</v>
       </c>
       <c r="D1660" t="s">
         <v>218</v>
@@ -29729,7 +29732,7 @@
         <v>222</v>
       </c>
       <c r="C1661" t="n">
-        <v>104.9</v>
+        <v>105</v>
       </c>
       <c r="D1661" t="s">
         <v>218</v>
@@ -29763,7 +29766,7 @@
         <v>224</v>
       </c>
       <c r="C1663" t="n">
-        <v>102</v>
+        <v>102.1</v>
       </c>
       <c r="D1663" t="s">
         <v>218</v>
@@ -29780,7 +29783,7 @@
         <v>225</v>
       </c>
       <c r="C1664" t="n">
-        <v>97.1</v>
+        <v>97.2</v>
       </c>
       <c r="D1664" t="s">
         <v>218</v>
@@ -29797,7 +29800,7 @@
         <v>226</v>
       </c>
       <c r="C1665" t="n">
-        <v>93.1</v>
+        <v>93.2</v>
       </c>
       <c r="D1665" t="s">
         <v>218</v>
@@ -29814,7 +29817,7 @@
         <v>227</v>
       </c>
       <c r="C1666" t="n">
-        <v>94</v>
+        <v>94.1</v>
       </c>
       <c r="D1666" t="s">
         <v>218</v>
@@ -29831,7 +29834,7 @@
         <v>228</v>
       </c>
       <c r="C1667" t="n">
-        <v>95</v>
+        <v>95.1</v>
       </c>
       <c r="D1667" t="s">
         <v>218</v>
@@ -29865,7 +29868,7 @@
         <v>230</v>
       </c>
       <c r="C1669" t="n">
-        <v>97.2</v>
+        <v>97.3</v>
       </c>
       <c r="D1669" t="s">
         <v>231</v>
@@ -29882,7 +29885,7 @@
         <v>232</v>
       </c>
       <c r="C1670" t="n">
-        <v>96.8</v>
+        <v>96.9</v>
       </c>
       <c r="D1670" t="s">
         <v>231</v>
@@ -29916,7 +29919,7 @@
         <v>234</v>
       </c>
       <c r="C1672" t="n">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="D1672" t="s">
         <v>231</v>
@@ -29933,7 +29936,7 @@
         <v>235</v>
       </c>
       <c r="C1673" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="D1673" t="s">
         <v>231</v>
@@ -29967,7 +29970,7 @@
         <v>237</v>
       </c>
       <c r="C1675" t="n">
-        <v>100.4</v>
+        <v>100.5</v>
       </c>
       <c r="D1675" t="s">
         <v>231</v>
@@ -29984,7 +29987,7 @@
         <v>238</v>
       </c>
       <c r="C1676" t="n">
-        <v>101.2</v>
+        <v>101.3</v>
       </c>
       <c r="D1676" t="s">
         <v>231</v>
@@ -30001,7 +30004,7 @@
         <v>239</v>
       </c>
       <c r="C1677" t="n">
-        <v>99.5</v>
+        <v>99.6</v>
       </c>
       <c r="D1677" t="s">
         <v>231</v>
@@ -30018,7 +30021,7 @@
         <v>240</v>
       </c>
       <c r="C1678" t="n">
-        <v>99</v>
+        <v>99.1</v>
       </c>
       <c r="D1678" t="s">
         <v>231</v>
@@ -30052,7 +30055,7 @@
         <v>242</v>
       </c>
       <c r="C1680" t="n">
-        <v>93.7</v>
+        <v>93.8</v>
       </c>
       <c r="D1680" t="s">
         <v>231</v>
@@ -30069,7 +30072,7 @@
         <v>243</v>
       </c>
       <c r="C1681" t="n">
-        <v>98.5</v>
+        <v>98.6</v>
       </c>
       <c r="D1681" t="s">
         <v>244</v>
@@ -30086,7 +30089,7 @@
         <v>245</v>
       </c>
       <c r="C1682" t="n">
-        <v>99.5</v>
+        <v>99.6</v>
       </c>
       <c r="D1682" t="s">
         <v>244</v>
@@ -30103,7 +30106,7 @@
         <v>246</v>
       </c>
       <c r="C1683" t="n">
-        <v>100.4</v>
+        <v>100.5</v>
       </c>
       <c r="D1683" t="s">
         <v>244</v>
@@ -30120,7 +30123,7 @@
         <v>247</v>
       </c>
       <c r="C1684" t="n">
-        <v>100.4</v>
+        <v>100.6</v>
       </c>
       <c r="D1684" t="s">
         <v>244</v>
@@ -30137,7 +30140,7 @@
         <v>248</v>
       </c>
       <c r="C1685" t="n">
-        <v>99.3</v>
+        <v>99.4</v>
       </c>
       <c r="D1685" t="s">
         <v>244</v>
@@ -30154,7 +30157,7 @@
         <v>249</v>
       </c>
       <c r="C1686" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="D1686" t="s">
         <v>244</v>
@@ -30188,7 +30191,7 @@
         <v>251</v>
       </c>
       <c r="C1688" t="n">
-        <v>102</v>
+        <v>102.1</v>
       </c>
       <c r="D1688" t="s">
         <v>244</v>
@@ -30205,7 +30208,7 @@
         <v>252</v>
       </c>
       <c r="C1689" t="n">
-        <v>100.4</v>
+        <v>100.5</v>
       </c>
       <c r="D1689" t="s">
         <v>244</v>
@@ -30222,7 +30225,7 @@
         <v>253</v>
       </c>
       <c r="C1690" t="n">
-        <v>103.3</v>
+        <v>103.4</v>
       </c>
       <c r="D1690" t="s">
         <v>244</v>
@@ -30256,7 +30259,7 @@
         <v>255</v>
       </c>
       <c r="C1692" t="n">
-        <v>105.3</v>
+        <v>105.4</v>
       </c>
       <c r="D1692" t="s">
         <v>244</v>
@@ -30307,7 +30310,7 @@
         <v>259</v>
       </c>
       <c r="C1695" t="n">
-        <v>102.5</v>
+        <v>102.6</v>
       </c>
       <c r="D1695" t="s">
         <v>257</v>
@@ -30324,7 +30327,7 @@
         <v>260</v>
       </c>
       <c r="C1696" t="n">
-        <v>103.2</v>
+        <v>103.3</v>
       </c>
       <c r="D1696" t="s">
         <v>257</v>
@@ -30392,7 +30395,7 @@
         <v>264</v>
       </c>
       <c r="C1700" t="n">
-        <v>102</v>
+        <v>102.1</v>
       </c>
       <c r="D1700" t="s">
         <v>257</v>
@@ -30443,7 +30446,7 @@
         <v>267</v>
       </c>
       <c r="C1703" t="n">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="D1703" t="s">
         <v>257</v>
@@ -30749,7 +30752,7 @@
         <v>287</v>
       </c>
       <c r="C1721" t="n">
-        <v>100</v>
+        <v>99.9</v>
       </c>
       <c r="D1721" t="s">
         <v>283</v>
@@ -30766,7 +30769,7 @@
         <v>288</v>
       </c>
       <c r="C1722" t="n">
-        <v>101.8</v>
+        <v>101.7</v>
       </c>
       <c r="D1722" t="s">
         <v>283</v>
@@ -30783,7 +30786,7 @@
         <v>289</v>
       </c>
       <c r="C1723" t="n">
-        <v>99.8</v>
+        <v>99.9</v>
       </c>
       <c r="D1723" t="s">
         <v>283</v>
@@ -30800,7 +30803,7 @@
         <v>290</v>
       </c>
       <c r="C1724" t="n">
-        <v>99.1</v>
+        <v>99.2</v>
       </c>
       <c r="D1724" t="s">
         <v>283</v>
@@ -30868,7 +30871,7 @@
         <v>294</v>
       </c>
       <c r="C1728" t="n">
-        <v>102.9</v>
+        <v>103</v>
       </c>
       <c r="D1728" t="s">
         <v>283</v>
@@ -30885,7 +30888,7 @@
         <v>295</v>
       </c>
       <c r="C1729" t="n">
-        <v>103.5</v>
+        <v>103.6</v>
       </c>
       <c r="D1729" t="s">
         <v>296</v>
@@ -30953,7 +30956,7 @@
         <v>300</v>
       </c>
       <c r="C1733" t="n">
-        <v>107.5</v>
+        <v>107.3</v>
       </c>
       <c r="D1733" t="s">
         <v>296</v>
@@ -30987,7 +30990,7 @@
         <v>302</v>
       </c>
       <c r="C1735" t="n">
-        <v>104.3</v>
+        <v>104.2</v>
       </c>
       <c r="D1735" t="s">
         <v>296</v>
@@ -31004,7 +31007,7 @@
         <v>303</v>
       </c>
       <c r="C1736" t="n">
-        <v>103.9</v>
+        <v>103.8</v>
       </c>
       <c r="D1736" t="s">
         <v>296</v>
@@ -31021,7 +31024,7 @@
         <v>304</v>
       </c>
       <c r="C1737" t="n">
-        <v>103.6</v>
+        <v>103.7</v>
       </c>
       <c r="D1737" t="s">
         <v>296</v>
@@ -31055,7 +31058,7 @@
         <v>306</v>
       </c>
       <c r="C1739" t="n">
-        <v>106.5</v>
+        <v>106.6</v>
       </c>
       <c r="D1739" t="s">
         <v>296</v>
@@ -31089,7 +31092,7 @@
         <v>308</v>
       </c>
       <c r="C1741" t="n">
-        <v>106</v>
+        <v>106.1</v>
       </c>
       <c r="D1741" t="s">
         <v>309</v>
@@ -31123,7 +31126,7 @@
         <v>311</v>
       </c>
       <c r="C1743" t="n">
-        <v>103.1</v>
+        <v>103.4</v>
       </c>
       <c r="D1743" t="s">
         <v>309</v>
@@ -31157,7 +31160,7 @@
         <v>313</v>
       </c>
       <c r="C1745" t="n">
-        <v>103.1</v>
+        <v>103</v>
       </c>
       <c r="D1745" t="s">
         <v>309</v>
@@ -31174,7 +31177,7 @@
         <v>314</v>
       </c>
       <c r="C1746" t="n">
-        <v>101.9</v>
+        <v>102</v>
       </c>
       <c r="D1746" t="s">
         <v>309</v>
@@ -31191,7 +31194,7 @@
         <v>315</v>
       </c>
       <c r="C1747" t="n">
-        <v>102.3</v>
+        <v>102.4</v>
       </c>
       <c r="D1747" t="s">
         <v>309</v>
@@ -31242,7 +31245,7 @@
         <v>318</v>
       </c>
       <c r="C1750" t="n">
-        <v>101.3</v>
+        <v>101.4</v>
       </c>
       <c r="D1750" t="s">
         <v>309</v>
@@ -31310,7 +31313,7 @@
         <v>323</v>
       </c>
       <c r="C1754" t="n">
-        <v>97.6</v>
+        <v>97.5</v>
       </c>
       <c r="D1754" t="s">
         <v>322</v>
@@ -31361,7 +31364,7 @@
         <v>326</v>
       </c>
       <c r="C1757" t="n">
-        <v>98.2</v>
+        <v>98.3</v>
       </c>
       <c r="D1757" t="s">
         <v>322</v>
@@ -31412,7 +31415,7 @@
         <v>329</v>
       </c>
       <c r="C1760" t="n">
-        <v>98.2</v>
+        <v>98.1</v>
       </c>
       <c r="D1760" t="s">
         <v>322</v>
@@ -31429,7 +31432,7 @@
         <v>330</v>
       </c>
       <c r="C1761" t="n">
-        <v>95.7</v>
+        <v>95.8</v>
       </c>
       <c r="D1761" t="s">
         <v>322</v>
@@ -31446,7 +31449,7 @@
         <v>331</v>
       </c>
       <c r="C1762" t="n">
-        <v>97.2</v>
+        <v>97.8</v>
       </c>
       <c r="D1762" t="s">
         <v>322</v>
@@ -31463,7 +31466,7 @@
         <v>332</v>
       </c>
       <c r="C1763" t="n">
-        <v>97.5</v>
+        <v>97.6</v>
       </c>
       <c r="D1763" t="s">
         <v>322</v>
@@ -31497,7 +31500,7 @@
         <v>334</v>
       </c>
       <c r="C1765" t="n">
-        <v>97.5</v>
+        <v>97.9</v>
       </c>
       <c r="D1765" t="s">
         <v>335</v>
@@ -31514,7 +31517,7 @@
         <v>336</v>
       </c>
       <c r="C1766" t="n">
-        <v>100.9</v>
+        <v>101</v>
       </c>
       <c r="D1766" t="s">
         <v>335</v>
@@ -31531,7 +31534,7 @@
         <v>337</v>
       </c>
       <c r="C1767" t="n">
-        <v>95.6</v>
+        <v>95.7</v>
       </c>
       <c r="D1767" t="s">
         <v>335</v>
@@ -31548,7 +31551,7 @@
         <v>338</v>
       </c>
       <c r="C1768" t="n">
-        <v>84.8</v>
+        <v>84.7</v>
       </c>
       <c r="D1768" t="s">
         <v>335</v>
@@ -31565,7 +31568,7 @@
         <v>339</v>
       </c>
       <c r="C1769" t="n">
-        <v>86.1</v>
+        <v>86.3</v>
       </c>
       <c r="D1769" t="s">
         <v>335</v>
@@ -31582,7 +31585,7 @@
         <v>340</v>
       </c>
       <c r="C1770" t="n">
-        <v>90.4</v>
+        <v>90.5</v>
       </c>
       <c r="D1770" t="s">
         <v>335</v>
@@ -31599,7 +31602,7 @@
         <v>341</v>
       </c>
       <c r="C1771" t="n">
-        <v>91.8</v>
+        <v>92</v>
       </c>
       <c r="D1771" t="s">
         <v>335</v>
@@ -31616,7 +31619,7 @@
         <v>342</v>
       </c>
       <c r="C1772" t="n">
-        <v>92.4</v>
+        <v>92.1</v>
       </c>
       <c r="D1772" t="s">
         <v>335</v>
@@ -31633,7 +31636,7 @@
         <v>343</v>
       </c>
       <c r="C1773" t="n">
-        <v>94.6</v>
+        <v>94.8</v>
       </c>
       <c r="D1773" t="s">
         <v>335</v>
@@ -31650,7 +31653,7 @@
         <v>344</v>
       </c>
       <c r="C1774" t="n">
-        <v>96.4</v>
+        <v>96.6</v>
       </c>
       <c r="D1774" t="s">
         <v>335</v>
@@ -31667,7 +31670,7 @@
         <v>345</v>
       </c>
       <c r="C1775" t="n">
-        <v>95</v>
+        <v>95.3</v>
       </c>
       <c r="D1775" t="s">
         <v>335</v>
@@ -31684,7 +31687,7 @@
         <v>346</v>
       </c>
       <c r="C1776" t="n">
-        <v>96.8</v>
+        <v>97.1</v>
       </c>
       <c r="D1776" t="s">
         <v>335</v>
@@ -31701,7 +31704,7 @@
         <v>347</v>
       </c>
       <c r="C1777" t="n">
-        <v>99.1</v>
+        <v>99.2</v>
       </c>
       <c r="D1777" t="s">
         <v>348</v>
@@ -31718,7 +31721,7 @@
         <v>349</v>
       </c>
       <c r="C1778" t="n">
-        <v>100.7</v>
+        <v>100.8</v>
       </c>
       <c r="D1778" t="s">
         <v>348</v>
@@ -31735,7 +31738,7 @@
         <v>350</v>
       </c>
       <c r="C1779" t="n">
-        <v>101.7</v>
+        <v>101.8</v>
       </c>
       <c r="D1779" t="s">
         <v>348</v>
@@ -31820,7 +31823,7 @@
         <v>355</v>
       </c>
       <c r="C1784" t="n">
-        <v>107.9</v>
+        <v>107.8</v>
       </c>
       <c r="D1784" t="s">
         <v>348</v>
@@ -31837,7 +31840,7 @@
         <v>356</v>
       </c>
       <c r="C1785" t="n">
-        <v>107.8</v>
+        <v>107.9</v>
       </c>
       <c r="D1785" t="s">
         <v>348</v>
@@ -31854,7 +31857,7 @@
         <v>357</v>
       </c>
       <c r="C1786" t="n">
-        <v>105.7</v>
+        <v>106.3</v>
       </c>
       <c r="D1786" t="s">
         <v>348</v>
@@ -31871,7 +31874,7 @@
         <v>358</v>
       </c>
       <c r="C1787" t="n">
-        <v>102.6</v>
+        <v>102.8</v>
       </c>
       <c r="D1787" t="s">
         <v>348</v>
@@ -31888,7 +31891,7 @@
         <v>359</v>
       </c>
       <c r="C1788" t="n">
-        <v>101.6</v>
+        <v>101.7</v>
       </c>
       <c r="D1788" t="s">
         <v>348</v>
@@ -31905,7 +31908,7 @@
         <v>360</v>
       </c>
       <c r="C1789" t="n">
-        <v>96.4</v>
+        <v>96.8</v>
       </c>
       <c r="D1789" t="s">
         <v>361</v>
@@ -31922,7 +31925,7 @@
         <v>362</v>
       </c>
       <c r="C1790" t="n">
-        <v>95</v>
+        <v>95.1</v>
       </c>
       <c r="D1790" t="s">
         <v>361</v>
@@ -31939,7 +31942,7 @@
         <v>363</v>
       </c>
       <c r="C1791" t="n">
-        <v>85.2</v>
+        <v>85.3</v>
       </c>
       <c r="D1791" t="s">
         <v>361</v>
@@ -31973,7 +31976,7 @@
         <v>365</v>
       </c>
       <c r="C1793" t="n">
-        <v>80</v>
+        <v>79.9</v>
       </c>
       <c r="D1793" t="s">
         <v>361</v>
@@ -31990,7 +31993,7 @@
         <v>366</v>
       </c>
       <c r="C1794" t="n">
-        <v>76.7</v>
+        <v>76.9</v>
       </c>
       <c r="D1794" t="s">
         <v>361</v>
@@ -32007,7 +32010,7 @@
         <v>367</v>
       </c>
       <c r="C1795" t="n">
-        <v>69.8</v>
+        <v>70.1</v>
       </c>
       <c r="D1795" t="s">
         <v>361</v>
@@ -32024,7 +32027,7 @@
         <v>368</v>
       </c>
       <c r="C1796" t="n">
-        <v>69.7</v>
+        <v>70</v>
       </c>
       <c r="D1796" t="s">
         <v>361</v>
@@ -32041,7 +32044,7 @@
         <v>369</v>
       </c>
       <c r="C1797" t="n">
-        <v>64.4</v>
+        <v>64.8</v>
       </c>
       <c r="D1797" t="s">
         <v>361</v>
@@ -32058,7 +32061,7 @@
         <v>370</v>
       </c>
       <c r="C1798" t="n">
-        <v>61.8</v>
+        <v>62.6</v>
       </c>
       <c r="D1798" t="s">
         <v>361</v>
@@ -32075,7 +32078,7 @@
         <v>371</v>
       </c>
       <c r="C1799" t="n">
-        <v>65.7</v>
+        <v>66</v>
       </c>
       <c r="D1799" t="s">
         <v>361</v>
@@ -32092,7 +32095,7 @@
         <v>372</v>
       </c>
       <c r="C1800" t="n">
-        <v>63.6</v>
+        <v>63.9</v>
       </c>
       <c r="D1800" t="s">
         <v>361</v>
@@ -32109,7 +32112,7 @@
         <v>373</v>
       </c>
       <c r="C1801" t="n">
-        <v>64.1</v>
+        <v>64.8</v>
       </c>
       <c r="D1801" t="s">
         <v>374</v>
@@ -32126,7 +32129,7 @@
         <v>375</v>
       </c>
       <c r="C1802" t="n">
-        <v>66.7</v>
+        <v>66.9</v>
       </c>
       <c r="D1802" t="s">
         <v>374</v>
@@ -32143,7 +32146,7 @@
         <v>376</v>
       </c>
       <c r="C1803" t="n">
-        <v>68.2</v>
+        <v>68.6</v>
       </c>
       <c r="D1803" t="s">
         <v>374</v>
@@ -32160,7 +32163,7 @@
         <v>377</v>
       </c>
       <c r="C1804" t="n">
-        <v>69.3</v>
+        <v>69.7</v>
       </c>
       <c r="D1804" t="s">
         <v>374</v>
@@ -32177,7 +32180,7 @@
         <v>378</v>
       </c>
       <c r="C1805" t="n">
-        <v>72.7</v>
+        <v>73</v>
       </c>
       <c r="D1805" t="s">
         <v>374</v>
@@ -32194,7 +32197,7 @@
         <v>379</v>
       </c>
       <c r="C1806" t="n">
-        <v>73.8</v>
+        <v>74.1</v>
       </c>
       <c r="D1806" t="s">
         <v>374</v>
@@ -32211,7 +32214,7 @@
         <v>380</v>
       </c>
       <c r="C1807" t="n">
-        <v>73.6</v>
+        <v>73.9</v>
       </c>
       <c r="D1807" t="s">
         <v>374</v>
@@ -32228,7 +32231,7 @@
         <v>381</v>
       </c>
       <c r="C1808" t="n">
-        <v>71.6</v>
+        <v>71.8</v>
       </c>
       <c r="D1808" t="s">
         <v>374</v>
@@ -32245,7 +32248,7 @@
         <v>383</v>
       </c>
       <c r="C1809" t="n">
-        <v>86.1</v>
+        <v>86.2</v>
       </c>
       <c r="D1809" t="s">
         <v>374</v>
@@ -32262,7 +32265,7 @@
         <v>384</v>
       </c>
       <c r="C1810" t="n">
-        <v>84.9</v>
+        <v>85.1</v>
       </c>
       <c r="D1810" t="s">
         <v>374</v>
@@ -32279,7 +32282,7 @@
         <v>385</v>
       </c>
       <c r="C1811" t="n">
-        <v>84.6</v>
+        <v>84.9</v>
       </c>
       <c r="D1811" t="s">
         <v>374</v>
@@ -32290,19 +32293,19 @@
     </row>
     <row r="1812">
       <c r="A1812" t="s">
-        <v>192</v>
+        <v>5</v>
       </c>
       <c r="B1812" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C1812" t="n">
-        <v>100.4</v>
+        <v>84.3</v>
       </c>
       <c r="D1812" t="s">
         <v>374</v>
       </c>
       <c r="E1812" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1813">
@@ -32310,16 +32313,16 @@
         <v>192</v>
       </c>
       <c r="B1813" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C1813" t="n">
-        <v>99.6</v>
+        <v>100.5</v>
       </c>
       <c r="D1813" t="s">
         <v>374</v>
       </c>
       <c r="E1813" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1814">
@@ -32327,50 +32330,50 @@
         <v>192</v>
       </c>
       <c r="B1814" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C1814" t="n">
-        <v>99.1</v>
+        <v>99.4</v>
       </c>
       <c r="D1814" t="s">
         <v>374</v>
       </c>
       <c r="E1814" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1815">
       <c r="A1815" t="s">
-        <v>382</v>
+        <v>192</v>
       </c>
       <c r="B1815" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C1815" t="n">
-        <v>84.4</v>
+        <v>99.1</v>
       </c>
       <c r="D1815" t="s">
         <v>374</v>
       </c>
       <c r="E1815" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1816">
       <c r="A1816" t="s">
-        <v>382</v>
+        <v>192</v>
       </c>
       <c r="B1816" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C1816" t="n">
-        <v>83.4</v>
+        <v>95.1</v>
       </c>
       <c r="D1816" t="s">
         <v>374</v>
       </c>
       <c r="E1816" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1817">
@@ -32378,78 +32381,78 @@
         <v>382</v>
       </c>
       <c r="B1817" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C1817" t="n">
-        <v>83.4</v>
+        <v>84.6</v>
       </c>
       <c r="D1817" t="s">
         <v>374</v>
       </c>
       <c r="E1817" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1818">
       <c r="A1818" t="s">
-        <v>198</v>
+        <v>382</v>
       </c>
       <c r="B1818" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C1818" t="n">
-        <v>84.3</v>
+        <v>83.9</v>
       </c>
       <c r="D1818" t="s">
         <v>374</v>
       </c>
       <c r="E1818" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1819">
       <c r="A1819" t="s">
-        <v>198</v>
+        <v>382</v>
       </c>
       <c r="B1819" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C1819" t="n">
-        <v>90.9</v>
+        <v>83.8</v>
       </c>
       <c r="D1819" t="s">
         <v>374</v>
       </c>
       <c r="E1819" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1820">
       <c r="A1820" t="s">
-        <v>198</v>
+        <v>382</v>
       </c>
       <c r="B1820" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C1820" t="n">
-        <v>88</v>
+        <v>86.1</v>
       </c>
       <c r="D1820" t="s">
         <v>374</v>
       </c>
       <c r="E1820" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1821">
       <c r="A1821" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B1821" t="s">
         <v>383</v>
       </c>
       <c r="C1821" t="n">
-        <v>86.1</v>
+        <v>84.3</v>
       </c>
       <c r="D1821" t="s">
         <v>374</v>
@@ -32460,13 +32463,13 @@
     </row>
     <row r="1822">
       <c r="A1822" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B1822" t="s">
         <v>384</v>
       </c>
       <c r="C1822" t="n">
-        <v>83.1</v>
+        <v>91.2</v>
       </c>
       <c r="D1822" t="s">
         <v>374</v>
@@ -32477,13 +32480,13 @@
     </row>
     <row r="1823">
       <c r="A1823" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B1823" t="s">
         <v>385</v>
       </c>
       <c r="C1823" t="n">
-        <v>82.5</v>
+        <v>88.3</v>
       </c>
       <c r="D1823" t="s">
         <v>374</v>
@@ -32494,53 +32497,155 @@
     </row>
     <row r="1824">
       <c r="A1824" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B1824" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C1824" t="n">
-        <v>69.9</v>
+        <v>92.1</v>
       </c>
       <c r="D1824" t="s">
         <v>374</v>
       </c>
       <c r="E1824" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1825">
       <c r="A1825" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B1825" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C1825" t="n">
-        <v>70.6</v>
+        <v>85.8</v>
       </c>
       <c r="D1825" t="s">
         <v>374</v>
       </c>
       <c r="E1825" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1826">
       <c r="A1826" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B1826" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C1826" t="n">
-        <v>72.8</v>
+        <v>83.4</v>
       </c>
       <c r="D1826" t="s">
         <v>374</v>
       </c>
       <c r="E1826" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1827">
+      <c r="A1827" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1827" t="s">
+        <v>385</v>
+      </c>
+      <c r="C1827" t="n">
+        <v>83</v>
+      </c>
+      <c r="D1827" t="s">
+        <v>374</v>
+      </c>
+      <c r="E1827" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="1828">
+      <c r="A1828" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1828" t="s">
+        <v>386</v>
+      </c>
+      <c r="C1828" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="D1828" t="s">
+        <v>374</v>
+      </c>
+      <c r="E1828" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1829">
+      <c r="A1829" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1829" t="s">
+        <v>383</v>
+      </c>
+      <c r="C1829" t="n">
+        <v>70.7</v>
+      </c>
+      <c r="D1829" t="s">
+        <v>374</v>
+      </c>
+      <c r="E1829" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1830">
+      <c r="A1830" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1830" t="s">
+        <v>384</v>
+      </c>
+      <c r="C1830" t="n">
+        <v>71.4</v>
+      </c>
+      <c r="D1830" t="s">
+        <v>374</v>
+      </c>
+      <c r="E1830" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1831">
+      <c r="A1831" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1831" t="s">
+        <v>385</v>
+      </c>
+      <c r="C1831" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="D1831" t="s">
+        <v>374</v>
+      </c>
+      <c r="E1831" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1832">
+      <c r="A1832" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1832" t="s">
+        <v>386</v>
+      </c>
+      <c r="C1832" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="D1832" t="s">
+        <v>374</v>
+      </c>
+      <c r="E1832" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Data/konjunkturbarometern.xlsx
+++ b/Data/konjunkturbarometern.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="389">
   <si>
     <t xml:space="preserve">Indikator</t>
   </si>
@@ -1173,6 +1173,12 @@
   </si>
   <si>
     <t xml:space="preserve">2023-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024</t>
   </si>
 </sst>
 </file>
@@ -1546,7 +1552,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>88.6</v>
+        <v>88.7</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -1597,7 +1603,7 @@
         <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>92.3</v>
+        <v>92.4</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -1648,7 +1654,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="n">
-        <v>94.1</v>
+        <v>94.2</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
@@ -1682,7 +1688,7 @@
         <v>26</v>
       </c>
       <c r="C11" t="n">
-        <v>96.9</v>
+        <v>97</v>
       </c>
       <c r="D11" t="s">
         <v>20</v>
@@ -1835,7 +1841,7 @@
         <v>38</v>
       </c>
       <c r="C20" t="n">
-        <v>106.5</v>
+        <v>106.6</v>
       </c>
       <c r="D20" t="s">
         <v>39</v>
@@ -1886,7 +1892,7 @@
         <v>42</v>
       </c>
       <c r="C23" t="n">
-        <v>102.8</v>
+        <v>102.9</v>
       </c>
       <c r="D23" t="s">
         <v>39</v>
@@ -1988,7 +1994,7 @@
         <v>48</v>
       </c>
       <c r="C29" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
       <c r="D29" t="s">
         <v>39</v>
@@ -2277,7 +2283,7 @@
         <v>67</v>
       </c>
       <c r="C46" t="n">
-        <v>114.8</v>
+        <v>114.9</v>
       </c>
       <c r="D46" t="s">
         <v>65</v>
@@ -2294,7 +2300,7 @@
         <v>68</v>
       </c>
       <c r="C47" t="n">
-        <v>114.2</v>
+        <v>114.3</v>
       </c>
       <c r="D47" t="s">
         <v>65</v>
@@ -2396,7 +2402,7 @@
         <v>74</v>
       </c>
       <c r="C53" t="n">
-        <v>110.4</v>
+        <v>110.5</v>
       </c>
       <c r="D53" t="s">
         <v>65</v>
@@ -2889,7 +2895,7 @@
         <v>106</v>
       </c>
       <c r="C82" t="n">
-        <v>91.3</v>
+        <v>91.4</v>
       </c>
       <c r="D82" t="s">
         <v>104</v>
@@ -3127,7 +3133,7 @@
         <v>121</v>
       </c>
       <c r="C96" t="n">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -3178,7 +3184,7 @@
         <v>124</v>
       </c>
       <c r="C99" t="n">
-        <v>104.3</v>
+        <v>104.4</v>
       </c>
       <c r="D99" t="s">
         <v>117</v>
@@ -3212,7 +3218,7 @@
         <v>126</v>
       </c>
       <c r="C101" t="n">
-        <v>103.6</v>
+        <v>103.7</v>
       </c>
       <c r="D101" t="s">
         <v>117</v>
@@ -3314,7 +3320,7 @@
         <v>133</v>
       </c>
       <c r="C107" t="n">
-        <v>98.3</v>
+        <v>98.4</v>
       </c>
       <c r="D107" t="s">
         <v>130</v>
@@ -3501,7 +3507,7 @@
         <v>145</v>
       </c>
       <c r="C118" t="n">
-        <v>107.4</v>
+        <v>107.5</v>
       </c>
       <c r="D118" t="s">
         <v>143</v>
@@ -3552,7 +3558,7 @@
         <v>148</v>
       </c>
       <c r="C121" t="n">
-        <v>108.1</v>
+        <v>108.2</v>
       </c>
       <c r="D121" t="s">
         <v>143</v>
@@ -3807,7 +3813,7 @@
         <v>164</v>
       </c>
       <c r="C136" t="n">
-        <v>106.8</v>
+        <v>106.9</v>
       </c>
       <c r="D136" t="s">
         <v>156</v>
@@ -3858,7 +3864,7 @@
         <v>167</v>
       </c>
       <c r="C139" t="n">
-        <v>106.9</v>
+        <v>107</v>
       </c>
       <c r="D139" t="s">
         <v>156</v>
@@ -3875,7 +3881,7 @@
         <v>168</v>
       </c>
       <c r="C140" t="n">
-        <v>103</v>
+        <v>103.1</v>
       </c>
       <c r="D140" t="s">
         <v>169</v>
@@ -3977,7 +3983,7 @@
         <v>175</v>
       </c>
       <c r="C146" t="n">
-        <v>89.3</v>
+        <v>89.4</v>
       </c>
       <c r="D146" t="s">
         <v>169</v>
@@ -4045,7 +4051,7 @@
         <v>179</v>
       </c>
       <c r="C150" t="n">
-        <v>73.9</v>
+        <v>74</v>
       </c>
       <c r="D150" t="s">
         <v>169</v>
@@ -4266,7 +4272,7 @@
         <v>194</v>
       </c>
       <c r="C163" t="n">
-        <v>85.4</v>
+        <v>85.3</v>
       </c>
       <c r="D163" t="s">
         <v>7</v>
@@ -4283,7 +4289,7 @@
         <v>195</v>
       </c>
       <c r="C164" t="n">
-        <v>88.2</v>
+        <v>88.1</v>
       </c>
       <c r="D164" t="s">
         <v>7</v>
@@ -4300,7 +4306,7 @@
         <v>196</v>
       </c>
       <c r="C165" t="n">
-        <v>85.3</v>
+        <v>85.2</v>
       </c>
       <c r="D165" t="s">
         <v>7</v>
@@ -4317,7 +4323,7 @@
         <v>197</v>
       </c>
       <c r="C166" t="n">
-        <v>81.6</v>
+        <v>81.5</v>
       </c>
       <c r="D166" t="s">
         <v>7</v>
@@ -4368,7 +4374,7 @@
         <v>11</v>
       </c>
       <c r="C169" t="n">
-        <v>87.8</v>
+        <v>87.7</v>
       </c>
       <c r="D169" t="s">
         <v>7</v>
@@ -4419,7 +4425,7 @@
         <v>17</v>
       </c>
       <c r="C172" t="n">
-        <v>90.7</v>
+        <v>90.6</v>
       </c>
       <c r="D172" t="s">
         <v>7</v>
@@ -4470,7 +4476,7 @@
         <v>24</v>
       </c>
       <c r="C175" t="n">
-        <v>98.9</v>
+        <v>98.8</v>
       </c>
       <c r="D175" t="s">
         <v>20</v>
@@ -4504,7 +4510,7 @@
         <v>28</v>
       </c>
       <c r="C177" t="n">
-        <v>95.2</v>
+        <v>95.1</v>
       </c>
       <c r="D177" t="s">
         <v>20</v>
@@ -4861,7 +4867,7 @@
         <v>53</v>
       </c>
       <c r="C198" t="n">
-        <v>89.2</v>
+        <v>89.1</v>
       </c>
       <c r="D198" t="s">
         <v>52</v>
@@ -4878,7 +4884,7 @@
         <v>54</v>
       </c>
       <c r="C199" t="n">
-        <v>87.5</v>
+        <v>87.4</v>
       </c>
       <c r="D199" t="s">
         <v>52</v>
@@ -4929,7 +4935,7 @@
         <v>57</v>
       </c>
       <c r="C202" t="n">
-        <v>98</v>
+        <v>97.9</v>
       </c>
       <c r="D202" t="s">
         <v>52</v>
@@ -5014,7 +5020,7 @@
         <v>62</v>
       </c>
       <c r="C207" t="n">
-        <v>104.3</v>
+        <v>104.4</v>
       </c>
       <c r="D207" t="s">
         <v>52</v>
@@ -5065,7 +5071,7 @@
         <v>66</v>
       </c>
       <c r="C210" t="n">
-        <v>106.9</v>
+        <v>107</v>
       </c>
       <c r="D210" t="s">
         <v>65</v>
@@ -5133,7 +5139,7 @@
         <v>70</v>
       </c>
       <c r="C214" t="n">
-        <v>107.2</v>
+        <v>107.3</v>
       </c>
       <c r="D214" t="s">
         <v>65</v>
@@ -5201,7 +5207,7 @@
         <v>74</v>
       </c>
       <c r="C218" t="n">
-        <v>107.3</v>
+        <v>107.4</v>
       </c>
       <c r="D218" t="s">
         <v>65</v>
@@ -5320,7 +5326,7 @@
         <v>82</v>
       </c>
       <c r="C225" t="n">
-        <v>86.3</v>
+        <v>86.2</v>
       </c>
       <c r="D225" t="s">
         <v>78</v>
@@ -5371,7 +5377,7 @@
         <v>85</v>
       </c>
       <c r="C228" t="n">
-        <v>85.1</v>
+        <v>85</v>
       </c>
       <c r="D228" t="s">
         <v>78</v>
@@ -5473,7 +5479,7 @@
         <v>92</v>
       </c>
       <c r="C234" t="n">
-        <v>88.3</v>
+        <v>88.2</v>
       </c>
       <c r="D234" t="s">
         <v>91</v>
@@ -5762,7 +5768,7 @@
         <v>110</v>
       </c>
       <c r="C251" t="n">
-        <v>84.5</v>
+        <v>84.4</v>
       </c>
       <c r="D251" t="s">
         <v>104</v>
@@ -5779,7 +5785,7 @@
         <v>111</v>
       </c>
       <c r="C252" t="n">
-        <v>90</v>
+        <v>89.9</v>
       </c>
       <c r="D252" t="s">
         <v>104</v>
@@ -6170,7 +6176,7 @@
         <v>136</v>
       </c>
       <c r="C275" t="n">
-        <v>90.2</v>
+        <v>90.1</v>
       </c>
       <c r="D275" t="s">
         <v>130</v>
@@ -6459,7 +6465,7 @@
         <v>154</v>
       </c>
       <c r="C292" t="n">
-        <v>102.5</v>
+        <v>102.6</v>
       </c>
       <c r="D292" t="s">
         <v>143</v>
@@ -6527,7 +6533,7 @@
         <v>159</v>
       </c>
       <c r="C296" t="n">
-        <v>110.6</v>
+        <v>110.7</v>
       </c>
       <c r="D296" t="s">
         <v>156</v>
@@ -6578,7 +6584,7 @@
         <v>162</v>
       </c>
       <c r="C299" t="n">
-        <v>104.7</v>
+        <v>104.8</v>
       </c>
       <c r="D299" t="s">
         <v>156</v>
@@ -6867,7 +6873,7 @@
         <v>180</v>
       </c>
       <c r="C316" t="n">
-        <v>72.1</v>
+        <v>72</v>
       </c>
       <c r="D316" t="s">
         <v>169</v>
@@ -6918,7 +6924,7 @@
         <v>184</v>
       </c>
       <c r="C319" t="n">
-        <v>68</v>
+        <v>67.9</v>
       </c>
       <c r="D319" t="s">
         <v>182</v>
@@ -7054,7 +7060,7 @@
         <v>6</v>
       </c>
       <c r="C327" t="n">
-        <v>83.7</v>
+        <v>83.6</v>
       </c>
       <c r="D327" t="s">
         <v>7</v>
@@ -7241,7 +7247,7 @@
         <v>30</v>
       </c>
       <c r="C338" t="n">
-        <v>101.4</v>
+        <v>101.5</v>
       </c>
       <c r="D338" t="s">
         <v>20</v>
@@ -7326,7 +7332,7 @@
         <v>36</v>
       </c>
       <c r="C343" t="n">
-        <v>103</v>
+        <v>103.1</v>
       </c>
       <c r="D343" t="s">
         <v>20</v>
@@ -7343,7 +7349,7 @@
         <v>37</v>
       </c>
       <c r="C344" t="n">
-        <v>99.8</v>
+        <v>99.9</v>
       </c>
       <c r="D344" t="s">
         <v>20</v>
@@ -7394,7 +7400,7 @@
         <v>41</v>
       </c>
       <c r="C347" t="n">
-        <v>97.9</v>
+        <v>98</v>
       </c>
       <c r="D347" t="s">
         <v>39</v>
@@ -7411,7 +7417,7 @@
         <v>42</v>
       </c>
       <c r="C348" t="n">
-        <v>97.3</v>
+        <v>97.4</v>
       </c>
       <c r="D348" t="s">
         <v>39</v>
@@ -7564,7 +7570,7 @@
         <v>51</v>
       </c>
       <c r="C357" t="n">
-        <v>98.5</v>
+        <v>98.6</v>
       </c>
       <c r="D357" t="s">
         <v>52</v>
@@ -7581,7 +7587,7 @@
         <v>53</v>
       </c>
       <c r="C358" t="n">
-        <v>102.6</v>
+        <v>102.7</v>
       </c>
       <c r="D358" t="s">
         <v>52</v>
@@ -7666,7 +7672,7 @@
         <v>58</v>
       </c>
       <c r="C363" t="n">
-        <v>104.1</v>
+        <v>104.2</v>
       </c>
       <c r="D363" t="s">
         <v>52</v>
@@ -7700,7 +7706,7 @@
         <v>60</v>
       </c>
       <c r="C365" t="n">
-        <v>115.3</v>
+        <v>115.4</v>
       </c>
       <c r="D365" t="s">
         <v>52</v>
@@ -7734,7 +7740,7 @@
         <v>62</v>
       </c>
       <c r="C367" t="n">
-        <v>113.9</v>
+        <v>114</v>
       </c>
       <c r="D367" t="s">
         <v>52</v>
@@ -7751,7 +7757,7 @@
         <v>63</v>
       </c>
       <c r="C368" t="n">
-        <v>116.6</v>
+        <v>116.7</v>
       </c>
       <c r="D368" t="s">
         <v>52</v>
@@ -7768,7 +7774,7 @@
         <v>64</v>
       </c>
       <c r="C369" t="n">
-        <v>116.5</v>
+        <v>116.6</v>
       </c>
       <c r="D369" t="s">
         <v>65</v>
@@ -7785,7 +7791,7 @@
         <v>66</v>
       </c>
       <c r="C370" t="n">
-        <v>117.1</v>
+        <v>117.2</v>
       </c>
       <c r="D370" t="s">
         <v>65</v>
@@ -7853,7 +7859,7 @@
         <v>70</v>
       </c>
       <c r="C374" t="n">
-        <v>113.4</v>
+        <v>113.5</v>
       </c>
       <c r="D374" t="s">
         <v>65</v>
@@ -8414,7 +8420,7 @@
         <v>106</v>
       </c>
       <c r="C407" t="n">
-        <v>92.8</v>
+        <v>92.7</v>
       </c>
       <c r="D407" t="s">
         <v>104</v>
@@ -9026,7 +9032,7 @@
         <v>145</v>
       </c>
       <c r="C443" t="n">
-        <v>109.8</v>
+        <v>109.9</v>
       </c>
       <c r="D443" t="s">
         <v>143</v>
@@ -9060,7 +9066,7 @@
         <v>147</v>
       </c>
       <c r="C445" t="n">
-        <v>112.1</v>
+        <v>112.2</v>
       </c>
       <c r="D445" t="s">
         <v>143</v>
@@ -9077,7 +9083,7 @@
         <v>148</v>
       </c>
       <c r="C446" t="n">
-        <v>111.7</v>
+        <v>111.8</v>
       </c>
       <c r="D446" t="s">
         <v>143</v>
@@ -9128,7 +9134,7 @@
         <v>151</v>
       </c>
       <c r="C449" t="n">
-        <v>110.2</v>
+        <v>110.3</v>
       </c>
       <c r="D449" t="s">
         <v>143</v>
@@ -9196,7 +9202,7 @@
         <v>155</v>
       </c>
       <c r="C453" t="n">
-        <v>111.2</v>
+        <v>111.3</v>
       </c>
       <c r="D453" t="s">
         <v>156</v>
@@ -9264,7 +9270,7 @@
         <v>160</v>
       </c>
       <c r="C457" t="n">
-        <v>111</v>
+        <v>111.1</v>
       </c>
       <c r="D457" t="s">
         <v>156</v>
@@ -9434,7 +9440,7 @@
         <v>171</v>
       </c>
       <c r="C467" t="n">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="D467" t="s">
         <v>169</v>
@@ -9468,7 +9474,7 @@
         <v>173</v>
       </c>
       <c r="C469" t="n">
-        <v>94</v>
+        <v>93.9</v>
       </c>
       <c r="D469" t="s">
         <v>169</v>
@@ -9587,7 +9593,7 @@
         <v>180</v>
       </c>
       <c r="C476" t="n">
-        <v>69.6</v>
+        <v>69.5</v>
       </c>
       <c r="D476" t="s">
         <v>169</v>
@@ -9604,7 +9610,7 @@
         <v>181</v>
       </c>
       <c r="C477" t="n">
-        <v>70.3</v>
+        <v>70.2</v>
       </c>
       <c r="D477" t="s">
         <v>182</v>
@@ -9621,7 +9627,7 @@
         <v>183</v>
       </c>
       <c r="C478" t="n">
-        <v>77.4</v>
+        <v>77.3</v>
       </c>
       <c r="D478" t="s">
         <v>182</v>
@@ -9655,7 +9661,7 @@
         <v>185</v>
       </c>
       <c r="C480" t="n">
-        <v>80</v>
+        <v>79.9</v>
       </c>
       <c r="D480" t="s">
         <v>182</v>
@@ -9723,7 +9729,7 @@
         <v>189</v>
       </c>
       <c r="C484" t="n">
-        <v>108.4</v>
+        <v>108.5</v>
       </c>
       <c r="D484" t="s">
         <v>182</v>
@@ -9774,7 +9780,7 @@
         <v>200</v>
       </c>
       <c r="C487" t="n">
-        <v>94.8</v>
+        <v>94.9</v>
       </c>
       <c r="D487" t="s">
         <v>7</v>
@@ -9825,7 +9831,7 @@
         <v>195</v>
       </c>
       <c r="C490" t="n">
-        <v>90.5</v>
+        <v>90.6</v>
       </c>
       <c r="D490" t="s">
         <v>7</v>
@@ -9910,7 +9916,7 @@
         <v>11</v>
       </c>
       <c r="C495" t="n">
-        <v>97</v>
+        <v>97.1</v>
       </c>
       <c r="D495" t="s">
         <v>7</v>
@@ -9944,7 +9950,7 @@
         <v>15</v>
       </c>
       <c r="C497" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="D497" t="s">
         <v>7</v>
@@ -9978,7 +9984,7 @@
         <v>19</v>
       </c>
       <c r="C499" t="n">
-        <v>99.4</v>
+        <v>99.5</v>
       </c>
       <c r="D499" t="s">
         <v>20</v>
@@ -10063,7 +10069,7 @@
         <v>30</v>
       </c>
       <c r="C504" t="n">
-        <v>101.3</v>
+        <v>101.4</v>
       </c>
       <c r="D504" t="s">
         <v>20</v>
@@ -10199,7 +10205,7 @@
         <v>40</v>
       </c>
       <c r="C512" t="n">
-        <v>106.8</v>
+        <v>106.9</v>
       </c>
       <c r="D512" t="s">
         <v>39</v>
@@ -10250,7 +10256,7 @@
         <v>43</v>
       </c>
       <c r="C515" t="n">
-        <v>106.1</v>
+        <v>106.2</v>
       </c>
       <c r="D515" t="s">
         <v>39</v>
@@ -10301,7 +10307,7 @@
         <v>46</v>
       </c>
       <c r="C518" t="n">
-        <v>103.7</v>
+        <v>103.8</v>
       </c>
       <c r="D518" t="s">
         <v>39</v>
@@ -10335,7 +10341,7 @@
         <v>48</v>
       </c>
       <c r="C520" t="n">
-        <v>101.5</v>
+        <v>101.6</v>
       </c>
       <c r="D520" t="s">
         <v>39</v>
@@ -10369,7 +10375,7 @@
         <v>50</v>
       </c>
       <c r="C522" t="n">
-        <v>99.6</v>
+        <v>99.7</v>
       </c>
       <c r="D522" t="s">
         <v>39</v>
@@ -10454,7 +10460,7 @@
         <v>56</v>
       </c>
       <c r="C527" t="n">
-        <v>104.6</v>
+        <v>104.7</v>
       </c>
       <c r="D527" t="s">
         <v>52</v>
@@ -10471,7 +10477,7 @@
         <v>57</v>
       </c>
       <c r="C528" t="n">
-        <v>105.7</v>
+        <v>105.8</v>
       </c>
       <c r="D528" t="s">
         <v>52</v>
@@ -10573,7 +10579,7 @@
         <v>63</v>
       </c>
       <c r="C534" t="n">
-        <v>109</v>
+        <v>109.1</v>
       </c>
       <c r="D534" t="s">
         <v>52</v>
@@ -10607,7 +10613,7 @@
         <v>66</v>
       </c>
       <c r="C536" t="n">
-        <v>111.2</v>
+        <v>111.3</v>
       </c>
       <c r="D536" t="s">
         <v>65</v>
@@ -10641,7 +10647,7 @@
         <v>68</v>
       </c>
       <c r="C538" t="n">
-        <v>112.3</v>
+        <v>112.4</v>
       </c>
       <c r="D538" t="s">
         <v>65</v>
@@ -10709,7 +10715,7 @@
         <v>72</v>
       </c>
       <c r="C542" t="n">
-        <v>111.2</v>
+        <v>111.3</v>
       </c>
       <c r="D542" t="s">
         <v>65</v>
@@ -10726,7 +10732,7 @@
         <v>73</v>
       </c>
       <c r="C543" t="n">
-        <v>109.1</v>
+        <v>109.2</v>
       </c>
       <c r="D543" t="s">
         <v>65</v>
@@ -10777,7 +10783,7 @@
         <v>76</v>
       </c>
       <c r="C546" t="n">
-        <v>99.6</v>
+        <v>99.7</v>
       </c>
       <c r="D546" t="s">
         <v>65</v>
@@ -10794,7 +10800,7 @@
         <v>77</v>
       </c>
       <c r="C547" t="n">
-        <v>97.8</v>
+        <v>97.9</v>
       </c>
       <c r="D547" t="s">
         <v>78</v>
@@ -10913,7 +10919,7 @@
         <v>85</v>
       </c>
       <c r="C554" t="n">
-        <v>81.3</v>
+        <v>81.4</v>
       </c>
       <c r="D554" t="s">
         <v>78</v>
@@ -10930,7 +10936,7 @@
         <v>86</v>
       </c>
       <c r="C555" t="n">
-        <v>85.9</v>
+        <v>86</v>
       </c>
       <c r="D555" t="s">
         <v>78</v>
@@ -11202,7 +11208,7 @@
         <v>103</v>
       </c>
       <c r="C571" t="n">
-        <v>85.6</v>
+        <v>85.7</v>
       </c>
       <c r="D571" t="s">
         <v>104</v>
@@ -11219,7 +11225,7 @@
         <v>105</v>
       </c>
       <c r="C572" t="n">
-        <v>90.4</v>
+        <v>90.5</v>
       </c>
       <c r="D572" t="s">
         <v>104</v>
@@ -11287,7 +11293,7 @@
         <v>109</v>
       </c>
       <c r="C576" t="n">
-        <v>89.3</v>
+        <v>89.4</v>
       </c>
       <c r="D576" t="s">
         <v>104</v>
@@ -11321,7 +11327,7 @@
         <v>111</v>
       </c>
       <c r="C578" t="n">
-        <v>89.2</v>
+        <v>89.3</v>
       </c>
       <c r="D578" t="s">
         <v>104</v>
@@ -11355,7 +11361,7 @@
         <v>113</v>
       </c>
       <c r="C580" t="n">
-        <v>90.2</v>
+        <v>90.3</v>
       </c>
       <c r="D580" t="s">
         <v>104</v>
@@ -11542,7 +11548,7 @@
         <v>125</v>
       </c>
       <c r="C591" t="n">
-        <v>110.7</v>
+        <v>110.8</v>
       </c>
       <c r="D591" t="s">
         <v>117</v>
@@ -11593,7 +11599,7 @@
         <v>128</v>
       </c>
       <c r="C594" t="n">
-        <v>102</v>
+        <v>102.1</v>
       </c>
       <c r="D594" t="s">
         <v>117</v>
@@ -11627,7 +11633,7 @@
         <v>131</v>
       </c>
       <c r="C596" t="n">
-        <v>107.8</v>
+        <v>107.9</v>
       </c>
       <c r="D596" t="s">
         <v>130</v>
@@ -11644,7 +11650,7 @@
         <v>132</v>
       </c>
       <c r="C597" t="n">
-        <v>110.4</v>
+        <v>110.5</v>
       </c>
       <c r="D597" t="s">
         <v>130</v>
@@ -11678,7 +11684,7 @@
         <v>134</v>
       </c>
       <c r="C599" t="n">
-        <v>103.5</v>
+        <v>103.6</v>
       </c>
       <c r="D599" t="s">
         <v>130</v>
@@ -11712,7 +11718,7 @@
         <v>136</v>
       </c>
       <c r="C601" t="n">
-        <v>107.4</v>
+        <v>107.5</v>
       </c>
       <c r="D601" t="s">
         <v>130</v>
@@ -11729,7 +11735,7 @@
         <v>137</v>
       </c>
       <c r="C602" t="n">
-        <v>101.6</v>
+        <v>101.7</v>
       </c>
       <c r="D602" t="s">
         <v>130</v>
@@ -11848,7 +11854,7 @@
         <v>145</v>
       </c>
       <c r="C609" t="n">
-        <v>110.6</v>
+        <v>110.7</v>
       </c>
       <c r="D609" t="s">
         <v>143</v>
@@ -11865,7 +11871,7 @@
         <v>146</v>
       </c>
       <c r="C610" t="n">
-        <v>111.7</v>
+        <v>111.8</v>
       </c>
       <c r="D610" t="s">
         <v>143</v>
@@ -11882,7 +11888,7 @@
         <v>147</v>
       </c>
       <c r="C611" t="n">
-        <v>111</v>
+        <v>111.1</v>
       </c>
       <c r="D611" t="s">
         <v>143</v>
@@ -11933,7 +11939,7 @@
         <v>150</v>
       </c>
       <c r="C614" t="n">
-        <v>110.1</v>
+        <v>110.2</v>
       </c>
       <c r="D614" t="s">
         <v>143</v>
@@ -12001,7 +12007,7 @@
         <v>154</v>
       </c>
       <c r="C618" t="n">
-        <v>114.5</v>
+        <v>114.6</v>
       </c>
       <c r="D618" t="s">
         <v>143</v>
@@ -12018,7 +12024,7 @@
         <v>155</v>
       </c>
       <c r="C619" t="n">
-        <v>115.7</v>
+        <v>115.8</v>
       </c>
       <c r="D619" t="s">
         <v>156</v>
@@ -12035,7 +12041,7 @@
         <v>157</v>
       </c>
       <c r="C620" t="n">
-        <v>113</v>
+        <v>113.1</v>
       </c>
       <c r="D620" t="s">
         <v>156</v>
@@ -12086,7 +12092,7 @@
         <v>160</v>
       </c>
       <c r="C623" t="n">
-        <v>114</v>
+        <v>114.1</v>
       </c>
       <c r="D623" t="s">
         <v>156</v>
@@ -12120,7 +12126,7 @@
         <v>162</v>
       </c>
       <c r="C625" t="n">
-        <v>115.3</v>
+        <v>115.4</v>
       </c>
       <c r="D625" t="s">
         <v>156</v>
@@ -12137,7 +12143,7 @@
         <v>163</v>
       </c>
       <c r="C626" t="n">
-        <v>113.8</v>
+        <v>113.9</v>
       </c>
       <c r="D626" t="s">
         <v>156</v>
@@ -12256,7 +12262,7 @@
         <v>171</v>
       </c>
       <c r="C633" t="n">
-        <v>105.1</v>
+        <v>105.2</v>
       </c>
       <c r="D633" t="s">
         <v>169</v>
@@ -12409,7 +12415,7 @@
         <v>180</v>
       </c>
       <c r="C642" t="n">
-        <v>76.5</v>
+        <v>76.6</v>
       </c>
       <c r="D642" t="s">
         <v>169</v>
@@ -12477,7 +12483,7 @@
         <v>185</v>
       </c>
       <c r="C646" t="n">
-        <v>73.4</v>
+        <v>73.5</v>
       </c>
       <c r="D646" t="s">
         <v>182</v>
@@ -12562,7 +12568,7 @@
         <v>190</v>
       </c>
       <c r="C651" t="n">
-        <v>91</v>
+        <v>91.1</v>
       </c>
       <c r="D651" t="s">
         <v>182</v>
@@ -12630,7 +12636,7 @@
         <v>194</v>
       </c>
       <c r="C655" t="n">
-        <v>88.9</v>
+        <v>89</v>
       </c>
       <c r="D655" t="s">
         <v>7</v>
@@ -12664,7 +12670,7 @@
         <v>196</v>
       </c>
       <c r="C657" t="n">
-        <v>88.8</v>
+        <v>88.9</v>
       </c>
       <c r="D657" t="s">
         <v>7</v>
@@ -12681,7 +12687,7 @@
         <v>197</v>
       </c>
       <c r="C658" t="n">
-        <v>89.2</v>
+        <v>89.3</v>
       </c>
       <c r="D658" t="s">
         <v>7</v>
@@ -12698,7 +12704,7 @@
         <v>6</v>
       </c>
       <c r="C659" t="n">
-        <v>87.9</v>
+        <v>88</v>
       </c>
       <c r="D659" t="s">
         <v>7</v>
@@ -12715,7 +12721,7 @@
         <v>9</v>
       </c>
       <c r="C660" t="n">
-        <v>92.4</v>
+        <v>92.5</v>
       </c>
       <c r="D660" t="s">
         <v>7</v>
@@ -12732,7 +12738,7 @@
         <v>11</v>
       </c>
       <c r="C661" t="n">
-        <v>93.1</v>
+        <v>93.2</v>
       </c>
       <c r="D661" t="s">
         <v>7</v>
@@ -12783,7 +12789,7 @@
         <v>17</v>
       </c>
       <c r="C664" t="n">
-        <v>91.6</v>
+        <v>91.7</v>
       </c>
       <c r="D664" t="s">
         <v>7</v>
@@ -12817,7 +12823,7 @@
         <v>22</v>
       </c>
       <c r="C666" t="n">
-        <v>92.5</v>
+        <v>92.6</v>
       </c>
       <c r="D666" t="s">
         <v>20</v>
@@ -12851,7 +12857,7 @@
         <v>26</v>
       </c>
       <c r="C668" t="n">
-        <v>96.3</v>
+        <v>96.4</v>
       </c>
       <c r="D668" t="s">
         <v>20</v>
@@ -12868,7 +12874,7 @@
         <v>28</v>
       </c>
       <c r="C669" t="n">
-        <v>97.7</v>
+        <v>97.8</v>
       </c>
       <c r="D669" t="s">
         <v>20</v>
@@ -12885,7 +12891,7 @@
         <v>30</v>
       </c>
       <c r="C670" t="n">
-        <v>97.8</v>
+        <v>97.9</v>
       </c>
       <c r="D670" t="s">
         <v>20</v>
@@ -12902,7 +12908,7 @@
         <v>32</v>
       </c>
       <c r="C671" t="n">
-        <v>99.1</v>
+        <v>99.2</v>
       </c>
       <c r="D671" t="s">
         <v>20</v>
@@ -12919,7 +12925,7 @@
         <v>33</v>
       </c>
       <c r="C672" t="n">
-        <v>98.2</v>
+        <v>98.3</v>
       </c>
       <c r="D672" t="s">
         <v>20</v>
@@ -12936,7 +12942,7 @@
         <v>34</v>
       </c>
       <c r="C673" t="n">
-        <v>100.8</v>
+        <v>100.9</v>
       </c>
       <c r="D673" t="s">
         <v>20</v>
@@ -12953,7 +12959,7 @@
         <v>35</v>
       </c>
       <c r="C674" t="n">
-        <v>104.7</v>
+        <v>104.8</v>
       </c>
       <c r="D674" t="s">
         <v>20</v>
@@ -12970,7 +12976,7 @@
         <v>36</v>
       </c>
       <c r="C675" t="n">
-        <v>103.2</v>
+        <v>103.3</v>
       </c>
       <c r="D675" t="s">
         <v>20</v>
@@ -12987,7 +12993,7 @@
         <v>37</v>
       </c>
       <c r="C676" t="n">
-        <v>106.1</v>
+        <v>106.2</v>
       </c>
       <c r="D676" t="s">
         <v>20</v>
@@ -13004,7 +13010,7 @@
         <v>38</v>
       </c>
       <c r="C677" t="n">
-        <v>105.7</v>
+        <v>105.8</v>
       </c>
       <c r="D677" t="s">
         <v>39</v>
@@ -13072,7 +13078,7 @@
         <v>43</v>
       </c>
       <c r="C681" t="n">
-        <v>106.9</v>
+        <v>107</v>
       </c>
       <c r="D681" t="s">
         <v>39</v>
@@ -13208,7 +13214,7 @@
         <v>51</v>
       </c>
       <c r="C689" t="n">
-        <v>108.6</v>
+        <v>108.7</v>
       </c>
       <c r="D689" t="s">
         <v>52</v>
@@ -13259,7 +13265,7 @@
         <v>55</v>
       </c>
       <c r="C692" t="n">
-        <v>107.8</v>
+        <v>107.9</v>
       </c>
       <c r="D692" t="s">
         <v>52</v>
@@ -13293,7 +13299,7 @@
         <v>57</v>
       </c>
       <c r="C694" t="n">
-        <v>109.8</v>
+        <v>109.9</v>
       </c>
       <c r="D694" t="s">
         <v>52</v>
@@ -13310,7 +13316,7 @@
         <v>58</v>
       </c>
       <c r="C695" t="n">
-        <v>109.9</v>
+        <v>110</v>
       </c>
       <c r="D695" t="s">
         <v>52</v>
@@ -13361,7 +13367,7 @@
         <v>61</v>
       </c>
       <c r="C698" t="n">
-        <v>114.3</v>
+        <v>114.4</v>
       </c>
       <c r="D698" t="s">
         <v>52</v>
@@ -13412,7 +13418,7 @@
         <v>64</v>
       </c>
       <c r="C701" t="n">
-        <v>118</v>
+        <v>118.1</v>
       </c>
       <c r="D701" t="s">
         <v>65</v>
@@ -13446,7 +13452,7 @@
         <v>67</v>
       </c>
       <c r="C703" t="n">
-        <v>118.9</v>
+        <v>119</v>
       </c>
       <c r="D703" t="s">
         <v>65</v>
@@ -13480,7 +13486,7 @@
         <v>69</v>
       </c>
       <c r="C705" t="n">
-        <v>116.8</v>
+        <v>116.9</v>
       </c>
       <c r="D705" t="s">
         <v>65</v>
@@ -13548,7 +13554,7 @@
         <v>73</v>
       </c>
       <c r="C709" t="n">
-        <v>114.7</v>
+        <v>114.8</v>
       </c>
       <c r="D709" t="s">
         <v>65</v>
@@ -13650,7 +13656,7 @@
         <v>80</v>
       </c>
       <c r="C715" t="n">
-        <v>105.3</v>
+        <v>105.4</v>
       </c>
       <c r="D715" t="s">
         <v>78</v>
@@ -13735,7 +13741,7 @@
         <v>85</v>
       </c>
       <c r="C720" t="n">
-        <v>100.8</v>
+        <v>100.9</v>
       </c>
       <c r="D720" t="s">
         <v>78</v>
@@ -13752,7 +13758,7 @@
         <v>86</v>
       </c>
       <c r="C721" t="n">
-        <v>97.6</v>
+        <v>97.7</v>
       </c>
       <c r="D721" t="s">
         <v>78</v>
@@ -13820,7 +13826,7 @@
         <v>90</v>
       </c>
       <c r="C725" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
       <c r="D725" t="s">
         <v>91</v>
@@ -13854,7 +13860,7 @@
         <v>93</v>
       </c>
       <c r="C727" t="n">
-        <v>106.7</v>
+        <v>106.8</v>
       </c>
       <c r="D727" t="s">
         <v>91</v>
@@ -13871,7 +13877,7 @@
         <v>94</v>
       </c>
       <c r="C728" t="n">
-        <v>105.7</v>
+        <v>105.8</v>
       </c>
       <c r="D728" t="s">
         <v>91</v>
@@ -13888,7 +13894,7 @@
         <v>95</v>
       </c>
       <c r="C729" t="n">
-        <v>104.9</v>
+        <v>105</v>
       </c>
       <c r="D729" t="s">
         <v>91</v>
@@ -13939,7 +13945,7 @@
         <v>98</v>
       </c>
       <c r="C732" t="n">
-        <v>101.4</v>
+        <v>101.5</v>
       </c>
       <c r="D732" t="s">
         <v>91</v>
@@ -13956,7 +13962,7 @@
         <v>99</v>
       </c>
       <c r="C733" t="n">
-        <v>101.8</v>
+        <v>101.9</v>
       </c>
       <c r="D733" t="s">
         <v>91</v>
@@ -13973,7 +13979,7 @@
         <v>100</v>
       </c>
       <c r="C734" t="n">
-        <v>99.2</v>
+        <v>99.3</v>
       </c>
       <c r="D734" t="s">
         <v>91</v>
@@ -14007,7 +14013,7 @@
         <v>102</v>
       </c>
       <c r="C736" t="n">
-        <v>98.4</v>
+        <v>98.5</v>
       </c>
       <c r="D736" t="s">
         <v>91</v>
@@ -14058,7 +14064,7 @@
         <v>106</v>
       </c>
       <c r="C739" t="n">
-        <v>93.8</v>
+        <v>93.9</v>
       </c>
       <c r="D739" t="s">
         <v>104</v>
@@ -14075,7 +14081,7 @@
         <v>107</v>
       </c>
       <c r="C740" t="n">
-        <v>94.3</v>
+        <v>94.4</v>
       </c>
       <c r="D740" t="s">
         <v>104</v>
@@ -14092,7 +14098,7 @@
         <v>108</v>
       </c>
       <c r="C741" t="n">
-        <v>96</v>
+        <v>96.1</v>
       </c>
       <c r="D741" t="s">
         <v>104</v>
@@ -14126,7 +14132,7 @@
         <v>110</v>
       </c>
       <c r="C743" t="n">
-        <v>101.1</v>
+        <v>101.2</v>
       </c>
       <c r="D743" t="s">
         <v>104</v>
@@ -14143,7 +14149,7 @@
         <v>111</v>
       </c>
       <c r="C744" t="n">
-        <v>101.4</v>
+        <v>101.5</v>
       </c>
       <c r="D744" t="s">
         <v>104</v>
@@ -14177,7 +14183,7 @@
         <v>113</v>
       </c>
       <c r="C746" t="n">
-        <v>100.9</v>
+        <v>101</v>
       </c>
       <c r="D746" t="s">
         <v>104</v>
@@ -14228,7 +14234,7 @@
         <v>116</v>
       </c>
       <c r="C749" t="n">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="D749" t="s">
         <v>117</v>
@@ -14262,7 +14268,7 @@
         <v>119</v>
       </c>
       <c r="C751" t="n">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="D751" t="s">
         <v>117</v>
@@ -14347,7 +14353,7 @@
         <v>124</v>
       </c>
       <c r="C756" t="n">
-        <v>102.4</v>
+        <v>102.5</v>
       </c>
       <c r="D756" t="s">
         <v>117</v>
@@ -14364,7 +14370,7 @@
         <v>125</v>
       </c>
       <c r="C757" t="n">
-        <v>102.3</v>
+        <v>102.4</v>
       </c>
       <c r="D757" t="s">
         <v>117</v>
@@ -14398,7 +14404,7 @@
         <v>127</v>
       </c>
       <c r="C759" t="n">
-        <v>103.4</v>
+        <v>103.5</v>
       </c>
       <c r="D759" t="s">
         <v>117</v>
@@ -14432,7 +14438,7 @@
         <v>129</v>
       </c>
       <c r="C761" t="n">
-        <v>105</v>
+        <v>105.1</v>
       </c>
       <c r="D761" t="s">
         <v>130</v>
@@ -14466,7 +14472,7 @@
         <v>132</v>
       </c>
       <c r="C763" t="n">
-        <v>105.6</v>
+        <v>105.7</v>
       </c>
       <c r="D763" t="s">
         <v>130</v>
@@ -14517,7 +14523,7 @@
         <v>135</v>
       </c>
       <c r="C766" t="n">
-        <v>102.6</v>
+        <v>102.7</v>
       </c>
       <c r="D766" t="s">
         <v>130</v>
@@ -14738,7 +14744,7 @@
         <v>149</v>
       </c>
       <c r="C779" t="n">
-        <v>107.7</v>
+        <v>107.8</v>
       </c>
       <c r="D779" t="s">
         <v>143</v>
@@ -14772,7 +14778,7 @@
         <v>151</v>
       </c>
       <c r="C781" t="n">
-        <v>108.2</v>
+        <v>108.3</v>
       </c>
       <c r="D781" t="s">
         <v>143</v>
@@ -14806,7 +14812,7 @@
         <v>153</v>
       </c>
       <c r="C783" t="n">
-        <v>106.6</v>
+        <v>106.7</v>
       </c>
       <c r="D783" t="s">
         <v>143</v>
@@ -14993,7 +14999,7 @@
         <v>165</v>
       </c>
       <c r="C794" t="n">
-        <v>107.8</v>
+        <v>107.9</v>
       </c>
       <c r="D794" t="s">
         <v>156</v>
@@ -15027,7 +15033,7 @@
         <v>167</v>
       </c>
       <c r="C796" t="n">
-        <v>104.5</v>
+        <v>104.6</v>
       </c>
       <c r="D796" t="s">
         <v>156</v>
@@ -15129,7 +15135,7 @@
         <v>174</v>
       </c>
       <c r="C802" t="n">
-        <v>89.8</v>
+        <v>89.9</v>
       </c>
       <c r="D802" t="s">
         <v>169</v>
@@ -15146,7 +15152,7 @@
         <v>175</v>
       </c>
       <c r="C803" t="n">
-        <v>84</v>
+        <v>84.1</v>
       </c>
       <c r="D803" t="s">
         <v>169</v>
@@ -15180,7 +15186,7 @@
         <v>177</v>
       </c>
       <c r="C805" t="n">
-        <v>88.4</v>
+        <v>88.5</v>
       </c>
       <c r="D805" t="s">
         <v>169</v>
@@ -15197,7 +15203,7 @@
         <v>178</v>
       </c>
       <c r="C806" t="n">
-        <v>81.6</v>
+        <v>81.7</v>
       </c>
       <c r="D806" t="s">
         <v>169</v>
@@ -15214,7 +15220,7 @@
         <v>179</v>
       </c>
       <c r="C807" t="n">
-        <v>82.4</v>
+        <v>82.5</v>
       </c>
       <c r="D807" t="s">
         <v>169</v>
@@ -15231,7 +15237,7 @@
         <v>180</v>
       </c>
       <c r="C808" t="n">
-        <v>84.7</v>
+        <v>84.8</v>
       </c>
       <c r="D808" t="s">
         <v>169</v>
@@ -15248,7 +15254,7 @@
         <v>181</v>
       </c>
       <c r="C809" t="n">
-        <v>88.7</v>
+        <v>88.8</v>
       </c>
       <c r="D809" t="s">
         <v>182</v>
@@ -15333,7 +15339,7 @@
         <v>187</v>
       </c>
       <c r="C814" t="n">
-        <v>91.6</v>
+        <v>91.7</v>
       </c>
       <c r="D814" t="s">
         <v>182</v>
@@ -15350,7 +15356,7 @@
         <v>188</v>
       </c>
       <c r="C815" t="n">
-        <v>95.4</v>
+        <v>95.5</v>
       </c>
       <c r="D815" t="s">
         <v>182</v>
@@ -15367,7 +15373,7 @@
         <v>189</v>
       </c>
       <c r="C816" t="n">
-        <v>99.1</v>
+        <v>99.2</v>
       </c>
       <c r="D816" t="s">
         <v>182</v>
@@ -15384,7 +15390,7 @@
         <v>190</v>
       </c>
       <c r="C817" t="n">
-        <v>100.7</v>
+        <v>100.8</v>
       </c>
       <c r="D817" t="s">
         <v>182</v>
@@ -15401,7 +15407,7 @@
         <v>191</v>
       </c>
       <c r="C818" t="n">
-        <v>103.4</v>
+        <v>103.5</v>
       </c>
       <c r="D818" t="s">
         <v>182</v>
@@ -15520,7 +15526,7 @@
         <v>209</v>
       </c>
       <c r="C825" t="n">
-        <v>108.2</v>
+        <v>108.3</v>
       </c>
       <c r="D825" t="s">
         <v>205</v>
@@ -15571,7 +15577,7 @@
         <v>212</v>
       </c>
       <c r="C828" t="n">
-        <v>109.9</v>
+        <v>110</v>
       </c>
       <c r="D828" t="s">
         <v>205</v>
@@ -15622,7 +15628,7 @@
         <v>215</v>
       </c>
       <c r="C831" t="n">
-        <v>115.5</v>
+        <v>115.6</v>
       </c>
       <c r="D831" t="s">
         <v>205</v>
@@ -15673,7 +15679,7 @@
         <v>219</v>
       </c>
       <c r="C834" t="n">
-        <v>114.9</v>
+        <v>115</v>
       </c>
       <c r="D834" t="s">
         <v>218</v>
@@ -15690,7 +15696,7 @@
         <v>220</v>
       </c>
       <c r="C835" t="n">
-        <v>111.3</v>
+        <v>111.4</v>
       </c>
       <c r="D835" t="s">
         <v>218</v>
@@ -15707,7 +15713,7 @@
         <v>221</v>
       </c>
       <c r="C836" t="n">
-        <v>108.2</v>
+        <v>108.3</v>
       </c>
       <c r="D836" t="s">
         <v>218</v>
@@ -15894,7 +15900,7 @@
         <v>233</v>
       </c>
       <c r="C847" t="n">
-        <v>99.2</v>
+        <v>99.3</v>
       </c>
       <c r="D847" t="s">
         <v>231</v>
@@ -15996,7 +16002,7 @@
         <v>239</v>
       </c>
       <c r="C853" t="n">
-        <v>95.1</v>
+        <v>95.2</v>
       </c>
       <c r="D853" t="s">
         <v>231</v>
@@ -16098,7 +16104,7 @@
         <v>246</v>
       </c>
       <c r="C859" t="n">
-        <v>94</v>
+        <v>94.1</v>
       </c>
       <c r="D859" t="s">
         <v>244</v>
@@ -16200,7 +16206,7 @@
         <v>252</v>
       </c>
       <c r="C865" t="n">
-        <v>98.6</v>
+        <v>98.7</v>
       </c>
       <c r="D865" t="s">
         <v>244</v>
@@ -16404,7 +16410,7 @@
         <v>265</v>
       </c>
       <c r="C877" t="n">
-        <v>101.8</v>
+        <v>101.9</v>
       </c>
       <c r="D877" t="s">
         <v>257</v>
@@ -16523,7 +16529,7 @@
         <v>273</v>
       </c>
       <c r="C884" t="n">
-        <v>99.9</v>
+        <v>100</v>
       </c>
       <c r="D884" t="s">
         <v>270</v>
@@ -16608,7 +16614,7 @@
         <v>278</v>
       </c>
       <c r="C889" t="n">
-        <v>106.5</v>
+        <v>106.6</v>
       </c>
       <c r="D889" t="s">
         <v>270</v>
@@ -16642,7 +16648,7 @@
         <v>280</v>
       </c>
       <c r="C891" t="n">
-        <v>104.1</v>
+        <v>104.2</v>
       </c>
       <c r="D891" t="s">
         <v>270</v>
@@ -16727,7 +16733,7 @@
         <v>286</v>
       </c>
       <c r="C896" t="n">
-        <v>102.7</v>
+        <v>102.8</v>
       </c>
       <c r="D896" t="s">
         <v>283</v>
@@ -16778,7 +16784,7 @@
         <v>289</v>
       </c>
       <c r="C899" t="n">
-        <v>102.3</v>
+        <v>102.4</v>
       </c>
       <c r="D899" t="s">
         <v>283</v>
@@ -16863,7 +16869,7 @@
         <v>294</v>
       </c>
       <c r="C904" t="n">
-        <v>110.1</v>
+        <v>110.2</v>
       </c>
       <c r="D904" t="s">
         <v>283</v>
@@ -16880,7 +16886,7 @@
         <v>295</v>
       </c>
       <c r="C905" t="n">
-        <v>108.7</v>
+        <v>108.8</v>
       </c>
       <c r="D905" t="s">
         <v>296</v>
@@ -16931,7 +16937,7 @@
         <v>299</v>
       </c>
       <c r="C908" t="n">
-        <v>110.7</v>
+        <v>110.8</v>
       </c>
       <c r="D908" t="s">
         <v>296</v>
@@ -16948,7 +16954,7 @@
         <v>300</v>
       </c>
       <c r="C909" t="n">
-        <v>111.7</v>
+        <v>111.8</v>
       </c>
       <c r="D909" t="s">
         <v>296</v>
@@ -16999,7 +17005,7 @@
         <v>303</v>
       </c>
       <c r="C912" t="n">
-        <v>109.5</v>
+        <v>109.7</v>
       </c>
       <c r="D912" t="s">
         <v>296</v>
@@ -17016,7 +17022,7 @@
         <v>304</v>
       </c>
       <c r="C913" t="n">
-        <v>112.1</v>
+        <v>112.2</v>
       </c>
       <c r="D913" t="s">
         <v>296</v>
@@ -17033,7 +17039,7 @@
         <v>305</v>
       </c>
       <c r="C914" t="n">
-        <v>111.3</v>
+        <v>111.5</v>
       </c>
       <c r="D914" t="s">
         <v>296</v>
@@ -17067,7 +17073,7 @@
         <v>307</v>
       </c>
       <c r="C916" t="n">
-        <v>109.8</v>
+        <v>110</v>
       </c>
       <c r="D916" t="s">
         <v>296</v>
@@ -17101,7 +17107,7 @@
         <v>310</v>
       </c>
       <c r="C918" t="n">
-        <v>108.6</v>
+        <v>108.7</v>
       </c>
       <c r="D918" t="s">
         <v>309</v>
@@ -17135,7 +17141,7 @@
         <v>312</v>
       </c>
       <c r="C920" t="n">
-        <v>110.5</v>
+        <v>110.6</v>
       </c>
       <c r="D920" t="s">
         <v>309</v>
@@ -17169,7 +17175,7 @@
         <v>314</v>
       </c>
       <c r="C922" t="n">
-        <v>110.1</v>
+        <v>110.2</v>
       </c>
       <c r="D922" t="s">
         <v>309</v>
@@ -17203,7 +17209,7 @@
         <v>316</v>
       </c>
       <c r="C924" t="n">
-        <v>110.3</v>
+        <v>110.4</v>
       </c>
       <c r="D924" t="s">
         <v>309</v>
@@ -17220,7 +17226,7 @@
         <v>317</v>
       </c>
       <c r="C925" t="n">
-        <v>109.8</v>
+        <v>109.7</v>
       </c>
       <c r="D925" t="s">
         <v>309</v>
@@ -17254,7 +17260,7 @@
         <v>319</v>
       </c>
       <c r="C927" t="n">
-        <v>105.3</v>
+        <v>105.2</v>
       </c>
       <c r="D927" t="s">
         <v>309</v>
@@ -17271,7 +17277,7 @@
         <v>320</v>
       </c>
       <c r="C928" t="n">
-        <v>105.4</v>
+        <v>105.6</v>
       </c>
       <c r="D928" t="s">
         <v>309</v>
@@ -17356,7 +17362,7 @@
         <v>326</v>
       </c>
       <c r="C933" t="n">
-        <v>101.7</v>
+        <v>101.8</v>
       </c>
       <c r="D933" t="s">
         <v>322</v>
@@ -17390,7 +17396,7 @@
         <v>328</v>
       </c>
       <c r="C935" t="n">
-        <v>98.4</v>
+        <v>98.2</v>
       </c>
       <c r="D935" t="s">
         <v>322</v>
@@ -17492,7 +17498,7 @@
         <v>334</v>
       </c>
       <c r="C941" t="n">
-        <v>96.9</v>
+        <v>97</v>
       </c>
       <c r="D941" t="s">
         <v>335</v>
@@ -17526,7 +17532,7 @@
         <v>337</v>
       </c>
       <c r="C943" t="n">
-        <v>93.8</v>
+        <v>93.7</v>
       </c>
       <c r="D943" t="s">
         <v>335</v>
@@ -17543,7 +17549,7 @@
         <v>338</v>
       </c>
       <c r="C944" t="n">
-        <v>61.6</v>
+        <v>61.9</v>
       </c>
       <c r="D944" t="s">
         <v>335</v>
@@ -17577,7 +17583,7 @@
         <v>340</v>
       </c>
       <c r="C946" t="n">
-        <v>76.3</v>
+        <v>76.2</v>
       </c>
       <c r="D946" t="s">
         <v>335</v>
@@ -17594,7 +17600,7 @@
         <v>341</v>
       </c>
       <c r="C947" t="n">
-        <v>84.7</v>
+        <v>84.5</v>
       </c>
       <c r="D947" t="s">
         <v>335</v>
@@ -17611,7 +17617,7 @@
         <v>342</v>
       </c>
       <c r="C948" t="n">
-        <v>87.5</v>
+        <v>87.4</v>
       </c>
       <c r="D948" t="s">
         <v>335</v>
@@ -17679,7 +17685,7 @@
         <v>346</v>
       </c>
       <c r="C952" t="n">
-        <v>96.6</v>
+        <v>96.8</v>
       </c>
       <c r="D952" t="s">
         <v>335</v>
@@ -17713,7 +17719,7 @@
         <v>349</v>
       </c>
       <c r="C954" t="n">
-        <v>104.4</v>
+        <v>104.5</v>
       </c>
       <c r="D954" t="s">
         <v>348</v>
@@ -17730,7 +17736,7 @@
         <v>350</v>
       </c>
       <c r="C955" t="n">
-        <v>105.5</v>
+        <v>105.6</v>
       </c>
       <c r="D955" t="s">
         <v>348</v>
@@ -17764,7 +17770,7 @@
         <v>352</v>
       </c>
       <c r="C957" t="n">
-        <v>117.1</v>
+        <v>116.9</v>
       </c>
       <c r="D957" t="s">
         <v>348</v>
@@ -17781,7 +17787,7 @@
         <v>353</v>
       </c>
       <c r="C958" t="n">
-        <v>117</v>
+        <v>117.2</v>
       </c>
       <c r="D958" t="s">
         <v>348</v>
@@ -17815,7 +17821,7 @@
         <v>355</v>
       </c>
       <c r="C960" t="n">
-        <v>119.3</v>
+        <v>119.2</v>
       </c>
       <c r="D960" t="s">
         <v>348</v>
@@ -17832,7 +17838,7 @@
         <v>356</v>
       </c>
       <c r="C961" t="n">
-        <v>119</v>
+        <v>118.8</v>
       </c>
       <c r="D961" t="s">
         <v>348</v>
@@ -17849,7 +17855,7 @@
         <v>357</v>
       </c>
       <c r="C962" t="n">
-        <v>121.1</v>
+        <v>121.2</v>
       </c>
       <c r="D962" t="s">
         <v>348</v>
@@ -17883,7 +17889,7 @@
         <v>359</v>
       </c>
       <c r="C964" t="n">
-        <v>119.1</v>
+        <v>119.4</v>
       </c>
       <c r="D964" t="s">
         <v>348</v>
@@ -17900,7 +17906,7 @@
         <v>360</v>
       </c>
       <c r="C965" t="n">
-        <v>113.3</v>
+        <v>113.4</v>
       </c>
       <c r="D965" t="s">
         <v>361</v>
@@ -17917,7 +17923,7 @@
         <v>362</v>
       </c>
       <c r="C966" t="n">
-        <v>114.9</v>
+        <v>115.1</v>
       </c>
       <c r="D966" t="s">
         <v>361</v>
@@ -17951,7 +17957,7 @@
         <v>364</v>
       </c>
       <c r="C968" t="n">
-        <v>110.9</v>
+        <v>111.2</v>
       </c>
       <c r="D968" t="s">
         <v>361</v>
@@ -17968,7 +17974,7 @@
         <v>365</v>
       </c>
       <c r="C969" t="n">
-        <v>110.7</v>
+        <v>110.6</v>
       </c>
       <c r="D969" t="s">
         <v>361</v>
@@ -18002,7 +18008,7 @@
         <v>367</v>
       </c>
       <c r="C971" t="n">
-        <v>103.2</v>
+        <v>103</v>
       </c>
       <c r="D971" t="s">
         <v>361</v>
@@ -18019,7 +18025,7 @@
         <v>368</v>
       </c>
       <c r="C972" t="n">
-        <v>98.8</v>
+        <v>99</v>
       </c>
       <c r="D972" t="s">
         <v>361</v>
@@ -18070,7 +18076,7 @@
         <v>371</v>
       </c>
       <c r="C975" t="n">
-        <v>88.6</v>
+        <v>88.9</v>
       </c>
       <c r="D975" t="s">
         <v>361</v>
@@ -18087,7 +18093,7 @@
         <v>372</v>
       </c>
       <c r="C976" t="n">
-        <v>88.5</v>
+        <v>89.1</v>
       </c>
       <c r="D976" t="s">
         <v>361</v>
@@ -18104,7 +18110,7 @@
         <v>373</v>
       </c>
       <c r="C977" t="n">
-        <v>85.9</v>
+        <v>86.2</v>
       </c>
       <c r="D977" t="s">
         <v>374</v>
@@ -18121,7 +18127,7 @@
         <v>375</v>
       </c>
       <c r="C978" t="n">
-        <v>88</v>
+        <v>88.2</v>
       </c>
       <c r="D978" t="s">
         <v>374</v>
@@ -18138,7 +18144,7 @@
         <v>376</v>
       </c>
       <c r="C979" t="n">
-        <v>89.5</v>
+        <v>89.6</v>
       </c>
       <c r="D979" t="s">
         <v>374</v>
@@ -18155,7 +18161,7 @@
         <v>377</v>
       </c>
       <c r="C980" t="n">
-        <v>88</v>
+        <v>88.1</v>
       </c>
       <c r="D980" t="s">
         <v>374</v>
@@ -18172,7 +18178,7 @@
         <v>378</v>
       </c>
       <c r="C981" t="n">
-        <v>90.1</v>
+        <v>90</v>
       </c>
       <c r="D981" t="s">
         <v>374</v>
@@ -18189,7 +18195,7 @@
         <v>379</v>
       </c>
       <c r="C982" t="n">
-        <v>90</v>
+        <v>90.1</v>
       </c>
       <c r="D982" t="s">
         <v>374</v>
@@ -18206,7 +18212,7 @@
         <v>380</v>
       </c>
       <c r="C983" t="n">
-        <v>87.7</v>
+        <v>87.5</v>
       </c>
       <c r="D983" t="s">
         <v>374</v>
@@ -18478,7 +18484,7 @@
         <v>217</v>
       </c>
       <c r="C999" t="n">
-        <v>111.7</v>
+        <v>111.8</v>
       </c>
       <c r="D999" t="s">
         <v>218</v>
@@ -18801,7 +18807,7 @@
         <v>238</v>
       </c>
       <c r="C1018" t="n">
-        <v>92.9</v>
+        <v>92.8</v>
       </c>
       <c r="D1018" t="s">
         <v>231</v>
@@ -18852,7 +18858,7 @@
         <v>241</v>
       </c>
       <c r="C1021" t="n">
-        <v>85.6</v>
+        <v>85.5</v>
       </c>
       <c r="D1021" t="s">
         <v>231</v>
@@ -19702,7 +19708,7 @@
         <v>295</v>
       </c>
       <c r="C1071" t="n">
-        <v>111</v>
+        <v>111.2</v>
       </c>
       <c r="D1071" t="s">
         <v>296</v>
@@ -19821,7 +19827,7 @@
         <v>303</v>
       </c>
       <c r="C1078" t="n">
-        <v>110.5</v>
+        <v>110.8</v>
       </c>
       <c r="D1078" t="s">
         <v>296</v>
@@ -19855,7 +19861,7 @@
         <v>305</v>
       </c>
       <c r="C1080" t="n">
-        <v>115.4</v>
+        <v>115.7</v>
       </c>
       <c r="D1080" t="s">
         <v>296</v>
@@ -19889,7 +19895,7 @@
         <v>307</v>
       </c>
       <c r="C1082" t="n">
-        <v>109.9</v>
+        <v>110.2</v>
       </c>
       <c r="D1082" t="s">
         <v>296</v>
@@ -19906,7 +19912,7 @@
         <v>308</v>
       </c>
       <c r="C1083" t="n">
-        <v>109</v>
+        <v>108.9</v>
       </c>
       <c r="D1083" t="s">
         <v>309</v>
@@ -19957,7 +19963,7 @@
         <v>312</v>
       </c>
       <c r="C1086" t="n">
-        <v>115</v>
+        <v>115.1</v>
       </c>
       <c r="D1086" t="s">
         <v>309</v>
@@ -19974,7 +19980,7 @@
         <v>313</v>
       </c>
       <c r="C1087" t="n">
-        <v>115.1</v>
+        <v>115.2</v>
       </c>
       <c r="D1087" t="s">
         <v>309</v>
@@ -19991,7 +19997,7 @@
         <v>314</v>
       </c>
       <c r="C1088" t="n">
-        <v>113.8</v>
+        <v>113.9</v>
       </c>
       <c r="D1088" t="s">
         <v>309</v>
@@ -20042,7 +20048,7 @@
         <v>317</v>
       </c>
       <c r="C1091" t="n">
-        <v>113</v>
+        <v>112.8</v>
       </c>
       <c r="D1091" t="s">
         <v>309</v>
@@ -20076,7 +20082,7 @@
         <v>319</v>
       </c>
       <c r="C1093" t="n">
-        <v>111.8</v>
+        <v>111.6</v>
       </c>
       <c r="D1093" t="s">
         <v>309</v>
@@ -20093,7 +20099,7 @@
         <v>320</v>
       </c>
       <c r="C1094" t="n">
-        <v>112.9</v>
+        <v>113.2</v>
       </c>
       <c r="D1094" t="s">
         <v>309</v>
@@ -20144,7 +20150,7 @@
         <v>324</v>
       </c>
       <c r="C1097" t="n">
-        <v>104.7</v>
+        <v>104.8</v>
       </c>
       <c r="D1097" t="s">
         <v>322</v>
@@ -20178,7 +20184,7 @@
         <v>326</v>
       </c>
       <c r="C1099" t="n">
-        <v>101.8</v>
+        <v>102.1</v>
       </c>
       <c r="D1099" t="s">
         <v>322</v>
@@ -20212,7 +20218,7 @@
         <v>328</v>
       </c>
       <c r="C1101" t="n">
-        <v>96.9</v>
+        <v>96.6</v>
       </c>
       <c r="D1101" t="s">
         <v>322</v>
@@ -20348,7 +20354,7 @@
         <v>337</v>
       </c>
       <c r="C1109" t="n">
-        <v>98.9</v>
+        <v>98.6</v>
       </c>
       <c r="D1109" t="s">
         <v>335</v>
@@ -20365,7 +20371,7 @@
         <v>338</v>
       </c>
       <c r="C1110" t="n">
-        <v>72</v>
+        <v>72.2</v>
       </c>
       <c r="D1110" t="s">
         <v>335</v>
@@ -20382,7 +20388,7 @@
         <v>339</v>
       </c>
       <c r="C1111" t="n">
-        <v>76.5</v>
+        <v>76.4</v>
       </c>
       <c r="D1111" t="s">
         <v>335</v>
@@ -20416,7 +20422,7 @@
         <v>341</v>
       </c>
       <c r="C1113" t="n">
-        <v>95.9</v>
+        <v>95.6</v>
       </c>
       <c r="D1113" t="s">
         <v>335</v>
@@ -20484,7 +20490,7 @@
         <v>345</v>
       </c>
       <c r="C1117" t="n">
-        <v>106.8</v>
+        <v>106.6</v>
       </c>
       <c r="D1117" t="s">
         <v>335</v>
@@ -20518,7 +20524,7 @@
         <v>347</v>
       </c>
       <c r="C1119" t="n">
-        <v>112.2</v>
+        <v>112.4</v>
       </c>
       <c r="D1119" t="s">
         <v>348</v>
@@ -20552,7 +20558,7 @@
         <v>350</v>
       </c>
       <c r="C1121" t="n">
-        <v>114.2</v>
+        <v>114</v>
       </c>
       <c r="D1121" t="s">
         <v>348</v>
@@ -20586,7 +20592,7 @@
         <v>352</v>
       </c>
       <c r="C1123" t="n">
-        <v>122.1</v>
+        <v>121.8</v>
       </c>
       <c r="D1123" t="s">
         <v>348</v>
@@ -20603,7 +20609,7 @@
         <v>353</v>
       </c>
       <c r="C1124" t="n">
-        <v>120.4</v>
+        <v>120.8</v>
       </c>
       <c r="D1124" t="s">
         <v>348</v>
@@ -20654,7 +20660,7 @@
         <v>356</v>
       </c>
       <c r="C1127" t="n">
-        <v>123</v>
+        <v>122.8</v>
       </c>
       <c r="D1127" t="s">
         <v>348</v>
@@ -20688,7 +20694,7 @@
         <v>358</v>
       </c>
       <c r="C1129" t="n">
-        <v>124.7</v>
+        <v>124.5</v>
       </c>
       <c r="D1129" t="s">
         <v>348</v>
@@ -20705,7 +20711,7 @@
         <v>359</v>
       </c>
       <c r="C1130" t="n">
-        <v>126.9</v>
+        <v>127</v>
       </c>
       <c r="D1130" t="s">
         <v>348</v>
@@ -20722,7 +20728,7 @@
         <v>360</v>
       </c>
       <c r="C1131" t="n">
-        <v>122.3</v>
+        <v>122.6</v>
       </c>
       <c r="D1131" t="s">
         <v>361</v>
@@ -20756,7 +20762,7 @@
         <v>363</v>
       </c>
       <c r="C1133" t="n">
-        <v>123.9</v>
+        <v>123.7</v>
       </c>
       <c r="D1133" t="s">
         <v>361</v>
@@ -20773,7 +20779,7 @@
         <v>364</v>
       </c>
       <c r="C1134" t="n">
-        <v>121</v>
+        <v>121.3</v>
       </c>
       <c r="D1134" t="s">
         <v>361</v>
@@ -20790,7 +20796,7 @@
         <v>365</v>
       </c>
       <c r="C1135" t="n">
-        <v>124.2</v>
+        <v>124</v>
       </c>
       <c r="D1135" t="s">
         <v>361</v>
@@ -20807,7 +20813,7 @@
         <v>366</v>
       </c>
       <c r="C1136" t="n">
-        <v>118.7</v>
+        <v>119</v>
       </c>
       <c r="D1136" t="s">
         <v>361</v>
@@ -20824,7 +20830,7 @@
         <v>367</v>
       </c>
       <c r="C1137" t="n">
-        <v>119.8</v>
+        <v>119.5</v>
       </c>
       <c r="D1137" t="s">
         <v>361</v>
@@ -20841,7 +20847,7 @@
         <v>368</v>
       </c>
       <c r="C1138" t="n">
-        <v>115</v>
+        <v>115.3</v>
       </c>
       <c r="D1138" t="s">
         <v>361</v>
@@ -20892,7 +20898,7 @@
         <v>371</v>
       </c>
       <c r="C1141" t="n">
-        <v>105</v>
+        <v>105.1</v>
       </c>
       <c r="D1141" t="s">
         <v>361</v>
@@ -20909,7 +20915,7 @@
         <v>372</v>
       </c>
       <c r="C1142" t="n">
-        <v>105.6</v>
+        <v>106</v>
       </c>
       <c r="D1142" t="s">
         <v>361</v>
@@ -20926,7 +20932,7 @@
         <v>373</v>
       </c>
       <c r="C1143" t="n">
-        <v>101</v>
+        <v>101.4</v>
       </c>
       <c r="D1143" t="s">
         <v>374</v>
@@ -20994,7 +21000,7 @@
         <v>378</v>
       </c>
       <c r="C1147" t="n">
-        <v>103.1</v>
+        <v>102.8</v>
       </c>
       <c r="D1147" t="s">
         <v>374</v>
@@ -21028,7 +21034,7 @@
         <v>380</v>
       </c>
       <c r="C1149" t="n">
-        <v>97.2</v>
+        <v>96.9</v>
       </c>
       <c r="D1149" t="s">
         <v>374</v>
@@ -21062,7 +21068,7 @@
         <v>209</v>
       </c>
       <c r="C1151" t="n">
-        <v>97.9</v>
+        <v>98</v>
       </c>
       <c r="D1151" t="s">
         <v>205</v>
@@ -21096,7 +21102,7 @@
         <v>211</v>
       </c>
       <c r="C1153" t="n">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="D1153" t="s">
         <v>205</v>
@@ -21215,7 +21221,7 @@
         <v>219</v>
       </c>
       <c r="C1160" t="n">
-        <v>109.3</v>
+        <v>109.4</v>
       </c>
       <c r="D1160" t="s">
         <v>218</v>
@@ -21266,7 +21272,7 @@
         <v>222</v>
       </c>
       <c r="C1163" t="n">
-        <v>109</v>
+        <v>109.1</v>
       </c>
       <c r="D1163" t="s">
         <v>218</v>
@@ -21317,7 +21323,7 @@
         <v>225</v>
       </c>
       <c r="C1166" t="n">
-        <v>101.9</v>
+        <v>102</v>
       </c>
       <c r="D1166" t="s">
         <v>218</v>
@@ -21334,7 +21340,7 @@
         <v>226</v>
       </c>
       <c r="C1167" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="D1167" t="s">
         <v>218</v>
@@ -21351,7 +21357,7 @@
         <v>227</v>
       </c>
       <c r="C1168" t="n">
-        <v>103</v>
+        <v>103.1</v>
       </c>
       <c r="D1168" t="s">
         <v>218</v>
@@ -21368,7 +21374,7 @@
         <v>228</v>
       </c>
       <c r="C1169" t="n">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
       <c r="D1169" t="s">
         <v>218</v>
@@ -21385,7 +21391,7 @@
         <v>229</v>
       </c>
       <c r="C1170" t="n">
-        <v>96.4</v>
+        <v>96.5</v>
       </c>
       <c r="D1170" t="s">
         <v>218</v>
@@ -21402,7 +21408,7 @@
         <v>230</v>
       </c>
       <c r="C1171" t="n">
-        <v>96.7</v>
+        <v>96.8</v>
       </c>
       <c r="D1171" t="s">
         <v>231</v>
@@ -21419,7 +21425,7 @@
         <v>232</v>
       </c>
       <c r="C1172" t="n">
-        <v>93.9</v>
+        <v>94.1</v>
       </c>
       <c r="D1172" t="s">
         <v>231</v>
@@ -21436,7 +21442,7 @@
         <v>233</v>
       </c>
       <c r="C1173" t="n">
-        <v>97.9</v>
+        <v>98.1</v>
       </c>
       <c r="D1173" t="s">
         <v>231</v>
@@ -21470,7 +21476,7 @@
         <v>235</v>
       </c>
       <c r="C1175" t="n">
-        <v>90</v>
+        <v>90.1</v>
       </c>
       <c r="D1175" t="s">
         <v>231</v>
@@ -21487,7 +21493,7 @@
         <v>236</v>
       </c>
       <c r="C1176" t="n">
-        <v>90.2</v>
+        <v>90.4</v>
       </c>
       <c r="D1176" t="s">
         <v>231</v>
@@ -21504,7 +21510,7 @@
         <v>237</v>
       </c>
       <c r="C1177" t="n">
-        <v>89.2</v>
+        <v>89.4</v>
       </c>
       <c r="D1177" t="s">
         <v>231</v>
@@ -21521,7 +21527,7 @@
         <v>238</v>
       </c>
       <c r="C1178" t="n">
-        <v>90.7</v>
+        <v>90.9</v>
       </c>
       <c r="D1178" t="s">
         <v>231</v>
@@ -21538,7 +21544,7 @@
         <v>239</v>
       </c>
       <c r="C1179" t="n">
-        <v>86.9</v>
+        <v>87.1</v>
       </c>
       <c r="D1179" t="s">
         <v>231</v>
@@ -21555,7 +21561,7 @@
         <v>240</v>
       </c>
       <c r="C1180" t="n">
-        <v>84.8</v>
+        <v>85</v>
       </c>
       <c r="D1180" t="s">
         <v>231</v>
@@ -21572,7 +21578,7 @@
         <v>241</v>
       </c>
       <c r="C1181" t="n">
-        <v>79.9</v>
+        <v>80.2</v>
       </c>
       <c r="D1181" t="s">
         <v>231</v>
@@ -21589,7 +21595,7 @@
         <v>242</v>
       </c>
       <c r="C1182" t="n">
-        <v>78.8</v>
+        <v>79</v>
       </c>
       <c r="D1182" t="s">
         <v>231</v>
@@ -21606,7 +21612,7 @@
         <v>243</v>
       </c>
       <c r="C1183" t="n">
-        <v>84.3</v>
+        <v>84.5</v>
       </c>
       <c r="D1183" t="s">
         <v>244</v>
@@ -21623,7 +21629,7 @@
         <v>245</v>
       </c>
       <c r="C1184" t="n">
-        <v>83.5</v>
+        <v>83.7</v>
       </c>
       <c r="D1184" t="s">
         <v>244</v>
@@ -21640,7 +21646,7 @@
         <v>246</v>
       </c>
       <c r="C1185" t="n">
-        <v>84.1</v>
+        <v>84.3</v>
       </c>
       <c r="D1185" t="s">
         <v>244</v>
@@ -21657,7 +21663,7 @@
         <v>247</v>
       </c>
       <c r="C1186" t="n">
-        <v>82.7</v>
+        <v>82.9</v>
       </c>
       <c r="D1186" t="s">
         <v>244</v>
@@ -21674,7 +21680,7 @@
         <v>248</v>
       </c>
       <c r="C1187" t="n">
-        <v>85.9</v>
+        <v>86.1</v>
       </c>
       <c r="D1187" t="s">
         <v>244</v>
@@ -21691,7 +21697,7 @@
         <v>249</v>
       </c>
       <c r="C1188" t="n">
-        <v>86.3</v>
+        <v>86.4</v>
       </c>
       <c r="D1188" t="s">
         <v>244</v>
@@ -21708,7 +21714,7 @@
         <v>250</v>
       </c>
       <c r="C1189" t="n">
-        <v>84.7</v>
+        <v>84.9</v>
       </c>
       <c r="D1189" t="s">
         <v>244</v>
@@ -21725,7 +21731,7 @@
         <v>251</v>
       </c>
       <c r="C1190" t="n">
-        <v>84.4</v>
+        <v>84.6</v>
       </c>
       <c r="D1190" t="s">
         <v>244</v>
@@ -21742,7 +21748,7 @@
         <v>252</v>
       </c>
       <c r="C1191" t="n">
-        <v>86.3</v>
+        <v>86.5</v>
       </c>
       <c r="D1191" t="s">
         <v>244</v>
@@ -21759,7 +21765,7 @@
         <v>253</v>
       </c>
       <c r="C1192" t="n">
-        <v>85</v>
+        <v>85.2</v>
       </c>
       <c r="D1192" t="s">
         <v>244</v>
@@ -21776,7 +21782,7 @@
         <v>254</v>
       </c>
       <c r="C1193" t="n">
-        <v>87.1</v>
+        <v>87.2</v>
       </c>
       <c r="D1193" t="s">
         <v>244</v>
@@ -21793,7 +21799,7 @@
         <v>255</v>
       </c>
       <c r="C1194" t="n">
-        <v>90.5</v>
+        <v>90.6</v>
       </c>
       <c r="D1194" t="s">
         <v>244</v>
@@ -21810,7 +21816,7 @@
         <v>256</v>
       </c>
       <c r="C1195" t="n">
-        <v>89.8</v>
+        <v>90</v>
       </c>
       <c r="D1195" t="s">
         <v>257</v>
@@ -21827,7 +21833,7 @@
         <v>258</v>
       </c>
       <c r="C1196" t="n">
-        <v>90.4</v>
+        <v>90.5</v>
       </c>
       <c r="D1196" t="s">
         <v>257</v>
@@ -21844,7 +21850,7 @@
         <v>259</v>
       </c>
       <c r="C1197" t="n">
-        <v>91.6</v>
+        <v>91.8</v>
       </c>
       <c r="D1197" t="s">
         <v>257</v>
@@ -21861,7 +21867,7 @@
         <v>260</v>
       </c>
       <c r="C1198" t="n">
-        <v>92.2</v>
+        <v>92.4</v>
       </c>
       <c r="D1198" t="s">
         <v>257</v>
@@ -21878,7 +21884,7 @@
         <v>261</v>
       </c>
       <c r="C1199" t="n">
-        <v>93.3</v>
+        <v>93.4</v>
       </c>
       <c r="D1199" t="s">
         <v>257</v>
@@ -21895,7 +21901,7 @@
         <v>262</v>
       </c>
       <c r="C1200" t="n">
-        <v>95.9</v>
+        <v>96</v>
       </c>
       <c r="D1200" t="s">
         <v>257</v>
@@ -21912,7 +21918,7 @@
         <v>263</v>
       </c>
       <c r="C1201" t="n">
-        <v>97.2</v>
+        <v>97.3</v>
       </c>
       <c r="D1201" t="s">
         <v>257</v>
@@ -21946,7 +21952,7 @@
         <v>265</v>
       </c>
       <c r="C1203" t="n">
-        <v>96.1</v>
+        <v>96.2</v>
       </c>
       <c r="D1203" t="s">
         <v>257</v>
@@ -21963,7 +21969,7 @@
         <v>266</v>
       </c>
       <c r="C1204" t="n">
-        <v>95.7</v>
+        <v>95.8</v>
       </c>
       <c r="D1204" t="s">
         <v>257</v>
@@ -21980,7 +21986,7 @@
         <v>267</v>
       </c>
       <c r="C1205" t="n">
-        <v>97.3</v>
+        <v>97.4</v>
       </c>
       <c r="D1205" t="s">
         <v>257</v>
@@ -21997,7 +22003,7 @@
         <v>268</v>
       </c>
       <c r="C1206" t="n">
-        <v>97</v>
+        <v>97.1</v>
       </c>
       <c r="D1206" t="s">
         <v>257</v>
@@ -22014,7 +22020,7 @@
         <v>269</v>
       </c>
       <c r="C1207" t="n">
-        <v>96.6</v>
+        <v>96.7</v>
       </c>
       <c r="D1207" t="s">
         <v>270</v>
@@ -22031,7 +22037,7 @@
         <v>271</v>
       </c>
       <c r="C1208" t="n">
-        <v>94.3</v>
+        <v>94.4</v>
       </c>
       <c r="D1208" t="s">
         <v>270</v>
@@ -22048,7 +22054,7 @@
         <v>272</v>
       </c>
       <c r="C1209" t="n">
-        <v>92.5</v>
+        <v>92.7</v>
       </c>
       <c r="D1209" t="s">
         <v>270</v>
@@ -22065,7 +22071,7 @@
         <v>273</v>
       </c>
       <c r="C1210" t="n">
-        <v>97.2</v>
+        <v>97.3</v>
       </c>
       <c r="D1210" t="s">
         <v>270</v>
@@ -22082,7 +22088,7 @@
         <v>274</v>
       </c>
       <c r="C1211" t="n">
-        <v>98.6</v>
+        <v>98.7</v>
       </c>
       <c r="D1211" t="s">
         <v>270</v>
@@ -22099,7 +22105,7 @@
         <v>275</v>
       </c>
       <c r="C1212" t="n">
-        <v>98.9</v>
+        <v>99</v>
       </c>
       <c r="D1212" t="s">
         <v>270</v>
@@ -22116,7 +22122,7 @@
         <v>276</v>
       </c>
       <c r="C1213" t="n">
-        <v>102.1</v>
+        <v>102.2</v>
       </c>
       <c r="D1213" t="s">
         <v>270</v>
@@ -22133,7 +22139,7 @@
         <v>277</v>
       </c>
       <c r="C1214" t="n">
-        <v>101.8</v>
+        <v>101.9</v>
       </c>
       <c r="D1214" t="s">
         <v>270</v>
@@ -22150,7 +22156,7 @@
         <v>278</v>
       </c>
       <c r="C1215" t="n">
-        <v>103.6</v>
+        <v>103.7</v>
       </c>
       <c r="D1215" t="s">
         <v>270</v>
@@ -22184,7 +22190,7 @@
         <v>280</v>
       </c>
       <c r="C1217" t="n">
-        <v>109.6</v>
+        <v>109.7</v>
       </c>
       <c r="D1217" t="s">
         <v>270</v>
@@ -22218,7 +22224,7 @@
         <v>282</v>
       </c>
       <c r="C1219" t="n">
-        <v>105.1</v>
+        <v>105.2</v>
       </c>
       <c r="D1219" t="s">
         <v>283</v>
@@ -22235,7 +22241,7 @@
         <v>284</v>
       </c>
       <c r="C1220" t="n">
-        <v>106.9</v>
+        <v>107</v>
       </c>
       <c r="D1220" t="s">
         <v>283</v>
@@ -22252,7 +22258,7 @@
         <v>285</v>
       </c>
       <c r="C1221" t="n">
-        <v>107.9</v>
+        <v>108</v>
       </c>
       <c r="D1221" t="s">
         <v>283</v>
@@ -22269,7 +22275,7 @@
         <v>286</v>
       </c>
       <c r="C1222" t="n">
-        <v>110.4</v>
+        <v>110.5</v>
       </c>
       <c r="D1222" t="s">
         <v>283</v>
@@ -22320,7 +22326,7 @@
         <v>289</v>
       </c>
       <c r="C1225" t="n">
-        <v>108.8</v>
+        <v>108.9</v>
       </c>
       <c r="D1225" t="s">
         <v>283</v>
@@ -22337,7 +22343,7 @@
         <v>290</v>
       </c>
       <c r="C1226" t="n">
-        <v>108.6</v>
+        <v>108.7</v>
       </c>
       <c r="D1226" t="s">
         <v>283</v>
@@ -22405,7 +22411,7 @@
         <v>294</v>
       </c>
       <c r="C1230" t="n">
-        <v>111.8</v>
+        <v>111.9</v>
       </c>
       <c r="D1230" t="s">
         <v>283</v>
@@ -22541,7 +22547,7 @@
         <v>303</v>
       </c>
       <c r="C1238" t="n">
-        <v>116.6</v>
+        <v>116.7</v>
       </c>
       <c r="D1238" t="s">
         <v>296</v>
@@ -22728,7 +22734,7 @@
         <v>315</v>
       </c>
       <c r="C1249" t="n">
-        <v>110.8</v>
+        <v>110.9</v>
       </c>
       <c r="D1249" t="s">
         <v>309</v>
@@ -22762,7 +22768,7 @@
         <v>317</v>
       </c>
       <c r="C1251" t="n">
-        <v>107.5</v>
+        <v>107.6</v>
       </c>
       <c r="D1251" t="s">
         <v>309</v>
@@ -22796,7 +22802,7 @@
         <v>319</v>
       </c>
       <c r="C1253" t="n">
-        <v>102.6</v>
+        <v>102.7</v>
       </c>
       <c r="D1253" t="s">
         <v>309</v>
@@ -22830,7 +22836,7 @@
         <v>321</v>
       </c>
       <c r="C1255" t="n">
-        <v>103.7</v>
+        <v>104.1</v>
       </c>
       <c r="D1255" t="s">
         <v>322</v>
@@ -22847,7 +22853,7 @@
         <v>323</v>
       </c>
       <c r="C1256" t="n">
-        <v>108</v>
+        <v>108.1</v>
       </c>
       <c r="D1256" t="s">
         <v>322</v>
@@ -22864,7 +22870,7 @@
         <v>324</v>
       </c>
       <c r="C1257" t="n">
-        <v>104</v>
+        <v>104.1</v>
       </c>
       <c r="D1257" t="s">
         <v>322</v>
@@ -22881,7 +22887,7 @@
         <v>325</v>
       </c>
       <c r="C1258" t="n">
-        <v>103.7</v>
+        <v>103.8</v>
       </c>
       <c r="D1258" t="s">
         <v>322</v>
@@ -22898,7 +22904,7 @@
         <v>326</v>
       </c>
       <c r="C1259" t="n">
-        <v>103.7</v>
+        <v>103.8</v>
       </c>
       <c r="D1259" t="s">
         <v>322</v>
@@ -22915,7 +22921,7 @@
         <v>327</v>
       </c>
       <c r="C1260" t="n">
-        <v>106.3</v>
+        <v>106.4</v>
       </c>
       <c r="D1260" t="s">
         <v>322</v>
@@ -22932,7 +22938,7 @@
         <v>328</v>
       </c>
       <c r="C1261" t="n">
-        <v>100.7</v>
+        <v>101.1</v>
       </c>
       <c r="D1261" t="s">
         <v>322</v>
@@ -22966,7 +22972,7 @@
         <v>330</v>
       </c>
       <c r="C1263" t="n">
-        <v>103</v>
+        <v>103.1</v>
       </c>
       <c r="D1263" t="s">
         <v>322</v>
@@ -22983,7 +22989,7 @@
         <v>331</v>
       </c>
       <c r="C1264" t="n">
-        <v>107.4</v>
+        <v>107.5</v>
       </c>
       <c r="D1264" t="s">
         <v>322</v>
@@ -23000,7 +23006,7 @@
         <v>332</v>
       </c>
       <c r="C1265" t="n">
-        <v>102.6</v>
+        <v>102.7</v>
       </c>
       <c r="D1265" t="s">
         <v>322</v>
@@ -23017,7 +23023,7 @@
         <v>333</v>
       </c>
       <c r="C1266" t="n">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="D1266" t="s">
         <v>322</v>
@@ -23034,7 +23040,7 @@
         <v>334</v>
       </c>
       <c r="C1267" t="n">
-        <v>105</v>
+        <v>105.3</v>
       </c>
       <c r="D1267" t="s">
         <v>335</v>
@@ -23051,7 +23057,7 @@
         <v>336</v>
       </c>
       <c r="C1268" t="n">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="D1268" t="s">
         <v>335</v>
@@ -23068,7 +23074,7 @@
         <v>337</v>
       </c>
       <c r="C1269" t="n">
-        <v>99.6</v>
+        <v>99.7</v>
       </c>
       <c r="D1269" t="s">
         <v>335</v>
@@ -23085,7 +23091,7 @@
         <v>338</v>
       </c>
       <c r="C1270" t="n">
-        <v>89.8</v>
+        <v>89.9</v>
       </c>
       <c r="D1270" t="s">
         <v>335</v>
@@ -23102,7 +23108,7 @@
         <v>339</v>
       </c>
       <c r="C1271" t="n">
-        <v>82</v>
+        <v>82.2</v>
       </c>
       <c r="D1271" t="s">
         <v>335</v>
@@ -23119,7 +23125,7 @@
         <v>340</v>
       </c>
       <c r="C1272" t="n">
-        <v>83.9</v>
+        <v>84.1</v>
       </c>
       <c r="D1272" t="s">
         <v>335</v>
@@ -23136,7 +23142,7 @@
         <v>341</v>
       </c>
       <c r="C1273" t="n">
-        <v>86.7</v>
+        <v>86.9</v>
       </c>
       <c r="D1273" t="s">
         <v>335</v>
@@ -23153,7 +23159,7 @@
         <v>342</v>
       </c>
       <c r="C1274" t="n">
-        <v>87.2</v>
+        <v>87.4</v>
       </c>
       <c r="D1274" t="s">
         <v>335</v>
@@ -23170,7 +23176,7 @@
         <v>343</v>
       </c>
       <c r="C1275" t="n">
-        <v>86.2</v>
+        <v>86.7</v>
       </c>
       <c r="D1275" t="s">
         <v>335</v>
@@ -23204,7 +23210,7 @@
         <v>345</v>
       </c>
       <c r="C1277" t="n">
-        <v>89.6</v>
+        <v>89.8</v>
       </c>
       <c r="D1277" t="s">
         <v>335</v>
@@ -23221,7 +23227,7 @@
         <v>346</v>
       </c>
       <c r="C1278" t="n">
-        <v>88.7</v>
+        <v>88.9</v>
       </c>
       <c r="D1278" t="s">
         <v>335</v>
@@ -23238,7 +23244,7 @@
         <v>347</v>
       </c>
       <c r="C1279" t="n">
-        <v>86.3</v>
+        <v>86.7</v>
       </c>
       <c r="D1279" t="s">
         <v>348</v>
@@ -23255,7 +23261,7 @@
         <v>349</v>
       </c>
       <c r="C1280" t="n">
-        <v>89.1</v>
+        <v>89</v>
       </c>
       <c r="D1280" t="s">
         <v>348</v>
@@ -23272,7 +23278,7 @@
         <v>350</v>
       </c>
       <c r="C1281" t="n">
-        <v>90.6</v>
+        <v>90.8</v>
       </c>
       <c r="D1281" t="s">
         <v>348</v>
@@ -23289,7 +23295,7 @@
         <v>351</v>
       </c>
       <c r="C1282" t="n">
-        <v>96.4</v>
+        <v>96.8</v>
       </c>
       <c r="D1282" t="s">
         <v>348</v>
@@ -23306,7 +23312,7 @@
         <v>352</v>
       </c>
       <c r="C1283" t="n">
-        <v>100.7</v>
+        <v>100.8</v>
       </c>
       <c r="D1283" t="s">
         <v>348</v>
@@ -23323,7 +23329,7 @@
         <v>353</v>
       </c>
       <c r="C1284" t="n">
-        <v>105.2</v>
+        <v>105.5</v>
       </c>
       <c r="D1284" t="s">
         <v>348</v>
@@ -23357,7 +23363,7 @@
         <v>355</v>
       </c>
       <c r="C1286" t="n">
-        <v>105.5</v>
+        <v>105.6</v>
       </c>
       <c r="D1286" t="s">
         <v>348</v>
@@ -23374,7 +23380,7 @@
         <v>356</v>
       </c>
       <c r="C1287" t="n">
-        <v>105.8</v>
+        <v>105.9</v>
       </c>
       <c r="D1287" t="s">
         <v>348</v>
@@ -23408,7 +23414,7 @@
         <v>358</v>
       </c>
       <c r="C1289" t="n">
-        <v>108.2</v>
+        <v>108.3</v>
       </c>
       <c r="D1289" t="s">
         <v>348</v>
@@ -23425,7 +23431,7 @@
         <v>359</v>
       </c>
       <c r="C1290" t="n">
-        <v>106</v>
+        <v>105.9</v>
       </c>
       <c r="D1290" t="s">
         <v>348</v>
@@ -23442,7 +23448,7 @@
         <v>360</v>
       </c>
       <c r="C1291" t="n">
-        <v>109.8</v>
+        <v>110.3</v>
       </c>
       <c r="D1291" t="s">
         <v>361</v>
@@ -23493,7 +23499,7 @@
         <v>364</v>
       </c>
       <c r="C1294" t="n">
-        <v>106.1</v>
+        <v>106.2</v>
       </c>
       <c r="D1294" t="s">
         <v>361</v>
@@ -23510,7 +23516,7 @@
         <v>365</v>
       </c>
       <c r="C1295" t="n">
-        <v>105.2</v>
+        <v>105</v>
       </c>
       <c r="D1295" t="s">
         <v>361</v>
@@ -23527,7 +23533,7 @@
         <v>366</v>
       </c>
       <c r="C1296" t="n">
-        <v>103.9</v>
+        <v>104.2</v>
       </c>
       <c r="D1296" t="s">
         <v>361</v>
@@ -23544,7 +23550,7 @@
         <v>367</v>
       </c>
       <c r="C1297" t="n">
-        <v>102.3</v>
+        <v>102.4</v>
       </c>
       <c r="D1297" t="s">
         <v>361</v>
@@ -23561,7 +23567,7 @@
         <v>368</v>
       </c>
       <c r="C1298" t="n">
-        <v>101.9</v>
+        <v>102</v>
       </c>
       <c r="D1298" t="s">
         <v>361</v>
@@ -23578,7 +23584,7 @@
         <v>369</v>
       </c>
       <c r="C1299" t="n">
-        <v>102.3</v>
+        <v>102.4</v>
       </c>
       <c r="D1299" t="s">
         <v>361</v>
@@ -23595,7 +23601,7 @@
         <v>370</v>
       </c>
       <c r="C1300" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
       <c r="D1300" t="s">
         <v>361</v>
@@ -23612,7 +23618,7 @@
         <v>371</v>
       </c>
       <c r="C1301" t="n">
-        <v>97.8</v>
+        <v>97.7</v>
       </c>
       <c r="D1301" t="s">
         <v>361</v>
@@ -23629,7 +23635,7 @@
         <v>372</v>
       </c>
       <c r="C1302" t="n">
-        <v>97.8</v>
+        <v>97.6</v>
       </c>
       <c r="D1302" t="s">
         <v>361</v>
@@ -23646,7 +23652,7 @@
         <v>373</v>
       </c>
       <c r="C1303" t="n">
-        <v>94.9</v>
+        <v>95.5</v>
       </c>
       <c r="D1303" t="s">
         <v>374</v>
@@ -23663,7 +23669,7 @@
         <v>375</v>
       </c>
       <c r="C1304" t="n">
-        <v>91</v>
+        <v>90.9</v>
       </c>
       <c r="D1304" t="s">
         <v>374</v>
@@ -23680,7 +23686,7 @@
         <v>376</v>
       </c>
       <c r="C1305" t="n">
-        <v>92.2</v>
+        <v>92.4</v>
       </c>
       <c r="D1305" t="s">
         <v>374</v>
@@ -23697,7 +23703,7 @@
         <v>377</v>
       </c>
       <c r="C1306" t="n">
-        <v>92.5</v>
+        <v>92.6</v>
       </c>
       <c r="D1306" t="s">
         <v>374</v>
@@ -23714,7 +23720,7 @@
         <v>378</v>
       </c>
       <c r="C1307" t="n">
-        <v>94.7</v>
+        <v>94.8</v>
       </c>
       <c r="D1307" t="s">
         <v>374</v>
@@ -23731,7 +23737,7 @@
         <v>379</v>
       </c>
       <c r="C1308" t="n">
-        <v>88.1</v>
+        <v>88.8</v>
       </c>
       <c r="D1308" t="s">
         <v>374</v>
@@ -23748,7 +23754,7 @@
         <v>380</v>
       </c>
       <c r="C1309" t="n">
-        <v>82.8</v>
+        <v>83</v>
       </c>
       <c r="D1309" t="s">
         <v>374</v>
@@ -23765,7 +23771,7 @@
         <v>381</v>
       </c>
       <c r="C1310" t="n">
-        <v>84.9</v>
+        <v>85.1</v>
       </c>
       <c r="D1310" t="s">
         <v>374</v>
@@ -23833,7 +23839,7 @@
         <v>206</v>
       </c>
       <c r="C1314" t="n">
-        <v>116.6</v>
+        <v>116.7</v>
       </c>
       <c r="D1314" t="s">
         <v>205</v>
@@ -23867,7 +23873,7 @@
         <v>208</v>
       </c>
       <c r="C1316" t="n">
-        <v>118.4</v>
+        <v>118.5</v>
       </c>
       <c r="D1316" t="s">
         <v>205</v>
@@ -23969,7 +23975,7 @@
         <v>214</v>
       </c>
       <c r="C1322" t="n">
-        <v>110.5</v>
+        <v>110.6</v>
       </c>
       <c r="D1322" t="s">
         <v>205</v>
@@ -24207,7 +24213,7 @@
         <v>229</v>
       </c>
       <c r="C1336" t="n">
-        <v>86.4</v>
+        <v>86.3</v>
       </c>
       <c r="D1336" t="s">
         <v>218</v>
@@ -24445,7 +24451,7 @@
         <v>245</v>
       </c>
       <c r="C1350" t="n">
-        <v>95.5</v>
+        <v>95.8</v>
       </c>
       <c r="D1350" t="s">
         <v>244</v>
@@ -24632,7 +24638,7 @@
         <v>256</v>
       </c>
       <c r="C1361" t="n">
-        <v>105</v>
+        <v>105.2</v>
       </c>
       <c r="D1361" t="s">
         <v>257</v>
@@ -24666,7 +24672,7 @@
         <v>259</v>
       </c>
       <c r="C1363" t="n">
-        <v>106.1</v>
+        <v>106.2</v>
       </c>
       <c r="D1363" t="s">
         <v>257</v>
@@ -24700,7 +24706,7 @@
         <v>261</v>
       </c>
       <c r="C1365" t="n">
-        <v>108.7</v>
+        <v>108.8</v>
       </c>
       <c r="D1365" t="s">
         <v>257</v>
@@ -24717,7 +24723,7 @@
         <v>262</v>
       </c>
       <c r="C1366" t="n">
-        <v>107.8</v>
+        <v>107.9</v>
       </c>
       <c r="D1366" t="s">
         <v>257</v>
@@ -24785,7 +24791,7 @@
         <v>266</v>
       </c>
       <c r="C1370" t="n">
-        <v>107</v>
+        <v>107.1</v>
       </c>
       <c r="D1370" t="s">
         <v>257</v>
@@ -24870,7 +24876,7 @@
         <v>272</v>
       </c>
       <c r="C1375" t="n">
-        <v>108.1</v>
+        <v>107.9</v>
       </c>
       <c r="D1375" t="s">
         <v>270</v>
@@ -24904,7 +24910,7 @@
         <v>274</v>
       </c>
       <c r="C1377" t="n">
-        <v>110.5</v>
+        <v>110.6</v>
       </c>
       <c r="D1377" t="s">
         <v>270</v>
@@ -24921,7 +24927,7 @@
         <v>275</v>
       </c>
       <c r="C1378" t="n">
-        <v>108.7</v>
+        <v>108.8</v>
       </c>
       <c r="D1378" t="s">
         <v>270</v>
@@ -24955,7 +24961,7 @@
         <v>277</v>
       </c>
       <c r="C1380" t="n">
-        <v>111.6</v>
+        <v>111.7</v>
       </c>
       <c r="D1380" t="s">
         <v>270</v>
@@ -24989,7 +24995,7 @@
         <v>279</v>
       </c>
       <c r="C1382" t="n">
-        <v>111.6</v>
+        <v>111.7</v>
       </c>
       <c r="D1382" t="s">
         <v>270</v>
@@ -25108,7 +25114,7 @@
         <v>287</v>
       </c>
       <c r="C1389" t="n">
-        <v>106.4</v>
+        <v>106.5</v>
       </c>
       <c r="D1389" t="s">
         <v>283</v>
@@ -25244,7 +25250,7 @@
         <v>295</v>
       </c>
       <c r="C1397" t="n">
-        <v>99</v>
+        <v>98.6</v>
       </c>
       <c r="D1397" t="s">
         <v>296</v>
@@ -25261,7 +25267,7 @@
         <v>297</v>
       </c>
       <c r="C1398" t="n">
-        <v>102.5</v>
+        <v>102.6</v>
       </c>
       <c r="D1398" t="s">
         <v>296</v>
@@ -25295,7 +25301,7 @@
         <v>299</v>
       </c>
       <c r="C1400" t="n">
-        <v>101.5</v>
+        <v>101.6</v>
       </c>
       <c r="D1400" t="s">
         <v>296</v>
@@ -25312,7 +25318,7 @@
         <v>300</v>
       </c>
       <c r="C1401" t="n">
-        <v>101</v>
+        <v>100.8</v>
       </c>
       <c r="D1401" t="s">
         <v>296</v>
@@ -25329,7 +25335,7 @@
         <v>301</v>
       </c>
       <c r="C1402" t="n">
-        <v>106.1</v>
+        <v>106.2</v>
       </c>
       <c r="D1402" t="s">
         <v>296</v>
@@ -25482,7 +25488,7 @@
         <v>311</v>
       </c>
       <c r="C1411" t="n">
-        <v>105.2</v>
+        <v>105.3</v>
       </c>
       <c r="D1411" t="s">
         <v>309</v>
@@ -25499,7 +25505,7 @@
         <v>312</v>
       </c>
       <c r="C1412" t="n">
-        <v>102</v>
+        <v>101.8</v>
       </c>
       <c r="D1412" t="s">
         <v>309</v>
@@ -25533,7 +25539,7 @@
         <v>314</v>
       </c>
       <c r="C1414" t="n">
-        <v>105.2</v>
+        <v>105.6</v>
       </c>
       <c r="D1414" t="s">
         <v>309</v>
@@ -25686,7 +25692,7 @@
         <v>324</v>
       </c>
       <c r="C1423" t="n">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
       <c r="D1423" t="s">
         <v>322</v>
@@ -25737,7 +25743,7 @@
         <v>327</v>
       </c>
       <c r="C1426" t="n">
-        <v>101.8</v>
+        <v>102.2</v>
       </c>
       <c r="D1426" t="s">
         <v>322</v>
@@ -25788,7 +25794,7 @@
         <v>330</v>
       </c>
       <c r="C1429" t="n">
-        <v>101.6</v>
+        <v>102.1</v>
       </c>
       <c r="D1429" t="s">
         <v>322</v>
@@ -25805,7 +25811,7 @@
         <v>331</v>
       </c>
       <c r="C1430" t="n">
-        <v>102.1</v>
+        <v>102</v>
       </c>
       <c r="D1430" t="s">
         <v>322</v>
@@ -25856,7 +25862,7 @@
         <v>334</v>
       </c>
       <c r="C1433" t="n">
-        <v>108.2</v>
+        <v>108</v>
       </c>
       <c r="D1433" t="s">
         <v>335</v>
@@ -25907,7 +25913,7 @@
         <v>338</v>
       </c>
       <c r="C1436" t="n">
-        <v>74.8</v>
+        <v>75.5</v>
       </c>
       <c r="D1436" t="s">
         <v>335</v>
@@ -25924,7 +25930,7 @@
         <v>339</v>
       </c>
       <c r="C1437" t="n">
-        <v>77.7</v>
+        <v>77.6</v>
       </c>
       <c r="D1437" t="s">
         <v>335</v>
@@ -25941,7 +25947,7 @@
         <v>340</v>
       </c>
       <c r="C1438" t="n">
-        <v>84.7</v>
+        <v>84.6</v>
       </c>
       <c r="D1438" t="s">
         <v>335</v>
@@ -25958,7 +25964,7 @@
         <v>341</v>
       </c>
       <c r="C1439" t="n">
-        <v>94.6</v>
+        <v>94.3</v>
       </c>
       <c r="D1439" t="s">
         <v>335</v>
@@ -25992,7 +25998,7 @@
         <v>343</v>
       </c>
       <c r="C1441" t="n">
-        <v>103.4</v>
+        <v>103.7</v>
       </c>
       <c r="D1441" t="s">
         <v>335</v>
@@ -26060,7 +26066,7 @@
         <v>347</v>
       </c>
       <c r="C1445" t="n">
-        <v>98</v>
+        <v>97.8</v>
       </c>
       <c r="D1445" t="s">
         <v>348</v>
@@ -26128,7 +26134,7 @@
         <v>352</v>
       </c>
       <c r="C1449" t="n">
-        <v>107.4</v>
+        <v>107.1</v>
       </c>
       <c r="D1449" t="s">
         <v>348</v>
@@ -26196,7 +26202,7 @@
         <v>356</v>
       </c>
       <c r="C1453" t="n">
-        <v>115.5</v>
+        <v>115.9</v>
       </c>
       <c r="D1453" t="s">
         <v>348</v>
@@ -26213,7 +26219,7 @@
         <v>357</v>
       </c>
       <c r="C1454" t="n">
-        <v>117.7</v>
+        <v>117.6</v>
       </c>
       <c r="D1454" t="s">
         <v>348</v>
@@ -26230,7 +26236,7 @@
         <v>358</v>
       </c>
       <c r="C1455" t="n">
-        <v>119.2</v>
+        <v>118.6</v>
       </c>
       <c r="D1455" t="s">
         <v>348</v>
@@ -26247,7 +26253,7 @@
         <v>359</v>
       </c>
       <c r="C1456" t="n">
-        <v>115</v>
+        <v>115.3</v>
       </c>
       <c r="D1456" t="s">
         <v>348</v>
@@ -26264,7 +26270,7 @@
         <v>360</v>
       </c>
       <c r="C1457" t="n">
-        <v>105.4</v>
+        <v>105.3</v>
       </c>
       <c r="D1457" t="s">
         <v>361</v>
@@ -26298,7 +26304,7 @@
         <v>363</v>
       </c>
       <c r="C1459" t="n">
-        <v>111</v>
+        <v>111.6</v>
       </c>
       <c r="D1459" t="s">
         <v>361</v>
@@ -26315,7 +26321,7 @@
         <v>364</v>
       </c>
       <c r="C1460" t="n">
-        <v>110.2</v>
+        <v>110.6</v>
       </c>
       <c r="D1460" t="s">
         <v>361</v>
@@ -26332,7 +26338,7 @@
         <v>365</v>
       </c>
       <c r="C1461" t="n">
-        <v>109</v>
+        <v>108.7</v>
       </c>
       <c r="D1461" t="s">
         <v>361</v>
@@ -26349,7 +26355,7 @@
         <v>366</v>
       </c>
       <c r="C1462" t="n">
-        <v>101.2</v>
+        <v>101.1</v>
       </c>
       <c r="D1462" t="s">
         <v>361</v>
@@ -26366,7 +26372,7 @@
         <v>367</v>
       </c>
       <c r="C1463" t="n">
-        <v>91.5</v>
+        <v>91.9</v>
       </c>
       <c r="D1463" t="s">
         <v>361</v>
@@ -26383,7 +26389,7 @@
         <v>368</v>
       </c>
       <c r="C1464" t="n">
-        <v>91.7</v>
+        <v>91.6</v>
       </c>
       <c r="D1464" t="s">
         <v>361</v>
@@ -26400,7 +26406,7 @@
         <v>369</v>
       </c>
       <c r="C1465" t="n">
-        <v>85.3</v>
+        <v>85.4</v>
       </c>
       <c r="D1465" t="s">
         <v>361</v>
@@ -26417,7 +26423,7 @@
         <v>370</v>
       </c>
       <c r="C1466" t="n">
-        <v>77.9</v>
+        <v>78.1</v>
       </c>
       <c r="D1466" t="s">
         <v>361</v>
@@ -26434,7 +26440,7 @@
         <v>371</v>
       </c>
       <c r="C1467" t="n">
-        <v>79.4</v>
+        <v>79.5</v>
       </c>
       <c r="D1467" t="s">
         <v>361</v>
@@ -26451,7 +26457,7 @@
         <v>372</v>
       </c>
       <c r="C1468" t="n">
-        <v>78.2</v>
+        <v>78.4</v>
       </c>
       <c r="D1468" t="s">
         <v>361</v>
@@ -26468,7 +26474,7 @@
         <v>373</v>
       </c>
       <c r="C1469" t="n">
-        <v>80.3</v>
+        <v>80</v>
       </c>
       <c r="D1469" t="s">
         <v>374</v>
@@ -26485,7 +26491,7 @@
         <v>375</v>
       </c>
       <c r="C1470" t="n">
-        <v>80</v>
+        <v>79.5</v>
       </c>
       <c r="D1470" t="s">
         <v>374</v>
@@ -26502,7 +26508,7 @@
         <v>376</v>
       </c>
       <c r="C1471" t="n">
-        <v>82.5</v>
+        <v>82.2</v>
       </c>
       <c r="D1471" t="s">
         <v>374</v>
@@ -26519,7 +26525,7 @@
         <v>377</v>
       </c>
       <c r="C1472" t="n">
-        <v>80.4</v>
+        <v>80.3</v>
       </c>
       <c r="D1472" t="s">
         <v>374</v>
@@ -26536,7 +26542,7 @@
         <v>378</v>
       </c>
       <c r="C1473" t="n">
-        <v>86.2</v>
+        <v>85.9</v>
       </c>
       <c r="D1473" t="s">
         <v>374</v>
@@ -26570,7 +26576,7 @@
         <v>380</v>
       </c>
       <c r="C1475" t="n">
-        <v>88</v>
+        <v>88.3</v>
       </c>
       <c r="D1475" t="s">
         <v>374</v>
@@ -26604,7 +26610,7 @@
         <v>202</v>
       </c>
       <c r="C1477" t="n">
-        <v>96.2</v>
+        <v>96.3</v>
       </c>
       <c r="D1477" t="s">
         <v>182</v>
@@ -26774,7 +26780,7 @@
         <v>213</v>
       </c>
       <c r="C1487" t="n">
-        <v>112.4</v>
+        <v>112.5</v>
       </c>
       <c r="D1487" t="s">
         <v>205</v>
@@ -26859,7 +26865,7 @@
         <v>219</v>
       </c>
       <c r="C1492" t="n">
-        <v>117.4</v>
+        <v>117.5</v>
       </c>
       <c r="D1492" t="s">
         <v>218</v>
@@ -26927,7 +26933,7 @@
         <v>223</v>
       </c>
       <c r="C1496" t="n">
-        <v>107.6</v>
+        <v>107.7</v>
       </c>
       <c r="D1496" t="s">
         <v>218</v>
@@ -27012,7 +27018,7 @@
         <v>228</v>
       </c>
       <c r="C1501" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="D1501" t="s">
         <v>218</v>
@@ -27046,7 +27052,7 @@
         <v>230</v>
       </c>
       <c r="C1503" t="n">
-        <v>92.1</v>
+        <v>92.2</v>
       </c>
       <c r="D1503" t="s">
         <v>231</v>
@@ -27063,7 +27069,7 @@
         <v>232</v>
       </c>
       <c r="C1504" t="n">
-        <v>92.7</v>
+        <v>92.8</v>
       </c>
       <c r="D1504" t="s">
         <v>231</v>
@@ -27148,7 +27154,7 @@
         <v>237</v>
       </c>
       <c r="C1509" t="n">
-        <v>92.2</v>
+        <v>92.3</v>
       </c>
       <c r="D1509" t="s">
         <v>231</v>
@@ -27318,7 +27324,7 @@
         <v>248</v>
       </c>
       <c r="C1519" t="n">
-        <v>96.1</v>
+        <v>96.2</v>
       </c>
       <c r="D1519" t="s">
         <v>244</v>
@@ -27335,7 +27341,7 @@
         <v>249</v>
       </c>
       <c r="C1520" t="n">
-        <v>98</v>
+        <v>98.1</v>
       </c>
       <c r="D1520" t="s">
         <v>244</v>
@@ -27471,7 +27477,7 @@
         <v>258</v>
       </c>
       <c r="C1528" t="n">
-        <v>105.2</v>
+        <v>105.3</v>
       </c>
       <c r="D1528" t="s">
         <v>257</v>
@@ -27556,7 +27562,7 @@
         <v>263</v>
       </c>
       <c r="C1533" t="n">
-        <v>101</v>
+        <v>101.1</v>
       </c>
       <c r="D1533" t="s">
         <v>257</v>
@@ -27607,7 +27613,7 @@
         <v>266</v>
       </c>
       <c r="C1536" t="n">
-        <v>101.6</v>
+        <v>101.7</v>
       </c>
       <c r="D1536" t="s">
         <v>257</v>
@@ -27641,7 +27647,7 @@
         <v>268</v>
       </c>
       <c r="C1538" t="n">
-        <v>104.3</v>
+        <v>104.4</v>
       </c>
       <c r="D1538" t="s">
         <v>257</v>
@@ -27692,7 +27698,7 @@
         <v>272</v>
       </c>
       <c r="C1541" t="n">
-        <v>103.2</v>
+        <v>103.3</v>
       </c>
       <c r="D1541" t="s">
         <v>270</v>
@@ -27777,7 +27783,7 @@
         <v>277</v>
       </c>
       <c r="C1546" t="n">
-        <v>105.1</v>
+        <v>105.2</v>
       </c>
       <c r="D1546" t="s">
         <v>270</v>
@@ -27794,7 +27800,7 @@
         <v>278</v>
       </c>
       <c r="C1547" t="n">
-        <v>104.9</v>
+        <v>105</v>
       </c>
       <c r="D1547" t="s">
         <v>270</v>
@@ -27845,7 +27851,7 @@
         <v>281</v>
       </c>
       <c r="C1550" t="n">
-        <v>104.4</v>
+        <v>104.5</v>
       </c>
       <c r="D1550" t="s">
         <v>270</v>
@@ -27862,7 +27868,7 @@
         <v>282</v>
       </c>
       <c r="C1551" t="n">
-        <v>104.1</v>
+        <v>104.2</v>
       </c>
       <c r="D1551" t="s">
         <v>283</v>
@@ -28134,7 +28140,7 @@
         <v>300</v>
       </c>
       <c r="C1567" t="n">
-        <v>106.5</v>
+        <v>106.7</v>
       </c>
       <c r="D1567" t="s">
         <v>296</v>
@@ -28185,7 +28191,7 @@
         <v>303</v>
       </c>
       <c r="C1570" t="n">
-        <v>106.2</v>
+        <v>106.3</v>
       </c>
       <c r="D1570" t="s">
         <v>296</v>
@@ -28525,7 +28531,7 @@
         <v>325</v>
       </c>
       <c r="C1590" t="n">
-        <v>101.8</v>
+        <v>101.9</v>
       </c>
       <c r="D1590" t="s">
         <v>322</v>
@@ -28542,7 +28548,7 @@
         <v>326</v>
       </c>
       <c r="C1591" t="n">
-        <v>102.1</v>
+        <v>102.2</v>
       </c>
       <c r="D1591" t="s">
         <v>322</v>
@@ -28593,7 +28599,7 @@
         <v>329</v>
       </c>
       <c r="C1594" t="n">
-        <v>97.2</v>
+        <v>97.3</v>
       </c>
       <c r="D1594" t="s">
         <v>322</v>
@@ -28644,7 +28650,7 @@
         <v>332</v>
       </c>
       <c r="C1597" t="n">
-        <v>94.2</v>
+        <v>94.3</v>
       </c>
       <c r="D1597" t="s">
         <v>322</v>
@@ -28763,7 +28769,7 @@
         <v>340</v>
       </c>
       <c r="C1604" t="n">
-        <v>63.8</v>
+        <v>63.6</v>
       </c>
       <c r="D1604" t="s">
         <v>335</v>
@@ -28797,7 +28803,7 @@
         <v>342</v>
       </c>
       <c r="C1606" t="n">
-        <v>79.6</v>
+        <v>79.4</v>
       </c>
       <c r="D1606" t="s">
         <v>335</v>
@@ -28848,7 +28854,7 @@
         <v>345</v>
       </c>
       <c r="C1609" t="n">
-        <v>89.3</v>
+        <v>89.5</v>
       </c>
       <c r="D1609" t="s">
         <v>335</v>
@@ -28865,7 +28871,7 @@
         <v>346</v>
       </c>
       <c r="C1610" t="n">
-        <v>87.8</v>
+        <v>88</v>
       </c>
       <c r="D1610" t="s">
         <v>335</v>
@@ -28882,7 +28888,7 @@
         <v>347</v>
       </c>
       <c r="C1611" t="n">
-        <v>93</v>
+        <v>92.8</v>
       </c>
       <c r="D1611" t="s">
         <v>348</v>
@@ -28916,7 +28922,7 @@
         <v>350</v>
       </c>
       <c r="C1613" t="n">
-        <v>96.8</v>
+        <v>97.3</v>
       </c>
       <c r="D1613" t="s">
         <v>348</v>
@@ -28984,7 +28990,7 @@
         <v>354</v>
       </c>
       <c r="C1617" t="n">
-        <v>113</v>
+        <v>112.9</v>
       </c>
       <c r="D1617" t="s">
         <v>348</v>
@@ -29001,7 +29007,7 @@
         <v>355</v>
       </c>
       <c r="C1618" t="n">
-        <v>111.7</v>
+        <v>111.4</v>
       </c>
       <c r="D1618" t="s">
         <v>348</v>
@@ -29018,7 +29024,7 @@
         <v>356</v>
       </c>
       <c r="C1619" t="n">
-        <v>111.7</v>
+        <v>111.6</v>
       </c>
       <c r="D1619" t="s">
         <v>348</v>
@@ -29035,7 +29041,7 @@
         <v>357</v>
       </c>
       <c r="C1620" t="n">
-        <v>113.3</v>
+        <v>113.5</v>
       </c>
       <c r="D1620" t="s">
         <v>348</v>
@@ -29069,7 +29075,7 @@
         <v>359</v>
       </c>
       <c r="C1622" t="n">
-        <v>111.4</v>
+        <v>111.9</v>
       </c>
       <c r="D1622" t="s">
         <v>348</v>
@@ -29103,7 +29109,7 @@
         <v>362</v>
       </c>
       <c r="C1624" t="n">
-        <v>107.7</v>
+        <v>107.9</v>
       </c>
       <c r="D1624" t="s">
         <v>361</v>
@@ -29120,7 +29126,7 @@
         <v>363</v>
       </c>
       <c r="C1625" t="n">
-        <v>109.3</v>
+        <v>109.4</v>
       </c>
       <c r="D1625" t="s">
         <v>361</v>
@@ -29154,7 +29160,7 @@
         <v>365</v>
       </c>
       <c r="C1627" t="n">
-        <v>107.7</v>
+        <v>107.8</v>
       </c>
       <c r="D1627" t="s">
         <v>361</v>
@@ -29171,7 +29177,7 @@
         <v>366</v>
       </c>
       <c r="C1628" t="n">
-        <v>104.2</v>
+        <v>104.1</v>
       </c>
       <c r="D1628" t="s">
         <v>361</v>
@@ -29188,7 +29194,7 @@
         <v>367</v>
       </c>
       <c r="C1629" t="n">
-        <v>102.2</v>
+        <v>101.8</v>
       </c>
       <c r="D1629" t="s">
         <v>361</v>
@@ -29205,7 +29211,7 @@
         <v>368</v>
       </c>
       <c r="C1630" t="n">
-        <v>97.3</v>
+        <v>97.4</v>
       </c>
       <c r="D1630" t="s">
         <v>361</v>
@@ -29222,7 +29228,7 @@
         <v>369</v>
       </c>
       <c r="C1631" t="n">
-        <v>94.9</v>
+        <v>94.7</v>
       </c>
       <c r="D1631" t="s">
         <v>361</v>
@@ -29256,7 +29262,7 @@
         <v>371</v>
       </c>
       <c r="C1633" t="n">
-        <v>88.7</v>
+        <v>88.9</v>
       </c>
       <c r="D1633" t="s">
         <v>361</v>
@@ -29273,7 +29279,7 @@
         <v>372</v>
       </c>
       <c r="C1634" t="n">
-        <v>89.2</v>
+        <v>89.9</v>
       </c>
       <c r="D1634" t="s">
         <v>361</v>
@@ -29290,7 +29296,7 @@
         <v>373</v>
       </c>
       <c r="C1635" t="n">
-        <v>88.2</v>
+        <v>88.5</v>
       </c>
       <c r="D1635" t="s">
         <v>374</v>
@@ -29307,7 +29313,7 @@
         <v>375</v>
       </c>
       <c r="C1636" t="n">
-        <v>90.7</v>
+        <v>91.1</v>
       </c>
       <c r="D1636" t="s">
         <v>374</v>
@@ -29392,7 +29398,7 @@
         <v>380</v>
       </c>
       <c r="C1641" t="n">
-        <v>90.9</v>
+        <v>90.8</v>
       </c>
       <c r="D1641" t="s">
         <v>374</v>
@@ -29426,7 +29432,7 @@
         <v>202</v>
       </c>
       <c r="C1643" t="n">
-        <v>104.9</v>
+        <v>105</v>
       </c>
       <c r="D1643" t="s">
         <v>182</v>
@@ -29460,7 +29466,7 @@
         <v>204</v>
       </c>
       <c r="C1645" t="n">
-        <v>101.5</v>
+        <v>101.6</v>
       </c>
       <c r="D1645" t="s">
         <v>205</v>
@@ -29477,7 +29483,7 @@
         <v>206</v>
       </c>
       <c r="C1646" t="n">
-        <v>104.8</v>
+        <v>104.9</v>
       </c>
       <c r="D1646" t="s">
         <v>205</v>
@@ -29511,7 +29517,7 @@
         <v>208</v>
       </c>
       <c r="C1648" t="n">
-        <v>106.9</v>
+        <v>107</v>
       </c>
       <c r="D1648" t="s">
         <v>205</v>
@@ -29545,7 +29551,7 @@
         <v>210</v>
       </c>
       <c r="C1650" t="n">
-        <v>108.8</v>
+        <v>108.9</v>
       </c>
       <c r="D1650" t="s">
         <v>205</v>
@@ -29562,7 +29568,7 @@
         <v>211</v>
       </c>
       <c r="C1651" t="n">
-        <v>107.7</v>
+        <v>107.8</v>
       </c>
       <c r="D1651" t="s">
         <v>205</v>
@@ -29579,7 +29585,7 @@
         <v>212</v>
       </c>
       <c r="C1652" t="n">
-        <v>109.3</v>
+        <v>109.4</v>
       </c>
       <c r="D1652" t="s">
         <v>205</v>
@@ -29596,7 +29602,7 @@
         <v>213</v>
       </c>
       <c r="C1653" t="n">
-        <v>112.9</v>
+        <v>113</v>
       </c>
       <c r="D1653" t="s">
         <v>205</v>
@@ -29630,7 +29636,7 @@
         <v>215</v>
       </c>
       <c r="C1655" t="n">
-        <v>111.1</v>
+        <v>111.2</v>
       </c>
       <c r="D1655" t="s">
         <v>205</v>
@@ -29647,7 +29653,7 @@
         <v>216</v>
       </c>
       <c r="C1656" t="n">
-        <v>111.2</v>
+        <v>111.3</v>
       </c>
       <c r="D1656" t="s">
         <v>205</v>
@@ -29664,7 +29670,7 @@
         <v>217</v>
       </c>
       <c r="C1657" t="n">
-        <v>110.9</v>
+        <v>111</v>
       </c>
       <c r="D1657" t="s">
         <v>218</v>
@@ -29715,7 +29721,7 @@
         <v>221</v>
       </c>
       <c r="C1660" t="n">
-        <v>105.2</v>
+        <v>105.3</v>
       </c>
       <c r="D1660" t="s">
         <v>218</v>
@@ -29749,7 +29755,7 @@
         <v>223</v>
       </c>
       <c r="C1662" t="n">
-        <v>105.4</v>
+        <v>105.5</v>
       </c>
       <c r="D1662" t="s">
         <v>218</v>
@@ -29766,7 +29772,7 @@
         <v>224</v>
       </c>
       <c r="C1663" t="n">
-        <v>102.1</v>
+        <v>102.2</v>
       </c>
       <c r="D1663" t="s">
         <v>218</v>
@@ -29783,7 +29789,7 @@
         <v>225</v>
       </c>
       <c r="C1664" t="n">
-        <v>97.2</v>
+        <v>97.3</v>
       </c>
       <c r="D1664" t="s">
         <v>218</v>
@@ -29800,7 +29806,7 @@
         <v>226</v>
       </c>
       <c r="C1665" t="n">
-        <v>93.2</v>
+        <v>93.3</v>
       </c>
       <c r="D1665" t="s">
         <v>218</v>
@@ -29851,7 +29857,7 @@
         <v>229</v>
       </c>
       <c r="C1668" t="n">
-        <v>96</v>
+        <v>96.1</v>
       </c>
       <c r="D1668" t="s">
         <v>218</v>
@@ -29868,7 +29874,7 @@
         <v>230</v>
       </c>
       <c r="C1669" t="n">
-        <v>97.3</v>
+        <v>97.4</v>
       </c>
       <c r="D1669" t="s">
         <v>231</v>
@@ -29885,7 +29891,7 @@
         <v>232</v>
       </c>
       <c r="C1670" t="n">
-        <v>96.9</v>
+        <v>97</v>
       </c>
       <c r="D1670" t="s">
         <v>231</v>
@@ -29902,7 +29908,7 @@
         <v>233</v>
       </c>
       <c r="C1671" t="n">
-        <v>99</v>
+        <v>99.1</v>
       </c>
       <c r="D1671" t="s">
         <v>231</v>
@@ -29953,7 +29959,7 @@
         <v>236</v>
       </c>
       <c r="C1674" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="D1674" t="s">
         <v>231</v>
@@ -30038,7 +30044,7 @@
         <v>241</v>
       </c>
       <c r="C1679" t="n">
-        <v>96.9</v>
+        <v>97</v>
       </c>
       <c r="D1679" t="s">
         <v>231</v>
@@ -30106,7 +30112,7 @@
         <v>246</v>
       </c>
       <c r="C1683" t="n">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="D1683" t="s">
         <v>244</v>
@@ -30123,7 +30129,7 @@
         <v>247</v>
       </c>
       <c r="C1684" t="n">
-        <v>100.6</v>
+        <v>100.7</v>
       </c>
       <c r="D1684" t="s">
         <v>244</v>
@@ -30174,7 +30180,7 @@
         <v>250</v>
       </c>
       <c r="C1687" t="n">
-        <v>102.6</v>
+        <v>102.7</v>
       </c>
       <c r="D1687" t="s">
         <v>244</v>
@@ -30225,7 +30231,7 @@
         <v>253</v>
       </c>
       <c r="C1690" t="n">
-        <v>103.4</v>
+        <v>103.5</v>
       </c>
       <c r="D1690" t="s">
         <v>244</v>
@@ -30242,7 +30248,7 @@
         <v>254</v>
       </c>
       <c r="C1691" t="n">
-        <v>105.9</v>
+        <v>106</v>
       </c>
       <c r="D1691" t="s">
         <v>244</v>
@@ -30293,7 +30299,7 @@
         <v>258</v>
       </c>
       <c r="C1694" t="n">
-        <v>103.3</v>
+        <v>103.4</v>
       </c>
       <c r="D1694" t="s">
         <v>257</v>
@@ -30344,7 +30350,7 @@
         <v>261</v>
       </c>
       <c r="C1697" t="n">
-        <v>104.4</v>
+        <v>104.5</v>
       </c>
       <c r="D1697" t="s">
         <v>257</v>
@@ -30361,7 +30367,7 @@
         <v>262</v>
       </c>
       <c r="C1698" t="n">
-        <v>104.5</v>
+        <v>104.6</v>
       </c>
       <c r="D1698" t="s">
         <v>257</v>
@@ -30395,7 +30401,7 @@
         <v>264</v>
       </c>
       <c r="C1700" t="n">
-        <v>102.1</v>
+        <v>102.2</v>
       </c>
       <c r="D1700" t="s">
         <v>257</v>
@@ -30429,7 +30435,7 @@
         <v>266</v>
       </c>
       <c r="C1702" t="n">
-        <v>101.5</v>
+        <v>101.6</v>
       </c>
       <c r="D1702" t="s">
         <v>257</v>
@@ -30480,7 +30486,7 @@
         <v>269</v>
       </c>
       <c r="C1705" t="n">
-        <v>101.5</v>
+        <v>101.6</v>
       </c>
       <c r="D1705" t="s">
         <v>270</v>
@@ -30497,7 +30503,7 @@
         <v>271</v>
       </c>
       <c r="C1706" t="n">
-        <v>101</v>
+        <v>101.1</v>
       </c>
       <c r="D1706" t="s">
         <v>270</v>
@@ -30514,7 +30520,7 @@
         <v>272</v>
       </c>
       <c r="C1707" t="n">
-        <v>101.8</v>
+        <v>101.9</v>
       </c>
       <c r="D1707" t="s">
         <v>270</v>
@@ -30548,7 +30554,7 @@
         <v>274</v>
       </c>
       <c r="C1709" t="n">
-        <v>101.3</v>
+        <v>101.2</v>
       </c>
       <c r="D1709" t="s">
         <v>270</v>
@@ -30820,7 +30826,7 @@
         <v>291</v>
       </c>
       <c r="C1725" t="n">
-        <v>102.7</v>
+        <v>102.8</v>
       </c>
       <c r="D1725" t="s">
         <v>283</v>
@@ -30854,7 +30860,7 @@
         <v>293</v>
       </c>
       <c r="C1727" t="n">
-        <v>103.8</v>
+        <v>103.6</v>
       </c>
       <c r="D1727" t="s">
         <v>283</v>
@@ -30956,7 +30962,7 @@
         <v>300</v>
       </c>
       <c r="C1733" t="n">
-        <v>107.3</v>
+        <v>107.6</v>
       </c>
       <c r="D1733" t="s">
         <v>296</v>
@@ -30990,7 +30996,7 @@
         <v>302</v>
       </c>
       <c r="C1735" t="n">
-        <v>104.2</v>
+        <v>104.3</v>
       </c>
       <c r="D1735" t="s">
         <v>296</v>
@@ -31058,7 +31064,7 @@
         <v>306</v>
       </c>
       <c r="C1739" t="n">
-        <v>106.6</v>
+        <v>106.7</v>
       </c>
       <c r="D1739" t="s">
         <v>296</v>
@@ -31126,7 +31132,7 @@
         <v>311</v>
       </c>
       <c r="C1743" t="n">
-        <v>103.4</v>
+        <v>103.5</v>
       </c>
       <c r="D1743" t="s">
         <v>309</v>
@@ -31143,7 +31149,7 @@
         <v>312</v>
       </c>
       <c r="C1744" t="n">
-        <v>103.5</v>
+        <v>103.6</v>
       </c>
       <c r="D1744" t="s">
         <v>309</v>
@@ -31160,7 +31166,7 @@
         <v>313</v>
       </c>
       <c r="C1745" t="n">
-        <v>103</v>
+        <v>103.1</v>
       </c>
       <c r="D1745" t="s">
         <v>309</v>
@@ -31194,7 +31200,7 @@
         <v>315</v>
       </c>
       <c r="C1747" t="n">
-        <v>102.4</v>
+        <v>102.3</v>
       </c>
       <c r="D1747" t="s">
         <v>309</v>
@@ -31211,7 +31217,7 @@
         <v>316</v>
       </c>
       <c r="C1748" t="n">
-        <v>104.2</v>
+        <v>104.3</v>
       </c>
       <c r="D1748" t="s">
         <v>309</v>
@@ -31245,7 +31251,7 @@
         <v>318</v>
       </c>
       <c r="C1750" t="n">
-        <v>101.4</v>
+        <v>101.5</v>
       </c>
       <c r="D1750" t="s">
         <v>309</v>
@@ -31262,7 +31268,7 @@
         <v>319</v>
       </c>
       <c r="C1751" t="n">
-        <v>100.8</v>
+        <v>100.9</v>
       </c>
       <c r="D1751" t="s">
         <v>309</v>
@@ -31279,7 +31285,7 @@
         <v>320</v>
       </c>
       <c r="C1752" t="n">
-        <v>98.6</v>
+        <v>98.7</v>
       </c>
       <c r="D1752" t="s">
         <v>309</v>
@@ -31296,7 +31302,7 @@
         <v>321</v>
       </c>
       <c r="C1753" t="n">
-        <v>97.4</v>
+        <v>97.5</v>
       </c>
       <c r="D1753" t="s">
         <v>322</v>
@@ -31313,7 +31319,7 @@
         <v>323</v>
       </c>
       <c r="C1754" t="n">
-        <v>97.5</v>
+        <v>97.7</v>
       </c>
       <c r="D1754" t="s">
         <v>322</v>
@@ -31330,7 +31336,7 @@
         <v>324</v>
       </c>
       <c r="C1755" t="n">
-        <v>99.8</v>
+        <v>99.9</v>
       </c>
       <c r="D1755" t="s">
         <v>322</v>
@@ -31347,7 +31353,7 @@
         <v>325</v>
       </c>
       <c r="C1756" t="n">
-        <v>100.6</v>
+        <v>100.7</v>
       </c>
       <c r="D1756" t="s">
         <v>322</v>
@@ -31398,7 +31404,7 @@
         <v>328</v>
       </c>
       <c r="C1759" t="n">
-        <v>101.4</v>
+        <v>101.5</v>
       </c>
       <c r="D1759" t="s">
         <v>322</v>
@@ -31466,7 +31472,7 @@
         <v>332</v>
       </c>
       <c r="C1763" t="n">
-        <v>97.6</v>
+        <v>97.7</v>
       </c>
       <c r="D1763" t="s">
         <v>322</v>
@@ -31483,7 +31489,7 @@
         <v>333</v>
       </c>
       <c r="C1764" t="n">
-        <v>97.7</v>
+        <v>97.8</v>
       </c>
       <c r="D1764" t="s">
         <v>322</v>
@@ -31534,7 +31540,7 @@
         <v>337</v>
       </c>
       <c r="C1767" t="n">
-        <v>95.7</v>
+        <v>95.8</v>
       </c>
       <c r="D1767" t="s">
         <v>335</v>
@@ -31551,7 +31557,7 @@
         <v>338</v>
       </c>
       <c r="C1768" t="n">
-        <v>84.7</v>
+        <v>85</v>
       </c>
       <c r="D1768" t="s">
         <v>335</v>
@@ -31585,7 +31591,7 @@
         <v>340</v>
       </c>
       <c r="C1770" t="n">
-        <v>90.5</v>
+        <v>90.6</v>
       </c>
       <c r="D1770" t="s">
         <v>335</v>
@@ -31602,7 +31608,7 @@
         <v>341</v>
       </c>
       <c r="C1771" t="n">
-        <v>92</v>
+        <v>92.1</v>
       </c>
       <c r="D1771" t="s">
         <v>335</v>
@@ -31619,7 +31625,7 @@
         <v>342</v>
       </c>
       <c r="C1772" t="n">
-        <v>92.1</v>
+        <v>92.2</v>
       </c>
       <c r="D1772" t="s">
         <v>335</v>
@@ -31636,7 +31642,7 @@
         <v>343</v>
       </c>
       <c r="C1773" t="n">
-        <v>94.8</v>
+        <v>94.9</v>
       </c>
       <c r="D1773" t="s">
         <v>335</v>
@@ -31653,7 +31659,7 @@
         <v>344</v>
       </c>
       <c r="C1774" t="n">
-        <v>96.6</v>
+        <v>96.8</v>
       </c>
       <c r="D1774" t="s">
         <v>335</v>
@@ -31670,7 +31676,7 @@
         <v>345</v>
       </c>
       <c r="C1775" t="n">
-        <v>95.3</v>
+        <v>95.5</v>
       </c>
       <c r="D1775" t="s">
         <v>335</v>
@@ -31687,7 +31693,7 @@
         <v>346</v>
       </c>
       <c r="C1776" t="n">
-        <v>97.1</v>
+        <v>97.2</v>
       </c>
       <c r="D1776" t="s">
         <v>335</v>
@@ -31704,7 +31710,7 @@
         <v>347</v>
       </c>
       <c r="C1777" t="n">
-        <v>99.2</v>
+        <v>99.3</v>
       </c>
       <c r="D1777" t="s">
         <v>348</v>
@@ -31721,7 +31727,7 @@
         <v>349</v>
       </c>
       <c r="C1778" t="n">
-        <v>100.8</v>
+        <v>101.1</v>
       </c>
       <c r="D1778" t="s">
         <v>348</v>
@@ -31738,7 +31744,7 @@
         <v>350</v>
       </c>
       <c r="C1779" t="n">
-        <v>101.8</v>
+        <v>101.9</v>
       </c>
       <c r="D1779" t="s">
         <v>348</v>
@@ -31755,7 +31761,7 @@
         <v>351</v>
       </c>
       <c r="C1780" t="n">
-        <v>104.7</v>
+        <v>104.8</v>
       </c>
       <c r="D1780" t="s">
         <v>348</v>
@@ -31789,7 +31795,7 @@
         <v>353</v>
       </c>
       <c r="C1782" t="n">
-        <v>107.1</v>
+        <v>107</v>
       </c>
       <c r="D1782" t="s">
         <v>348</v>
@@ -31840,7 +31846,7 @@
         <v>356</v>
       </c>
       <c r="C1785" t="n">
-        <v>107.9</v>
+        <v>108</v>
       </c>
       <c r="D1785" t="s">
         <v>348</v>
@@ -31857,7 +31863,7 @@
         <v>357</v>
       </c>
       <c r="C1786" t="n">
-        <v>106.3</v>
+        <v>106.4</v>
       </c>
       <c r="D1786" t="s">
         <v>348</v>
@@ -31874,7 +31880,7 @@
         <v>358</v>
       </c>
       <c r="C1787" t="n">
-        <v>102.8</v>
+        <v>103.1</v>
       </c>
       <c r="D1787" t="s">
         <v>348</v>
@@ -31891,7 +31897,7 @@
         <v>359</v>
       </c>
       <c r="C1788" t="n">
-        <v>101.7</v>
+        <v>101.9</v>
       </c>
       <c r="D1788" t="s">
         <v>348</v>
@@ -31908,7 +31914,7 @@
         <v>360</v>
       </c>
       <c r="C1789" t="n">
-        <v>96.8</v>
+        <v>96.5</v>
       </c>
       <c r="D1789" t="s">
         <v>361</v>
@@ -31942,7 +31948,7 @@
         <v>363</v>
       </c>
       <c r="C1791" t="n">
-        <v>85.3</v>
+        <v>85.4</v>
       </c>
       <c r="D1791" t="s">
         <v>361</v>
@@ -31959,7 +31965,7 @@
         <v>364</v>
       </c>
       <c r="C1792" t="n">
-        <v>84.3</v>
+        <v>84.6</v>
       </c>
       <c r="D1792" t="s">
         <v>361</v>
@@ -31976,7 +31982,7 @@
         <v>365</v>
       </c>
       <c r="C1793" t="n">
-        <v>79.9</v>
+        <v>80</v>
       </c>
       <c r="D1793" t="s">
         <v>361</v>
@@ -31993,7 +31999,7 @@
         <v>366</v>
       </c>
       <c r="C1794" t="n">
-        <v>76.9</v>
+        <v>76.5</v>
       </c>
       <c r="D1794" t="s">
         <v>361</v>
@@ -32010,7 +32016,7 @@
         <v>367</v>
       </c>
       <c r="C1795" t="n">
-        <v>70.1</v>
+        <v>70.2</v>
       </c>
       <c r="D1795" t="s">
         <v>361</v>
@@ -32027,7 +32033,7 @@
         <v>368</v>
       </c>
       <c r="C1796" t="n">
-        <v>70</v>
+        <v>70.1</v>
       </c>
       <c r="D1796" t="s">
         <v>361</v>
@@ -32044,7 +32050,7 @@
         <v>369</v>
       </c>
       <c r="C1797" t="n">
-        <v>64.8</v>
+        <v>64.9</v>
       </c>
       <c r="D1797" t="s">
         <v>361</v>
@@ -32061,7 +32067,7 @@
         <v>370</v>
       </c>
       <c r="C1798" t="n">
-        <v>62.6</v>
+        <v>62.8</v>
       </c>
       <c r="D1798" t="s">
         <v>361</v>
@@ -32078,7 +32084,7 @@
         <v>371</v>
       </c>
       <c r="C1799" t="n">
-        <v>66</v>
+        <v>66.4</v>
       </c>
       <c r="D1799" t="s">
         <v>361</v>
@@ -32095,7 +32101,7 @@
         <v>372</v>
       </c>
       <c r="C1800" t="n">
-        <v>63.9</v>
+        <v>64.2</v>
       </c>
       <c r="D1800" t="s">
         <v>361</v>
@@ -32129,7 +32135,7 @@
         <v>375</v>
       </c>
       <c r="C1802" t="n">
-        <v>66.9</v>
+        <v>67.1</v>
       </c>
       <c r="D1802" t="s">
         <v>374</v>
@@ -32146,7 +32152,7 @@
         <v>376</v>
       </c>
       <c r="C1803" t="n">
-        <v>68.6</v>
+        <v>68.8</v>
       </c>
       <c r="D1803" t="s">
         <v>374</v>
@@ -32163,7 +32169,7 @@
         <v>377</v>
       </c>
       <c r="C1804" t="n">
-        <v>69.7</v>
+        <v>69.9</v>
       </c>
       <c r="D1804" t="s">
         <v>374</v>
@@ -32180,7 +32186,7 @@
         <v>378</v>
       </c>
       <c r="C1805" t="n">
-        <v>73</v>
+        <v>73.2</v>
       </c>
       <c r="D1805" t="s">
         <v>374</v>
@@ -32197,7 +32203,7 @@
         <v>379</v>
       </c>
       <c r="C1806" t="n">
-        <v>74.1</v>
+        <v>74.3</v>
       </c>
       <c r="D1806" t="s">
         <v>374</v>
@@ -32214,7 +32220,7 @@
         <v>380</v>
       </c>
       <c r="C1807" t="n">
-        <v>73.9</v>
+        <v>74.1</v>
       </c>
       <c r="D1807" t="s">
         <v>374</v>
@@ -32231,7 +32237,7 @@
         <v>381</v>
       </c>
       <c r="C1808" t="n">
-        <v>71.8</v>
+        <v>72</v>
       </c>
       <c r="D1808" t="s">
         <v>374</v>
@@ -32282,7 +32288,7 @@
         <v>385</v>
       </c>
       <c r="C1811" t="n">
-        <v>84.9</v>
+        <v>85.4</v>
       </c>
       <c r="D1811" t="s">
         <v>374</v>
@@ -32299,7 +32305,7 @@
         <v>386</v>
       </c>
       <c r="C1812" t="n">
-        <v>84.3</v>
+        <v>84.7</v>
       </c>
       <c r="D1812" t="s">
         <v>374</v>
@@ -32310,19 +32316,19 @@
     </row>
     <row r="1813">
       <c r="A1813" t="s">
-        <v>192</v>
+        <v>5</v>
       </c>
       <c r="B1813" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C1813" t="n">
-        <v>100.5</v>
+        <v>90.5</v>
       </c>
       <c r="D1813" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="E1813" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1814">
@@ -32330,16 +32336,16 @@
         <v>192</v>
       </c>
       <c r="B1814" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C1814" t="n">
-        <v>99.4</v>
+        <v>100.5</v>
       </c>
       <c r="D1814" t="s">
         <v>374</v>
       </c>
       <c r="E1814" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1815">
@@ -32347,16 +32353,16 @@
         <v>192</v>
       </c>
       <c r="B1815" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C1815" t="n">
-        <v>99.1</v>
+        <v>99.4</v>
       </c>
       <c r="D1815" t="s">
         <v>374</v>
       </c>
       <c r="E1815" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1816">
@@ -32364,50 +32370,50 @@
         <v>192</v>
       </c>
       <c r="B1816" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C1816" t="n">
-        <v>95.1</v>
+        <v>99.5</v>
       </c>
       <c r="D1816" t="s">
         <v>374</v>
       </c>
       <c r="E1816" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1817">
       <c r="A1817" t="s">
-        <v>382</v>
+        <v>192</v>
       </c>
       <c r="B1817" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C1817" t="n">
-        <v>84.6</v>
+        <v>95.1</v>
       </c>
       <c r="D1817" t="s">
         <v>374</v>
       </c>
       <c r="E1817" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1818">
       <c r="A1818" t="s">
-        <v>382</v>
+        <v>192</v>
       </c>
       <c r="B1818" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C1818" t="n">
-        <v>83.9</v>
+        <v>99.3</v>
       </c>
       <c r="D1818" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="E1818" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1819">
@@ -32415,16 +32421,16 @@
         <v>382</v>
       </c>
       <c r="B1819" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C1819" t="n">
-        <v>83.8</v>
+        <v>84.8</v>
       </c>
       <c r="D1819" t="s">
         <v>374</v>
       </c>
       <c r="E1819" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1820">
@@ -32432,67 +32438,67 @@
         <v>382</v>
       </c>
       <c r="B1820" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C1820" t="n">
-        <v>86.1</v>
+        <v>84.1</v>
       </c>
       <c r="D1820" t="s">
         <v>374</v>
       </c>
       <c r="E1820" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1821">
       <c r="A1821" t="s">
-        <v>198</v>
+        <v>382</v>
       </c>
       <c r="B1821" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C1821" t="n">
-        <v>84.3</v>
+        <v>83.8</v>
       </c>
       <c r="D1821" t="s">
         <v>374</v>
       </c>
       <c r="E1821" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1822">
       <c r="A1822" t="s">
-        <v>198</v>
+        <v>382</v>
       </c>
       <c r="B1822" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C1822" t="n">
-        <v>91.2</v>
+        <v>85.8</v>
       </c>
       <c r="D1822" t="s">
         <v>374</v>
       </c>
       <c r="E1822" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1823">
       <c r="A1823" t="s">
-        <v>198</v>
+        <v>382</v>
       </c>
       <c r="B1823" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C1823" t="n">
-        <v>88.3</v>
+        <v>83.6</v>
       </c>
       <c r="D1823" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="E1823" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1824">
@@ -32500,95 +32506,95 @@
         <v>198</v>
       </c>
       <c r="B1824" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C1824" t="n">
-        <v>92.1</v>
+        <v>84.3</v>
       </c>
       <c r="D1824" t="s">
         <v>374</v>
       </c>
       <c r="E1824" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1825">
       <c r="A1825" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B1825" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C1825" t="n">
-        <v>85.8</v>
+        <v>91.1</v>
       </c>
       <c r="D1825" t="s">
         <v>374</v>
       </c>
       <c r="E1825" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1826">
       <c r="A1826" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B1826" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C1826" t="n">
-        <v>83.4</v>
+        <v>88.5</v>
       </c>
       <c r="D1826" t="s">
         <v>374</v>
       </c>
       <c r="E1826" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1827">
       <c r="A1827" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B1827" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C1827" t="n">
-        <v>83</v>
+        <v>92.7</v>
       </c>
       <c r="D1827" t="s">
         <v>374</v>
       </c>
       <c r="E1827" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1828">
       <c r="A1828" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B1828" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C1828" t="n">
-        <v>85.3</v>
+        <v>96</v>
       </c>
       <c r="D1828" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="E1828" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1829">
       <c r="A1829" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B1829" t="s">
         <v>383</v>
       </c>
       <c r="C1829" t="n">
-        <v>70.7</v>
+        <v>85.8</v>
       </c>
       <c r="D1829" t="s">
         <v>374</v>
@@ -32599,13 +32605,13 @@
     </row>
     <row r="1830">
       <c r="A1830" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B1830" t="s">
         <v>384</v>
       </c>
       <c r="C1830" t="n">
-        <v>71.4</v>
+        <v>83.4</v>
       </c>
       <c r="D1830" t="s">
         <v>374</v>
@@ -32616,13 +32622,13 @@
     </row>
     <row r="1831">
       <c r="A1831" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B1831" t="s">
         <v>385</v>
       </c>
       <c r="C1831" t="n">
-        <v>73.2</v>
+        <v>83.2</v>
       </c>
       <c r="D1831" t="s">
         <v>374</v>
@@ -32633,19 +32639,121 @@
     </row>
     <row r="1832">
       <c r="A1832" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B1832" t="s">
         <v>386</v>
       </c>
       <c r="C1832" t="n">
-        <v>74.5</v>
+        <v>85.9</v>
       </c>
       <c r="D1832" t="s">
         <v>374</v>
       </c>
       <c r="E1832" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="1833">
+      <c r="A1833" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1833" t="s">
+        <v>387</v>
+      </c>
+      <c r="C1833" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="D1833" t="s">
+        <v>388</v>
+      </c>
+      <c r="E1833" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1834">
+      <c r="A1834" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1834" t="s">
+        <v>383</v>
+      </c>
+      <c r="C1834" t="n">
+        <v>70.7</v>
+      </c>
+      <c r="D1834" t="s">
+        <v>374</v>
+      </c>
+      <c r="E1834" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1835">
+      <c r="A1835" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1835" t="s">
+        <v>384</v>
+      </c>
+      <c r="C1835" t="n">
+        <v>71.6</v>
+      </c>
+      <c r="D1835" t="s">
+        <v>374</v>
+      </c>
+      <c r="E1835" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1836">
+      <c r="A1836" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1836" t="s">
+        <v>385</v>
+      </c>
+      <c r="C1836" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="D1836" t="s">
+        <v>374</v>
+      </c>
+      <c r="E1836" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1837">
+      <c r="A1837" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1837" t="s">
+        <v>386</v>
+      </c>
+      <c r="C1837" t="n">
+        <v>74.8</v>
+      </c>
+      <c r="D1837" t="s">
+        <v>374</v>
+      </c>
+      <c r="E1837" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1838">
+      <c r="A1838" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1838" t="s">
+        <v>387</v>
+      </c>
+      <c r="C1838" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="D1838" t="s">
+        <v>388</v>
+      </c>
+      <c r="E1838" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
